--- a/ScrumBacklog.xlsx
+++ b/ScrumBacklog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xim\muistutussovellus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B7A3219-13B2-4D14-B6E4-C2BEB50D8220}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C884B83-0AD5-4A65-9A55-86F1C96BDE8F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="14400" windowHeight="8355" tabRatio="700" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="700" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Yhteenveto" sheetId="16" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1531" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="580">
   <si>
     <t>Päivitetty</t>
   </si>
@@ -1794,6 +1794,45 @@
   </si>
   <si>
     <t>11.7</t>
+  </si>
+  <si>
+    <t>Määrittelykuvaston päivitys asiakkaan toiveiden mukaiseksi</t>
+  </si>
+  <si>
+    <t>22.4.2020     15 min</t>
+  </si>
+  <si>
+    <t>26.2.2020     15 min</t>
+  </si>
+  <si>
+    <t>29.4.2020     15 min</t>
+  </si>
+  <si>
+    <t>3.5.2020        15  min</t>
+  </si>
+  <si>
+    <t>6.5.2020        15 min</t>
+  </si>
+  <si>
+    <t>10.5.2020     15 min</t>
+  </si>
+  <si>
+    <t>13.5.2020      15 min</t>
+  </si>
+  <si>
+    <t>17.5.2020     15 min</t>
+  </si>
+  <si>
+    <t>Log In -sivun päivitys</t>
+  </si>
+  <si>
+    <t>Sivujen pohjien luonti</t>
+  </si>
+  <si>
+    <t>Product Backlogin päivitys</t>
+  </si>
+  <si>
+    <t>Uudet värimaailmat, taustakuvaehdotukset, ilotulitusanimaatio</t>
   </si>
 </sst>
 </file>
@@ -3302,7 +3341,7 @@
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="576">
+  <cellXfs count="579">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4355,6 +4394,120 @@
     <xf numFmtId="0" fontId="48" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="31" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4388,12 +4541,6 @@
     <xf numFmtId="0" fontId="7" fillId="31" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4406,116 +4553,38 @@
     <xf numFmtId="0" fontId="5" fillId="31" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="31" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="31" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="29" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="29" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="29" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="31" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="31" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="31" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="31" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="167" fontId="55" fillId="33" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="55" fillId="33" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="55" fillId="33" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="55" fillId="33" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4535,86 +4604,128 @@
     <xf numFmtId="0" fontId="56" fillId="27" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="55" fillId="33" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="55" fillId="33" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="55" fillId="33" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="29" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="29" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="29" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="48" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="24" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="24" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="48" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="35" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="35" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="49" fillId="24" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="24" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="31" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="24" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="15" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="15" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="32" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="32" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="48" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="48" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="48" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="48" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="50" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -4622,71 +4733,74 @@
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="15" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="29" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="29" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="31" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="31" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="31" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="31" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="31" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="15" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="31" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="32" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="31" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="32" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="31" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="35" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="35" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="49" fillId="24" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="31" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="31" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="31" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="31" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="31" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="31" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -4721,95 +4835,32 @@
     <xf numFmtId="0" fontId="7" fillId="29" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="31" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="31" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="15" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="15" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="31" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="15" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="31" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="31" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="31" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="31" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="31" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="31" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="31" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="29" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="29" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="31" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="31" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="31" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="15" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="1" fillId="29" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="29" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="15" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="15" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="171" fontId="9" fillId="31" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4823,19 +4874,73 @@
     <xf numFmtId="166" fontId="34" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="29" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="29" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="25" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="28" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4844,65 +4949,56 @@
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="28" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="25" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -4928,56 +5024,8 @@
     <xf numFmtId="0" fontId="7" fillId="29" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -12220,20 +12268,20 @@
     </row>
     <row r="2" spans="1:25" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A2" s="31"/>
-      <c r="B2" s="369" t="s">
+      <c r="B2" s="407" t="s">
         <v>497</v>
       </c>
-      <c r="C2" s="370"/>
-      <c r="D2" s="370"/>
-      <c r="E2" s="370"/>
-      <c r="F2" s="370"/>
-      <c r="G2" s="371"/>
-      <c r="H2" s="372"/>
-      <c r="I2" s="372"/>
-      <c r="J2" s="372"/>
-      <c r="K2" s="372"/>
-      <c r="L2" s="370"/>
-      <c r="M2" s="373"/>
+      <c r="C2" s="408"/>
+      <c r="D2" s="408"/>
+      <c r="E2" s="408"/>
+      <c r="F2" s="408"/>
+      <c r="G2" s="409"/>
+      <c r="H2" s="410"/>
+      <c r="I2" s="410"/>
+      <c r="J2" s="410"/>
+      <c r="K2" s="410"/>
+      <c r="L2" s="408"/>
+      <c r="M2" s="411"/>
       <c r="N2" s="32"/>
       <c r="O2" s="29"/>
       <c r="P2" s="29"/>
@@ -12249,19 +12297,19 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="33"/>
-      <c r="B3" s="374" t="s">
+      <c r="B3" s="412" t="s">
         <v>486</v>
       </c>
-      <c r="C3" s="375"/>
-      <c r="D3" s="375"/>
-      <c r="E3" s="375"/>
-      <c r="F3" s="375"/>
-      <c r="G3" s="375"/>
-      <c r="H3" s="375"/>
-      <c r="I3" s="375"/>
-      <c r="J3" s="375"/>
-      <c r="K3" s="375"/>
-      <c r="L3" s="376"/>
+      <c r="C3" s="413"/>
+      <c r="D3" s="413"/>
+      <c r="E3" s="413"/>
+      <c r="F3" s="413"/>
+      <c r="G3" s="413"/>
+      <c r="H3" s="413"/>
+      <c r="I3" s="413"/>
+      <c r="J3" s="413"/>
+      <c r="K3" s="413"/>
+      <c r="L3" s="414"/>
       <c r="M3" s="34" t="s">
         <v>0</v>
       </c>
@@ -12280,17 +12328,17 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="33"/>
-      <c r="B4" s="374"/>
-      <c r="C4" s="375"/>
-      <c r="D4" s="375"/>
-      <c r="E4" s="375"/>
-      <c r="F4" s="375"/>
-      <c r="G4" s="375"/>
-      <c r="H4" s="375"/>
-      <c r="I4" s="375"/>
-      <c r="J4" s="375"/>
-      <c r="K4" s="375"/>
-      <c r="L4" s="376"/>
+      <c r="B4" s="412"/>
+      <c r="C4" s="413"/>
+      <c r="D4" s="413"/>
+      <c r="E4" s="413"/>
+      <c r="F4" s="413"/>
+      <c r="G4" s="413"/>
+      <c r="H4" s="413"/>
+      <c r="I4" s="413"/>
+      <c r="J4" s="413"/>
+      <c r="K4" s="413"/>
+      <c r="L4" s="414"/>
       <c r="M4" s="175">
         <v>43920</v>
       </c>
@@ -12343,19 +12391,19 @@
       <c r="B6" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="377" t="s">
+      <c r="C6" s="384" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="378"/>
-      <c r="E6" s="378"/>
-      <c r="F6" s="378"/>
-      <c r="G6" s="378"/>
-      <c r="H6" s="378"/>
-      <c r="I6" s="378"/>
-      <c r="J6" s="378"/>
-      <c r="K6" s="378"/>
-      <c r="L6" s="378"/>
-      <c r="M6" s="379"/>
+      <c r="D6" s="385"/>
+      <c r="E6" s="385"/>
+      <c r="F6" s="385"/>
+      <c r="G6" s="385"/>
+      <c r="H6" s="385"/>
+      <c r="I6" s="385"/>
+      <c r="J6" s="385"/>
+      <c r="K6" s="385"/>
+      <c r="L6" s="385"/>
+      <c r="M6" s="415"/>
       <c r="N6" s="32"/>
       <c r="O6" s="29"/>
       <c r="P6" s="29"/>
@@ -12374,19 +12422,19 @@
       <c r="B7" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="380" t="s">
+      <c r="C7" s="416" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="381"/>
-      <c r="E7" s="381"/>
-      <c r="F7" s="381"/>
-      <c r="G7" s="381"/>
-      <c r="H7" s="381"/>
-      <c r="I7" s="381"/>
-      <c r="J7" s="381"/>
-      <c r="K7" s="381"/>
-      <c r="L7" s="381"/>
-      <c r="M7" s="382"/>
+      <c r="D7" s="417"/>
+      <c r="E7" s="417"/>
+      <c r="F7" s="417"/>
+      <c r="G7" s="417"/>
+      <c r="H7" s="417"/>
+      <c r="I7" s="417"/>
+      <c r="J7" s="417"/>
+      <c r="K7" s="417"/>
+      <c r="L7" s="417"/>
+      <c r="M7" s="418"/>
       <c r="N7" s="32"/>
       <c r="O7" s="29"/>
       <c r="P7" s="29"/>
@@ -12405,19 +12453,19 @@
       <c r="B8" s="39" t="s">
         <v>487</v>
       </c>
-      <c r="C8" s="380" t="s">
+      <c r="C8" s="416" t="s">
         <v>488</v>
       </c>
-      <c r="D8" s="381"/>
-      <c r="E8" s="381"/>
-      <c r="F8" s="381"/>
-      <c r="G8" s="381"/>
-      <c r="H8" s="381"/>
-      <c r="I8" s="381"/>
-      <c r="J8" s="381"/>
-      <c r="K8" s="381"/>
-      <c r="L8" s="381"/>
-      <c r="M8" s="382"/>
+      <c r="D8" s="417"/>
+      <c r="E8" s="417"/>
+      <c r="F8" s="417"/>
+      <c r="G8" s="417"/>
+      <c r="H8" s="417"/>
+      <c r="I8" s="417"/>
+      <c r="J8" s="417"/>
+      <c r="K8" s="417"/>
+      <c r="L8" s="417"/>
+      <c r="M8" s="418"/>
       <c r="N8" s="32"/>
       <c r="O8" s="29"/>
       <c r="P8" s="29"/>
@@ -12436,19 +12484,19 @@
       <c r="B9" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="380" t="s">
+      <c r="C9" s="416" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="381"/>
-      <c r="E9" s="381"/>
-      <c r="F9" s="381"/>
-      <c r="G9" s="381"/>
-      <c r="H9" s="381"/>
-      <c r="I9" s="381"/>
-      <c r="J9" s="381"/>
-      <c r="K9" s="381"/>
-      <c r="L9" s="381"/>
-      <c r="M9" s="382"/>
+      <c r="D9" s="417"/>
+      <c r="E9" s="417"/>
+      <c r="F9" s="417"/>
+      <c r="G9" s="417"/>
+      <c r="H9" s="417"/>
+      <c r="I9" s="417"/>
+      <c r="J9" s="417"/>
+      <c r="K9" s="417"/>
+      <c r="L9" s="417"/>
+      <c r="M9" s="418"/>
       <c r="N9" s="32"/>
       <c r="O9" s="29"/>
       <c r="P9" s="29"/>
@@ -12467,19 +12515,19 @@
       <c r="B10" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="366" t="s">
+      <c r="C10" s="404" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="367"/>
-      <c r="E10" s="367"/>
-      <c r="F10" s="367"/>
-      <c r="G10" s="367"/>
-      <c r="H10" s="367"/>
-      <c r="I10" s="367"/>
-      <c r="J10" s="367"/>
-      <c r="K10" s="367"/>
-      <c r="L10" s="367"/>
-      <c r="M10" s="368"/>
+      <c r="D10" s="405"/>
+      <c r="E10" s="405"/>
+      <c r="F10" s="405"/>
+      <c r="G10" s="405"/>
+      <c r="H10" s="405"/>
+      <c r="I10" s="405"/>
+      <c r="J10" s="405"/>
+      <c r="K10" s="405"/>
+      <c r="L10" s="405"/>
+      <c r="M10" s="406"/>
       <c r="N10" s="32"/>
       <c r="O10" s="29"/>
       <c r="P10" s="29"/>
@@ -12522,20 +12570,20 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="31"/>
-      <c r="B12" s="383" t="s">
+      <c r="B12" s="393" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="384"/>
-      <c r="D12" s="384"/>
-      <c r="E12" s="384"/>
-      <c r="F12" s="384"/>
-      <c r="G12" s="384"/>
-      <c r="H12" s="384"/>
-      <c r="I12" s="384"/>
-      <c r="J12" s="384"/>
-      <c r="K12" s="384"/>
-      <c r="L12" s="384"/>
-      <c r="M12" s="385"/>
+      <c r="C12" s="394"/>
+      <c r="D12" s="394"/>
+      <c r="E12" s="394"/>
+      <c r="F12" s="394"/>
+      <c r="G12" s="394"/>
+      <c r="H12" s="394"/>
+      <c r="I12" s="394"/>
+      <c r="J12" s="394"/>
+      <c r="K12" s="394"/>
+      <c r="L12" s="394"/>
+      <c r="M12" s="395"/>
       <c r="N12" s="32"/>
       <c r="O12" s="29"/>
       <c r="P12" s="29"/>
@@ -12560,14 +12608,14 @@
       <c r="D13" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="386" t="s">
+      <c r="E13" s="396" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="387"/>
-      <c r="G13" s="387"/>
-      <c r="H13" s="387"/>
-      <c r="I13" s="387"/>
-      <c r="J13" s="388"/>
+      <c r="F13" s="397"/>
+      <c r="G13" s="397"/>
+      <c r="H13" s="397"/>
+      <c r="I13" s="397"/>
+      <c r="J13" s="398"/>
       <c r="K13" s="293" t="s">
         <v>16</v>
       </c>
@@ -12585,38 +12633,38 @@
       <c r="S13" s="29"/>
       <c r="T13" s="29"/>
       <c r="U13" s="29"/>
-      <c r="V13" s="389"/>
-      <c r="W13" s="389"/>
-      <c r="X13" s="389"/>
+      <c r="V13" s="399"/>
+      <c r="W13" s="399"/>
+      <c r="X13" s="399"/>
       <c r="Y13" s="41"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="33"/>
-      <c r="B14" s="390">
+      <c r="B14" s="371">
         <v>1</v>
       </c>
-      <c r="C14" s="391">
+      <c r="C14" s="373">
         <v>43906</v>
       </c>
-      <c r="D14" s="391">
+      <c r="D14" s="373">
         <v>43941</v>
       </c>
-      <c r="E14" s="392" t="s">
+      <c r="E14" s="400" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="393"/>
-      <c r="G14" s="394"/>
-      <c r="H14" s="394"/>
-      <c r="I14" s="394"/>
-      <c r="J14" s="395"/>
-      <c r="K14" s="396" t="s">
+      <c r="F14" s="401"/>
+      <c r="G14" s="402"/>
+      <c r="H14" s="402"/>
+      <c r="I14" s="402"/>
+      <c r="J14" s="403"/>
+      <c r="K14" s="390" t="s">
         <v>385</v>
       </c>
-      <c r="L14" s="398">
+      <c r="L14" s="392">
         <f>'S1 - Backlog'!I19</f>
         <v>67</v>
       </c>
-      <c r="M14" s="400">
+      <c r="M14" s="368">
         <f>'S1 - Backlog'!J19</f>
         <v>1</v>
       </c>
@@ -12635,18 +12683,18 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="33"/>
-      <c r="B15" s="390"/>
-      <c r="C15" s="391"/>
-      <c r="D15" s="391"/>
-      <c r="E15" s="392"/>
-      <c r="F15" s="393"/>
-      <c r="G15" s="394"/>
-      <c r="H15" s="394"/>
-      <c r="I15" s="394"/>
-      <c r="J15" s="395"/>
-      <c r="K15" s="397"/>
-      <c r="L15" s="399"/>
-      <c r="M15" s="400"/>
+      <c r="B15" s="371"/>
+      <c r="C15" s="373"/>
+      <c r="D15" s="373"/>
+      <c r="E15" s="400"/>
+      <c r="F15" s="401"/>
+      <c r="G15" s="402"/>
+      <c r="H15" s="402"/>
+      <c r="I15" s="402"/>
+      <c r="J15" s="403"/>
+      <c r="K15" s="391"/>
+      <c r="L15" s="382"/>
+      <c r="M15" s="368"/>
       <c r="N15" s="32"/>
       <c r="O15" s="29"/>
       <c r="P15" s="29"/>
@@ -12662,29 +12710,29 @@
     </row>
     <row r="16" spans="1:25" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="33"/>
-      <c r="B16" s="390">
+      <c r="B16" s="371">
         <v>2</v>
       </c>
-      <c r="C16" s="391">
+      <c r="C16" s="373">
         <v>43941</v>
       </c>
-      <c r="D16" s="391">
+      <c r="D16" s="373">
         <v>43969</v>
       </c>
-      <c r="E16" s="377"/>
-      <c r="F16" s="378"/>
-      <c r="G16" s="378"/>
-      <c r="H16" s="378"/>
-      <c r="I16" s="378"/>
-      <c r="J16" s="403"/>
-      <c r="K16" s="396" t="s">
+      <c r="E16" s="384"/>
+      <c r="F16" s="385"/>
+      <c r="G16" s="385"/>
+      <c r="H16" s="385"/>
+      <c r="I16" s="385"/>
+      <c r="J16" s="386"/>
+      <c r="K16" s="390" t="s">
         <v>485</v>
       </c>
-      <c r="L16" s="398">
+      <c r="L16" s="392">
         <f>'S2 - Backlog'!I20</f>
         <v>87</v>
       </c>
-      <c r="M16" s="400">
+      <c r="M16" s="368">
         <f>'S2 - Backlog'!J20</f>
         <v>63</v>
       </c>
@@ -12703,18 +12751,18 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="33"/>
-      <c r="B17" s="401"/>
-      <c r="C17" s="402"/>
-      <c r="D17" s="402"/>
-      <c r="E17" s="404"/>
-      <c r="F17" s="405"/>
-      <c r="G17" s="405"/>
-      <c r="H17" s="405"/>
-      <c r="I17" s="405"/>
-      <c r="J17" s="406"/>
-      <c r="K17" s="397"/>
-      <c r="L17" s="399"/>
-      <c r="M17" s="400"/>
+      <c r="B17" s="372"/>
+      <c r="C17" s="383"/>
+      <c r="D17" s="383"/>
+      <c r="E17" s="387"/>
+      <c r="F17" s="388"/>
+      <c r="G17" s="388"/>
+      <c r="H17" s="388"/>
+      <c r="I17" s="388"/>
+      <c r="J17" s="389"/>
+      <c r="K17" s="391"/>
+      <c r="L17" s="382"/>
+      <c r="M17" s="368"/>
       <c r="N17" s="32"/>
       <c r="O17" s="29"/>
       <c r="P17" s="29"/>
@@ -12730,29 +12778,29 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="33"/>
-      <c r="B18" s="390">
+      <c r="B18" s="371">
         <v>3</v>
       </c>
-      <c r="C18" s="391">
+      <c r="C18" s="373">
         <v>43969</v>
       </c>
-      <c r="D18" s="391">
+      <c r="D18" s="373">
         <v>43997</v>
       </c>
-      <c r="E18" s="377"/>
-      <c r="F18" s="378"/>
-      <c r="G18" s="378"/>
-      <c r="H18" s="378"/>
-      <c r="I18" s="378"/>
-      <c r="J18" s="403"/>
-      <c r="K18" s="396" t="s">
+      <c r="E18" s="384"/>
+      <c r="F18" s="385"/>
+      <c r="G18" s="385"/>
+      <c r="H18" s="385"/>
+      <c r="I18" s="385"/>
+      <c r="J18" s="386"/>
+      <c r="K18" s="390" t="s">
         <v>385</v>
       </c>
-      <c r="L18" s="398">
+      <c r="L18" s="392">
         <f>'S3 - Backlog'!I18</f>
         <v>83</v>
       </c>
-      <c r="M18" s="398">
+      <c r="M18" s="392">
         <f>'S3 - Backlog'!J18</f>
         <v>83</v>
       </c>
@@ -12771,18 +12819,18 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="33"/>
-      <c r="B19" s="401"/>
-      <c r="C19" s="402"/>
-      <c r="D19" s="402"/>
-      <c r="E19" s="404"/>
-      <c r="F19" s="405"/>
-      <c r="G19" s="405"/>
-      <c r="H19" s="405"/>
-      <c r="I19" s="405"/>
-      <c r="J19" s="406"/>
-      <c r="K19" s="397"/>
-      <c r="L19" s="399"/>
-      <c r="M19" s="399"/>
+      <c r="B19" s="372"/>
+      <c r="C19" s="383"/>
+      <c r="D19" s="383"/>
+      <c r="E19" s="387"/>
+      <c r="F19" s="388"/>
+      <c r="G19" s="388"/>
+      <c r="H19" s="388"/>
+      <c r="I19" s="388"/>
+      <c r="J19" s="389"/>
+      <c r="K19" s="391"/>
+      <c r="L19" s="382"/>
+      <c r="M19" s="382"/>
       <c r="N19" s="32"/>
       <c r="O19" s="29"/>
       <c r="P19" s="29"/>
@@ -12798,20 +12846,20 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="33"/>
-      <c r="B20" s="390">
+      <c r="B20" s="371">
         <v>4</v>
       </c>
-      <c r="C20" s="391"/>
-      <c r="D20" s="391"/>
-      <c r="E20" s="409"/>
-      <c r="F20" s="410"/>
-      <c r="G20" s="410"/>
-      <c r="H20" s="410"/>
-      <c r="I20" s="410"/>
-      <c r="J20" s="411"/>
-      <c r="K20" s="415"/>
-      <c r="L20" s="399"/>
-      <c r="M20" s="400"/>
+      <c r="C20" s="373"/>
+      <c r="D20" s="373"/>
+      <c r="E20" s="374"/>
+      <c r="F20" s="375"/>
+      <c r="G20" s="375"/>
+      <c r="H20" s="375"/>
+      <c r="I20" s="375"/>
+      <c r="J20" s="376"/>
+      <c r="K20" s="380"/>
+      <c r="L20" s="382"/>
+      <c r="M20" s="368"/>
       <c r="N20" s="32"/>
       <c r="O20" s="29"/>
       <c r="P20" s="29"/>
@@ -12827,18 +12875,18 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="33"/>
-      <c r="B21" s="401"/>
-      <c r="C21" s="391"/>
-      <c r="D21" s="391"/>
-      <c r="E21" s="412"/>
-      <c r="F21" s="413"/>
-      <c r="G21" s="413"/>
-      <c r="H21" s="413"/>
-      <c r="I21" s="413"/>
-      <c r="J21" s="414"/>
-      <c r="K21" s="416"/>
-      <c r="L21" s="399"/>
-      <c r="M21" s="400"/>
+      <c r="B21" s="372"/>
+      <c r="C21" s="373"/>
+      <c r="D21" s="373"/>
+      <c r="E21" s="377"/>
+      <c r="F21" s="378"/>
+      <c r="G21" s="378"/>
+      <c r="H21" s="378"/>
+      <c r="I21" s="378"/>
+      <c r="J21" s="379"/>
+      <c r="K21" s="381"/>
+      <c r="L21" s="382"/>
+      <c r="M21" s="368"/>
       <c r="N21" s="32"/>
       <c r="O21" s="29"/>
       <c r="P21" s="29"/>
@@ -12881,13 +12929,13 @@
     </row>
     <row r="23" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="51"/>
-      <c r="B23" s="408" t="s">
+      <c r="B23" s="370" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="408"/>
-      <c r="D23" s="408"/>
-      <c r="E23" s="408"/>
-      <c r="F23" s="408"/>
+      <c r="C23" s="370"/>
+      <c r="D23" s="370"/>
+      <c r="E23" s="370"/>
+      <c r="F23" s="370"/>
       <c r="G23" s="254"/>
       <c r="H23" s="55"/>
       <c r="I23" s="55"/>
@@ -12910,7 +12958,7 @@
     </row>
     <row r="24" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="51"/>
-      <c r="B24" s="407" t="s">
+      <c r="B24" s="369" t="s">
         <v>21</v>
       </c>
       <c r="C24" s="258" t="s">
@@ -12947,7 +12995,7 @@
     </row>
     <row r="25" spans="1:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="51"/>
-      <c r="B25" s="407"/>
+      <c r="B25" s="369"/>
       <c r="C25" s="259" t="s">
         <v>26</v>
       </c>
@@ -13458,15 +13506,23 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="C10:M10"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:L4"/>
+    <mergeCell ref="C6:M6"/>
+    <mergeCell ref="C7:M7"/>
+    <mergeCell ref="C9:M9"/>
+    <mergeCell ref="C8:M8"/>
+    <mergeCell ref="B12:M12"/>
+    <mergeCell ref="E13:J13"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
     <mergeCell ref="M16:M17"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="C18:C19"/>
@@ -13481,23 +13537,15 @@
     <mergeCell ref="E16:J17"/>
     <mergeCell ref="K16:K17"/>
     <mergeCell ref="L16:L17"/>
-    <mergeCell ref="B12:M12"/>
-    <mergeCell ref="E13:J13"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="C10:M10"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:L4"/>
-    <mergeCell ref="C6:M6"/>
-    <mergeCell ref="C7:M7"/>
-    <mergeCell ref="C9:M9"/>
-    <mergeCell ref="C8:M8"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13546,14 +13594,14 @@
       <c r="C2" s="315" t="s">
         <v>227</v>
       </c>
-      <c r="D2" s="545" t="s">
+      <c r="D2" s="528" t="s">
         <v>228</v>
       </c>
-      <c r="E2" s="546"/>
-      <c r="F2" s="547" t="s">
+      <c r="E2" s="529"/>
+      <c r="F2" s="530" t="s">
         <v>229</v>
       </c>
-      <c r="G2" s="546"/>
+      <c r="G2" s="529"/>
       <c r="H2" s="315" t="s">
         <v>230</v>
       </c>
@@ -13575,14 +13623,14 @@
       <c r="C3" s="97" t="s">
         <v>232</v>
       </c>
-      <c r="D3" s="548" t="s">
+      <c r="D3" s="531" t="s">
         <v>233</v>
       </c>
-      <c r="E3" s="548"/>
-      <c r="F3" s="549" t="s">
+      <c r="E3" s="531"/>
+      <c r="F3" s="532" t="s">
         <v>234</v>
       </c>
-      <c r="G3" s="550"/>
+      <c r="G3" s="533"/>
       <c r="H3" s="98"/>
       <c r="I3" s="96"/>
       <c r="J3" s="99"/>
@@ -13596,10 +13644,10 @@
       <c r="A4" s="95"/>
       <c r="B4" s="96"/>
       <c r="C4" s="316"/>
-      <c r="D4" s="550"/>
-      <c r="E4" s="550"/>
-      <c r="F4" s="549"/>
-      <c r="G4" s="550"/>
+      <c r="D4" s="533"/>
+      <c r="E4" s="533"/>
+      <c r="F4" s="532"/>
+      <c r="G4" s="533"/>
       <c r="H4" s="98"/>
       <c r="I4" s="96"/>
       <c r="J4" s="101"/>
@@ -13662,10 +13710,10 @@
     </row>
     <row r="8" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="311"/>
-      <c r="B8" s="537" t="s">
+      <c r="B8" s="534" t="s">
         <v>92</v>
       </c>
-      <c r="C8" s="538"/>
+      <c r="C8" s="535"/>
       <c r="D8" s="106"/>
       <c r="E8" s="106"/>
       <c r="F8" s="111"/>
@@ -13703,10 +13751,10 @@
       <c r="B10" s="116" t="s">
         <v>235</v>
       </c>
-      <c r="C10" s="539" t="s">
+      <c r="C10" s="536" t="s">
         <v>96</v>
       </c>
-      <c r="D10" s="540"/>
+      <c r="D10" s="537"/>
       <c r="E10" s="314" t="s">
         <v>101</v>
       </c>
@@ -13735,16 +13783,16 @@
     </row>
     <row r="11" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="94"/>
-      <c r="B11" s="541" t="s">
+      <c r="B11" s="538" t="s">
         <v>239</v>
       </c>
-      <c r="C11" s="541"/>
-      <c r="D11" s="542"/>
-      <c r="E11" s="543"/>
-      <c r="F11" s="544"/>
-      <c r="G11" s="543"/>
-      <c r="H11" s="543"/>
-      <c r="I11" s="543"/>
+      <c r="C11" s="538"/>
+      <c r="D11" s="539"/>
+      <c r="E11" s="540"/>
+      <c r="F11" s="541"/>
+      <c r="G11" s="540"/>
+      <c r="H11" s="540"/>
+      <c r="I11" s="540"/>
       <c r="J11" s="120"/>
       <c r="K11" s="120"/>
       <c r="L11" s="311"/>
@@ -13792,10 +13840,10 @@
       <c r="B13" s="313" t="s">
         <v>241</v>
       </c>
-      <c r="C13" s="528" t="s">
+      <c r="C13" s="542" t="s">
         <v>247</v>
       </c>
-      <c r="D13" s="528"/>
+      <c r="D13" s="542"/>
       <c r="E13" s="121">
         <v>5</v>
       </c>
@@ -13879,10 +13927,10 @@
       <c r="B16" s="313" t="s">
         <v>241</v>
       </c>
-      <c r="C16" s="528" t="s">
+      <c r="C16" s="542" t="s">
         <v>255</v>
       </c>
-      <c r="D16" s="528"/>
+      <c r="D16" s="542"/>
       <c r="E16" s="121">
         <v>15</v>
       </c>
@@ -13950,10 +13998,10 @@
       <c r="B19" s="127" t="s">
         <v>259</v>
       </c>
-      <c r="C19" s="528" t="s">
+      <c r="C19" s="542" t="s">
         <v>260</v>
       </c>
-      <c r="D19" s="526"/>
+      <c r="D19" s="543"/>
       <c r="E19" s="121">
         <v>44</v>
       </c>
@@ -13994,10 +14042,10 @@
       <c r="B21" s="313" t="s">
         <v>262</v>
       </c>
-      <c r="C21" s="531" t="s">
+      <c r="C21" s="544" t="s">
         <v>263</v>
       </c>
-      <c r="D21" s="532"/>
+      <c r="D21" s="545"/>
       <c r="E21" s="121">
         <v>32</v>
       </c>
@@ -14017,10 +14065,10 @@
     <row r="22" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="311"/>
       <c r="B22" s="311"/>
-      <c r="C22" s="528" t="s">
+      <c r="C22" s="542" t="s">
         <v>264</v>
       </c>
-      <c r="D22" s="526"/>
+      <c r="D22" s="543"/>
       <c r="E22" s="311">
         <v>20</v>
       </c>
@@ -14040,10 +14088,10 @@
     <row r="23" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="312"/>
       <c r="B23" s="313"/>
-      <c r="C23" s="528" t="s">
+      <c r="C23" s="542" t="s">
         <v>265</v>
       </c>
-      <c r="D23" s="526"/>
+      <c r="D23" s="543"/>
       <c r="E23" s="312">
         <v>9</v>
       </c>
@@ -14063,10 +14111,10 @@
     <row r="24" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="312"/>
       <c r="B24" s="313"/>
-      <c r="C24" s="528" t="s">
+      <c r="C24" s="542" t="s">
         <v>266</v>
       </c>
-      <c r="D24" s="526"/>
+      <c r="D24" s="543"/>
       <c r="E24" s="312">
         <v>25</v>
       </c>
@@ -14086,10 +14134,10 @@
     <row r="25" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="312"/>
       <c r="B25" s="313"/>
-      <c r="C25" s="528" t="s">
+      <c r="C25" s="542" t="s">
         <v>267</v>
       </c>
-      <c r="D25" s="528"/>
+      <c r="D25" s="542"/>
       <c r="E25" s="312">
         <v>27</v>
       </c>
@@ -14109,10 +14157,10 @@
     <row r="26" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="312"/>
       <c r="B26" s="313"/>
-      <c r="C26" s="528" t="s">
+      <c r="C26" s="542" t="s">
         <v>268</v>
       </c>
-      <c r="D26" s="526"/>
+      <c r="D26" s="543"/>
       <c r="E26" s="312">
         <v>17</v>
       </c>
@@ -14131,16 +14179,16 @@
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="312"/>
-      <c r="B27" s="527" t="s">
+      <c r="B27" s="546" t="s">
         <v>269</v>
       </c>
-      <c r="C27" s="533"/>
-      <c r="D27" s="534"/>
-      <c r="E27" s="535"/>
-      <c r="F27" s="536"/>
-      <c r="G27" s="535"/>
-      <c r="H27" s="535"/>
-      <c r="I27" s="535"/>
+      <c r="C27" s="547"/>
+      <c r="D27" s="548"/>
+      <c r="E27" s="549"/>
+      <c r="F27" s="550"/>
+      <c r="G27" s="549"/>
+      <c r="H27" s="549"/>
+      <c r="I27" s="549"/>
       <c r="J27" s="128"/>
       <c r="K27" s="128"/>
       <c r="L27" s="311"/>
@@ -14170,10 +14218,10 @@
       <c r="B29" s="311" t="s">
         <v>270</v>
       </c>
-      <c r="C29" s="531" t="s">
+      <c r="C29" s="544" t="s">
         <v>271</v>
       </c>
-      <c r="D29" s="531"/>
+      <c r="D29" s="544"/>
       <c r="E29" s="311">
         <v>26</v>
       </c>
@@ -14193,10 +14241,10 @@
     <row r="30" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="312"/>
       <c r="B30" s="313"/>
-      <c r="C30" s="528" t="s">
+      <c r="C30" s="542" t="s">
         <v>272</v>
       </c>
-      <c r="D30" s="526"/>
+      <c r="D30" s="543"/>
       <c r="E30" s="121" t="s">
         <v>273</v>
       </c>
@@ -14214,10 +14262,10 @@
     <row r="31" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="312"/>
       <c r="B31" s="313"/>
-      <c r="C31" s="528" t="s">
+      <c r="C31" s="542" t="s">
         <v>274</v>
       </c>
-      <c r="D31" s="526"/>
+      <c r="D31" s="543"/>
       <c r="E31" s="121">
         <v>24</v>
       </c>
@@ -14237,10 +14285,10 @@
     <row r="32" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="312"/>
       <c r="B32" s="313"/>
-      <c r="C32" s="528" t="s">
+      <c r="C32" s="542" t="s">
         <v>275</v>
       </c>
-      <c r="D32" s="526"/>
+      <c r="D32" s="543"/>
       <c r="E32" s="121">
         <v>40</v>
       </c>
@@ -14258,10 +14306,10 @@
     <row r="33" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="312"/>
       <c r="B33" s="313"/>
-      <c r="C33" s="528" t="s">
+      <c r="C33" s="542" t="s">
         <v>276</v>
       </c>
-      <c r="D33" s="526"/>
+      <c r="D33" s="543"/>
       <c r="E33" s="121">
         <v>29</v>
       </c>
@@ -14279,10 +14327,10 @@
     <row r="34" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="312"/>
       <c r="B34" s="313"/>
-      <c r="C34" s="528" t="s">
+      <c r="C34" s="542" t="s">
         <v>277</v>
       </c>
-      <c r="D34" s="526"/>
+      <c r="D34" s="543"/>
       <c r="E34" s="121">
         <v>22</v>
       </c>
@@ -14300,10 +14348,10 @@
     <row r="35" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="312"/>
       <c r="B35" s="313"/>
-      <c r="C35" s="528" t="s">
+      <c r="C35" s="542" t="s">
         <v>278</v>
       </c>
-      <c r="D35" s="526"/>
+      <c r="D35" s="543"/>
       <c r="E35" s="121">
         <v>32</v>
       </c>
@@ -14357,10 +14405,10 @@
     <row r="38" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="312"/>
       <c r="B38" s="127"/>
-      <c r="C38" s="531" t="s">
+      <c r="C38" s="544" t="s">
         <v>279</v>
       </c>
-      <c r="D38" s="532"/>
+      <c r="D38" s="545"/>
       <c r="E38" s="121">
         <v>12</v>
       </c>
@@ -14380,8 +14428,8 @@
     <row r="39" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="312"/>
       <c r="B39" s="127"/>
-      <c r="C39" s="528"/>
-      <c r="D39" s="526"/>
+      <c r="C39" s="542"/>
+      <c r="D39" s="543"/>
       <c r="E39" s="121"/>
       <c r="F39" s="111"/>
       <c r="G39" s="125"/>
@@ -14397,10 +14445,10 @@
     <row r="40" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="312"/>
       <c r="B40" s="313"/>
-      <c r="C40" s="528" t="s">
+      <c r="C40" s="542" t="s">
         <v>280</v>
       </c>
-      <c r="D40" s="526"/>
+      <c r="D40" s="543"/>
       <c r="E40" s="121">
         <v>32</v>
       </c>
@@ -14504,16 +14552,16 @@
     </row>
     <row r="46" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="312"/>
-      <c r="B46" s="527" t="s">
+      <c r="B46" s="546" t="s">
         <v>281</v>
       </c>
-      <c r="C46" s="527"/>
-      <c r="D46" s="527"/>
-      <c r="E46" s="527"/>
-      <c r="F46" s="527"/>
-      <c r="G46" s="527"/>
-      <c r="H46" s="527"/>
-      <c r="I46" s="527"/>
+      <c r="C46" s="546"/>
+      <c r="D46" s="546"/>
+      <c r="E46" s="546"/>
+      <c r="F46" s="546"/>
+      <c r="G46" s="546"/>
+      <c r="H46" s="546"/>
+      <c r="I46" s="546"/>
       <c r="J46" s="132"/>
       <c r="K46" s="132"/>
       <c r="L46" s="312"/>
@@ -14526,10 +14574,10 @@
         <v>246</v>
       </c>
       <c r="B47" s="313"/>
-      <c r="C47" s="528" t="s">
+      <c r="C47" s="542" t="s">
         <v>282</v>
       </c>
-      <c r="D47" s="528"/>
+      <c r="D47" s="542"/>
       <c r="E47" s="121">
         <v>11</v>
       </c>
@@ -14551,8 +14599,8 @@
     <row r="48" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="312"/>
       <c r="B48" s="127"/>
-      <c r="C48" s="528"/>
-      <c r="D48" s="528"/>
+      <c r="C48" s="542"/>
+      <c r="D48" s="542"/>
       <c r="E48" s="121"/>
       <c r="F48" s="111"/>
       <c r="G48" s="125"/>
@@ -14570,10 +14618,10 @@
         <v>246</v>
       </c>
       <c r="B49" s="313"/>
-      <c r="C49" s="528" t="s">
+      <c r="C49" s="542" t="s">
         <v>283</v>
       </c>
-      <c r="D49" s="528"/>
+      <c r="D49" s="542"/>
       <c r="E49" s="121">
         <v>10</v>
       </c>
@@ -14595,8 +14643,8 @@
     <row r="50" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="312"/>
       <c r="B50" s="127"/>
-      <c r="C50" s="528"/>
-      <c r="D50" s="528"/>
+      <c r="C50" s="542"/>
+      <c r="D50" s="542"/>
       <c r="E50" s="121"/>
       <c r="F50" s="111"/>
       <c r="G50" s="125"/>
@@ -14629,8 +14677,8 @@
     <row r="52" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="311"/>
       <c r="B52" s="313"/>
-      <c r="C52" s="528"/>
-      <c r="D52" s="526"/>
+      <c r="C52" s="542"/>
+      <c r="D52" s="543"/>
       <c r="E52" s="312"/>
       <c r="F52" s="133"/>
       <c r="G52" s="312"/>
@@ -14662,16 +14710,16 @@
     </row>
     <row r="54" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="312"/>
-      <c r="B54" s="527" t="s">
+      <c r="B54" s="546" t="s">
         <v>284</v>
       </c>
-      <c r="C54" s="527"/>
-      <c r="D54" s="527"/>
-      <c r="E54" s="527"/>
-      <c r="F54" s="527"/>
-      <c r="G54" s="527"/>
-      <c r="H54" s="527"/>
-      <c r="I54" s="527"/>
+      <c r="C54" s="546"/>
+      <c r="D54" s="546"/>
+      <c r="E54" s="546"/>
+      <c r="F54" s="546"/>
+      <c r="G54" s="546"/>
+      <c r="H54" s="546"/>
+      <c r="I54" s="546"/>
       <c r="J54" s="132"/>
       <c r="K54" s="132"/>
       <c r="L54" s="312"/>
@@ -14682,10 +14730,10 @@
     <row r="55" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="312"/>
       <c r="B55" s="313"/>
-      <c r="C55" s="528" t="s">
+      <c r="C55" s="542" t="s">
         <v>285</v>
       </c>
-      <c r="D55" s="526"/>
+      <c r="D55" s="543"/>
       <c r="E55" s="134">
         <v>26</v>
       </c>
@@ -14705,10 +14753,10 @@
     <row r="56" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="312"/>
       <c r="B56" s="127"/>
-      <c r="C56" s="528" t="s">
+      <c r="C56" s="542" t="s">
         <v>286</v>
       </c>
-      <c r="D56" s="528"/>
+      <c r="D56" s="542"/>
       <c r="E56" s="134">
         <v>55</v>
       </c>
@@ -14744,16 +14792,16 @@
     </row>
     <row r="58" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="312"/>
-      <c r="B58" s="527" t="s">
+      <c r="B58" s="546" t="s">
         <v>287</v>
       </c>
-      <c r="C58" s="527"/>
-      <c r="D58" s="527"/>
-      <c r="E58" s="527"/>
-      <c r="F58" s="527"/>
-      <c r="G58" s="527"/>
-      <c r="H58" s="527"/>
-      <c r="I58" s="527"/>
+      <c r="C58" s="546"/>
+      <c r="D58" s="546"/>
+      <c r="E58" s="546"/>
+      <c r="F58" s="546"/>
+      <c r="G58" s="546"/>
+      <c r="H58" s="546"/>
+      <c r="I58" s="546"/>
       <c r="J58" s="132"/>
       <c r="K58" s="132"/>
       <c r="L58" s="312"/>
@@ -14766,10 +14814,10 @@
       <c r="B59" s="313" t="s">
         <v>241</v>
       </c>
-      <c r="C59" s="528" t="s">
+      <c r="C59" s="542" t="s">
         <v>288</v>
       </c>
-      <c r="D59" s="528"/>
+      <c r="D59" s="542"/>
       <c r="E59" s="121">
         <v>32</v>
       </c>
@@ -14789,10 +14837,10 @@
     <row r="60" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="311"/>
       <c r="B60" s="311"/>
-      <c r="C60" s="526" t="s">
+      <c r="C60" s="543" t="s">
         <v>289</v>
       </c>
-      <c r="D60" s="526"/>
+      <c r="D60" s="543"/>
       <c r="E60" s="121">
         <v>50</v>
       </c>
@@ -14812,10 +14860,10 @@
     <row r="61" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="311"/>
       <c r="B61" s="311"/>
-      <c r="C61" s="526" t="s">
+      <c r="C61" s="543" t="s">
         <v>291</v>
       </c>
-      <c r="D61" s="526"/>
+      <c r="D61" s="543"/>
       <c r="E61" s="121">
         <v>16</v>
       </c>
@@ -14856,10 +14904,10 @@
     <row r="63" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="311"/>
       <c r="B63" s="311"/>
-      <c r="C63" s="526" t="s">
+      <c r="C63" s="543" t="s">
         <v>292</v>
       </c>
-      <c r="D63" s="526"/>
+      <c r="D63" s="543"/>
       <c r="E63" s="121">
         <v>14</v>
       </c>
@@ -14988,10 +15036,10 @@
       <c r="B68" s="313" t="s">
         <v>241</v>
       </c>
-      <c r="C68" s="528" t="s">
+      <c r="C68" s="542" t="s">
         <v>298</v>
       </c>
-      <c r="D68" s="528"/>
+      <c r="D68" s="542"/>
       <c r="E68" s="121">
         <v>28</v>
       </c>
@@ -15073,16 +15121,16 @@
     </row>
     <row r="71" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="312"/>
-      <c r="B71" s="527" t="s">
+      <c r="B71" s="546" t="s">
         <v>302</v>
       </c>
-      <c r="C71" s="527"/>
-      <c r="D71" s="527"/>
-      <c r="E71" s="527"/>
-      <c r="F71" s="527"/>
-      <c r="G71" s="527"/>
-      <c r="H71" s="527"/>
-      <c r="I71" s="527"/>
+      <c r="C71" s="546"/>
+      <c r="D71" s="546"/>
+      <c r="E71" s="546"/>
+      <c r="F71" s="546"/>
+      <c r="G71" s="546"/>
+      <c r="H71" s="546"/>
+      <c r="I71" s="546"/>
       <c r="J71" s="104"/>
       <c r="K71" s="104"/>
       <c r="L71" s="312"/>
@@ -15098,10 +15146,10 @@
     <row r="72" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="312"/>
       <c r="B72" s="312"/>
-      <c r="C72" s="526" t="s">
+      <c r="C72" s="543" t="s">
         <v>303</v>
       </c>
-      <c r="D72" s="526"/>
+      <c r="D72" s="543"/>
       <c r="E72" s="312">
         <v>20</v>
       </c>
@@ -15128,10 +15176,10 @@
       <c r="B73" s="313" t="s">
         <v>241</v>
       </c>
-      <c r="C73" s="526" t="s">
+      <c r="C73" s="543" t="s">
         <v>305</v>
       </c>
-      <c r="D73" s="526"/>
+      <c r="D73" s="543"/>
       <c r="E73" s="312">
         <v>16</v>
       </c>
@@ -15225,16 +15273,16 @@
     </row>
     <row r="77" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="312"/>
-      <c r="B77" s="527" t="s">
+      <c r="B77" s="546" t="s">
         <v>84</v>
       </c>
-      <c r="C77" s="527"/>
-      <c r="D77" s="527"/>
-      <c r="E77" s="527"/>
-      <c r="F77" s="527"/>
-      <c r="G77" s="527"/>
-      <c r="H77" s="527"/>
-      <c r="I77" s="527"/>
+      <c r="C77" s="546"/>
+      <c r="D77" s="546"/>
+      <c r="E77" s="546"/>
+      <c r="F77" s="546"/>
+      <c r="G77" s="546"/>
+      <c r="H77" s="546"/>
+      <c r="I77" s="546"/>
       <c r="J77" s="132"/>
       <c r="K77" s="132"/>
       <c r="L77" s="312"/>
@@ -15250,15 +15298,15 @@
     <row r="78" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="312"/>
       <c r="B78" s="312"/>
-      <c r="C78" s="528" t="s">
+      <c r="C78" s="542" t="s">
         <v>308</v>
       </c>
-      <c r="D78" s="528"/>
-      <c r="E78" s="528"/>
-      <c r="F78" s="528"/>
-      <c r="G78" s="528"/>
-      <c r="H78" s="528"/>
-      <c r="I78" s="528"/>
+      <c r="D78" s="542"/>
+      <c r="E78" s="542"/>
+      <c r="F78" s="542"/>
+      <c r="G78" s="542"/>
+      <c r="H78" s="542"/>
+      <c r="I78" s="542"/>
       <c r="J78" s="104"/>
       <c r="K78" s="104"/>
       <c r="L78" s="312"/>
@@ -15274,13 +15322,13 @@
     <row r="79" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="312"/>
       <c r="B79" s="312"/>
-      <c r="C79" s="529"/>
-      <c r="D79" s="529"/>
-      <c r="E79" s="529"/>
-      <c r="F79" s="529"/>
-      <c r="G79" s="529"/>
-      <c r="H79" s="529"/>
-      <c r="I79" s="529"/>
+      <c r="C79" s="551"/>
+      <c r="D79" s="551"/>
+      <c r="E79" s="551"/>
+      <c r="F79" s="551"/>
+      <c r="G79" s="551"/>
+      <c r="H79" s="551"/>
+      <c r="I79" s="551"/>
       <c r="J79" s="104"/>
       <c r="K79" s="104"/>
       <c r="L79" s="312"/>
@@ -15320,10 +15368,10 @@
         <v>309</v>
       </c>
       <c r="B81" s="143"/>
-      <c r="C81" s="530" t="s">
+      <c r="C81" s="552" t="s">
         <v>310</v>
       </c>
-      <c r="D81" s="530"/>
+      <c r="D81" s="552"/>
       <c r="E81" s="143"/>
       <c r="F81" s="143"/>
       <c r="G81" s="143"/>
@@ -15362,57 +15410,57 @@
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="B77:I77"/>
+    <mergeCell ref="C78:I78"/>
+    <mergeCell ref="C79:I79"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="B71:I71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="B58:I58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="B54:I54"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="B46:I46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C16:D16"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="B46:I46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="B54:I54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="B58:I58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="B71:I71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="B77:I77"/>
-    <mergeCell ref="C78:I78"/>
-    <mergeCell ref="C79:I79"/>
-    <mergeCell ref="C81:D81"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15439,14 +15487,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="570" t="s">
+      <c r="A1" s="553" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="571"/>
-      <c r="C1" s="571"/>
-      <c r="D1" s="571"/>
-      <c r="E1" s="571"/>
-      <c r="F1" s="572"/>
+      <c r="B1" s="554"/>
+      <c r="C1" s="554"/>
+      <c r="D1" s="554"/>
+      <c r="E1" s="554"/>
+      <c r="F1" s="555"/>
       <c r="G1" s="145"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -15459,11 +15507,11 @@
       <c r="C2" s="44" t="s">
         <v>312</v>
       </c>
-      <c r="D2" s="508" t="s">
+      <c r="D2" s="484" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="508"/>
-      <c r="F2" s="508"/>
+      <c r="E2" s="484"/>
+      <c r="F2" s="484"/>
       <c r="G2" s="147"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -15478,11 +15526,11 @@
         <f>B3/4</f>
         <v>7.375</v>
       </c>
-      <c r="D3" s="573" t="s">
+      <c r="D3" s="556" t="s">
         <v>314</v>
       </c>
-      <c r="E3" s="574"/>
-      <c r="F3" s="575"/>
+      <c r="E3" s="557"/>
+      <c r="F3" s="558"/>
       <c r="G3" s="145"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -15582,46 +15630,46 @@
       <c r="G9" s="145"/>
     </row>
     <row r="10" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="551" t="s">
+      <c r="A10" s="570" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="552"/>
-      <c r="C10" s="552"/>
-      <c r="D10" s="552"/>
-      <c r="E10" s="553"/>
-      <c r="F10" s="552"/>
+      <c r="B10" s="571"/>
+      <c r="C10" s="571"/>
+      <c r="D10" s="571"/>
+      <c r="E10" s="572"/>
+      <c r="F10" s="571"/>
       <c r="G10" s="147"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="554" t="s">
+      <c r="A11" s="573" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="485" t="s">
+      <c r="B11" s="510" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="386" t="s">
+      <c r="C11" s="396" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="388"/>
-      <c r="E11" s="555" t="s">
+      <c r="D11" s="398"/>
+      <c r="E11" s="574" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="557" t="s">
+      <c r="F11" s="576" t="s">
         <v>320</v>
       </c>
       <c r="G11" s="145"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="554"/>
-      <c r="B12" s="485"/>
+      <c r="A12" s="573"/>
+      <c r="B12" s="510"/>
       <c r="C12" s="302" t="s">
         <v>44</v>
       </c>
       <c r="D12" s="152" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="556"/>
-      <c r="F12" s="558"/>
+      <c r="E12" s="575"/>
+      <c r="F12" s="577"/>
       <c r="G12" s="145"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -16949,11 +16997,12 @@
   </sheetData>
   <autoFilter ref="A12:F12" xr:uid="{00000000-0009-0000-0000-000009000000}"/>
   <mergeCells count="18">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="A8:A9"/>
@@ -16961,12 +17010,11 @@
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="D9:F9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16974,10 +17022,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30FE3776-34F1-4EC7-90B7-5F4D31BD4230}">
-  <dimension ref="A1:AN86"/>
+  <dimension ref="A1:AN101"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView topLeftCell="B29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16986,7 +17034,7 @@
     <col min="2" max="2" width="12.42578125" style="236" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" style="237" customWidth="1"/>
     <col min="4" max="4" width="2.28515625" style="238" customWidth="1"/>
-    <col min="5" max="5" width="49.42578125" style="232" customWidth="1"/>
+    <col min="5" max="5" width="59" style="232" customWidth="1"/>
     <col min="6" max="6" width="30.7109375" style="233" customWidth="1"/>
     <col min="7" max="7" width="62.140625" style="234" customWidth="1"/>
     <col min="8" max="8" width="30.7109375" style="239" customWidth="1"/>
@@ -17038,15 +17086,15 @@
     </row>
     <row r="2" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="222"/>
-      <c r="B2" s="423" t="s">
+      <c r="B2" s="433" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="424"/>
-      <c r="D2" s="424"/>
-      <c r="E2" s="424"/>
-      <c r="F2" s="424"/>
-      <c r="G2" s="424"/>
-      <c r="H2" s="425"/>
+      <c r="C2" s="434"/>
+      <c r="D2" s="434"/>
+      <c r="E2" s="434"/>
+      <c r="F2" s="434"/>
+      <c r="G2" s="434"/>
+      <c r="H2" s="435"/>
       <c r="I2" s="223"/>
       <c r="J2" s="29"/>
       <c r="K2" s="29"/>
@@ -17082,15 +17130,15 @@
     </row>
     <row r="3" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="222"/>
-      <c r="B3" s="420" t="s">
+      <c r="B3" s="430" t="s">
         <v>376</v>
       </c>
-      <c r="C3" s="421"/>
-      <c r="D3" s="421"/>
-      <c r="E3" s="421"/>
-      <c r="F3" s="421"/>
-      <c r="G3" s="421"/>
-      <c r="H3" s="422"/>
+      <c r="C3" s="431"/>
+      <c r="D3" s="431"/>
+      <c r="E3" s="431"/>
+      <c r="F3" s="431"/>
+      <c r="G3" s="431"/>
+      <c r="H3" s="432"/>
       <c r="I3" s="223"/>
       <c r="J3" s="29"/>
       <c r="K3" s="29"/>
@@ -17129,10 +17177,10 @@
       <c r="B4" s="260" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="432" t="s">
+      <c r="C4" s="424" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="433"/>
+      <c r="D4" s="425"/>
       <c r="E4" s="225" t="s">
         <v>78</v>
       </c>
@@ -17180,7 +17228,7 @@
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="231"/>
-      <c r="B5" s="417" t="s">
+      <c r="B5" s="426" t="s">
         <v>386</v>
       </c>
       <c r="C5" s="269" t="s">
@@ -17232,7 +17280,7 @@
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="231"/>
-      <c r="B6" s="417"/>
+      <c r="B6" s="426"/>
       <c r="C6" s="269" t="s">
         <v>375</v>
       </c>
@@ -17282,13 +17330,13 @@
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" s="222"/>
-      <c r="B7" s="429"/>
-      <c r="C7" s="430"/>
-      <c r="D7" s="430"/>
-      <c r="E7" s="430"/>
-      <c r="F7" s="430"/>
-      <c r="G7" s="430"/>
-      <c r="H7" s="431"/>
+      <c r="B7" s="421"/>
+      <c r="C7" s="422"/>
+      <c r="D7" s="422"/>
+      <c r="E7" s="422"/>
+      <c r="F7" s="422"/>
+      <c r="G7" s="422"/>
+      <c r="H7" s="423"/>
       <c r="I7" s="223"/>
       <c r="J7" s="29"/>
       <c r="K7" s="29"/>
@@ -17324,7 +17372,7 @@
     </row>
     <row r="8" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="231"/>
-      <c r="B8" s="417" t="s">
+      <c r="B8" s="426" t="s">
         <v>373</v>
       </c>
       <c r="C8" s="269" t="s">
@@ -17376,7 +17424,7 @@
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" s="222"/>
-      <c r="B9" s="417"/>
+      <c r="B9" s="426"/>
       <c r="C9" s="269" t="s">
         <v>375</v>
       </c>
@@ -17426,13 +17474,13 @@
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" s="222"/>
-      <c r="B10" s="429"/>
-      <c r="C10" s="430"/>
-      <c r="D10" s="430"/>
-      <c r="E10" s="430"/>
-      <c r="F10" s="430"/>
-      <c r="G10" s="430"/>
-      <c r="H10" s="431"/>
+      <c r="B10" s="421"/>
+      <c r="C10" s="422"/>
+      <c r="D10" s="422"/>
+      <c r="E10" s="422"/>
+      <c r="F10" s="422"/>
+      <c r="G10" s="422"/>
+      <c r="H10" s="423"/>
       <c r="I10" s="223"/>
       <c r="J10" s="29"/>
       <c r="K10" s="29"/>
@@ -17468,7 +17516,7 @@
     </row>
     <row r="11" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="222"/>
-      <c r="B11" s="418" t="s">
+      <c r="B11" s="419" t="s">
         <v>388</v>
       </c>
       <c r="C11" s="269" t="s">
@@ -17520,7 +17568,7 @@
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" s="222"/>
-      <c r="B12" s="419"/>
+      <c r="B12" s="420"/>
       <c r="C12" s="269" t="s">
         <v>375</v>
       </c>
@@ -17570,13 +17618,13 @@
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" s="342"/>
-      <c r="B13" s="429"/>
-      <c r="C13" s="430"/>
-      <c r="D13" s="430"/>
-      <c r="E13" s="430"/>
-      <c r="F13" s="430"/>
-      <c r="G13" s="430"/>
-      <c r="H13" s="431"/>
+      <c r="B13" s="421"/>
+      <c r="C13" s="422"/>
+      <c r="D13" s="422"/>
+      <c r="E13" s="422"/>
+      <c r="F13" s="422"/>
+      <c r="G13" s="422"/>
+      <c r="H13" s="423"/>
       <c r="I13" s="223"/>
       <c r="J13" s="29"/>
       <c r="K13" s="29"/>
@@ -17612,7 +17660,7 @@
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" s="342"/>
-      <c r="B14" s="418" t="s">
+      <c r="B14" s="419" t="s">
         <v>441</v>
       </c>
       <c r="C14" s="269" t="s">
@@ -17664,7 +17712,7 @@
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" s="342"/>
-      <c r="B15" s="419"/>
+      <c r="B15" s="420"/>
       <c r="C15" s="269" t="s">
         <v>375</v>
       </c>
@@ -17714,13 +17762,13 @@
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16" s="342"/>
-      <c r="B16" s="429"/>
-      <c r="C16" s="430"/>
-      <c r="D16" s="430"/>
-      <c r="E16" s="430"/>
-      <c r="F16" s="430"/>
-      <c r="G16" s="430"/>
-      <c r="H16" s="431"/>
+      <c r="B16" s="421"/>
+      <c r="C16" s="422"/>
+      <c r="D16" s="422"/>
+      <c r="E16" s="422"/>
+      <c r="F16" s="422"/>
+      <c r="G16" s="422"/>
+      <c r="H16" s="423"/>
       <c r="I16" s="223"/>
       <c r="J16" s="29"/>
       <c r="K16" s="29"/>
@@ -17756,7 +17804,7 @@
     </row>
     <row r="17" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29"/>
-      <c r="B17" s="418" t="s">
+      <c r="B17" s="419" t="s">
         <v>494</v>
       </c>
       <c r="C17" s="269" t="s">
@@ -17808,7 +17856,7 @@
     </row>
     <row r="18" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="29"/>
-      <c r="B18" s="419"/>
+      <c r="B18" s="420"/>
       <c r="C18" s="269" t="s">
         <v>375</v>
       </c>
@@ -17858,13 +17906,13 @@
     </row>
     <row r="19" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29"/>
-      <c r="B19" s="429"/>
-      <c r="C19" s="430"/>
-      <c r="D19" s="430"/>
-      <c r="E19" s="430"/>
-      <c r="F19" s="430"/>
-      <c r="G19" s="430"/>
-      <c r="H19" s="431"/>
+      <c r="B19" s="421"/>
+      <c r="C19" s="422"/>
+      <c r="D19" s="422"/>
+      <c r="E19" s="422"/>
+      <c r="F19" s="422"/>
+      <c r="G19" s="422"/>
+      <c r="H19" s="423"/>
       <c r="I19" s="223"/>
       <c r="J19" s="29"/>
       <c r="K19" s="29"/>
@@ -17900,7 +17948,7 @@
     </row>
     <row r="20" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="29"/>
-      <c r="B20" s="418" t="s">
+      <c r="B20" s="419" t="s">
         <v>489</v>
       </c>
       <c r="C20" s="269" t="s">
@@ -17952,7 +18000,7 @@
     </row>
     <row r="21" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="29"/>
-      <c r="B21" s="419"/>
+      <c r="B21" s="420"/>
       <c r="C21" s="269" t="s">
         <v>375</v>
       </c>
@@ -18002,13 +18050,13 @@
     </row>
     <row r="22" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="29"/>
-      <c r="B22" s="429"/>
-      <c r="C22" s="430"/>
-      <c r="D22" s="430"/>
-      <c r="E22" s="430"/>
-      <c r="F22" s="430"/>
-      <c r="G22" s="430"/>
-      <c r="H22" s="431"/>
+      <c r="B22" s="421"/>
+      <c r="C22" s="422"/>
+      <c r="D22" s="422"/>
+      <c r="E22" s="422"/>
+      <c r="F22" s="422"/>
+      <c r="G22" s="422"/>
+      <c r="H22" s="423"/>
       <c r="I22" s="223"/>
       <c r="J22" s="29"/>
       <c r="K22" s="29"/>
@@ -18044,7 +18092,7 @@
     </row>
     <row r="23" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29"/>
-      <c r="B23" s="418" t="s">
+      <c r="B23" s="419" t="s">
         <v>490</v>
       </c>
       <c r="C23" s="269" t="s">
@@ -18096,7 +18144,7 @@
     </row>
     <row r="24" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29"/>
-      <c r="B24" s="419"/>
+      <c r="B24" s="420"/>
       <c r="C24" s="269" t="s">
         <v>375</v>
       </c>
@@ -18146,13 +18194,13 @@
     </row>
     <row r="25" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="29"/>
-      <c r="B25" s="429"/>
-      <c r="C25" s="430"/>
-      <c r="D25" s="430"/>
-      <c r="E25" s="430"/>
-      <c r="F25" s="430"/>
-      <c r="G25" s="430"/>
-      <c r="H25" s="431"/>
+      <c r="B25" s="421"/>
+      <c r="C25" s="422"/>
+      <c r="D25" s="422"/>
+      <c r="E25" s="422"/>
+      <c r="F25" s="422"/>
+      <c r="G25" s="422"/>
+      <c r="H25" s="423"/>
       <c r="I25" s="223"/>
       <c r="J25" s="29"/>
       <c r="K25" s="29"/>
@@ -18188,7 +18236,7 @@
     </row>
     <row r="26" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="29"/>
-      <c r="B26" s="418" t="s">
+      <c r="B26" s="419" t="s">
         <v>491</v>
       </c>
       <c r="C26" s="269" t="s">
@@ -18240,7 +18288,7 @@
     </row>
     <row r="27" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="29"/>
-      <c r="B27" s="419"/>
+      <c r="B27" s="420"/>
       <c r="C27" s="269" t="s">
         <v>375</v>
       </c>
@@ -18290,13 +18338,13 @@
     </row>
     <row r="28" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="29"/>
-      <c r="B28" s="429"/>
-      <c r="C28" s="430"/>
-      <c r="D28" s="430"/>
-      <c r="E28" s="430"/>
-      <c r="F28" s="430"/>
-      <c r="G28" s="430"/>
-      <c r="H28" s="431"/>
+      <c r="B28" s="421"/>
+      <c r="C28" s="422"/>
+      <c r="D28" s="422"/>
+      <c r="E28" s="422"/>
+      <c r="F28" s="422"/>
+      <c r="G28" s="422"/>
+      <c r="H28" s="423"/>
       <c r="I28" s="223"/>
       <c r="J28" s="29"/>
       <c r="K28" s="29"/>
@@ -18332,7 +18380,7 @@
     </row>
     <row r="29" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="29"/>
-      <c r="B29" s="418" t="s">
+      <c r="B29" s="419" t="s">
         <v>492</v>
       </c>
       <c r="C29" s="269" t="s">
@@ -18341,9 +18389,13 @@
       <c r="D29" s="337" t="s">
         <v>80</v>
       </c>
-      <c r="E29" s="338"/>
+      <c r="E29" s="338" t="s">
+        <v>567</v>
+      </c>
       <c r="F29" s="230"/>
-      <c r="G29" s="338"/>
+      <c r="G29" s="367" t="s">
+        <v>567</v>
+      </c>
       <c r="H29" s="184"/>
       <c r="I29" s="223"/>
       <c r="J29" s="29"/>
@@ -18380,16 +18432,20 @@
     </row>
     <row r="30" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="29"/>
-      <c r="B30" s="419"/>
+      <c r="B30" s="420"/>
       <c r="C30" s="269" t="s">
         <v>375</v>
       </c>
       <c r="D30" s="337" t="s">
         <v>80</v>
       </c>
-      <c r="E30" s="338"/>
+      <c r="E30" s="367" t="s">
+        <v>567</v>
+      </c>
       <c r="F30" s="184"/>
-      <c r="G30" s="338"/>
+      <c r="G30" s="367" t="s">
+        <v>567</v>
+      </c>
       <c r="H30" s="184"/>
       <c r="I30" s="223"/>
       <c r="J30" s="29"/>
@@ -18426,13 +18482,13 @@
     </row>
     <row r="31" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="29"/>
-      <c r="B31" s="429"/>
-      <c r="C31" s="430"/>
-      <c r="D31" s="430"/>
-      <c r="E31" s="430"/>
-      <c r="F31" s="430"/>
-      <c r="G31" s="430"/>
-      <c r="H31" s="431"/>
+      <c r="B31" s="421"/>
+      <c r="C31" s="422"/>
+      <c r="D31" s="422"/>
+      <c r="E31" s="422"/>
+      <c r="F31" s="422"/>
+      <c r="G31" s="422"/>
+      <c r="H31" s="423"/>
       <c r="I31" s="223"/>
       <c r="J31" s="29"/>
       <c r="K31" s="29"/>
@@ -18468,7 +18524,7 @@
     </row>
     <row r="32" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="29"/>
-      <c r="B32" s="418" t="s">
+      <c r="B32" s="419" t="s">
         <v>493</v>
       </c>
       <c r="C32" s="269" t="s">
@@ -18477,9 +18533,13 @@
       <c r="D32" s="337" t="s">
         <v>80</v>
       </c>
-      <c r="E32" s="338"/>
+      <c r="E32" s="367" t="s">
+        <v>567</v>
+      </c>
       <c r="F32" s="230"/>
-      <c r="G32" s="338"/>
+      <c r="G32" s="367" t="s">
+        <v>567</v>
+      </c>
       <c r="H32" s="184"/>
       <c r="I32" s="223"/>
       <c r="J32" s="29"/>
@@ -18516,16 +18576,20 @@
     </row>
     <row r="33" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="29"/>
-      <c r="B33" s="419"/>
+      <c r="B33" s="420"/>
       <c r="C33" s="269" t="s">
         <v>375</v>
       </c>
       <c r="D33" s="337" t="s">
         <v>80</v>
       </c>
-      <c r="E33" s="338"/>
+      <c r="E33" s="367" t="s">
+        <v>567</v>
+      </c>
       <c r="F33" s="184"/>
-      <c r="G33" s="338"/>
+      <c r="G33" s="367" t="s">
+        <v>567</v>
+      </c>
       <c r="H33" s="184"/>
       <c r="I33" s="223"/>
       <c r="J33" s="29"/>
@@ -18562,13 +18626,13 @@
     </row>
     <row r="34" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="29"/>
-      <c r="B34" s="429"/>
-      <c r="C34" s="430"/>
-      <c r="D34" s="430"/>
-      <c r="E34" s="430"/>
-      <c r="F34" s="430"/>
-      <c r="G34" s="430"/>
-      <c r="H34" s="431"/>
+      <c r="B34" s="421"/>
+      <c r="C34" s="422"/>
+      <c r="D34" s="422"/>
+      <c r="E34" s="422"/>
+      <c r="F34" s="422"/>
+      <c r="G34" s="422"/>
+      <c r="H34" s="423"/>
       <c r="I34" s="223"/>
       <c r="J34" s="29"/>
       <c r="K34" s="29"/>
@@ -18604,15 +18668,15 @@
     </row>
     <row r="35" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="222"/>
-      <c r="B35" s="420" t="s">
+      <c r="B35" s="430" t="s">
         <v>82</v>
       </c>
-      <c r="C35" s="421"/>
-      <c r="D35" s="421"/>
-      <c r="E35" s="421"/>
-      <c r="F35" s="421"/>
-      <c r="G35" s="421"/>
-      <c r="H35" s="422"/>
+      <c r="C35" s="431"/>
+      <c r="D35" s="431"/>
+      <c r="E35" s="431"/>
+      <c r="F35" s="431"/>
+      <c r="G35" s="431"/>
+      <c r="H35" s="432"/>
       <c r="I35" s="223"/>
       <c r="J35" s="29"/>
       <c r="K35" s="29"/>
@@ -18651,10 +18715,10 @@
       <c r="B36" s="260" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="432" t="s">
+      <c r="C36" s="424" t="s">
         <v>77</v>
       </c>
-      <c r="D36" s="433"/>
+      <c r="D36" s="425"/>
       <c r="E36" s="225" t="s">
         <v>78</v>
       </c>
@@ -18702,16 +18766,22 @@
     </row>
     <row r="37" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A37" s="224"/>
-      <c r="B37" s="417"/>
+      <c r="B37" s="578" t="s">
+        <v>568</v>
+      </c>
       <c r="C37" s="269" t="s">
         <v>374</v>
       </c>
       <c r="D37" s="325" t="s">
         <v>80</v>
       </c>
-      <c r="E37" s="324"/>
+      <c r="E37" s="367" t="s">
+        <v>567</v>
+      </c>
       <c r="F37" s="230"/>
-      <c r="G37" s="324"/>
+      <c r="G37" s="324" t="s">
+        <v>576</v>
+      </c>
       <c r="H37" s="184"/>
       <c r="I37" s="223"/>
       <c r="J37" s="29"/>
@@ -18748,16 +18818,20 @@
     </row>
     <row r="38" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A38" s="231"/>
-      <c r="B38" s="417"/>
+      <c r="B38" s="426"/>
       <c r="C38" s="269" t="s">
         <v>375</v>
       </c>
       <c r="D38" s="318" t="s">
         <v>80</v>
       </c>
-      <c r="E38" s="317"/>
+      <c r="E38" s="367" t="s">
+        <v>567</v>
+      </c>
       <c r="F38" s="184"/>
-      <c r="G38" s="317"/>
+      <c r="G38" s="317" t="s">
+        <v>578</v>
+      </c>
       <c r="H38" s="184"/>
       <c r="I38" s="223"/>
       <c r="J38" s="29"/>
@@ -18794,13 +18868,13 @@
     </row>
     <row r="39" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A39" s="231"/>
-      <c r="B39" s="429"/>
-      <c r="C39" s="430"/>
-      <c r="D39" s="430"/>
-      <c r="E39" s="430"/>
-      <c r="F39" s="430"/>
-      <c r="G39" s="430"/>
-      <c r="H39" s="431"/>
+      <c r="B39" s="421"/>
+      <c r="C39" s="422"/>
+      <c r="D39" s="422"/>
+      <c r="E39" s="422"/>
+      <c r="F39" s="422"/>
+      <c r="G39" s="422"/>
+      <c r="H39" s="423"/>
       <c r="I39" s="223"/>
       <c r="J39" s="29"/>
       <c r="L39" s="29"/>
@@ -18835,16 +18909,22 @@
     </row>
     <row r="40" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="222"/>
-      <c r="B40" s="417"/>
+      <c r="B40" s="426" t="s">
+        <v>569</v>
+      </c>
       <c r="C40" s="269" t="s">
         <v>374</v>
       </c>
       <c r="D40" s="318" t="s">
         <v>80</v>
       </c>
-      <c r="E40" s="317"/>
+      <c r="E40" s="367" t="s">
+        <v>576</v>
+      </c>
       <c r="F40" s="230"/>
-      <c r="G40" s="317"/>
+      <c r="G40" s="317" t="s">
+        <v>577</v>
+      </c>
       <c r="H40" s="184"/>
       <c r="I40" s="223"/>
       <c r="J40" s="29"/>
@@ -18881,16 +18961,20 @@
     </row>
     <row r="41" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A41" s="231"/>
-      <c r="B41" s="417"/>
+      <c r="B41" s="426"/>
       <c r="C41" s="269" t="s">
         <v>375</v>
       </c>
       <c r="D41" s="318" t="s">
         <v>80</v>
       </c>
-      <c r="E41" s="317"/>
+      <c r="E41" s="367" t="s">
+        <v>578</v>
+      </c>
       <c r="F41" s="184"/>
-      <c r="G41" s="317"/>
+      <c r="G41" s="317" t="s">
+        <v>579</v>
+      </c>
       <c r="H41" s="184"/>
       <c r="I41" s="223"/>
       <c r="J41" s="29"/>
@@ -18927,13 +19011,13 @@
     </row>
     <row r="42" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A42" s="222"/>
-      <c r="B42" s="429"/>
-      <c r="C42" s="430"/>
-      <c r="D42" s="430"/>
-      <c r="E42" s="430"/>
-      <c r="F42" s="430"/>
-      <c r="G42" s="430"/>
-      <c r="H42" s="431"/>
+      <c r="B42" s="421"/>
+      <c r="C42" s="422"/>
+      <c r="D42" s="422"/>
+      <c r="E42" s="422"/>
+      <c r="F42" s="422"/>
+      <c r="G42" s="422"/>
+      <c r="H42" s="423"/>
       <c r="I42" s="223"/>
       <c r="J42" s="29"/>
       <c r="K42" s="29"/>
@@ -18969,16 +19053,18 @@
     </row>
     <row r="43" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="222"/>
-      <c r="B43" s="417"/>
+      <c r="B43" s="426" t="s">
+        <v>570</v>
+      </c>
       <c r="C43" s="269" t="s">
         <v>374</v>
       </c>
-      <c r="D43" s="318" t="s">
+      <c r="D43" s="366" t="s">
         <v>80</v>
       </c>
-      <c r="E43" s="317"/>
+      <c r="E43" s="367"/>
       <c r="F43" s="230"/>
-      <c r="G43" s="317"/>
+      <c r="G43" s="367"/>
       <c r="H43" s="184"/>
       <c r="I43" s="223"/>
       <c r="J43" s="29"/>
@@ -19015,16 +19101,16 @@
     </row>
     <row r="44" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A44" s="222"/>
-      <c r="B44" s="417"/>
+      <c r="B44" s="426"/>
       <c r="C44" s="269" t="s">
         <v>375</v>
       </c>
-      <c r="D44" s="318" t="s">
+      <c r="D44" s="366" t="s">
         <v>80</v>
       </c>
-      <c r="E44" s="317"/>
+      <c r="E44" s="367"/>
       <c r="F44" s="184"/>
-      <c r="G44" s="317"/>
+      <c r="G44" s="367"/>
       <c r="H44" s="184"/>
       <c r="I44" s="223"/>
       <c r="J44" s="29"/>
@@ -19061,13 +19147,13 @@
     </row>
     <row r="45" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A45" s="222"/>
-      <c r="B45" s="429"/>
-      <c r="C45" s="430"/>
-      <c r="D45" s="430"/>
-      <c r="E45" s="430"/>
-      <c r="F45" s="430"/>
-      <c r="G45" s="430"/>
-      <c r="H45" s="431"/>
+      <c r="B45" s="421"/>
+      <c r="C45" s="422"/>
+      <c r="D45" s="422"/>
+      <c r="E45" s="422"/>
+      <c r="F45" s="422"/>
+      <c r="G45" s="422"/>
+      <c r="H45" s="423"/>
       <c r="I45" s="223"/>
       <c r="J45" s="29"/>
       <c r="K45" s="29"/>
@@ -19101,17 +19187,21 @@
       <c r="AM45" s="29"/>
       <c r="AN45" s="29"/>
     </row>
-    <row r="46" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="222"/>
       <c r="B46" s="426" t="s">
-        <v>83</v>
-      </c>
-      <c r="C46" s="427"/>
-      <c r="D46" s="427"/>
-      <c r="E46" s="427"/>
-      <c r="F46" s="427"/>
-      <c r="G46" s="427"/>
-      <c r="H46" s="428"/>
+        <v>571</v>
+      </c>
+      <c r="C46" s="269" t="s">
+        <v>374</v>
+      </c>
+      <c r="D46" s="366" t="s">
+        <v>80</v>
+      </c>
+      <c r="E46" s="367"/>
+      <c r="F46" s="230"/>
+      <c r="G46" s="367"/>
+      <c r="H46" s="184"/>
       <c r="I46" s="223"/>
       <c r="J46" s="29"/>
       <c r="K46" s="29"/>
@@ -19145,73 +19235,61 @@
       <c r="AM46" s="29"/>
       <c r="AN46" s="29"/>
     </row>
-    <row r="47" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A47" s="222"/>
-      <c r="B47" s="260" t="s">
-        <v>40</v>
-      </c>
-      <c r="C47" s="432" t="s">
-        <v>77</v>
-      </c>
-      <c r="D47" s="433"/>
-      <c r="E47" s="225" t="s">
-        <v>78</v>
-      </c>
-      <c r="F47" s="321" t="s">
-        <v>44</v>
-      </c>
-      <c r="G47" s="227" t="s">
-        <v>79</v>
-      </c>
-      <c r="H47" s="226" t="s">
-        <v>44</v>
-      </c>
-      <c r="I47" s="228"/>
-      <c r="J47" s="229"/>
-      <c r="K47" s="229"/>
-      <c r="L47" s="229"/>
-      <c r="M47" s="229"/>
-      <c r="N47" s="229"/>
-      <c r="O47" s="229"/>
-      <c r="P47" s="229"/>
-      <c r="Q47" s="229"/>
-      <c r="R47" s="229"/>
-      <c r="S47" s="229"/>
-      <c r="T47" s="229"/>
-      <c r="U47" s="229"/>
-      <c r="V47" s="229"/>
-      <c r="W47" s="229"/>
-      <c r="X47" s="229"/>
-      <c r="Y47" s="229"/>
-      <c r="Z47" s="229"/>
-      <c r="AA47" s="229"/>
-      <c r="AB47" s="229"/>
-      <c r="AC47" s="229"/>
-      <c r="AD47" s="229"/>
-      <c r="AE47" s="229"/>
-      <c r="AF47" s="229"/>
-      <c r="AG47" s="229"/>
-      <c r="AH47" s="229"/>
-      <c r="AI47" s="229"/>
-      <c r="AJ47" s="229"/>
-      <c r="AK47" s="229"/>
-      <c r="AL47" s="229"/>
-      <c r="AM47" s="229"/>
-      <c r="AN47" s="229"/>
+      <c r="B47" s="426"/>
+      <c r="C47" s="269" t="s">
+        <v>375</v>
+      </c>
+      <c r="D47" s="366" t="s">
+        <v>80</v>
+      </c>
+      <c r="E47" s="367"/>
+      <c r="F47" s="184"/>
+      <c r="G47" s="367"/>
+      <c r="H47" s="184"/>
+      <c r="I47" s="223"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="29"/>
+      <c r="M47" s="29"/>
+      <c r="N47" s="29"/>
+      <c r="O47" s="29"/>
+      <c r="P47" s="29"/>
+      <c r="Q47" s="29"/>
+      <c r="R47" s="29"/>
+      <c r="S47" s="29"/>
+      <c r="T47" s="29"/>
+      <c r="U47" s="29"/>
+      <c r="V47" s="29"/>
+      <c r="W47" s="29"/>
+      <c r="X47" s="29"/>
+      <c r="Y47" s="29"/>
+      <c r="Z47" s="29"/>
+      <c r="AA47" s="29"/>
+      <c r="AB47" s="29"/>
+      <c r="AC47" s="29"/>
+      <c r="AD47" s="29"/>
+      <c r="AE47" s="29"/>
+      <c r="AF47" s="29"/>
+      <c r="AG47" s="29"/>
+      <c r="AH47" s="29"/>
+      <c r="AI47" s="29"/>
+      <c r="AJ47" s="29"/>
+      <c r="AK47" s="29"/>
+      <c r="AL47" s="29"/>
+      <c r="AM47" s="29"/>
+      <c r="AN47" s="29"/>
     </row>
     <row r="48" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A48" s="224"/>
-      <c r="B48" s="417"/>
-      <c r="C48" s="269" t="s">
-        <v>374</v>
-      </c>
-      <c r="D48" s="318" t="s">
-        <v>80</v>
-      </c>
-      <c r="E48" s="317"/>
-      <c r="F48" s="230"/>
-      <c r="G48" s="317"/>
-      <c r="H48" s="184"/>
+      <c r="A48" s="222"/>
+      <c r="B48" s="421"/>
+      <c r="C48" s="422"/>
+      <c r="D48" s="422"/>
+      <c r="E48" s="422"/>
+      <c r="F48" s="422"/>
+      <c r="G48" s="422"/>
+      <c r="H48" s="423"/>
       <c r="I48" s="223"/>
       <c r="J48" s="29"/>
       <c r="K48" s="29"/>
@@ -19245,18 +19323,20 @@
       <c r="AM48" s="29"/>
       <c r="AN48" s="29"/>
     </row>
-    <row r="49" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A49" s="231"/>
-      <c r="B49" s="417"/>
+    <row r="49" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="222"/>
+      <c r="B49" s="426" t="s">
+        <v>572</v>
+      </c>
       <c r="C49" s="269" t="s">
-        <v>375</v>
-      </c>
-      <c r="D49" s="318" t="s">
+        <v>374</v>
+      </c>
+      <c r="D49" s="366" t="s">
         <v>80</v>
       </c>
-      <c r="E49" s="317"/>
-      <c r="F49" s="184"/>
-      <c r="G49" s="317"/>
+      <c r="E49" s="367"/>
+      <c r="F49" s="230"/>
+      <c r="G49" s="367"/>
       <c r="H49" s="184"/>
       <c r="I49" s="223"/>
       <c r="J49" s="29"/>
@@ -19292,14 +19372,18 @@
       <c r="AN49" s="29"/>
     </row>
     <row r="50" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A50" s="231"/>
-      <c r="B50" s="429"/>
-      <c r="C50" s="430"/>
-      <c r="D50" s="430"/>
-      <c r="E50" s="430"/>
-      <c r="F50" s="430"/>
-      <c r="G50" s="430"/>
-      <c r="H50" s="431"/>
+      <c r="A50" s="222"/>
+      <c r="B50" s="426"/>
+      <c r="C50" s="269" t="s">
+        <v>375</v>
+      </c>
+      <c r="D50" s="366" t="s">
+        <v>80</v>
+      </c>
+      <c r="E50" s="367"/>
+      <c r="F50" s="184"/>
+      <c r="G50" s="367"/>
+      <c r="H50" s="184"/>
       <c r="I50" s="223"/>
       <c r="J50" s="29"/>
       <c r="K50" s="29"/>
@@ -19333,19 +19417,15 @@
       <c r="AM50" s="29"/>
       <c r="AN50" s="29"/>
     </row>
-    <row r="51" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A51" s="222"/>
-      <c r="B51" s="417"/>
-      <c r="C51" s="269" t="s">
-        <v>374</v>
-      </c>
-      <c r="D51" s="318" t="s">
-        <v>80</v>
-      </c>
-      <c r="E51" s="317"/>
-      <c r="F51" s="230"/>
-      <c r="G51" s="317"/>
-      <c r="H51" s="184"/>
+      <c r="B51" s="421"/>
+      <c r="C51" s="422"/>
+      <c r="D51" s="422"/>
+      <c r="E51" s="422"/>
+      <c r="F51" s="422"/>
+      <c r="G51" s="422"/>
+      <c r="H51" s="423"/>
       <c r="I51" s="223"/>
       <c r="J51" s="29"/>
       <c r="K51" s="29"/>
@@ -19379,18 +19459,20 @@
       <c r="AM51" s="29"/>
       <c r="AN51" s="29"/>
     </row>
-    <row r="52" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A52" s="231"/>
-      <c r="B52" s="417"/>
+    <row r="52" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="222"/>
+      <c r="B52" s="426" t="s">
+        <v>573</v>
+      </c>
       <c r="C52" s="269" t="s">
-        <v>375</v>
-      </c>
-      <c r="D52" s="318" t="s">
+        <v>374</v>
+      </c>
+      <c r="D52" s="366" t="s">
         <v>80</v>
       </c>
-      <c r="E52" s="317"/>
-      <c r="F52" s="184"/>
-      <c r="G52" s="317"/>
+      <c r="E52" s="367"/>
+      <c r="F52" s="230"/>
+      <c r="G52" s="367"/>
       <c r="H52" s="184"/>
       <c r="I52" s="223"/>
       <c r="J52" s="29"/>
@@ -19427,13 +19509,17 @@
     </row>
     <row r="53" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A53" s="222"/>
-      <c r="B53" s="429"/>
-      <c r="C53" s="430"/>
-      <c r="D53" s="430"/>
-      <c r="E53" s="430"/>
-      <c r="F53" s="430"/>
-      <c r="G53" s="430"/>
-      <c r="H53" s="431"/>
+      <c r="B53" s="426"/>
+      <c r="C53" s="269" t="s">
+        <v>375</v>
+      </c>
+      <c r="D53" s="366" t="s">
+        <v>80</v>
+      </c>
+      <c r="E53" s="367"/>
+      <c r="F53" s="184"/>
+      <c r="G53" s="367"/>
+      <c r="H53" s="184"/>
       <c r="I53" s="223"/>
       <c r="J53" s="29"/>
       <c r="K53" s="29"/>
@@ -19467,19 +19553,15 @@
       <c r="AM53" s="29"/>
       <c r="AN53" s="29"/>
     </row>
-    <row r="54" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A54" s="222"/>
-      <c r="B54" s="417"/>
-      <c r="C54" s="269" t="s">
-        <v>374</v>
-      </c>
-      <c r="D54" s="318" t="s">
-        <v>80</v>
-      </c>
-      <c r="E54" s="317"/>
-      <c r="F54" s="230"/>
-      <c r="G54" s="317"/>
-      <c r="H54" s="184"/>
+      <c r="B54" s="421"/>
+      <c r="C54" s="422"/>
+      <c r="D54" s="422"/>
+      <c r="E54" s="422"/>
+      <c r="F54" s="422"/>
+      <c r="G54" s="422"/>
+      <c r="H54" s="423"/>
       <c r="I54" s="223"/>
       <c r="J54" s="29"/>
       <c r="K54" s="29"/>
@@ -19513,18 +19595,20 @@
       <c r="AM54" s="29"/>
       <c r="AN54" s="29"/>
     </row>
-    <row r="55" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="222"/>
-      <c r="B55" s="417"/>
+      <c r="B55" s="426" t="s">
+        <v>574</v>
+      </c>
       <c r="C55" s="269" t="s">
-        <v>375</v>
-      </c>
-      <c r="D55" s="318" t="s">
+        <v>374</v>
+      </c>
+      <c r="D55" s="366" t="s">
         <v>80</v>
       </c>
-      <c r="E55" s="317"/>
-      <c r="F55" s="184"/>
-      <c r="G55" s="317"/>
+      <c r="E55" s="367"/>
+      <c r="F55" s="230"/>
+      <c r="G55" s="367"/>
       <c r="H55" s="184"/>
       <c r="I55" s="223"/>
       <c r="J55" s="29"/>
@@ -19561,13 +19645,17 @@
     </row>
     <row r="56" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A56" s="222"/>
-      <c r="B56" s="429"/>
-      <c r="C56" s="430"/>
-      <c r="D56" s="430"/>
-      <c r="E56" s="430"/>
-      <c r="F56" s="430"/>
-      <c r="G56" s="430"/>
-      <c r="H56" s="431"/>
+      <c r="B56" s="426"/>
+      <c r="C56" s="269" t="s">
+        <v>375</v>
+      </c>
+      <c r="D56" s="366" t="s">
+        <v>80</v>
+      </c>
+      <c r="E56" s="367"/>
+      <c r="F56" s="184"/>
+      <c r="G56" s="367"/>
+      <c r="H56" s="184"/>
       <c r="I56" s="223"/>
       <c r="J56" s="29"/>
       <c r="K56" s="29"/>
@@ -19603,15 +19691,15 @@
     </row>
     <row r="57" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A57" s="222"/>
-      <c r="B57" s="188"/>
-      <c r="C57" s="189"/>
-      <c r="D57" s="186"/>
-      <c r="E57" s="292"/>
-      <c r="F57" s="189"/>
-      <c r="G57" s="48"/>
-      <c r="H57" s="190"/>
-      <c r="I57" s="213"/>
-      <c r="J57" s="213"/>
+      <c r="B57" s="421"/>
+      <c r="C57" s="422"/>
+      <c r="D57" s="422"/>
+      <c r="E57" s="422"/>
+      <c r="F57" s="422"/>
+      <c r="G57" s="422"/>
+      <c r="H57" s="423"/>
+      <c r="I57" s="223"/>
+      <c r="J57" s="29"/>
       <c r="K57" s="29"/>
       <c r="L57" s="29"/>
       <c r="M57" s="29"/>
@@ -19643,17 +19731,23 @@
       <c r="AM57" s="29"/>
       <c r="AN57" s="29"/>
     </row>
-    <row r="58" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A58" s="213"/>
-      <c r="B58" s="188"/>
-      <c r="C58" s="189"/>
-      <c r="D58" s="186"/>
-      <c r="E58" s="292"/>
-      <c r="F58" s="189"/>
-      <c r="G58" s="48"/>
-      <c r="H58" s="190"/>
-      <c r="I58" s="213"/>
-      <c r="J58" s="213"/>
+    <row r="58" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="222"/>
+      <c r="B58" s="426" t="s">
+        <v>575</v>
+      </c>
+      <c r="C58" s="269" t="s">
+        <v>374</v>
+      </c>
+      <c r="D58" s="366" t="s">
+        <v>80</v>
+      </c>
+      <c r="E58" s="367"/>
+      <c r="F58" s="230"/>
+      <c r="G58" s="367"/>
+      <c r="H58" s="184"/>
+      <c r="I58" s="223"/>
+      <c r="J58" s="29"/>
       <c r="K58" s="29"/>
       <c r="L58" s="29"/>
       <c r="M58" s="29"/>
@@ -19686,16 +19780,20 @@
       <c r="AN58" s="29"/>
     </row>
     <row r="59" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A59" s="213"/>
-      <c r="B59" s="188"/>
-      <c r="C59" s="189"/>
-      <c r="D59" s="186"/>
-      <c r="E59" s="292"/>
-      <c r="F59" s="189"/>
-      <c r="G59" s="48"/>
-      <c r="H59" s="190"/>
-      <c r="I59" s="213"/>
-      <c r="J59" s="213"/>
+      <c r="A59" s="222"/>
+      <c r="B59" s="426"/>
+      <c r="C59" s="269" t="s">
+        <v>375</v>
+      </c>
+      <c r="D59" s="366" t="s">
+        <v>80</v>
+      </c>
+      <c r="E59" s="367"/>
+      <c r="F59" s="184"/>
+      <c r="G59" s="367"/>
+      <c r="H59" s="184"/>
+      <c r="I59" s="223"/>
+      <c r="J59" s="29"/>
       <c r="K59" s="29"/>
       <c r="L59" s="29"/>
       <c r="M59" s="29"/>
@@ -19728,16 +19826,16 @@
       <c r="AN59" s="29"/>
     </row>
     <row r="60" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A60" s="213"/>
-      <c r="B60" s="188"/>
-      <c r="C60" s="189"/>
-      <c r="D60" s="186"/>
-      <c r="E60" s="292"/>
-      <c r="F60" s="189"/>
-      <c r="G60" s="48"/>
-      <c r="H60" s="190"/>
-      <c r="I60" s="213"/>
-      <c r="J60" s="213"/>
+      <c r="A60" s="222"/>
+      <c r="B60" s="421"/>
+      <c r="C60" s="422"/>
+      <c r="D60" s="422"/>
+      <c r="E60" s="422"/>
+      <c r="F60" s="422"/>
+      <c r="G60" s="422"/>
+      <c r="H60" s="423"/>
+      <c r="I60" s="223"/>
+      <c r="J60" s="29"/>
       <c r="K60" s="29"/>
       <c r="L60" s="29"/>
       <c r="M60" s="29"/>
@@ -19769,17 +19867,19 @@
       <c r="AM60" s="29"/>
       <c r="AN60" s="29"/>
     </row>
-    <row r="61" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A61" s="213"/>
-      <c r="B61" s="188"/>
-      <c r="C61" s="189"/>
-      <c r="D61" s="186"/>
-      <c r="E61" s="292"/>
-      <c r="F61" s="189"/>
-      <c r="G61" s="48"/>
-      <c r="H61" s="190"/>
-      <c r="I61" s="213"/>
-      <c r="J61" s="213"/>
+    <row r="61" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="222"/>
+      <c r="B61" s="427" t="s">
+        <v>83</v>
+      </c>
+      <c r="C61" s="428"/>
+      <c r="D61" s="428"/>
+      <c r="E61" s="428"/>
+      <c r="F61" s="428"/>
+      <c r="G61" s="428"/>
+      <c r="H61" s="429"/>
+      <c r="I61" s="223"/>
+      <c r="J61" s="29"/>
       <c r="K61" s="29"/>
       <c r="L61" s="29"/>
       <c r="M61" s="29"/>
@@ -19811,59 +19911,75 @@
       <c r="AM61" s="29"/>
       <c r="AN61" s="29"/>
     </row>
-    <row r="62" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A62" s="213"/>
-      <c r="B62" s="188"/>
-      <c r="C62" s="189"/>
-      <c r="D62" s="186"/>
-      <c r="E62" s="292"/>
-      <c r="F62" s="189"/>
-      <c r="G62" s="48"/>
-      <c r="H62" s="190"/>
-      <c r="I62" s="213"/>
-      <c r="J62" s="213"/>
-      <c r="K62" s="29"/>
-      <c r="L62" s="29"/>
-      <c r="M62" s="29"/>
-      <c r="N62" s="29"/>
-      <c r="O62" s="29"/>
-      <c r="P62" s="29"/>
-      <c r="Q62" s="29"/>
-      <c r="R62" s="29"/>
-      <c r="S62" s="29"/>
-      <c r="T62" s="29"/>
-      <c r="U62" s="29"/>
-      <c r="V62" s="29"/>
-      <c r="W62" s="29"/>
-      <c r="X62" s="29"/>
-      <c r="Y62" s="29"/>
-      <c r="Z62" s="29"/>
-      <c r="AA62" s="29"/>
-      <c r="AB62" s="29"/>
-      <c r="AC62" s="29"/>
-      <c r="AD62" s="29"/>
-      <c r="AE62" s="29"/>
-      <c r="AF62" s="29"/>
-      <c r="AG62" s="29"/>
-      <c r="AH62" s="29"/>
-      <c r="AI62" s="29"/>
-      <c r="AJ62" s="29"/>
-      <c r="AK62" s="29"/>
-      <c r="AL62" s="29"/>
-      <c r="AM62" s="29"/>
-      <c r="AN62" s="29"/>
+    <row r="62" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="222"/>
+      <c r="B62" s="260" t="s">
+        <v>40</v>
+      </c>
+      <c r="C62" s="424" t="s">
+        <v>77</v>
+      </c>
+      <c r="D62" s="425"/>
+      <c r="E62" s="225" t="s">
+        <v>78</v>
+      </c>
+      <c r="F62" s="321" t="s">
+        <v>44</v>
+      </c>
+      <c r="G62" s="227" t="s">
+        <v>79</v>
+      </c>
+      <c r="H62" s="226" t="s">
+        <v>44</v>
+      </c>
+      <c r="I62" s="228"/>
+      <c r="J62" s="229"/>
+      <c r="K62" s="229"/>
+      <c r="L62" s="229"/>
+      <c r="M62" s="229"/>
+      <c r="N62" s="229"/>
+      <c r="O62" s="229"/>
+      <c r="P62" s="229"/>
+      <c r="Q62" s="229"/>
+      <c r="R62" s="229"/>
+      <c r="S62" s="229"/>
+      <c r="T62" s="229"/>
+      <c r="U62" s="229"/>
+      <c r="V62" s="229"/>
+      <c r="W62" s="229"/>
+      <c r="X62" s="229"/>
+      <c r="Y62" s="229"/>
+      <c r="Z62" s="229"/>
+      <c r="AA62" s="229"/>
+      <c r="AB62" s="229"/>
+      <c r="AC62" s="229"/>
+      <c r="AD62" s="229"/>
+      <c r="AE62" s="229"/>
+      <c r="AF62" s="229"/>
+      <c r="AG62" s="229"/>
+      <c r="AH62" s="229"/>
+      <c r="AI62" s="229"/>
+      <c r="AJ62" s="229"/>
+      <c r="AK62" s="229"/>
+      <c r="AL62" s="229"/>
+      <c r="AM62" s="229"/>
+      <c r="AN62" s="229"/>
     </row>
     <row r="63" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A63" s="213"/>
-      <c r="B63" s="188"/>
-      <c r="C63" s="189"/>
-      <c r="D63" s="186"/>
-      <c r="E63" s="292"/>
-      <c r="F63" s="189"/>
-      <c r="G63" s="48"/>
-      <c r="H63" s="190"/>
-      <c r="I63" s="213"/>
-      <c r="J63" s="213"/>
+      <c r="A63" s="224"/>
+      <c r="B63" s="426"/>
+      <c r="C63" s="269" t="s">
+        <v>374</v>
+      </c>
+      <c r="D63" s="318" t="s">
+        <v>80</v>
+      </c>
+      <c r="E63" s="317"/>
+      <c r="F63" s="230"/>
+      <c r="G63" s="317"/>
+      <c r="H63" s="184"/>
+      <c r="I63" s="223"/>
+      <c r="J63" s="29"/>
       <c r="K63" s="29"/>
       <c r="L63" s="29"/>
       <c r="M63" s="29"/>
@@ -19896,16 +20012,20 @@
       <c r="AN63" s="29"/>
     </row>
     <row r="64" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A64" s="213"/>
-      <c r="B64" s="188"/>
-      <c r="C64" s="189"/>
-      <c r="D64" s="186"/>
-      <c r="E64" s="292"/>
-      <c r="F64" s="189"/>
-      <c r="G64" s="48"/>
-      <c r="H64" s="190"/>
-      <c r="I64" s="213"/>
-      <c r="J64" s="213"/>
+      <c r="A64" s="231"/>
+      <c r="B64" s="426"/>
+      <c r="C64" s="269" t="s">
+        <v>375</v>
+      </c>
+      <c r="D64" s="318" t="s">
+        <v>80</v>
+      </c>
+      <c r="E64" s="317"/>
+      <c r="F64" s="184"/>
+      <c r="G64" s="317"/>
+      <c r="H64" s="184"/>
+      <c r="I64" s="223"/>
+      <c r="J64" s="29"/>
       <c r="K64" s="29"/>
       <c r="L64" s="29"/>
       <c r="M64" s="29"/>
@@ -19938,16 +20058,16 @@
       <c r="AN64" s="29"/>
     </row>
     <row r="65" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A65" s="213"/>
-      <c r="B65" s="188"/>
-      <c r="C65" s="189"/>
-      <c r="D65" s="186"/>
-      <c r="E65" s="292"/>
-      <c r="F65" s="189"/>
-      <c r="G65" s="48"/>
-      <c r="H65" s="190"/>
-      <c r="I65" s="213"/>
-      <c r="J65" s="213"/>
+      <c r="A65" s="231"/>
+      <c r="B65" s="421"/>
+      <c r="C65" s="422"/>
+      <c r="D65" s="422"/>
+      <c r="E65" s="422"/>
+      <c r="F65" s="422"/>
+      <c r="G65" s="422"/>
+      <c r="H65" s="423"/>
+      <c r="I65" s="223"/>
+      <c r="J65" s="29"/>
       <c r="K65" s="29"/>
       <c r="L65" s="29"/>
       <c r="M65" s="29"/>
@@ -19979,17 +20099,21 @@
       <c r="AM65" s="29"/>
       <c r="AN65" s="29"/>
     </row>
-    <row r="66" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A66" s="213"/>
-      <c r="B66" s="188"/>
-      <c r="C66" s="189"/>
-      <c r="D66" s="186"/>
-      <c r="E66" s="292"/>
-      <c r="F66" s="189"/>
-      <c r="G66" s="48"/>
-      <c r="H66" s="190"/>
-      <c r="I66" s="213"/>
-      <c r="J66" s="213"/>
+    <row r="66" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="222"/>
+      <c r="B66" s="426"/>
+      <c r="C66" s="269" t="s">
+        <v>374</v>
+      </c>
+      <c r="D66" s="318" t="s">
+        <v>80</v>
+      </c>
+      <c r="E66" s="317"/>
+      <c r="F66" s="230"/>
+      <c r="G66" s="317"/>
+      <c r="H66" s="184"/>
+      <c r="I66" s="223"/>
+      <c r="J66" s="29"/>
       <c r="K66" s="29"/>
       <c r="L66" s="29"/>
       <c r="M66" s="29"/>
@@ -20022,16 +20146,20 @@
       <c r="AN66" s="29"/>
     </row>
     <row r="67" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A67" s="213"/>
-      <c r="B67" s="188"/>
-      <c r="C67" s="189"/>
-      <c r="D67" s="186"/>
-      <c r="E67" s="292"/>
-      <c r="F67" s="189"/>
-      <c r="G67" s="48"/>
-      <c r="H67" s="190"/>
-      <c r="I67" s="213"/>
-      <c r="J67" s="213"/>
+      <c r="A67" s="231"/>
+      <c r="B67" s="426"/>
+      <c r="C67" s="269" t="s">
+        <v>375</v>
+      </c>
+      <c r="D67" s="318" t="s">
+        <v>80</v>
+      </c>
+      <c r="E67" s="317"/>
+      <c r="F67" s="184"/>
+      <c r="G67" s="317"/>
+      <c r="H67" s="184"/>
+      <c r="I67" s="223"/>
+      <c r="J67" s="29"/>
       <c r="K67" s="29"/>
       <c r="L67" s="29"/>
       <c r="M67" s="29"/>
@@ -20064,16 +20192,16 @@
       <c r="AN67" s="29"/>
     </row>
     <row r="68" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A68" s="213"/>
-      <c r="B68" s="188"/>
-      <c r="C68" s="189"/>
-      <c r="D68" s="186"/>
-      <c r="E68" s="292"/>
-      <c r="F68" s="189"/>
-      <c r="G68" s="48"/>
-      <c r="H68" s="190"/>
-      <c r="I68" s="213"/>
-      <c r="J68" s="213"/>
+      <c r="A68" s="222"/>
+      <c r="B68" s="421"/>
+      <c r="C68" s="422"/>
+      <c r="D68" s="422"/>
+      <c r="E68" s="422"/>
+      <c r="F68" s="422"/>
+      <c r="G68" s="422"/>
+      <c r="H68" s="423"/>
+      <c r="I68" s="223"/>
+      <c r="J68" s="29"/>
       <c r="K68" s="29"/>
       <c r="L68" s="29"/>
       <c r="M68" s="29"/>
@@ -20105,17 +20233,21 @@
       <c r="AM68" s="29"/>
       <c r="AN68" s="29"/>
     </row>
-    <row r="69" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A69" s="213"/>
-      <c r="B69" s="188"/>
-      <c r="C69" s="189"/>
-      <c r="D69" s="186"/>
-      <c r="E69" s="292"/>
-      <c r="F69" s="189"/>
-      <c r="G69" s="48"/>
-      <c r="H69" s="190"/>
-      <c r="I69" s="213"/>
-      <c r="J69" s="213"/>
+    <row r="69" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="222"/>
+      <c r="B69" s="426"/>
+      <c r="C69" s="269" t="s">
+        <v>374</v>
+      </c>
+      <c r="D69" s="318" t="s">
+        <v>80</v>
+      </c>
+      <c r="E69" s="317"/>
+      <c r="F69" s="230"/>
+      <c r="G69" s="317"/>
+      <c r="H69" s="184"/>
+      <c r="I69" s="223"/>
+      <c r="J69" s="29"/>
       <c r="K69" s="29"/>
       <c r="L69" s="29"/>
       <c r="M69" s="29"/>
@@ -20148,16 +20280,20 @@
       <c r="AN69" s="29"/>
     </row>
     <row r="70" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A70" s="213"/>
-      <c r="B70" s="188"/>
-      <c r="C70" s="189"/>
-      <c r="D70" s="186"/>
-      <c r="E70" s="292"/>
-      <c r="F70" s="189"/>
-      <c r="G70" s="48"/>
-      <c r="H70" s="190"/>
-      <c r="I70" s="213"/>
-      <c r="J70" s="213"/>
+      <c r="A70" s="222"/>
+      <c r="B70" s="426"/>
+      <c r="C70" s="269" t="s">
+        <v>375</v>
+      </c>
+      <c r="D70" s="318" t="s">
+        <v>80</v>
+      </c>
+      <c r="E70" s="317"/>
+      <c r="F70" s="184"/>
+      <c r="G70" s="317"/>
+      <c r="H70" s="184"/>
+      <c r="I70" s="223"/>
+      <c r="J70" s="29"/>
       <c r="K70" s="29"/>
       <c r="L70" s="29"/>
       <c r="M70" s="29"/>
@@ -20190,16 +20326,16 @@
       <c r="AN70" s="29"/>
     </row>
     <row r="71" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A71" s="213"/>
-      <c r="B71" s="188"/>
-      <c r="C71" s="189"/>
-      <c r="D71" s="186"/>
-      <c r="E71" s="292"/>
-      <c r="F71" s="189"/>
-      <c r="G71" s="48"/>
-      <c r="H71" s="190"/>
-      <c r="I71" s="213"/>
-      <c r="J71" s="213"/>
+      <c r="A71" s="222"/>
+      <c r="B71" s="421"/>
+      <c r="C71" s="422"/>
+      <c r="D71" s="422"/>
+      <c r="E71" s="422"/>
+      <c r="F71" s="422"/>
+      <c r="G71" s="422"/>
+      <c r="H71" s="423"/>
+      <c r="I71" s="223"/>
+      <c r="J71" s="29"/>
       <c r="K71" s="29"/>
       <c r="L71" s="29"/>
       <c r="M71" s="29"/>
@@ -20232,7 +20368,7 @@
       <c r="AN71" s="29"/>
     </row>
     <row r="72" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A72" s="213"/>
+      <c r="A72" s="222"/>
       <c r="B72" s="188"/>
       <c r="C72" s="189"/>
       <c r="D72" s="186"/>
@@ -20821,28 +20957,657 @@
     </row>
     <row r="86" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A86" s="213"/>
+      <c r="B86" s="188"/>
+      <c r="C86" s="189"/>
+      <c r="D86" s="186"/>
+      <c r="E86" s="292"/>
+      <c r="F86" s="189"/>
+      <c r="G86" s="48"/>
+      <c r="H86" s="190"/>
+      <c r="I86" s="213"/>
+      <c r="J86" s="213"/>
+      <c r="K86" s="29"/>
+      <c r="L86" s="29"/>
+      <c r="M86" s="29"/>
+      <c r="N86" s="29"/>
+      <c r="O86" s="29"/>
+      <c r="P86" s="29"/>
+      <c r="Q86" s="29"/>
+      <c r="R86" s="29"/>
+      <c r="S86" s="29"/>
+      <c r="T86" s="29"/>
+      <c r="U86" s="29"/>
+      <c r="V86" s="29"/>
+      <c r="W86" s="29"/>
+      <c r="X86" s="29"/>
+      <c r="Y86" s="29"/>
+      <c r="Z86" s="29"/>
+      <c r="AA86" s="29"/>
+      <c r="AB86" s="29"/>
+      <c r="AC86" s="29"/>
+      <c r="AD86" s="29"/>
+      <c r="AE86" s="29"/>
+      <c r="AF86" s="29"/>
+      <c r="AG86" s="29"/>
+      <c r="AH86" s="29"/>
+      <c r="AI86" s="29"/>
+      <c r="AJ86" s="29"/>
+      <c r="AK86" s="29"/>
+      <c r="AL86" s="29"/>
+      <c r="AM86" s="29"/>
+      <c r="AN86" s="29"/>
+    </row>
+    <row r="87" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A87" s="213"/>
+      <c r="B87" s="188"/>
+      <c r="C87" s="189"/>
+      <c r="D87" s="186"/>
+      <c r="E87" s="292"/>
+      <c r="F87" s="189"/>
+      <c r="G87" s="48"/>
+      <c r="H87" s="190"/>
+      <c r="I87" s="213"/>
+      <c r="J87" s="213"/>
+      <c r="K87" s="29"/>
+      <c r="L87" s="29"/>
+      <c r="M87" s="29"/>
+      <c r="N87" s="29"/>
+      <c r="O87" s="29"/>
+      <c r="P87" s="29"/>
+      <c r="Q87" s="29"/>
+      <c r="R87" s="29"/>
+      <c r="S87" s="29"/>
+      <c r="T87" s="29"/>
+      <c r="U87" s="29"/>
+      <c r="V87" s="29"/>
+      <c r="W87" s="29"/>
+      <c r="X87" s="29"/>
+      <c r="Y87" s="29"/>
+      <c r="Z87" s="29"/>
+      <c r="AA87" s="29"/>
+      <c r="AB87" s="29"/>
+      <c r="AC87" s="29"/>
+      <c r="AD87" s="29"/>
+      <c r="AE87" s="29"/>
+      <c r="AF87" s="29"/>
+      <c r="AG87" s="29"/>
+      <c r="AH87" s="29"/>
+      <c r="AI87" s="29"/>
+      <c r="AJ87" s="29"/>
+      <c r="AK87" s="29"/>
+      <c r="AL87" s="29"/>
+      <c r="AM87" s="29"/>
+      <c r="AN87" s="29"/>
+    </row>
+    <row r="88" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A88" s="213"/>
+      <c r="B88" s="188"/>
+      <c r="C88" s="189"/>
+      <c r="D88" s="186"/>
+      <c r="E88" s="292"/>
+      <c r="F88" s="189"/>
+      <c r="G88" s="48"/>
+      <c r="H88" s="190"/>
+      <c r="I88" s="213"/>
+      <c r="J88" s="213"/>
+      <c r="K88" s="29"/>
+      <c r="L88" s="29"/>
+      <c r="M88" s="29"/>
+      <c r="N88" s="29"/>
+      <c r="O88" s="29"/>
+      <c r="P88" s="29"/>
+      <c r="Q88" s="29"/>
+      <c r="R88" s="29"/>
+      <c r="S88" s="29"/>
+      <c r="T88" s="29"/>
+      <c r="U88" s="29"/>
+      <c r="V88" s="29"/>
+      <c r="W88" s="29"/>
+      <c r="X88" s="29"/>
+      <c r="Y88" s="29"/>
+      <c r="Z88" s="29"/>
+      <c r="AA88" s="29"/>
+      <c r="AB88" s="29"/>
+      <c r="AC88" s="29"/>
+      <c r="AD88" s="29"/>
+      <c r="AE88" s="29"/>
+      <c r="AF88" s="29"/>
+      <c r="AG88" s="29"/>
+      <c r="AH88" s="29"/>
+      <c r="AI88" s="29"/>
+      <c r="AJ88" s="29"/>
+      <c r="AK88" s="29"/>
+      <c r="AL88" s="29"/>
+      <c r="AM88" s="29"/>
+      <c r="AN88" s="29"/>
+    </row>
+    <row r="89" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A89" s="213"/>
+      <c r="B89" s="188"/>
+      <c r="C89" s="189"/>
+      <c r="D89" s="186"/>
+      <c r="E89" s="292"/>
+      <c r="F89" s="189"/>
+      <c r="G89" s="48"/>
+      <c r="H89" s="190"/>
+      <c r="I89" s="213"/>
+      <c r="J89" s="213"/>
+      <c r="K89" s="29"/>
+      <c r="L89" s="29"/>
+      <c r="M89" s="29"/>
+      <c r="N89" s="29"/>
+      <c r="O89" s="29"/>
+      <c r="P89" s="29"/>
+      <c r="Q89" s="29"/>
+      <c r="R89" s="29"/>
+      <c r="S89" s="29"/>
+      <c r="T89" s="29"/>
+      <c r="U89" s="29"/>
+      <c r="V89" s="29"/>
+      <c r="W89" s="29"/>
+      <c r="X89" s="29"/>
+      <c r="Y89" s="29"/>
+      <c r="Z89" s="29"/>
+      <c r="AA89" s="29"/>
+      <c r="AB89" s="29"/>
+      <c r="AC89" s="29"/>
+      <c r="AD89" s="29"/>
+      <c r="AE89" s="29"/>
+      <c r="AF89" s="29"/>
+      <c r="AG89" s="29"/>
+      <c r="AH89" s="29"/>
+      <c r="AI89" s="29"/>
+      <c r="AJ89" s="29"/>
+      <c r="AK89" s="29"/>
+      <c r="AL89" s="29"/>
+      <c r="AM89" s="29"/>
+      <c r="AN89" s="29"/>
+    </row>
+    <row r="90" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A90" s="213"/>
+      <c r="B90" s="188"/>
+      <c r="C90" s="189"/>
+      <c r="D90" s="186"/>
+      <c r="E90" s="292"/>
+      <c r="F90" s="189"/>
+      <c r="G90" s="48"/>
+      <c r="H90" s="190"/>
+      <c r="I90" s="213"/>
+      <c r="J90" s="213"/>
+      <c r="K90" s="29"/>
+      <c r="L90" s="29"/>
+      <c r="M90" s="29"/>
+      <c r="N90" s="29"/>
+      <c r="O90" s="29"/>
+      <c r="P90" s="29"/>
+      <c r="Q90" s="29"/>
+      <c r="R90" s="29"/>
+      <c r="S90" s="29"/>
+      <c r="T90" s="29"/>
+      <c r="U90" s="29"/>
+      <c r="V90" s="29"/>
+      <c r="W90" s="29"/>
+      <c r="X90" s="29"/>
+      <c r="Y90" s="29"/>
+      <c r="Z90" s="29"/>
+      <c r="AA90" s="29"/>
+      <c r="AB90" s="29"/>
+      <c r="AC90" s="29"/>
+      <c r="AD90" s="29"/>
+      <c r="AE90" s="29"/>
+      <c r="AF90" s="29"/>
+      <c r="AG90" s="29"/>
+      <c r="AH90" s="29"/>
+      <c r="AI90" s="29"/>
+      <c r="AJ90" s="29"/>
+      <c r="AK90" s="29"/>
+      <c r="AL90" s="29"/>
+      <c r="AM90" s="29"/>
+      <c r="AN90" s="29"/>
+    </row>
+    <row r="91" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A91" s="213"/>
+      <c r="B91" s="188"/>
+      <c r="C91" s="189"/>
+      <c r="D91" s="186"/>
+      <c r="E91" s="292"/>
+      <c r="F91" s="189"/>
+      <c r="G91" s="48"/>
+      <c r="H91" s="190"/>
+      <c r="I91" s="213"/>
+      <c r="J91" s="213"/>
+      <c r="K91" s="29"/>
+      <c r="L91" s="29"/>
+      <c r="M91" s="29"/>
+      <c r="N91" s="29"/>
+      <c r="O91" s="29"/>
+      <c r="P91" s="29"/>
+      <c r="Q91" s="29"/>
+      <c r="R91" s="29"/>
+      <c r="S91" s="29"/>
+      <c r="T91" s="29"/>
+      <c r="U91" s="29"/>
+      <c r="V91" s="29"/>
+      <c r="W91" s="29"/>
+      <c r="X91" s="29"/>
+      <c r="Y91" s="29"/>
+      <c r="Z91" s="29"/>
+      <c r="AA91" s="29"/>
+      <c r="AB91" s="29"/>
+      <c r="AC91" s="29"/>
+      <c r="AD91" s="29"/>
+      <c r="AE91" s="29"/>
+      <c r="AF91" s="29"/>
+      <c r="AG91" s="29"/>
+      <c r="AH91" s="29"/>
+      <c r="AI91" s="29"/>
+      <c r="AJ91" s="29"/>
+      <c r="AK91" s="29"/>
+      <c r="AL91" s="29"/>
+      <c r="AM91" s="29"/>
+      <c r="AN91" s="29"/>
+    </row>
+    <row r="92" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A92" s="213"/>
+      <c r="B92" s="188"/>
+      <c r="C92" s="189"/>
+      <c r="D92" s="186"/>
+      <c r="E92" s="292"/>
+      <c r="F92" s="189"/>
+      <c r="G92" s="48"/>
+      <c r="H92" s="190"/>
+      <c r="I92" s="213"/>
+      <c r="J92" s="213"/>
+      <c r="K92" s="29"/>
+      <c r="L92" s="29"/>
+      <c r="M92" s="29"/>
+      <c r="N92" s="29"/>
+      <c r="O92" s="29"/>
+      <c r="P92" s="29"/>
+      <c r="Q92" s="29"/>
+      <c r="R92" s="29"/>
+      <c r="S92" s="29"/>
+      <c r="T92" s="29"/>
+      <c r="U92" s="29"/>
+      <c r="V92" s="29"/>
+      <c r="W92" s="29"/>
+      <c r="X92" s="29"/>
+      <c r="Y92" s="29"/>
+      <c r="Z92" s="29"/>
+      <c r="AA92" s="29"/>
+      <c r="AB92" s="29"/>
+      <c r="AC92" s="29"/>
+      <c r="AD92" s="29"/>
+      <c r="AE92" s="29"/>
+      <c r="AF92" s="29"/>
+      <c r="AG92" s="29"/>
+      <c r="AH92" s="29"/>
+      <c r="AI92" s="29"/>
+      <c r="AJ92" s="29"/>
+      <c r="AK92" s="29"/>
+      <c r="AL92" s="29"/>
+      <c r="AM92" s="29"/>
+      <c r="AN92" s="29"/>
+    </row>
+    <row r="93" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A93" s="213"/>
+      <c r="B93" s="188"/>
+      <c r="C93" s="189"/>
+      <c r="D93" s="186"/>
+      <c r="E93" s="292"/>
+      <c r="F93" s="189"/>
+      <c r="G93" s="48"/>
+      <c r="H93" s="190"/>
+      <c r="I93" s="213"/>
+      <c r="J93" s="213"/>
+      <c r="K93" s="29"/>
+      <c r="L93" s="29"/>
+      <c r="M93" s="29"/>
+      <c r="N93" s="29"/>
+      <c r="O93" s="29"/>
+      <c r="P93" s="29"/>
+      <c r="Q93" s="29"/>
+      <c r="R93" s="29"/>
+      <c r="S93" s="29"/>
+      <c r="T93" s="29"/>
+      <c r="U93" s="29"/>
+      <c r="V93" s="29"/>
+      <c r="W93" s="29"/>
+      <c r="X93" s="29"/>
+      <c r="Y93" s="29"/>
+      <c r="Z93" s="29"/>
+      <c r="AA93" s="29"/>
+      <c r="AB93" s="29"/>
+      <c r="AC93" s="29"/>
+      <c r="AD93" s="29"/>
+      <c r="AE93" s="29"/>
+      <c r="AF93" s="29"/>
+      <c r="AG93" s="29"/>
+      <c r="AH93" s="29"/>
+      <c r="AI93" s="29"/>
+      <c r="AJ93" s="29"/>
+      <c r="AK93" s="29"/>
+      <c r="AL93" s="29"/>
+      <c r="AM93" s="29"/>
+      <c r="AN93" s="29"/>
+    </row>
+    <row r="94" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A94" s="213"/>
+      <c r="B94" s="188"/>
+      <c r="C94" s="189"/>
+      <c r="D94" s="186"/>
+      <c r="E94" s="292"/>
+      <c r="F94" s="189"/>
+      <c r="G94" s="48"/>
+      <c r="H94" s="190"/>
+      <c r="I94" s="213"/>
+      <c r="J94" s="213"/>
+      <c r="K94" s="29"/>
+      <c r="L94" s="29"/>
+      <c r="M94" s="29"/>
+      <c r="N94" s="29"/>
+      <c r="O94" s="29"/>
+      <c r="P94" s="29"/>
+      <c r="Q94" s="29"/>
+      <c r="R94" s="29"/>
+      <c r="S94" s="29"/>
+      <c r="T94" s="29"/>
+      <c r="U94" s="29"/>
+      <c r="V94" s="29"/>
+      <c r="W94" s="29"/>
+      <c r="X94" s="29"/>
+      <c r="Y94" s="29"/>
+      <c r="Z94" s="29"/>
+      <c r="AA94" s="29"/>
+      <c r="AB94" s="29"/>
+      <c r="AC94" s="29"/>
+      <c r="AD94" s="29"/>
+      <c r="AE94" s="29"/>
+      <c r="AF94" s="29"/>
+      <c r="AG94" s="29"/>
+      <c r="AH94" s="29"/>
+      <c r="AI94" s="29"/>
+      <c r="AJ94" s="29"/>
+      <c r="AK94" s="29"/>
+      <c r="AL94" s="29"/>
+      <c r="AM94" s="29"/>
+      <c r="AN94" s="29"/>
+    </row>
+    <row r="95" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A95" s="213"/>
+      <c r="B95" s="188"/>
+      <c r="C95" s="189"/>
+      <c r="D95" s="186"/>
+      <c r="E95" s="292"/>
+      <c r="F95" s="189"/>
+      <c r="G95" s="48"/>
+      <c r="H95" s="190"/>
+      <c r="I95" s="213"/>
+      <c r="J95" s="213"/>
+      <c r="K95" s="29"/>
+      <c r="L95" s="29"/>
+      <c r="M95" s="29"/>
+      <c r="N95" s="29"/>
+      <c r="O95" s="29"/>
+      <c r="P95" s="29"/>
+      <c r="Q95" s="29"/>
+      <c r="R95" s="29"/>
+      <c r="S95" s="29"/>
+      <c r="T95" s="29"/>
+      <c r="U95" s="29"/>
+      <c r="V95" s="29"/>
+      <c r="W95" s="29"/>
+      <c r="X95" s="29"/>
+      <c r="Y95" s="29"/>
+      <c r="Z95" s="29"/>
+      <c r="AA95" s="29"/>
+      <c r="AB95" s="29"/>
+      <c r="AC95" s="29"/>
+      <c r="AD95" s="29"/>
+      <c r="AE95" s="29"/>
+      <c r="AF95" s="29"/>
+      <c r="AG95" s="29"/>
+      <c r="AH95" s="29"/>
+      <c r="AI95" s="29"/>
+      <c r="AJ95" s="29"/>
+      <c r="AK95" s="29"/>
+      <c r="AL95" s="29"/>
+      <c r="AM95" s="29"/>
+      <c r="AN95" s="29"/>
+    </row>
+    <row r="96" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A96" s="213"/>
+      <c r="B96" s="188"/>
+      <c r="C96" s="189"/>
+      <c r="D96" s="186"/>
+      <c r="E96" s="292"/>
+      <c r="F96" s="189"/>
+      <c r="G96" s="48"/>
+      <c r="H96" s="190"/>
+      <c r="I96" s="213"/>
+      <c r="J96" s="213"/>
+      <c r="K96" s="29"/>
+      <c r="L96" s="29"/>
+      <c r="M96" s="29"/>
+      <c r="N96" s="29"/>
+      <c r="O96" s="29"/>
+      <c r="P96" s="29"/>
+      <c r="Q96" s="29"/>
+      <c r="R96" s="29"/>
+      <c r="S96" s="29"/>
+      <c r="T96" s="29"/>
+      <c r="U96" s="29"/>
+      <c r="V96" s="29"/>
+      <c r="W96" s="29"/>
+      <c r="X96" s="29"/>
+      <c r="Y96" s="29"/>
+      <c r="Z96" s="29"/>
+      <c r="AA96" s="29"/>
+      <c r="AB96" s="29"/>
+      <c r="AC96" s="29"/>
+      <c r="AD96" s="29"/>
+      <c r="AE96" s="29"/>
+      <c r="AF96" s="29"/>
+      <c r="AG96" s="29"/>
+      <c r="AH96" s="29"/>
+      <c r="AI96" s="29"/>
+      <c r="AJ96" s="29"/>
+      <c r="AK96" s="29"/>
+      <c r="AL96" s="29"/>
+      <c r="AM96" s="29"/>
+      <c r="AN96" s="29"/>
+    </row>
+    <row r="97" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A97" s="213"/>
+      <c r="B97" s="188"/>
+      <c r="C97" s="189"/>
+      <c r="D97" s="186"/>
+      <c r="E97" s="292"/>
+      <c r="F97" s="189"/>
+      <c r="G97" s="48"/>
+      <c r="H97" s="190"/>
+      <c r="I97" s="213"/>
+      <c r="J97" s="213"/>
+      <c r="K97" s="29"/>
+      <c r="L97" s="29"/>
+      <c r="M97" s="29"/>
+      <c r="N97" s="29"/>
+      <c r="O97" s="29"/>
+      <c r="P97" s="29"/>
+      <c r="Q97" s="29"/>
+      <c r="R97" s="29"/>
+      <c r="S97" s="29"/>
+      <c r="T97" s="29"/>
+      <c r="U97" s="29"/>
+      <c r="V97" s="29"/>
+      <c r="W97" s="29"/>
+      <c r="X97" s="29"/>
+      <c r="Y97" s="29"/>
+      <c r="Z97" s="29"/>
+      <c r="AA97" s="29"/>
+      <c r="AB97" s="29"/>
+      <c r="AC97" s="29"/>
+      <c r="AD97" s="29"/>
+      <c r="AE97" s="29"/>
+      <c r="AF97" s="29"/>
+      <c r="AG97" s="29"/>
+      <c r="AH97" s="29"/>
+      <c r="AI97" s="29"/>
+      <c r="AJ97" s="29"/>
+      <c r="AK97" s="29"/>
+      <c r="AL97" s="29"/>
+      <c r="AM97" s="29"/>
+      <c r="AN97" s="29"/>
+    </row>
+    <row r="98" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A98" s="213"/>
+      <c r="B98" s="188"/>
+      <c r="C98" s="189"/>
+      <c r="D98" s="186"/>
+      <c r="E98" s="292"/>
+      <c r="F98" s="189"/>
+      <c r="G98" s="48"/>
+      <c r="H98" s="190"/>
+      <c r="I98" s="213"/>
+      <c r="J98" s="213"/>
+      <c r="K98" s="29"/>
+      <c r="L98" s="29"/>
+      <c r="M98" s="29"/>
+      <c r="N98" s="29"/>
+      <c r="O98" s="29"/>
+      <c r="P98" s="29"/>
+      <c r="Q98" s="29"/>
+      <c r="R98" s="29"/>
+      <c r="S98" s="29"/>
+      <c r="T98" s="29"/>
+      <c r="U98" s="29"/>
+      <c r="V98" s="29"/>
+      <c r="W98" s="29"/>
+      <c r="X98" s="29"/>
+      <c r="Y98" s="29"/>
+      <c r="Z98" s="29"/>
+      <c r="AA98" s="29"/>
+      <c r="AB98" s="29"/>
+      <c r="AC98" s="29"/>
+      <c r="AD98" s="29"/>
+      <c r="AE98" s="29"/>
+      <c r="AF98" s="29"/>
+      <c r="AG98" s="29"/>
+      <c r="AH98" s="29"/>
+      <c r="AI98" s="29"/>
+      <c r="AJ98" s="29"/>
+      <c r="AK98" s="29"/>
+      <c r="AL98" s="29"/>
+      <c r="AM98" s="29"/>
+      <c r="AN98" s="29"/>
+    </row>
+    <row r="99" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A99" s="213"/>
+      <c r="B99" s="188"/>
+      <c r="C99" s="189"/>
+      <c r="D99" s="186"/>
+      <c r="E99" s="292"/>
+      <c r="F99" s="189"/>
+      <c r="G99" s="48"/>
+      <c r="H99" s="190"/>
+      <c r="I99" s="213"/>
+      <c r="J99" s="213"/>
+      <c r="K99" s="29"/>
+      <c r="L99" s="29"/>
+      <c r="M99" s="29"/>
+      <c r="N99" s="29"/>
+      <c r="O99" s="29"/>
+      <c r="P99" s="29"/>
+      <c r="Q99" s="29"/>
+      <c r="R99" s="29"/>
+      <c r="S99" s="29"/>
+      <c r="T99" s="29"/>
+      <c r="U99" s="29"/>
+      <c r="V99" s="29"/>
+      <c r="W99" s="29"/>
+      <c r="X99" s="29"/>
+      <c r="Y99" s="29"/>
+      <c r="Z99" s="29"/>
+      <c r="AA99" s="29"/>
+      <c r="AB99" s="29"/>
+      <c r="AC99" s="29"/>
+      <c r="AD99" s="29"/>
+      <c r="AE99" s="29"/>
+      <c r="AF99" s="29"/>
+      <c r="AG99" s="29"/>
+      <c r="AH99" s="29"/>
+      <c r="AI99" s="29"/>
+      <c r="AJ99" s="29"/>
+      <c r="AK99" s="29"/>
+      <c r="AL99" s="29"/>
+      <c r="AM99" s="29"/>
+      <c r="AN99" s="29"/>
+    </row>
+    <row r="100" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A100" s="213"/>
+      <c r="B100" s="188"/>
+      <c r="C100" s="189"/>
+      <c r="D100" s="186"/>
+      <c r="E100" s="292"/>
+      <c r="F100" s="189"/>
+      <c r="G100" s="48"/>
+      <c r="H100" s="190"/>
+      <c r="I100" s="213"/>
+      <c r="J100" s="213"/>
+      <c r="K100" s="29"/>
+      <c r="L100" s="29"/>
+      <c r="M100" s="29"/>
+      <c r="N100" s="29"/>
+      <c r="O100" s="29"/>
+      <c r="P100" s="29"/>
+      <c r="Q100" s="29"/>
+      <c r="R100" s="29"/>
+      <c r="S100" s="29"/>
+      <c r="T100" s="29"/>
+      <c r="U100" s="29"/>
+      <c r="V100" s="29"/>
+      <c r="W100" s="29"/>
+      <c r="X100" s="29"/>
+      <c r="Y100" s="29"/>
+      <c r="Z100" s="29"/>
+      <c r="AA100" s="29"/>
+      <c r="AB100" s="29"/>
+      <c r="AC100" s="29"/>
+      <c r="AD100" s="29"/>
+      <c r="AE100" s="29"/>
+      <c r="AF100" s="29"/>
+      <c r="AG100" s="29"/>
+      <c r="AH100" s="29"/>
+      <c r="AI100" s="29"/>
+      <c r="AJ100" s="29"/>
+      <c r="AK100" s="29"/>
+      <c r="AL100" s="29"/>
+      <c r="AM100" s="29"/>
+      <c r="AN100" s="29"/>
+    </row>
+    <row r="101" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A101" s="213"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B56:H56"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B50:H50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B53:H53"/>
-    <mergeCell ref="B46:H46"/>
+  <mergeCells count="49">
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:H45"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B54:H54"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B51:H51"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:H48"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B60:H60"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B61:H61"/>
     <mergeCell ref="B42:H42"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="C4:D4"/>
@@ -20851,18 +21616,29 @@
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:H45"/>
     <mergeCell ref="B37:B38"/>
     <mergeCell ref="B16:H16"/>
     <mergeCell ref="B13:H13"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B71:H71"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B65:H65"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="B68:H68"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:B33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20872,7 +21648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D1C7926-D64C-442F-9C0F-E045861C247A}">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E93" sqref="E93:E98"/>
     </sheetView>
   </sheetViews>
@@ -20893,10 +21669,10 @@
       <c r="B1" s="341" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="442" t="s">
+      <c r="C1" s="446" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="443"/>
+      <c r="D1" s="447"/>
       <c r="E1" s="341" t="s">
         <v>97</v>
       </c>
@@ -20911,10 +21687,10 @@
       <c r="B2" s="345" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="436" t="s">
+      <c r="C2" s="448" t="s">
         <v>377</v>
       </c>
-      <c r="D2" s="436"/>
+      <c r="D2" s="448"/>
       <c r="E2" s="345"/>
       <c r="F2" s="345"/>
     </row>
@@ -20923,10 +21699,10 @@
         <v>104</v>
       </c>
       <c r="B3" s="346"/>
-      <c r="C3" s="444" t="s">
+      <c r="C3" s="449" t="s">
         <v>378</v>
       </c>
-      <c r="D3" s="444"/>
+      <c r="D3" s="449"/>
       <c r="E3" s="347" t="s">
         <v>135</v>
       </c>
@@ -20939,10 +21715,10 @@
         <v>107</v>
       </c>
       <c r="B4" s="346"/>
-      <c r="C4" s="435" t="s">
+      <c r="C4" s="445" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="435"/>
+      <c r="D4" s="445"/>
       <c r="E4" s="347" t="s">
         <v>135</v>
       </c>
@@ -20957,10 +21733,10 @@
       <c r="B5" s="345" t="s">
         <v>379</v>
       </c>
-      <c r="C5" s="445" t="s">
+      <c r="C5" s="439" t="s">
         <v>381</v>
       </c>
-      <c r="D5" s="445"/>
+      <c r="D5" s="439"/>
       <c r="E5" s="345"/>
       <c r="F5" s="345"/>
     </row>
@@ -20968,10 +21744,10 @@
       <c r="A6" s="351" t="s">
         <v>109</v>
       </c>
-      <c r="C6" s="437" t="s">
+      <c r="C6" s="438" t="s">
         <v>382</v>
       </c>
-      <c r="D6" s="437"/>
+      <c r="D6" s="438"/>
       <c r="E6" s="347" t="s">
         <v>135</v>
       </c>
@@ -20998,10 +21774,10 @@
       <c r="A8" s="351" t="s">
         <v>482</v>
       </c>
-      <c r="C8" s="435" t="s">
+      <c r="C8" s="445" t="s">
         <v>483</v>
       </c>
-      <c r="D8" s="435"/>
+      <c r="D8" s="445"/>
       <c r="E8" s="347" t="s">
         <v>135</v>
       </c>
@@ -21013,10 +21789,10 @@
       <c r="A9" s="351" t="s">
         <v>504</v>
       </c>
-      <c r="C9" s="435" t="s">
+      <c r="C9" s="445" t="s">
         <v>505</v>
       </c>
-      <c r="D9" s="435"/>
+      <c r="D9" s="445"/>
       <c r="E9" s="310" t="s">
         <v>400</v>
       </c>
@@ -21031,10 +21807,10 @@
       <c r="B10" s="345" t="s">
         <v>379</v>
       </c>
-      <c r="C10" s="436" t="s">
+      <c r="C10" s="448" t="s">
         <v>380</v>
       </c>
-      <c r="D10" s="436"/>
+      <c r="D10" s="448"/>
       <c r="E10" s="345"/>
       <c r="F10" s="345"/>
     </row>
@@ -21042,10 +21818,10 @@
       <c r="A11" s="351" t="s">
         <v>110</v>
       </c>
-      <c r="C11" s="437" t="s">
+      <c r="C11" s="438" t="s">
         <v>389</v>
       </c>
-      <c r="D11" s="437"/>
+      <c r="D11" s="438"/>
       <c r="E11" s="347" t="s">
         <v>135</v>
       </c>
@@ -21057,10 +21833,10 @@
       <c r="A12" s="351" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="437" t="s">
+      <c r="C12" s="438" t="s">
         <v>390</v>
       </c>
-      <c r="D12" s="437"/>
+      <c r="D12" s="438"/>
       <c r="E12" s="347" t="s">
         <v>135</v>
       </c>
@@ -21072,10 +21848,10 @@
       <c r="A13" s="351" t="s">
         <v>401</v>
       </c>
-      <c r="C13" s="437" t="s">
+      <c r="C13" s="438" t="s">
         <v>391</v>
       </c>
-      <c r="D13" s="437"/>
+      <c r="D13" s="438"/>
       <c r="E13" s="347" t="s">
         <v>135</v>
       </c>
@@ -21087,10 +21863,10 @@
       <c r="A14" s="351" t="s">
         <v>402</v>
       </c>
-      <c r="C14" s="437" t="s">
+      <c r="C14" s="438" t="s">
         <v>392</v>
       </c>
-      <c r="D14" s="437"/>
+      <c r="D14" s="438"/>
       <c r="E14" s="347" t="s">
         <v>135</v>
       </c>
@@ -21102,10 +21878,10 @@
       <c r="A15" s="351" t="s">
         <v>403</v>
       </c>
-      <c r="C15" s="437" t="s">
+      <c r="C15" s="438" t="s">
         <v>393</v>
       </c>
-      <c r="D15" s="437"/>
+      <c r="D15" s="438"/>
       <c r="E15" s="347" t="s">
         <v>135</v>
       </c>
@@ -21117,10 +21893,10 @@
       <c r="A16" s="351" t="s">
         <v>404</v>
       </c>
-      <c r="C16" s="437" t="s">
+      <c r="C16" s="438" t="s">
         <v>394</v>
       </c>
-      <c r="D16" s="437"/>
+      <c r="D16" s="438"/>
       <c r="E16" s="347" t="s">
         <v>135</v>
       </c>
@@ -21132,10 +21908,10 @@
       <c r="A17" s="351" t="s">
         <v>405</v>
       </c>
-      <c r="C17" s="437" t="s">
+      <c r="C17" s="438" t="s">
         <v>395</v>
       </c>
-      <c r="D17" s="437"/>
+      <c r="D17" s="438"/>
       <c r="E17" s="347" t="s">
         <v>135</v>
       </c>
@@ -21147,10 +21923,10 @@
       <c r="A18" s="351" t="s">
         <v>406</v>
       </c>
-      <c r="C18" s="437" t="s">
+      <c r="C18" s="438" t="s">
         <v>396</v>
       </c>
-      <c r="D18" s="437"/>
+      <c r="D18" s="438"/>
       <c r="E18" s="347" t="s">
         <v>135</v>
       </c>
@@ -21162,10 +21938,10 @@
       <c r="A19" s="351" t="s">
         <v>407</v>
       </c>
-      <c r="C19" s="437" t="s">
+      <c r="C19" s="438" t="s">
         <v>397</v>
       </c>
-      <c r="D19" s="437"/>
+      <c r="D19" s="438"/>
       <c r="E19" s="347" t="s">
         <v>135</v>
       </c>
@@ -21177,10 +21953,10 @@
       <c r="A20" s="351" t="s">
         <v>408</v>
       </c>
-      <c r="C20" s="437" t="s">
+      <c r="C20" s="438" t="s">
         <v>398</v>
       </c>
-      <c r="D20" s="437"/>
+      <c r="D20" s="438"/>
       <c r="E20" s="347" t="s">
         <v>135</v>
       </c>
@@ -21192,10 +21968,10 @@
       <c r="A21" s="351" t="s">
         <v>409</v>
       </c>
-      <c r="C21" s="437" t="s">
+      <c r="C21" s="438" t="s">
         <v>399</v>
       </c>
-      <c r="D21" s="437"/>
+      <c r="D21" s="438"/>
       <c r="E21" s="347" t="s">
         <v>135</v>
       </c>
@@ -21225,10 +22001,10 @@
       <c r="B23" s="345" t="s">
         <v>417</v>
       </c>
-      <c r="C23" s="439" t="s">
+      <c r="C23" s="443" t="s">
         <v>410</v>
       </c>
-      <c r="D23" s="439"/>
+      <c r="D23" s="443"/>
       <c r="E23" s="345"/>
       <c r="F23" s="345"/>
     </row>
@@ -21236,10 +22012,10 @@
       <c r="A24" s="351" t="s">
         <v>423</v>
       </c>
-      <c r="C24" s="440" t="s">
+      <c r="C24" s="442" t="s">
         <v>426</v>
       </c>
-      <c r="D24" s="440"/>
+      <c r="D24" s="442"/>
       <c r="E24" s="347" t="s">
         <v>135</v>
       </c>
@@ -21251,10 +22027,10 @@
       <c r="A25" s="351" t="s">
         <v>424</v>
       </c>
-      <c r="C25" s="440" t="s">
+      <c r="C25" s="442" t="s">
         <v>425</v>
       </c>
-      <c r="D25" s="440"/>
+      <c r="D25" s="442"/>
       <c r="E25" s="347" t="s">
         <v>135</v>
       </c>
@@ -21266,10 +22042,10 @@
       <c r="A26" s="351" t="s">
         <v>427</v>
       </c>
-      <c r="C26" s="440" t="s">
+      <c r="C26" s="442" t="s">
         <v>459</v>
       </c>
-      <c r="D26" s="440"/>
+      <c r="D26" s="442"/>
       <c r="E26" s="310" t="s">
         <v>400</v>
       </c>
@@ -21281,10 +22057,10 @@
       <c r="A27" s="351" t="s">
         <v>450</v>
       </c>
-      <c r="C27" s="434" t="s">
+      <c r="C27" s="441" t="s">
         <v>452</v>
       </c>
-      <c r="D27" s="434"/>
+      <c r="D27" s="441"/>
       <c r="E27" s="310" t="s">
         <v>400</v>
       </c>
@@ -21296,10 +22072,10 @@
       <c r="A28" s="351" t="s">
         <v>428</v>
       </c>
-      <c r="C28" s="440" t="s">
+      <c r="C28" s="442" t="s">
         <v>451</v>
       </c>
-      <c r="D28" s="440"/>
+      <c r="D28" s="442"/>
       <c r="E28" s="310" t="s">
         <v>400</v>
       </c>
@@ -21311,10 +22087,10 @@
       <c r="A29" s="351" t="s">
         <v>453</v>
       </c>
-      <c r="C29" s="440" t="s">
+      <c r="C29" s="442" t="s">
         <v>460</v>
       </c>
-      <c r="D29" s="440"/>
+      <c r="D29" s="442"/>
       <c r="E29" s="310" t="s">
         <v>400</v>
       </c>
@@ -21326,10 +22102,10 @@
       <c r="A30" s="351" t="s">
         <v>454</v>
       </c>
-      <c r="C30" s="434" t="s">
+      <c r="C30" s="441" t="s">
         <v>455</v>
       </c>
-      <c r="D30" s="434"/>
+      <c r="D30" s="441"/>
       <c r="E30" s="310" t="s">
         <v>400</v>
       </c>
@@ -21341,10 +22117,10 @@
       <c r="A31" s="351" t="s">
         <v>456</v>
       </c>
-      <c r="C31" s="434" t="s">
+      <c r="C31" s="441" t="s">
         <v>457</v>
       </c>
-      <c r="D31" s="434"/>
+      <c r="D31" s="441"/>
       <c r="E31" s="310" t="s">
         <v>400</v>
       </c>
@@ -21356,10 +22132,10 @@
       <c r="A32" s="351" t="s">
         <v>458</v>
       </c>
-      <c r="C32" s="434" t="s">
+      <c r="C32" s="441" t="s">
         <v>468</v>
       </c>
-      <c r="D32" s="434"/>
+      <c r="D32" s="441"/>
       <c r="E32" s="310" t="s">
         <v>400</v>
       </c>
@@ -21371,10 +22147,10 @@
       <c r="A33" s="351" t="s">
         <v>463</v>
       </c>
-      <c r="C33" s="440" t="s">
+      <c r="C33" s="442" t="s">
         <v>469</v>
       </c>
-      <c r="D33" s="440"/>
+      <c r="D33" s="442"/>
       <c r="E33" s="310" t="s">
         <v>400</v>
       </c>
@@ -21386,10 +22162,10 @@
       <c r="A34" s="351" t="s">
         <v>466</v>
       </c>
-      <c r="C34" s="434" t="s">
+      <c r="C34" s="441" t="s">
         <v>461</v>
       </c>
-      <c r="D34" s="434"/>
+      <c r="D34" s="441"/>
       <c r="E34" s="310" t="s">
         <v>400</v>
       </c>
@@ -21401,10 +22177,10 @@
       <c r="A35" s="351" t="s">
         <v>470</v>
       </c>
-      <c r="C35" s="434" t="s">
+      <c r="C35" s="441" t="s">
         <v>462</v>
       </c>
-      <c r="D35" s="434"/>
+      <c r="D35" s="441"/>
       <c r="E35" s="310" t="s">
         <v>400</v>
       </c>
@@ -21416,10 +22192,10 @@
       <c r="A36" s="351" t="s">
         <v>471</v>
       </c>
-      <c r="C36" s="434" t="s">
+      <c r="C36" s="441" t="s">
         <v>465</v>
       </c>
-      <c r="D36" s="434"/>
+      <c r="D36" s="441"/>
       <c r="E36" s="347" t="s">
         <v>135</v>
       </c>
@@ -21431,10 +22207,10 @@
       <c r="A37" s="351" t="s">
         <v>472</v>
       </c>
-      <c r="C37" s="434" t="s">
+      <c r="C37" s="441" t="s">
         <v>464</v>
       </c>
-      <c r="D37" s="434"/>
+      <c r="D37" s="441"/>
       <c r="E37" s="310" t="s">
         <v>400</v>
       </c>
@@ -21446,10 +22222,10 @@
       <c r="A38" s="351" t="s">
         <v>473</v>
       </c>
-      <c r="C38" s="434" t="s">
+      <c r="C38" s="441" t="s">
         <v>467</v>
       </c>
-      <c r="D38" s="434"/>
+      <c r="D38" s="441"/>
       <c r="E38" s="310" t="s">
         <v>400</v>
       </c>
@@ -21458,36 +22234,36 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C39" s="434"/>
-      <c r="D39" s="434"/>
+      <c r="C39" s="441"/>
+      <c r="D39" s="441"/>
       <c r="E39" s="310" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C40" s="434"/>
-      <c r="D40" s="434"/>
+      <c r="C40" s="441"/>
+      <c r="D40" s="441"/>
       <c r="E40" s="310" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C41" s="434"/>
-      <c r="D41" s="434"/>
+      <c r="C41" s="441"/>
+      <c r="D41" s="441"/>
       <c r="E41" s="310" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C42" s="434"/>
-      <c r="D42" s="434"/>
+      <c r="C42" s="441"/>
+      <c r="D42" s="441"/>
       <c r="E42" s="310" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C43" s="434"/>
-      <c r="D43" s="434"/>
+      <c r="C43" s="441"/>
+      <c r="D43" s="441"/>
       <c r="E43" s="310" t="s">
         <v>400</v>
       </c>
@@ -21499,10 +22275,10 @@
       <c r="B44" s="345" t="s">
         <v>417</v>
       </c>
-      <c r="C44" s="439" t="s">
+      <c r="C44" s="443" t="s">
         <v>506</v>
       </c>
-      <c r="D44" s="439"/>
+      <c r="D44" s="443"/>
       <c r="E44" s="345"/>
       <c r="F44" s="345"/>
     </row>
@@ -21510,10 +22286,10 @@
       <c r="A45" s="351" t="s">
         <v>475</v>
       </c>
-      <c r="C45" s="440" t="s">
+      <c r="C45" s="442" t="s">
         <v>507</v>
       </c>
-      <c r="D45" s="440"/>
+      <c r="D45" s="442"/>
       <c r="E45" s="310" t="s">
         <v>400</v>
       </c>
@@ -21522,10 +22298,10 @@
       <c r="A46" s="351" t="s">
         <v>476</v>
       </c>
-      <c r="C46" s="440" t="s">
+      <c r="C46" s="442" t="s">
         <v>508</v>
       </c>
-      <c r="D46" s="440"/>
+      <c r="D46" s="442"/>
       <c r="E46" s="310" t="s">
         <v>400</v>
       </c>
@@ -21534,10 +22310,10 @@
       <c r="A47" s="351" t="s">
         <v>477</v>
       </c>
-      <c r="C47" s="440" t="s">
+      <c r="C47" s="442" t="s">
         <v>474</v>
       </c>
-      <c r="D47" s="440"/>
+      <c r="D47" s="442"/>
       <c r="E47" s="310" t="s">
         <v>400</v>
       </c>
@@ -21546,10 +22322,10 @@
       <c r="A48" s="351" t="s">
         <v>478</v>
       </c>
-      <c r="C48" s="434" t="s">
+      <c r="C48" s="441" t="s">
         <v>509</v>
       </c>
-      <c r="D48" s="434"/>
+      <c r="D48" s="441"/>
       <c r="E48" s="310" t="s">
         <v>400</v>
       </c>
@@ -21558,52 +22334,52 @@
       <c r="A49" s="351" t="s">
         <v>479</v>
       </c>
-      <c r="C49" s="434" t="s">
+      <c r="C49" s="441" t="s">
         <v>510</v>
       </c>
-      <c r="D49" s="434"/>
+      <c r="D49" s="441"/>
       <c r="E49" s="310" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C50" s="434"/>
-      <c r="D50" s="434"/>
+      <c r="C50" s="441"/>
+      <c r="D50" s="441"/>
       <c r="E50" s="310" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C51" s="434"/>
-      <c r="D51" s="434"/>
+      <c r="C51" s="441"/>
+      <c r="D51" s="441"/>
       <c r="E51" s="310" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C52" s="434"/>
-      <c r="D52" s="434"/>
+      <c r="C52" s="441"/>
+      <c r="D52" s="441"/>
       <c r="E52" s="310" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C53" s="434"/>
-      <c r="D53" s="434"/>
+      <c r="C53" s="441"/>
+      <c r="D53" s="441"/>
       <c r="E53" s="310" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C54" s="434"/>
-      <c r="D54" s="434"/>
+      <c r="C54" s="441"/>
+      <c r="D54" s="441"/>
       <c r="E54" s="310" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C55" s="434"/>
-      <c r="D55" s="434"/>
+      <c r="C55" s="441"/>
+      <c r="D55" s="441"/>
       <c r="E55" s="310" t="s">
         <v>400</v>
       </c>
@@ -21615,10 +22391,10 @@
       <c r="B56" s="345" t="s">
         <v>417</v>
       </c>
-      <c r="C56" s="448" t="s">
+      <c r="C56" s="437" t="s">
         <v>411</v>
       </c>
-      <c r="D56" s="448"/>
+      <c r="D56" s="437"/>
       <c r="E56" s="345"/>
       <c r="F56" s="345"/>
     </row>
@@ -21626,10 +22402,10 @@
       <c r="A57" s="351" t="s">
         <v>513</v>
       </c>
-      <c r="C57" s="435" t="s">
+      <c r="C57" s="445" t="s">
         <v>511</v>
       </c>
-      <c r="D57" s="435"/>
+      <c r="D57" s="445"/>
       <c r="E57" s="310" t="s">
         <v>400</v>
       </c>
@@ -21638,10 +22414,10 @@
       <c r="A58" s="351" t="s">
         <v>514</v>
       </c>
-      <c r="C58" s="435" t="s">
+      <c r="C58" s="445" t="s">
         <v>512</v>
       </c>
-      <c r="D58" s="435"/>
+      <c r="D58" s="445"/>
       <c r="E58" s="310" t="s">
         <v>400</v>
       </c>
@@ -21650,10 +22426,10 @@
       <c r="A59" s="351" t="s">
         <v>515</v>
       </c>
-      <c r="C59" s="435" t="s">
+      <c r="C59" s="445" t="s">
         <v>516</v>
       </c>
-      <c r="D59" s="435"/>
+      <c r="D59" s="445"/>
       <c r="E59" s="310" t="s">
         <v>400</v>
       </c>
@@ -21662,26 +22438,26 @@
       <c r="A60" s="351" t="s">
         <v>519</v>
       </c>
-      <c r="C60" s="435" t="s">
+      <c r="C60" s="445" t="s">
         <v>517</v>
       </c>
-      <c r="D60" s="435"/>
+      <c r="D60" s="445"/>
       <c r="E60" s="310" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C61" s="435"/>
-      <c r="D61" s="435"/>
+      <c r="C61" s="445"/>
+      <c r="D61" s="445"/>
       <c r="E61" s="310" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C62" s="435" t="s">
+      <c r="C62" s="445" t="s">
         <v>518</v>
       </c>
-      <c r="D62" s="435"/>
+      <c r="D62" s="445"/>
       <c r="E62" s="310" t="s">
         <v>400</v>
       </c>
@@ -21693,10 +22469,10 @@
       <c r="B63" s="345" t="s">
         <v>417</v>
       </c>
-      <c r="C63" s="439" t="s">
+      <c r="C63" s="443" t="s">
         <v>414</v>
       </c>
-      <c r="D63" s="439"/>
+      <c r="D63" s="443"/>
       <c r="E63" s="345"/>
       <c r="F63" s="345"/>
     </row>
@@ -21704,10 +22480,10 @@
       <c r="A64" s="351" t="s">
         <v>542</v>
       </c>
-      <c r="C64" s="435" t="s">
+      <c r="C64" s="445" t="s">
         <v>540</v>
       </c>
-      <c r="D64" s="435"/>
+      <c r="D64" s="445"/>
       <c r="E64" s="310" t="s">
         <v>400</v>
       </c>
@@ -21716,10 +22492,10 @@
       <c r="A65" s="351" t="s">
         <v>543</v>
       </c>
-      <c r="C65" s="435" t="s">
+      <c r="C65" s="445" t="s">
         <v>539</v>
       </c>
-      <c r="D65" s="435"/>
+      <c r="D65" s="445"/>
       <c r="E65" s="310" t="s">
         <v>400</v>
       </c>
@@ -21728,17 +22504,17 @@
       <c r="A66" s="351" t="s">
         <v>544</v>
       </c>
-      <c r="C66" s="435" t="s">
+      <c r="C66" s="445" t="s">
         <v>541</v>
       </c>
-      <c r="D66" s="435"/>
+      <c r="D66" s="445"/>
       <c r="E66" s="310" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C67" s="435"/>
-      <c r="D67" s="435"/>
+      <c r="C67" s="445"/>
+      <c r="D67" s="445"/>
       <c r="E67" s="345"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -21748,10 +22524,10 @@
       <c r="B68" s="345" t="s">
         <v>417</v>
       </c>
-      <c r="C68" s="439" t="s">
+      <c r="C68" s="443" t="s">
         <v>415</v>
       </c>
-      <c r="D68" s="439"/>
+      <c r="D68" s="443"/>
       <c r="E68" s="345"/>
       <c r="F68" s="345"/>
     </row>
@@ -21759,10 +22535,10 @@
       <c r="A69" s="351" t="s">
         <v>547</v>
       </c>
-      <c r="C69" s="435" t="s">
+      <c r="C69" s="445" t="s">
         <v>545</v>
       </c>
-      <c r="D69" s="435"/>
+      <c r="D69" s="445"/>
       <c r="E69" s="310" t="s">
         <v>400</v>
       </c>
@@ -21771,38 +22547,38 @@
       <c r="A70" s="351" t="s">
         <v>548</v>
       </c>
-      <c r="C70" s="435" t="s">
+      <c r="C70" s="445" t="s">
         <v>546</v>
       </c>
-      <c r="D70" s="435"/>
+      <c r="D70" s="445"/>
       <c r="E70" s="310" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C71" s="446"/>
-      <c r="D71" s="446"/>
+      <c r="C71" s="444"/>
+      <c r="D71" s="444"/>
       <c r="E71" s="345"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="438" t="s">
+      <c r="A72" s="451" t="s">
         <v>549</v>
       </c>
-      <c r="B72" s="441" t="s">
+      <c r="B72" s="450" t="s">
         <v>412</v>
       </c>
-      <c r="C72" s="448" t="s">
+      <c r="C72" s="437" t="s">
         <v>413</v>
       </c>
-      <c r="D72" s="448"/>
+      <c r="D72" s="437"/>
       <c r="E72" s="345"/>
       <c r="F72" s="345"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="438"/>
-      <c r="B73" s="441"/>
-      <c r="C73" s="448"/>
-      <c r="D73" s="448"/>
+      <c r="A73" s="451"/>
+      <c r="B73" s="450"/>
+      <c r="C73" s="437"/>
+      <c r="D73" s="437"/>
       <c r="E73" s="345"/>
       <c r="F73" s="345"/>
     </row>
@@ -21810,10 +22586,10 @@
       <c r="A74" s="351" t="s">
         <v>550</v>
       </c>
-      <c r="C74" s="435" t="s">
+      <c r="C74" s="445" t="s">
         <v>526</v>
       </c>
-      <c r="D74" s="435"/>
+      <c r="D74" s="445"/>
       <c r="E74" s="310" t="s">
         <v>400</v>
       </c>
@@ -21822,10 +22598,10 @@
       <c r="A75" s="351" t="s">
         <v>551</v>
       </c>
-      <c r="C75" s="435" t="s">
+      <c r="C75" s="445" t="s">
         <v>520</v>
       </c>
-      <c r="D75" s="435"/>
+      <c r="D75" s="445"/>
       <c r="E75" s="310" t="s">
         <v>400</v>
       </c>
@@ -21834,10 +22610,10 @@
       <c r="A76" s="351" t="s">
         <v>552</v>
       </c>
-      <c r="C76" s="435" t="s">
+      <c r="C76" s="445" t="s">
         <v>522</v>
       </c>
-      <c r="D76" s="435"/>
+      <c r="D76" s="445"/>
       <c r="E76" s="310" t="s">
         <v>400</v>
       </c>
@@ -21846,10 +22622,10 @@
       <c r="A77" s="351" t="s">
         <v>553</v>
       </c>
-      <c r="C77" s="435" t="s">
+      <c r="C77" s="445" t="s">
         <v>523</v>
       </c>
-      <c r="D77" s="435"/>
+      <c r="D77" s="445"/>
       <c r="E77" s="310" t="s">
         <v>400</v>
       </c>
@@ -21858,10 +22634,10 @@
       <c r="A78" s="351" t="s">
         <v>554</v>
       </c>
-      <c r="C78" s="435" t="s">
+      <c r="C78" s="445" t="s">
         <v>524</v>
       </c>
-      <c r="D78" s="435"/>
+      <c r="D78" s="445"/>
       <c r="E78" s="310" t="s">
         <v>400</v>
       </c>
@@ -21870,10 +22646,10 @@
       <c r="A79" s="351" t="s">
         <v>555</v>
       </c>
-      <c r="C79" s="435" t="s">
+      <c r="C79" s="445" t="s">
         <v>525</v>
       </c>
-      <c r="D79" s="435"/>
+      <c r="D79" s="445"/>
       <c r="E79" s="310" t="s">
         <v>400</v>
       </c>
@@ -21882,10 +22658,10 @@
       <c r="A80" s="351" t="s">
         <v>556</v>
       </c>
-      <c r="C80" s="435" t="s">
+      <c r="C80" s="445" t="s">
         <v>527</v>
       </c>
-      <c r="D80" s="435"/>
+      <c r="D80" s="445"/>
       <c r="E80" s="310" t="s">
         <v>400</v>
       </c>
@@ -21894,27 +22670,27 @@
       <c r="A81" s="351" t="s">
         <v>557</v>
       </c>
-      <c r="C81" s="435" t="s">
+      <c r="C81" s="445" t="s">
         <v>528</v>
       </c>
-      <c r="D81" s="435"/>
+      <c r="D81" s="445"/>
       <c r="E81" s="310" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C82" s="435"/>
-      <c r="D82" s="435"/>
+      <c r="C82" s="445"/>
+      <c r="D82" s="445"/>
       <c r="E82" s="345"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C83" s="435"/>
-      <c r="D83" s="435"/>
+      <c r="C83" s="445"/>
+      <c r="D83" s="445"/>
       <c r="E83" s="345"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C84" s="446"/>
-      <c r="D84" s="446"/>
+      <c r="C84" s="444"/>
+      <c r="D84" s="444"/>
       <c r="E84" s="345"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -21924,10 +22700,10 @@
       <c r="B85" s="345" t="s">
         <v>90</v>
       </c>
-      <c r="C85" s="445" t="s">
+      <c r="C85" s="439" t="s">
         <v>419</v>
       </c>
-      <c r="D85" s="445"/>
+      <c r="D85" s="439"/>
       <c r="E85" s="348"/>
       <c r="F85" s="345"/>
     </row>
@@ -21935,10 +22711,10 @@
       <c r="A86" s="351" t="s">
         <v>133</v>
       </c>
-      <c r="C86" s="437" t="s">
+      <c r="C86" s="438" t="s">
         <v>535</v>
       </c>
-      <c r="D86" s="437"/>
+      <c r="D86" s="438"/>
       <c r="E86" s="347" t="s">
         <v>135</v>
       </c>
@@ -21950,10 +22726,10 @@
       <c r="A87" s="351" t="s">
         <v>521</v>
       </c>
-      <c r="C87" s="437" t="s">
+      <c r="C87" s="438" t="s">
         <v>421</v>
       </c>
-      <c r="D87" s="437"/>
+      <c r="D87" s="438"/>
       <c r="E87" s="347" t="s">
         <v>135</v>
       </c>
@@ -21965,10 +22741,10 @@
       <c r="A88" s="351" t="s">
         <v>529</v>
       </c>
-      <c r="C88" s="435" t="s">
+      <c r="C88" s="445" t="s">
         <v>532</v>
       </c>
-      <c r="D88" s="435"/>
+      <c r="D88" s="445"/>
       <c r="E88" s="347" t="s">
         <v>135</v>
       </c>
@@ -21980,10 +22756,10 @@
       <c r="A89" s="351" t="s">
         <v>530</v>
       </c>
-      <c r="C89" s="435" t="s">
+      <c r="C89" s="445" t="s">
         <v>533</v>
       </c>
-      <c r="D89" s="435"/>
+      <c r="D89" s="445"/>
       <c r="E89" s="347" t="s">
         <v>135</v>
       </c>
@@ -21995,10 +22771,10 @@
       <c r="A90" s="351" t="s">
         <v>531</v>
       </c>
-      <c r="C90" s="435" t="s">
+      <c r="C90" s="445" t="s">
         <v>534</v>
       </c>
-      <c r="D90" s="435"/>
+      <c r="D90" s="445"/>
       <c r="E90" s="347" t="s">
         <v>135</v>
       </c>
@@ -22013,10 +22789,10 @@
       <c r="B91" s="345" t="s">
         <v>379</v>
       </c>
-      <c r="C91" s="436" t="s">
+      <c r="C91" s="448" t="s">
         <v>495</v>
       </c>
-      <c r="D91" s="436"/>
+      <c r="D91" s="448"/>
       <c r="E91" s="348"/>
       <c r="F91" s="345"/>
     </row>
@@ -22024,10 +22800,10 @@
       <c r="A92" s="351" t="s">
         <v>137</v>
       </c>
-      <c r="C92" s="437" t="s">
+      <c r="C92" s="438" t="s">
         <v>558</v>
       </c>
-      <c r="D92" s="437"/>
+      <c r="D92" s="438"/>
       <c r="E92" s="310" t="s">
         <v>400</v>
       </c>
@@ -22037,10 +22813,10 @@
       <c r="A93" s="351" t="s">
         <v>422</v>
       </c>
-      <c r="C93" s="435" t="s">
+      <c r="C93" s="445" t="s">
         <v>559</v>
       </c>
-      <c r="D93" s="435"/>
+      <c r="D93" s="445"/>
       <c r="E93" s="310" t="s">
         <v>400</v>
       </c>
@@ -22049,10 +22825,10 @@
       <c r="A94" s="351" t="s">
         <v>536</v>
       </c>
-      <c r="C94" s="434" t="s">
+      <c r="C94" s="441" t="s">
         <v>560</v>
       </c>
-      <c r="D94" s="434"/>
+      <c r="D94" s="441"/>
       <c r="E94" s="310" t="s">
         <v>400</v>
       </c>
@@ -22061,10 +22837,10 @@
       <c r="A95" s="351" t="s">
         <v>537</v>
       </c>
-      <c r="C95" s="434" t="s">
+      <c r="C95" s="441" t="s">
         <v>561</v>
       </c>
-      <c r="D95" s="434"/>
+      <c r="D95" s="441"/>
       <c r="E95" s="310" t="s">
         <v>400</v>
       </c>
@@ -22073,10 +22849,10 @@
       <c r="A96" s="351" t="s">
         <v>538</v>
       </c>
-      <c r="C96" s="434" t="s">
+      <c r="C96" s="441" t="s">
         <v>562</v>
       </c>
-      <c r="D96" s="434"/>
+      <c r="D96" s="441"/>
       <c r="E96" s="310" t="s">
         <v>400</v>
       </c>
@@ -22085,10 +22861,10 @@
       <c r="A97" s="351" t="s">
         <v>565</v>
       </c>
-      <c r="C97" s="434" t="s">
+      <c r="C97" s="441" t="s">
         <v>563</v>
       </c>
-      <c r="D97" s="434"/>
+      <c r="D97" s="441"/>
       <c r="E97" s="310" t="s">
         <v>400</v>
       </c>
@@ -22097,28 +22873,112 @@
       <c r="A98" s="351" t="s">
         <v>566</v>
       </c>
-      <c r="C98" s="449" t="s">
+      <c r="C98" s="440" t="s">
         <v>564</v>
       </c>
-      <c r="D98" s="449"/>
+      <c r="D98" s="440"/>
       <c r="E98" s="310" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C99" s="447"/>
-      <c r="D99" s="447"/>
+      <c r="C99" s="436"/>
+      <c r="D99" s="436"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C100" s="447"/>
-      <c r="D100" s="447"/>
+      <c r="C100" s="436"/>
+      <c r="D100" s="436"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C101" s="447"/>
-      <c r="D101" s="447"/>
+      <c r="C101" s="436"/>
+      <c r="D101" s="436"/>
     </row>
   </sheetData>
   <mergeCells count="100">
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
     <mergeCell ref="C101:D101"/>
     <mergeCell ref="C72:D73"/>
     <mergeCell ref="C56:D56"/>
@@ -22135,90 +22995,6 @@
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="C92:D92"/>
   </mergeCells>
   <conditionalFormatting sqref="E3">
     <cfRule type="containsText" dxfId="311" priority="187" operator="containsText" text="Ei tehdä">
@@ -22812,7 +23588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T74"/>
   <sheetViews>
-    <sheetView topLeftCell="B31" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D48" sqref="D48:E48"/>
     </sheetView>
   </sheetViews>
@@ -22841,15 +23617,15 @@
       <c r="O1" s="304"/>
     </row>
     <row r="2" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="466" t="s">
+      <c r="B2" s="452" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="467"/>
-      <c r="D2" s="468" t="s">
+      <c r="C2" s="453"/>
+      <c r="D2" s="454" t="s">
         <v>484</v>
       </c>
-      <c r="E2" s="469"/>
-      <c r="F2" s="470"/>
+      <c r="E2" s="455"/>
+      <c r="F2" s="456"/>
       <c r="J2" s="304"/>
       <c r="K2" s="304"/>
       <c r="L2" s="304"/>
@@ -22860,9 +23636,9 @@
     <row r="3" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="264"/>
       <c r="C3" s="266"/>
-      <c r="D3" s="471"/>
-      <c r="E3" s="472"/>
-      <c r="F3" s="473"/>
+      <c r="D3" s="457"/>
+      <c r="E3" s="458"/>
+      <c r="F3" s="459"/>
       <c r="J3" s="304"/>
       <c r="K3" s="304"/>
       <c r="L3" s="304"/>
@@ -22873,9 +23649,9 @@
     <row r="4" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="264"/>
       <c r="C4" s="266"/>
-      <c r="D4" s="471"/>
-      <c r="E4" s="472"/>
-      <c r="F4" s="473"/>
+      <c r="D4" s="457"/>
+      <c r="E4" s="458"/>
+      <c r="F4" s="459"/>
       <c r="J4" s="304"/>
       <c r="K4" s="304"/>
       <c r="L4" s="304"/>
@@ -22886,9 +23662,9 @@
     <row r="5" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="264"/>
       <c r="C5" s="266"/>
-      <c r="D5" s="471"/>
-      <c r="E5" s="472"/>
-      <c r="F5" s="473"/>
+      <c r="D5" s="457"/>
+      <c r="E5" s="458"/>
+      <c r="F5" s="459"/>
       <c r="J5" s="304"/>
       <c r="K5" s="304"/>
       <c r="L5" s="304"/>
@@ -22899,9 +23675,9 @@
     <row r="6" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="265"/>
       <c r="C6" s="267"/>
-      <c r="D6" s="474"/>
-      <c r="E6" s="475"/>
-      <c r="F6" s="476"/>
+      <c r="D6" s="460"/>
+      <c r="E6" s="461"/>
+      <c r="F6" s="462"/>
       <c r="J6" s="304"/>
       <c r="K6" s="304"/>
       <c r="L6" s="304"/>
@@ -22939,14 +23715,14 @@
       <c r="D9" s="306" t="s">
         <v>86</v>
       </c>
-      <c r="E9" s="442" t="s">
+      <c r="E9" s="446" t="s">
         <v>87</v>
       </c>
-      <c r="F9" s="443"/>
-      <c r="G9" s="477" t="s">
+      <c r="F9" s="447"/>
+      <c r="G9" s="463" t="s">
         <v>88</v>
       </c>
-      <c r="H9" s="478"/>
+      <c r="H9" s="464"/>
       <c r="I9" s="306" t="s">
         <v>89</v>
       </c>
@@ -22972,12 +23748,12 @@
       <c r="D10" s="353" t="s">
         <v>90</v>
       </c>
-      <c r="E10" s="436" t="s">
+      <c r="E10" s="448" t="s">
         <v>377</v>
       </c>
-      <c r="F10" s="436"/>
-      <c r="G10" s="454"/>
-      <c r="H10" s="454"/>
+      <c r="F10" s="448"/>
+      <c r="G10" s="465"/>
+      <c r="H10" s="465"/>
       <c r="I10" s="353">
         <v>0</v>
       </c>
@@ -23003,12 +23779,12 @@
       <c r="D11" s="345" t="s">
         <v>379</v>
       </c>
-      <c r="E11" s="445" t="s">
+      <c r="E11" s="439" t="s">
         <v>381</v>
       </c>
-      <c r="F11" s="445"/>
-      <c r="G11" s="454"/>
-      <c r="H11" s="454"/>
+      <c r="F11" s="439"/>
+      <c r="G11" s="465"/>
+      <c r="H11" s="465"/>
       <c r="I11" s="353">
         <v>2</v>
       </c>
@@ -23034,12 +23810,12 @@
       <c r="D12" s="345" t="s">
         <v>379</v>
       </c>
-      <c r="E12" s="436" t="s">
+      <c r="E12" s="448" t="s">
         <v>380</v>
       </c>
-      <c r="F12" s="436"/>
-      <c r="G12" s="454"/>
-      <c r="H12" s="454"/>
+      <c r="F12" s="448"/>
+      <c r="G12" s="465"/>
+      <c r="H12" s="465"/>
       <c r="I12" s="353">
         <v>20</v>
       </c>
@@ -23065,12 +23841,12 @@
       <c r="D13" s="345" t="s">
         <v>417</v>
       </c>
-      <c r="E13" s="439" t="s">
+      <c r="E13" s="443" t="s">
         <v>410</v>
       </c>
-      <c r="F13" s="439"/>
-      <c r="G13" s="454"/>
-      <c r="H13" s="454"/>
+      <c r="F13" s="443"/>
+      <c r="G13" s="465"/>
+      <c r="H13" s="465"/>
       <c r="I13" s="353">
         <v>40</v>
       </c>
@@ -23096,12 +23872,12 @@
       <c r="D14" s="345" t="s">
         <v>90</v>
       </c>
-      <c r="E14" s="445" t="s">
+      <c r="E14" s="439" t="s">
         <v>419</v>
       </c>
-      <c r="F14" s="445"/>
-      <c r="G14" s="454"/>
-      <c r="H14" s="454"/>
+      <c r="F14" s="439"/>
+      <c r="G14" s="465"/>
+      <c r="H14" s="465"/>
       <c r="I14" s="353">
         <v>0</v>
       </c>
@@ -23127,12 +23903,12 @@
       <c r="D15" s="345" t="s">
         <v>379</v>
       </c>
-      <c r="E15" s="436" t="s">
+      <c r="E15" s="448" t="s">
         <v>495</v>
       </c>
-      <c r="F15" s="436"/>
-      <c r="G15" s="454"/>
-      <c r="H15" s="454"/>
+      <c r="F15" s="448"/>
+      <c r="G15" s="465"/>
+      <c r="H15" s="465"/>
       <c r="I15" s="353">
         <v>5</v>
       </c>
@@ -23152,10 +23928,10 @@
     </row>
     <row r="16" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D16" s="26"/>
-      <c r="E16" s="456"/>
-      <c r="F16" s="456"/>
-      <c r="G16" s="455"/>
-      <c r="H16" s="455"/>
+      <c r="E16" s="480"/>
+      <c r="F16" s="480"/>
+      <c r="G16" s="479"/>
+      <c r="H16" s="479"/>
       <c r="I16" s="173"/>
       <c r="J16" s="173"/>
       <c r="K16" s="310" t="e">
@@ -23193,8 +23969,8 @@
     <row r="18" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="71"/>
       <c r="D18" s="71"/>
-      <c r="E18" s="464"/>
-      <c r="F18" s="464"/>
+      <c r="E18" s="471"/>
+      <c r="F18" s="471"/>
       <c r="G18" s="22"/>
       <c r="H18" s="22"/>
       <c r="I18" s="173"/>
@@ -23212,11 +23988,11 @@
     </row>
     <row r="19" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="72"/>
-      <c r="C19" s="459" t="s">
+      <c r="C19" s="466" t="s">
         <v>92</v>
       </c>
-      <c r="D19" s="460"/>
-      <c r="E19" s="461"/>
+      <c r="D19" s="467"/>
+      <c r="E19" s="468"/>
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
       <c r="H19" s="178" t="s">
@@ -23270,10 +24046,10 @@
       <c r="C21" s="309" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="462" t="s">
+      <c r="D21" s="469" t="s">
         <v>96</v>
       </c>
-      <c r="E21" s="463"/>
+      <c r="E21" s="470"/>
       <c r="F21" s="172" t="s">
         <v>97</v>
       </c>
@@ -23323,10 +24099,10 @@
         <v>104</v>
       </c>
       <c r="C22" s="357"/>
-      <c r="D22" s="465" t="s">
+      <c r="D22" s="472" t="s">
         <v>378</v>
       </c>
-      <c r="E22" s="465"/>
+      <c r="E22" s="472"/>
       <c r="F22" s="347" t="s">
         <v>135</v>
       </c>
@@ -23374,10 +24150,10 @@
         <v>107</v>
       </c>
       <c r="C23" s="357"/>
-      <c r="D23" s="457" t="s">
+      <c r="D23" s="476" t="s">
         <v>108</v>
       </c>
-      <c r="E23" s="457"/>
+      <c r="E23" s="476"/>
       <c r="F23" s="347" t="s">
         <v>135</v>
       </c>
@@ -23417,10 +24193,10 @@
         <v>109</v>
       </c>
       <c r="C24" s="359"/>
-      <c r="D24" s="453" t="s">
+      <c r="D24" s="477" t="s">
         <v>382</v>
       </c>
-      <c r="E24" s="453"/>
+      <c r="E24" s="477"/>
       <c r="F24" s="347" t="s">
         <v>135</v>
       </c>
@@ -23501,10 +24277,10 @@
         <v>482</v>
       </c>
       <c r="C26" s="359"/>
-      <c r="D26" s="458" t="s">
+      <c r="D26" s="478" t="s">
         <v>483</v>
       </c>
-      <c r="E26" s="458"/>
+      <c r="E26" s="478"/>
       <c r="F26" s="347" t="s">
         <v>135</v>
       </c>
@@ -23587,10 +24363,10 @@
         <v>110</v>
       </c>
       <c r="C28" s="357"/>
-      <c r="D28" s="450" t="s">
+      <c r="D28" s="475" t="s">
         <v>389</v>
       </c>
-      <c r="E28" s="450"/>
+      <c r="E28" s="475"/>
       <c r="F28" s="347" t="s">
         <v>135</v>
       </c>
@@ -23630,10 +24406,10 @@
         <v>81</v>
       </c>
       <c r="C29" s="357"/>
-      <c r="D29" s="450" t="s">
+      <c r="D29" s="475" t="s">
         <v>390</v>
       </c>
-      <c r="E29" s="450"/>
+      <c r="E29" s="475"/>
       <c r="F29" s="347" t="s">
         <v>135</v>
       </c>
@@ -23673,10 +24449,10 @@
         <v>401</v>
       </c>
       <c r="C30" s="357"/>
-      <c r="D30" s="450" t="s">
+      <c r="D30" s="475" t="s">
         <v>391</v>
       </c>
-      <c r="E30" s="450"/>
+      <c r="E30" s="475"/>
       <c r="F30" s="347" t="s">
         <v>135</v>
       </c>
@@ -23716,10 +24492,10 @@
         <v>402</v>
       </c>
       <c r="C31" s="357"/>
-      <c r="D31" s="450" t="s">
+      <c r="D31" s="475" t="s">
         <v>392</v>
       </c>
-      <c r="E31" s="450"/>
+      <c r="E31" s="475"/>
       <c r="F31" s="347" t="s">
         <v>135</v>
       </c>
@@ -23759,10 +24535,10 @@
         <v>403</v>
       </c>
       <c r="C32" s="357"/>
-      <c r="D32" s="450" t="s">
+      <c r="D32" s="475" t="s">
         <v>393</v>
       </c>
-      <c r="E32" s="450"/>
+      <c r="E32" s="475"/>
       <c r="F32" s="347" t="s">
         <v>135</v>
       </c>
@@ -23802,10 +24578,10 @@
         <v>404</v>
       </c>
       <c r="C33" s="357"/>
-      <c r="D33" s="450" t="s">
+      <c r="D33" s="475" t="s">
         <v>394</v>
       </c>
-      <c r="E33" s="450"/>
+      <c r="E33" s="475"/>
       <c r="F33" s="347" t="s">
         <v>135</v>
       </c>
@@ -23845,10 +24621,10 @@
         <v>405</v>
       </c>
       <c r="C34" s="357"/>
-      <c r="D34" s="450" t="s">
+      <c r="D34" s="475" t="s">
         <v>395</v>
       </c>
-      <c r="E34" s="450"/>
+      <c r="E34" s="475"/>
       <c r="F34" s="347" t="s">
         <v>135</v>
       </c>
@@ -23888,10 +24664,10 @@
         <v>406</v>
       </c>
       <c r="C35" s="357"/>
-      <c r="D35" s="450" t="s">
+      <c r="D35" s="475" t="s">
         <v>396</v>
       </c>
-      <c r="E35" s="450"/>
+      <c r="E35" s="475"/>
       <c r="F35" s="347" t="s">
         <v>135</v>
       </c>
@@ -23931,10 +24707,10 @@
         <v>407</v>
       </c>
       <c r="C36" s="357"/>
-      <c r="D36" s="450" t="s">
+      <c r="D36" s="475" t="s">
         <v>397</v>
       </c>
-      <c r="E36" s="450"/>
+      <c r="E36" s="475"/>
       <c r="F36" s="347" t="s">
         <v>135</v>
       </c>
@@ -23974,10 +24750,10 @@
         <v>408</v>
       </c>
       <c r="C37" s="357"/>
-      <c r="D37" s="450" t="s">
+      <c r="D37" s="475" t="s">
         <v>398</v>
       </c>
-      <c r="E37" s="450"/>
+      <c r="E37" s="475"/>
       <c r="F37" s="347" t="s">
         <v>135</v>
       </c>
@@ -24017,10 +24793,10 @@
         <v>409</v>
       </c>
       <c r="C38" s="357"/>
-      <c r="D38" s="450" t="s">
+      <c r="D38" s="475" t="s">
         <v>399</v>
       </c>
-      <c r="E38" s="450"/>
+      <c r="E38" s="475"/>
       <c r="F38" s="347" t="s">
         <v>135</v>
       </c>
@@ -24103,10 +24879,10 @@
         <v>423</v>
       </c>
       <c r="C40" s="359"/>
-      <c r="D40" s="451" t="s">
+      <c r="D40" s="474" t="s">
         <v>426</v>
       </c>
-      <c r="E40" s="451"/>
+      <c r="E40" s="474"/>
       <c r="F40" s="347" t="s">
         <v>135</v>
       </c>
@@ -24146,10 +24922,10 @@
         <v>424</v>
       </c>
       <c r="C41" s="359"/>
-      <c r="D41" s="451" t="s">
+      <c r="D41" s="474" t="s">
         <v>425</v>
       </c>
-      <c r="E41" s="451"/>
+      <c r="E41" s="474"/>
       <c r="F41" s="347" t="s">
         <v>135</v>
       </c>
@@ -24189,10 +24965,10 @@
         <v>427</v>
       </c>
       <c r="C42" s="359"/>
-      <c r="D42" s="451" t="s">
+      <c r="D42" s="474" t="s">
         <v>459</v>
       </c>
-      <c r="E42" s="451"/>
+      <c r="E42" s="474"/>
       <c r="F42" s="310" t="s">
         <v>400</v>
       </c>
@@ -24230,10 +25006,10 @@
         <v>450</v>
       </c>
       <c r="C43" s="359"/>
-      <c r="D43" s="452" t="s">
+      <c r="D43" s="473" t="s">
         <v>452</v>
       </c>
-      <c r="E43" s="452"/>
+      <c r="E43" s="473"/>
       <c r="F43" s="310" t="s">
         <v>400</v>
       </c>
@@ -24271,10 +25047,10 @@
         <v>428</v>
       </c>
       <c r="C44" s="359"/>
-      <c r="D44" s="451" t="s">
+      <c r="D44" s="474" t="s">
         <v>451</v>
       </c>
-      <c r="E44" s="451"/>
+      <c r="E44" s="474"/>
       <c r="F44" s="310" t="s">
         <v>400</v>
       </c>
@@ -24312,10 +25088,10 @@
         <v>453</v>
       </c>
       <c r="C45" s="359"/>
-      <c r="D45" s="451" t="s">
+      <c r="D45" s="474" t="s">
         <v>460</v>
       </c>
-      <c r="E45" s="451"/>
+      <c r="E45" s="474"/>
       <c r="F45" s="310" t="s">
         <v>400</v>
       </c>
@@ -24353,10 +25129,10 @@
         <v>454</v>
       </c>
       <c r="C46" s="359"/>
-      <c r="D46" s="452" t="s">
+      <c r="D46" s="473" t="s">
         <v>455</v>
       </c>
-      <c r="E46" s="452"/>
+      <c r="E46" s="473"/>
       <c r="F46" s="310" t="s">
         <v>400</v>
       </c>
@@ -24394,10 +25170,10 @@
         <v>456</v>
       </c>
       <c r="C47" s="359"/>
-      <c r="D47" s="452" t="s">
+      <c r="D47" s="473" t="s">
         <v>457</v>
       </c>
-      <c r="E47" s="452"/>
+      <c r="E47" s="473"/>
       <c r="F47" s="310" t="s">
         <v>400</v>
       </c>
@@ -24435,10 +25211,10 @@
         <v>458</v>
       </c>
       <c r="C48" s="359"/>
-      <c r="D48" s="452" t="s">
+      <c r="D48" s="473" t="s">
         <v>468</v>
       </c>
-      <c r="E48" s="452"/>
+      <c r="E48" s="473"/>
       <c r="F48" s="310" t="s">
         <v>400</v>
       </c>
@@ -24476,10 +25252,10 @@
         <v>463</v>
       </c>
       <c r="C49" s="359"/>
-      <c r="D49" s="451" t="s">
+      <c r="D49" s="474" t="s">
         <v>469</v>
       </c>
-      <c r="E49" s="451"/>
+      <c r="E49" s="474"/>
       <c r="F49" s="310" t="s">
         <v>400</v>
       </c>
@@ -24517,10 +25293,10 @@
         <v>466</v>
       </c>
       <c r="C50" s="359"/>
-      <c r="D50" s="452" t="s">
+      <c r="D50" s="473" t="s">
         <v>461</v>
       </c>
-      <c r="E50" s="452"/>
+      <c r="E50" s="473"/>
       <c r="F50" s="310" t="s">
         <v>400</v>
       </c>
@@ -24558,10 +25334,10 @@
         <v>470</v>
       </c>
       <c r="C51" s="359"/>
-      <c r="D51" s="452" t="s">
+      <c r="D51" s="473" t="s">
         <v>462</v>
       </c>
-      <c r="E51" s="452"/>
+      <c r="E51" s="473"/>
       <c r="F51" s="310" t="s">
         <v>400</v>
       </c>
@@ -24599,10 +25375,10 @@
         <v>471</v>
       </c>
       <c r="C52" s="359"/>
-      <c r="D52" s="452" t="s">
+      <c r="D52" s="473" t="s">
         <v>465</v>
       </c>
-      <c r="E52" s="452"/>
+      <c r="E52" s="473"/>
       <c r="F52" s="347" t="s">
         <v>135</v>
       </c>
@@ -24642,10 +25418,10 @@
         <v>472</v>
       </c>
       <c r="C53" s="359"/>
-      <c r="D53" s="452" t="s">
+      <c r="D53" s="473" t="s">
         <v>464</v>
       </c>
-      <c r="E53" s="452"/>
+      <c r="E53" s="473"/>
       <c r="F53" s="310" t="s">
         <v>400</v>
       </c>
@@ -24683,10 +25459,10 @@
         <v>473</v>
       </c>
       <c r="C54" s="359"/>
-      <c r="D54" s="452" t="s">
+      <c r="D54" s="473" t="s">
         <v>467</v>
       </c>
-      <c r="E54" s="452"/>
+      <c r="E54" s="473"/>
       <c r="F54" s="310" t="s">
         <v>400</v>
       </c>
@@ -24724,10 +25500,10 @@
         <v>137</v>
       </c>
       <c r="C55" s="357"/>
-      <c r="D55" s="450" t="s">
+      <c r="D55" s="475" t="s">
         <v>420</v>
       </c>
-      <c r="E55" s="450"/>
+      <c r="E55" s="475"/>
       <c r="F55" s="347" t="s">
         <v>135</v>
       </c>
@@ -24767,10 +25543,10 @@
         <v>422</v>
       </c>
       <c r="C56" s="357"/>
-      <c r="D56" s="450" t="s">
+      <c r="D56" s="475" t="s">
         <v>421</v>
       </c>
-      <c r="E56" s="450"/>
+      <c r="E56" s="475"/>
       <c r="F56" s="347" t="s">
         <v>135</v>
       </c>
@@ -24810,10 +25586,10 @@
         <v>139</v>
       </c>
       <c r="C57" s="359"/>
-      <c r="D57" s="453" t="s">
+      <c r="D57" s="477" t="s">
         <v>496</v>
       </c>
-      <c r="E57" s="453"/>
+      <c r="E57" s="477"/>
       <c r="F57" s="310" t="s">
         <v>400</v>
       </c>
@@ -24835,8 +25611,8 @@
     <row r="58" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="303"/>
       <c r="C58" s="303"/>
-      <c r="D58" s="440"/>
-      <c r="E58" s="440"/>
+      <c r="D58" s="442"/>
+      <c r="E58" s="442"/>
       <c r="F58" s="268"/>
       <c r="G58" s="303"/>
       <c r="H58" s="303"/>
@@ -24856,8 +25632,8 @@
     <row r="59" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="340"/>
       <c r="C59" s="340"/>
-      <c r="D59" s="440"/>
-      <c r="E59" s="440"/>
+      <c r="D59" s="442"/>
+      <c r="E59" s="442"/>
       <c r="F59" s="268"/>
       <c r="G59" s="340"/>
       <c r="H59" s="340"/>
@@ -24877,8 +25653,8 @@
     <row r="60" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="340"/>
       <c r="C60" s="340"/>
-      <c r="D60" s="440"/>
-      <c r="E60" s="440"/>
+      <c r="D60" s="442"/>
+      <c r="E60" s="442"/>
       <c r="F60" s="268"/>
       <c r="G60" s="340"/>
       <c r="H60" s="340"/>
@@ -24898,8 +25674,8 @@
     <row r="61" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="340"/>
       <c r="C61" s="340"/>
-      <c r="D61" s="440"/>
-      <c r="E61" s="440"/>
+      <c r="D61" s="442"/>
+      <c r="E61" s="442"/>
       <c r="F61" s="268"/>
       <c r="G61" s="340"/>
       <c r="H61" s="340"/>
@@ -24919,8 +25695,8 @@
     <row r="62" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="340"/>
       <c r="C62" s="340"/>
-      <c r="D62" s="440"/>
-      <c r="E62" s="440"/>
+      <c r="D62" s="442"/>
+      <c r="E62" s="442"/>
       <c r="F62" s="268"/>
       <c r="G62" s="340"/>
       <c r="H62" s="340"/>
@@ -24940,8 +25716,8 @@
     <row r="63" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="340"/>
       <c r="C63" s="340"/>
-      <c r="D63" s="440"/>
-      <c r="E63" s="440"/>
+      <c r="D63" s="442"/>
+      <c r="E63" s="442"/>
       <c r="F63" s="268"/>
       <c r="G63" s="340"/>
       <c r="H63" s="340"/>
@@ -24961,8 +25737,8 @@
     <row r="64" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="340"/>
       <c r="C64" s="340"/>
-      <c r="D64" s="440"/>
-      <c r="E64" s="440"/>
+      <c r="D64" s="442"/>
+      <c r="E64" s="442"/>
       <c r="F64" s="268"/>
       <c r="G64" s="340"/>
       <c r="H64" s="340"/>
@@ -24982,8 +25758,8 @@
     <row r="65" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="340"/>
       <c r="C65" s="340"/>
-      <c r="D65" s="440"/>
-      <c r="E65" s="440"/>
+      <c r="D65" s="442"/>
+      <c r="E65" s="442"/>
       <c r="F65" s="268"/>
       <c r="G65" s="340"/>
       <c r="H65" s="340"/>
@@ -25223,12 +25999,46 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:F6"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
     <mergeCell ref="D65:E65"/>
     <mergeCell ref="D62:E62"/>
     <mergeCell ref="C19:E19"/>
@@ -25245,46 +26055,12 @@
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:F6"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="E9:F9"/>
   </mergeCells>
   <conditionalFormatting sqref="F58:F65">
     <cfRule type="containsText" dxfId="171" priority="279" operator="containsText" text="Ei tehdä">
@@ -26089,7 +26865,7 @@
   <dimension ref="A1:H114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="11" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
@@ -26106,14 +26882,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="505" t="s">
+      <c r="A1" s="481" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="506"/>
-      <c r="C1" s="506"/>
-      <c r="D1" s="506"/>
-      <c r="E1" s="506"/>
-      <c r="F1" s="507"/>
+      <c r="B1" s="482"/>
+      <c r="C1" s="482"/>
+      <c r="D1" s="482"/>
+      <c r="E1" s="482"/>
+      <c r="F1" s="483"/>
       <c r="G1" s="56"/>
       <c r="H1" s="29"/>
     </row>
@@ -26127,11 +26903,11 @@
       <c r="C2" s="300" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="508" t="s">
+      <c r="D2" s="484" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="508"/>
-      <c r="F2" s="509"/>
+      <c r="E2" s="484"/>
+      <c r="F2" s="485"/>
       <c r="G2" s="62"/>
       <c r="H2" s="29"/>
     </row>
@@ -26144,9 +26920,9 @@
         <v>36.25</v>
       </c>
       <c r="C3" s="177"/>
-      <c r="D3" s="510"/>
-      <c r="E3" s="511"/>
-      <c r="F3" s="512"/>
+      <c r="D3" s="486"/>
+      <c r="E3" s="487"/>
+      <c r="F3" s="488"/>
       <c r="G3" s="56"/>
       <c r="H3" s="29"/>
     </row>
@@ -26159,9 +26935,9 @@
         <v>40.25</v>
       </c>
       <c r="C4" s="177"/>
-      <c r="D4" s="490"/>
-      <c r="E4" s="491"/>
-      <c r="F4" s="492"/>
+      <c r="D4" s="489"/>
+      <c r="E4" s="490"/>
+      <c r="F4" s="491"/>
       <c r="G4" s="56"/>
       <c r="H4" s="29"/>
     </row>
@@ -26169,9 +26945,9 @@
       <c r="A5" s="58"/>
       <c r="B5" s="87"/>
       <c r="C5" s="177"/>
-      <c r="D5" s="490"/>
-      <c r="E5" s="491"/>
-      <c r="F5" s="492"/>
+      <c r="D5" s="489"/>
+      <c r="E5" s="490"/>
+      <c r="F5" s="491"/>
       <c r="G5" s="56"/>
       <c r="H5" s="29"/>
     </row>
@@ -26179,9 +26955,9 @@
       <c r="A6" s="58"/>
       <c r="B6" s="87"/>
       <c r="C6" s="177"/>
-      <c r="D6" s="490"/>
-      <c r="E6" s="491"/>
-      <c r="F6" s="492"/>
+      <c r="D6" s="489"/>
+      <c r="E6" s="490"/>
+      <c r="F6" s="491"/>
       <c r="G6" s="56"/>
       <c r="H6" s="29"/>
     </row>
@@ -26189,9 +26965,9 @@
       <c r="A7" s="59"/>
       <c r="B7" s="87"/>
       <c r="C7" s="177"/>
-      <c r="D7" s="491"/>
-      <c r="E7" s="491"/>
-      <c r="F7" s="491"/>
+      <c r="D7" s="490"/>
+      <c r="E7" s="490"/>
+      <c r="F7" s="490"/>
       <c r="G7" s="51"/>
       <c r="H7" s="29"/>
     </row>
@@ -26206,81 +26982,81 @@
       <c r="H8" s="29"/>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="493" t="s">
+      <c r="A9" s="492" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="495">
+      <c r="B9" s="494">
         <f>SUM(B3:B8)</f>
         <v>76.5</v>
       </c>
-      <c r="C9" s="497" t="str">
+      <c r="C9" s="496" t="str">
         <f>IF((SUM(C3:C7)=0),"",SUM(C3:C7))</f>
         <v/>
       </c>
-      <c r="D9" s="499" t="s">
+      <c r="D9" s="498" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="501">
+      <c r="E9" s="500">
         <f>SUMIF($D$14:$D$103,"Daily scrum / Teams",$E$14:$E$103) / 2</f>
         <v>2.25</v>
       </c>
-      <c r="F9" s="503"/>
+      <c r="F9" s="502"/>
       <c r="G9" s="56"/>
       <c r="H9" s="29"/>
     </row>
     <row r="10" spans="1:8" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="494"/>
-      <c r="B10" s="496"/>
-      <c r="C10" s="498"/>
-      <c r="D10" s="500"/>
-      <c r="E10" s="502"/>
-      <c r="F10" s="504"/>
+      <c r="A10" s="493"/>
+      <c r="B10" s="495"/>
+      <c r="C10" s="497"/>
+      <c r="D10" s="499"/>
+      <c r="E10" s="501"/>
+      <c r="F10" s="503"/>
       <c r="G10" s="56"/>
       <c r="H10" s="29"/>
     </row>
     <row r="11" spans="1:8" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="479" t="s">
+      <c r="A11" s="504" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="480"/>
-      <c r="C11" s="481"/>
-      <c r="D11" s="480"/>
-      <c r="E11" s="482"/>
-      <c r="F11" s="483"/>
+      <c r="B11" s="505"/>
+      <c r="C11" s="506"/>
+      <c r="D11" s="505"/>
+      <c r="E11" s="507"/>
+      <c r="F11" s="508"/>
       <c r="G11" s="62"/>
       <c r="H11" s="29"/>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="484" t="s">
+      <c r="A12" s="509" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="485" t="s">
+      <c r="B12" s="510" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="486" t="s">
+      <c r="C12" s="511" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="487"/>
-      <c r="E12" s="488" t="s">
+      <c r="D12" s="512"/>
+      <c r="E12" s="513" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="489" t="s">
+      <c r="F12" s="514" t="s">
         <v>43</v>
       </c>
       <c r="G12" s="62"/>
       <c r="H12" s="29"/>
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="484"/>
-      <c r="B13" s="485"/>
+      <c r="A13" s="509"/>
+      <c r="B13" s="510"/>
       <c r="C13" s="183" t="s">
         <v>44</v>
       </c>
       <c r="D13" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="488"/>
-      <c r="F13" s="489"/>
+      <c r="E13" s="513"/>
+      <c r="F13" s="514"/>
       <c r="G13" s="62"/>
       <c r="H13" s="29"/>
     </row>
@@ -27580,11 +28356,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="A9:A10"/>
@@ -27593,12 +28370,11 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -27609,8 +28385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEC951F4-6093-4F5B-82FF-EFC01780A0A4}">
   <dimension ref="A2:T68"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -27630,15 +28406,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="466" t="s">
+      <c r="B2" s="452" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="467"/>
-      <c r="D2" s="468" t="s">
+      <c r="C2" s="453"/>
+      <c r="D2" s="454" t="s">
         <v>115</v>
       </c>
-      <c r="E2" s="469"/>
-      <c r="F2" s="470"/>
+      <c r="E2" s="455"/>
+      <c r="F2" s="456"/>
       <c r="K2" s="304"/>
       <c r="L2" s="304"/>
       <c r="M2" s="304"/>
@@ -27648,9 +28424,9 @@
     <row r="3" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="264"/>
       <c r="C3" s="266"/>
-      <c r="D3" s="471"/>
-      <c r="E3" s="472"/>
-      <c r="F3" s="473"/>
+      <c r="D3" s="457"/>
+      <c r="E3" s="458"/>
+      <c r="F3" s="459"/>
       <c r="K3" s="304"/>
       <c r="L3" s="304"/>
       <c r="M3" s="304"/>
@@ -27660,9 +28436,9 @@
     <row r="4" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="264"/>
       <c r="C4" s="266"/>
-      <c r="D4" s="471"/>
-      <c r="E4" s="472"/>
-      <c r="F4" s="473"/>
+      <c r="D4" s="457"/>
+      <c r="E4" s="458"/>
+      <c r="F4" s="459"/>
       <c r="K4" s="304"/>
       <c r="L4" s="304"/>
       <c r="M4" s="304"/>
@@ -27672,9 +28448,9 @@
     <row r="5" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="264"/>
       <c r="C5" s="266"/>
-      <c r="D5" s="471"/>
-      <c r="E5" s="472"/>
-      <c r="F5" s="473"/>
+      <c r="D5" s="457"/>
+      <c r="E5" s="458"/>
+      <c r="F5" s="459"/>
       <c r="K5" s="304"/>
       <c r="L5" s="304"/>
       <c r="M5" s="304"/>
@@ -27684,9 +28460,9 @@
     <row r="6" spans="1:20" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="265"/>
       <c r="C6" s="267"/>
-      <c r="D6" s="474"/>
-      <c r="E6" s="475"/>
-      <c r="F6" s="476"/>
+      <c r="D6" s="460"/>
+      <c r="E6" s="461"/>
+      <c r="F6" s="462"/>
       <c r="K6" s="304"/>
       <c r="L6" s="304"/>
       <c r="M6" s="304"/>
@@ -27730,14 +28506,14 @@
       <c r="D9" s="306" t="s">
         <v>86</v>
       </c>
-      <c r="E9" s="442" t="s">
+      <c r="E9" s="446" t="s">
         <v>87</v>
       </c>
-      <c r="F9" s="443"/>
-      <c r="G9" s="477" t="s">
+      <c r="F9" s="447"/>
+      <c r="G9" s="463" t="s">
         <v>88</v>
       </c>
-      <c r="H9" s="478"/>
+      <c r="H9" s="464"/>
       <c r="I9" s="306" t="s">
         <v>89</v>
       </c>
@@ -27763,12 +28539,12 @@
       <c r="D10" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E10" s="513" t="s">
+      <c r="E10" s="521" t="s">
         <v>116</v>
       </c>
-      <c r="F10" s="513"/>
-      <c r="G10" s="455"/>
-      <c r="H10" s="455"/>
+      <c r="F10" s="521"/>
+      <c r="G10" s="479"/>
+      <c r="H10" s="479"/>
       <c r="I10" s="173">
         <v>2</v>
       </c>
@@ -27793,12 +28569,12 @@
       <c r="D11" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E11" s="456" t="s">
+      <c r="E11" s="480" t="s">
         <v>117</v>
       </c>
-      <c r="F11" s="456"/>
-      <c r="G11" s="455"/>
-      <c r="H11" s="455"/>
+      <c r="F11" s="480"/>
+      <c r="G11" s="479"/>
+      <c r="H11" s="479"/>
       <c r="I11" s="310">
         <v>3</v>
       </c>
@@ -27823,12 +28599,12 @@
       <c r="D12" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E12" s="456" t="s">
+      <c r="E12" s="480" t="s">
         <v>118</v>
       </c>
-      <c r="F12" s="456"/>
-      <c r="G12" s="455"/>
-      <c r="H12" s="455"/>
+      <c r="F12" s="480"/>
+      <c r="G12" s="479"/>
+      <c r="H12" s="479"/>
       <c r="I12" s="310">
         <v>2</v>
       </c>
@@ -27853,12 +28629,12 @@
       <c r="D13" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E13" s="456" t="s">
+      <c r="E13" s="480" t="s">
         <v>119</v>
       </c>
-      <c r="F13" s="456"/>
-      <c r="G13" s="455"/>
-      <c r="H13" s="455"/>
+      <c r="F13" s="480"/>
+      <c r="G13" s="479"/>
+      <c r="H13" s="479"/>
       <c r="I13" s="310">
         <v>5</v>
       </c>
@@ -27883,12 +28659,12 @@
       <c r="D14" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E14" s="456" t="s">
+      <c r="E14" s="480" t="s">
         <v>120</v>
       </c>
-      <c r="F14" s="456"/>
-      <c r="G14" s="455"/>
-      <c r="H14" s="455"/>
+      <c r="F14" s="480"/>
+      <c r="G14" s="479"/>
+      <c r="H14" s="479"/>
       <c r="I14" s="310">
         <v>12</v>
       </c>
@@ -27913,12 +28689,12 @@
       <c r="D15" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E15" s="456" t="s">
+      <c r="E15" s="480" t="s">
         <v>121</v>
       </c>
-      <c r="F15" s="456"/>
-      <c r="G15" s="455"/>
-      <c r="H15" s="455"/>
+      <c r="F15" s="480"/>
+      <c r="G15" s="479"/>
+      <c r="H15" s="479"/>
       <c r="I15" s="310">
         <v>19</v>
       </c>
@@ -27945,10 +28721,10 @@
       <c r="D16" s="307" t="s">
         <v>91</v>
       </c>
-      <c r="E16" s="514" t="s">
+      <c r="E16" s="515" t="s">
         <v>122</v>
       </c>
-      <c r="F16" s="514"/>
+      <c r="F16" s="515"/>
       <c r="G16" s="308"/>
       <c r="H16" s="308"/>
       <c r="I16" s="275">
@@ -27977,12 +28753,12 @@
       <c r="D17" s="307" t="s">
         <v>91</v>
       </c>
-      <c r="E17" s="514" t="s">
+      <c r="E17" s="515" t="s">
         <v>123</v>
       </c>
-      <c r="F17" s="514"/>
-      <c r="G17" s="515"/>
-      <c r="H17" s="515"/>
+      <c r="F17" s="515"/>
+      <c r="G17" s="516"/>
+      <c r="H17" s="516"/>
       <c r="I17" s="275">
         <v>12</v>
       </c>
@@ -28001,10 +28777,10 @@
       <c r="T17" s="216"/>
     </row>
     <row r="18" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E18" s="456"/>
-      <c r="F18" s="456"/>
-      <c r="G18" s="455"/>
-      <c r="H18" s="455"/>
+      <c r="E18" s="480"/>
+      <c r="F18" s="480"/>
+      <c r="G18" s="479"/>
+      <c r="H18" s="479"/>
       <c r="I18" s="23"/>
       <c r="J18" s="180"/>
       <c r="K18" s="310"/>
@@ -28021,8 +28797,8 @@
     <row r="19" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="277"/>
       <c r="D19" s="277"/>
-      <c r="E19" s="464"/>
-      <c r="F19" s="464"/>
+      <c r="E19" s="471"/>
+      <c r="F19" s="471"/>
       <c r="G19" s="22"/>
       <c r="H19" s="22"/>
       <c r="I19" s="304"/>
@@ -28040,11 +28816,11 @@
     </row>
     <row r="20" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="71"/>
-      <c r="C20" s="516" t="s">
+      <c r="C20" s="517" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="517"/>
-      <c r="E20" s="518"/>
+      <c r="D20" s="518"/>
+      <c r="E20" s="519"/>
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
       <c r="H20" s="178" t="s">
@@ -28098,10 +28874,10 @@
       <c r="C22" s="309" t="s">
         <v>95</v>
       </c>
-      <c r="D22" s="462" t="s">
+      <c r="D22" s="469" t="s">
         <v>96</v>
       </c>
-      <c r="E22" s="463"/>
+      <c r="E22" s="470"/>
       <c r="F22" s="172" t="s">
         <v>97</v>
       </c>
@@ -28150,10 +28926,10 @@
         <v>133</v>
       </c>
       <c r="C23" s="303"/>
-      <c r="D23" s="519" t="s">
+      <c r="D23" s="520" t="s">
         <v>134</v>
       </c>
-      <c r="E23" s="519"/>
+      <c r="E23" s="520"/>
       <c r="F23" s="303" t="s">
         <v>135</v>
       </c>
@@ -28199,10 +28975,10 @@
         <v>137</v>
       </c>
       <c r="C24" s="303"/>
-      <c r="D24" s="435" t="s">
+      <c r="D24" s="445" t="s">
         <v>117</v>
       </c>
-      <c r="E24" s="435"/>
+      <c r="E24" s="445"/>
       <c r="F24" s="303" t="s">
         <v>135</v>
       </c>
@@ -28250,10 +29026,10 @@
         <v>139</v>
       </c>
       <c r="C25" s="303"/>
-      <c r="D25" s="435" t="s">
+      <c r="D25" s="445" t="s">
         <v>118</v>
       </c>
-      <c r="E25" s="435"/>
+      <c r="E25" s="445"/>
       <c r="F25" s="303" t="s">
         <v>135</v>
       </c>
@@ -28299,10 +29075,10 @@
         <v>140</v>
       </c>
       <c r="C26" s="303"/>
-      <c r="D26" s="437" t="s">
+      <c r="D26" s="438" t="s">
         <v>141</v>
       </c>
-      <c r="E26" s="437"/>
+      <c r="E26" s="438"/>
       <c r="F26" s="303" t="s">
         <v>135</v>
       </c>
@@ -28397,10 +29173,10 @@
         <v>144</v>
       </c>
       <c r="C28" s="303"/>
-      <c r="D28" s="437" t="s">
+      <c r="D28" s="438" t="s">
         <v>145</v>
       </c>
-      <c r="E28" s="437"/>
+      <c r="E28" s="438"/>
       <c r="F28" s="303" t="s">
         <v>111</v>
       </c>
@@ -28446,10 +29222,10 @@
         <v>146</v>
       </c>
       <c r="C29" s="303"/>
-      <c r="D29" s="437" t="s">
+      <c r="D29" s="438" t="s">
         <v>147</v>
       </c>
-      <c r="E29" s="437"/>
+      <c r="E29" s="438"/>
       <c r="F29" s="303" t="s">
         <v>111</v>
       </c>
@@ -28495,10 +29271,10 @@
         <v>148</v>
       </c>
       <c r="C30" s="303"/>
-      <c r="D30" s="437" t="s">
+      <c r="D30" s="438" t="s">
         <v>149</v>
       </c>
-      <c r="E30" s="437"/>
+      <c r="E30" s="438"/>
       <c r="F30" s="303" t="s">
         <v>111</v>
       </c>
@@ -28544,10 +29320,10 @@
         <v>151</v>
       </c>
       <c r="C31" s="303"/>
-      <c r="D31" s="437" t="s">
+      <c r="D31" s="438" t="s">
         <v>152</v>
       </c>
-      <c r="E31" s="437"/>
+      <c r="E31" s="438"/>
       <c r="F31" s="303" t="s">
         <v>135</v>
       </c>
@@ -28593,10 +29369,10 @@
         <v>153</v>
       </c>
       <c r="C32" s="303"/>
-      <c r="D32" s="437" t="s">
+      <c r="D32" s="438" t="s">
         <v>154</v>
       </c>
-      <c r="E32" s="437"/>
+      <c r="E32" s="438"/>
       <c r="F32" s="303" t="s">
         <v>135</v>
       </c>
@@ -28642,10 +29418,10 @@
         <v>155</v>
       </c>
       <c r="C33" s="303"/>
-      <c r="D33" s="437" t="s">
+      <c r="D33" s="438" t="s">
         <v>156</v>
       </c>
-      <c r="E33" s="437"/>
+      <c r="E33" s="438"/>
       <c r="F33" s="303" t="s">
         <v>135</v>
       </c>
@@ -28691,10 +29467,10 @@
         <v>157</v>
       </c>
       <c r="C34" s="303"/>
-      <c r="D34" s="437" t="s">
+      <c r="D34" s="438" t="s">
         <v>158</v>
       </c>
-      <c r="E34" s="437"/>
+      <c r="E34" s="438"/>
       <c r="F34" s="303" t="s">
         <v>135</v>
       </c>
@@ -28740,10 +29516,10 @@
         <v>159</v>
       </c>
       <c r="C35" s="303"/>
-      <c r="D35" s="437" t="s">
+      <c r="D35" s="438" t="s">
         <v>160</v>
       </c>
-      <c r="E35" s="437"/>
+      <c r="E35" s="438"/>
       <c r="F35" s="303" t="s">
         <v>135</v>
       </c>
@@ -28789,10 +29565,10 @@
         <v>161</v>
       </c>
       <c r="C36" s="303"/>
-      <c r="D36" s="437" t="s">
+      <c r="D36" s="438" t="s">
         <v>162</v>
       </c>
-      <c r="E36" s="437"/>
+      <c r="E36" s="438"/>
       <c r="F36" s="303" t="s">
         <v>135</v>
       </c>
@@ -28838,10 +29614,10 @@
         <v>163</v>
       </c>
       <c r="C37" s="303"/>
-      <c r="D37" s="437" t="s">
+      <c r="D37" s="438" t="s">
         <v>164</v>
       </c>
-      <c r="E37" s="437"/>
+      <c r="E37" s="438"/>
       <c r="F37" s="303" t="s">
         <v>135</v>
       </c>
@@ -28887,10 +29663,10 @@
         <v>165</v>
       </c>
       <c r="C38" s="303"/>
-      <c r="D38" s="437" t="s">
+      <c r="D38" s="438" t="s">
         <v>166</v>
       </c>
-      <c r="E38" s="437"/>
+      <c r="E38" s="438"/>
       <c r="F38" s="303" t="s">
         <v>135</v>
       </c>
@@ -28934,8 +29710,8 @@
     <row r="39" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="27"/>
       <c r="C39" s="303"/>
-      <c r="D39" s="437"/>
-      <c r="E39" s="437"/>
+      <c r="D39" s="438"/>
+      <c r="E39" s="438"/>
       <c r="F39" s="303"/>
       <c r="G39" s="303"/>
       <c r="H39" s="303"/>
@@ -28955,8 +29731,8 @@
     <row r="40" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="27"/>
       <c r="C40" s="303"/>
-      <c r="D40" s="437"/>
-      <c r="E40" s="437"/>
+      <c r="D40" s="438"/>
+      <c r="E40" s="438"/>
       <c r="F40" s="303"/>
       <c r="G40" s="303"/>
       <c r="H40" s="303"/>
@@ -28976,8 +29752,8 @@
     <row r="41" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="27"/>
       <c r="C41" s="303"/>
-      <c r="D41" s="437"/>
-      <c r="E41" s="437"/>
+      <c r="D41" s="438"/>
+      <c r="E41" s="438"/>
       <c r="F41" s="303"/>
       <c r="G41" s="303"/>
       <c r="H41" s="303"/>
@@ -28997,8 +29773,8 @@
     <row r="42" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="27"/>
       <c r="C42" s="303"/>
-      <c r="D42" s="437"/>
-      <c r="E42" s="437"/>
+      <c r="D42" s="438"/>
+      <c r="E42" s="438"/>
       <c r="F42" s="303"/>
       <c r="G42" s="303"/>
       <c r="H42" s="303"/>
@@ -29018,8 +29794,8 @@
     <row r="43" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="27"/>
       <c r="C43" s="303"/>
-      <c r="D43" s="437"/>
-      <c r="E43" s="437"/>
+      <c r="D43" s="438"/>
+      <c r="E43" s="438"/>
       <c r="F43" s="303"/>
       <c r="G43" s="303"/>
       <c r="H43" s="303"/>
@@ -29039,8 +29815,8 @@
     <row r="44" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="27"/>
       <c r="C44" s="303"/>
-      <c r="D44" s="437"/>
-      <c r="E44" s="437"/>
+      <c r="D44" s="438"/>
+      <c r="E44" s="438"/>
       <c r="F44" s="303"/>
       <c r="G44" s="303"/>
       <c r="H44" s="303"/>
@@ -29060,8 +29836,8 @@
     <row r="45" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B45" s="27"/>
       <c r="C45" s="303"/>
-      <c r="D45" s="437"/>
-      <c r="E45" s="437"/>
+      <c r="D45" s="438"/>
+      <c r="E45" s="438"/>
       <c r="F45" s="303"/>
       <c r="G45" s="303"/>
       <c r="H45" s="303"/>
@@ -29081,8 +29857,8 @@
     <row r="46" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="27"/>
       <c r="C46" s="303"/>
-      <c r="D46" s="437"/>
-      <c r="E46" s="437"/>
+      <c r="D46" s="438"/>
+      <c r="E46" s="438"/>
       <c r="F46" s="303"/>
       <c r="G46" s="303"/>
       <c r="H46" s="303"/>
@@ -29102,8 +29878,8 @@
     <row r="47" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="27"/>
       <c r="C47" s="303"/>
-      <c r="D47" s="437"/>
-      <c r="E47" s="437"/>
+      <c r="D47" s="438"/>
+      <c r="E47" s="438"/>
       <c r="F47" s="303"/>
       <c r="G47" s="303"/>
       <c r="H47" s="303"/>
@@ -29123,8 +29899,8 @@
     <row r="48" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="28"/>
       <c r="C48" s="303"/>
-      <c r="D48" s="437"/>
-      <c r="E48" s="437"/>
+      <c r="D48" s="438"/>
+      <c r="E48" s="438"/>
       <c r="F48" s="303"/>
       <c r="G48" s="303"/>
       <c r="H48" s="303"/>
@@ -29144,8 +29920,8 @@
     <row r="49" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="28"/>
       <c r="C49" s="303"/>
-      <c r="D49" s="440"/>
-      <c r="E49" s="440"/>
+      <c r="D49" s="442"/>
+      <c r="E49" s="442"/>
       <c r="F49" s="303"/>
       <c r="G49" s="303"/>
       <c r="H49" s="303"/>
@@ -29165,8 +29941,8 @@
     <row r="50" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="28"/>
       <c r="C50" s="303"/>
-      <c r="D50" s="440"/>
-      <c r="E50" s="440"/>
+      <c r="D50" s="442"/>
+      <c r="E50" s="442"/>
       <c r="F50" s="303"/>
       <c r="G50" s="303"/>
       <c r="H50" s="303"/>
@@ -29186,8 +29962,8 @@
     <row r="51" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="28"/>
       <c r="C51" s="303"/>
-      <c r="D51" s="440"/>
-      <c r="E51" s="440"/>
+      <c r="D51" s="442"/>
+      <c r="E51" s="442"/>
       <c r="F51" s="303"/>
       <c r="G51" s="303"/>
       <c r="H51" s="303"/>
@@ -29207,8 +29983,8 @@
     <row r="52" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="28"/>
       <c r="C52" s="303"/>
-      <c r="D52" s="440"/>
-      <c r="E52" s="440"/>
+      <c r="D52" s="442"/>
+      <c r="E52" s="442"/>
       <c r="F52" s="303"/>
       <c r="G52" s="303"/>
       <c r="H52" s="303"/>
@@ -29228,8 +30004,8 @@
     <row r="53" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="28"/>
       <c r="C53" s="303"/>
-      <c r="D53" s="440"/>
-      <c r="E53" s="440"/>
+      <c r="D53" s="442"/>
+      <c r="E53" s="442"/>
       <c r="F53" s="303"/>
       <c r="G53" s="303"/>
       <c r="H53" s="303"/>
@@ -29249,8 +30025,8 @@
     <row r="54" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="28"/>
       <c r="C54" s="303"/>
-      <c r="D54" s="440"/>
-      <c r="E54" s="440"/>
+      <c r="D54" s="442"/>
+      <c r="E54" s="442"/>
       <c r="F54" s="303"/>
       <c r="G54" s="303"/>
       <c r="H54" s="303"/>
@@ -29270,8 +30046,8 @@
     <row r="55" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="28"/>
       <c r="C55" s="303"/>
-      <c r="D55" s="440"/>
-      <c r="E55" s="440"/>
+      <c r="D55" s="442"/>
+      <c r="E55" s="442"/>
       <c r="F55" s="303"/>
       <c r="G55" s="303"/>
       <c r="H55" s="303"/>
@@ -29291,8 +30067,8 @@
     <row r="56" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="303"/>
       <c r="C56" s="303"/>
-      <c r="D56" s="440"/>
-      <c r="E56" s="440"/>
+      <c r="D56" s="442"/>
+      <c r="E56" s="442"/>
       <c r="F56" s="303"/>
       <c r="G56" s="303"/>
       <c r="H56" s="303"/>
@@ -29312,8 +30088,8 @@
     <row r="57" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="303"/>
       <c r="C57" s="303"/>
-      <c r="D57" s="440"/>
-      <c r="E57" s="440"/>
+      <c r="D57" s="442"/>
+      <c r="E57" s="442"/>
       <c r="F57" s="303"/>
       <c r="G57" s="303"/>
       <c r="H57" s="303"/>
@@ -29333,8 +30109,8 @@
     <row r="58" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="303"/>
       <c r="C58" s="303"/>
-      <c r="D58" s="440"/>
-      <c r="E58" s="440"/>
+      <c r="D58" s="442"/>
+      <c r="E58" s="442"/>
       <c r="F58" s="303"/>
       <c r="G58" s="303"/>
       <c r="H58" s="303"/>
@@ -29354,8 +30130,8 @@
     <row r="59" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="303"/>
       <c r="C59" s="303"/>
-      <c r="D59" s="440"/>
-      <c r="E59" s="440"/>
+      <c r="D59" s="442"/>
+      <c r="E59" s="442"/>
       <c r="F59" s="303"/>
       <c r="G59" s="303"/>
       <c r="H59" s="303"/>
@@ -29590,39 +30366,18 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:F6"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="D25:E25"/>
@@ -29638,18 +30393,39 @@
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:F6"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D56:E56"/>
   </mergeCells>
   <conditionalFormatting sqref="F23:F59">
     <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Ei tehdä">
@@ -29673,8 +30449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F26D5F6-BB7B-44B2-B46D-B745C885F79C}">
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29690,14 +30466,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="505" t="s">
+      <c r="A1" s="481" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="506"/>
-      <c r="C1" s="506"/>
-      <c r="D1" s="506"/>
-      <c r="E1" s="506"/>
-      <c r="F1" s="507"/>
+      <c r="B1" s="482"/>
+      <c r="C1" s="482"/>
+      <c r="D1" s="482"/>
+      <c r="E1" s="482"/>
+      <c r="F1" s="483"/>
       <c r="G1" s="56"/>
       <c r="H1" s="29"/>
     </row>
@@ -29711,11 +30487,11 @@
       <c r="C2" s="300" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="508" t="s">
+      <c r="D2" s="484" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="508"/>
-      <c r="F2" s="509"/>
+      <c r="E2" s="484"/>
+      <c r="F2" s="485"/>
       <c r="G2" s="62"/>
       <c r="H2" s="29"/>
     </row>
@@ -29728,9 +30504,9 @@
         <v>21</v>
       </c>
       <c r="C3" s="177"/>
-      <c r="D3" s="510"/>
-      <c r="E3" s="511"/>
-      <c r="F3" s="512"/>
+      <c r="D3" s="486"/>
+      <c r="E3" s="487"/>
+      <c r="F3" s="488"/>
       <c r="G3" s="56"/>
       <c r="H3" s="29"/>
     </row>
@@ -29743,9 +30519,9 @@
         <v>25</v>
       </c>
       <c r="C4" s="177"/>
-      <c r="D4" s="490"/>
-      <c r="E4" s="491"/>
-      <c r="F4" s="492"/>
+      <c r="D4" s="489"/>
+      <c r="E4" s="490"/>
+      <c r="F4" s="491"/>
       <c r="G4" s="56"/>
       <c r="H4" s="29"/>
     </row>
@@ -29753,9 +30529,9 @@
       <c r="A5" s="279"/>
       <c r="B5" s="87"/>
       <c r="C5" s="177"/>
-      <c r="D5" s="490"/>
-      <c r="E5" s="491"/>
-      <c r="F5" s="492"/>
+      <c r="D5" s="489"/>
+      <c r="E5" s="490"/>
+      <c r="F5" s="491"/>
       <c r="G5" s="56"/>
       <c r="H5" s="29"/>
     </row>
@@ -29763,9 +30539,9 @@
       <c r="A6" s="279"/>
       <c r="B6" s="87"/>
       <c r="C6" s="177"/>
-      <c r="D6" s="490"/>
-      <c r="E6" s="491"/>
-      <c r="F6" s="492"/>
+      <c r="D6" s="489"/>
+      <c r="E6" s="490"/>
+      <c r="F6" s="491"/>
       <c r="G6" s="56"/>
       <c r="H6" s="29"/>
     </row>
@@ -29773,9 +30549,9 @@
       <c r="A7" s="280"/>
       <c r="B7" s="87"/>
       <c r="C7" s="177"/>
-      <c r="D7" s="491"/>
-      <c r="E7" s="491"/>
-      <c r="F7" s="491"/>
+      <c r="D7" s="490"/>
+      <c r="E7" s="490"/>
+      <c r="F7" s="490"/>
       <c r="G7" s="51"/>
       <c r="H7" s="29"/>
     </row>
@@ -29790,80 +30566,80 @@
       <c r="H8" s="29"/>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="520" t="s">
+      <c r="A9" s="524" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="495">
+      <c r="B9" s="494">
         <f>SUM(B3:B8)</f>
         <v>46</v>
       </c>
-      <c r="C9" s="497" t="str">
+      <c r="C9" s="496" t="str">
         <f>IF((SUM(C3:C7)=0),"",SUM(C3:C7))</f>
         <v/>
       </c>
-      <c r="D9" s="499" t="s">
+      <c r="D9" s="498" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="522">
+      <c r="E9" s="526">
         <v>10.5</v>
       </c>
-      <c r="F9" s="503"/>
+      <c r="F9" s="502"/>
       <c r="G9" s="56"/>
       <c r="H9" s="29"/>
     </row>
     <row r="10" spans="1:8" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="521"/>
-      <c r="B10" s="496"/>
-      <c r="C10" s="498"/>
-      <c r="D10" s="500"/>
-      <c r="E10" s="523"/>
-      <c r="F10" s="504"/>
+      <c r="A10" s="525"/>
+      <c r="B10" s="495"/>
+      <c r="C10" s="497"/>
+      <c r="D10" s="499"/>
+      <c r="E10" s="527"/>
+      <c r="F10" s="503"/>
       <c r="G10" s="56"/>
       <c r="H10" s="29"/>
     </row>
     <row r="11" spans="1:8" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="479" t="s">
+      <c r="A11" s="504" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="480"/>
-      <c r="C11" s="481"/>
-      <c r="D11" s="480"/>
-      <c r="E11" s="482"/>
-      <c r="F11" s="483"/>
+      <c r="B11" s="505"/>
+      <c r="C11" s="506"/>
+      <c r="D11" s="505"/>
+      <c r="E11" s="507"/>
+      <c r="F11" s="508"/>
       <c r="G11" s="62"/>
       <c r="H11" s="29"/>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="524" t="s">
+      <c r="A12" s="522" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="485" t="s">
+      <c r="B12" s="510" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="486" t="s">
+      <c r="C12" s="511" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="487"/>
-      <c r="E12" s="525" t="s">
+      <c r="D12" s="512"/>
+      <c r="E12" s="523" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="489" t="s">
+      <c r="F12" s="514" t="s">
         <v>43</v>
       </c>
       <c r="G12" s="62"/>
       <c r="H12" s="29"/>
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="524"/>
-      <c r="B13" s="485"/>
+      <c r="A13" s="522"/>
+      <c r="B13" s="510"/>
       <c r="C13" s="183" t="s">
         <v>44</v>
       </c>
       <c r="D13" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="525"/>
-      <c r="F13" s="489"/>
+      <c r="E13" s="523"/>
+      <c r="F13" s="514"/>
       <c r="G13" s="62"/>
       <c r="H13" s="29"/>
     </row>
@@ -31432,12 +32208,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
@@ -31445,12 +32221,12 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -31481,15 +32257,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="466" t="s">
+      <c r="B2" s="452" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="467"/>
-      <c r="D2" s="468" t="s">
+      <c r="C2" s="453"/>
+      <c r="D2" s="454" t="s">
         <v>193</v>
       </c>
-      <c r="E2" s="469"/>
-      <c r="F2" s="470"/>
+      <c r="E2" s="455"/>
+      <c r="F2" s="456"/>
       <c r="K2" s="304"/>
       <c r="L2" s="304"/>
       <c r="M2" s="304"/>
@@ -31499,9 +32275,9 @@
     <row r="3" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="264"/>
       <c r="C3" s="266"/>
-      <c r="D3" s="471"/>
-      <c r="E3" s="472"/>
-      <c r="F3" s="473"/>
+      <c r="D3" s="457"/>
+      <c r="E3" s="458"/>
+      <c r="F3" s="459"/>
       <c r="K3" s="304"/>
       <c r="L3" s="304"/>
       <c r="M3" s="304"/>
@@ -31511,9 +32287,9 @@
     <row r="4" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="264"/>
       <c r="C4" s="266"/>
-      <c r="D4" s="471"/>
-      <c r="E4" s="472"/>
-      <c r="F4" s="473"/>
+      <c r="D4" s="457"/>
+      <c r="E4" s="458"/>
+      <c r="F4" s="459"/>
       <c r="K4" s="304"/>
       <c r="L4" s="304"/>
       <c r="M4" s="304"/>
@@ -31523,9 +32299,9 @@
     <row r="5" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="264"/>
       <c r="C5" s="266"/>
-      <c r="D5" s="471"/>
-      <c r="E5" s="472"/>
-      <c r="F5" s="473"/>
+      <c r="D5" s="457"/>
+      <c r="E5" s="458"/>
+      <c r="F5" s="459"/>
       <c r="K5" s="304"/>
       <c r="L5" s="304"/>
       <c r="M5" s="304"/>
@@ -31535,9 +32311,9 @@
     <row r="6" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="265"/>
       <c r="C6" s="267"/>
-      <c r="D6" s="474"/>
-      <c r="E6" s="475"/>
-      <c r="F6" s="476"/>
+      <c r="D6" s="460"/>
+      <c r="E6" s="461"/>
+      <c r="F6" s="462"/>
       <c r="K6" s="304"/>
       <c r="L6" s="304"/>
       <c r="M6" s="304"/>
@@ -31581,14 +32357,14 @@
       <c r="D9" s="306" t="s">
         <v>86</v>
       </c>
-      <c r="E9" s="442" t="s">
+      <c r="E9" s="446" t="s">
         <v>87</v>
       </c>
-      <c r="F9" s="443"/>
-      <c r="G9" s="477" t="s">
+      <c r="F9" s="447"/>
+      <c r="G9" s="463" t="s">
         <v>88</v>
       </c>
-      <c r="H9" s="478"/>
+      <c r="H9" s="464"/>
       <c r="I9" s="306" t="s">
         <v>89</v>
       </c>
@@ -31614,12 +32390,12 @@
       <c r="D10" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E10" s="456" t="s">
+      <c r="E10" s="480" t="s">
         <v>194</v>
       </c>
-      <c r="F10" s="456"/>
-      <c r="G10" s="455"/>
-      <c r="H10" s="455"/>
+      <c r="F10" s="480"/>
+      <c r="G10" s="479"/>
+      <c r="H10" s="479"/>
       <c r="I10" s="173">
         <v>3</v>
       </c>
@@ -31644,12 +32420,12 @@
       <c r="D11" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E11" s="456" t="s">
+      <c r="E11" s="480" t="s">
         <v>195</v>
       </c>
-      <c r="F11" s="456"/>
-      <c r="G11" s="455"/>
-      <c r="H11" s="455"/>
+      <c r="F11" s="480"/>
+      <c r="G11" s="479"/>
+      <c r="H11" s="479"/>
       <c r="I11" s="310">
         <v>3</v>
       </c>
@@ -31674,12 +32450,12 @@
       <c r="D12" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E12" s="456" t="s">
+      <c r="E12" s="480" t="s">
         <v>196</v>
       </c>
-      <c r="F12" s="456"/>
-      <c r="G12" s="455"/>
-      <c r="H12" s="455"/>
+      <c r="F12" s="480"/>
+      <c r="G12" s="479"/>
+      <c r="H12" s="479"/>
       <c r="I12" s="310">
         <v>40</v>
       </c>
@@ -31704,12 +32480,12 @@
       <c r="D13" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E13" s="456" t="s">
+      <c r="E13" s="480" t="s">
         <v>197</v>
       </c>
-      <c r="F13" s="456"/>
-      <c r="G13" s="455"/>
-      <c r="H13" s="455"/>
+      <c r="F13" s="480"/>
+      <c r="G13" s="479"/>
+      <c r="H13" s="479"/>
       <c r="I13" s="310">
         <v>3</v>
       </c>
@@ -31734,12 +32510,12 @@
       <c r="D14" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E14" s="456" t="s">
+      <c r="E14" s="480" t="s">
         <v>198</v>
       </c>
-      <c r="F14" s="456"/>
-      <c r="G14" s="455"/>
-      <c r="H14" s="455"/>
+      <c r="F14" s="480"/>
+      <c r="G14" s="479"/>
+      <c r="H14" s="479"/>
       <c r="I14" s="310">
         <v>27</v>
       </c>
@@ -31764,12 +32540,12 @@
       <c r="D15" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E15" s="456" t="s">
+      <c r="E15" s="480" t="s">
         <v>199</v>
       </c>
-      <c r="F15" s="456"/>
-      <c r="G15" s="455"/>
-      <c r="H15" s="455"/>
+      <c r="F15" s="480"/>
+      <c r="G15" s="479"/>
+      <c r="H15" s="479"/>
       <c r="I15" s="310">
         <v>7</v>
       </c>
@@ -31788,10 +32564,10 @@
       <c r="T15" s="303"/>
     </row>
     <row r="16" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E16" s="456"/>
-      <c r="F16" s="456"/>
-      <c r="G16" s="455"/>
-      <c r="H16" s="455"/>
+      <c r="E16" s="480"/>
+      <c r="F16" s="480"/>
+      <c r="G16" s="479"/>
+      <c r="H16" s="479"/>
       <c r="I16" s="23"/>
       <c r="J16" s="180"/>
       <c r="K16" s="310"/>
@@ -31808,8 +32584,8 @@
     <row r="17" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="71"/>
       <c r="D17" s="71"/>
-      <c r="E17" s="464"/>
-      <c r="F17" s="464"/>
+      <c r="E17" s="471"/>
+      <c r="F17" s="471"/>
       <c r="G17" s="22"/>
       <c r="H17" s="22"/>
       <c r="I17" s="304"/>
@@ -31827,11 +32603,11 @@
     </row>
     <row r="18" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="72"/>
-      <c r="C18" s="459" t="s">
+      <c r="C18" s="466" t="s">
         <v>92</v>
       </c>
-      <c r="D18" s="460"/>
-      <c r="E18" s="461"/>
+      <c r="D18" s="467"/>
+      <c r="E18" s="468"/>
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
       <c r="H18" s="178" t="s">
@@ -31885,10 +32661,10 @@
       <c r="C20" s="309" t="s">
         <v>95</v>
       </c>
-      <c r="D20" s="462" t="s">
+      <c r="D20" s="469" t="s">
         <v>96</v>
       </c>
-      <c r="E20" s="463"/>
+      <c r="E20" s="470"/>
       <c r="F20" s="172" t="s">
         <v>97</v>
       </c>
@@ -31940,10 +32716,10 @@
         <v>144</v>
       </c>
       <c r="C21" s="303"/>
-      <c r="D21" s="437" t="s">
+      <c r="D21" s="438" t="s">
         <v>145</v>
       </c>
-      <c r="E21" s="437"/>
+      <c r="E21" s="438"/>
       <c r="F21" s="303" t="s">
         <v>105</v>
       </c>
@@ -31989,10 +32765,10 @@
         <v>210</v>
       </c>
       <c r="C22" s="303"/>
-      <c r="D22" s="437" t="s">
+      <c r="D22" s="438" t="s">
         <v>211</v>
       </c>
-      <c r="E22" s="437"/>
+      <c r="E22" s="438"/>
       <c r="F22" s="303" t="s">
         <v>105</v>
       </c>
@@ -32040,10 +32816,10 @@
         <v>213</v>
       </c>
       <c r="C23" s="303"/>
-      <c r="D23" s="437" t="s">
+      <c r="D23" s="438" t="s">
         <v>214</v>
       </c>
-      <c r="E23" s="437"/>
+      <c r="E23" s="438"/>
       <c r="F23" s="303" t="s">
         <v>105</v>
       </c>
@@ -32091,10 +32867,10 @@
         <v>215</v>
       </c>
       <c r="C24" s="303"/>
-      <c r="D24" s="437" t="s">
+      <c r="D24" s="438" t="s">
         <v>216</v>
       </c>
-      <c r="E24" s="437"/>
+      <c r="E24" s="438"/>
       <c r="F24" s="303" t="s">
         <v>105</v>
       </c>
@@ -32142,10 +32918,10 @@
         <v>217</v>
       </c>
       <c r="C25" s="303"/>
-      <c r="D25" s="437" t="s">
+      <c r="D25" s="438" t="s">
         <v>218</v>
       </c>
-      <c r="E25" s="437"/>
+      <c r="E25" s="438"/>
       <c r="F25" s="303" t="s">
         <v>105</v>
       </c>
@@ -32193,10 +32969,10 @@
         <v>219</v>
       </c>
       <c r="C26" s="303"/>
-      <c r="D26" s="437" t="s">
+      <c r="D26" s="438" t="s">
         <v>66</v>
       </c>
-      <c r="E26" s="437"/>
+      <c r="E26" s="438"/>
       <c r="F26" s="303" t="s">
         <v>105</v>
       </c>
@@ -32244,10 +33020,10 @@
         <v>220</v>
       </c>
       <c r="C27" s="303"/>
-      <c r="D27" s="437" t="s">
+      <c r="D27" s="438" t="s">
         <v>221</v>
       </c>
-      <c r="E27" s="437"/>
+      <c r="E27" s="438"/>
       <c r="F27" s="303" t="s">
         <v>105</v>
       </c>
@@ -32295,10 +33071,10 @@
         <v>222</v>
       </c>
       <c r="C28" s="303"/>
-      <c r="D28" s="437" t="s">
+      <c r="D28" s="438" t="s">
         <v>196</v>
       </c>
-      <c r="E28" s="437"/>
+      <c r="E28" s="438"/>
       <c r="F28" s="303" t="s">
         <v>105</v>
       </c>
@@ -32346,10 +33122,10 @@
         <v>224</v>
       </c>
       <c r="C29" s="303"/>
-      <c r="D29" s="440" t="s">
+      <c r="D29" s="442" t="s">
         <v>225</v>
       </c>
-      <c r="E29" s="440"/>
+      <c r="E29" s="442"/>
       <c r="F29" s="303" t="s">
         <v>105</v>
       </c>
@@ -32395,8 +33171,8 @@
     <row r="30" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="28"/>
       <c r="C30" s="303"/>
-      <c r="D30" s="440"/>
-      <c r="E30" s="440"/>
+      <c r="D30" s="442"/>
+      <c r="E30" s="442"/>
       <c r="F30" s="303"/>
       <c r="G30" s="303"/>
       <c r="H30" s="303"/>
@@ -32416,8 +33192,8 @@
     <row r="31" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="28"/>
       <c r="C31" s="303"/>
-      <c r="D31" s="440"/>
-      <c r="E31" s="440"/>
+      <c r="D31" s="442"/>
+      <c r="E31" s="442"/>
       <c r="F31" s="303"/>
       <c r="G31" s="303"/>
       <c r="H31" s="303"/>
@@ -32437,8 +33213,8 @@
     <row r="32" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="303"/>
       <c r="C32" s="303"/>
-      <c r="D32" s="440"/>
-      <c r="E32" s="440"/>
+      <c r="D32" s="442"/>
+      <c r="E32" s="442"/>
       <c r="F32" s="303"/>
       <c r="G32" s="303"/>
       <c r="H32" s="303"/>
@@ -32458,8 +33234,8 @@
     <row r="33" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="303"/>
       <c r="C33" s="303"/>
-      <c r="D33" s="440"/>
-      <c r="E33" s="440"/>
+      <c r="D33" s="442"/>
+      <c r="E33" s="442"/>
       <c r="F33" s="303"/>
       <c r="G33" s="303"/>
       <c r="H33" s="303"/>
@@ -32479,8 +33255,8 @@
     <row r="34" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="303"/>
       <c r="C34" s="303"/>
-      <c r="D34" s="440"/>
-      <c r="E34" s="440"/>
+      <c r="D34" s="442"/>
+      <c r="E34" s="442"/>
       <c r="F34" s="303"/>
       <c r="G34" s="303"/>
       <c r="H34" s="303"/>
@@ -32500,8 +33276,8 @@
     <row r="35" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="303"/>
       <c r="C35" s="303"/>
-      <c r="D35" s="440"/>
-      <c r="E35" s="440"/>
+      <c r="D35" s="442"/>
+      <c r="E35" s="442"/>
       <c r="F35" s="303"/>
       <c r="G35" s="303"/>
       <c r="H35" s="303"/>
@@ -32802,6 +33578,28 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:F6"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="D34:E34"/>
@@ -32816,28 +33614,6 @@
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:F6"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
   </mergeCells>
   <conditionalFormatting sqref="F21:F35">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Ei tehdä">
@@ -32878,14 +33654,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="505" t="s">
+      <c r="A1" s="481" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="506"/>
-      <c r="C1" s="506"/>
-      <c r="D1" s="506"/>
-      <c r="E1" s="506"/>
-      <c r="F1" s="507"/>
+      <c r="B1" s="482"/>
+      <c r="C1" s="482"/>
+      <c r="D1" s="482"/>
+      <c r="E1" s="482"/>
+      <c r="F1" s="483"/>
       <c r="G1" s="56"/>
       <c r="H1" s="29"/>
     </row>
@@ -32899,11 +33675,11 @@
       <c r="C2" s="300" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="508" t="s">
+      <c r="D2" s="484" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="508"/>
-      <c r="F2" s="509"/>
+      <c r="E2" s="484"/>
+      <c r="F2" s="485"/>
       <c r="G2" s="62"/>
       <c r="H2" s="29"/>
     </row>
@@ -32916,9 +33692,9 @@
         <v>28</v>
       </c>
       <c r="C3" s="177"/>
-      <c r="D3" s="510"/>
-      <c r="E3" s="511"/>
-      <c r="F3" s="512"/>
+      <c r="D3" s="486"/>
+      <c r="E3" s="487"/>
+      <c r="F3" s="488"/>
       <c r="G3" s="56"/>
       <c r="H3" s="29"/>
     </row>
@@ -32931,9 +33707,9 @@
         <v>40.5</v>
       </c>
       <c r="C4" s="177"/>
-      <c r="D4" s="490"/>
-      <c r="E4" s="491"/>
-      <c r="F4" s="492"/>
+      <c r="D4" s="489"/>
+      <c r="E4" s="490"/>
+      <c r="F4" s="491"/>
       <c r="G4" s="56"/>
       <c r="H4" s="29"/>
     </row>
@@ -32946,9 +33722,9 @@
         <v>21.5</v>
       </c>
       <c r="C5" s="177"/>
-      <c r="D5" s="490"/>
-      <c r="E5" s="491"/>
-      <c r="F5" s="492"/>
+      <c r="D5" s="489"/>
+      <c r="E5" s="490"/>
+      <c r="F5" s="491"/>
       <c r="G5" s="56"/>
       <c r="H5" s="29"/>
     </row>
@@ -32961,9 +33737,9 @@
         <v>46</v>
       </c>
       <c r="C6" s="177"/>
-      <c r="D6" s="490"/>
-      <c r="E6" s="491"/>
-      <c r="F6" s="492"/>
+      <c r="D6" s="489"/>
+      <c r="E6" s="490"/>
+      <c r="F6" s="491"/>
       <c r="G6" s="56"/>
       <c r="H6" s="29"/>
     </row>
@@ -32976,9 +33752,9 @@
         <v>22.5</v>
       </c>
       <c r="C7" s="177"/>
-      <c r="D7" s="491"/>
-      <c r="E7" s="491"/>
-      <c r="F7" s="491"/>
+      <c r="D7" s="490"/>
+      <c r="E7" s="490"/>
+      <c r="F7" s="490"/>
       <c r="G7" s="51"/>
       <c r="H7" s="29"/>
     </row>
@@ -32993,80 +33769,80 @@
       <c r="H8" s="29"/>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="493" t="s">
+      <c r="A9" s="492" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="495">
+      <c r="B9" s="494">
         <f>SUM(B3:B8)</f>
         <v>158.5</v>
       </c>
-      <c r="C9" s="497" t="str">
+      <c r="C9" s="496" t="str">
         <f>IF((SUM(C3:C7)=0),"",SUM(C3:C7))</f>
         <v/>
       </c>
-      <c r="D9" s="499" t="s">
+      <c r="D9" s="498" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="522">
+      <c r="E9" s="526">
         <v>16.5</v>
       </c>
-      <c r="F9" s="503"/>
+      <c r="F9" s="502"/>
       <c r="G9" s="56"/>
       <c r="H9" s="29"/>
     </row>
     <row r="10" spans="1:8" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="494"/>
-      <c r="B10" s="496"/>
-      <c r="C10" s="498"/>
-      <c r="D10" s="500"/>
-      <c r="E10" s="523"/>
-      <c r="F10" s="504"/>
+      <c r="A10" s="493"/>
+      <c r="B10" s="495"/>
+      <c r="C10" s="497"/>
+      <c r="D10" s="499"/>
+      <c r="E10" s="527"/>
+      <c r="F10" s="503"/>
       <c r="G10" s="56"/>
       <c r="H10" s="29"/>
     </row>
     <row r="11" spans="1:8" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="479" t="s">
+      <c r="A11" s="504" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="480"/>
-      <c r="C11" s="481"/>
-      <c r="D11" s="480"/>
-      <c r="E11" s="482"/>
-      <c r="F11" s="483"/>
+      <c r="B11" s="505"/>
+      <c r="C11" s="506"/>
+      <c r="D11" s="505"/>
+      <c r="E11" s="507"/>
+      <c r="F11" s="508"/>
       <c r="G11" s="62"/>
       <c r="H11" s="29"/>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="484" t="s">
+      <c r="A12" s="509" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="485" t="s">
+      <c r="B12" s="510" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="486" t="s">
+      <c r="C12" s="511" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="487"/>
-      <c r="E12" s="525" t="s">
+      <c r="D12" s="512"/>
+      <c r="E12" s="523" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="489" t="s">
+      <c r="F12" s="514" t="s">
         <v>43</v>
       </c>
       <c r="G12" s="62"/>
       <c r="H12" s="29"/>
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="484"/>
-      <c r="B13" s="485"/>
+      <c r="A13" s="509"/>
+      <c r="B13" s="510"/>
       <c r="C13" s="183" t="s">
         <v>44</v>
       </c>
       <c r="D13" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="525"/>
-      <c r="F13" s="489"/>
+      <c r="E13" s="523"/>
+      <c r="F13" s="514"/>
       <c r="G13" s="62"/>
       <c r="H13" s="29"/>
     </row>
@@ -34870,12 +35646,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
@@ -34883,12 +35659,12 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -35053,18 +35829,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -35086,14 +35862,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58957FBC-4CB2-4E5D-9BCC-B24CB64EA848}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A54E358B-517D-4392-B403-2ECFF28C0FE6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -35107,4 +35875,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58957FBC-4CB2-4E5D-9BCC-B24CB64EA848}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/ScrumBacklog.xlsx
+++ b/ScrumBacklog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xim\muistutussovellus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D05EAE-7E0E-4851-AEEA-2443EDD5713B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9611D8D4-B314-4340-A529-0FCAC8C5DD94}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="700" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="700" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Yhteenveto" sheetId="16" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="537">
   <si>
     <t>Päivitetty</t>
   </si>
@@ -1686,6 +1686,21 @@
   </si>
   <si>
     <t>2.5</t>
+  </si>
+  <si>
+    <t>Luo "valitse tehtävät" -sivun toiminnallisuus</t>
+  </si>
+  <si>
+    <t>5.6</t>
+  </si>
+  <si>
+    <t>6.5</t>
+  </si>
+  <si>
+    <t>Luo Adminin päänäkymä-sivun toiminnallisuudet</t>
+  </si>
+  <si>
+    <t>9.9</t>
   </si>
 </sst>
 </file>
@@ -3194,7 +3209,7 @@
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="571">
+  <cellXfs count="570">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4237,24 +4252,135 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="31" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -4279,117 +4405,6 @@
     <xf numFmtId="0" fontId="5" fillId="31" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="31" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="5" fillId="29" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -4399,96 +4414,137 @@
     <xf numFmtId="14" fontId="5" fillId="29" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="31" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="5" fillId="31" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="31" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="55" fillId="33" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="55" fillId="33" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="55" fillId="33" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="27" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="27" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="27" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="55" fillId="33" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="55" fillId="33" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="55" fillId="33" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="31" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="55" fillId="33" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="55" fillId="33" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="55" fillId="33" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="27" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="27" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="27" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="55" fillId="33" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="55" fillId="33" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="55" fillId="33" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="48" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="24" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="24" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="48" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="50" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="15" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="15" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="32" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="32" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="24" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="24" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="48" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="35" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4529,49 +4585,83 @@
     <xf numFmtId="0" fontId="48" fillId="31" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="27" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="29" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="29" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="51" fillId="15" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="15" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="14" fillId="31" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="31" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="32" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="32" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="31" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="48" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="166" fontId="5" fillId="31" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="31" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="31" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="31" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="31" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="31" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="31" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -4597,98 +4687,32 @@
     <xf numFmtId="166" fontId="14" fillId="31" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="31" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="31" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="15" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="15" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="31" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="31" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="31" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="31" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="31" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="31" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="31" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="31" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="27" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="29" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="29" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="15" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="15" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="9" fillId="31" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="15" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="9" fillId="31" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="15" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="34" fillId="31" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="166" fontId="34" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="171" fontId="1" fillId="29" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4696,17 +4720,62 @@
     <xf numFmtId="166" fontId="7" fillId="29" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="9" fillId="31" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="9" fillId="31" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="34" fillId="31" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="34" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="28" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="25" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4726,62 +4795,62 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="28" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="29" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="29" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="29" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -4800,63 +4869,6 @@
     </xf>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="29" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="29" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="29" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -4868,7 +4880,7 @@
     <cellStyle name="Hyperlinkki" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="312">
+  <dxfs count="320">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -6220,6 +6232,37 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
@@ -6271,6 +6314,37 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12099,20 +12173,20 @@
     </row>
     <row r="2" spans="1:25" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A2" s="31"/>
-      <c r="B2" s="401" t="s">
+      <c r="B2" s="365" t="s">
         <v>436</v>
       </c>
-      <c r="C2" s="402"/>
-      <c r="D2" s="402"/>
-      <c r="E2" s="402"/>
-      <c r="F2" s="402"/>
-      <c r="G2" s="403"/>
-      <c r="H2" s="404"/>
-      <c r="I2" s="404"/>
-      <c r="J2" s="404"/>
-      <c r="K2" s="404"/>
-      <c r="L2" s="402"/>
-      <c r="M2" s="405"/>
+      <c r="C2" s="366"/>
+      <c r="D2" s="366"/>
+      <c r="E2" s="366"/>
+      <c r="F2" s="366"/>
+      <c r="G2" s="367"/>
+      <c r="H2" s="368"/>
+      <c r="I2" s="368"/>
+      <c r="J2" s="368"/>
+      <c r="K2" s="368"/>
+      <c r="L2" s="366"/>
+      <c r="M2" s="369"/>
       <c r="N2" s="32"/>
       <c r="O2" s="29"/>
       <c r="P2" s="29"/>
@@ -12128,19 +12202,19 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="33"/>
-      <c r="B3" s="406" t="s">
+      <c r="B3" s="370" t="s">
         <v>425</v>
       </c>
-      <c r="C3" s="407"/>
-      <c r="D3" s="407"/>
-      <c r="E3" s="407"/>
-      <c r="F3" s="407"/>
-      <c r="G3" s="407"/>
-      <c r="H3" s="407"/>
-      <c r="I3" s="407"/>
-      <c r="J3" s="407"/>
-      <c r="K3" s="407"/>
-      <c r="L3" s="408"/>
+      <c r="C3" s="371"/>
+      <c r="D3" s="371"/>
+      <c r="E3" s="371"/>
+      <c r="F3" s="371"/>
+      <c r="G3" s="371"/>
+      <c r="H3" s="371"/>
+      <c r="I3" s="371"/>
+      <c r="J3" s="371"/>
+      <c r="K3" s="371"/>
+      <c r="L3" s="372"/>
       <c r="M3" s="34" t="s">
         <v>0</v>
       </c>
@@ -12159,17 +12233,17 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="33"/>
-      <c r="B4" s="406"/>
-      <c r="C4" s="407"/>
-      <c r="D4" s="407"/>
-      <c r="E4" s="407"/>
-      <c r="F4" s="407"/>
-      <c r="G4" s="407"/>
-      <c r="H4" s="407"/>
-      <c r="I4" s="407"/>
-      <c r="J4" s="407"/>
-      <c r="K4" s="407"/>
-      <c r="L4" s="408"/>
+      <c r="B4" s="370"/>
+      <c r="C4" s="371"/>
+      <c r="D4" s="371"/>
+      <c r="E4" s="371"/>
+      <c r="F4" s="371"/>
+      <c r="G4" s="371"/>
+      <c r="H4" s="371"/>
+      <c r="I4" s="371"/>
+      <c r="J4" s="371"/>
+      <c r="K4" s="371"/>
+      <c r="L4" s="372"/>
       <c r="M4" s="175">
         <v>43920</v>
       </c>
@@ -12222,19 +12296,19 @@
       <c r="B6" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="378" t="s">
+      <c r="C6" s="373" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="379"/>
-      <c r="E6" s="379"/>
-      <c r="F6" s="379"/>
-      <c r="G6" s="379"/>
-      <c r="H6" s="379"/>
-      <c r="I6" s="379"/>
-      <c r="J6" s="379"/>
-      <c r="K6" s="379"/>
-      <c r="L6" s="379"/>
-      <c r="M6" s="409"/>
+      <c r="D6" s="374"/>
+      <c r="E6" s="374"/>
+      <c r="F6" s="374"/>
+      <c r="G6" s="374"/>
+      <c r="H6" s="374"/>
+      <c r="I6" s="374"/>
+      <c r="J6" s="374"/>
+      <c r="K6" s="374"/>
+      <c r="L6" s="374"/>
+      <c r="M6" s="375"/>
       <c r="N6" s="32"/>
       <c r="O6" s="29"/>
       <c r="P6" s="29"/>
@@ -12253,19 +12327,19 @@
       <c r="B7" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="410" t="s">
+      <c r="C7" s="376" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="411"/>
-      <c r="E7" s="411"/>
-      <c r="F7" s="411"/>
-      <c r="G7" s="411"/>
-      <c r="H7" s="411"/>
-      <c r="I7" s="411"/>
-      <c r="J7" s="411"/>
-      <c r="K7" s="411"/>
-      <c r="L7" s="411"/>
-      <c r="M7" s="412"/>
+      <c r="D7" s="377"/>
+      <c r="E7" s="377"/>
+      <c r="F7" s="377"/>
+      <c r="G7" s="377"/>
+      <c r="H7" s="377"/>
+      <c r="I7" s="377"/>
+      <c r="J7" s="377"/>
+      <c r="K7" s="377"/>
+      <c r="L7" s="377"/>
+      <c r="M7" s="378"/>
       <c r="N7" s="32"/>
       <c r="O7" s="29"/>
       <c r="P7" s="29"/>
@@ -12284,19 +12358,19 @@
       <c r="B8" s="39" t="s">
         <v>426</v>
       </c>
-      <c r="C8" s="410" t="s">
+      <c r="C8" s="376" t="s">
         <v>427</v>
       </c>
-      <c r="D8" s="411"/>
-      <c r="E8" s="411"/>
-      <c r="F8" s="411"/>
-      <c r="G8" s="411"/>
-      <c r="H8" s="411"/>
-      <c r="I8" s="411"/>
-      <c r="J8" s="411"/>
-      <c r="K8" s="411"/>
-      <c r="L8" s="411"/>
-      <c r="M8" s="412"/>
+      <c r="D8" s="377"/>
+      <c r="E8" s="377"/>
+      <c r="F8" s="377"/>
+      <c r="G8" s="377"/>
+      <c r="H8" s="377"/>
+      <c r="I8" s="377"/>
+      <c r="J8" s="377"/>
+      <c r="K8" s="377"/>
+      <c r="L8" s="377"/>
+      <c r="M8" s="378"/>
       <c r="N8" s="32"/>
       <c r="O8" s="29"/>
       <c r="P8" s="29"/>
@@ -12315,19 +12389,19 @@
       <c r="B9" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="410" t="s">
+      <c r="C9" s="376" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="411"/>
-      <c r="E9" s="411"/>
-      <c r="F9" s="411"/>
-      <c r="G9" s="411"/>
-      <c r="H9" s="411"/>
-      <c r="I9" s="411"/>
-      <c r="J9" s="411"/>
-      <c r="K9" s="411"/>
-      <c r="L9" s="411"/>
-      <c r="M9" s="412"/>
+      <c r="D9" s="377"/>
+      <c r="E9" s="377"/>
+      <c r="F9" s="377"/>
+      <c r="G9" s="377"/>
+      <c r="H9" s="377"/>
+      <c r="I9" s="377"/>
+      <c r="J9" s="377"/>
+      <c r="K9" s="377"/>
+      <c r="L9" s="377"/>
+      <c r="M9" s="378"/>
       <c r="N9" s="32"/>
       <c r="O9" s="29"/>
       <c r="P9" s="29"/>
@@ -12346,19 +12420,19 @@
       <c r="B10" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="398" t="s">
+      <c r="C10" s="362" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="399"/>
-      <c r="E10" s="399"/>
-      <c r="F10" s="399"/>
-      <c r="G10" s="399"/>
-      <c r="H10" s="399"/>
-      <c r="I10" s="399"/>
-      <c r="J10" s="399"/>
-      <c r="K10" s="399"/>
-      <c r="L10" s="399"/>
-      <c r="M10" s="400"/>
+      <c r="D10" s="363"/>
+      <c r="E10" s="363"/>
+      <c r="F10" s="363"/>
+      <c r="G10" s="363"/>
+      <c r="H10" s="363"/>
+      <c r="I10" s="363"/>
+      <c r="J10" s="363"/>
+      <c r="K10" s="363"/>
+      <c r="L10" s="363"/>
+      <c r="M10" s="364"/>
       <c r="N10" s="32"/>
       <c r="O10" s="29"/>
       <c r="P10" s="29"/>
@@ -12401,20 +12475,20 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="31"/>
-      <c r="B12" s="387" t="s">
+      <c r="B12" s="379" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="388"/>
-      <c r="D12" s="388"/>
-      <c r="E12" s="388"/>
-      <c r="F12" s="388"/>
-      <c r="G12" s="388"/>
-      <c r="H12" s="388"/>
-      <c r="I12" s="388"/>
-      <c r="J12" s="388"/>
-      <c r="K12" s="388"/>
-      <c r="L12" s="388"/>
-      <c r="M12" s="389"/>
+      <c r="C12" s="380"/>
+      <c r="D12" s="380"/>
+      <c r="E12" s="380"/>
+      <c r="F12" s="380"/>
+      <c r="G12" s="380"/>
+      <c r="H12" s="380"/>
+      <c r="I12" s="380"/>
+      <c r="J12" s="380"/>
+      <c r="K12" s="380"/>
+      <c r="L12" s="380"/>
+      <c r="M12" s="381"/>
       <c r="N12" s="32"/>
       <c r="O12" s="29"/>
       <c r="P12" s="29"/>
@@ -12439,14 +12513,14 @@
       <c r="D13" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="390" t="s">
+      <c r="E13" s="382" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="391"/>
-      <c r="G13" s="391"/>
-      <c r="H13" s="391"/>
-      <c r="I13" s="391"/>
-      <c r="J13" s="392"/>
+      <c r="F13" s="383"/>
+      <c r="G13" s="383"/>
+      <c r="H13" s="383"/>
+      <c r="I13" s="383"/>
+      <c r="J13" s="384"/>
       <c r="K13" s="286" t="s">
         <v>16</v>
       </c>
@@ -12464,38 +12538,38 @@
       <c r="S13" s="29"/>
       <c r="T13" s="29"/>
       <c r="U13" s="29"/>
-      <c r="V13" s="393"/>
-      <c r="W13" s="393"/>
-      <c r="X13" s="393"/>
+      <c r="V13" s="385"/>
+      <c r="W13" s="385"/>
+      <c r="X13" s="385"/>
       <c r="Y13" s="41"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="33"/>
-      <c r="B14" s="365">
+      <c r="B14" s="386">
         <v>1</v>
       </c>
-      <c r="C14" s="367">
+      <c r="C14" s="387">
         <v>43906</v>
       </c>
-      <c r="D14" s="367">
+      <c r="D14" s="387">
         <v>43941</v>
       </c>
-      <c r="E14" s="394" t="s">
+      <c r="E14" s="388" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="395"/>
-      <c r="G14" s="396"/>
-      <c r="H14" s="396"/>
-      <c r="I14" s="396"/>
-      <c r="J14" s="397"/>
-      <c r="K14" s="384" t="s">
+      <c r="F14" s="389"/>
+      <c r="G14" s="390"/>
+      <c r="H14" s="390"/>
+      <c r="I14" s="390"/>
+      <c r="J14" s="391"/>
+      <c r="K14" s="392" t="s">
         <v>324</v>
       </c>
-      <c r="L14" s="386">
+      <c r="L14" s="394">
         <f>'S1 - Backlog'!I19</f>
         <v>67</v>
       </c>
-      <c r="M14" s="362">
+      <c r="M14" s="396">
         <f>'S1 - Backlog'!J19</f>
         <v>1</v>
       </c>
@@ -12514,18 +12588,18 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="33"/>
-      <c r="B15" s="365"/>
-      <c r="C15" s="367"/>
-      <c r="D15" s="367"/>
-      <c r="E15" s="394"/>
-      <c r="F15" s="395"/>
-      <c r="G15" s="396"/>
-      <c r="H15" s="396"/>
-      <c r="I15" s="396"/>
-      <c r="J15" s="397"/>
-      <c r="K15" s="385"/>
-      <c r="L15" s="376"/>
-      <c r="M15" s="362"/>
+      <c r="B15" s="386"/>
+      <c r="C15" s="387"/>
+      <c r="D15" s="387"/>
+      <c r="E15" s="388"/>
+      <c r="F15" s="389"/>
+      <c r="G15" s="390"/>
+      <c r="H15" s="390"/>
+      <c r="I15" s="390"/>
+      <c r="J15" s="391"/>
+      <c r="K15" s="393"/>
+      <c r="L15" s="395"/>
+      <c r="M15" s="396"/>
       <c r="N15" s="32"/>
       <c r="O15" s="29"/>
       <c r="P15" s="29"/>
@@ -12541,29 +12615,29 @@
     </row>
     <row r="16" spans="1:25" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="33"/>
-      <c r="B16" s="365">
+      <c r="B16" s="386">
         <v>2</v>
       </c>
-      <c r="C16" s="367">
+      <c r="C16" s="387">
         <v>43941</v>
       </c>
-      <c r="D16" s="367">
+      <c r="D16" s="387">
         <v>43969</v>
       </c>
-      <c r="E16" s="378"/>
-      <c r="F16" s="379"/>
-      <c r="G16" s="379"/>
-      <c r="H16" s="379"/>
-      <c r="I16" s="379"/>
-      <c r="J16" s="380"/>
-      <c r="K16" s="384" t="s">
+      <c r="E16" s="373"/>
+      <c r="F16" s="374"/>
+      <c r="G16" s="374"/>
+      <c r="H16" s="374"/>
+      <c r="I16" s="374"/>
+      <c r="J16" s="399"/>
+      <c r="K16" s="392" t="s">
         <v>424</v>
       </c>
-      <c r="L16" s="386">
+      <c r="L16" s="394">
         <f>'S2 - Backlog'!I14</f>
         <v>9</v>
       </c>
-      <c r="M16" s="362">
+      <c r="M16" s="396">
         <f>'S2 - Backlog'!J14</f>
         <v>7</v>
       </c>
@@ -12582,18 +12656,18 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="33"/>
-      <c r="B17" s="366"/>
-      <c r="C17" s="377"/>
-      <c r="D17" s="377"/>
-      <c r="E17" s="381"/>
-      <c r="F17" s="382"/>
-      <c r="G17" s="382"/>
-      <c r="H17" s="382"/>
-      <c r="I17" s="382"/>
-      <c r="J17" s="383"/>
-      <c r="K17" s="385"/>
-      <c r="L17" s="376"/>
-      <c r="M17" s="362"/>
+      <c r="B17" s="397"/>
+      <c r="C17" s="398"/>
+      <c r="D17" s="398"/>
+      <c r="E17" s="400"/>
+      <c r="F17" s="401"/>
+      <c r="G17" s="401"/>
+      <c r="H17" s="401"/>
+      <c r="I17" s="401"/>
+      <c r="J17" s="402"/>
+      <c r="K17" s="393"/>
+      <c r="L17" s="395"/>
+      <c r="M17" s="396"/>
       <c r="N17" s="32"/>
       <c r="O17" s="29"/>
       <c r="P17" s="29"/>
@@ -12609,29 +12683,29 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="33"/>
-      <c r="B18" s="365">
+      <c r="B18" s="386">
         <v>3</v>
       </c>
-      <c r="C18" s="367">
+      <c r="C18" s="387">
         <v>43969</v>
       </c>
-      <c r="D18" s="367">
+      <c r="D18" s="387">
         <v>43997</v>
       </c>
-      <c r="E18" s="378"/>
-      <c r="F18" s="379"/>
-      <c r="G18" s="379"/>
-      <c r="H18" s="379"/>
-      <c r="I18" s="379"/>
-      <c r="J18" s="380"/>
-      <c r="K18" s="384" t="s">
+      <c r="E18" s="373"/>
+      <c r="F18" s="374"/>
+      <c r="G18" s="374"/>
+      <c r="H18" s="374"/>
+      <c r="I18" s="374"/>
+      <c r="J18" s="399"/>
+      <c r="K18" s="392" t="s">
         <v>324</v>
       </c>
-      <c r="L18" s="386">
+      <c r="L18" s="394">
         <f>'S3 - Backlog'!I18</f>
         <v>83</v>
       </c>
-      <c r="M18" s="386">
+      <c r="M18" s="394">
         <f>'S3 - Backlog'!J18</f>
         <v>83</v>
       </c>
@@ -12650,18 +12724,18 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="33"/>
-      <c r="B19" s="366"/>
-      <c r="C19" s="377"/>
-      <c r="D19" s="377"/>
-      <c r="E19" s="381"/>
-      <c r="F19" s="382"/>
-      <c r="G19" s="382"/>
-      <c r="H19" s="382"/>
-      <c r="I19" s="382"/>
-      <c r="J19" s="383"/>
-      <c r="K19" s="385"/>
-      <c r="L19" s="376"/>
-      <c r="M19" s="376"/>
+      <c r="B19" s="397"/>
+      <c r="C19" s="398"/>
+      <c r="D19" s="398"/>
+      <c r="E19" s="400"/>
+      <c r="F19" s="401"/>
+      <c r="G19" s="401"/>
+      <c r="H19" s="401"/>
+      <c r="I19" s="401"/>
+      <c r="J19" s="402"/>
+      <c r="K19" s="393"/>
+      <c r="L19" s="395"/>
+      <c r="M19" s="395"/>
       <c r="N19" s="32"/>
       <c r="O19" s="29"/>
       <c r="P19" s="29"/>
@@ -12677,20 +12751,20 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="33"/>
-      <c r="B20" s="365">
+      <c r="B20" s="386">
         <v>4</v>
       </c>
-      <c r="C20" s="367"/>
-      <c r="D20" s="367"/>
-      <c r="E20" s="368"/>
-      <c r="F20" s="369"/>
-      <c r="G20" s="369"/>
-      <c r="H20" s="369"/>
-      <c r="I20" s="369"/>
-      <c r="J20" s="370"/>
-      <c r="K20" s="374"/>
-      <c r="L20" s="376"/>
-      <c r="M20" s="362"/>
+      <c r="C20" s="387"/>
+      <c r="D20" s="387"/>
+      <c r="E20" s="405"/>
+      <c r="F20" s="406"/>
+      <c r="G20" s="406"/>
+      <c r="H20" s="406"/>
+      <c r="I20" s="406"/>
+      <c r="J20" s="407"/>
+      <c r="K20" s="411"/>
+      <c r="L20" s="395"/>
+      <c r="M20" s="396"/>
       <c r="N20" s="32"/>
       <c r="O20" s="29"/>
       <c r="P20" s="29"/>
@@ -12706,18 +12780,18 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="33"/>
-      <c r="B21" s="366"/>
-      <c r="C21" s="367"/>
-      <c r="D21" s="367"/>
-      <c r="E21" s="371"/>
-      <c r="F21" s="372"/>
-      <c r="G21" s="372"/>
-      <c r="H21" s="372"/>
-      <c r="I21" s="372"/>
-      <c r="J21" s="373"/>
-      <c r="K21" s="375"/>
-      <c r="L21" s="376"/>
-      <c r="M21" s="362"/>
+      <c r="B21" s="397"/>
+      <c r="C21" s="387"/>
+      <c r="D21" s="387"/>
+      <c r="E21" s="408"/>
+      <c r="F21" s="409"/>
+      <c r="G21" s="409"/>
+      <c r="H21" s="409"/>
+      <c r="I21" s="409"/>
+      <c r="J21" s="410"/>
+      <c r="K21" s="412"/>
+      <c r="L21" s="395"/>
+      <c r="M21" s="396"/>
       <c r="N21" s="32"/>
       <c r="O21" s="29"/>
       <c r="P21" s="29"/>
@@ -12760,13 +12834,13 @@
     </row>
     <row r="23" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="51"/>
-      <c r="B23" s="364" t="s">
+      <c r="B23" s="404" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="364"/>
-      <c r="D23" s="364"/>
-      <c r="E23" s="364"/>
-      <c r="F23" s="364"/>
+      <c r="C23" s="404"/>
+      <c r="D23" s="404"/>
+      <c r="E23" s="404"/>
+      <c r="F23" s="404"/>
       <c r="G23" s="253"/>
       <c r="H23" s="55"/>
       <c r="I23" s="55"/>
@@ -12789,7 +12863,7 @@
     </row>
     <row r="24" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="51"/>
-      <c r="B24" s="363" t="s">
+      <c r="B24" s="403" t="s">
         <v>21</v>
       </c>
       <c r="C24" s="257" t="s">
@@ -12826,7 +12900,7 @@
     </row>
     <row r="25" spans="1:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="51"/>
-      <c r="B25" s="363"/>
+      <c r="B25" s="403"/>
       <c r="C25" s="258" t="s">
         <v>26</v>
       </c>
@@ -13337,23 +13411,15 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="C10:M10"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:L4"/>
-    <mergeCell ref="C6:M6"/>
-    <mergeCell ref="C7:M7"/>
-    <mergeCell ref="C9:M9"/>
-    <mergeCell ref="C8:M8"/>
-    <mergeCell ref="B12:M12"/>
-    <mergeCell ref="E13:J13"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
     <mergeCell ref="M16:M17"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="C18:C19"/>
@@ -13368,15 +13434,23 @@
     <mergeCell ref="E16:J17"/>
     <mergeCell ref="K16:K17"/>
     <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="B12:M12"/>
+    <mergeCell ref="E13:J13"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="C10:M10"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:L4"/>
+    <mergeCell ref="C6:M6"/>
+    <mergeCell ref="C7:M7"/>
+    <mergeCell ref="C9:M9"/>
+    <mergeCell ref="C8:M8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13425,14 +13499,14 @@
       <c r="C2" s="305" t="s">
         <v>166</v>
       </c>
-      <c r="D2" s="521" t="s">
+      <c r="D2" s="539" t="s">
         <v>167</v>
       </c>
-      <c r="E2" s="522"/>
-      <c r="F2" s="523" t="s">
+      <c r="E2" s="540"/>
+      <c r="F2" s="541" t="s">
         <v>168</v>
       </c>
-      <c r="G2" s="522"/>
+      <c r="G2" s="540"/>
       <c r="H2" s="305" t="s">
         <v>169</v>
       </c>
@@ -13454,14 +13528,14 @@
       <c r="C3" s="97" t="s">
         <v>171</v>
       </c>
-      <c r="D3" s="524" t="s">
+      <c r="D3" s="542" t="s">
         <v>172</v>
       </c>
-      <c r="E3" s="524"/>
-      <c r="F3" s="525" t="s">
+      <c r="E3" s="542"/>
+      <c r="F3" s="543" t="s">
         <v>173</v>
       </c>
-      <c r="G3" s="526"/>
+      <c r="G3" s="544"/>
       <c r="H3" s="98"/>
       <c r="I3" s="96"/>
       <c r="J3" s="99"/>
@@ -13475,10 +13549,10 @@
       <c r="A4" s="95"/>
       <c r="B4" s="96"/>
       <c r="C4" s="306"/>
-      <c r="D4" s="526"/>
-      <c r="E4" s="526"/>
-      <c r="F4" s="525"/>
-      <c r="G4" s="526"/>
+      <c r="D4" s="544"/>
+      <c r="E4" s="544"/>
+      <c r="F4" s="543"/>
+      <c r="G4" s="544"/>
       <c r="H4" s="98"/>
       <c r="I4" s="96"/>
       <c r="J4" s="101"/>
@@ -13541,10 +13615,10 @@
     </row>
     <row r="8" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="301"/>
-      <c r="B8" s="527" t="s">
+      <c r="B8" s="531" t="s">
         <v>92</v>
       </c>
-      <c r="C8" s="528"/>
+      <c r="C8" s="532"/>
       <c r="D8" s="106"/>
       <c r="E8" s="106"/>
       <c r="F8" s="111"/>
@@ -13582,10 +13656,10 @@
       <c r="B10" s="116" t="s">
         <v>174</v>
       </c>
-      <c r="C10" s="529" t="s">
+      <c r="C10" s="533" t="s">
         <v>96</v>
       </c>
-      <c r="D10" s="530"/>
+      <c r="D10" s="534"/>
       <c r="E10" s="304" t="s">
         <v>101</v>
       </c>
@@ -13614,16 +13688,16 @@
     </row>
     <row r="11" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="94"/>
-      <c r="B11" s="531" t="s">
+      <c r="B11" s="535" t="s">
         <v>178</v>
       </c>
-      <c r="C11" s="531"/>
-      <c r="D11" s="532"/>
-      <c r="E11" s="533"/>
-      <c r="F11" s="534"/>
-      <c r="G11" s="533"/>
-      <c r="H11" s="533"/>
-      <c r="I11" s="533"/>
+      <c r="C11" s="535"/>
+      <c r="D11" s="536"/>
+      <c r="E11" s="537"/>
+      <c r="F11" s="538"/>
+      <c r="G11" s="537"/>
+      <c r="H11" s="537"/>
+      <c r="I11" s="537"/>
       <c r="J11" s="120"/>
       <c r="K11" s="120"/>
       <c r="L11" s="301"/>
@@ -13671,10 +13745,10 @@
       <c r="B13" s="303" t="s">
         <v>180</v>
       </c>
-      <c r="C13" s="535" t="s">
+      <c r="C13" s="522" t="s">
         <v>186</v>
       </c>
-      <c r="D13" s="535"/>
+      <c r="D13" s="522"/>
       <c r="E13" s="121">
         <v>5</v>
       </c>
@@ -13758,10 +13832,10 @@
       <c r="B16" s="303" t="s">
         <v>180</v>
       </c>
-      <c r="C16" s="535" t="s">
+      <c r="C16" s="522" t="s">
         <v>194</v>
       </c>
-      <c r="D16" s="535"/>
+      <c r="D16" s="522"/>
       <c r="E16" s="121">
         <v>15</v>
       </c>
@@ -13829,10 +13903,10 @@
       <c r="B19" s="127" t="s">
         <v>198</v>
       </c>
-      <c r="C19" s="535" t="s">
+      <c r="C19" s="522" t="s">
         <v>199</v>
       </c>
-      <c r="D19" s="536"/>
+      <c r="D19" s="520"/>
       <c r="E19" s="121">
         <v>44</v>
       </c>
@@ -13873,10 +13947,10 @@
       <c r="B21" s="303" t="s">
         <v>201</v>
       </c>
-      <c r="C21" s="537" t="s">
+      <c r="C21" s="525" t="s">
         <v>202</v>
       </c>
-      <c r="D21" s="538"/>
+      <c r="D21" s="526"/>
       <c r="E21" s="121">
         <v>32</v>
       </c>
@@ -13896,10 +13970,10 @@
     <row r="22" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="301"/>
       <c r="B22" s="301"/>
-      <c r="C22" s="535" t="s">
+      <c r="C22" s="522" t="s">
         <v>203</v>
       </c>
-      <c r="D22" s="536"/>
+      <c r="D22" s="520"/>
       <c r="E22" s="301">
         <v>20</v>
       </c>
@@ -13919,10 +13993,10 @@
     <row r="23" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="302"/>
       <c r="B23" s="303"/>
-      <c r="C23" s="535" t="s">
+      <c r="C23" s="522" t="s">
         <v>204</v>
       </c>
-      <c r="D23" s="536"/>
+      <c r="D23" s="520"/>
       <c r="E23" s="302">
         <v>9</v>
       </c>
@@ -13942,10 +14016,10 @@
     <row r="24" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="302"/>
       <c r="B24" s="303"/>
-      <c r="C24" s="535" t="s">
+      <c r="C24" s="522" t="s">
         <v>205</v>
       </c>
-      <c r="D24" s="536"/>
+      <c r="D24" s="520"/>
       <c r="E24" s="302">
         <v>25</v>
       </c>
@@ -13965,10 +14039,10 @@
     <row r="25" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="302"/>
       <c r="B25" s="303"/>
-      <c r="C25" s="535" t="s">
+      <c r="C25" s="522" t="s">
         <v>206</v>
       </c>
-      <c r="D25" s="535"/>
+      <c r="D25" s="522"/>
       <c r="E25" s="302">
         <v>27</v>
       </c>
@@ -13988,10 +14062,10 @@
     <row r="26" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="302"/>
       <c r="B26" s="303"/>
-      <c r="C26" s="535" t="s">
+      <c r="C26" s="522" t="s">
         <v>207</v>
       </c>
-      <c r="D26" s="536"/>
+      <c r="D26" s="520"/>
       <c r="E26" s="302">
         <v>17</v>
       </c>
@@ -14010,16 +14084,16 @@
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="302"/>
-      <c r="B27" s="539" t="s">
+      <c r="B27" s="521" t="s">
         <v>208</v>
       </c>
-      <c r="C27" s="540"/>
-      <c r="D27" s="541"/>
-      <c r="E27" s="542"/>
-      <c r="F27" s="543"/>
-      <c r="G27" s="542"/>
-      <c r="H27" s="542"/>
-      <c r="I27" s="542"/>
+      <c r="C27" s="527"/>
+      <c r="D27" s="528"/>
+      <c r="E27" s="529"/>
+      <c r="F27" s="530"/>
+      <c r="G27" s="529"/>
+      <c r="H27" s="529"/>
+      <c r="I27" s="529"/>
       <c r="J27" s="128"/>
       <c r="K27" s="128"/>
       <c r="L27" s="301"/>
@@ -14049,10 +14123,10 @@
       <c r="B29" s="301" t="s">
         <v>209</v>
       </c>
-      <c r="C29" s="537" t="s">
+      <c r="C29" s="525" t="s">
         <v>210</v>
       </c>
-      <c r="D29" s="537"/>
+      <c r="D29" s="525"/>
       <c r="E29" s="301">
         <v>26</v>
       </c>
@@ -14072,10 +14146,10 @@
     <row r="30" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="302"/>
       <c r="B30" s="303"/>
-      <c r="C30" s="535" t="s">
+      <c r="C30" s="522" t="s">
         <v>211</v>
       </c>
-      <c r="D30" s="536"/>
+      <c r="D30" s="520"/>
       <c r="E30" s="121" t="s">
         <v>212</v>
       </c>
@@ -14093,10 +14167,10 @@
     <row r="31" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="302"/>
       <c r="B31" s="303"/>
-      <c r="C31" s="535" t="s">
+      <c r="C31" s="522" t="s">
         <v>213</v>
       </c>
-      <c r="D31" s="536"/>
+      <c r="D31" s="520"/>
       <c r="E31" s="121">
         <v>24</v>
       </c>
@@ -14116,10 +14190,10 @@
     <row r="32" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="302"/>
       <c r="B32" s="303"/>
-      <c r="C32" s="535" t="s">
+      <c r="C32" s="522" t="s">
         <v>214</v>
       </c>
-      <c r="D32" s="536"/>
+      <c r="D32" s="520"/>
       <c r="E32" s="121">
         <v>40</v>
       </c>
@@ -14137,10 +14211,10 @@
     <row r="33" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="302"/>
       <c r="B33" s="303"/>
-      <c r="C33" s="535" t="s">
+      <c r="C33" s="522" t="s">
         <v>215</v>
       </c>
-      <c r="D33" s="536"/>
+      <c r="D33" s="520"/>
       <c r="E33" s="121">
         <v>29</v>
       </c>
@@ -14158,10 +14232,10 @@
     <row r="34" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="302"/>
       <c r="B34" s="303"/>
-      <c r="C34" s="535" t="s">
+      <c r="C34" s="522" t="s">
         <v>216</v>
       </c>
-      <c r="D34" s="536"/>
+      <c r="D34" s="520"/>
       <c r="E34" s="121">
         <v>22</v>
       </c>
@@ -14179,10 +14253,10 @@
     <row r="35" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="302"/>
       <c r="B35" s="303"/>
-      <c r="C35" s="535" t="s">
+      <c r="C35" s="522" t="s">
         <v>217</v>
       </c>
-      <c r="D35" s="536"/>
+      <c r="D35" s="520"/>
       <c r="E35" s="121">
         <v>32</v>
       </c>
@@ -14236,10 +14310,10 @@
     <row r="38" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="302"/>
       <c r="B38" s="127"/>
-      <c r="C38" s="537" t="s">
+      <c r="C38" s="525" t="s">
         <v>218</v>
       </c>
-      <c r="D38" s="538"/>
+      <c r="D38" s="526"/>
       <c r="E38" s="121">
         <v>12</v>
       </c>
@@ -14259,8 +14333,8 @@
     <row r="39" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="302"/>
       <c r="B39" s="127"/>
-      <c r="C39" s="535"/>
-      <c r="D39" s="536"/>
+      <c r="C39" s="522"/>
+      <c r="D39" s="520"/>
       <c r="E39" s="121"/>
       <c r="F39" s="111"/>
       <c r="G39" s="125"/>
@@ -14276,10 +14350,10 @@
     <row r="40" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="302"/>
       <c r="B40" s="303"/>
-      <c r="C40" s="535" t="s">
+      <c r="C40" s="522" t="s">
         <v>219</v>
       </c>
-      <c r="D40" s="536"/>
+      <c r="D40" s="520"/>
       <c r="E40" s="121">
         <v>32</v>
       </c>
@@ -14383,16 +14457,16 @@
     </row>
     <row r="46" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="302"/>
-      <c r="B46" s="539" t="s">
+      <c r="B46" s="521" t="s">
         <v>220</v>
       </c>
-      <c r="C46" s="539"/>
-      <c r="D46" s="539"/>
-      <c r="E46" s="539"/>
-      <c r="F46" s="539"/>
-      <c r="G46" s="539"/>
-      <c r="H46" s="539"/>
-      <c r="I46" s="539"/>
+      <c r="C46" s="521"/>
+      <c r="D46" s="521"/>
+      <c r="E46" s="521"/>
+      <c r="F46" s="521"/>
+      <c r="G46" s="521"/>
+      <c r="H46" s="521"/>
+      <c r="I46" s="521"/>
       <c r="J46" s="132"/>
       <c r="K46" s="132"/>
       <c r="L46" s="302"/>
@@ -14405,10 +14479,10 @@
         <v>185</v>
       </c>
       <c r="B47" s="303"/>
-      <c r="C47" s="535" t="s">
+      <c r="C47" s="522" t="s">
         <v>221</v>
       </c>
-      <c r="D47" s="535"/>
+      <c r="D47" s="522"/>
       <c r="E47" s="121">
         <v>11</v>
       </c>
@@ -14430,8 +14504,8 @@
     <row r="48" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="302"/>
       <c r="B48" s="127"/>
-      <c r="C48" s="535"/>
-      <c r="D48" s="535"/>
+      <c r="C48" s="522"/>
+      <c r="D48" s="522"/>
       <c r="E48" s="121"/>
       <c r="F48" s="111"/>
       <c r="G48" s="125"/>
@@ -14449,10 +14523,10 @@
         <v>185</v>
       </c>
       <c r="B49" s="303"/>
-      <c r="C49" s="535" t="s">
+      <c r="C49" s="522" t="s">
         <v>222</v>
       </c>
-      <c r="D49" s="535"/>
+      <c r="D49" s="522"/>
       <c r="E49" s="121">
         <v>10</v>
       </c>
@@ -14474,8 +14548,8 @@
     <row r="50" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="302"/>
       <c r="B50" s="127"/>
-      <c r="C50" s="535"/>
-      <c r="D50" s="535"/>
+      <c r="C50" s="522"/>
+      <c r="D50" s="522"/>
       <c r="E50" s="121"/>
       <c r="F50" s="111"/>
       <c r="G50" s="125"/>
@@ -14508,8 +14582,8 @@
     <row r="52" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="301"/>
       <c r="B52" s="303"/>
-      <c r="C52" s="535"/>
-      <c r="D52" s="536"/>
+      <c r="C52" s="522"/>
+      <c r="D52" s="520"/>
       <c r="E52" s="302"/>
       <c r="F52" s="133"/>
       <c r="G52" s="302"/>
@@ -14541,16 +14615,16 @@
     </row>
     <row r="54" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="302"/>
-      <c r="B54" s="539" t="s">
+      <c r="B54" s="521" t="s">
         <v>223</v>
       </c>
-      <c r="C54" s="539"/>
-      <c r="D54" s="539"/>
-      <c r="E54" s="539"/>
-      <c r="F54" s="539"/>
-      <c r="G54" s="539"/>
-      <c r="H54" s="539"/>
-      <c r="I54" s="539"/>
+      <c r="C54" s="521"/>
+      <c r="D54" s="521"/>
+      <c r="E54" s="521"/>
+      <c r="F54" s="521"/>
+      <c r="G54" s="521"/>
+      <c r="H54" s="521"/>
+      <c r="I54" s="521"/>
       <c r="J54" s="132"/>
       <c r="K54" s="132"/>
       <c r="L54" s="302"/>
@@ -14561,10 +14635,10 @@
     <row r="55" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="302"/>
       <c r="B55" s="303"/>
-      <c r="C55" s="535" t="s">
+      <c r="C55" s="522" t="s">
         <v>224</v>
       </c>
-      <c r="D55" s="536"/>
+      <c r="D55" s="520"/>
       <c r="E55" s="134">
         <v>26</v>
       </c>
@@ -14584,10 +14658,10 @@
     <row r="56" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="302"/>
       <c r="B56" s="127"/>
-      <c r="C56" s="535" t="s">
+      <c r="C56" s="522" t="s">
         <v>225</v>
       </c>
-      <c r="D56" s="535"/>
+      <c r="D56" s="522"/>
       <c r="E56" s="134">
         <v>55</v>
       </c>
@@ -14623,16 +14697,16 @@
     </row>
     <row r="58" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="302"/>
-      <c r="B58" s="539" t="s">
+      <c r="B58" s="521" t="s">
         <v>226</v>
       </c>
-      <c r="C58" s="539"/>
-      <c r="D58" s="539"/>
-      <c r="E58" s="539"/>
-      <c r="F58" s="539"/>
-      <c r="G58" s="539"/>
-      <c r="H58" s="539"/>
-      <c r="I58" s="539"/>
+      <c r="C58" s="521"/>
+      <c r="D58" s="521"/>
+      <c r="E58" s="521"/>
+      <c r="F58" s="521"/>
+      <c r="G58" s="521"/>
+      <c r="H58" s="521"/>
+      <c r="I58" s="521"/>
       <c r="J58" s="132"/>
       <c r="K58" s="132"/>
       <c r="L58" s="302"/>
@@ -14645,10 +14719,10 @@
       <c r="B59" s="303" t="s">
         <v>180</v>
       </c>
-      <c r="C59" s="535" t="s">
+      <c r="C59" s="522" t="s">
         <v>227</v>
       </c>
-      <c r="D59" s="535"/>
+      <c r="D59" s="522"/>
       <c r="E59" s="121">
         <v>32</v>
       </c>
@@ -14668,10 +14742,10 @@
     <row r="60" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="301"/>
       <c r="B60" s="301"/>
-      <c r="C60" s="536" t="s">
+      <c r="C60" s="520" t="s">
         <v>228</v>
       </c>
-      <c r="D60" s="536"/>
+      <c r="D60" s="520"/>
       <c r="E60" s="121">
         <v>50</v>
       </c>
@@ -14691,10 +14765,10 @@
     <row r="61" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="301"/>
       <c r="B61" s="301"/>
-      <c r="C61" s="536" t="s">
+      <c r="C61" s="520" t="s">
         <v>230</v>
       </c>
-      <c r="D61" s="536"/>
+      <c r="D61" s="520"/>
       <c r="E61" s="121">
         <v>16</v>
       </c>
@@ -14735,10 +14809,10 @@
     <row r="63" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="301"/>
       <c r="B63" s="301"/>
-      <c r="C63" s="536" t="s">
+      <c r="C63" s="520" t="s">
         <v>231</v>
       </c>
-      <c r="D63" s="536"/>
+      <c r="D63" s="520"/>
       <c r="E63" s="121">
         <v>14</v>
       </c>
@@ -14867,10 +14941,10 @@
       <c r="B68" s="303" t="s">
         <v>180</v>
       </c>
-      <c r="C68" s="535" t="s">
+      <c r="C68" s="522" t="s">
         <v>237</v>
       </c>
-      <c r="D68" s="535"/>
+      <c r="D68" s="522"/>
       <c r="E68" s="121">
         <v>28</v>
       </c>
@@ -14952,16 +15026,16 @@
     </row>
     <row r="71" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="302"/>
-      <c r="B71" s="539" t="s">
+      <c r="B71" s="521" t="s">
         <v>241</v>
       </c>
-      <c r="C71" s="539"/>
-      <c r="D71" s="539"/>
-      <c r="E71" s="539"/>
-      <c r="F71" s="539"/>
-      <c r="G71" s="539"/>
-      <c r="H71" s="539"/>
-      <c r="I71" s="539"/>
+      <c r="C71" s="521"/>
+      <c r="D71" s="521"/>
+      <c r="E71" s="521"/>
+      <c r="F71" s="521"/>
+      <c r="G71" s="521"/>
+      <c r="H71" s="521"/>
+      <c r="I71" s="521"/>
       <c r="J71" s="104"/>
       <c r="K71" s="104"/>
       <c r="L71" s="302"/>
@@ -14977,10 +15051,10 @@
     <row r="72" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="302"/>
       <c r="B72" s="302"/>
-      <c r="C72" s="536" t="s">
+      <c r="C72" s="520" t="s">
         <v>242</v>
       </c>
-      <c r="D72" s="536"/>
+      <c r="D72" s="520"/>
       <c r="E72" s="302">
         <v>20</v>
       </c>
@@ -15007,10 +15081,10 @@
       <c r="B73" s="303" t="s">
         <v>180</v>
       </c>
-      <c r="C73" s="536" t="s">
+      <c r="C73" s="520" t="s">
         <v>244</v>
       </c>
-      <c r="D73" s="536"/>
+      <c r="D73" s="520"/>
       <c r="E73" s="302">
         <v>16</v>
       </c>
@@ -15104,16 +15178,16 @@
     </row>
     <row r="77" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="302"/>
-      <c r="B77" s="539" t="s">
+      <c r="B77" s="521" t="s">
         <v>84</v>
       </c>
-      <c r="C77" s="539"/>
-      <c r="D77" s="539"/>
-      <c r="E77" s="539"/>
-      <c r="F77" s="539"/>
-      <c r="G77" s="539"/>
-      <c r="H77" s="539"/>
-      <c r="I77" s="539"/>
+      <c r="C77" s="521"/>
+      <c r="D77" s="521"/>
+      <c r="E77" s="521"/>
+      <c r="F77" s="521"/>
+      <c r="G77" s="521"/>
+      <c r="H77" s="521"/>
+      <c r="I77" s="521"/>
       <c r="J77" s="132"/>
       <c r="K77" s="132"/>
       <c r="L77" s="302"/>
@@ -15129,15 +15203,15 @@
     <row r="78" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="302"/>
       <c r="B78" s="302"/>
-      <c r="C78" s="535" t="s">
+      <c r="C78" s="522" t="s">
         <v>247</v>
       </c>
-      <c r="D78" s="535"/>
-      <c r="E78" s="535"/>
-      <c r="F78" s="535"/>
-      <c r="G78" s="535"/>
-      <c r="H78" s="535"/>
-      <c r="I78" s="535"/>
+      <c r="D78" s="522"/>
+      <c r="E78" s="522"/>
+      <c r="F78" s="522"/>
+      <c r="G78" s="522"/>
+      <c r="H78" s="522"/>
+      <c r="I78" s="522"/>
       <c r="J78" s="104"/>
       <c r="K78" s="104"/>
       <c r="L78" s="302"/>
@@ -15153,13 +15227,13 @@
     <row r="79" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="302"/>
       <c r="B79" s="302"/>
-      <c r="C79" s="544"/>
-      <c r="D79" s="544"/>
-      <c r="E79" s="544"/>
-      <c r="F79" s="544"/>
-      <c r="G79" s="544"/>
-      <c r="H79" s="544"/>
-      <c r="I79" s="544"/>
+      <c r="C79" s="523"/>
+      <c r="D79" s="523"/>
+      <c r="E79" s="523"/>
+      <c r="F79" s="523"/>
+      <c r="G79" s="523"/>
+      <c r="H79" s="523"/>
+      <c r="I79" s="523"/>
       <c r="J79" s="104"/>
       <c r="K79" s="104"/>
       <c r="L79" s="302"/>
@@ -15199,10 +15273,10 @@
         <v>248</v>
       </c>
       <c r="B81" s="143"/>
-      <c r="C81" s="545" t="s">
+      <c r="C81" s="524" t="s">
         <v>249</v>
       </c>
-      <c r="D81" s="545"/>
+      <c r="D81" s="524"/>
       <c r="E81" s="143"/>
       <c r="F81" s="143"/>
       <c r="G81" s="143"/>
@@ -15241,57 +15315,57 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="B77:I77"/>
-    <mergeCell ref="C78:I78"/>
-    <mergeCell ref="C79:I79"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="B71:I71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="B58:I58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="B54:I54"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="B46:I46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C16:D16"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="B46:I46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="B54:I54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="B58:I58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="B71:I71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="B77:I77"/>
+    <mergeCell ref="C78:I78"/>
+    <mergeCell ref="C79:I79"/>
+    <mergeCell ref="C81:D81"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15318,14 +15392,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="546" t="s">
+      <c r="A1" s="564" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="547"/>
-      <c r="C1" s="547"/>
-      <c r="D1" s="547"/>
-      <c r="E1" s="547"/>
-      <c r="F1" s="548"/>
+      <c r="B1" s="565"/>
+      <c r="C1" s="565"/>
+      <c r="D1" s="565"/>
+      <c r="E1" s="565"/>
+      <c r="F1" s="566"/>
       <c r="G1" s="145"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -15338,11 +15412,11 @@
       <c r="C2" s="44" t="s">
         <v>251</v>
       </c>
-      <c r="D2" s="479" t="s">
+      <c r="D2" s="504" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="479"/>
-      <c r="F2" s="479"/>
+      <c r="E2" s="504"/>
+      <c r="F2" s="504"/>
       <c r="G2" s="147"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -15357,11 +15431,11 @@
         <f>B3/4</f>
         <v>7.375</v>
       </c>
-      <c r="D3" s="549" t="s">
+      <c r="D3" s="567" t="s">
         <v>253</v>
       </c>
-      <c r="E3" s="550"/>
-      <c r="F3" s="551"/>
+      <c r="E3" s="568"/>
+      <c r="F3" s="569"/>
       <c r="G3" s="145"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -15376,11 +15450,11 @@
         <f>B4/4</f>
         <v>9.75</v>
       </c>
-      <c r="D4" s="552" t="s">
+      <c r="D4" s="553" t="s">
         <v>255</v>
       </c>
-      <c r="E4" s="553"/>
-      <c r="F4" s="554"/>
+      <c r="E4" s="554"/>
+      <c r="F4" s="555"/>
       <c r="G4" s="145"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -15395,9 +15469,9 @@
         <f>B5/4</f>
         <v>7.25</v>
       </c>
-      <c r="D5" s="552"/>
-      <c r="E5" s="553"/>
-      <c r="F5" s="554"/>
+      <c r="D5" s="553"/>
+      <c r="E5" s="554"/>
+      <c r="F5" s="555"/>
       <c r="G5" s="145"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -15412,9 +15486,9 @@
         <f>B6/4</f>
         <v>4.75</v>
       </c>
-      <c r="D6" s="552"/>
-      <c r="E6" s="553"/>
-      <c r="F6" s="554"/>
+      <c r="D6" s="553"/>
+      <c r="E6" s="554"/>
+      <c r="F6" s="555"/>
       <c r="G6" s="145"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -15429,78 +15503,78 @@
         <f>B7/4</f>
         <v>6.125</v>
       </c>
-      <c r="D7" s="552"/>
-      <c r="E7" s="553"/>
-      <c r="F7" s="554"/>
+      <c r="D7" s="553"/>
+      <c r="E7" s="554"/>
+      <c r="F7" s="555"/>
       <c r="G7" s="145"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="555" t="s">
+      <c r="A8" s="556" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="557">
+      <c r="B8" s="558">
         <f>IF((SUM(B3:B7)=0),"",SUM(B3:B7))</f>
         <v>141</v>
       </c>
-      <c r="C8" s="557">
+      <c r="C8" s="558">
         <f>IF((SUM(C3:C7)=0),"",SUM(C3:C7))</f>
         <v>35.25</v>
       </c>
-      <c r="D8" s="552"/>
-      <c r="E8" s="553"/>
-      <c r="F8" s="554"/>
+      <c r="D8" s="553"/>
+      <c r="E8" s="554"/>
+      <c r="F8" s="555"/>
       <c r="G8" s="145"/>
     </row>
     <row r="9" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="556"/>
-      <c r="B9" s="558"/>
-      <c r="C9" s="559"/>
-      <c r="D9" s="560"/>
-      <c r="E9" s="561"/>
-      <c r="F9" s="562"/>
+      <c r="A9" s="557"/>
+      <c r="B9" s="559"/>
+      <c r="C9" s="560"/>
+      <c r="D9" s="561"/>
+      <c r="E9" s="562"/>
+      <c r="F9" s="563"/>
       <c r="G9" s="145"/>
     </row>
     <row r="10" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="563" t="s">
+      <c r="A10" s="545" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="564"/>
-      <c r="C10" s="564"/>
-      <c r="D10" s="564"/>
-      <c r="E10" s="565"/>
-      <c r="F10" s="564"/>
+      <c r="B10" s="546"/>
+      <c r="C10" s="546"/>
+      <c r="D10" s="546"/>
+      <c r="E10" s="547"/>
+      <c r="F10" s="546"/>
       <c r="G10" s="147"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="566" t="s">
+      <c r="A11" s="548" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="505" t="s">
+      <c r="B11" s="481" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="390" t="s">
+      <c r="C11" s="382" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="392"/>
-      <c r="E11" s="567" t="s">
+      <c r="D11" s="384"/>
+      <c r="E11" s="549" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="569" t="s">
+      <c r="F11" s="551" t="s">
         <v>259</v>
       </c>
       <c r="G11" s="145"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="566"/>
-      <c r="B12" s="505"/>
+      <c r="A12" s="548"/>
+      <c r="B12" s="481"/>
       <c r="C12" s="295" t="s">
         <v>44</v>
       </c>
       <c r="D12" s="152" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="568"/>
-      <c r="F12" s="570"/>
+      <c r="E12" s="550"/>
+      <c r="F12" s="552"/>
       <c r="G12" s="145"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -16828,12 +16902,11 @@
   </sheetData>
   <autoFilter ref="A12:F12" xr:uid="{00000000-0009-0000-0000-000009000000}"/>
   <mergeCells count="18">
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="A8:A9"/>
@@ -16841,11 +16914,12 @@
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="D9:F9"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16917,15 +16991,15 @@
     </row>
     <row r="2" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="221"/>
-      <c r="B2" s="424" t="s">
+      <c r="B2" s="422" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="425"/>
-      <c r="D2" s="425"/>
-      <c r="E2" s="425"/>
-      <c r="F2" s="425"/>
-      <c r="G2" s="425"/>
-      <c r="H2" s="426"/>
+      <c r="C2" s="423"/>
+      <c r="D2" s="423"/>
+      <c r="E2" s="423"/>
+      <c r="F2" s="423"/>
+      <c r="G2" s="423"/>
+      <c r="H2" s="424"/>
       <c r="I2" s="222"/>
       <c r="J2" s="29"/>
       <c r="K2" s="29"/>
@@ -16961,15 +17035,15 @@
     </row>
     <row r="3" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="221"/>
-      <c r="B3" s="421" t="s">
+      <c r="B3" s="419" t="s">
         <v>315</v>
       </c>
-      <c r="C3" s="422"/>
-      <c r="D3" s="422"/>
-      <c r="E3" s="422"/>
-      <c r="F3" s="422"/>
-      <c r="G3" s="422"/>
-      <c r="H3" s="423"/>
+      <c r="C3" s="420"/>
+      <c r="D3" s="420"/>
+      <c r="E3" s="420"/>
+      <c r="F3" s="420"/>
+      <c r="G3" s="420"/>
+      <c r="H3" s="421"/>
       <c r="I3" s="222"/>
       <c r="J3" s="29"/>
       <c r="K3" s="29"/>
@@ -17008,10 +17082,10 @@
       <c r="B4" s="259" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="418" t="s">
+      <c r="C4" s="428" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="419"/>
+      <c r="D4" s="429"/>
       <c r="E4" s="224" t="s">
         <v>78</v>
       </c>
@@ -17059,7 +17133,7 @@
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="230"/>
-      <c r="B5" s="420" t="s">
+      <c r="B5" s="416" t="s">
         <v>325</v>
       </c>
       <c r="C5" s="268" t="s">
@@ -17111,7 +17185,7 @@
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="230"/>
-      <c r="B6" s="420"/>
+      <c r="B6" s="416"/>
       <c r="C6" s="268" t="s">
         <v>314</v>
       </c>
@@ -17203,7 +17277,7 @@
     </row>
     <row r="8" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="230"/>
-      <c r="B8" s="420" t="s">
+      <c r="B8" s="416" t="s">
         <v>312</v>
       </c>
       <c r="C8" s="268" t="s">
@@ -17255,7 +17329,7 @@
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" s="221"/>
-      <c r="B9" s="420"/>
+      <c r="B9" s="416"/>
       <c r="C9" s="268" t="s">
         <v>314</v>
       </c>
@@ -17347,7 +17421,7 @@
     </row>
     <row r="11" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="221"/>
-      <c r="B11" s="416" t="s">
+      <c r="B11" s="417" t="s">
         <v>327</v>
       </c>
       <c r="C11" s="268" t="s">
@@ -17399,7 +17473,7 @@
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" s="221"/>
-      <c r="B12" s="417"/>
+      <c r="B12" s="418"/>
       <c r="C12" s="268" t="s">
         <v>314</v>
       </c>
@@ -17491,7 +17565,7 @@
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" s="332"/>
-      <c r="B14" s="416" t="s">
+      <c r="B14" s="417" t="s">
         <v>380</v>
       </c>
       <c r="C14" s="268" t="s">
@@ -17543,7 +17617,7 @@
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" s="332"/>
-      <c r="B15" s="417"/>
+      <c r="B15" s="418"/>
       <c r="C15" s="268" t="s">
         <v>314</v>
       </c>
@@ -17635,7 +17709,7 @@
     </row>
     <row r="17" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29"/>
-      <c r="B17" s="416" t="s">
+      <c r="B17" s="417" t="s">
         <v>433</v>
       </c>
       <c r="C17" s="268" t="s">
@@ -17687,7 +17761,7 @@
     </row>
     <row r="18" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="29"/>
-      <c r="B18" s="417"/>
+      <c r="B18" s="418"/>
       <c r="C18" s="268" t="s">
         <v>314</v>
       </c>
@@ -17779,7 +17853,7 @@
     </row>
     <row r="20" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="29"/>
-      <c r="B20" s="416" t="s">
+      <c r="B20" s="417" t="s">
         <v>428</v>
       </c>
       <c r="C20" s="268" t="s">
@@ -17831,7 +17905,7 @@
     </row>
     <row r="21" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="29"/>
-      <c r="B21" s="417"/>
+      <c r="B21" s="418"/>
       <c r="C21" s="268" t="s">
         <v>314</v>
       </c>
@@ -17923,7 +17997,7 @@
     </row>
     <row r="23" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29"/>
-      <c r="B23" s="416" t="s">
+      <c r="B23" s="417" t="s">
         <v>429</v>
       </c>
       <c r="C23" s="268" t="s">
@@ -17975,7 +18049,7 @@
     </row>
     <row r="24" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29"/>
-      <c r="B24" s="417"/>
+      <c r="B24" s="418"/>
       <c r="C24" s="268" t="s">
         <v>314</v>
       </c>
@@ -18067,7 +18141,7 @@
     </row>
     <row r="26" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="29"/>
-      <c r="B26" s="416" t="s">
+      <c r="B26" s="417" t="s">
         <v>430</v>
       </c>
       <c r="C26" s="268" t="s">
@@ -18119,7 +18193,7 @@
     </row>
     <row r="27" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="29"/>
-      <c r="B27" s="417"/>
+      <c r="B27" s="418"/>
       <c r="C27" s="268" t="s">
         <v>314</v>
       </c>
@@ -18211,7 +18285,7 @@
     </row>
     <row r="29" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="29"/>
-      <c r="B29" s="416" t="s">
+      <c r="B29" s="417" t="s">
         <v>431</v>
       </c>
       <c r="C29" s="268" t="s">
@@ -18263,7 +18337,7 @@
     </row>
     <row r="30" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="29"/>
-      <c r="B30" s="417"/>
+      <c r="B30" s="418"/>
       <c r="C30" s="268" t="s">
         <v>314</v>
       </c>
@@ -18355,7 +18429,7 @@
     </row>
     <row r="32" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="29"/>
-      <c r="B32" s="416" t="s">
+      <c r="B32" s="417" t="s">
         <v>432</v>
       </c>
       <c r="C32" s="268" t="s">
@@ -18407,7 +18481,7 @@
     </row>
     <row r="33" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="29"/>
-      <c r="B33" s="417"/>
+      <c r="B33" s="418"/>
       <c r="C33" s="268" t="s">
         <v>314</v>
       </c>
@@ -18499,15 +18573,15 @@
     </row>
     <row r="35" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="221"/>
-      <c r="B35" s="421" t="s">
+      <c r="B35" s="419" t="s">
         <v>82</v>
       </c>
-      <c r="C35" s="422"/>
-      <c r="D35" s="422"/>
-      <c r="E35" s="422"/>
-      <c r="F35" s="422"/>
-      <c r="G35" s="422"/>
-      <c r="H35" s="423"/>
+      <c r="C35" s="420"/>
+      <c r="D35" s="420"/>
+      <c r="E35" s="420"/>
+      <c r="F35" s="420"/>
+      <c r="G35" s="420"/>
+      <c r="H35" s="421"/>
       <c r="I35" s="222"/>
       <c r="J35" s="29"/>
       <c r="K35" s="29"/>
@@ -18546,10 +18620,10 @@
       <c r="B36" s="259" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="418" t="s">
+      <c r="C36" s="428" t="s">
         <v>77</v>
       </c>
-      <c r="D36" s="419"/>
+      <c r="D36" s="429"/>
       <c r="E36" s="224" t="s">
         <v>78</v>
       </c>
@@ -18649,7 +18723,7 @@
     </row>
     <row r="38" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A38" s="230"/>
-      <c r="B38" s="420"/>
+      <c r="B38" s="416"/>
       <c r="C38" s="268" t="s">
         <v>314</v>
       </c>
@@ -18740,7 +18814,7 @@
     </row>
     <row r="40" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="221"/>
-      <c r="B40" s="420" t="s">
+      <c r="B40" s="416" t="s">
         <v>508</v>
       </c>
       <c r="C40" s="268" t="s">
@@ -18792,7 +18866,7 @@
     </row>
     <row r="41" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A41" s="230"/>
-      <c r="B41" s="420"/>
+      <c r="B41" s="416"/>
       <c r="C41" s="268" t="s">
         <v>314</v>
       </c>
@@ -18884,7 +18958,7 @@
     </row>
     <row r="43" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="221"/>
-      <c r="B43" s="420" t="s">
+      <c r="B43" s="416" t="s">
         <v>509</v>
       </c>
       <c r="C43" s="268" t="s">
@@ -18936,7 +19010,7 @@
     </row>
     <row r="44" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A44" s="221"/>
-      <c r="B44" s="420"/>
+      <c r="B44" s="416"/>
       <c r="C44" s="268" t="s">
         <v>314</v>
       </c>
@@ -19028,7 +19102,7 @@
     </row>
     <row r="46" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="221"/>
-      <c r="B46" s="420" t="s">
+      <c r="B46" s="416" t="s">
         <v>510</v>
       </c>
       <c r="C46" s="268" t="s">
@@ -19080,7 +19154,7 @@
     </row>
     <row r="47" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A47" s="221"/>
-      <c r="B47" s="420"/>
+      <c r="B47" s="416"/>
       <c r="C47" s="268" t="s">
         <v>314</v>
       </c>
@@ -19172,7 +19246,7 @@
     </row>
     <row r="49" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="221"/>
-      <c r="B49" s="420" t="s">
+      <c r="B49" s="416" t="s">
         <v>511</v>
       </c>
       <c r="C49" s="268" t="s">
@@ -19222,7 +19296,7 @@
     </row>
     <row r="50" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A50" s="221"/>
-      <c r="B50" s="420"/>
+      <c r="B50" s="416"/>
       <c r="C50" s="268" t="s">
         <v>314</v>
       </c>
@@ -19312,7 +19386,7 @@
     </row>
     <row r="52" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="221"/>
-      <c r="B52" s="420" t="s">
+      <c r="B52" s="416" t="s">
         <v>512</v>
       </c>
       <c r="C52" s="268" t="s">
@@ -19360,7 +19434,7 @@
     </row>
     <row r="53" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A53" s="221"/>
-      <c r="B53" s="420"/>
+      <c r="B53" s="416"/>
       <c r="C53" s="268" t="s">
         <v>314</v>
       </c>
@@ -19448,7 +19522,7 @@
     </row>
     <row r="55" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="221"/>
-      <c r="B55" s="420" t="s">
+      <c r="B55" s="416" t="s">
         <v>513</v>
       </c>
       <c r="C55" s="268" t="s">
@@ -19496,7 +19570,7 @@
     </row>
     <row r="56" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A56" s="221"/>
-      <c r="B56" s="420"/>
+      <c r="B56" s="416"/>
       <c r="C56" s="268" t="s">
         <v>314</v>
       </c>
@@ -19584,7 +19658,7 @@
     </row>
     <row r="58" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="221"/>
-      <c r="B58" s="420" t="s">
+      <c r="B58" s="416" t="s">
         <v>514</v>
       </c>
       <c r="C58" s="268" t="s">
@@ -19632,7 +19706,7 @@
     </row>
     <row r="59" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A59" s="221"/>
-      <c r="B59" s="420"/>
+      <c r="B59" s="416"/>
       <c r="C59" s="268" t="s">
         <v>314</v>
       </c>
@@ -19720,15 +19794,15 @@
     </row>
     <row r="61" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="221"/>
-      <c r="B61" s="427" t="s">
+      <c r="B61" s="425" t="s">
         <v>83</v>
       </c>
-      <c r="C61" s="428"/>
-      <c r="D61" s="428"/>
-      <c r="E61" s="428"/>
-      <c r="F61" s="428"/>
-      <c r="G61" s="428"/>
-      <c r="H61" s="429"/>
+      <c r="C61" s="426"/>
+      <c r="D61" s="426"/>
+      <c r="E61" s="426"/>
+      <c r="F61" s="426"/>
+      <c r="G61" s="426"/>
+      <c r="H61" s="427"/>
       <c r="I61" s="222"/>
       <c r="J61" s="29"/>
       <c r="K61" s="29"/>
@@ -19767,10 +19841,10 @@
       <c r="B62" s="259" t="s">
         <v>40</v>
       </c>
-      <c r="C62" s="418" t="s">
+      <c r="C62" s="428" t="s">
         <v>77</v>
       </c>
-      <c r="D62" s="419"/>
+      <c r="D62" s="429"/>
       <c r="E62" s="224" t="s">
         <v>78</v>
       </c>
@@ -19818,7 +19892,7 @@
     </row>
     <row r="63" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A63" s="223"/>
-      <c r="B63" s="420"/>
+      <c r="B63" s="416"/>
       <c r="C63" s="268" t="s">
         <v>313</v>
       </c>
@@ -19864,7 +19938,7 @@
     </row>
     <row r="64" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A64" s="230"/>
-      <c r="B64" s="420"/>
+      <c r="B64" s="416"/>
       <c r="C64" s="268" t="s">
         <v>314</v>
       </c>
@@ -19952,7 +20026,7 @@
     </row>
     <row r="66" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="221"/>
-      <c r="B66" s="420"/>
+      <c r="B66" s="416"/>
       <c r="C66" s="268" t="s">
         <v>313</v>
       </c>
@@ -19998,7 +20072,7 @@
     </row>
     <row r="67" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A67" s="230"/>
-      <c r="B67" s="420"/>
+      <c r="B67" s="416"/>
       <c r="C67" s="268" t="s">
         <v>314</v>
       </c>
@@ -20086,7 +20160,7 @@
     </row>
     <row r="69" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="221"/>
-      <c r="B69" s="420"/>
+      <c r="B69" s="416"/>
       <c r="C69" s="268" t="s">
         <v>313</v>
       </c>
@@ -20132,7 +20206,7 @@
     </row>
     <row r="70" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A70" s="221"/>
-      <c r="B70" s="420"/>
+      <c r="B70" s="416"/>
       <c r="C70" s="268" t="s">
         <v>314</v>
       </c>
@@ -21441,23 +21515,20 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="B54:H54"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B51:H51"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B48:H48"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B60:H60"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:H45"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B71:H71"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B65:H65"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="B68:H68"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B61:H61"/>
@@ -21474,22 +21545,25 @@
     <mergeCell ref="B13:H13"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B29:B30"/>
     <mergeCell ref="B31:H31"/>
     <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B71:H71"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="B65:H65"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="B68:H68"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B60:H60"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B57:H57"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:H45"/>
-    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B54:H54"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B51:H51"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:H48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21497,10 +21571,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D1C7926-D64C-442F-9C0F-E045861C247A}">
-  <dimension ref="A1:F102"/>
+  <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -21520,10 +21594,10 @@
       <c r="B1" s="331" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="442" t="s">
+      <c r="C1" s="439" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="443"/>
+      <c r="D1" s="440"/>
       <c r="E1" s="331" t="s">
         <v>97</v>
       </c>
@@ -21538,10 +21612,10 @@
       <c r="B2" s="335" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="441" t="s">
+      <c r="C2" s="433" t="s">
         <v>316</v>
       </c>
-      <c r="D2" s="441"/>
+      <c r="D2" s="433"/>
       <c r="E2" s="335"/>
       <c r="F2" s="335"/>
     </row>
@@ -21550,10 +21624,10 @@
         <v>104</v>
       </c>
       <c r="B3" s="336"/>
-      <c r="C3" s="444" t="s">
+      <c r="C3" s="441" t="s">
         <v>317</v>
       </c>
-      <c r="D3" s="444"/>
+      <c r="D3" s="441"/>
       <c r="E3" s="337" t="s">
         <v>126</v>
       </c>
@@ -21566,10 +21640,10 @@
         <v>107</v>
       </c>
       <c r="B4" s="336"/>
-      <c r="C4" s="440" t="s">
+      <c r="C4" s="432" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="440"/>
+      <c r="D4" s="432"/>
       <c r="E4" s="337" t="s">
         <v>126</v>
       </c>
@@ -21584,10 +21658,10 @@
       <c r="B5" s="335" t="s">
         <v>318</v>
       </c>
-      <c r="C5" s="434" t="s">
+      <c r="C5" s="442" t="s">
         <v>320</v>
       </c>
-      <c r="D5" s="434"/>
+      <c r="D5" s="442"/>
       <c r="E5" s="335"/>
       <c r="F5" s="335"/>
     </row>
@@ -21595,10 +21669,10 @@
       <c r="A6" s="341" t="s">
         <v>109</v>
       </c>
-      <c r="C6" s="433" t="s">
+      <c r="C6" s="434" t="s">
         <v>321</v>
       </c>
-      <c r="D6" s="433"/>
+      <c r="D6" s="434"/>
       <c r="E6" s="337" t="s">
         <v>126</v>
       </c>
@@ -21625,10 +21699,10 @@
       <c r="A8" s="341" t="s">
         <v>421</v>
       </c>
-      <c r="C8" s="440" t="s">
+      <c r="C8" s="432" t="s">
         <v>422</v>
       </c>
-      <c r="D8" s="440"/>
+      <c r="D8" s="432"/>
       <c r="E8" s="337" t="s">
         <v>126</v>
       </c>
@@ -21640,10 +21714,10 @@
       <c r="A9" s="341" t="s">
         <v>443</v>
       </c>
-      <c r="C9" s="440" t="s">
+      <c r="C9" s="432" t="s">
         <v>444</v>
       </c>
-      <c r="D9" s="440"/>
+      <c r="D9" s="432"/>
       <c r="E9" s="337" t="s">
         <v>126</v>
       </c>
@@ -21659,8 +21733,12 @@
         <v>521</v>
       </c>
       <c r="D10" s="360"/>
-      <c r="E10" s="337"/>
-      <c r="F10" s="336"/>
+      <c r="E10" s="300" t="s">
+        <v>339</v>
+      </c>
+      <c r="F10" s="336">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="335">
@@ -21669,10 +21747,10 @@
       <c r="B11" s="335" t="s">
         <v>318</v>
       </c>
-      <c r="C11" s="441" t="s">
+      <c r="C11" s="433" t="s">
         <v>319</v>
       </c>
-      <c r="D11" s="441"/>
+      <c r="D11" s="433"/>
       <c r="E11" s="335"/>
       <c r="F11" s="335"/>
     </row>
@@ -21680,10 +21758,10 @@
       <c r="A12" s="341" t="s">
         <v>110</v>
       </c>
-      <c r="C12" s="433" t="s">
+      <c r="C12" s="434" t="s">
         <v>328</v>
       </c>
-      <c r="D12" s="433"/>
+      <c r="D12" s="434"/>
       <c r="E12" s="337" t="s">
         <v>126</v>
       </c>
@@ -21695,10 +21773,10 @@
       <c r="A13" s="341" t="s">
         <v>81</v>
       </c>
-      <c r="C13" s="433" t="s">
+      <c r="C13" s="434" t="s">
         <v>329</v>
       </c>
-      <c r="D13" s="433"/>
+      <c r="D13" s="434"/>
       <c r="E13" s="337" t="s">
         <v>126</v>
       </c>
@@ -21710,10 +21788,10 @@
       <c r="A14" s="341" t="s">
         <v>340</v>
       </c>
-      <c r="C14" s="433" t="s">
+      <c r="C14" s="434" t="s">
         <v>330</v>
       </c>
-      <c r="D14" s="433"/>
+      <c r="D14" s="434"/>
       <c r="E14" s="337" t="s">
         <v>126</v>
       </c>
@@ -21725,10 +21803,10 @@
       <c r="A15" s="341" t="s">
         <v>341</v>
       </c>
-      <c r="C15" s="433" t="s">
+      <c r="C15" s="434" t="s">
         <v>331</v>
       </c>
-      <c r="D15" s="433"/>
+      <c r="D15" s="434"/>
       <c r="E15" s="337" t="s">
         <v>126</v>
       </c>
@@ -21740,10 +21818,10 @@
       <c r="A16" s="341" t="s">
         <v>342</v>
       </c>
-      <c r="C16" s="433" t="s">
+      <c r="C16" s="434" t="s">
         <v>332</v>
       </c>
-      <c r="D16" s="433"/>
+      <c r="D16" s="434"/>
       <c r="E16" s="337" t="s">
         <v>126</v>
       </c>
@@ -21755,10 +21833,10 @@
       <c r="A17" s="341" t="s">
         <v>343</v>
       </c>
-      <c r="C17" s="433" t="s">
+      <c r="C17" s="434" t="s">
         <v>333</v>
       </c>
-      <c r="D17" s="433"/>
+      <c r="D17" s="434"/>
       <c r="E17" s="337" t="s">
         <v>126</v>
       </c>
@@ -21770,10 +21848,10 @@
       <c r="A18" s="341" t="s">
         <v>344</v>
       </c>
-      <c r="C18" s="433" t="s">
+      <c r="C18" s="434" t="s">
         <v>334</v>
       </c>
-      <c r="D18" s="433"/>
+      <c r="D18" s="434"/>
       <c r="E18" s="337" t="s">
         <v>126</v>
       </c>
@@ -21785,10 +21863,10 @@
       <c r="A19" s="341" t="s">
         <v>345</v>
       </c>
-      <c r="C19" s="433" t="s">
+      <c r="C19" s="434" t="s">
         <v>335</v>
       </c>
-      <c r="D19" s="433"/>
+      <c r="D19" s="434"/>
       <c r="E19" s="337" t="s">
         <v>126</v>
       </c>
@@ -21800,10 +21878,10 @@
       <c r="A20" s="341" t="s">
         <v>346</v>
       </c>
-      <c r="C20" s="433" t="s">
+      <c r="C20" s="434" t="s">
         <v>336</v>
       </c>
-      <c r="D20" s="433"/>
+      <c r="D20" s="434"/>
       <c r="E20" s="337" t="s">
         <v>126</v>
       </c>
@@ -21815,10 +21893,10 @@
       <c r="A21" s="341" t="s">
         <v>347</v>
       </c>
-      <c r="C21" s="433" t="s">
+      <c r="C21" s="434" t="s">
         <v>337</v>
       </c>
-      <c r="D21" s="433"/>
+      <c r="D21" s="434"/>
       <c r="E21" s="337" t="s">
         <v>126</v>
       </c>
@@ -21830,10 +21908,10 @@
       <c r="A22" s="341" t="s">
         <v>348</v>
       </c>
-      <c r="C22" s="433" t="s">
+      <c r="C22" s="434" t="s">
         <v>338</v>
       </c>
-      <c r="D22" s="433"/>
+      <c r="D22" s="434"/>
       <c r="E22" s="337" t="s">
         <v>126</v>
       </c>
@@ -21863,10 +21941,10 @@
       <c r="B24" s="335" t="s">
         <v>356</v>
       </c>
-      <c r="C24" s="438" t="s">
+      <c r="C24" s="436" t="s">
         <v>349</v>
       </c>
-      <c r="D24" s="438"/>
+      <c r="D24" s="436"/>
       <c r="E24" s="335"/>
       <c r="F24" s="335"/>
     </row>
@@ -21874,10 +21952,10 @@
       <c r="A25" s="341" t="s">
         <v>362</v>
       </c>
-      <c r="C25" s="437" t="s">
+      <c r="C25" s="438" t="s">
         <v>365</v>
       </c>
-      <c r="D25" s="437"/>
+      <c r="D25" s="438"/>
       <c r="E25" s="337" t="s">
         <v>126</v>
       </c>
@@ -21889,10 +21967,10 @@
       <c r="A26" s="341" t="s">
         <v>363</v>
       </c>
-      <c r="C26" s="437" t="s">
+      <c r="C26" s="438" t="s">
         <v>364</v>
       </c>
-      <c r="D26" s="437"/>
+      <c r="D26" s="438"/>
       <c r="E26" s="337" t="s">
         <v>126</v>
       </c>
@@ -21904,85 +21982,85 @@
       <c r="A27" s="341" t="s">
         <v>366</v>
       </c>
-      <c r="C27" s="437" t="s">
+      <c r="C27" s="438" t="s">
         <v>398</v>
       </c>
-      <c r="D27" s="437"/>
+      <c r="D27" s="438"/>
       <c r="E27" s="300" t="s">
         <v>339</v>
       </c>
       <c r="F27" s="336">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="341" t="s">
         <v>389</v>
       </c>
-      <c r="C28" s="436" t="s">
+      <c r="C28" s="431" t="s">
         <v>391</v>
       </c>
-      <c r="D28" s="436"/>
+      <c r="D28" s="431"/>
       <c r="E28" s="300" t="s">
         <v>339</v>
       </c>
       <c r="F28" s="336">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="341" t="s">
         <v>367</v>
       </c>
-      <c r="C29" s="437" t="s">
+      <c r="C29" s="438" t="s">
         <v>390</v>
       </c>
-      <c r="D29" s="437"/>
+      <c r="D29" s="438"/>
       <c r="E29" s="300" t="s">
         <v>339</v>
       </c>
       <c r="F29" s="336">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="341" t="s">
         <v>392</v>
       </c>
-      <c r="C30" s="437" t="s">
+      <c r="C30" s="438" t="s">
         <v>399</v>
       </c>
-      <c r="D30" s="437"/>
+      <c r="D30" s="438"/>
       <c r="E30" s="300" t="s">
         <v>339</v>
       </c>
       <c r="F30" s="336">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="341" t="s">
         <v>393</v>
       </c>
-      <c r="C31" s="436" t="s">
+      <c r="C31" s="431" t="s">
         <v>394</v>
       </c>
-      <c r="D31" s="436"/>
+      <c r="D31" s="431"/>
       <c r="E31" s="300" t="s">
         <v>339</v>
       </c>
       <c r="F31" s="336">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="341" t="s">
         <v>395</v>
       </c>
-      <c r="C32" s="436" t="s">
+      <c r="C32" s="431" t="s">
         <v>396</v>
       </c>
-      <c r="D32" s="436"/>
+      <c r="D32" s="431"/>
       <c r="E32" s="300" t="s">
         <v>339</v>
       </c>
@@ -21994,55 +22072,55 @@
       <c r="A33" s="341" t="s">
         <v>397</v>
       </c>
-      <c r="C33" s="436" t="s">
+      <c r="C33" s="431" t="s">
         <v>407</v>
       </c>
-      <c r="D33" s="436"/>
+      <c r="D33" s="431"/>
       <c r="E33" s="300" t="s">
         <v>339</v>
       </c>
       <c r="F33" s="336">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="341" t="s">
         <v>402</v>
       </c>
-      <c r="C34" s="437" t="s">
+      <c r="C34" s="438" t="s">
         <v>408</v>
       </c>
-      <c r="D34" s="437"/>
+      <c r="D34" s="438"/>
       <c r="E34" s="300" t="s">
         <v>339</v>
       </c>
       <c r="F34" s="336">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="341" t="s">
         <v>405</v>
       </c>
-      <c r="C35" s="436" t="s">
+      <c r="C35" s="431" t="s">
         <v>400</v>
       </c>
-      <c r="D35" s="436"/>
+      <c r="D35" s="431"/>
       <c r="E35" s="300" t="s">
         <v>339</v>
       </c>
       <c r="F35" s="336">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="341" t="s">
         <v>409</v>
       </c>
-      <c r="C36" s="436" t="s">
+      <c r="C36" s="431" t="s">
         <v>401</v>
       </c>
-      <c r="D36" s="436"/>
+      <c r="D36" s="431"/>
       <c r="E36" s="300" t="s">
         <v>339</v>
       </c>
@@ -22054,10 +22132,10 @@
       <c r="A37" s="341" t="s">
         <v>410</v>
       </c>
-      <c r="C37" s="436" t="s">
+      <c r="C37" s="431" t="s">
         <v>404</v>
       </c>
-      <c r="D37" s="436"/>
+      <c r="D37" s="431"/>
       <c r="E37" s="337" t="s">
         <v>126</v>
       </c>
@@ -22069,10 +22147,10 @@
       <c r="A38" s="341" t="s">
         <v>411</v>
       </c>
-      <c r="C38" s="436" t="s">
+      <c r="C38" s="431" t="s">
         <v>403</v>
       </c>
-      <c r="D38" s="436"/>
+      <c r="D38" s="431"/>
       <c r="E38" s="300" t="s">
         <v>339</v>
       </c>
@@ -22084,10 +22162,10 @@
       <c r="A39" s="341" t="s">
         <v>412</v>
       </c>
-      <c r="C39" s="436" t="s">
+      <c r="C39" s="431" t="s">
         <v>406</v>
       </c>
-      <c r="D39" s="436"/>
+      <c r="D39" s="431"/>
       <c r="E39" s="300" t="s">
         <v>339</v>
       </c>
@@ -22096,730 +22174,693 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C40" s="436"/>
+      <c r="A40" s="339">
+        <v>5</v>
+      </c>
+      <c r="B40" s="335" t="s">
+        <v>356</v>
+      </c>
+      <c r="C40" s="436" t="s">
+        <v>445</v>
+      </c>
       <c r="D40" s="436"/>
-      <c r="E40" s="300" t="s">
-        <v>339</v>
-      </c>
+      <c r="E40" s="335"/>
+      <c r="F40" s="335"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C41" s="436"/>
-      <c r="D41" s="436"/>
+      <c r="A41" s="341" t="s">
+        <v>414</v>
+      </c>
+      <c r="C41" s="438" t="s">
+        <v>446</v>
+      </c>
+      <c r="D41" s="438"/>
       <c r="E41" s="300" t="s">
         <v>339</v>
       </c>
+      <c r="F41" s="300">
+        <v>3</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C42" s="436"/>
-      <c r="D42" s="436"/>
+      <c r="A42" s="341" t="s">
+        <v>415</v>
+      </c>
+      <c r="C42" s="438" t="s">
+        <v>447</v>
+      </c>
+      <c r="D42" s="438"/>
       <c r="E42" s="300" t="s">
         <v>339</v>
       </c>
+      <c r="F42" s="300">
+        <v>2</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C43" s="436"/>
-      <c r="D43" s="436"/>
+      <c r="A43" s="341" t="s">
+        <v>416</v>
+      </c>
+      <c r="C43" s="438" t="s">
+        <v>413</v>
+      </c>
+      <c r="D43" s="438"/>
       <c r="E43" s="300" t="s">
         <v>339</v>
       </c>
+      <c r="F43" s="300">
+        <v>2</v>
+      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C44" s="436"/>
-      <c r="D44" s="436"/>
+      <c r="A44" s="341" t="s">
+        <v>417</v>
+      </c>
+      <c r="C44" s="431" t="s">
+        <v>448</v>
+      </c>
+      <c r="D44" s="431"/>
       <c r="E44" s="300" t="s">
         <v>339</v>
       </c>
+      <c r="F44" s="300">
+        <v>2</v>
+      </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="339">
-        <v>5</v>
-      </c>
-      <c r="B45" s="335" t="s">
-        <v>356</v>
-      </c>
-      <c r="C45" s="438" t="s">
-        <v>445</v>
-      </c>
-      <c r="D45" s="438"/>
-      <c r="E45" s="335"/>
-      <c r="F45" s="335"/>
+      <c r="A45" s="341" t="s">
+        <v>418</v>
+      </c>
+      <c r="C45" s="431" t="s">
+        <v>449</v>
+      </c>
+      <c r="D45" s="431"/>
+      <c r="E45" s="300" t="s">
+        <v>339</v>
+      </c>
+      <c r="F45" s="300">
+        <v>2</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="341" t="s">
-        <v>414</v>
-      </c>
-      <c r="C46" s="437" t="s">
-        <v>446</v>
-      </c>
-      <c r="D46" s="437"/>
+        <v>533</v>
+      </c>
+      <c r="C46" s="438" t="s">
+        <v>532</v>
+      </c>
+      <c r="D46" s="438"/>
       <c r="E46" s="300" t="s">
         <v>339</v>
       </c>
+      <c r="F46" s="300">
+        <v>3</v>
+      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="341" t="s">
-        <v>415</v>
-      </c>
-      <c r="C47" s="437" t="s">
-        <v>447</v>
-      </c>
-      <c r="D47" s="437"/>
-      <c r="E47" s="300" t="s">
-        <v>339</v>
-      </c>
+      <c r="A47" s="339">
+        <v>6</v>
+      </c>
+      <c r="B47" s="335" t="s">
+        <v>356</v>
+      </c>
+      <c r="C47" s="444" t="s">
+        <v>350</v>
+      </c>
+      <c r="D47" s="444"/>
+      <c r="E47" s="335"/>
+      <c r="F47" s="335"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="341" t="s">
-        <v>416</v>
-      </c>
-      <c r="C48" s="437" t="s">
-        <v>413</v>
-      </c>
-      <c r="D48" s="437"/>
+        <v>452</v>
+      </c>
+      <c r="C48" s="432" t="s">
+        <v>450</v>
+      </c>
+      <c r="D48" s="432"/>
       <c r="E48" s="300" t="s">
         <v>339</v>
       </c>
+      <c r="F48" s="300">
+        <v>3</v>
+      </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="341" t="s">
-        <v>417</v>
-      </c>
-      <c r="C49" s="436" t="s">
-        <v>448</v>
-      </c>
-      <c r="D49" s="436"/>
+        <v>453</v>
+      </c>
+      <c r="C49" s="432" t="s">
+        <v>451</v>
+      </c>
+      <c r="D49" s="432"/>
       <c r="E49" s="300" t="s">
         <v>339</v>
       </c>
+      <c r="F49" s="300">
+        <v>3</v>
+      </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="341" t="s">
-        <v>418</v>
-      </c>
-      <c r="C50" s="436" t="s">
-        <v>449</v>
-      </c>
-      <c r="D50" s="436"/>
+        <v>454</v>
+      </c>
+      <c r="C50" s="432" t="s">
+        <v>455</v>
+      </c>
+      <c r="D50" s="432"/>
       <c r="E50" s="300" t="s">
         <v>339</v>
       </c>
+      <c r="F50" s="300">
+        <v>3</v>
+      </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C51" s="436"/>
-      <c r="D51" s="436"/>
+      <c r="A51" s="341" t="s">
+        <v>458</v>
+      </c>
+      <c r="C51" s="432" t="s">
+        <v>456</v>
+      </c>
+      <c r="D51" s="432"/>
       <c r="E51" s="300" t="s">
         <v>339</v>
       </c>
+      <c r="F51" s="300">
+        <v>3</v>
+      </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C52" s="436"/>
-      <c r="D52" s="436"/>
+      <c r="A52" s="341" t="s">
+        <v>534</v>
+      </c>
+      <c r="C52" s="432" t="s">
+        <v>457</v>
+      </c>
+      <c r="D52" s="432"/>
       <c r="E52" s="300" t="s">
         <v>339</v>
       </c>
+      <c r="F52" s="300">
+        <v>3</v>
+      </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C53" s="436"/>
+      <c r="A53" s="339">
+        <v>7</v>
+      </c>
+      <c r="B53" s="335" t="s">
+        <v>356</v>
+      </c>
+      <c r="C53" s="436" t="s">
+        <v>353</v>
+      </c>
       <c r="D53" s="436"/>
-      <c r="E53" s="300" t="s">
-        <v>339</v>
-      </c>
+      <c r="E53" s="335"/>
+      <c r="F53" s="335"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C54" s="436"/>
-      <c r="D54" s="436"/>
+      <c r="A54" s="341" t="s">
+        <v>481</v>
+      </c>
+      <c r="C54" s="432" t="s">
+        <v>479</v>
+      </c>
+      <c r="D54" s="432"/>
       <c r="E54" s="300" t="s">
         <v>339</v>
       </c>
+      <c r="F54" s="300">
+        <v>2</v>
+      </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C55" s="436"/>
-      <c r="D55" s="436"/>
+      <c r="A55" s="341" t="s">
+        <v>482</v>
+      </c>
+      <c r="C55" s="432" t="s">
+        <v>478</v>
+      </c>
+      <c r="D55" s="432"/>
       <c r="E55" s="300" t="s">
         <v>339</v>
       </c>
+      <c r="F55" s="300">
+        <v>2</v>
+      </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C56" s="436"/>
-      <c r="D56" s="436"/>
+      <c r="A56" s="341" t="s">
+        <v>483</v>
+      </c>
+      <c r="C56" s="432" t="s">
+        <v>480</v>
+      </c>
+      <c r="D56" s="432"/>
       <c r="E56" s="300" t="s">
         <v>339</v>
       </c>
+      <c r="F56" s="300">
+        <v>3</v>
+      </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="339">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B57" s="335" t="s">
         <v>356</v>
       </c>
-      <c r="C57" s="432" t="s">
-        <v>350</v>
-      </c>
-      <c r="D57" s="432"/>
+      <c r="C57" s="436" t="s">
+        <v>354</v>
+      </c>
+      <c r="D57" s="436"/>
       <c r="E57" s="335"/>
       <c r="F57" s="335"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="341" t="s">
-        <v>452</v>
-      </c>
-      <c r="C58" s="440" t="s">
-        <v>450</v>
-      </c>
-      <c r="D58" s="440"/>
+        <v>486</v>
+      </c>
+      <c r="C58" s="432" t="s">
+        <v>484</v>
+      </c>
+      <c r="D58" s="432"/>
       <c r="E58" s="300" t="s">
         <v>339</v>
       </c>
+      <c r="F58" s="300">
+        <v>3</v>
+      </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="341" t="s">
-        <v>453</v>
-      </c>
-      <c r="C59" s="440" t="s">
-        <v>451</v>
-      </c>
-      <c r="D59" s="440"/>
+        <v>487</v>
+      </c>
+      <c r="C59" s="432" t="s">
+        <v>485</v>
+      </c>
+      <c r="D59" s="432"/>
       <c r="E59" s="300" t="s">
         <v>339</v>
       </c>
+      <c r="F59" s="300">
+        <v>3</v>
+      </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="341" t="s">
-        <v>454</v>
-      </c>
-      <c r="C60" s="440" t="s">
-        <v>455</v>
-      </c>
-      <c r="D60" s="440"/>
-      <c r="E60" s="300" t="s">
-        <v>339</v>
-      </c>
+      <c r="A60" s="435" t="s">
+        <v>488</v>
+      </c>
+      <c r="B60" s="437" t="s">
+        <v>351</v>
+      </c>
+      <c r="C60" s="444" t="s">
+        <v>352</v>
+      </c>
+      <c r="D60" s="444"/>
+      <c r="E60" s="335"/>
+      <c r="F60" s="335"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="341" t="s">
-        <v>458</v>
-      </c>
-      <c r="C61" s="440" t="s">
-        <v>456</v>
-      </c>
-      <c r="D61" s="440"/>
-      <c r="E61" s="300" t="s">
-        <v>339</v>
-      </c>
+      <c r="A61" s="435"/>
+      <c r="B61" s="437"/>
+      <c r="C61" s="444"/>
+      <c r="D61" s="444"/>
+      <c r="E61" s="335"/>
+      <c r="F61" s="335"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C62" s="440"/>
-      <c r="D62" s="440"/>
+      <c r="A62" s="341" t="s">
+        <v>489</v>
+      </c>
+      <c r="C62" s="432" t="s">
+        <v>465</v>
+      </c>
+      <c r="D62" s="432"/>
       <c r="E62" s="300" t="s">
         <v>339</v>
       </c>
+      <c r="F62" s="300">
+        <v>2</v>
+      </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C63" s="440" t="s">
-        <v>457</v>
-      </c>
-      <c r="D63" s="440"/>
+      <c r="A63" s="341" t="s">
+        <v>490</v>
+      </c>
+      <c r="C63" s="432" t="s">
+        <v>459</v>
+      </c>
+      <c r="D63" s="432"/>
       <c r="E63" s="300" t="s">
         <v>339</v>
       </c>
+      <c r="F63" s="300">
+        <v>2</v>
+      </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="339">
-        <v>7</v>
-      </c>
-      <c r="B64" s="335" t="s">
-        <v>356</v>
-      </c>
-      <c r="C64" s="438" t="s">
-        <v>353</v>
-      </c>
-      <c r="D64" s="438"/>
-      <c r="E64" s="335"/>
-      <c r="F64" s="335"/>
+      <c r="A64" s="341" t="s">
+        <v>491</v>
+      </c>
+      <c r="C64" s="432" t="s">
+        <v>461</v>
+      </c>
+      <c r="D64" s="432"/>
+      <c r="E64" s="300" t="s">
+        <v>339</v>
+      </c>
+      <c r="F64" s="300">
+        <v>2</v>
+      </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="341" t="s">
-        <v>481</v>
-      </c>
-      <c r="C65" s="440" t="s">
-        <v>479</v>
-      </c>
-      <c r="D65" s="440"/>
+        <v>492</v>
+      </c>
+      <c r="C65" s="432" t="s">
+        <v>462</v>
+      </c>
+      <c r="D65" s="432"/>
       <c r="E65" s="300" t="s">
         <v>339</v>
       </c>
+      <c r="F65" s="300">
+        <v>3</v>
+      </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="341" t="s">
-        <v>482</v>
-      </c>
-      <c r="C66" s="440" t="s">
-        <v>478</v>
-      </c>
-      <c r="D66" s="440"/>
+        <v>493</v>
+      </c>
+      <c r="C66" s="432" t="s">
+        <v>463</v>
+      </c>
+      <c r="D66" s="432"/>
       <c r="E66" s="300" t="s">
         <v>339</v>
       </c>
+      <c r="F66" s="300">
+        <v>2</v>
+      </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="341" t="s">
-        <v>483</v>
-      </c>
-      <c r="C67" s="440" t="s">
-        <v>480</v>
-      </c>
-      <c r="D67" s="440"/>
+        <v>494</v>
+      </c>
+      <c r="C67" s="432" t="s">
+        <v>464</v>
+      </c>
+      <c r="D67" s="432"/>
       <c r="E67" s="300" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C68" s="440"/>
-      <c r="D68" s="440"/>
-      <c r="E68" s="335"/>
+      <c r="F67" s="300">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="341" t="s">
+        <v>495</v>
+      </c>
+      <c r="C68" s="432" t="s">
+        <v>466</v>
+      </c>
+      <c r="D68" s="432"/>
+      <c r="E68" s="300" t="s">
+        <v>339</v>
+      </c>
+      <c r="F68" s="300">
+        <v>2</v>
+      </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="339">
-        <v>8</v>
-      </c>
-      <c r="B69" s="335" t="s">
-        <v>356</v>
-      </c>
-      <c r="C69" s="438" t="s">
-        <v>354</v>
-      </c>
-      <c r="D69" s="438"/>
-      <c r="E69" s="335"/>
-      <c r="F69" s="335"/>
+      <c r="A69" s="341" t="s">
+        <v>496</v>
+      </c>
+      <c r="C69" s="432" t="s">
+        <v>467</v>
+      </c>
+      <c r="D69" s="432"/>
+      <c r="E69" s="300" t="s">
+        <v>339</v>
+      </c>
+      <c r="F69" s="300">
+        <v>3</v>
+      </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="341" t="s">
-        <v>486</v>
-      </c>
-      <c r="C70" s="440" t="s">
-        <v>484</v>
-      </c>
-      <c r="D70" s="440"/>
+        <v>536</v>
+      </c>
+      <c r="C70" s="432" t="s">
+        <v>535</v>
+      </c>
+      <c r="D70" s="432"/>
       <c r="E70" s="300" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="341" t="s">
-        <v>487</v>
-      </c>
-      <c r="C71" s="440" t="s">
-        <v>485</v>
-      </c>
-      <c r="D71" s="440"/>
-      <c r="E71" s="300" t="s">
-        <v>339</v>
-      </c>
+      <c r="A71" s="335">
+        <v>10</v>
+      </c>
+      <c r="B71" s="335" t="s">
+        <v>90</v>
+      </c>
+      <c r="C71" s="442" t="s">
+        <v>358</v>
+      </c>
+      <c r="D71" s="442"/>
+      <c r="E71" s="338"/>
+      <c r="F71" s="335"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C72" s="439"/>
-      <c r="D72" s="439"/>
-      <c r="E72" s="335"/>
+      <c r="A72" s="341" t="s">
+        <v>125</v>
+      </c>
+      <c r="C72" s="434" t="s">
+        <v>474</v>
+      </c>
+      <c r="D72" s="434"/>
+      <c r="E72" s="337" t="s">
+        <v>126</v>
+      </c>
+      <c r="F72" s="336">
+        <v>1</v>
+      </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="446" t="s">
-        <v>488</v>
-      </c>
-      <c r="B73" s="445" t="s">
-        <v>351</v>
-      </c>
-      <c r="C73" s="432" t="s">
-        <v>352</v>
-      </c>
-      <c r="D73" s="432"/>
-      <c r="E73" s="335"/>
-      <c r="F73" s="335"/>
+      <c r="A73" s="341" t="s">
+        <v>460</v>
+      </c>
+      <c r="C73" s="434" t="s">
+        <v>360</v>
+      </c>
+      <c r="D73" s="434"/>
+      <c r="E73" s="337" t="s">
+        <v>126</v>
+      </c>
+      <c r="F73" s="300">
+        <v>1</v>
+      </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="446"/>
-      <c r="B74" s="445"/>
-      <c r="C74" s="432"/>
+      <c r="A74" s="341" t="s">
+        <v>468</v>
+      </c>
+      <c r="C74" s="432" t="s">
+        <v>471</v>
+      </c>
       <c r="D74" s="432"/>
-      <c r="E74" s="335"/>
-      <c r="F74" s="335"/>
+      <c r="E74" s="337" t="s">
+        <v>126</v>
+      </c>
+      <c r="F74" s="300">
+        <v>1</v>
+      </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="341" t="s">
-        <v>489</v>
-      </c>
-      <c r="C75" s="440" t="s">
-        <v>465</v>
-      </c>
-      <c r="D75" s="440"/>
-      <c r="E75" s="300" t="s">
-        <v>339</v>
+        <v>469</v>
+      </c>
+      <c r="C75" s="432" t="s">
+        <v>472</v>
+      </c>
+      <c r="D75" s="432"/>
+      <c r="E75" s="337" t="s">
+        <v>126</v>
+      </c>
+      <c r="F75" s="300">
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="341" t="s">
-        <v>490</v>
-      </c>
-      <c r="C76" s="440" t="s">
-        <v>459</v>
-      </c>
-      <c r="D76" s="440"/>
-      <c r="E76" s="300" t="s">
-        <v>339</v>
+        <v>470</v>
+      </c>
+      <c r="C76" s="432" t="s">
+        <v>473</v>
+      </c>
+      <c r="D76" s="432"/>
+      <c r="E76" s="337" t="s">
+        <v>126</v>
+      </c>
+      <c r="F76" s="300">
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="341" t="s">
-        <v>491</v>
-      </c>
-      <c r="C77" s="440" t="s">
-        <v>461</v>
-      </c>
-      <c r="D77" s="440"/>
-      <c r="E77" s="300" t="s">
-        <v>339</v>
-      </c>
+      <c r="A77" s="335">
+        <v>11</v>
+      </c>
+      <c r="B77" s="335" t="s">
+        <v>318</v>
+      </c>
+      <c r="C77" s="433" t="s">
+        <v>434</v>
+      </c>
+      <c r="D77" s="433"/>
+      <c r="E77" s="338"/>
+      <c r="F77" s="335"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="341" t="s">
-        <v>492</v>
-      </c>
-      <c r="C78" s="440" t="s">
-        <v>462</v>
-      </c>
-      <c r="D78" s="440"/>
+        <v>127</v>
+      </c>
+      <c r="C78" s="434" t="s">
+        <v>497</v>
+      </c>
+      <c r="D78" s="434"/>
       <c r="E78" s="300" t="s">
         <v>339</v>
       </c>
+      <c r="F78" s="336">
+        <v>3</v>
+      </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="341" t="s">
-        <v>493</v>
-      </c>
-      <c r="C79" s="440" t="s">
-        <v>463</v>
-      </c>
-      <c r="D79" s="440"/>
+        <v>361</v>
+      </c>
+      <c r="C79" s="432" t="s">
+        <v>498</v>
+      </c>
+      <c r="D79" s="432"/>
       <c r="E79" s="300" t="s">
         <v>339</v>
       </c>
+      <c r="F79" s="300">
+        <v>3</v>
+      </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="341" t="s">
-        <v>494</v>
-      </c>
-      <c r="C80" s="440" t="s">
-        <v>464</v>
-      </c>
-      <c r="D80" s="440"/>
+        <v>475</v>
+      </c>
+      <c r="C80" s="431" t="s">
+        <v>499</v>
+      </c>
+      <c r="D80" s="431"/>
       <c r="E80" s="300" t="s">
         <v>339</v>
       </c>
+      <c r="F80" s="300">
+        <v>3</v>
+      </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="341" t="s">
-        <v>495</v>
-      </c>
-      <c r="C81" s="440" t="s">
-        <v>466</v>
-      </c>
-      <c r="D81" s="440"/>
+        <v>476</v>
+      </c>
+      <c r="C81" s="431" t="s">
+        <v>500</v>
+      </c>
+      <c r="D81" s="431"/>
       <c r="E81" s="300" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F81" s="300">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="341" t="s">
-        <v>496</v>
-      </c>
-      <c r="C82" s="440" t="s">
-        <v>467</v>
-      </c>
-      <c r="D82" s="440"/>
+        <v>477</v>
+      </c>
+      <c r="C82" s="431" t="s">
+        <v>501</v>
+      </c>
+      <c r="D82" s="431"/>
       <c r="E82" s="300" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C83" s="440"/>
-      <c r="D83" s="440"/>
-      <c r="E83" s="335"/>
+      <c r="F82" s="300">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="341" t="s">
+        <v>504</v>
+      </c>
+      <c r="C83" s="431" t="s">
+        <v>502</v>
+      </c>
+      <c r="D83" s="431"/>
+      <c r="E83" s="300" t="s">
+        <v>339</v>
+      </c>
+      <c r="F83" s="300">
+        <v>3</v>
+      </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C84" s="440"/>
-      <c r="D84" s="440"/>
-      <c r="E84" s="335"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C85" s="439"/>
-      <c r="D85" s="439"/>
-      <c r="E85" s="335"/>
+      <c r="A84" s="341" t="s">
+        <v>505</v>
+      </c>
+      <c r="C84" s="445" t="s">
+        <v>503</v>
+      </c>
+      <c r="D84" s="445"/>
+      <c r="E84" s="300" t="s">
+        <v>339</v>
+      </c>
+      <c r="F84" s="300">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C85" s="443"/>
+      <c r="D85" s="443"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="335">
-        <v>10</v>
-      </c>
-      <c r="B86" s="335" t="s">
-        <v>90</v>
-      </c>
-      <c r="C86" s="434" t="s">
-        <v>358</v>
-      </c>
-      <c r="D86" s="434"/>
-      <c r="E86" s="338"/>
-      <c r="F86" s="335"/>
+      <c r="C86" s="443"/>
+      <c r="D86" s="443"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="341" t="s">
-        <v>125</v>
-      </c>
-      <c r="C87" s="433" t="s">
-        <v>474</v>
-      </c>
-      <c r="D87" s="433"/>
-      <c r="E87" s="337" t="s">
-        <v>126</v>
-      </c>
-      <c r="F87" s="336">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="341" t="s">
-        <v>460</v>
-      </c>
-      <c r="C88" s="433" t="s">
-        <v>360</v>
-      </c>
-      <c r="D88" s="433"/>
-      <c r="E88" s="337" t="s">
-        <v>126</v>
-      </c>
-      <c r="F88" s="300">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="341" t="s">
-        <v>468</v>
-      </c>
-      <c r="C89" s="440" t="s">
-        <v>471</v>
-      </c>
-      <c r="D89" s="440"/>
-      <c r="E89" s="337" t="s">
-        <v>126</v>
-      </c>
-      <c r="F89" s="300">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="341" t="s">
-        <v>469</v>
-      </c>
-      <c r="C90" s="440" t="s">
-        <v>472</v>
-      </c>
-      <c r="D90" s="440"/>
-      <c r="E90" s="337" t="s">
-        <v>126</v>
-      </c>
-      <c r="F90" s="300">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="341" t="s">
-        <v>470</v>
-      </c>
-      <c r="C91" s="440" t="s">
-        <v>473</v>
-      </c>
-      <c r="D91" s="440"/>
-      <c r="E91" s="337" t="s">
-        <v>126</v>
-      </c>
-      <c r="F91" s="300">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="335">
-        <v>11</v>
-      </c>
-      <c r="B92" s="335" t="s">
-        <v>318</v>
-      </c>
-      <c r="C92" s="441" t="s">
-        <v>434</v>
-      </c>
-      <c r="D92" s="441"/>
-      <c r="E92" s="338"/>
-      <c r="F92" s="335"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="341" t="s">
-        <v>127</v>
-      </c>
-      <c r="C93" s="433" t="s">
-        <v>497</v>
-      </c>
-      <c r="D93" s="433"/>
-      <c r="E93" s="300" t="s">
-        <v>339</v>
-      </c>
-      <c r="F93" s="336"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="341" t="s">
-        <v>361</v>
-      </c>
-      <c r="C94" s="440" t="s">
-        <v>498</v>
-      </c>
-      <c r="D94" s="440"/>
-      <c r="E94" s="300" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="341" t="s">
-        <v>475</v>
-      </c>
-      <c r="C95" s="436" t="s">
-        <v>499</v>
-      </c>
-      <c r="D95" s="436"/>
-      <c r="E95" s="300" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="341" t="s">
-        <v>476</v>
-      </c>
-      <c r="C96" s="436" t="s">
-        <v>500</v>
-      </c>
-      <c r="D96" s="436"/>
-      <c r="E96" s="300" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="341" t="s">
-        <v>477</v>
-      </c>
-      <c r="C97" s="436" t="s">
-        <v>501</v>
-      </c>
-      <c r="D97" s="436"/>
-      <c r="E97" s="300" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="341" t="s">
-        <v>504</v>
-      </c>
-      <c r="C98" s="436" t="s">
-        <v>502</v>
-      </c>
-      <c r="D98" s="436"/>
-      <c r="E98" s="300" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="341" t="s">
-        <v>505</v>
-      </c>
-      <c r="C99" s="435" t="s">
-        <v>503</v>
-      </c>
-      <c r="D99" s="435"/>
-      <c r="E99" s="300" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C100" s="431"/>
-      <c r="D100" s="431"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C101" s="431"/>
-      <c r="D101" s="431"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C102" s="431"/>
-      <c r="D102" s="431"/>
+      <c r="C87" s="443"/>
+      <c r="D87" s="443"/>
     </row>
   </sheetData>
-  <mergeCells count="100">
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C98:D98"/>
+  <mergeCells count="85">
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C60:D61"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C71:D71"/>
     <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C27:D27"/>
     <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C24:D24"/>
@@ -22834,490 +22875,536 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
     <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
   </mergeCells>
   <conditionalFormatting sqref="E3">
-    <cfRule type="containsText" dxfId="311" priority="191" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="319" priority="199" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="310" priority="192" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="318" priority="200" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="309" priority="193" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="317" priority="201" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",E3)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="308" priority="194">
+    <cfRule type="containsBlanks" dxfId="316" priority="202">
       <formula>LEN(TRIM(E3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="containsText" dxfId="307" priority="186" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="315" priority="194" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",E4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="306" priority="187" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="314" priority="195" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",E4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="305" priority="188" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="313" priority="196" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",E4)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="304" priority="189">
+    <cfRule type="containsBlanks" dxfId="312" priority="197">
       <formula>LEN(TRIM(E4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6 E8">
-    <cfRule type="containsText" dxfId="303" priority="171" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="311" priority="179" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",E6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="302" priority="172" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="310" priority="180" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",E6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="301" priority="173" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="309" priority="181" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",E6)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="300" priority="174">
+    <cfRule type="containsBlanks" dxfId="308" priority="182">
       <formula>LEN(TRIM(E6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="containsText" dxfId="299" priority="159" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="307" priority="167" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",E13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="298" priority="160" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="306" priority="168" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",E13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="297" priority="161" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="305" priority="169" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",E13)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="296" priority="162">
+    <cfRule type="containsBlanks" dxfId="304" priority="170">
       <formula>LEN(TRIM(E13))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="containsText" dxfId="295" priority="155" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="303" priority="163" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",E14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="294" priority="156" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="302" priority="164" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",E14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="293" priority="157" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="301" priority="165" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",E14)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="292" priority="158">
+    <cfRule type="containsBlanks" dxfId="300" priority="166">
       <formula>LEN(TRIM(E14))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="containsText" dxfId="291" priority="151" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="299" priority="159" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",E15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="290" priority="152" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="298" priority="160" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",E15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="289" priority="153" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="297" priority="161" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",E15)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="288" priority="154">
+    <cfRule type="containsBlanks" dxfId="296" priority="162">
       <formula>LEN(TRIM(E15))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="containsText" dxfId="287" priority="147" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="295" priority="155" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",E17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="286" priority="148" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="294" priority="156" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",E17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="285" priority="149" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="293" priority="157" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",E17)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="284" priority="150">
+    <cfRule type="containsBlanks" dxfId="292" priority="158">
       <formula>LEN(TRIM(E17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:E19">
-    <cfRule type="containsText" dxfId="283" priority="143" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="291" priority="151" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",E18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="282" priority="144" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="290" priority="152" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",E18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="281" priority="145" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="289" priority="153" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",E18)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="280" priority="146">
+    <cfRule type="containsBlanks" dxfId="288" priority="154">
       <formula>LEN(TRIM(E18))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="containsText" dxfId="279" priority="135" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="287" priority="143" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",E16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="278" priority="136" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="286" priority="144" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",E16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="277" priority="137" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="285" priority="145" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",E16)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="276" priority="138">
+    <cfRule type="containsBlanks" dxfId="284" priority="146">
       <formula>LEN(TRIM(E16))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="containsText" dxfId="275" priority="123" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="283" priority="131" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",E27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="274" priority="124" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="282" priority="132" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",E27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="273" priority="125" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="281" priority="133" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",E27)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="272" priority="126">
+    <cfRule type="containsBlanks" dxfId="280" priority="134">
       <formula>LEN(TRIM(E27))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="containsText" dxfId="271" priority="119" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="279" priority="127" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",E25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="270" priority="120" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="278" priority="128" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",E25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="269" priority="121" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="277" priority="129" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",E25)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="268" priority="122">
+    <cfRule type="containsBlanks" dxfId="276" priority="130">
       <formula>LEN(TRIM(E25))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="containsText" dxfId="267" priority="115" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="275" priority="123" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",E26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="266" priority="116" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="274" priority="124" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",E26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="265" priority="117" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="273" priority="125" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",E26)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="264" priority="118">
+    <cfRule type="containsBlanks" dxfId="272" priority="126">
       <formula>LEN(TRIM(E26))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E28:E36 E38:E44">
-    <cfRule type="containsText" dxfId="263" priority="95" operator="containsText" text="Ei tehdä">
+  <conditionalFormatting sqref="E28:E36 E38:E39">
+    <cfRule type="containsText" dxfId="271" priority="103" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",E28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="262" priority="96" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="270" priority="104" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",E28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="261" priority="97" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="269" priority="105" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",E28)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="260" priority="98">
+    <cfRule type="containsBlanks" dxfId="268" priority="106">
       <formula>LEN(TRIM(E28))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E46:E56">
-    <cfRule type="containsText" dxfId="259" priority="91" operator="containsText" text="Ei tehdä">
-      <formula>NOT(ISERROR(SEARCH("Ei tehdä",E46)))</formula>
+  <conditionalFormatting sqref="E41:E46">
+    <cfRule type="containsText" dxfId="267" priority="99" operator="containsText" text="Ei tehdä">
+      <formula>NOT(ISERROR(SEARCH("Ei tehdä",E41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="258" priority="92" operator="containsText" text="Valmis">
-      <formula>NOT(ISERROR(SEARCH("Valmis",E46)))</formula>
+    <cfRule type="containsText" dxfId="266" priority="100" operator="containsText" text="Valmis">
+      <formula>NOT(ISERROR(SEARCH("Valmis",E41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="257" priority="93" operator="containsText" text="Kesken">
-      <formula>NOT(ISERROR(SEARCH("Kesken",E46)))</formula>
+    <cfRule type="containsText" dxfId="265" priority="101" operator="containsText" text="Kesken">
+      <formula>NOT(ISERROR(SEARCH("Kesken",E41)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="256" priority="94">
-      <formula>LEN(TRIM(E46))=0</formula>
+    <cfRule type="containsBlanks" dxfId="264" priority="102">
+      <formula>LEN(TRIM(E41))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="containsText" dxfId="255" priority="87" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="263" priority="95" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",E7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="254" priority="88" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="262" priority="96" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",E7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="253" priority="89" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="261" priority="97" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",E7)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="252" priority="90">
+    <cfRule type="containsBlanks" dxfId="260" priority="98">
       <formula>LEN(TRIM(E7))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E93">
-    <cfRule type="containsText" dxfId="251" priority="83" operator="containsText" text="Ei tehdä">
-      <formula>NOT(ISERROR(SEARCH("Ei tehdä",E93)))</formula>
+  <conditionalFormatting sqref="E78">
+    <cfRule type="containsText" dxfId="259" priority="91" operator="containsText" text="Ei tehdä">
+      <formula>NOT(ISERROR(SEARCH("Ei tehdä",E78)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="250" priority="84" operator="containsText" text="Valmis">
-      <formula>NOT(ISERROR(SEARCH("Valmis",E93)))</formula>
+    <cfRule type="containsText" dxfId="258" priority="92" operator="containsText" text="Valmis">
+      <formula>NOT(ISERROR(SEARCH("Valmis",E78)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="249" priority="85" operator="containsText" text="Kesken">
-      <formula>NOT(ISERROR(SEARCH("Kesken",E93)))</formula>
+    <cfRule type="containsText" dxfId="257" priority="93" operator="containsText" text="Kesken">
+      <formula>NOT(ISERROR(SEARCH("Kesken",E78)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="248" priority="86">
-      <formula>LEN(TRIM(E93))=0</formula>
+    <cfRule type="containsBlanks" dxfId="256" priority="94">
+      <formula>LEN(TRIM(E78))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="containsText" dxfId="247" priority="79" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="255" priority="87" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",E12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="246" priority="80" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="254" priority="88" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",E12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="245" priority="81" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="253" priority="89" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",E12)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="244" priority="82">
+    <cfRule type="containsBlanks" dxfId="252" priority="90">
       <formula>LEN(TRIM(E12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:E23">
-    <cfRule type="containsText" dxfId="243" priority="74" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="251" priority="82" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",E20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="242" priority="75" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="250" priority="83" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",E20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="241" priority="76" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="249" priority="84" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",E20)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="240" priority="77">
+    <cfRule type="containsBlanks" dxfId="248" priority="85">
       <formula>LEN(TRIM(E20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
-    <cfRule type="containsText" dxfId="239" priority="69" operator="containsText" text="Ei tehdä">
-      <formula>NOT(ISERROR(SEARCH("Ei tehdä",E88)))</formula>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="containsText" dxfId="247" priority="77" operator="containsText" text="Ei tehdä">
+      <formula>NOT(ISERROR(SEARCH("Ei tehdä",E73)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="238" priority="70" operator="containsText" text="Valmis">
-      <formula>NOT(ISERROR(SEARCH("Valmis",E88)))</formula>
+    <cfRule type="containsText" dxfId="246" priority="78" operator="containsText" text="Valmis">
+      <formula>NOT(ISERROR(SEARCH("Valmis",E73)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="237" priority="71" operator="containsText" text="Kesken">
-      <formula>NOT(ISERROR(SEARCH("Kesken",E88)))</formula>
+    <cfRule type="containsText" dxfId="245" priority="79" operator="containsText" text="Kesken">
+      <formula>NOT(ISERROR(SEARCH("Kesken",E73)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="236" priority="72">
-      <formula>LEN(TRIM(E88))=0</formula>
+    <cfRule type="containsBlanks" dxfId="244" priority="80">
+      <formula>LEN(TRIM(E73))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="containsText" dxfId="235" priority="64" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="243" priority="72" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",E37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="234" priority="65" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="242" priority="73" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",E37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="233" priority="66" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="241" priority="74" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",E37)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="232" priority="67">
+    <cfRule type="containsBlanks" dxfId="240" priority="75">
       <formula>LEN(TRIM(E37))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="containsText" dxfId="231" priority="59" operator="containsText" text="Ei tehdä">
-      <formula>NOT(ISERROR(SEARCH("Ei tehdä",E87)))</formula>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="containsText" dxfId="239" priority="67" operator="containsText" text="Ei tehdä">
+      <formula>NOT(ISERROR(SEARCH("Ei tehdä",E72)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="230" priority="60" operator="containsText" text="Valmis">
-      <formula>NOT(ISERROR(SEARCH("Valmis",E87)))</formula>
+    <cfRule type="containsText" dxfId="238" priority="68" operator="containsText" text="Valmis">
+      <formula>NOT(ISERROR(SEARCH("Valmis",E72)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="229" priority="61" operator="containsText" text="Kesken">
-      <formula>NOT(ISERROR(SEARCH("Kesken",E87)))</formula>
+    <cfRule type="containsText" dxfId="237" priority="69" operator="containsText" text="Kesken">
+      <formula>NOT(ISERROR(SEARCH("Kesken",E72)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="228" priority="62">
-      <formula>LEN(TRIM(E87))=0</formula>
+    <cfRule type="containsBlanks" dxfId="236" priority="70">
+      <formula>LEN(TRIM(E72))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
+  <conditionalFormatting sqref="E48">
+    <cfRule type="containsText" dxfId="235" priority="58" operator="containsText" text="Ei tehdä">
+      <formula>NOT(ISERROR(SEARCH("Ei tehdä",E48)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="234" priority="59" operator="containsText" text="Valmis">
+      <formula>NOT(ISERROR(SEARCH("Valmis",E48)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="233" priority="60" operator="containsText" text="Kesken">
+      <formula>NOT(ISERROR(SEARCH("Kesken",E48)))</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="232" priority="61">
+      <formula>LEN(TRIM(E48))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="containsText" dxfId="231" priority="54" operator="containsText" text="Ei tehdä">
+      <formula>NOT(ISERROR(SEARCH("Ei tehdä",E49)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="230" priority="55" operator="containsText" text="Valmis">
+      <formula>NOT(ISERROR(SEARCH("Valmis",E49)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="229" priority="56" operator="containsText" text="Kesken">
+      <formula>NOT(ISERROR(SEARCH("Kesken",E49)))</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="228" priority="57">
+      <formula>LEN(TRIM(E49))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50">
     <cfRule type="containsText" dxfId="227" priority="50" operator="containsText" text="Ei tehdä">
+      <formula>NOT(ISERROR(SEARCH("Ei tehdä",E50)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="226" priority="51" operator="containsText" text="Valmis">
+      <formula>NOT(ISERROR(SEARCH("Valmis",E50)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="225" priority="52" operator="containsText" text="Kesken">
+      <formula>NOT(ISERROR(SEARCH("Kesken",E50)))</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="224" priority="53">
+      <formula>LEN(TRIM(E50))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="containsText" dxfId="223" priority="46" operator="containsText" text="Ei tehdä">
+      <formula>NOT(ISERROR(SEARCH("Ei tehdä",E51)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="222" priority="47" operator="containsText" text="Valmis">
+      <formula>NOT(ISERROR(SEARCH("Valmis",E51)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="221" priority="48" operator="containsText" text="Kesken">
+      <formula>NOT(ISERROR(SEARCH("Kesken",E51)))</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="220" priority="49">
+      <formula>LEN(TRIM(E51))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="containsText" dxfId="219" priority="38" operator="containsText" text="Ei tehdä">
+      <formula>NOT(ISERROR(SEARCH("Ei tehdä",E52)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="218" priority="39" operator="containsText" text="Valmis">
+      <formula>NOT(ISERROR(SEARCH("Valmis",E52)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="217" priority="40" operator="containsText" text="Kesken">
+      <formula>NOT(ISERROR(SEARCH("Kesken",E52)))</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="216" priority="41">
+      <formula>LEN(TRIM(E52))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62:E69">
+    <cfRule type="containsText" dxfId="211" priority="34" operator="containsText" text="Ei tehdä">
+      <formula>NOT(ISERROR(SEARCH("Ei tehdä",E62)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="210" priority="35" operator="containsText" text="Valmis">
+      <formula>NOT(ISERROR(SEARCH("Valmis",E62)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="209" priority="36" operator="containsText" text="Kesken">
+      <formula>NOT(ISERROR(SEARCH("Kesken",E62)))</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="208" priority="37">
+      <formula>LEN(TRIM(E62))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74:E76">
+    <cfRule type="containsText" dxfId="207" priority="30" operator="containsText" text="Ei tehdä">
+      <formula>NOT(ISERROR(SEARCH("Ei tehdä",E74)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="206" priority="31" operator="containsText" text="Valmis">
+      <formula>NOT(ISERROR(SEARCH("Valmis",E74)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="205" priority="32" operator="containsText" text="Kesken">
+      <formula>NOT(ISERROR(SEARCH("Kesken",E74)))</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="204" priority="33">
+      <formula>LEN(TRIM(E74))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54:E56">
+    <cfRule type="containsText" dxfId="203" priority="25" operator="containsText" text="Ei tehdä">
+      <formula>NOT(ISERROR(SEARCH("Ei tehdä",E54)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="202" priority="26" operator="containsText" text="Valmis">
+      <formula>NOT(ISERROR(SEARCH("Valmis",E54)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="201" priority="27" operator="containsText" text="Kesken">
+      <formula>NOT(ISERROR(SEARCH("Kesken",E54)))</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="200" priority="28">
+      <formula>LEN(TRIM(E54))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58:E59">
+    <cfRule type="containsText" dxfId="199" priority="17" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",E58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="226" priority="51" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="198" priority="18" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",E58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="225" priority="52" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="197" priority="19" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",E58)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="224" priority="53">
+    <cfRule type="containsBlanks" dxfId="196" priority="20">
       <formula>LEN(TRIM(E58))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="containsText" dxfId="223" priority="46" operator="containsText" text="Ei tehdä">
-      <formula>NOT(ISERROR(SEARCH("Ei tehdä",E59)))</formula>
+  <conditionalFormatting sqref="E79:E84">
+    <cfRule type="containsText" dxfId="195" priority="13" operator="containsText" text="Ei tehdä">
+      <formula>NOT(ISERROR(SEARCH("Ei tehdä",E79)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="222" priority="47" operator="containsText" text="Valmis">
-      <formula>NOT(ISERROR(SEARCH("Valmis",E59)))</formula>
+    <cfRule type="containsText" dxfId="194" priority="14" operator="containsText" text="Valmis">
+      <formula>NOT(ISERROR(SEARCH("Valmis",E79)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="221" priority="48" operator="containsText" text="Kesken">
-      <formula>NOT(ISERROR(SEARCH("Kesken",E59)))</formula>
+    <cfRule type="containsText" dxfId="193" priority="15" operator="containsText" text="Kesken">
+      <formula>NOT(ISERROR(SEARCH("Kesken",E79)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="220" priority="49">
-      <formula>LEN(TRIM(E59))=0</formula>
+    <cfRule type="containsBlanks" dxfId="192" priority="16">
+      <formula>LEN(TRIM(E79))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="containsText" dxfId="219" priority="42" operator="containsText" text="Ei tehdä">
-      <formula>NOT(ISERROR(SEARCH("Ei tehdä",E60)))</formula>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="containsText" dxfId="191" priority="9" operator="containsText" text="Ei tehdä">
+      <formula>NOT(ISERROR(SEARCH("Ei tehdä",E9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="218" priority="43" operator="containsText" text="Valmis">
-      <formula>NOT(ISERROR(SEARCH("Valmis",E60)))</formula>
+    <cfRule type="containsText" dxfId="190" priority="10" operator="containsText" text="Valmis">
+      <formula>NOT(ISERROR(SEARCH("Valmis",E9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="217" priority="44" operator="containsText" text="Kesken">
-      <formula>NOT(ISERROR(SEARCH("Kesken",E60)))</formula>
+    <cfRule type="containsText" dxfId="189" priority="11" operator="containsText" text="Kesken">
+      <formula>NOT(ISERROR(SEARCH("Kesken",E9)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="216" priority="45">
-      <formula>LEN(TRIM(E60))=0</formula>
+    <cfRule type="containsBlanks" dxfId="188" priority="12">
+      <formula>LEN(TRIM(E9))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="containsText" dxfId="215" priority="38" operator="containsText" text="Ei tehdä">
-      <formula>NOT(ISERROR(SEARCH("Ei tehdä",E61)))</formula>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="containsText" dxfId="179" priority="5" operator="containsText" text="Ei tehdä">
+      <formula>NOT(ISERROR(SEARCH("Ei tehdä",E10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="214" priority="39" operator="containsText" text="Valmis">
-      <formula>NOT(ISERROR(SEARCH("Valmis",E61)))</formula>
+    <cfRule type="containsText" dxfId="178" priority="6" operator="containsText" text="Valmis">
+      <formula>NOT(ISERROR(SEARCH("Valmis",E10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="213" priority="40" operator="containsText" text="Kesken">
-      <formula>NOT(ISERROR(SEARCH("Kesken",E61)))</formula>
+    <cfRule type="containsText" dxfId="177" priority="7" operator="containsText" text="Kesken">
+      <formula>NOT(ISERROR(SEARCH("Kesken",E10)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="212" priority="41">
-      <formula>LEN(TRIM(E61))=0</formula>
+    <cfRule type="containsBlanks" dxfId="176" priority="8">
+      <formula>LEN(TRIM(E10))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
-    <cfRule type="containsText" dxfId="211" priority="34" operator="containsText" text="Ei tehdä">
-      <formula>NOT(ISERROR(SEARCH("Ei tehdä",E63)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="210" priority="35" operator="containsText" text="Valmis">
-      <formula>NOT(ISERROR(SEARCH("Valmis",E63)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="209" priority="36" operator="containsText" text="Kesken">
-      <formula>NOT(ISERROR(SEARCH("Kesken",E63)))</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="208" priority="37">
-      <formula>LEN(TRIM(E63))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62">
-    <cfRule type="containsText" dxfId="207" priority="30" operator="containsText" text="Ei tehdä">
-      <formula>NOT(ISERROR(SEARCH("Ei tehdä",E62)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="206" priority="31" operator="containsText" text="Valmis">
-      <formula>NOT(ISERROR(SEARCH("Valmis",E62)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="205" priority="32" operator="containsText" text="Kesken">
-      <formula>NOT(ISERROR(SEARCH("Kesken",E62)))</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="204" priority="33">
-      <formula>LEN(TRIM(E62))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75:E82">
-    <cfRule type="containsText" dxfId="203" priority="26" operator="containsText" text="Ei tehdä">
-      <formula>NOT(ISERROR(SEARCH("Ei tehdä",E75)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="202" priority="27" operator="containsText" text="Valmis">
-      <formula>NOT(ISERROR(SEARCH("Valmis",E75)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="201" priority="28" operator="containsText" text="Kesken">
-      <formula>NOT(ISERROR(SEARCH("Kesken",E75)))</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="200" priority="29">
-      <formula>LEN(TRIM(E75))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E89:E91">
-    <cfRule type="containsText" dxfId="199" priority="22" operator="containsText" text="Ei tehdä">
-      <formula>NOT(ISERROR(SEARCH("Ei tehdä",E89)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="198" priority="23" operator="containsText" text="Valmis">
-      <formula>NOT(ISERROR(SEARCH("Valmis",E89)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="197" priority="24" operator="containsText" text="Kesken">
-      <formula>NOT(ISERROR(SEARCH("Kesken",E89)))</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="196" priority="25">
-      <formula>LEN(TRIM(E89))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65:E67">
-    <cfRule type="containsText" dxfId="195" priority="17" operator="containsText" text="Ei tehdä">
-      <formula>NOT(ISERROR(SEARCH("Ei tehdä",E65)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="194" priority="18" operator="containsText" text="Valmis">
-      <formula>NOT(ISERROR(SEARCH("Valmis",E65)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="193" priority="19" operator="containsText" text="Kesken">
-      <formula>NOT(ISERROR(SEARCH("Kesken",E65)))</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="192" priority="20">
-      <formula>LEN(TRIM(E65))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E70:E71">
-    <cfRule type="containsText" dxfId="191" priority="9" operator="containsText" text="Ei tehdä">
+  <conditionalFormatting sqref="E70">
+    <cfRule type="containsText" dxfId="175" priority="1" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",E70)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="190" priority="10" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="174" priority="2" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",E70)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="189" priority="11" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="173" priority="3" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",E70)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="188" priority="12">
+    <cfRule type="containsBlanks" dxfId="172" priority="4">
       <formula>LEN(TRIM(E70))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E94:E99">
-    <cfRule type="containsText" dxfId="187" priority="5" operator="containsText" text="Ei tehdä">
-      <formula>NOT(ISERROR(SEARCH("Ei tehdä",E94)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="186" priority="6" operator="containsText" text="Valmis">
-      <formula>NOT(ISERROR(SEARCH("Valmis",E94)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="185" priority="7" operator="containsText" text="Kesken">
-      <formula>NOT(ISERROR(SEARCH("Kesken",E94)))</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="184" priority="8">
-      <formula>LEN(TRIM(E94))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9:E10">
-    <cfRule type="containsText" dxfId="175" priority="1" operator="containsText" text="Ei tehdä">
-      <formula>NOT(ISERROR(SEARCH("Ei tehdä",E9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="174" priority="2" operator="containsText" text="Valmis">
-      <formula>NOT(ISERROR(SEARCH("Valmis",E9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="173" priority="3" operator="containsText" text="Kesken">
-      <formula>NOT(ISERROR(SEARCH("Kesken",E9)))</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="172" priority="4">
-      <formula>LEN(TRIM(E9))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23329,7 +23416,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="190" operator="containsText" id="{AB7CDDA4-2537-4CEB-954D-631EC348B3FC}">
+          <x14:cfRule type="containsText" priority="198" operator="containsText" id="{AB7CDDA4-2537-4CEB-954D-631EC348B3FC}">
             <xm:f>NOT(ISERROR(SEARCH("""",E3)))</xm:f>
             <xm:f>""""</xm:f>
             <x14:dxf>
@@ -23343,7 +23430,7 @@
           <xm:sqref>E3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="185" operator="containsText" id="{95D7A4E2-8423-4FDE-9DA4-3A15F28E586E}">
+          <x14:cfRule type="containsText" priority="193" operator="containsText" id="{95D7A4E2-8423-4FDE-9DA4-3A15F28E586E}">
             <xm:f>NOT(ISERROR(SEARCH("""",E4)))</xm:f>
             <xm:f>""""</xm:f>
             <x14:dxf>
@@ -23357,7 +23444,7 @@
           <xm:sqref>E4</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="78" operator="containsText" id="{13103531-4354-416F-9BDE-A827863CCF25}">
+          <x14:cfRule type="containsText" priority="86" operator="containsText" id="{13103531-4354-416F-9BDE-A827863CCF25}">
             <xm:f>NOT(ISERROR(SEARCH("""",E12)))</xm:f>
             <xm:f>""""</xm:f>
             <x14:dxf>
@@ -23371,7 +23458,7 @@
           <xm:sqref>E12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="73" operator="containsText" id="{DC41060F-7860-488C-B6B1-70752796CA85}">
+          <x14:cfRule type="containsText" priority="81" operator="containsText" id="{DC41060F-7860-488C-B6B1-70752796CA85}">
             <xm:f>NOT(ISERROR(SEARCH("""",E20)))</xm:f>
             <xm:f>""""</xm:f>
             <x14:dxf>
@@ -23385,8 +23472,8 @@
           <xm:sqref>E20:E23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="68" operator="containsText" id="{5B9F05E8-EC48-4E9E-9174-866C6023FF85}">
-            <xm:f>NOT(ISERROR(SEARCH("""",E88)))</xm:f>
+          <x14:cfRule type="containsText" priority="76" operator="containsText" id="{5B9F05E8-EC48-4E9E-9174-866C6023FF85}">
+            <xm:f>NOT(ISERROR(SEARCH("""",E73)))</xm:f>
             <xm:f>""""</xm:f>
             <x14:dxf>
               <fill>
@@ -23396,10 +23483,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>E88</xm:sqref>
+          <xm:sqref>E73</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="63" operator="containsText" id="{1BFE10AC-ACD0-48BF-AE0E-E622EEC601C7}">
+          <x14:cfRule type="containsText" priority="71" operator="containsText" id="{1BFE10AC-ACD0-48BF-AE0E-E622EEC601C7}">
             <xm:f>NOT(ISERROR(SEARCH("""",E37)))</xm:f>
             <xm:f>""""</xm:f>
             <x14:dxf>
@@ -23413,8 +23500,8 @@
           <xm:sqref>E37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="58" operator="containsText" id="{476C25DE-33C8-4188-948E-AB4436013AD0}">
-            <xm:f>NOT(ISERROR(SEARCH("""",E87)))</xm:f>
+          <x14:cfRule type="containsText" priority="66" operator="containsText" id="{476C25DE-33C8-4188-948E-AB4436013AD0}">
+            <xm:f>NOT(ISERROR(SEARCH("""",E72)))</xm:f>
             <xm:f>""""</xm:f>
             <x14:dxf>
               <fill>
@@ -23424,11 +23511,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>E87</xm:sqref>
+          <xm:sqref>E72</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="21" operator="containsText" id="{8213BC7D-CF47-4882-B3AB-9B1BFE37C1C0}">
-            <xm:f>NOT(ISERROR(SEARCH("""",E89)))</xm:f>
+          <x14:cfRule type="containsText" priority="29" operator="containsText" id="{8213BC7D-CF47-4882-B3AB-9B1BFE37C1C0}">
+            <xm:f>NOT(ISERROR(SEARCH("""",E74)))</xm:f>
             <xm:f>""""</xm:f>
             <x14:dxf>
               <fill>
@@ -23438,7 +23525,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>E89:E91</xm:sqref>
+          <xm:sqref>E74:E76</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -23479,15 +23566,15 @@
       <c r="O1" s="297"/>
     </row>
     <row r="2" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="447" t="s">
+      <c r="B2" s="462" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="448"/>
-      <c r="D2" s="449" t="s">
+      <c r="C2" s="463"/>
+      <c r="D2" s="464" t="s">
         <v>423</v>
       </c>
-      <c r="E2" s="450"/>
-      <c r="F2" s="451"/>
+      <c r="E2" s="465"/>
+      <c r="F2" s="466"/>
       <c r="J2" s="297"/>
       <c r="K2" s="297"/>
       <c r="L2" s="297"/>
@@ -23498,9 +23585,9 @@
     <row r="3" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="263"/>
       <c r="C3" s="265"/>
-      <c r="D3" s="452"/>
-      <c r="E3" s="453"/>
-      <c r="F3" s="454"/>
+      <c r="D3" s="467"/>
+      <c r="E3" s="468"/>
+      <c r="F3" s="469"/>
       <c r="J3" s="297"/>
       <c r="K3" s="297"/>
       <c r="L3" s="297"/>
@@ -23511,9 +23598,9 @@
     <row r="4" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="263"/>
       <c r="C4" s="265"/>
-      <c r="D4" s="452"/>
-      <c r="E4" s="453"/>
-      <c r="F4" s="454"/>
+      <c r="D4" s="467"/>
+      <c r="E4" s="468"/>
+      <c r="F4" s="469"/>
       <c r="J4" s="297"/>
       <c r="K4" s="297"/>
       <c r="L4" s="297"/>
@@ -23524,9 +23611,9 @@
     <row r="5" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="263"/>
       <c r="C5" s="265"/>
-      <c r="D5" s="452"/>
-      <c r="E5" s="453"/>
-      <c r="F5" s="454"/>
+      <c r="D5" s="467"/>
+      <c r="E5" s="468"/>
+      <c r="F5" s="469"/>
       <c r="J5" s="297"/>
       <c r="K5" s="297"/>
       <c r="L5" s="297"/>
@@ -23537,9 +23624,9 @@
     <row r="6" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="264"/>
       <c r="C6" s="266"/>
-      <c r="D6" s="455"/>
-      <c r="E6" s="456"/>
-      <c r="F6" s="457"/>
+      <c r="D6" s="470"/>
+      <c r="E6" s="471"/>
+      <c r="F6" s="472"/>
       <c r="J6" s="297"/>
       <c r="K6" s="297"/>
       <c r="L6" s="297"/>
@@ -23577,14 +23664,14 @@
       <c r="D9" s="298" t="s">
         <v>86</v>
       </c>
-      <c r="E9" s="442" t="s">
+      <c r="E9" s="439" t="s">
         <v>87</v>
       </c>
-      <c r="F9" s="443"/>
-      <c r="G9" s="458" t="s">
+      <c r="F9" s="440"/>
+      <c r="G9" s="473" t="s">
         <v>88</v>
       </c>
-      <c r="H9" s="459"/>
+      <c r="H9" s="474"/>
       <c r="I9" s="298" t="s">
         <v>89</v>
       </c>
@@ -23610,12 +23697,12 @@
       <c r="D10" s="343" t="s">
         <v>90</v>
       </c>
-      <c r="E10" s="441" t="s">
+      <c r="E10" s="433" t="s">
         <v>316</v>
       </c>
-      <c r="F10" s="441"/>
-      <c r="G10" s="460"/>
-      <c r="H10" s="460"/>
+      <c r="F10" s="433"/>
+      <c r="G10" s="447"/>
+      <c r="H10" s="447"/>
       <c r="I10" s="343">
         <v>0</v>
       </c>
@@ -23641,12 +23728,12 @@
       <c r="D11" s="335" t="s">
         <v>318</v>
       </c>
-      <c r="E11" s="434" t="s">
+      <c r="E11" s="442" t="s">
         <v>320</v>
       </c>
-      <c r="F11" s="434"/>
-      <c r="G11" s="460"/>
-      <c r="H11" s="460"/>
+      <c r="F11" s="442"/>
+      <c r="G11" s="447"/>
+      <c r="H11" s="447"/>
       <c r="I11" s="343">
         <v>2</v>
       </c>
@@ -23672,12 +23759,12 @@
       <c r="D12" s="335" t="s">
         <v>318</v>
       </c>
-      <c r="E12" s="441" t="s">
+      <c r="E12" s="433" t="s">
         <v>319</v>
       </c>
-      <c r="F12" s="441"/>
-      <c r="G12" s="460"/>
-      <c r="H12" s="460"/>
+      <c r="F12" s="433"/>
+      <c r="G12" s="447"/>
+      <c r="H12" s="447"/>
       <c r="I12" s="343">
         <v>20</v>
       </c>
@@ -23703,12 +23790,12 @@
       <c r="D13" s="335" t="s">
         <v>356</v>
       </c>
-      <c r="E13" s="438" t="s">
+      <c r="E13" s="436" t="s">
         <v>349</v>
       </c>
-      <c r="F13" s="438"/>
-      <c r="G13" s="460"/>
-      <c r="H13" s="460"/>
+      <c r="F13" s="436"/>
+      <c r="G13" s="447"/>
+      <c r="H13" s="447"/>
       <c r="I13" s="343">
         <v>40</v>
       </c>
@@ -23734,12 +23821,12 @@
       <c r="D14" s="335" t="s">
         <v>90</v>
       </c>
-      <c r="E14" s="434" t="s">
+      <c r="E14" s="442" t="s">
         <v>358</v>
       </c>
-      <c r="F14" s="434"/>
-      <c r="G14" s="460"/>
-      <c r="H14" s="460"/>
+      <c r="F14" s="442"/>
+      <c r="G14" s="447"/>
+      <c r="H14" s="447"/>
       <c r="I14" s="343">
         <v>0</v>
       </c>
@@ -23765,12 +23852,12 @@
       <c r="D15" s="335" t="s">
         <v>318</v>
       </c>
-      <c r="E15" s="441" t="s">
+      <c r="E15" s="433" t="s">
         <v>434</v>
       </c>
-      <c r="F15" s="441"/>
-      <c r="G15" s="460"/>
-      <c r="H15" s="460"/>
+      <c r="F15" s="433"/>
+      <c r="G15" s="447"/>
+      <c r="H15" s="447"/>
       <c r="I15" s="343">
         <v>5</v>
       </c>
@@ -23790,10 +23877,10 @@
     </row>
     <row r="16" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D16" s="26"/>
-      <c r="E16" s="472"/>
-      <c r="F16" s="472"/>
-      <c r="G16" s="471"/>
-      <c r="H16" s="471"/>
+      <c r="E16" s="450"/>
+      <c r="F16" s="450"/>
+      <c r="G16" s="449"/>
+      <c r="H16" s="449"/>
       <c r="I16" s="173"/>
       <c r="J16" s="173"/>
       <c r="K16" s="300" t="e">
@@ -23831,8 +23918,8 @@
     <row r="18" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="71"/>
       <c r="D18" s="71"/>
-      <c r="E18" s="461"/>
-      <c r="F18" s="461"/>
+      <c r="E18" s="460"/>
+      <c r="F18" s="460"/>
       <c r="G18" s="22"/>
       <c r="H18" s="22"/>
       <c r="I18" s="173"/>
@@ -23850,11 +23937,11 @@
     </row>
     <row r="19" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="72"/>
-      <c r="C19" s="466" t="s">
+      <c r="C19" s="455" t="s">
         <v>92</v>
       </c>
-      <c r="D19" s="467"/>
-      <c r="E19" s="468"/>
+      <c r="D19" s="456"/>
+      <c r="E19" s="457"/>
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
       <c r="H19" s="178" t="s">
@@ -23908,10 +23995,10 @@
       <c r="C21" s="299" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="469" t="s">
+      <c r="D21" s="458" t="s">
         <v>96</v>
       </c>
-      <c r="E21" s="470"/>
+      <c r="E21" s="459"/>
       <c r="F21" s="172" t="s">
         <v>97</v>
       </c>
@@ -23961,10 +24048,10 @@
         <v>104</v>
       </c>
       <c r="C22" s="347"/>
-      <c r="D22" s="462" t="s">
+      <c r="D22" s="461" t="s">
         <v>317</v>
       </c>
-      <c r="E22" s="462"/>
+      <c r="E22" s="461"/>
       <c r="F22" s="337" t="s">
         <v>126</v>
       </c>
@@ -24012,10 +24099,10 @@
         <v>107</v>
       </c>
       <c r="C23" s="347"/>
-      <c r="D23" s="473" t="s">
+      <c r="D23" s="451" t="s">
         <v>108</v>
       </c>
-      <c r="E23" s="473"/>
+      <c r="E23" s="451"/>
       <c r="F23" s="337" t="s">
         <v>126</v>
       </c>
@@ -24055,10 +24142,10 @@
         <v>109</v>
       </c>
       <c r="C24" s="349"/>
-      <c r="D24" s="474" t="s">
+      <c r="D24" s="446" t="s">
         <v>321</v>
       </c>
-      <c r="E24" s="474"/>
+      <c r="E24" s="446"/>
       <c r="F24" s="337" t="s">
         <v>126</v>
       </c>
@@ -24139,10 +24226,10 @@
         <v>421</v>
       </c>
       <c r="C26" s="349"/>
-      <c r="D26" s="475" t="s">
+      <c r="D26" s="452" t="s">
         <v>422</v>
       </c>
-      <c r="E26" s="475"/>
+      <c r="E26" s="452"/>
       <c r="F26" s="337" t="s">
         <v>126</v>
       </c>
@@ -24225,10 +24312,10 @@
         <v>110</v>
       </c>
       <c r="C28" s="347"/>
-      <c r="D28" s="465" t="s">
+      <c r="D28" s="448" t="s">
         <v>328</v>
       </c>
-      <c r="E28" s="465"/>
+      <c r="E28" s="448"/>
       <c r="F28" s="337" t="s">
         <v>126</v>
       </c>
@@ -24268,10 +24355,10 @@
         <v>81</v>
       </c>
       <c r="C29" s="347"/>
-      <c r="D29" s="465" t="s">
+      <c r="D29" s="448" t="s">
         <v>329</v>
       </c>
-      <c r="E29" s="465"/>
+      <c r="E29" s="448"/>
       <c r="F29" s="337" t="s">
         <v>126</v>
       </c>
@@ -24311,10 +24398,10 @@
         <v>340</v>
       </c>
       <c r="C30" s="347"/>
-      <c r="D30" s="465" t="s">
+      <c r="D30" s="448" t="s">
         <v>330</v>
       </c>
-      <c r="E30" s="465"/>
+      <c r="E30" s="448"/>
       <c r="F30" s="337" t="s">
         <v>126</v>
       </c>
@@ -24354,10 +24441,10 @@
         <v>341</v>
       </c>
       <c r="C31" s="347"/>
-      <c r="D31" s="465" t="s">
+      <c r="D31" s="448" t="s">
         <v>331</v>
       </c>
-      <c r="E31" s="465"/>
+      <c r="E31" s="448"/>
       <c r="F31" s="337" t="s">
         <v>126</v>
       </c>
@@ -24397,10 +24484,10 @@
         <v>342</v>
       </c>
       <c r="C32" s="347"/>
-      <c r="D32" s="465" t="s">
+      <c r="D32" s="448" t="s">
         <v>332</v>
       </c>
-      <c r="E32" s="465"/>
+      <c r="E32" s="448"/>
       <c r="F32" s="337" t="s">
         <v>126</v>
       </c>
@@ -24440,10 +24527,10 @@
         <v>343</v>
       </c>
       <c r="C33" s="347"/>
-      <c r="D33" s="465" t="s">
+      <c r="D33" s="448" t="s">
         <v>333</v>
       </c>
-      <c r="E33" s="465"/>
+      <c r="E33" s="448"/>
       <c r="F33" s="337" t="s">
         <v>126</v>
       </c>
@@ -24483,10 +24570,10 @@
         <v>344</v>
       </c>
       <c r="C34" s="347"/>
-      <c r="D34" s="465" t="s">
+      <c r="D34" s="448" t="s">
         <v>334</v>
       </c>
-      <c r="E34" s="465"/>
+      <c r="E34" s="448"/>
       <c r="F34" s="337" t="s">
         <v>126</v>
       </c>
@@ -24526,10 +24613,10 @@
         <v>345</v>
       </c>
       <c r="C35" s="347"/>
-      <c r="D35" s="465" t="s">
+      <c r="D35" s="448" t="s">
         <v>335</v>
       </c>
-      <c r="E35" s="465"/>
+      <c r="E35" s="448"/>
       <c r="F35" s="337" t="s">
         <v>126</v>
       </c>
@@ -24569,10 +24656,10 @@
         <v>346</v>
       </c>
       <c r="C36" s="347"/>
-      <c r="D36" s="465" t="s">
+      <c r="D36" s="448" t="s">
         <v>336</v>
       </c>
-      <c r="E36" s="465"/>
+      <c r="E36" s="448"/>
       <c r="F36" s="337" t="s">
         <v>126</v>
       </c>
@@ -24612,10 +24699,10 @@
         <v>347</v>
       </c>
       <c r="C37" s="347"/>
-      <c r="D37" s="465" t="s">
+      <c r="D37" s="448" t="s">
         <v>337</v>
       </c>
-      <c r="E37" s="465"/>
+      <c r="E37" s="448"/>
       <c r="F37" s="337" t="s">
         <v>126</v>
       </c>
@@ -24655,10 +24742,10 @@
         <v>348</v>
       </c>
       <c r="C38" s="347"/>
-      <c r="D38" s="465" t="s">
+      <c r="D38" s="448" t="s">
         <v>338</v>
       </c>
-      <c r="E38" s="465"/>
+      <c r="E38" s="448"/>
       <c r="F38" s="337" t="s">
         <v>126</v>
       </c>
@@ -24741,10 +24828,10 @@
         <v>362</v>
       </c>
       <c r="C40" s="349"/>
-      <c r="D40" s="464" t="s">
+      <c r="D40" s="454" t="s">
         <v>365</v>
       </c>
-      <c r="E40" s="464"/>
+      <c r="E40" s="454"/>
       <c r="F40" s="337" t="s">
         <v>126</v>
       </c>
@@ -24784,10 +24871,10 @@
         <v>363</v>
       </c>
       <c r="C41" s="349"/>
-      <c r="D41" s="464" t="s">
+      <c r="D41" s="454" t="s">
         <v>364</v>
       </c>
-      <c r="E41" s="464"/>
+      <c r="E41" s="454"/>
       <c r="F41" s="337" t="s">
         <v>126</v>
       </c>
@@ -24827,10 +24914,10 @@
         <v>366</v>
       </c>
       <c r="C42" s="349"/>
-      <c r="D42" s="464" t="s">
+      <c r="D42" s="454" t="s">
         <v>398</v>
       </c>
-      <c r="E42" s="464"/>
+      <c r="E42" s="454"/>
       <c r="F42" s="300" t="s">
         <v>339</v>
       </c>
@@ -24868,10 +24955,10 @@
         <v>389</v>
       </c>
       <c r="C43" s="349"/>
-      <c r="D43" s="463" t="s">
+      <c r="D43" s="453" t="s">
         <v>391</v>
       </c>
-      <c r="E43" s="463"/>
+      <c r="E43" s="453"/>
       <c r="F43" s="300" t="s">
         <v>339</v>
       </c>
@@ -24909,10 +24996,10 @@
         <v>367</v>
       </c>
       <c r="C44" s="349"/>
-      <c r="D44" s="464" t="s">
+      <c r="D44" s="454" t="s">
         <v>390</v>
       </c>
-      <c r="E44" s="464"/>
+      <c r="E44" s="454"/>
       <c r="F44" s="300" t="s">
         <v>339</v>
       </c>
@@ -24950,10 +25037,10 @@
         <v>392</v>
       </c>
       <c r="C45" s="349"/>
-      <c r="D45" s="464" t="s">
+      <c r="D45" s="454" t="s">
         <v>399</v>
       </c>
-      <c r="E45" s="464"/>
+      <c r="E45" s="454"/>
       <c r="F45" s="300" t="s">
         <v>339</v>
       </c>
@@ -24991,10 +25078,10 @@
         <v>393</v>
       </c>
       <c r="C46" s="349"/>
-      <c r="D46" s="463" t="s">
+      <c r="D46" s="453" t="s">
         <v>394</v>
       </c>
-      <c r="E46" s="463"/>
+      <c r="E46" s="453"/>
       <c r="F46" s="300" t="s">
         <v>339</v>
       </c>
@@ -25032,10 +25119,10 @@
         <v>395</v>
       </c>
       <c r="C47" s="349"/>
-      <c r="D47" s="463" t="s">
+      <c r="D47" s="453" t="s">
         <v>396</v>
       </c>
-      <c r="E47" s="463"/>
+      <c r="E47" s="453"/>
       <c r="F47" s="300" t="s">
         <v>339</v>
       </c>
@@ -25073,10 +25160,10 @@
         <v>397</v>
       </c>
       <c r="C48" s="349"/>
-      <c r="D48" s="463" t="s">
+      <c r="D48" s="453" t="s">
         <v>407</v>
       </c>
-      <c r="E48" s="463"/>
+      <c r="E48" s="453"/>
       <c r="F48" s="300" t="s">
         <v>339</v>
       </c>
@@ -25114,10 +25201,10 @@
         <v>402</v>
       </c>
       <c r="C49" s="349"/>
-      <c r="D49" s="464" t="s">
+      <c r="D49" s="454" t="s">
         <v>408</v>
       </c>
-      <c r="E49" s="464"/>
+      <c r="E49" s="454"/>
       <c r="F49" s="300" t="s">
         <v>339</v>
       </c>
@@ -25155,10 +25242,10 @@
         <v>405</v>
       </c>
       <c r="C50" s="349"/>
-      <c r="D50" s="463" t="s">
+      <c r="D50" s="453" t="s">
         <v>400</v>
       </c>
-      <c r="E50" s="463"/>
+      <c r="E50" s="453"/>
       <c r="F50" s="300" t="s">
         <v>339</v>
       </c>
@@ -25196,10 +25283,10 @@
         <v>409</v>
       </c>
       <c r="C51" s="349"/>
-      <c r="D51" s="463" t="s">
+      <c r="D51" s="453" t="s">
         <v>401</v>
       </c>
-      <c r="E51" s="463"/>
+      <c r="E51" s="453"/>
       <c r="F51" s="300" t="s">
         <v>339</v>
       </c>
@@ -25237,10 +25324,10 @@
         <v>410</v>
       </c>
       <c r="C52" s="349"/>
-      <c r="D52" s="463" t="s">
+      <c r="D52" s="453" t="s">
         <v>404</v>
       </c>
-      <c r="E52" s="463"/>
+      <c r="E52" s="453"/>
       <c r="F52" s="337" t="s">
         <v>126</v>
       </c>
@@ -25280,10 +25367,10 @@
         <v>411</v>
       </c>
       <c r="C53" s="349"/>
-      <c r="D53" s="463" t="s">
+      <c r="D53" s="453" t="s">
         <v>403</v>
       </c>
-      <c r="E53" s="463"/>
+      <c r="E53" s="453"/>
       <c r="F53" s="300" t="s">
         <v>339</v>
       </c>
@@ -25321,10 +25408,10 @@
         <v>412</v>
       </c>
       <c r="C54" s="349"/>
-      <c r="D54" s="463" t="s">
+      <c r="D54" s="453" t="s">
         <v>406</v>
       </c>
-      <c r="E54" s="463"/>
+      <c r="E54" s="453"/>
       <c r="F54" s="300" t="s">
         <v>339</v>
       </c>
@@ -25362,10 +25449,10 @@
         <v>127</v>
       </c>
       <c r="C55" s="347"/>
-      <c r="D55" s="465" t="s">
+      <c r="D55" s="448" t="s">
         <v>359</v>
       </c>
-      <c r="E55" s="465"/>
+      <c r="E55" s="448"/>
       <c r="F55" s="337" t="s">
         <v>126</v>
       </c>
@@ -25405,10 +25492,10 @@
         <v>361</v>
       </c>
       <c r="C56" s="347"/>
-      <c r="D56" s="465" t="s">
+      <c r="D56" s="448" t="s">
         <v>360</v>
       </c>
-      <c r="E56" s="465"/>
+      <c r="E56" s="448"/>
       <c r="F56" s="337" t="s">
         <v>126</v>
       </c>
@@ -25448,10 +25535,10 @@
         <v>128</v>
       </c>
       <c r="C57" s="349"/>
-      <c r="D57" s="474" t="s">
+      <c r="D57" s="446" t="s">
         <v>435</v>
       </c>
-      <c r="E57" s="474"/>
+      <c r="E57" s="446"/>
       <c r="F57" s="300" t="s">
         <v>339</v>
       </c>
@@ -25473,8 +25560,8 @@
     <row r="58" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="296"/>
       <c r="C58" s="296"/>
-      <c r="D58" s="437"/>
-      <c r="E58" s="437"/>
+      <c r="D58" s="438"/>
+      <c r="E58" s="438"/>
       <c r="F58" s="267"/>
       <c r="G58" s="296"/>
       <c r="H58" s="296"/>
@@ -25494,8 +25581,8 @@
     <row r="59" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="330"/>
       <c r="C59" s="330"/>
-      <c r="D59" s="437"/>
-      <c r="E59" s="437"/>
+      <c r="D59" s="438"/>
+      <c r="E59" s="438"/>
       <c r="F59" s="267"/>
       <c r="G59" s="330"/>
       <c r="H59" s="330"/>
@@ -25515,8 +25602,8 @@
     <row r="60" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="330"/>
       <c r="C60" s="330"/>
-      <c r="D60" s="437"/>
-      <c r="E60" s="437"/>
+      <c r="D60" s="438"/>
+      <c r="E60" s="438"/>
       <c r="F60" s="267"/>
       <c r="G60" s="330"/>
       <c r="H60" s="330"/>
@@ -25536,8 +25623,8 @@
     <row r="61" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="330"/>
       <c r="C61" s="330"/>
-      <c r="D61" s="437"/>
-      <c r="E61" s="437"/>
+      <c r="D61" s="438"/>
+      <c r="E61" s="438"/>
       <c r="F61" s="267"/>
       <c r="G61" s="330"/>
       <c r="H61" s="330"/>
@@ -25557,8 +25644,8 @@
     <row r="62" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="330"/>
       <c r="C62" s="330"/>
-      <c r="D62" s="437"/>
-      <c r="E62" s="437"/>
+      <c r="D62" s="438"/>
+      <c r="E62" s="438"/>
       <c r="F62" s="267"/>
       <c r="G62" s="330"/>
       <c r="H62" s="330"/>
@@ -25578,8 +25665,8 @@
     <row r="63" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="330"/>
       <c r="C63" s="330"/>
-      <c r="D63" s="437"/>
-      <c r="E63" s="437"/>
+      <c r="D63" s="438"/>
+      <c r="E63" s="438"/>
       <c r="F63" s="267"/>
       <c r="G63" s="330"/>
       <c r="H63" s="330"/>
@@ -25599,8 +25686,8 @@
     <row r="64" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="330"/>
       <c r="C64" s="330"/>
-      <c r="D64" s="437"/>
-      <c r="E64" s="437"/>
+      <c r="D64" s="438"/>
+      <c r="E64" s="438"/>
       <c r="F64" s="267"/>
       <c r="G64" s="330"/>
       <c r="H64" s="330"/>
@@ -25620,8 +25707,8 @@
     <row r="65" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="330"/>
       <c r="C65" s="330"/>
-      <c r="D65" s="437"/>
-      <c r="E65" s="437"/>
+      <c r="D65" s="438"/>
+      <c r="E65" s="438"/>
       <c r="F65" s="267"/>
       <c r="G65" s="330"/>
       <c r="H65" s="330"/>
@@ -25861,16 +25948,31 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:F6"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="D56:E56"/>
@@ -25887,22 +25989,16 @@
     <mergeCell ref="D46:E46"/>
     <mergeCell ref="D47:E47"/>
     <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="E11:F11"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D48:E48"/>
@@ -25914,15 +26010,6 @@
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:F6"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="E9:F9"/>
   </mergeCells>
   <conditionalFormatting sqref="F58:F65">
     <cfRule type="containsText" dxfId="171" priority="279" operator="containsText" text="Ei tehdä">
@@ -26744,14 +26831,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="476" t="s">
+      <c r="A1" s="501" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="477"/>
-      <c r="C1" s="477"/>
-      <c r="D1" s="477"/>
-      <c r="E1" s="477"/>
-      <c r="F1" s="478"/>
+      <c r="B1" s="502"/>
+      <c r="C1" s="502"/>
+      <c r="D1" s="502"/>
+      <c r="E1" s="502"/>
+      <c r="F1" s="503"/>
       <c r="G1" s="56"/>
       <c r="H1" s="29"/>
     </row>
@@ -26765,11 +26852,11 @@
       <c r="C2" s="293" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="479" t="s">
+      <c r="D2" s="504" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="479"/>
-      <c r="F2" s="480"/>
+      <c r="E2" s="504"/>
+      <c r="F2" s="505"/>
       <c r="G2" s="62"/>
       <c r="H2" s="29"/>
     </row>
@@ -26782,9 +26869,9 @@
         <v>42.25</v>
       </c>
       <c r="C3" s="177"/>
-      <c r="D3" s="481"/>
-      <c r="E3" s="482"/>
-      <c r="F3" s="483"/>
+      <c r="D3" s="506"/>
+      <c r="E3" s="507"/>
+      <c r="F3" s="508"/>
       <c r="G3" s="56"/>
       <c r="H3" s="29"/>
     </row>
@@ -26797,9 +26884,9 @@
         <v>44.25</v>
       </c>
       <c r="C4" s="177"/>
-      <c r="D4" s="484"/>
-      <c r="E4" s="485"/>
-      <c r="F4" s="486"/>
+      <c r="D4" s="486"/>
+      <c r="E4" s="487"/>
+      <c r="F4" s="488"/>
       <c r="G4" s="56"/>
       <c r="H4" s="29"/>
     </row>
@@ -26807,9 +26894,9 @@
       <c r="A5" s="58"/>
       <c r="B5" s="87"/>
       <c r="C5" s="177"/>
-      <c r="D5" s="484"/>
-      <c r="E5" s="485"/>
-      <c r="F5" s="486"/>
+      <c r="D5" s="486"/>
+      <c r="E5" s="487"/>
+      <c r="F5" s="488"/>
       <c r="G5" s="56"/>
       <c r="H5" s="29"/>
     </row>
@@ -26817,9 +26904,9 @@
       <c r="A6" s="58"/>
       <c r="B6" s="87"/>
       <c r="C6" s="177"/>
-      <c r="D6" s="484"/>
-      <c r="E6" s="485"/>
-      <c r="F6" s="486"/>
+      <c r="D6" s="486"/>
+      <c r="E6" s="487"/>
+      <c r="F6" s="488"/>
       <c r="G6" s="56"/>
       <c r="H6" s="29"/>
     </row>
@@ -26827,9 +26914,9 @@
       <c r="A7" s="59"/>
       <c r="B7" s="87"/>
       <c r="C7" s="177"/>
-      <c r="D7" s="485"/>
-      <c r="E7" s="485"/>
-      <c r="F7" s="485"/>
+      <c r="D7" s="487"/>
+      <c r="E7" s="487"/>
+      <c r="F7" s="487"/>
       <c r="G7" s="51"/>
       <c r="H7" s="29"/>
     </row>
@@ -26844,81 +26931,81 @@
       <c r="H8" s="29"/>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="487" t="s">
+      <c r="A9" s="489" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="489">
+      <c r="B9" s="491">
         <f>SUM(B3:B8)</f>
         <v>86.5</v>
       </c>
-      <c r="C9" s="491" t="str">
+      <c r="C9" s="493" t="str">
         <f>IF((SUM(C3:C7)=0),"",SUM(C3:C7))</f>
         <v/>
       </c>
-      <c r="D9" s="493" t="s">
+      <c r="D9" s="495" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="495">
+      <c r="E9" s="497">
         <f>SUMIF($D$14:$D$103,"Daily scrum / Teams",$E$14:$E$103) / 2</f>
         <v>2.25</v>
       </c>
-      <c r="F9" s="497"/>
+      <c r="F9" s="499"/>
       <c r="G9" s="56"/>
       <c r="H9" s="29"/>
     </row>
     <row r="10" spans="1:8" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="488"/>
-      <c r="B10" s="490"/>
-      <c r="C10" s="492"/>
-      <c r="D10" s="494"/>
-      <c r="E10" s="496"/>
-      <c r="F10" s="498"/>
+      <c r="A10" s="490"/>
+      <c r="B10" s="492"/>
+      <c r="C10" s="494"/>
+      <c r="D10" s="496"/>
+      <c r="E10" s="498"/>
+      <c r="F10" s="500"/>
       <c r="G10" s="56"/>
       <c r="H10" s="29"/>
     </row>
     <row r="11" spans="1:8" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="499" t="s">
+      <c r="A11" s="475" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="500"/>
-      <c r="C11" s="501"/>
-      <c r="D11" s="500"/>
-      <c r="E11" s="502"/>
-      <c r="F11" s="503"/>
+      <c r="B11" s="476"/>
+      <c r="C11" s="477"/>
+      <c r="D11" s="476"/>
+      <c r="E11" s="478"/>
+      <c r="F11" s="479"/>
       <c r="G11" s="62"/>
       <c r="H11" s="29"/>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="504" t="s">
+      <c r="A12" s="480" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="505" t="s">
+      <c r="B12" s="481" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="506" t="s">
+      <c r="C12" s="482" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="507"/>
-      <c r="E12" s="508" t="s">
+      <c r="D12" s="483"/>
+      <c r="E12" s="484" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="509" t="s">
+      <c r="F12" s="485" t="s">
         <v>43</v>
       </c>
       <c r="G12" s="62"/>
       <c r="H12" s="29"/>
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="504"/>
-      <c r="B13" s="505"/>
+      <c r="A13" s="480"/>
+      <c r="B13" s="481"/>
       <c r="C13" s="183" t="s">
         <v>44</v>
       </c>
       <c r="D13" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="508"/>
-      <c r="F13" s="509"/>
+      <c r="E13" s="484"/>
+      <c r="F13" s="485"/>
       <c r="G13" s="62"/>
       <c r="H13" s="29"/>
     </row>
@@ -28234,12 +28321,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="A9:A10"/>
@@ -28248,11 +28334,12 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -28263,7 +28350,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEC951F4-6093-4F5B-82FF-EFC01780A0A4}">
   <dimension ref="A2:T56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
@@ -28284,15 +28371,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="447" t="s">
+      <c r="B2" s="462" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="448"/>
-      <c r="D2" s="449" t="s">
+      <c r="C2" s="463"/>
+      <c r="D2" s="464" t="s">
         <v>522</v>
       </c>
-      <c r="E2" s="450"/>
-      <c r="F2" s="451"/>
+      <c r="E2" s="465"/>
+      <c r="F2" s="466"/>
       <c r="K2" s="297"/>
       <c r="L2" s="297"/>
       <c r="M2" s="297"/>
@@ -28302,9 +28389,9 @@
     <row r="3" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="263"/>
       <c r="C3" s="265"/>
-      <c r="D3" s="452"/>
-      <c r="E3" s="453"/>
-      <c r="F3" s="454"/>
+      <c r="D3" s="467"/>
+      <c r="E3" s="468"/>
+      <c r="F3" s="469"/>
       <c r="K3" s="297"/>
       <c r="L3" s="297"/>
       <c r="M3" s="297"/>
@@ -28314,9 +28401,9 @@
     <row r="4" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="263"/>
       <c r="C4" s="265"/>
-      <c r="D4" s="452"/>
-      <c r="E4" s="453"/>
-      <c r="F4" s="454"/>
+      <c r="D4" s="467"/>
+      <c r="E4" s="468"/>
+      <c r="F4" s="469"/>
       <c r="K4" s="297"/>
       <c r="L4" s="297"/>
       <c r="M4" s="297"/>
@@ -28326,9 +28413,9 @@
     <row r="5" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="263"/>
       <c r="C5" s="265"/>
-      <c r="D5" s="452"/>
-      <c r="E5" s="453"/>
-      <c r="F5" s="454"/>
+      <c r="D5" s="467"/>
+      <c r="E5" s="468"/>
+      <c r="F5" s="469"/>
       <c r="K5" s="297"/>
       <c r="L5" s="297"/>
       <c r="M5" s="297"/>
@@ -28338,9 +28425,9 @@
     <row r="6" spans="1:20" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="264"/>
       <c r="C6" s="266"/>
-      <c r="D6" s="455"/>
-      <c r="E6" s="456"/>
-      <c r="F6" s="457"/>
+      <c r="D6" s="470"/>
+      <c r="E6" s="471"/>
+      <c r="F6" s="472"/>
       <c r="K6" s="297"/>
       <c r="L6" s="297"/>
       <c r="M6" s="297"/>
@@ -28384,14 +28471,14 @@
       <c r="D9" s="298" t="s">
         <v>86</v>
       </c>
-      <c r="E9" s="442" t="s">
+      <c r="E9" s="439" t="s">
         <v>87</v>
       </c>
-      <c r="F9" s="443"/>
-      <c r="G9" s="458" t="s">
+      <c r="F9" s="440"/>
+      <c r="G9" s="473" t="s">
         <v>88</v>
       </c>
-      <c r="H9" s="459"/>
+      <c r="H9" s="474"/>
       <c r="I9" s="298" t="s">
         <v>89</v>
       </c>
@@ -28417,12 +28504,12 @@
       <c r="D10" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="E10" s="514" t="s">
+      <c r="E10" s="509" t="s">
         <v>320</v>
       </c>
-      <c r="F10" s="514"/>
-      <c r="G10" s="471"/>
-      <c r="H10" s="471"/>
+      <c r="F10" s="509"/>
+      <c r="G10" s="449"/>
+      <c r="H10" s="449"/>
       <c r="I10" s="173">
         <v>2</v>
       </c>
@@ -28447,12 +28534,12 @@
       <c r="D11" s="26" t="s">
         <v>351</v>
       </c>
-      <c r="E11" s="472" t="s">
+      <c r="E11" s="450" t="s">
         <v>352</v>
       </c>
-      <c r="F11" s="472"/>
-      <c r="G11" s="471"/>
-      <c r="H11" s="471"/>
+      <c r="F11" s="450"/>
+      <c r="G11" s="449"/>
+      <c r="H11" s="449"/>
       <c r="I11" s="300">
         <v>2</v>
       </c>
@@ -28477,12 +28564,12 @@
       <c r="D12" s="26" t="s">
         <v>356</v>
       </c>
-      <c r="E12" s="472" t="s">
+      <c r="E12" s="450" t="s">
         <v>530</v>
       </c>
-      <c r="F12" s="472"/>
-      <c r="G12" s="471"/>
-      <c r="H12" s="471"/>
+      <c r="F12" s="450"/>
+      <c r="G12" s="449"/>
+      <c r="H12" s="449"/>
       <c r="I12" s="300">
         <v>5</v>
       </c>
@@ -28508,10 +28595,10 @@
       <c r="D13" s="272" t="s">
         <v>356</v>
       </c>
-      <c r="E13" s="461" t="s">
+      <c r="E13" s="460" t="s">
         <v>350</v>
       </c>
-      <c r="F13" s="461"/>
+      <c r="F13" s="460"/>
       <c r="G13" s="22"/>
       <c r="H13" s="22"/>
       <c r="I13" s="297"/>
@@ -28529,11 +28616,11 @@
     </row>
     <row r="14" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="71"/>
-      <c r="C14" s="511" t="s">
+      <c r="C14" s="510" t="s">
         <v>92</v>
       </c>
-      <c r="D14" s="512"/>
-      <c r="E14" s="513"/>
+      <c r="D14" s="511"/>
+      <c r="E14" s="512"/>
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
       <c r="H14" s="178" t="s">
@@ -28587,10 +28674,10 @@
       <c r="C16" s="299" t="s">
         <v>95</v>
       </c>
-      <c r="D16" s="469" t="s">
+      <c r="D16" s="458" t="s">
         <v>96</v>
       </c>
-      <c r="E16" s="470"/>
+      <c r="E16" s="459"/>
       <c r="F16" s="172" t="s">
         <v>97</v>
       </c>
@@ -28639,10 +28726,10 @@
         <v>419</v>
       </c>
       <c r="C17" s="296"/>
-      <c r="D17" s="514" t="s">
+      <c r="D17" s="509" t="s">
         <v>520</v>
       </c>
-      <c r="E17" s="514"/>
+      <c r="E17" s="509"/>
       <c r="F17" s="361" t="s">
         <v>111</v>
       </c>
@@ -28688,10 +28775,10 @@
         <v>531</v>
       </c>
       <c r="C18" s="296"/>
-      <c r="D18" s="472" t="s">
+      <c r="D18" s="450" t="s">
         <v>521</v>
       </c>
-      <c r="E18" s="472"/>
+      <c r="E18" s="450"/>
       <c r="F18" s="361" t="s">
         <v>111</v>
       </c>
@@ -28737,10 +28824,10 @@
         <v>362</v>
       </c>
       <c r="C19" s="296"/>
-      <c r="D19" s="472" t="s">
+      <c r="D19" s="450" t="s">
         <v>115</v>
       </c>
-      <c r="E19" s="472"/>
+      <c r="E19" s="450"/>
       <c r="F19" s="361" t="s">
         <v>111</v>
       </c>
@@ -28786,10 +28873,10 @@
         <v>489</v>
       </c>
       <c r="C20" s="296"/>
-      <c r="D20" s="472" t="s">
+      <c r="D20" s="450" t="s">
         <v>523</v>
       </c>
-      <c r="E20" s="472"/>
+      <c r="E20" s="450"/>
       <c r="F20" s="361" t="s">
         <v>111</v>
       </c>
@@ -28835,10 +28922,10 @@
         <v>495</v>
       </c>
       <c r="C21" s="296"/>
-      <c r="D21" s="472" t="s">
+      <c r="D21" s="450" t="s">
         <v>524</v>
       </c>
-      <c r="E21" s="472"/>
+      <c r="E21" s="450"/>
       <c r="F21" s="296" t="s">
         <v>111</v>
       </c>
@@ -28884,10 +28971,10 @@
         <v>491</v>
       </c>
       <c r="C22" s="296"/>
-      <c r="D22" s="472" t="s">
+      <c r="D22" s="450" t="s">
         <v>525</v>
       </c>
-      <c r="E22" s="472"/>
+      <c r="E22" s="450"/>
       <c r="F22" s="361" t="s">
         <v>111</v>
       </c>
@@ -28931,10 +29018,10 @@
         <v>494</v>
       </c>
       <c r="C23" s="296"/>
-      <c r="D23" s="510" t="s">
+      <c r="D23" s="513" t="s">
         <v>526</v>
       </c>
-      <c r="E23" s="510"/>
+      <c r="E23" s="513"/>
       <c r="F23" s="361" t="s">
         <v>111</v>
       </c>
@@ -28978,10 +29065,10 @@
         <v>452</v>
       </c>
       <c r="C24" s="296"/>
-      <c r="D24" s="510" t="s">
+      <c r="D24" s="513" t="s">
         <v>527</v>
       </c>
-      <c r="E24" s="510"/>
+      <c r="E24" s="513"/>
       <c r="F24" s="361" t="s">
         <v>111</v>
       </c>
@@ -29025,10 +29112,10 @@
         <v>493</v>
       </c>
       <c r="C25" s="296"/>
-      <c r="D25" s="472" t="s">
+      <c r="D25" s="450" t="s">
         <v>528</v>
       </c>
-      <c r="E25" s="472"/>
+      <c r="E25" s="450"/>
       <c r="F25" s="361" t="s">
         <v>111</v>
       </c>
@@ -29074,10 +29161,10 @@
         <v>493</v>
       </c>
       <c r="C26" s="296"/>
-      <c r="D26" s="433" t="s">
+      <c r="D26" s="434" t="s">
         <v>529</v>
       </c>
-      <c r="E26" s="433"/>
+      <c r="E26" s="434"/>
       <c r="F26" s="361" t="s">
         <v>111</v>
       </c>
@@ -29121,8 +29208,8 @@
     <row r="27" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="27"/>
       <c r="C27" s="296"/>
-      <c r="D27" s="433"/>
-      <c r="E27" s="433"/>
+      <c r="D27" s="434"/>
+      <c r="E27" s="434"/>
       <c r="F27" s="296"/>
       <c r="G27" s="296"/>
       <c r="H27" s="296"/>
@@ -29142,8 +29229,8 @@
     <row r="28" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="27"/>
       <c r="C28" s="296"/>
-      <c r="D28" s="433"/>
-      <c r="E28" s="433"/>
+      <c r="D28" s="434"/>
+      <c r="E28" s="434"/>
       <c r="F28" s="296"/>
       <c r="G28" s="296"/>
       <c r="H28" s="296"/>
@@ -29163,8 +29250,8 @@
     <row r="29" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="27"/>
       <c r="C29" s="296"/>
-      <c r="D29" s="433"/>
-      <c r="E29" s="433"/>
+      <c r="D29" s="434"/>
+      <c r="E29" s="434"/>
       <c r="F29" s="296"/>
       <c r="G29" s="296"/>
       <c r="H29" s="296"/>
@@ -29184,8 +29271,8 @@
     <row r="30" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="27"/>
       <c r="C30" s="296"/>
-      <c r="D30" s="433"/>
-      <c r="E30" s="433"/>
+      <c r="D30" s="434"/>
+      <c r="E30" s="434"/>
       <c r="F30" s="296"/>
       <c r="G30" s="296"/>
       <c r="H30" s="296"/>
@@ -29205,8 +29292,8 @@
     <row r="31" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="27"/>
       <c r="C31" s="296"/>
-      <c r="D31" s="433"/>
-      <c r="E31" s="433"/>
+      <c r="D31" s="434"/>
+      <c r="E31" s="434"/>
       <c r="F31" s="296"/>
       <c r="G31" s="296"/>
       <c r="H31" s="296"/>
@@ -29226,8 +29313,8 @@
     <row r="32" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="27"/>
       <c r="C32" s="296"/>
-      <c r="D32" s="433"/>
-      <c r="E32" s="433"/>
+      <c r="D32" s="434"/>
+      <c r="E32" s="434"/>
       <c r="F32" s="296"/>
       <c r="G32" s="296"/>
       <c r="H32" s="296"/>
@@ -29247,8 +29334,8 @@
     <row r="33" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" s="27"/>
       <c r="C33" s="296"/>
-      <c r="D33" s="433"/>
-      <c r="E33" s="433"/>
+      <c r="D33" s="434"/>
+      <c r="E33" s="434"/>
       <c r="F33" s="296"/>
       <c r="G33" s="296"/>
       <c r="H33" s="296"/>
@@ -29268,8 +29355,8 @@
     <row r="34" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="27"/>
       <c r="C34" s="296"/>
-      <c r="D34" s="433"/>
-      <c r="E34" s="433"/>
+      <c r="D34" s="434"/>
+      <c r="E34" s="434"/>
       <c r="F34" s="296"/>
       <c r="G34" s="296"/>
       <c r="H34" s="296"/>
@@ -29289,8 +29376,8 @@
     <row r="35" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="27"/>
       <c r="C35" s="296"/>
-      <c r="D35" s="433"/>
-      <c r="E35" s="433"/>
+      <c r="D35" s="434"/>
+      <c r="E35" s="434"/>
       <c r="F35" s="296"/>
       <c r="G35" s="296"/>
       <c r="H35" s="296"/>
@@ -29310,8 +29397,8 @@
     <row r="36" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="28"/>
       <c r="C36" s="296"/>
-      <c r="D36" s="433"/>
-      <c r="E36" s="433"/>
+      <c r="D36" s="434"/>
+      <c r="E36" s="434"/>
       <c r="F36" s="296"/>
       <c r="G36" s="296"/>
       <c r="H36" s="296"/>
@@ -29331,8 +29418,8 @@
     <row r="37" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="28"/>
       <c r="C37" s="296"/>
-      <c r="D37" s="437"/>
-      <c r="E37" s="437"/>
+      <c r="D37" s="438"/>
+      <c r="E37" s="438"/>
       <c r="F37" s="296"/>
       <c r="G37" s="296"/>
       <c r="H37" s="296"/>
@@ -29352,8 +29439,8 @@
     <row r="38" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="28"/>
       <c r="C38" s="296"/>
-      <c r="D38" s="437"/>
-      <c r="E38" s="437"/>
+      <c r="D38" s="438"/>
+      <c r="E38" s="438"/>
       <c r="F38" s="296"/>
       <c r="G38" s="296"/>
       <c r="H38" s="296"/>
@@ -29373,8 +29460,8 @@
     <row r="39" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="28"/>
       <c r="C39" s="296"/>
-      <c r="D39" s="437"/>
-      <c r="E39" s="437"/>
+      <c r="D39" s="438"/>
+      <c r="E39" s="438"/>
       <c r="F39" s="296"/>
       <c r="G39" s="296"/>
       <c r="H39" s="296"/>
@@ -29394,8 +29481,8 @@
     <row r="40" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="28"/>
       <c r="C40" s="296"/>
-      <c r="D40" s="437"/>
-      <c r="E40" s="437"/>
+      <c r="D40" s="438"/>
+      <c r="E40" s="438"/>
       <c r="F40" s="296"/>
       <c r="G40" s="296"/>
       <c r="H40" s="296"/>
@@ -29415,8 +29502,8 @@
     <row r="41" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="28"/>
       <c r="C41" s="296"/>
-      <c r="D41" s="437"/>
-      <c r="E41" s="437"/>
+      <c r="D41" s="438"/>
+      <c r="E41" s="438"/>
       <c r="F41" s="296"/>
       <c r="G41" s="296"/>
       <c r="H41" s="296"/>
@@ -29436,8 +29523,8 @@
     <row r="42" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="28"/>
       <c r="C42" s="296"/>
-      <c r="D42" s="437"/>
-      <c r="E42" s="437"/>
+      <c r="D42" s="438"/>
+      <c r="E42" s="438"/>
       <c r="F42" s="296"/>
       <c r="G42" s="296"/>
       <c r="H42" s="296"/>
@@ -29457,8 +29544,8 @@
     <row r="43" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="28"/>
       <c r="C43" s="296"/>
-      <c r="D43" s="437"/>
-      <c r="E43" s="437"/>
+      <c r="D43" s="438"/>
+      <c r="E43" s="438"/>
       <c r="F43" s="296"/>
       <c r="G43" s="296"/>
       <c r="H43" s="296"/>
@@ -29478,8 +29565,8 @@
     <row r="44" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="296"/>
       <c r="C44" s="296"/>
-      <c r="D44" s="437"/>
-      <c r="E44" s="437"/>
+      <c r="D44" s="438"/>
+      <c r="E44" s="438"/>
       <c r="F44" s="296"/>
       <c r="G44" s="296"/>
       <c r="H44" s="296"/>
@@ -29499,8 +29586,8 @@
     <row r="45" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="296"/>
       <c r="C45" s="296"/>
-      <c r="D45" s="437"/>
-      <c r="E45" s="437"/>
+      <c r="D45" s="438"/>
+      <c r="E45" s="438"/>
       <c r="F45" s="296"/>
       <c r="G45" s="296"/>
       <c r="H45" s="296"/>
@@ -29520,8 +29607,8 @@
     <row r="46" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="296"/>
       <c r="C46" s="296"/>
-      <c r="D46" s="437"/>
-      <c r="E46" s="437"/>
+      <c r="D46" s="438"/>
+      <c r="E46" s="438"/>
       <c r="F46" s="296"/>
       <c r="G46" s="296"/>
       <c r="H46" s="296"/>
@@ -29541,8 +29628,8 @@
     <row r="47" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="296"/>
       <c r="C47" s="296"/>
-      <c r="D47" s="437"/>
-      <c r="E47" s="437"/>
+      <c r="D47" s="438"/>
+      <c r="E47" s="438"/>
       <c r="F47" s="296"/>
       <c r="G47" s="296"/>
       <c r="H47" s="296"/>
@@ -29573,43 +29660,43 @@
         <v>18</v>
       </c>
       <c r="J48" s="300">
-        <f>SUM(J17:J47)</f>
+        <f t="shared" ref="J48:S48" si="0">SUM(J17:J47)</f>
         <v>52</v>
       </c>
       <c r="K48" s="300">
-        <f>SUM(K17:K47)</f>
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="L48" s="300">
-        <f>SUM(L17:L47)</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="M48" s="300">
-        <f>SUM(M17:M47)</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="N48" s="300">
-        <f>SUM(N17:N47)</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="O48" s="300">
-        <f>SUM(O17:O47)</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="P48" s="300">
-        <f>SUM(P17:P47)</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="Q48" s="300">
-        <f>SUM(Q17:Q47)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="R48" s="300">
-        <f>SUM(R17:R47)</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="S48" s="300">
-        <f>SUM(S17:S47)</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="T48" s="300"/>
@@ -29634,35 +29721,35 @@
         <v>46.222222222222221</v>
       </c>
       <c r="L49" s="262">
-        <f t="shared" ref="L49:S49" si="0">+K49-($J$49/9)</f>
+        <f t="shared" ref="L49:S49" si="1">+K49-($J$49/9)</f>
         <v>40.444444444444443</v>
       </c>
       <c r="M49" s="262">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34.666666666666664</v>
       </c>
       <c r="N49" s="262">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28.888888888888886</v>
       </c>
       <c r="O49" s="262">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23.111111111111107</v>
       </c>
       <c r="P49" s="262">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17.333333333333329</v>
       </c>
       <c r="Q49" s="262">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.55555555555555</v>
       </c>
       <c r="R49" s="262">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.7777777777777724</v>
       </c>
       <c r="S49" s="262">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T49" s="271"/>
@@ -29777,27 +29864,15 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:F6"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D38:E38"/>
@@ -29812,15 +29887,27 @@
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:F6"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
   </mergeCells>
   <conditionalFormatting sqref="F17:F47">
     <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Ei tehdä">
@@ -29862,14 +29949,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="476" t="s">
+      <c r="A1" s="501" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="477"/>
-      <c r="C1" s="477"/>
-      <c r="D1" s="477"/>
-      <c r="E1" s="477"/>
-      <c r="F1" s="478"/>
+      <c r="B1" s="502"/>
+      <c r="C1" s="502"/>
+      <c r="D1" s="502"/>
+      <c r="E1" s="502"/>
+      <c r="F1" s="503"/>
       <c r="G1" s="56"/>
       <c r="H1" s="29"/>
     </row>
@@ -29883,11 +29970,11 @@
       <c r="C2" s="293" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="479" t="s">
+      <c r="D2" s="504" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="479"/>
-      <c r="F2" s="480"/>
+      <c r="E2" s="504"/>
+      <c r="F2" s="505"/>
       <c r="G2" s="62"/>
       <c r="H2" s="29"/>
     </row>
@@ -29900,9 +29987,9 @@
         <v>0</v>
       </c>
       <c r="C3" s="177"/>
-      <c r="D3" s="481"/>
-      <c r="E3" s="482"/>
-      <c r="F3" s="483"/>
+      <c r="D3" s="506"/>
+      <c r="E3" s="507"/>
+      <c r="F3" s="508"/>
       <c r="G3" s="56"/>
       <c r="H3" s="29"/>
     </row>
@@ -29915,9 +30002,9 @@
         <v>0</v>
       </c>
       <c r="C4" s="177"/>
-      <c r="D4" s="484"/>
-      <c r="E4" s="485"/>
-      <c r="F4" s="486"/>
+      <c r="D4" s="486"/>
+      <c r="E4" s="487"/>
+      <c r="F4" s="488"/>
       <c r="G4" s="56"/>
       <c r="H4" s="29"/>
     </row>
@@ -29925,9 +30012,9 @@
       <c r="A5" s="274"/>
       <c r="B5" s="87"/>
       <c r="C5" s="177"/>
-      <c r="D5" s="484"/>
-      <c r="E5" s="485"/>
-      <c r="F5" s="486"/>
+      <c r="D5" s="486"/>
+      <c r="E5" s="487"/>
+      <c r="F5" s="488"/>
       <c r="G5" s="56"/>
       <c r="H5" s="29"/>
     </row>
@@ -29935,9 +30022,9 @@
       <c r="A6" s="274"/>
       <c r="B6" s="87"/>
       <c r="C6" s="177"/>
-      <c r="D6" s="484"/>
-      <c r="E6" s="485"/>
-      <c r="F6" s="486"/>
+      <c r="D6" s="486"/>
+      <c r="E6" s="487"/>
+      <c r="F6" s="488"/>
       <c r="G6" s="56"/>
       <c r="H6" s="29"/>
     </row>
@@ -29945,9 +30032,9 @@
       <c r="A7" s="275"/>
       <c r="B7" s="87"/>
       <c r="C7" s="177"/>
-      <c r="D7" s="485"/>
-      <c r="E7" s="485"/>
-      <c r="F7" s="485"/>
+      <c r="D7" s="487"/>
+      <c r="E7" s="487"/>
+      <c r="F7" s="487"/>
       <c r="G7" s="51"/>
       <c r="H7" s="29"/>
     </row>
@@ -29962,80 +30049,80 @@
       <c r="H8" s="29"/>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="517" t="s">
+      <c r="A9" s="514" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="489">
+      <c r="B9" s="491">
         <f>SUM(B3:B8)</f>
         <v>0</v>
       </c>
-      <c r="C9" s="491" t="str">
+      <c r="C9" s="493" t="str">
         <f>IF((SUM(C3:C7)=0),"",SUM(C3:C7))</f>
         <v/>
       </c>
-      <c r="D9" s="493" t="s">
+      <c r="D9" s="495" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="519">
+      <c r="E9" s="516">
         <v>4</v>
       </c>
-      <c r="F9" s="497"/>
+      <c r="F9" s="499"/>
       <c r="G9" s="56"/>
       <c r="H9" s="29"/>
     </row>
     <row r="10" spans="1:8" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="518"/>
-      <c r="B10" s="490"/>
-      <c r="C10" s="492"/>
-      <c r="D10" s="494"/>
-      <c r="E10" s="520"/>
-      <c r="F10" s="498"/>
+      <c r="A10" s="515"/>
+      <c r="B10" s="492"/>
+      <c r="C10" s="494"/>
+      <c r="D10" s="496"/>
+      <c r="E10" s="517"/>
+      <c r="F10" s="500"/>
       <c r="G10" s="56"/>
       <c r="H10" s="29"/>
     </row>
     <row r="11" spans="1:8" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="499" t="s">
+      <c r="A11" s="475" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="500"/>
-      <c r="C11" s="501"/>
-      <c r="D11" s="500"/>
-      <c r="E11" s="502"/>
-      <c r="F11" s="503"/>
+      <c r="B11" s="476"/>
+      <c r="C11" s="477"/>
+      <c r="D11" s="476"/>
+      <c r="E11" s="478"/>
+      <c r="F11" s="479"/>
       <c r="G11" s="62"/>
       <c r="H11" s="29"/>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="515" t="s">
+      <c r="A12" s="518" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="505" t="s">
+      <c r="B12" s="481" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="506" t="s">
+      <c r="C12" s="482" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="507"/>
-      <c r="E12" s="516" t="s">
+      <c r="D12" s="483"/>
+      <c r="E12" s="519" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="509" t="s">
+      <c r="F12" s="485" t="s">
         <v>43</v>
       </c>
       <c r="G12" s="62"/>
       <c r="H12" s="29"/>
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="515"/>
-      <c r="B13" s="505"/>
+      <c r="A13" s="518"/>
+      <c r="B13" s="481"/>
       <c r="C13" s="183" t="s">
         <v>44</v>
       </c>
       <c r="D13" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="516"/>
-      <c r="F13" s="509"/>
+      <c r="E13" s="519"/>
+      <c r="F13" s="485"/>
       <c r="G13" s="62"/>
       <c r="H13" s="29"/>
     </row>
@@ -30718,12 +30805,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
@@ -30731,12 +30818,12 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -30767,15 +30854,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="447" t="s">
+      <c r="B2" s="462" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="448"/>
-      <c r="D2" s="449" t="s">
+      <c r="C2" s="463"/>
+      <c r="D2" s="464" t="s">
         <v>132</v>
       </c>
-      <c r="E2" s="450"/>
-      <c r="F2" s="451"/>
+      <c r="E2" s="465"/>
+      <c r="F2" s="466"/>
       <c r="K2" s="297"/>
       <c r="L2" s="297"/>
       <c r="M2" s="297"/>
@@ -30785,9 +30872,9 @@
     <row r="3" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="263"/>
       <c r="C3" s="265"/>
-      <c r="D3" s="452"/>
-      <c r="E3" s="453"/>
-      <c r="F3" s="454"/>
+      <c r="D3" s="467"/>
+      <c r="E3" s="468"/>
+      <c r="F3" s="469"/>
       <c r="K3" s="297"/>
       <c r="L3" s="297"/>
       <c r="M3" s="297"/>
@@ -30797,9 +30884,9 @@
     <row r="4" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="263"/>
       <c r="C4" s="265"/>
-      <c r="D4" s="452"/>
-      <c r="E4" s="453"/>
-      <c r="F4" s="454"/>
+      <c r="D4" s="467"/>
+      <c r="E4" s="468"/>
+      <c r="F4" s="469"/>
       <c r="K4" s="297"/>
       <c r="L4" s="297"/>
       <c r="M4" s="297"/>
@@ -30809,9 +30896,9 @@
     <row r="5" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="263"/>
       <c r="C5" s="265"/>
-      <c r="D5" s="452"/>
-      <c r="E5" s="453"/>
-      <c r="F5" s="454"/>
+      <c r="D5" s="467"/>
+      <c r="E5" s="468"/>
+      <c r="F5" s="469"/>
       <c r="K5" s="297"/>
       <c r="L5" s="297"/>
       <c r="M5" s="297"/>
@@ -30821,9 +30908,9 @@
     <row r="6" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="264"/>
       <c r="C6" s="266"/>
-      <c r="D6" s="455"/>
-      <c r="E6" s="456"/>
-      <c r="F6" s="457"/>
+      <c r="D6" s="470"/>
+      <c r="E6" s="471"/>
+      <c r="F6" s="472"/>
       <c r="K6" s="297"/>
       <c r="L6" s="297"/>
       <c r="M6" s="297"/>
@@ -30867,14 +30954,14 @@
       <c r="D9" s="298" t="s">
         <v>86</v>
       </c>
-      <c r="E9" s="442" t="s">
+      <c r="E9" s="439" t="s">
         <v>87</v>
       </c>
-      <c r="F9" s="443"/>
-      <c r="G9" s="458" t="s">
+      <c r="F9" s="440"/>
+      <c r="G9" s="473" t="s">
         <v>88</v>
       </c>
-      <c r="H9" s="459"/>
+      <c r="H9" s="474"/>
       <c r="I9" s="298" t="s">
         <v>89</v>
       </c>
@@ -30900,12 +30987,12 @@
       <c r="D10" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E10" s="472" t="s">
+      <c r="E10" s="450" t="s">
         <v>133</v>
       </c>
-      <c r="F10" s="472"/>
-      <c r="G10" s="471"/>
-      <c r="H10" s="471"/>
+      <c r="F10" s="450"/>
+      <c r="G10" s="449"/>
+      <c r="H10" s="449"/>
       <c r="I10" s="173">
         <v>3</v>
       </c>
@@ -30930,12 +31017,12 @@
       <c r="D11" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E11" s="472" t="s">
+      <c r="E11" s="450" t="s">
         <v>134</v>
       </c>
-      <c r="F11" s="472"/>
-      <c r="G11" s="471"/>
-      <c r="H11" s="471"/>
+      <c r="F11" s="450"/>
+      <c r="G11" s="449"/>
+      <c r="H11" s="449"/>
       <c r="I11" s="300">
         <v>3</v>
       </c>
@@ -30960,12 +31047,12 @@
       <c r="D12" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E12" s="472" t="s">
+      <c r="E12" s="450" t="s">
         <v>135</v>
       </c>
-      <c r="F12" s="472"/>
-      <c r="G12" s="471"/>
-      <c r="H12" s="471"/>
+      <c r="F12" s="450"/>
+      <c r="G12" s="449"/>
+      <c r="H12" s="449"/>
       <c r="I12" s="300">
         <v>40</v>
       </c>
@@ -30990,12 +31077,12 @@
       <c r="D13" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E13" s="472" t="s">
+      <c r="E13" s="450" t="s">
         <v>136</v>
       </c>
-      <c r="F13" s="472"/>
-      <c r="G13" s="471"/>
-      <c r="H13" s="471"/>
+      <c r="F13" s="450"/>
+      <c r="G13" s="449"/>
+      <c r="H13" s="449"/>
       <c r="I13" s="300">
         <v>3</v>
       </c>
@@ -31020,12 +31107,12 @@
       <c r="D14" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E14" s="472" t="s">
+      <c r="E14" s="450" t="s">
         <v>137</v>
       </c>
-      <c r="F14" s="472"/>
-      <c r="G14" s="471"/>
-      <c r="H14" s="471"/>
+      <c r="F14" s="450"/>
+      <c r="G14" s="449"/>
+      <c r="H14" s="449"/>
       <c r="I14" s="300">
         <v>27</v>
       </c>
@@ -31050,12 +31137,12 @@
       <c r="D15" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E15" s="472" t="s">
+      <c r="E15" s="450" t="s">
         <v>138</v>
       </c>
-      <c r="F15" s="472"/>
-      <c r="G15" s="471"/>
-      <c r="H15" s="471"/>
+      <c r="F15" s="450"/>
+      <c r="G15" s="449"/>
+      <c r="H15" s="449"/>
       <c r="I15" s="300">
         <v>7</v>
       </c>
@@ -31074,10 +31161,10 @@
       <c r="T15" s="296"/>
     </row>
     <row r="16" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E16" s="472"/>
-      <c r="F16" s="472"/>
-      <c r="G16" s="471"/>
-      <c r="H16" s="471"/>
+      <c r="E16" s="450"/>
+      <c r="F16" s="450"/>
+      <c r="G16" s="449"/>
+      <c r="H16" s="449"/>
       <c r="I16" s="23"/>
       <c r="J16" s="180"/>
       <c r="K16" s="300"/>
@@ -31094,8 +31181,8 @@
     <row r="17" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="71"/>
       <c r="D17" s="71"/>
-      <c r="E17" s="461"/>
-      <c r="F17" s="461"/>
+      <c r="E17" s="460"/>
+      <c r="F17" s="460"/>
       <c r="G17" s="22"/>
       <c r="H17" s="22"/>
       <c r="I17" s="297"/>
@@ -31113,11 +31200,11 @@
     </row>
     <row r="18" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="72"/>
-      <c r="C18" s="466" t="s">
+      <c r="C18" s="455" t="s">
         <v>92</v>
       </c>
-      <c r="D18" s="467"/>
-      <c r="E18" s="468"/>
+      <c r="D18" s="456"/>
+      <c r="E18" s="457"/>
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
       <c r="H18" s="178" t="s">
@@ -31171,10 +31258,10 @@
       <c r="C20" s="299" t="s">
         <v>95</v>
       </c>
-      <c r="D20" s="469" t="s">
+      <c r="D20" s="458" t="s">
         <v>96</v>
       </c>
-      <c r="E20" s="470"/>
+      <c r="E20" s="459"/>
       <c r="F20" s="172" t="s">
         <v>97</v>
       </c>
@@ -31226,10 +31313,10 @@
         <v>129</v>
       </c>
       <c r="C21" s="296"/>
-      <c r="D21" s="433" t="s">
+      <c r="D21" s="434" t="s">
         <v>130</v>
       </c>
-      <c r="E21" s="433"/>
+      <c r="E21" s="434"/>
       <c r="F21" s="296" t="s">
         <v>105</v>
       </c>
@@ -31275,10 +31362,10 @@
         <v>149</v>
       </c>
       <c r="C22" s="296"/>
-      <c r="D22" s="433" t="s">
+      <c r="D22" s="434" t="s">
         <v>150</v>
       </c>
-      <c r="E22" s="433"/>
+      <c r="E22" s="434"/>
       <c r="F22" s="296" t="s">
         <v>105</v>
       </c>
@@ -31326,10 +31413,10 @@
         <v>152</v>
       </c>
       <c r="C23" s="296"/>
-      <c r="D23" s="433" t="s">
+      <c r="D23" s="434" t="s">
         <v>153</v>
       </c>
-      <c r="E23" s="433"/>
+      <c r="E23" s="434"/>
       <c r="F23" s="296" t="s">
         <v>105</v>
       </c>
@@ -31377,10 +31464,10 @@
         <v>154</v>
       </c>
       <c r="C24" s="296"/>
-      <c r="D24" s="433" t="s">
+      <c r="D24" s="434" t="s">
         <v>155</v>
       </c>
-      <c r="E24" s="433"/>
+      <c r="E24" s="434"/>
       <c r="F24" s="296" t="s">
         <v>105</v>
       </c>
@@ -31428,10 +31515,10 @@
         <v>156</v>
       </c>
       <c r="C25" s="296"/>
-      <c r="D25" s="433" t="s">
+      <c r="D25" s="434" t="s">
         <v>157</v>
       </c>
-      <c r="E25" s="433"/>
+      <c r="E25" s="434"/>
       <c r="F25" s="296" t="s">
         <v>105</v>
       </c>
@@ -31479,10 +31566,10 @@
         <v>158</v>
       </c>
       <c r="C26" s="296"/>
-      <c r="D26" s="433" t="s">
+      <c r="D26" s="434" t="s">
         <v>66</v>
       </c>
-      <c r="E26" s="433"/>
+      <c r="E26" s="434"/>
       <c r="F26" s="296" t="s">
         <v>105</v>
       </c>
@@ -31530,10 +31617,10 @@
         <v>159</v>
       </c>
       <c r="C27" s="296"/>
-      <c r="D27" s="433" t="s">
+      <c r="D27" s="434" t="s">
         <v>160</v>
       </c>
-      <c r="E27" s="433"/>
+      <c r="E27" s="434"/>
       <c r="F27" s="296" t="s">
         <v>105</v>
       </c>
@@ -31581,10 +31668,10 @@
         <v>161</v>
       </c>
       <c r="C28" s="296"/>
-      <c r="D28" s="433" t="s">
+      <c r="D28" s="434" t="s">
         <v>135</v>
       </c>
-      <c r="E28" s="433"/>
+      <c r="E28" s="434"/>
       <c r="F28" s="296" t="s">
         <v>105</v>
       </c>
@@ -31632,10 +31719,10 @@
         <v>163</v>
       </c>
       <c r="C29" s="296"/>
-      <c r="D29" s="437" t="s">
+      <c r="D29" s="438" t="s">
         <v>164</v>
       </c>
-      <c r="E29" s="437"/>
+      <c r="E29" s="438"/>
       <c r="F29" s="296" t="s">
         <v>105</v>
       </c>
@@ -31681,8 +31768,8 @@
     <row r="30" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="28"/>
       <c r="C30" s="296"/>
-      <c r="D30" s="437"/>
-      <c r="E30" s="437"/>
+      <c r="D30" s="438"/>
+      <c r="E30" s="438"/>
       <c r="F30" s="296"/>
       <c r="G30" s="296"/>
       <c r="H30" s="296"/>
@@ -31702,8 +31789,8 @@
     <row r="31" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="28"/>
       <c r="C31" s="296"/>
-      <c r="D31" s="437"/>
-      <c r="E31" s="437"/>
+      <c r="D31" s="438"/>
+      <c r="E31" s="438"/>
       <c r="F31" s="296"/>
       <c r="G31" s="296"/>
       <c r="H31" s="296"/>
@@ -31723,8 +31810,8 @@
     <row r="32" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="296"/>
       <c r="C32" s="296"/>
-      <c r="D32" s="437"/>
-      <c r="E32" s="437"/>
+      <c r="D32" s="438"/>
+      <c r="E32" s="438"/>
       <c r="F32" s="296"/>
       <c r="G32" s="296"/>
       <c r="H32" s="296"/>
@@ -31744,8 +31831,8 @@
     <row r="33" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="296"/>
       <c r="C33" s="296"/>
-      <c r="D33" s="437"/>
-      <c r="E33" s="437"/>
+      <c r="D33" s="438"/>
+      <c r="E33" s="438"/>
       <c r="F33" s="296"/>
       <c r="G33" s="296"/>
       <c r="H33" s="296"/>
@@ -31765,8 +31852,8 @@
     <row r="34" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="296"/>
       <c r="C34" s="296"/>
-      <c r="D34" s="437"/>
-      <c r="E34" s="437"/>
+      <c r="D34" s="438"/>
+      <c r="E34" s="438"/>
       <c r="F34" s="296"/>
       <c r="G34" s="296"/>
       <c r="H34" s="296"/>
@@ -31786,8 +31873,8 @@
     <row r="35" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="296"/>
       <c r="C35" s="296"/>
-      <c r="D35" s="437"/>
-      <c r="E35" s="437"/>
+      <c r="D35" s="438"/>
+      <c r="E35" s="438"/>
       <c r="F35" s="296"/>
       <c r="G35" s="296"/>
       <c r="H35" s="296"/>
@@ -32088,28 +32175,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:F6"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="D34:E34"/>
@@ -32124,6 +32189,28 @@
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:F6"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
   </mergeCells>
   <conditionalFormatting sqref="F21:F35">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Ei tehdä">
@@ -32164,14 +32251,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="476" t="s">
+      <c r="A1" s="501" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="477"/>
-      <c r="C1" s="477"/>
-      <c r="D1" s="477"/>
-      <c r="E1" s="477"/>
-      <c r="F1" s="478"/>
+      <c r="B1" s="502"/>
+      <c r="C1" s="502"/>
+      <c r="D1" s="502"/>
+      <c r="E1" s="502"/>
+      <c r="F1" s="503"/>
       <c r="G1" s="56"/>
       <c r="H1" s="29"/>
     </row>
@@ -32185,11 +32272,11 @@
       <c r="C2" s="293" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="479" t="s">
+      <c r="D2" s="504" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="479"/>
-      <c r="F2" s="480"/>
+      <c r="E2" s="504"/>
+      <c r="F2" s="505"/>
       <c r="G2" s="62"/>
       <c r="H2" s="29"/>
     </row>
@@ -32202,9 +32289,9 @@
         <v>28</v>
       </c>
       <c r="C3" s="177"/>
-      <c r="D3" s="481"/>
-      <c r="E3" s="482"/>
-      <c r="F3" s="483"/>
+      <c r="D3" s="506"/>
+      <c r="E3" s="507"/>
+      <c r="F3" s="508"/>
       <c r="G3" s="56"/>
       <c r="H3" s="29"/>
     </row>
@@ -32217,9 +32304,9 @@
         <v>40.5</v>
       </c>
       <c r="C4" s="177"/>
-      <c r="D4" s="484"/>
-      <c r="E4" s="485"/>
-      <c r="F4" s="486"/>
+      <c r="D4" s="486"/>
+      <c r="E4" s="487"/>
+      <c r="F4" s="488"/>
       <c r="G4" s="56"/>
       <c r="H4" s="29"/>
     </row>
@@ -32232,9 +32319,9 @@
         <v>21.5</v>
       </c>
       <c r="C5" s="177"/>
-      <c r="D5" s="484"/>
-      <c r="E5" s="485"/>
-      <c r="F5" s="486"/>
+      <c r="D5" s="486"/>
+      <c r="E5" s="487"/>
+      <c r="F5" s="488"/>
       <c r="G5" s="56"/>
       <c r="H5" s="29"/>
     </row>
@@ -32247,9 +32334,9 @@
         <v>46</v>
       </c>
       <c r="C6" s="177"/>
-      <c r="D6" s="484"/>
-      <c r="E6" s="485"/>
-      <c r="F6" s="486"/>
+      <c r="D6" s="486"/>
+      <c r="E6" s="487"/>
+      <c r="F6" s="488"/>
       <c r="G6" s="56"/>
       <c r="H6" s="29"/>
     </row>
@@ -32262,9 +32349,9 @@
         <v>22.5</v>
       </c>
       <c r="C7" s="177"/>
-      <c r="D7" s="485"/>
-      <c r="E7" s="485"/>
-      <c r="F7" s="485"/>
+      <c r="D7" s="487"/>
+      <c r="E7" s="487"/>
+      <c r="F7" s="487"/>
       <c r="G7" s="51"/>
       <c r="H7" s="29"/>
     </row>
@@ -32279,80 +32366,80 @@
       <c r="H8" s="29"/>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="487" t="s">
+      <c r="A9" s="489" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="489">
+      <c r="B9" s="491">
         <f>SUM(B3:B8)</f>
         <v>158.5</v>
       </c>
-      <c r="C9" s="491" t="str">
+      <c r="C9" s="493" t="str">
         <f>IF((SUM(C3:C7)=0),"",SUM(C3:C7))</f>
         <v/>
       </c>
-      <c r="D9" s="493" t="s">
+      <c r="D9" s="495" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="519">
+      <c r="E9" s="516">
         <v>16.5</v>
       </c>
-      <c r="F9" s="497"/>
+      <c r="F9" s="499"/>
       <c r="G9" s="56"/>
       <c r="H9" s="29"/>
     </row>
     <row r="10" spans="1:8" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="488"/>
-      <c r="B10" s="490"/>
-      <c r="C10" s="492"/>
-      <c r="D10" s="494"/>
-      <c r="E10" s="520"/>
-      <c r="F10" s="498"/>
+      <c r="A10" s="490"/>
+      <c r="B10" s="492"/>
+      <c r="C10" s="494"/>
+      <c r="D10" s="496"/>
+      <c r="E10" s="517"/>
+      <c r="F10" s="500"/>
       <c r="G10" s="56"/>
       <c r="H10" s="29"/>
     </row>
     <row r="11" spans="1:8" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="499" t="s">
+      <c r="A11" s="475" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="500"/>
-      <c r="C11" s="501"/>
-      <c r="D11" s="500"/>
-      <c r="E11" s="502"/>
-      <c r="F11" s="503"/>
+      <c r="B11" s="476"/>
+      <c r="C11" s="477"/>
+      <c r="D11" s="476"/>
+      <c r="E11" s="478"/>
+      <c r="F11" s="479"/>
       <c r="G11" s="62"/>
       <c r="H11" s="29"/>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="504" t="s">
+      <c r="A12" s="480" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="505" t="s">
+      <c r="B12" s="481" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="506" t="s">
+      <c r="C12" s="482" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="507"/>
-      <c r="E12" s="516" t="s">
+      <c r="D12" s="483"/>
+      <c r="E12" s="519" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="509" t="s">
+      <c r="F12" s="485" t="s">
         <v>43</v>
       </c>
       <c r="G12" s="62"/>
       <c r="H12" s="29"/>
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="504"/>
-      <c r="B13" s="505"/>
+      <c r="A13" s="480"/>
+      <c r="B13" s="481"/>
       <c r="C13" s="183" t="s">
         <v>44</v>
       </c>
       <c r="D13" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="516"/>
-      <c r="F13" s="509"/>
+      <c r="E13" s="519"/>
+      <c r="F13" s="485"/>
       <c r="G13" s="62"/>
       <c r="H13" s="29"/>
     </row>
@@ -34156,12 +34243,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
@@ -34169,18 +34256,33 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Asiakirja" ma:contentTypeID="0x0101007224E9EE5B3BF94C806FF09039891060" ma:contentTypeVersion="6" ma:contentTypeDescription="Luo uusi asiakirja." ma:contentTypeScope="" ma:versionID="3e27591f2678635d285da64c2a7aad9e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="aec78b04-9439-499f-911c-68c5b1e9ccff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="79be787e91dac9966e20cd4a195ad7e2" ns2:_="">
     <xsd:import namespace="aec78b04-9439-499f-911c-68c5b1e9ccff"/>
@@ -34338,35 +34440,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8130D149-6442-4525-BFAE-974CCFFB1910}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58957FBC-4CB2-4E5D-9BCC-B24CB64EA848}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="aec78b04-9439-499f-911c-68c5b1e9ccff"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -34388,9 +34465,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58957FBC-4CB2-4E5D-9BCC-B24CB64EA848}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8130D149-6442-4525-BFAE-974CCFFB1910}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="aec78b04-9439-499f-911c-68c5b1e9ccff"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/ScrumBacklog.xlsx
+++ b/ScrumBacklog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xim\muistutussovellus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F45382F7-7416-4C8E-A588-2F8BF6B5DDDC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FAE4851-18BB-4AE7-953F-33495135E3E0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="700" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="700" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Yhteenveto" sheetId="16" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1552" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="516">
   <si>
     <t>Päivitetty</t>
   </si>
@@ -1629,6 +1629,15 @@
   </si>
   <si>
     <t>Päivitä määrittelykuvasto vastaamaan lopullista peliä</t>
+  </si>
+  <si>
+    <t>Sisäänkirjautumissivu</t>
+  </si>
+  <si>
+    <t>Animaatioiden korjaus ja viilaus</t>
+  </si>
+  <si>
+    <t>Tietokannan, taulujen ja testidatan luonti</t>
   </si>
 </sst>
 </file>
@@ -3145,7 +3154,7 @@
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="590">
+  <cellXfs count="591">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4194,24 +4203,183 @@
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="48" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="31" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -4236,128 +4404,50 @@
     <xf numFmtId="0" fontId="5" fillId="31" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="31" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="5" fillId="29" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="29" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="29" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="31" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="31" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="31" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="29" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="55" fillId="33" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="55" fillId="33" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="55" fillId="33" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="27" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="29" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="27" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="29" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="27" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="55" fillId="33" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="55" fillId="33" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="55" fillId="33" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4365,41 +4455,42 @@
     <xf numFmtId="0" fontId="1" fillId="29" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="55" fillId="33" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="55" fillId="33" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="55" fillId="33" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="27" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="27" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="27" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="55" fillId="33" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="55" fillId="33" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="55" fillId="33" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="31" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="31" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="48" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="24" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="24" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4407,41 +4498,84 @@
     <xf numFmtId="0" fontId="48" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="48" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="35" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="24" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="35" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="15" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="24" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="15" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="48" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="32" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="32" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="49" fillId="24" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4450,82 +4584,83 @@
     <xf numFmtId="0" fontId="48" fillId="31" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="49" fillId="35" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="35" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="15" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="27" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="29" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="29" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="15" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="14" fillId="31" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="31" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="32" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="32" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="31" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="48" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="166" fontId="5" fillId="31" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="31" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="31" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="31" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="31" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="31" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="31" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -4551,98 +4686,35 @@
     <xf numFmtId="166" fontId="14" fillId="31" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="31" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="31" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="15" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="15" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="31" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="31" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="31" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="31" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="31" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="31" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="31" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="31" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="27" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="29" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="29" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="15" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="15" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="9" fillId="31" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="15" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="9" fillId="31" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="15" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="34" fillId="31" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="166" fontId="34" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="171" fontId="1" fillId="29" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4650,17 +4722,68 @@
     <xf numFmtId="166" fontId="7" fillId="29" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="9" fillId="31" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="9" fillId="31" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="34" fillId="31" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="34" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="28" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="25" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4680,62 +4803,62 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="28" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="29" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="29" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="29" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -4754,117 +4877,6 @@
     </xf>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="29" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="29" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="29" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="48" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -4876,38 +4888,7 @@
     <cellStyle name="Hyperlinkki" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="328">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="324">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -6259,32 +6240,8 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6339,8 +6296,32 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12231,20 +12212,20 @@
     </row>
     <row r="2" spans="1:25" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A2" s="30"/>
-      <c r="B2" s="403" t="s">
+      <c r="B2" s="383" t="s">
         <v>409</v>
       </c>
-      <c r="C2" s="404"/>
-      <c r="D2" s="404"/>
-      <c r="E2" s="404"/>
-      <c r="F2" s="404"/>
-      <c r="G2" s="405"/>
-      <c r="H2" s="406"/>
-      <c r="I2" s="406"/>
-      <c r="J2" s="406"/>
-      <c r="K2" s="406"/>
-      <c r="L2" s="404"/>
-      <c r="M2" s="407"/>
+      <c r="C2" s="384"/>
+      <c r="D2" s="384"/>
+      <c r="E2" s="384"/>
+      <c r="F2" s="384"/>
+      <c r="G2" s="385"/>
+      <c r="H2" s="386"/>
+      <c r="I2" s="386"/>
+      <c r="J2" s="386"/>
+      <c r="K2" s="386"/>
+      <c r="L2" s="384"/>
+      <c r="M2" s="387"/>
       <c r="N2" s="31"/>
       <c r="O2" s="28"/>
       <c r="P2" s="28"/>
@@ -12260,19 +12241,19 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="32"/>
-      <c r="B3" s="408" t="s">
+      <c r="B3" s="388" t="s">
         <v>398</v>
       </c>
-      <c r="C3" s="409"/>
-      <c r="D3" s="409"/>
-      <c r="E3" s="409"/>
-      <c r="F3" s="409"/>
-      <c r="G3" s="409"/>
-      <c r="H3" s="409"/>
-      <c r="I3" s="409"/>
-      <c r="J3" s="409"/>
-      <c r="K3" s="409"/>
-      <c r="L3" s="410"/>
+      <c r="C3" s="389"/>
+      <c r="D3" s="389"/>
+      <c r="E3" s="389"/>
+      <c r="F3" s="389"/>
+      <c r="G3" s="389"/>
+      <c r="H3" s="389"/>
+      <c r="I3" s="389"/>
+      <c r="J3" s="389"/>
+      <c r="K3" s="389"/>
+      <c r="L3" s="390"/>
       <c r="M3" s="33" t="s">
         <v>0</v>
       </c>
@@ -12291,17 +12272,17 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="32"/>
-      <c r="B4" s="408"/>
-      <c r="C4" s="409"/>
-      <c r="D4" s="409"/>
-      <c r="E4" s="409"/>
-      <c r="F4" s="409"/>
-      <c r="G4" s="409"/>
-      <c r="H4" s="409"/>
-      <c r="I4" s="409"/>
-      <c r="J4" s="409"/>
-      <c r="K4" s="409"/>
-      <c r="L4" s="410"/>
+      <c r="B4" s="388"/>
+      <c r="C4" s="389"/>
+      <c r="D4" s="389"/>
+      <c r="E4" s="389"/>
+      <c r="F4" s="389"/>
+      <c r="G4" s="389"/>
+      <c r="H4" s="389"/>
+      <c r="I4" s="389"/>
+      <c r="J4" s="389"/>
+      <c r="K4" s="389"/>
+      <c r="L4" s="390"/>
       <c r="M4" s="174">
         <v>43920</v>
       </c>
@@ -12354,19 +12335,19 @@
       <c r="B6" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="380" t="s">
+      <c r="C6" s="391" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="381"/>
-      <c r="E6" s="381"/>
-      <c r="F6" s="381"/>
-      <c r="G6" s="381"/>
-      <c r="H6" s="381"/>
-      <c r="I6" s="381"/>
-      <c r="J6" s="381"/>
-      <c r="K6" s="381"/>
-      <c r="L6" s="381"/>
-      <c r="M6" s="411"/>
+      <c r="D6" s="392"/>
+      <c r="E6" s="392"/>
+      <c r="F6" s="392"/>
+      <c r="G6" s="392"/>
+      <c r="H6" s="392"/>
+      <c r="I6" s="392"/>
+      <c r="J6" s="392"/>
+      <c r="K6" s="392"/>
+      <c r="L6" s="392"/>
+      <c r="M6" s="393"/>
       <c r="N6" s="31"/>
       <c r="O6" s="28"/>
       <c r="P6" s="28"/>
@@ -12385,19 +12366,19 @@
       <c r="B7" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="412" t="s">
+      <c r="C7" s="394" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="413"/>
-      <c r="E7" s="413"/>
-      <c r="F7" s="413"/>
-      <c r="G7" s="413"/>
-      <c r="H7" s="413"/>
-      <c r="I7" s="413"/>
-      <c r="J7" s="413"/>
-      <c r="K7" s="413"/>
-      <c r="L7" s="413"/>
-      <c r="M7" s="414"/>
+      <c r="D7" s="395"/>
+      <c r="E7" s="395"/>
+      <c r="F7" s="395"/>
+      <c r="G7" s="395"/>
+      <c r="H7" s="395"/>
+      <c r="I7" s="395"/>
+      <c r="J7" s="395"/>
+      <c r="K7" s="395"/>
+      <c r="L7" s="395"/>
+      <c r="M7" s="396"/>
       <c r="N7" s="31"/>
       <c r="O7" s="28"/>
       <c r="P7" s="28"/>
@@ -12416,19 +12397,19 @@
       <c r="B8" s="38" t="s">
         <v>399</v>
       </c>
-      <c r="C8" s="412" t="s">
+      <c r="C8" s="394" t="s">
         <v>400</v>
       </c>
-      <c r="D8" s="413"/>
-      <c r="E8" s="413"/>
-      <c r="F8" s="413"/>
-      <c r="G8" s="413"/>
-      <c r="H8" s="413"/>
-      <c r="I8" s="413"/>
-      <c r="J8" s="413"/>
-      <c r="K8" s="413"/>
-      <c r="L8" s="413"/>
-      <c r="M8" s="414"/>
+      <c r="D8" s="395"/>
+      <c r="E8" s="395"/>
+      <c r="F8" s="395"/>
+      <c r="G8" s="395"/>
+      <c r="H8" s="395"/>
+      <c r="I8" s="395"/>
+      <c r="J8" s="395"/>
+      <c r="K8" s="395"/>
+      <c r="L8" s="395"/>
+      <c r="M8" s="396"/>
       <c r="N8" s="31"/>
       <c r="O8" s="28"/>
       <c r="P8" s="28"/>
@@ -12447,19 +12428,19 @@
       <c r="B9" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="412" t="s">
+      <c r="C9" s="394" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="413"/>
-      <c r="E9" s="413"/>
-      <c r="F9" s="413"/>
-      <c r="G9" s="413"/>
-      <c r="H9" s="413"/>
-      <c r="I9" s="413"/>
-      <c r="J9" s="413"/>
-      <c r="K9" s="413"/>
-      <c r="L9" s="413"/>
-      <c r="M9" s="414"/>
+      <c r="D9" s="395"/>
+      <c r="E9" s="395"/>
+      <c r="F9" s="395"/>
+      <c r="G9" s="395"/>
+      <c r="H9" s="395"/>
+      <c r="I9" s="395"/>
+      <c r="J9" s="395"/>
+      <c r="K9" s="395"/>
+      <c r="L9" s="395"/>
+      <c r="M9" s="396"/>
       <c r="N9" s="31"/>
       <c r="O9" s="28"/>
       <c r="P9" s="28"/>
@@ -12478,19 +12459,19 @@
       <c r="B10" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="400" t="s">
+      <c r="C10" s="380" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="401"/>
-      <c r="E10" s="401"/>
-      <c r="F10" s="401"/>
-      <c r="G10" s="401"/>
-      <c r="H10" s="401"/>
-      <c r="I10" s="401"/>
-      <c r="J10" s="401"/>
-      <c r="K10" s="401"/>
-      <c r="L10" s="401"/>
-      <c r="M10" s="402"/>
+      <c r="D10" s="381"/>
+      <c r="E10" s="381"/>
+      <c r="F10" s="381"/>
+      <c r="G10" s="381"/>
+      <c r="H10" s="381"/>
+      <c r="I10" s="381"/>
+      <c r="J10" s="381"/>
+      <c r="K10" s="381"/>
+      <c r="L10" s="381"/>
+      <c r="M10" s="382"/>
       <c r="N10" s="31"/>
       <c r="O10" s="28"/>
       <c r="P10" s="28"/>
@@ -12533,20 +12514,20 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="30"/>
-      <c r="B12" s="389" t="s">
+      <c r="B12" s="397" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="390"/>
-      <c r="D12" s="390"/>
-      <c r="E12" s="390"/>
-      <c r="F12" s="390"/>
-      <c r="G12" s="390"/>
-      <c r="H12" s="390"/>
-      <c r="I12" s="390"/>
-      <c r="J12" s="390"/>
-      <c r="K12" s="390"/>
-      <c r="L12" s="390"/>
-      <c r="M12" s="391"/>
+      <c r="C12" s="398"/>
+      <c r="D12" s="398"/>
+      <c r="E12" s="398"/>
+      <c r="F12" s="398"/>
+      <c r="G12" s="398"/>
+      <c r="H12" s="398"/>
+      <c r="I12" s="398"/>
+      <c r="J12" s="398"/>
+      <c r="K12" s="398"/>
+      <c r="L12" s="398"/>
+      <c r="M12" s="399"/>
       <c r="N12" s="31"/>
       <c r="O12" s="28"/>
       <c r="P12" s="28"/>
@@ -12571,14 +12552,14 @@
       <c r="D13" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="392" t="s">
+      <c r="E13" s="400" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="393"/>
-      <c r="G13" s="393"/>
-      <c r="H13" s="393"/>
-      <c r="I13" s="393"/>
-      <c r="J13" s="394"/>
+      <c r="F13" s="401"/>
+      <c r="G13" s="401"/>
+      <c r="H13" s="401"/>
+      <c r="I13" s="401"/>
+      <c r="J13" s="402"/>
       <c r="K13" s="284" t="s">
         <v>16</v>
       </c>
@@ -12596,38 +12577,38 @@
       <c r="S13" s="28"/>
       <c r="T13" s="28"/>
       <c r="U13" s="28"/>
-      <c r="V13" s="395"/>
-      <c r="W13" s="395"/>
-      <c r="X13" s="395"/>
+      <c r="V13" s="403"/>
+      <c r="W13" s="403"/>
+      <c r="X13" s="403"/>
       <c r="Y13" s="40"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="32"/>
-      <c r="B14" s="367">
+      <c r="B14" s="404">
         <v>1</v>
       </c>
-      <c r="C14" s="369">
+      <c r="C14" s="405">
         <v>43906</v>
       </c>
-      <c r="D14" s="369">
+      <c r="D14" s="405">
         <v>43941</v>
       </c>
-      <c r="E14" s="396" t="s">
+      <c r="E14" s="406" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="397"/>
-      <c r="G14" s="398"/>
-      <c r="H14" s="398"/>
-      <c r="I14" s="398"/>
-      <c r="J14" s="399"/>
-      <c r="K14" s="386" t="s">
+      <c r="F14" s="407"/>
+      <c r="G14" s="408"/>
+      <c r="H14" s="408"/>
+      <c r="I14" s="408"/>
+      <c r="J14" s="409"/>
+      <c r="K14" s="410" t="s">
         <v>297</v>
       </c>
-      <c r="L14" s="388">
+      <c r="L14" s="412">
         <f>'S1 - Backlog'!I19</f>
         <v>67</v>
       </c>
-      <c r="M14" s="364">
+      <c r="M14" s="414">
         <f>'S1 - Backlog'!J19</f>
         <v>1</v>
       </c>
@@ -12646,18 +12627,18 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="32"/>
-      <c r="B15" s="367"/>
-      <c r="C15" s="369"/>
-      <c r="D15" s="369"/>
-      <c r="E15" s="396"/>
-      <c r="F15" s="397"/>
-      <c r="G15" s="398"/>
-      <c r="H15" s="398"/>
-      <c r="I15" s="398"/>
-      <c r="J15" s="399"/>
-      <c r="K15" s="387"/>
-      <c r="L15" s="378"/>
-      <c r="M15" s="364"/>
+      <c r="B15" s="404"/>
+      <c r="C15" s="405"/>
+      <c r="D15" s="405"/>
+      <c r="E15" s="406"/>
+      <c r="F15" s="407"/>
+      <c r="G15" s="408"/>
+      <c r="H15" s="408"/>
+      <c r="I15" s="408"/>
+      <c r="J15" s="409"/>
+      <c r="K15" s="411"/>
+      <c r="L15" s="413"/>
+      <c r="M15" s="414"/>
       <c r="N15" s="31"/>
       <c r="O15" s="28"/>
       <c r="P15" s="28"/>
@@ -12673,29 +12654,29 @@
     </row>
     <row r="16" spans="1:25" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="32"/>
-      <c r="B16" s="367">
+      <c r="B16" s="404">
         <v>2</v>
       </c>
-      <c r="C16" s="369">
+      <c r="C16" s="405">
         <v>43941</v>
       </c>
-      <c r="D16" s="369">
+      <c r="D16" s="405">
         <v>43969</v>
       </c>
-      <c r="E16" s="380"/>
-      <c r="F16" s="381"/>
-      <c r="G16" s="381"/>
-      <c r="H16" s="381"/>
-      <c r="I16" s="381"/>
-      <c r="J16" s="382"/>
-      <c r="K16" s="386" t="s">
+      <c r="E16" s="391"/>
+      <c r="F16" s="392"/>
+      <c r="G16" s="392"/>
+      <c r="H16" s="392"/>
+      <c r="I16" s="392"/>
+      <c r="J16" s="417"/>
+      <c r="K16" s="410" t="s">
         <v>397</v>
       </c>
-      <c r="L16" s="388">
+      <c r="L16" s="412">
         <f>'S2 - Backlog'!I15</f>
         <v>9</v>
       </c>
-      <c r="M16" s="364">
+      <c r="M16" s="414">
         <f>'S2 - Backlog'!J15</f>
         <v>0</v>
       </c>
@@ -12714,18 +12695,18 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="32"/>
-      <c r="B17" s="368"/>
-      <c r="C17" s="379"/>
-      <c r="D17" s="379"/>
-      <c r="E17" s="383"/>
-      <c r="F17" s="384"/>
-      <c r="G17" s="384"/>
-      <c r="H17" s="384"/>
-      <c r="I17" s="384"/>
-      <c r="J17" s="385"/>
-      <c r="K17" s="387"/>
-      <c r="L17" s="378"/>
-      <c r="M17" s="364"/>
+      <c r="B17" s="415"/>
+      <c r="C17" s="416"/>
+      <c r="D17" s="416"/>
+      <c r="E17" s="418"/>
+      <c r="F17" s="419"/>
+      <c r="G17" s="419"/>
+      <c r="H17" s="419"/>
+      <c r="I17" s="419"/>
+      <c r="J17" s="420"/>
+      <c r="K17" s="411"/>
+      <c r="L17" s="413"/>
+      <c r="M17" s="414"/>
       <c r="N17" s="31"/>
       <c r="O17" s="28"/>
       <c r="P17" s="28"/>
@@ -12741,29 +12722,29 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="32"/>
-      <c r="B18" s="367">
+      <c r="B18" s="404">
         <v>3</v>
       </c>
-      <c r="C18" s="369">
+      <c r="C18" s="405">
         <v>43969</v>
       </c>
-      <c r="D18" s="369">
+      <c r="D18" s="405">
         <v>43997</v>
       </c>
-      <c r="E18" s="380"/>
-      <c r="F18" s="381"/>
-      <c r="G18" s="381"/>
-      <c r="H18" s="381"/>
-      <c r="I18" s="381"/>
-      <c r="J18" s="382"/>
-      <c r="K18" s="386" t="s">
+      <c r="E18" s="391"/>
+      <c r="F18" s="392"/>
+      <c r="G18" s="392"/>
+      <c r="H18" s="392"/>
+      <c r="I18" s="392"/>
+      <c r="J18" s="417"/>
+      <c r="K18" s="410" t="s">
         <v>297</v>
       </c>
-      <c r="L18" s="388">
+      <c r="L18" s="412">
         <f>'S3 - Backlog'!I19</f>
         <v>83</v>
       </c>
-      <c r="M18" s="388">
+      <c r="M18" s="412">
         <f>'S3 - Backlog'!J19</f>
         <v>0</v>
       </c>
@@ -12782,18 +12763,18 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="32"/>
-      <c r="B19" s="368"/>
-      <c r="C19" s="379"/>
-      <c r="D19" s="379"/>
-      <c r="E19" s="383"/>
-      <c r="F19" s="384"/>
-      <c r="G19" s="384"/>
-      <c r="H19" s="384"/>
-      <c r="I19" s="384"/>
-      <c r="J19" s="385"/>
-      <c r="K19" s="387"/>
-      <c r="L19" s="378"/>
-      <c r="M19" s="378"/>
+      <c r="B19" s="415"/>
+      <c r="C19" s="416"/>
+      <c r="D19" s="416"/>
+      <c r="E19" s="418"/>
+      <c r="F19" s="419"/>
+      <c r="G19" s="419"/>
+      <c r="H19" s="419"/>
+      <c r="I19" s="419"/>
+      <c r="J19" s="420"/>
+      <c r="K19" s="411"/>
+      <c r="L19" s="413"/>
+      <c r="M19" s="413"/>
       <c r="N19" s="31"/>
       <c r="O19" s="28"/>
       <c r="P19" s="28"/>
@@ -12809,20 +12790,20 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="32"/>
-      <c r="B20" s="367">
+      <c r="B20" s="404">
         <v>4</v>
       </c>
-      <c r="C20" s="369"/>
-      <c r="D20" s="369"/>
-      <c r="E20" s="370"/>
-      <c r="F20" s="371"/>
-      <c r="G20" s="371"/>
-      <c r="H20" s="371"/>
-      <c r="I20" s="371"/>
-      <c r="J20" s="372"/>
-      <c r="K20" s="376"/>
-      <c r="L20" s="378"/>
-      <c r="M20" s="364"/>
+      <c r="C20" s="405"/>
+      <c r="D20" s="405"/>
+      <c r="E20" s="423"/>
+      <c r="F20" s="424"/>
+      <c r="G20" s="424"/>
+      <c r="H20" s="424"/>
+      <c r="I20" s="424"/>
+      <c r="J20" s="425"/>
+      <c r="K20" s="429"/>
+      <c r="L20" s="413"/>
+      <c r="M20" s="414"/>
       <c r="N20" s="31"/>
       <c r="O20" s="28"/>
       <c r="P20" s="28"/>
@@ -12838,18 +12819,18 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="32"/>
-      <c r="B21" s="368"/>
-      <c r="C21" s="369"/>
-      <c r="D21" s="369"/>
-      <c r="E21" s="373"/>
-      <c r="F21" s="374"/>
-      <c r="G21" s="374"/>
-      <c r="H21" s="374"/>
-      <c r="I21" s="374"/>
-      <c r="J21" s="375"/>
-      <c r="K21" s="377"/>
-      <c r="L21" s="378"/>
-      <c r="M21" s="364"/>
+      <c r="B21" s="415"/>
+      <c r="C21" s="405"/>
+      <c r="D21" s="405"/>
+      <c r="E21" s="426"/>
+      <c r="F21" s="427"/>
+      <c r="G21" s="427"/>
+      <c r="H21" s="427"/>
+      <c r="I21" s="427"/>
+      <c r="J21" s="428"/>
+      <c r="K21" s="430"/>
+      <c r="L21" s="413"/>
+      <c r="M21" s="414"/>
       <c r="N21" s="31"/>
       <c r="O21" s="28"/>
       <c r="P21" s="28"/>
@@ -12892,13 +12873,13 @@
     </row>
     <row r="23" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="50"/>
-      <c r="B23" s="366" t="s">
+      <c r="B23" s="422" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="366"/>
-      <c r="D23" s="366"/>
-      <c r="E23" s="366"/>
-      <c r="F23" s="366"/>
+      <c r="C23" s="422"/>
+      <c r="D23" s="422"/>
+      <c r="E23" s="422"/>
+      <c r="F23" s="422"/>
       <c r="G23" s="252"/>
       <c r="H23" s="54"/>
       <c r="I23" s="54"/>
@@ -12921,7 +12902,7 @@
     </row>
     <row r="24" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="50"/>
-      <c r="B24" s="365" t="s">
+      <c r="B24" s="421" t="s">
         <v>21</v>
       </c>
       <c r="C24" s="256" t="s">
@@ -12958,7 +12939,7 @@
     </row>
     <row r="25" spans="1:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="50"/>
-      <c r="B25" s="365"/>
+      <c r="B25" s="421"/>
       <c r="C25" s="257" t="s">
         <v>26</v>
       </c>
@@ -13469,23 +13450,15 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="C10:M10"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:L4"/>
-    <mergeCell ref="C6:M6"/>
-    <mergeCell ref="C7:M7"/>
-    <mergeCell ref="C9:M9"/>
-    <mergeCell ref="C8:M8"/>
-    <mergeCell ref="B12:M12"/>
-    <mergeCell ref="E13:J13"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
     <mergeCell ref="M16:M17"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="C18:C19"/>
@@ -13500,15 +13473,23 @@
     <mergeCell ref="E16:J17"/>
     <mergeCell ref="K16:K17"/>
     <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="B12:M12"/>
+    <mergeCell ref="E13:J13"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="C10:M10"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:L4"/>
+    <mergeCell ref="C6:M6"/>
+    <mergeCell ref="C7:M7"/>
+    <mergeCell ref="C9:M9"/>
+    <mergeCell ref="C8:M8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13557,14 +13538,14 @@
       <c r="C2" s="303" t="s">
         <v>139</v>
       </c>
-      <c r="D2" s="522" t="s">
+      <c r="D2" s="560" t="s">
         <v>140</v>
       </c>
-      <c r="E2" s="523"/>
-      <c r="F2" s="524" t="s">
+      <c r="E2" s="561"/>
+      <c r="F2" s="562" t="s">
         <v>141</v>
       </c>
-      <c r="G2" s="523"/>
+      <c r="G2" s="561"/>
       <c r="H2" s="303" t="s">
         <v>142</v>
       </c>
@@ -13586,14 +13567,14 @@
       <c r="C3" s="96" t="s">
         <v>144</v>
       </c>
-      <c r="D3" s="525" t="s">
+      <c r="D3" s="563" t="s">
         <v>145</v>
       </c>
-      <c r="E3" s="525"/>
-      <c r="F3" s="526" t="s">
+      <c r="E3" s="563"/>
+      <c r="F3" s="564" t="s">
         <v>146</v>
       </c>
-      <c r="G3" s="527"/>
+      <c r="G3" s="565"/>
       <c r="H3" s="97"/>
       <c r="I3" s="95"/>
       <c r="J3" s="98"/>
@@ -13607,10 +13588,10 @@
       <c r="A4" s="94"/>
       <c r="B4" s="95"/>
       <c r="C4" s="304"/>
-      <c r="D4" s="527"/>
-      <c r="E4" s="527"/>
-      <c r="F4" s="526"/>
-      <c r="G4" s="527"/>
+      <c r="D4" s="565"/>
+      <c r="E4" s="565"/>
+      <c r="F4" s="564"/>
+      <c r="G4" s="565"/>
       <c r="H4" s="97"/>
       <c r="I4" s="95"/>
       <c r="J4" s="100"/>
@@ -13673,10 +13654,10 @@
     </row>
     <row r="8" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="299"/>
-      <c r="B8" s="528" t="s">
+      <c r="B8" s="552" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="529"/>
+      <c r="C8" s="553"/>
       <c r="D8" s="105"/>
       <c r="E8" s="105"/>
       <c r="F8" s="110"/>
@@ -13714,10 +13695,10 @@
       <c r="B10" s="115" t="s">
         <v>147</v>
       </c>
-      <c r="C10" s="530" t="s">
+      <c r="C10" s="554" t="s">
         <v>95</v>
       </c>
-      <c r="D10" s="531"/>
+      <c r="D10" s="555"/>
       <c r="E10" s="302" t="s">
         <v>100</v>
       </c>
@@ -13746,16 +13727,16 @@
     </row>
     <row r="11" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="93"/>
-      <c r="B11" s="532" t="s">
+      <c r="B11" s="556" t="s">
         <v>151</v>
       </c>
-      <c r="C11" s="532"/>
-      <c r="D11" s="533"/>
-      <c r="E11" s="534"/>
-      <c r="F11" s="535"/>
-      <c r="G11" s="534"/>
-      <c r="H11" s="534"/>
-      <c r="I11" s="534"/>
+      <c r="C11" s="556"/>
+      <c r="D11" s="557"/>
+      <c r="E11" s="558"/>
+      <c r="F11" s="559"/>
+      <c r="G11" s="558"/>
+      <c r="H11" s="558"/>
+      <c r="I11" s="558"/>
       <c r="J11" s="119"/>
       <c r="K11" s="119"/>
       <c r="L11" s="299"/>
@@ -13803,10 +13784,10 @@
       <c r="B13" s="301" t="s">
         <v>153</v>
       </c>
-      <c r="C13" s="536" t="s">
+      <c r="C13" s="543" t="s">
         <v>159</v>
       </c>
-      <c r="D13" s="536"/>
+      <c r="D13" s="543"/>
       <c r="E13" s="120">
         <v>5</v>
       </c>
@@ -13890,10 +13871,10 @@
       <c r="B16" s="301" t="s">
         <v>153</v>
       </c>
-      <c r="C16" s="536" t="s">
+      <c r="C16" s="543" t="s">
         <v>167</v>
       </c>
-      <c r="D16" s="536"/>
+      <c r="D16" s="543"/>
       <c r="E16" s="120">
         <v>15</v>
       </c>
@@ -13961,10 +13942,10 @@
       <c r="B19" s="126" t="s">
         <v>171</v>
       </c>
-      <c r="C19" s="536" t="s">
+      <c r="C19" s="543" t="s">
         <v>172</v>
       </c>
-      <c r="D19" s="537"/>
+      <c r="D19" s="541"/>
       <c r="E19" s="120">
         <v>44</v>
       </c>
@@ -14005,10 +13986,10 @@
       <c r="B21" s="301" t="s">
         <v>174</v>
       </c>
-      <c r="C21" s="538" t="s">
+      <c r="C21" s="546" t="s">
         <v>175</v>
       </c>
-      <c r="D21" s="539"/>
+      <c r="D21" s="547"/>
       <c r="E21" s="120">
         <v>32</v>
       </c>
@@ -14028,10 +14009,10 @@
     <row r="22" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="299"/>
       <c r="B22" s="299"/>
-      <c r="C22" s="536" t="s">
+      <c r="C22" s="543" t="s">
         <v>176</v>
       </c>
-      <c r="D22" s="537"/>
+      <c r="D22" s="541"/>
       <c r="E22" s="299">
         <v>20</v>
       </c>
@@ -14051,10 +14032,10 @@
     <row r="23" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="300"/>
       <c r="B23" s="301"/>
-      <c r="C23" s="536" t="s">
+      <c r="C23" s="543" t="s">
         <v>177</v>
       </c>
-      <c r="D23" s="537"/>
+      <c r="D23" s="541"/>
       <c r="E23" s="300">
         <v>9</v>
       </c>
@@ -14074,10 +14055,10 @@
     <row r="24" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="300"/>
       <c r="B24" s="301"/>
-      <c r="C24" s="536" t="s">
+      <c r="C24" s="543" t="s">
         <v>178</v>
       </c>
-      <c r="D24" s="537"/>
+      <c r="D24" s="541"/>
       <c r="E24" s="300">
         <v>25</v>
       </c>
@@ -14097,10 +14078,10 @@
     <row r="25" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="300"/>
       <c r="B25" s="301"/>
-      <c r="C25" s="536" t="s">
+      <c r="C25" s="543" t="s">
         <v>179</v>
       </c>
-      <c r="D25" s="536"/>
+      <c r="D25" s="543"/>
       <c r="E25" s="300">
         <v>27</v>
       </c>
@@ -14120,10 +14101,10 @@
     <row r="26" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="300"/>
       <c r="B26" s="301"/>
-      <c r="C26" s="536" t="s">
+      <c r="C26" s="543" t="s">
         <v>180</v>
       </c>
-      <c r="D26" s="537"/>
+      <c r="D26" s="541"/>
       <c r="E26" s="300">
         <v>17</v>
       </c>
@@ -14142,16 +14123,16 @@
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="300"/>
-      <c r="B27" s="540" t="s">
+      <c r="B27" s="542" t="s">
         <v>181</v>
       </c>
-      <c r="C27" s="541"/>
-      <c r="D27" s="542"/>
-      <c r="E27" s="543"/>
-      <c r="F27" s="544"/>
-      <c r="G27" s="543"/>
-      <c r="H27" s="543"/>
-      <c r="I27" s="543"/>
+      <c r="C27" s="548"/>
+      <c r="D27" s="549"/>
+      <c r="E27" s="550"/>
+      <c r="F27" s="551"/>
+      <c r="G27" s="550"/>
+      <c r="H27" s="550"/>
+      <c r="I27" s="550"/>
       <c r="J27" s="127"/>
       <c r="K27" s="127"/>
       <c r="L27" s="299"/>
@@ -14181,10 +14162,10 @@
       <c r="B29" s="299" t="s">
         <v>182</v>
       </c>
-      <c r="C29" s="538" t="s">
+      <c r="C29" s="546" t="s">
         <v>183</v>
       </c>
-      <c r="D29" s="538"/>
+      <c r="D29" s="546"/>
       <c r="E29" s="299">
         <v>26</v>
       </c>
@@ -14204,10 +14185,10 @@
     <row r="30" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="300"/>
       <c r="B30" s="301"/>
-      <c r="C30" s="536" t="s">
+      <c r="C30" s="543" t="s">
         <v>184</v>
       </c>
-      <c r="D30" s="537"/>
+      <c r="D30" s="541"/>
       <c r="E30" s="120" t="s">
         <v>185</v>
       </c>
@@ -14225,10 +14206,10 @@
     <row r="31" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="300"/>
       <c r="B31" s="301"/>
-      <c r="C31" s="536" t="s">
+      <c r="C31" s="543" t="s">
         <v>186</v>
       </c>
-      <c r="D31" s="537"/>
+      <c r="D31" s="541"/>
       <c r="E31" s="120">
         <v>24</v>
       </c>
@@ -14248,10 +14229,10 @@
     <row r="32" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="300"/>
       <c r="B32" s="301"/>
-      <c r="C32" s="536" t="s">
+      <c r="C32" s="543" t="s">
         <v>187</v>
       </c>
-      <c r="D32" s="537"/>
+      <c r="D32" s="541"/>
       <c r="E32" s="120">
         <v>40</v>
       </c>
@@ -14269,10 +14250,10 @@
     <row r="33" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="300"/>
       <c r="B33" s="301"/>
-      <c r="C33" s="536" t="s">
+      <c r="C33" s="543" t="s">
         <v>188</v>
       </c>
-      <c r="D33" s="537"/>
+      <c r="D33" s="541"/>
       <c r="E33" s="120">
         <v>29</v>
       </c>
@@ -14290,10 +14271,10 @@
     <row r="34" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="300"/>
       <c r="B34" s="301"/>
-      <c r="C34" s="536" t="s">
+      <c r="C34" s="543" t="s">
         <v>189</v>
       </c>
-      <c r="D34" s="537"/>
+      <c r="D34" s="541"/>
       <c r="E34" s="120">
         <v>22</v>
       </c>
@@ -14311,10 +14292,10 @@
     <row r="35" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="300"/>
       <c r="B35" s="301"/>
-      <c r="C35" s="536" t="s">
+      <c r="C35" s="543" t="s">
         <v>190</v>
       </c>
-      <c r="D35" s="537"/>
+      <c r="D35" s="541"/>
       <c r="E35" s="120">
         <v>32</v>
       </c>
@@ -14368,10 +14349,10 @@
     <row r="38" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="300"/>
       <c r="B38" s="126"/>
-      <c r="C38" s="538" t="s">
+      <c r="C38" s="546" t="s">
         <v>191</v>
       </c>
-      <c r="D38" s="539"/>
+      <c r="D38" s="547"/>
       <c r="E38" s="120">
         <v>12</v>
       </c>
@@ -14391,8 +14372,8 @@
     <row r="39" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="300"/>
       <c r="B39" s="126"/>
-      <c r="C39" s="536"/>
-      <c r="D39" s="537"/>
+      <c r="C39" s="543"/>
+      <c r="D39" s="541"/>
       <c r="E39" s="120"/>
       <c r="F39" s="110"/>
       <c r="G39" s="124"/>
@@ -14408,10 +14389,10 @@
     <row r="40" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="300"/>
       <c r="B40" s="301"/>
-      <c r="C40" s="536" t="s">
+      <c r="C40" s="543" t="s">
         <v>192</v>
       </c>
-      <c r="D40" s="537"/>
+      <c r="D40" s="541"/>
       <c r="E40" s="120">
         <v>32</v>
       </c>
@@ -14515,16 +14496,16 @@
     </row>
     <row r="46" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="300"/>
-      <c r="B46" s="540" t="s">
+      <c r="B46" s="542" t="s">
         <v>193</v>
       </c>
-      <c r="C46" s="540"/>
-      <c r="D46" s="540"/>
-      <c r="E46" s="540"/>
-      <c r="F46" s="540"/>
-      <c r="G46" s="540"/>
-      <c r="H46" s="540"/>
-      <c r="I46" s="540"/>
+      <c r="C46" s="542"/>
+      <c r="D46" s="542"/>
+      <c r="E46" s="542"/>
+      <c r="F46" s="542"/>
+      <c r="G46" s="542"/>
+      <c r="H46" s="542"/>
+      <c r="I46" s="542"/>
       <c r="J46" s="131"/>
       <c r="K46" s="131"/>
       <c r="L46" s="300"/>
@@ -14537,10 +14518,10 @@
         <v>158</v>
       </c>
       <c r="B47" s="301"/>
-      <c r="C47" s="536" t="s">
+      <c r="C47" s="543" t="s">
         <v>194</v>
       </c>
-      <c r="D47" s="536"/>
+      <c r="D47" s="543"/>
       <c r="E47" s="120">
         <v>11</v>
       </c>
@@ -14562,8 +14543,8 @@
     <row r="48" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="300"/>
       <c r="B48" s="126"/>
-      <c r="C48" s="536"/>
-      <c r="D48" s="536"/>
+      <c r="C48" s="543"/>
+      <c r="D48" s="543"/>
       <c r="E48" s="120"/>
       <c r="F48" s="110"/>
       <c r="G48" s="124"/>
@@ -14581,10 +14562,10 @@
         <v>158</v>
       </c>
       <c r="B49" s="301"/>
-      <c r="C49" s="536" t="s">
+      <c r="C49" s="543" t="s">
         <v>195</v>
       </c>
-      <c r="D49" s="536"/>
+      <c r="D49" s="543"/>
       <c r="E49" s="120">
         <v>10</v>
       </c>
@@ -14606,8 +14587,8 @@
     <row r="50" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="300"/>
       <c r="B50" s="126"/>
-      <c r="C50" s="536"/>
-      <c r="D50" s="536"/>
+      <c r="C50" s="543"/>
+      <c r="D50" s="543"/>
       <c r="E50" s="120"/>
       <c r="F50" s="110"/>
       <c r="G50" s="124"/>
@@ -14640,8 +14621,8 @@
     <row r="52" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="299"/>
       <c r="B52" s="301"/>
-      <c r="C52" s="536"/>
-      <c r="D52" s="537"/>
+      <c r="C52" s="543"/>
+      <c r="D52" s="541"/>
       <c r="E52" s="300"/>
       <c r="F52" s="132"/>
       <c r="G52" s="300"/>
@@ -14673,16 +14654,16 @@
     </row>
     <row r="54" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="300"/>
-      <c r="B54" s="540" t="s">
+      <c r="B54" s="542" t="s">
         <v>196</v>
       </c>
-      <c r="C54" s="540"/>
-      <c r="D54" s="540"/>
-      <c r="E54" s="540"/>
-      <c r="F54" s="540"/>
-      <c r="G54" s="540"/>
-      <c r="H54" s="540"/>
-      <c r="I54" s="540"/>
+      <c r="C54" s="542"/>
+      <c r="D54" s="542"/>
+      <c r="E54" s="542"/>
+      <c r="F54" s="542"/>
+      <c r="G54" s="542"/>
+      <c r="H54" s="542"/>
+      <c r="I54" s="542"/>
       <c r="J54" s="131"/>
       <c r="K54" s="131"/>
       <c r="L54" s="300"/>
@@ -14693,10 +14674,10 @@
     <row r="55" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="300"/>
       <c r="B55" s="301"/>
-      <c r="C55" s="536" t="s">
+      <c r="C55" s="543" t="s">
         <v>197</v>
       </c>
-      <c r="D55" s="537"/>
+      <c r="D55" s="541"/>
       <c r="E55" s="133">
         <v>26</v>
       </c>
@@ -14716,10 +14697,10 @@
     <row r="56" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="300"/>
       <c r="B56" s="126"/>
-      <c r="C56" s="536" t="s">
+      <c r="C56" s="543" t="s">
         <v>198</v>
       </c>
-      <c r="D56" s="536"/>
+      <c r="D56" s="543"/>
       <c r="E56" s="133">
         <v>55</v>
       </c>
@@ -14755,16 +14736,16 @@
     </row>
     <row r="58" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="300"/>
-      <c r="B58" s="540" t="s">
+      <c r="B58" s="542" t="s">
         <v>199</v>
       </c>
-      <c r="C58" s="540"/>
-      <c r="D58" s="540"/>
-      <c r="E58" s="540"/>
-      <c r="F58" s="540"/>
-      <c r="G58" s="540"/>
-      <c r="H58" s="540"/>
-      <c r="I58" s="540"/>
+      <c r="C58" s="542"/>
+      <c r="D58" s="542"/>
+      <c r="E58" s="542"/>
+      <c r="F58" s="542"/>
+      <c r="G58" s="542"/>
+      <c r="H58" s="542"/>
+      <c r="I58" s="542"/>
       <c r="J58" s="131"/>
       <c r="K58" s="131"/>
       <c r="L58" s="300"/>
@@ -14777,10 +14758,10 @@
       <c r="B59" s="301" t="s">
         <v>153</v>
       </c>
-      <c r="C59" s="536" t="s">
+      <c r="C59" s="543" t="s">
         <v>200</v>
       </c>
-      <c r="D59" s="536"/>
+      <c r="D59" s="543"/>
       <c r="E59" s="120">
         <v>32</v>
       </c>
@@ -14800,10 +14781,10 @@
     <row r="60" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="299"/>
       <c r="B60" s="299"/>
-      <c r="C60" s="537" t="s">
+      <c r="C60" s="541" t="s">
         <v>201</v>
       </c>
-      <c r="D60" s="537"/>
+      <c r="D60" s="541"/>
       <c r="E60" s="120">
         <v>50</v>
       </c>
@@ -14823,10 +14804,10 @@
     <row r="61" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="299"/>
       <c r="B61" s="299"/>
-      <c r="C61" s="537" t="s">
+      <c r="C61" s="541" t="s">
         <v>203</v>
       </c>
-      <c r="D61" s="537"/>
+      <c r="D61" s="541"/>
       <c r="E61" s="120">
         <v>16</v>
       </c>
@@ -14867,10 +14848,10 @@
     <row r="63" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="299"/>
       <c r="B63" s="299"/>
-      <c r="C63" s="537" t="s">
+      <c r="C63" s="541" t="s">
         <v>204</v>
       </c>
-      <c r="D63" s="537"/>
+      <c r="D63" s="541"/>
       <c r="E63" s="120">
         <v>14</v>
       </c>
@@ -14999,10 +14980,10 @@
       <c r="B68" s="301" t="s">
         <v>153</v>
       </c>
-      <c r="C68" s="536" t="s">
+      <c r="C68" s="543" t="s">
         <v>210</v>
       </c>
-      <c r="D68" s="536"/>
+      <c r="D68" s="543"/>
       <c r="E68" s="120">
         <v>28</v>
       </c>
@@ -15084,16 +15065,16 @@
     </row>
     <row r="71" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="300"/>
-      <c r="B71" s="540" t="s">
+      <c r="B71" s="542" t="s">
         <v>214</v>
       </c>
-      <c r="C71" s="540"/>
-      <c r="D71" s="540"/>
-      <c r="E71" s="540"/>
-      <c r="F71" s="540"/>
-      <c r="G71" s="540"/>
-      <c r="H71" s="540"/>
-      <c r="I71" s="540"/>
+      <c r="C71" s="542"/>
+      <c r="D71" s="542"/>
+      <c r="E71" s="542"/>
+      <c r="F71" s="542"/>
+      <c r="G71" s="542"/>
+      <c r="H71" s="542"/>
+      <c r="I71" s="542"/>
       <c r="J71" s="103"/>
       <c r="K71" s="103"/>
       <c r="L71" s="300"/>
@@ -15109,10 +15090,10 @@
     <row r="72" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="300"/>
       <c r="B72" s="300"/>
-      <c r="C72" s="537" t="s">
+      <c r="C72" s="541" t="s">
         <v>215</v>
       </c>
-      <c r="D72" s="537"/>
+      <c r="D72" s="541"/>
       <c r="E72" s="300">
         <v>20</v>
       </c>
@@ -15139,10 +15120,10 @@
       <c r="B73" s="301" t="s">
         <v>153</v>
       </c>
-      <c r="C73" s="537" t="s">
+      <c r="C73" s="541" t="s">
         <v>217</v>
       </c>
-      <c r="D73" s="537"/>
+      <c r="D73" s="541"/>
       <c r="E73" s="300">
         <v>16</v>
       </c>
@@ -15236,16 +15217,16 @@
     </row>
     <row r="77" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="300"/>
-      <c r="B77" s="540" t="s">
+      <c r="B77" s="542" t="s">
         <v>84</v>
       </c>
-      <c r="C77" s="540"/>
-      <c r="D77" s="540"/>
-      <c r="E77" s="540"/>
-      <c r="F77" s="540"/>
-      <c r="G77" s="540"/>
-      <c r="H77" s="540"/>
-      <c r="I77" s="540"/>
+      <c r="C77" s="542"/>
+      <c r="D77" s="542"/>
+      <c r="E77" s="542"/>
+      <c r="F77" s="542"/>
+      <c r="G77" s="542"/>
+      <c r="H77" s="542"/>
+      <c r="I77" s="542"/>
       <c r="J77" s="131"/>
       <c r="K77" s="131"/>
       <c r="L77" s="300"/>
@@ -15261,15 +15242,15 @@
     <row r="78" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="300"/>
       <c r="B78" s="300"/>
-      <c r="C78" s="536" t="s">
+      <c r="C78" s="543" t="s">
         <v>220</v>
       </c>
-      <c r="D78" s="536"/>
-      <c r="E78" s="536"/>
-      <c r="F78" s="536"/>
-      <c r="G78" s="536"/>
-      <c r="H78" s="536"/>
-      <c r="I78" s="536"/>
+      <c r="D78" s="543"/>
+      <c r="E78" s="543"/>
+      <c r="F78" s="543"/>
+      <c r="G78" s="543"/>
+      <c r="H78" s="543"/>
+      <c r="I78" s="543"/>
       <c r="J78" s="103"/>
       <c r="K78" s="103"/>
       <c r="L78" s="300"/>
@@ -15285,13 +15266,13 @@
     <row r="79" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="300"/>
       <c r="B79" s="300"/>
-      <c r="C79" s="545"/>
-      <c r="D79" s="545"/>
-      <c r="E79" s="545"/>
-      <c r="F79" s="545"/>
-      <c r="G79" s="545"/>
-      <c r="H79" s="545"/>
-      <c r="I79" s="545"/>
+      <c r="C79" s="544"/>
+      <c r="D79" s="544"/>
+      <c r="E79" s="544"/>
+      <c r="F79" s="544"/>
+      <c r="G79" s="544"/>
+      <c r="H79" s="544"/>
+      <c r="I79" s="544"/>
       <c r="J79" s="103"/>
       <c r="K79" s="103"/>
       <c r="L79" s="300"/>
@@ -15331,10 +15312,10 @@
         <v>221</v>
       </c>
       <c r="B81" s="142"/>
-      <c r="C81" s="546" t="s">
+      <c r="C81" s="545" t="s">
         <v>222</v>
       </c>
-      <c r="D81" s="546"/>
+      <c r="D81" s="545"/>
       <c r="E81" s="142"/>
       <c r="F81" s="142"/>
       <c r="G81" s="142"/>
@@ -15373,57 +15354,57 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="B77:I77"/>
-    <mergeCell ref="C78:I78"/>
-    <mergeCell ref="C79:I79"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="B71:I71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="B58:I58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="B54:I54"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="B46:I46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C16:D16"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="B46:I46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="B54:I54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="B58:I58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="B71:I71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="B77:I77"/>
+    <mergeCell ref="C78:I78"/>
+    <mergeCell ref="C79:I79"/>
+    <mergeCell ref="C81:D81"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15450,14 +15431,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="547" t="s">
+      <c r="A1" s="585" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="548"/>
-      <c r="C1" s="548"/>
-      <c r="D1" s="548"/>
-      <c r="E1" s="548"/>
-      <c r="F1" s="549"/>
+      <c r="B1" s="586"/>
+      <c r="C1" s="586"/>
+      <c r="D1" s="586"/>
+      <c r="E1" s="586"/>
+      <c r="F1" s="587"/>
       <c r="G1" s="144"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -15470,11 +15451,11 @@
       <c r="C2" s="43" t="s">
         <v>224</v>
       </c>
-      <c r="D2" s="480" t="s">
+      <c r="D2" s="522" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="480"/>
-      <c r="F2" s="480"/>
+      <c r="E2" s="522"/>
+      <c r="F2" s="522"/>
       <c r="G2" s="146"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -15489,11 +15470,11 @@
         <f>B3/4</f>
         <v>7.375</v>
       </c>
-      <c r="D3" s="550" t="s">
+      <c r="D3" s="588" t="s">
         <v>226</v>
       </c>
-      <c r="E3" s="551"/>
-      <c r="F3" s="552"/>
+      <c r="E3" s="589"/>
+      <c r="F3" s="590"/>
       <c r="G3" s="144"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -15508,11 +15489,11 @@
         <f>B4/4</f>
         <v>9.75</v>
       </c>
-      <c r="D4" s="553" t="s">
+      <c r="D4" s="574" t="s">
         <v>228</v>
       </c>
-      <c r="E4" s="554"/>
-      <c r="F4" s="555"/>
+      <c r="E4" s="575"/>
+      <c r="F4" s="576"/>
       <c r="G4" s="144"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -15527,9 +15508,9 @@
         <f>B5/4</f>
         <v>7.25</v>
       </c>
-      <c r="D5" s="553"/>
-      <c r="E5" s="554"/>
-      <c r="F5" s="555"/>
+      <c r="D5" s="574"/>
+      <c r="E5" s="575"/>
+      <c r="F5" s="576"/>
       <c r="G5" s="144"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -15544,9 +15525,9 @@
         <f>B6/4</f>
         <v>4.75</v>
       </c>
-      <c r="D6" s="553"/>
-      <c r="E6" s="554"/>
-      <c r="F6" s="555"/>
+      <c r="D6" s="574"/>
+      <c r="E6" s="575"/>
+      <c r="F6" s="576"/>
       <c r="G6" s="144"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -15561,78 +15542,78 @@
         <f>B7/4</f>
         <v>6.125</v>
       </c>
-      <c r="D7" s="553"/>
-      <c r="E7" s="554"/>
-      <c r="F7" s="555"/>
+      <c r="D7" s="574"/>
+      <c r="E7" s="575"/>
+      <c r="F7" s="576"/>
       <c r="G7" s="144"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="556" t="s">
+      <c r="A8" s="577" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="558">
+      <c r="B8" s="579">
         <f>IF((SUM(B3:B7)=0),"",SUM(B3:B7))</f>
         <v>141</v>
       </c>
-      <c r="C8" s="558">
+      <c r="C8" s="579">
         <f>IF((SUM(C3:C7)=0),"",SUM(C3:C7))</f>
         <v>35.25</v>
       </c>
-      <c r="D8" s="553"/>
-      <c r="E8" s="554"/>
-      <c r="F8" s="555"/>
+      <c r="D8" s="574"/>
+      <c r="E8" s="575"/>
+      <c r="F8" s="576"/>
       <c r="G8" s="144"/>
     </row>
     <row r="9" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="557"/>
-      <c r="B9" s="559"/>
-      <c r="C9" s="560"/>
-      <c r="D9" s="561"/>
-      <c r="E9" s="562"/>
-      <c r="F9" s="563"/>
+      <c r="A9" s="578"/>
+      <c r="B9" s="580"/>
+      <c r="C9" s="581"/>
+      <c r="D9" s="582"/>
+      <c r="E9" s="583"/>
+      <c r="F9" s="584"/>
       <c r="G9" s="144"/>
     </row>
     <row r="10" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="564" t="s">
+      <c r="A10" s="566" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="565"/>
-      <c r="C10" s="565"/>
-      <c r="D10" s="565"/>
-      <c r="E10" s="566"/>
-      <c r="F10" s="565"/>
+      <c r="B10" s="567"/>
+      <c r="C10" s="567"/>
+      <c r="D10" s="567"/>
+      <c r="E10" s="568"/>
+      <c r="F10" s="567"/>
       <c r="G10" s="146"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="567" t="s">
+      <c r="A11" s="569" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="506" t="s">
+      <c r="B11" s="499" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="392" t="s">
+      <c r="C11" s="400" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="394"/>
-      <c r="E11" s="568" t="s">
+      <c r="D11" s="402"/>
+      <c r="E11" s="570" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="570" t="s">
+      <c r="F11" s="572" t="s">
         <v>232</v>
       </c>
       <c r="G11" s="144"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="567"/>
-      <c r="B12" s="506"/>
+      <c r="A12" s="569"/>
+      <c r="B12" s="499"/>
       <c r="C12" s="293" t="s">
         <v>44</v>
       </c>
       <c r="D12" s="151" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="569"/>
-      <c r="F12" s="571"/>
+      <c r="E12" s="571"/>
+      <c r="F12" s="573"/>
       <c r="G12" s="144"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -16960,12 +16941,11 @@
   </sheetData>
   <autoFilter ref="A12:F12" xr:uid="{00000000-0009-0000-0000-000009000000}"/>
   <mergeCells count="18">
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="A8:A9"/>
@@ -16973,11 +16953,12 @@
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="D9:F9"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16988,7 +16969,7 @@
   <dimension ref="A1:AN101"/>
   <sheetViews>
     <sheetView topLeftCell="B36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43:E44"/>
+      <selection activeCell="E52" sqref="E52:E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17049,15 +17030,15 @@
     </row>
     <row r="2" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="220"/>
-      <c r="B2" s="424" t="s">
+      <c r="B2" s="440" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="425"/>
-      <c r="D2" s="425"/>
-      <c r="E2" s="425"/>
-      <c r="F2" s="425"/>
-      <c r="G2" s="425"/>
-      <c r="H2" s="426"/>
+      <c r="C2" s="441"/>
+      <c r="D2" s="441"/>
+      <c r="E2" s="441"/>
+      <c r="F2" s="441"/>
+      <c r="G2" s="441"/>
+      <c r="H2" s="442"/>
       <c r="I2" s="221"/>
       <c r="J2" s="28"/>
       <c r="K2" s="28"/>
@@ -17093,15 +17074,15 @@
     </row>
     <row r="3" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="220"/>
-      <c r="B3" s="421" t="s">
+      <c r="B3" s="437" t="s">
         <v>288</v>
       </c>
-      <c r="C3" s="422"/>
-      <c r="D3" s="422"/>
-      <c r="E3" s="422"/>
-      <c r="F3" s="422"/>
-      <c r="G3" s="422"/>
-      <c r="H3" s="423"/>
+      <c r="C3" s="438"/>
+      <c r="D3" s="438"/>
+      <c r="E3" s="438"/>
+      <c r="F3" s="438"/>
+      <c r="G3" s="438"/>
+      <c r="H3" s="439"/>
       <c r="I3" s="221"/>
       <c r="J3" s="28"/>
       <c r="K3" s="28"/>
@@ -17140,10 +17121,10 @@
       <c r="B4" s="258" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="419" t="s">
+      <c r="C4" s="446" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="420"/>
+      <c r="D4" s="447"/>
       <c r="E4" s="223" t="s">
         <v>78</v>
       </c>
@@ -17191,7 +17172,7 @@
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="229"/>
-      <c r="B5" s="415" t="s">
+      <c r="B5" s="436" t="s">
         <v>298</v>
       </c>
       <c r="C5" s="267" t="s">
@@ -17243,7 +17224,7 @@
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="229"/>
-      <c r="B6" s="415"/>
+      <c r="B6" s="436"/>
       <c r="C6" s="267" t="s">
         <v>287</v>
       </c>
@@ -17293,13 +17274,13 @@
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" s="220"/>
-      <c r="B7" s="416"/>
-      <c r="C7" s="417"/>
-      <c r="D7" s="417"/>
-      <c r="E7" s="417"/>
-      <c r="F7" s="417"/>
-      <c r="G7" s="417"/>
-      <c r="H7" s="418"/>
+      <c r="B7" s="431"/>
+      <c r="C7" s="432"/>
+      <c r="D7" s="432"/>
+      <c r="E7" s="432"/>
+      <c r="F7" s="432"/>
+      <c r="G7" s="432"/>
+      <c r="H7" s="433"/>
       <c r="I7" s="221"/>
       <c r="J7" s="28"/>
       <c r="K7" s="28"/>
@@ -17335,7 +17316,7 @@
     </row>
     <row r="8" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="229"/>
-      <c r="B8" s="415" t="s">
+      <c r="B8" s="436" t="s">
         <v>285</v>
       </c>
       <c r="C8" s="267" t="s">
@@ -17387,7 +17368,7 @@
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" s="220"/>
-      <c r="B9" s="415"/>
+      <c r="B9" s="436"/>
       <c r="C9" s="267" t="s">
         <v>287</v>
       </c>
@@ -17437,13 +17418,13 @@
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" s="220"/>
-      <c r="B10" s="416"/>
-      <c r="C10" s="417"/>
-      <c r="D10" s="417"/>
-      <c r="E10" s="417"/>
-      <c r="F10" s="417"/>
-      <c r="G10" s="417"/>
-      <c r="H10" s="418"/>
+      <c r="B10" s="431"/>
+      <c r="C10" s="432"/>
+      <c r="D10" s="432"/>
+      <c r="E10" s="432"/>
+      <c r="F10" s="432"/>
+      <c r="G10" s="432"/>
+      <c r="H10" s="433"/>
       <c r="I10" s="221"/>
       <c r="J10" s="28"/>
       <c r="K10" s="28"/>
@@ -17479,7 +17460,7 @@
     </row>
     <row r="11" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="220"/>
-      <c r="B11" s="431" t="s">
+      <c r="B11" s="434" t="s">
         <v>300</v>
       </c>
       <c r="C11" s="267" t="s">
@@ -17531,7 +17512,7 @@
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" s="220"/>
-      <c r="B12" s="432"/>
+      <c r="B12" s="435"/>
       <c r="C12" s="267" t="s">
         <v>287</v>
       </c>
@@ -17581,13 +17562,13 @@
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" s="330"/>
-      <c r="B13" s="416"/>
-      <c r="C13" s="417"/>
-      <c r="D13" s="417"/>
-      <c r="E13" s="417"/>
-      <c r="F13" s="417"/>
-      <c r="G13" s="417"/>
-      <c r="H13" s="418"/>
+      <c r="B13" s="431"/>
+      <c r="C13" s="432"/>
+      <c r="D13" s="432"/>
+      <c r="E13" s="432"/>
+      <c r="F13" s="432"/>
+      <c r="G13" s="432"/>
+      <c r="H13" s="433"/>
       <c r="I13" s="221"/>
       <c r="J13" s="28"/>
       <c r="K13" s="28"/>
@@ -17623,7 +17604,7 @@
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" s="330"/>
-      <c r="B14" s="431" t="s">
+      <c r="B14" s="434" t="s">
         <v>353</v>
       </c>
       <c r="C14" s="267" t="s">
@@ -17675,7 +17656,7 @@
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" s="330"/>
-      <c r="B15" s="432"/>
+      <c r="B15" s="435"/>
       <c r="C15" s="267" t="s">
         <v>287</v>
       </c>
@@ -17725,13 +17706,13 @@
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16" s="330"/>
-      <c r="B16" s="416"/>
-      <c r="C16" s="417"/>
-      <c r="D16" s="417"/>
-      <c r="E16" s="417"/>
-      <c r="F16" s="417"/>
-      <c r="G16" s="417"/>
-      <c r="H16" s="418"/>
+      <c r="B16" s="431"/>
+      <c r="C16" s="432"/>
+      <c r="D16" s="432"/>
+      <c r="E16" s="432"/>
+      <c r="F16" s="432"/>
+      <c r="G16" s="432"/>
+      <c r="H16" s="433"/>
       <c r="I16" s="221"/>
       <c r="J16" s="28"/>
       <c r="K16" s="28"/>
@@ -17767,7 +17748,7 @@
     </row>
     <row r="17" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="28"/>
-      <c r="B17" s="431" t="s">
+      <c r="B17" s="434" t="s">
         <v>406</v>
       </c>
       <c r="C17" s="267" t="s">
@@ -17819,7 +17800,7 @@
     </row>
     <row r="18" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="28"/>
-      <c r="B18" s="432"/>
+      <c r="B18" s="435"/>
       <c r="C18" s="267" t="s">
         <v>287</v>
       </c>
@@ -17869,13 +17850,13 @@
     </row>
     <row r="19" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="28"/>
-      <c r="B19" s="416"/>
-      <c r="C19" s="417"/>
-      <c r="D19" s="417"/>
-      <c r="E19" s="417"/>
-      <c r="F19" s="417"/>
-      <c r="G19" s="417"/>
-      <c r="H19" s="418"/>
+      <c r="B19" s="431"/>
+      <c r="C19" s="432"/>
+      <c r="D19" s="432"/>
+      <c r="E19" s="432"/>
+      <c r="F19" s="432"/>
+      <c r="G19" s="432"/>
+      <c r="H19" s="433"/>
       <c r="I19" s="221"/>
       <c r="J19" s="28"/>
       <c r="K19" s="28"/>
@@ -17911,7 +17892,7 @@
     </row>
     <row r="20" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="28"/>
-      <c r="B20" s="431" t="s">
+      <c r="B20" s="434" t="s">
         <v>401</v>
       </c>
       <c r="C20" s="267" t="s">
@@ -17963,7 +17944,7 @@
     </row>
     <row r="21" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="28"/>
-      <c r="B21" s="432"/>
+      <c r="B21" s="435"/>
       <c r="C21" s="267" t="s">
         <v>287</v>
       </c>
@@ -18013,13 +17994,13 @@
     </row>
     <row r="22" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="28"/>
-      <c r="B22" s="416"/>
-      <c r="C22" s="417"/>
-      <c r="D22" s="417"/>
-      <c r="E22" s="417"/>
-      <c r="F22" s="417"/>
-      <c r="G22" s="417"/>
-      <c r="H22" s="418"/>
+      <c r="B22" s="431"/>
+      <c r="C22" s="432"/>
+      <c r="D22" s="432"/>
+      <c r="E22" s="432"/>
+      <c r="F22" s="432"/>
+      <c r="G22" s="432"/>
+      <c r="H22" s="433"/>
       <c r="I22" s="221"/>
       <c r="J22" s="28"/>
       <c r="K22" s="28"/>
@@ -18055,7 +18036,7 @@
     </row>
     <row r="23" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="28"/>
-      <c r="B23" s="431" t="s">
+      <c r="B23" s="434" t="s">
         <v>402</v>
       </c>
       <c r="C23" s="267" t="s">
@@ -18107,7 +18088,7 @@
     </row>
     <row r="24" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="28"/>
-      <c r="B24" s="432"/>
+      <c r="B24" s="435"/>
       <c r="C24" s="267" t="s">
         <v>287</v>
       </c>
@@ -18157,13 +18138,13 @@
     </row>
     <row r="25" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="28"/>
-      <c r="B25" s="416"/>
-      <c r="C25" s="417"/>
-      <c r="D25" s="417"/>
-      <c r="E25" s="417"/>
-      <c r="F25" s="417"/>
-      <c r="G25" s="417"/>
-      <c r="H25" s="418"/>
+      <c r="B25" s="431"/>
+      <c r="C25" s="432"/>
+      <c r="D25" s="432"/>
+      <c r="E25" s="432"/>
+      <c r="F25" s="432"/>
+      <c r="G25" s="432"/>
+      <c r="H25" s="433"/>
       <c r="I25" s="221"/>
       <c r="J25" s="28"/>
       <c r="K25" s="28"/>
@@ -18199,7 +18180,7 @@
     </row>
     <row r="26" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="28"/>
-      <c r="B26" s="431" t="s">
+      <c r="B26" s="434" t="s">
         <v>403</v>
       </c>
       <c r="C26" s="267" t="s">
@@ -18251,7 +18232,7 @@
     </row>
     <row r="27" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="28"/>
-      <c r="B27" s="432"/>
+      <c r="B27" s="435"/>
       <c r="C27" s="267" t="s">
         <v>287</v>
       </c>
@@ -18301,13 +18282,13 @@
     </row>
     <row r="28" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="28"/>
-      <c r="B28" s="416"/>
-      <c r="C28" s="417"/>
-      <c r="D28" s="417"/>
-      <c r="E28" s="417"/>
-      <c r="F28" s="417"/>
-      <c r="G28" s="417"/>
-      <c r="H28" s="418"/>
+      <c r="B28" s="431"/>
+      <c r="C28" s="432"/>
+      <c r="D28" s="432"/>
+      <c r="E28" s="432"/>
+      <c r="F28" s="432"/>
+      <c r="G28" s="432"/>
+      <c r="H28" s="433"/>
       <c r="I28" s="221"/>
       <c r="J28" s="28"/>
       <c r="K28" s="28"/>
@@ -18343,7 +18324,7 @@
     </row>
     <row r="29" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="28"/>
-      <c r="B29" s="431" t="s">
+      <c r="B29" s="434" t="s">
         <v>404</v>
       </c>
       <c r="C29" s="267" t="s">
@@ -18395,7 +18376,7 @@
     </row>
     <row r="30" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="28"/>
-      <c r="B30" s="432"/>
+      <c r="B30" s="435"/>
       <c r="C30" s="267" t="s">
         <v>287</v>
       </c>
@@ -18445,13 +18426,13 @@
     </row>
     <row r="31" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="28"/>
-      <c r="B31" s="416"/>
-      <c r="C31" s="417"/>
-      <c r="D31" s="417"/>
-      <c r="E31" s="417"/>
-      <c r="F31" s="417"/>
-      <c r="G31" s="417"/>
-      <c r="H31" s="418"/>
+      <c r="B31" s="431"/>
+      <c r="C31" s="432"/>
+      <c r="D31" s="432"/>
+      <c r="E31" s="432"/>
+      <c r="F31" s="432"/>
+      <c r="G31" s="432"/>
+      <c r="H31" s="433"/>
       <c r="I31" s="221"/>
       <c r="J31" s="28"/>
       <c r="K31" s="28"/>
@@ -18487,7 +18468,7 @@
     </row>
     <row r="32" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="28"/>
-      <c r="B32" s="431" t="s">
+      <c r="B32" s="434" t="s">
         <v>405</v>
       </c>
       <c r="C32" s="267" t="s">
@@ -18539,7 +18520,7 @@
     </row>
     <row r="33" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="28"/>
-      <c r="B33" s="432"/>
+      <c r="B33" s="435"/>
       <c r="C33" s="267" t="s">
         <v>287</v>
       </c>
@@ -18589,13 +18570,13 @@
     </row>
     <row r="34" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="28"/>
-      <c r="B34" s="416"/>
-      <c r="C34" s="417"/>
-      <c r="D34" s="417"/>
-      <c r="E34" s="417"/>
-      <c r="F34" s="417"/>
-      <c r="G34" s="417"/>
-      <c r="H34" s="418"/>
+      <c r="B34" s="431"/>
+      <c r="C34" s="432"/>
+      <c r="D34" s="432"/>
+      <c r="E34" s="432"/>
+      <c r="F34" s="432"/>
+      <c r="G34" s="432"/>
+      <c r="H34" s="433"/>
       <c r="I34" s="221"/>
       <c r="J34" s="28"/>
       <c r="K34" s="28"/>
@@ -18631,15 +18612,15 @@
     </row>
     <row r="35" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="220"/>
-      <c r="B35" s="421" t="s">
+      <c r="B35" s="437" t="s">
         <v>82</v>
       </c>
-      <c r="C35" s="422"/>
-      <c r="D35" s="422"/>
-      <c r="E35" s="422"/>
-      <c r="F35" s="422"/>
-      <c r="G35" s="422"/>
-      <c r="H35" s="423"/>
+      <c r="C35" s="438"/>
+      <c r="D35" s="438"/>
+      <c r="E35" s="438"/>
+      <c r="F35" s="438"/>
+      <c r="G35" s="438"/>
+      <c r="H35" s="439"/>
       <c r="I35" s="221"/>
       <c r="J35" s="28"/>
       <c r="K35" s="28"/>
@@ -18678,10 +18659,10 @@
       <c r="B36" s="258" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="419" t="s">
+      <c r="C36" s="446" t="s">
         <v>77</v>
       </c>
-      <c r="D36" s="420"/>
+      <c r="D36" s="447"/>
       <c r="E36" s="223" t="s">
         <v>78</v>
       </c>
@@ -18729,7 +18710,7 @@
     </row>
     <row r="37" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A37" s="222"/>
-      <c r="B37" s="430" t="s">
+      <c r="B37" s="448" t="s">
         <v>480</v>
       </c>
       <c r="C37" s="267" t="s">
@@ -18781,7 +18762,7 @@
     </row>
     <row r="38" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A38" s="229"/>
-      <c r="B38" s="415"/>
+      <c r="B38" s="436"/>
       <c r="C38" s="267" t="s">
         <v>287</v>
       </c>
@@ -18831,13 +18812,13 @@
     </row>
     <row r="39" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A39" s="229"/>
-      <c r="B39" s="416"/>
-      <c r="C39" s="417"/>
-      <c r="D39" s="417"/>
-      <c r="E39" s="417"/>
-      <c r="F39" s="417"/>
-      <c r="G39" s="417"/>
-      <c r="H39" s="418"/>
+      <c r="B39" s="431"/>
+      <c r="C39" s="432"/>
+      <c r="D39" s="432"/>
+      <c r="E39" s="432"/>
+      <c r="F39" s="432"/>
+      <c r="G39" s="432"/>
+      <c r="H39" s="433"/>
       <c r="I39" s="221"/>
       <c r="J39" s="28"/>
       <c r="L39" s="28"/>
@@ -18872,7 +18853,7 @@
     </row>
     <row r="40" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="220"/>
-      <c r="B40" s="415" t="s">
+      <c r="B40" s="436" t="s">
         <v>481</v>
       </c>
       <c r="C40" s="267" t="s">
@@ -18924,7 +18905,7 @@
     </row>
     <row r="41" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A41" s="229"/>
-      <c r="B41" s="415"/>
+      <c r="B41" s="436"/>
       <c r="C41" s="267" t="s">
         <v>287</v>
       </c>
@@ -18974,13 +18955,13 @@
     </row>
     <row r="42" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A42" s="220"/>
-      <c r="B42" s="416"/>
-      <c r="C42" s="417"/>
-      <c r="D42" s="417"/>
-      <c r="E42" s="417"/>
-      <c r="F42" s="417"/>
-      <c r="G42" s="417"/>
-      <c r="H42" s="418"/>
+      <c r="B42" s="431"/>
+      <c r="C42" s="432"/>
+      <c r="D42" s="432"/>
+      <c r="E42" s="432"/>
+      <c r="F42" s="432"/>
+      <c r="G42" s="432"/>
+      <c r="H42" s="433"/>
       <c r="I42" s="221"/>
       <c r="J42" s="28"/>
       <c r="K42" s="28"/>
@@ -19016,7 +18997,7 @@
     </row>
     <row r="43" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="220"/>
-      <c r="B43" s="415" t="s">
+      <c r="B43" s="436" t="s">
         <v>482</v>
       </c>
       <c r="C43" s="267" t="s">
@@ -19068,7 +19049,7 @@
     </row>
     <row r="44" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A44" s="220"/>
-      <c r="B44" s="415"/>
+      <c r="B44" s="436"/>
       <c r="C44" s="267" t="s">
         <v>287</v>
       </c>
@@ -19118,13 +19099,13 @@
     </row>
     <row r="45" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A45" s="220"/>
-      <c r="B45" s="416"/>
-      <c r="C45" s="417"/>
-      <c r="D45" s="417"/>
-      <c r="E45" s="417"/>
-      <c r="F45" s="417"/>
-      <c r="G45" s="417"/>
-      <c r="H45" s="418"/>
+      <c r="B45" s="431"/>
+      <c r="C45" s="432"/>
+      <c r="D45" s="432"/>
+      <c r="E45" s="432"/>
+      <c r="F45" s="432"/>
+      <c r="G45" s="432"/>
+      <c r="H45" s="433"/>
       <c r="I45" s="221"/>
       <c r="J45" s="28"/>
       <c r="K45" s="28"/>
@@ -19160,7 +19141,7 @@
     </row>
     <row r="46" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="220"/>
-      <c r="B46" s="415" t="s">
+      <c r="B46" s="436" t="s">
         <v>483</v>
       </c>
       <c r="C46" s="267" t="s">
@@ -19212,7 +19193,7 @@
     </row>
     <row r="47" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A47" s="220"/>
-      <c r="B47" s="415"/>
+      <c r="B47" s="436"/>
       <c r="C47" s="267" t="s">
         <v>287</v>
       </c>
@@ -19262,13 +19243,13 @@
     </row>
     <row r="48" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A48" s="220"/>
-      <c r="B48" s="416"/>
-      <c r="C48" s="417"/>
-      <c r="D48" s="417"/>
-      <c r="E48" s="417"/>
-      <c r="F48" s="417"/>
-      <c r="G48" s="417"/>
-      <c r="H48" s="418"/>
+      <c r="B48" s="431"/>
+      <c r="C48" s="432"/>
+      <c r="D48" s="432"/>
+      <c r="E48" s="432"/>
+      <c r="F48" s="432"/>
+      <c r="G48" s="432"/>
+      <c r="H48" s="433"/>
       <c r="I48" s="221"/>
       <c r="J48" s="28"/>
       <c r="K48" s="28"/>
@@ -19304,7 +19285,7 @@
     </row>
     <row r="49" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="220"/>
-      <c r="B49" s="415" t="s">
+      <c r="B49" s="436" t="s">
         <v>484</v>
       </c>
       <c r="C49" s="267" t="s">
@@ -19317,7 +19298,9 @@
         <v>489</v>
       </c>
       <c r="F49" s="228"/>
-      <c r="G49" s="355"/>
+      <c r="G49" s="364" t="s">
+        <v>489</v>
+      </c>
       <c r="H49" s="183"/>
       <c r="I49" s="221"/>
       <c r="J49" s="28"/>
@@ -19354,7 +19337,7 @@
     </row>
     <row r="50" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A50" s="220"/>
-      <c r="B50" s="415"/>
+      <c r="B50" s="436"/>
       <c r="C50" s="267" t="s">
         <v>287</v>
       </c>
@@ -19365,7 +19348,9 @@
         <v>491</v>
       </c>
       <c r="F50" s="183"/>
-      <c r="G50" s="355"/>
+      <c r="G50" s="364" t="s">
+        <v>515</v>
+      </c>
       <c r="H50" s="183"/>
       <c r="I50" s="221"/>
       <c r="J50" s="28"/>
@@ -19402,13 +19387,13 @@
     </row>
     <row r="51" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A51" s="220"/>
-      <c r="B51" s="416"/>
-      <c r="C51" s="417"/>
-      <c r="D51" s="417"/>
-      <c r="E51" s="417"/>
-      <c r="F51" s="417"/>
-      <c r="G51" s="417"/>
-      <c r="H51" s="418"/>
+      <c r="B51" s="431"/>
+      <c r="C51" s="432"/>
+      <c r="D51" s="432"/>
+      <c r="E51" s="432"/>
+      <c r="F51" s="432"/>
+      <c r="G51" s="432"/>
+      <c r="H51" s="433"/>
       <c r="I51" s="221"/>
       <c r="J51" s="28"/>
       <c r="K51" s="28"/>
@@ -19444,7 +19429,7 @@
     </row>
     <row r="52" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="220"/>
-      <c r="B52" s="415" t="s">
+      <c r="B52" s="436" t="s">
         <v>485</v>
       </c>
       <c r="C52" s="267" t="s">
@@ -19453,9 +19438,13 @@
       <c r="D52" s="354" t="s">
         <v>80</v>
       </c>
-      <c r="E52" s="355"/>
+      <c r="E52" s="364" t="s">
+        <v>489</v>
+      </c>
       <c r="F52" s="228"/>
-      <c r="G52" s="355"/>
+      <c r="G52" s="364" t="s">
+        <v>513</v>
+      </c>
       <c r="H52" s="183"/>
       <c r="I52" s="221"/>
       <c r="J52" s="28"/>
@@ -19492,16 +19481,20 @@
     </row>
     <row r="53" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A53" s="220"/>
-      <c r="B53" s="415"/>
+      <c r="B53" s="436"/>
       <c r="C53" s="267" t="s">
         <v>287</v>
       </c>
       <c r="D53" s="354" t="s">
         <v>80</v>
       </c>
-      <c r="E53" s="355"/>
+      <c r="E53" s="355" t="s">
+        <v>515</v>
+      </c>
       <c r="F53" s="183"/>
-      <c r="G53" s="355"/>
+      <c r="G53" s="364" t="s">
+        <v>514</v>
+      </c>
       <c r="H53" s="183"/>
       <c r="I53" s="221"/>
       <c r="J53" s="28"/>
@@ -19538,13 +19531,13 @@
     </row>
     <row r="54" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A54" s="220"/>
-      <c r="B54" s="416"/>
-      <c r="C54" s="417"/>
-      <c r="D54" s="417"/>
-      <c r="E54" s="417"/>
-      <c r="F54" s="417"/>
-      <c r="G54" s="417"/>
-      <c r="H54" s="418"/>
+      <c r="B54" s="431"/>
+      <c r="C54" s="432"/>
+      <c r="D54" s="432"/>
+      <c r="E54" s="432"/>
+      <c r="F54" s="432"/>
+      <c r="G54" s="432"/>
+      <c r="H54" s="433"/>
       <c r="I54" s="221"/>
       <c r="J54" s="28"/>
       <c r="K54" s="28"/>
@@ -19580,7 +19573,7 @@
     </row>
     <row r="55" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="220"/>
-      <c r="B55" s="415" t="s">
+      <c r="B55" s="436" t="s">
         <v>486</v>
       </c>
       <c r="C55" s="267" t="s">
@@ -19589,7 +19582,9 @@
       <c r="D55" s="354" t="s">
         <v>80</v>
       </c>
-      <c r="E55" s="355"/>
+      <c r="E55" s="364" t="s">
+        <v>513</v>
+      </c>
       <c r="F55" s="228"/>
       <c r="G55" s="355"/>
       <c r="H55" s="183"/>
@@ -19628,14 +19623,16 @@
     </row>
     <row r="56" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A56" s="220"/>
-      <c r="B56" s="415"/>
+      <c r="B56" s="436"/>
       <c r="C56" s="267" t="s">
         <v>287</v>
       </c>
       <c r="D56" s="354" t="s">
         <v>80</v>
       </c>
-      <c r="E56" s="355"/>
+      <c r="E56" s="364" t="s">
+        <v>514</v>
+      </c>
       <c r="F56" s="183"/>
       <c r="G56" s="355"/>
       <c r="H56" s="183"/>
@@ -19674,13 +19671,13 @@
     </row>
     <row r="57" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A57" s="220"/>
-      <c r="B57" s="416"/>
-      <c r="C57" s="417"/>
-      <c r="D57" s="417"/>
-      <c r="E57" s="417"/>
-      <c r="F57" s="417"/>
-      <c r="G57" s="417"/>
-      <c r="H57" s="418"/>
+      <c r="B57" s="431"/>
+      <c r="C57" s="432"/>
+      <c r="D57" s="432"/>
+      <c r="E57" s="432"/>
+      <c r="F57" s="432"/>
+      <c r="G57" s="432"/>
+      <c r="H57" s="433"/>
       <c r="I57" s="221"/>
       <c r="J57" s="28"/>
       <c r="K57" s="28"/>
@@ -19716,7 +19713,7 @@
     </row>
     <row r="58" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="220"/>
-      <c r="B58" s="415" t="s">
+      <c r="B58" s="436" t="s">
         <v>487</v>
       </c>
       <c r="C58" s="267" t="s">
@@ -19764,7 +19761,7 @@
     </row>
     <row r="59" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A59" s="220"/>
-      <c r="B59" s="415"/>
+      <c r="B59" s="436"/>
       <c r="C59" s="267" t="s">
         <v>287</v>
       </c>
@@ -19810,13 +19807,13 @@
     </row>
     <row r="60" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A60" s="220"/>
-      <c r="B60" s="416"/>
-      <c r="C60" s="417"/>
-      <c r="D60" s="417"/>
-      <c r="E60" s="417"/>
-      <c r="F60" s="417"/>
-      <c r="G60" s="417"/>
-      <c r="H60" s="418"/>
+      <c r="B60" s="431"/>
+      <c r="C60" s="432"/>
+      <c r="D60" s="432"/>
+      <c r="E60" s="432"/>
+      <c r="F60" s="432"/>
+      <c r="G60" s="432"/>
+      <c r="H60" s="433"/>
       <c r="I60" s="221"/>
       <c r="J60" s="28"/>
       <c r="K60" s="28"/>
@@ -19852,15 +19849,15 @@
     </row>
     <row r="61" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="220"/>
-      <c r="B61" s="427" t="s">
+      <c r="B61" s="443" t="s">
         <v>83</v>
       </c>
-      <c r="C61" s="428"/>
-      <c r="D61" s="428"/>
-      <c r="E61" s="428"/>
-      <c r="F61" s="428"/>
-      <c r="G61" s="428"/>
-      <c r="H61" s="429"/>
+      <c r="C61" s="444"/>
+      <c r="D61" s="444"/>
+      <c r="E61" s="444"/>
+      <c r="F61" s="444"/>
+      <c r="G61" s="444"/>
+      <c r="H61" s="445"/>
       <c r="I61" s="221"/>
       <c r="J61" s="28"/>
       <c r="K61" s="28"/>
@@ -19899,10 +19896,10 @@
       <c r="B62" s="258" t="s">
         <v>40</v>
       </c>
-      <c r="C62" s="419" t="s">
+      <c r="C62" s="446" t="s">
         <v>77</v>
       </c>
-      <c r="D62" s="420"/>
+      <c r="D62" s="447"/>
       <c r="E62" s="223" t="s">
         <v>78</v>
       </c>
@@ -19950,7 +19947,7 @@
     </row>
     <row r="63" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A63" s="222"/>
-      <c r="B63" s="415"/>
+      <c r="B63" s="436"/>
       <c r="C63" s="267" t="s">
         <v>286</v>
       </c>
@@ -19996,7 +19993,7 @@
     </row>
     <row r="64" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A64" s="229"/>
-      <c r="B64" s="415"/>
+      <c r="B64" s="436"/>
       <c r="C64" s="267" t="s">
         <v>287</v>
       </c>
@@ -20042,13 +20039,13 @@
     </row>
     <row r="65" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A65" s="229"/>
-      <c r="B65" s="416"/>
-      <c r="C65" s="417"/>
-      <c r="D65" s="417"/>
-      <c r="E65" s="417"/>
-      <c r="F65" s="417"/>
-      <c r="G65" s="417"/>
-      <c r="H65" s="418"/>
+      <c r="B65" s="431"/>
+      <c r="C65" s="432"/>
+      <c r="D65" s="432"/>
+      <c r="E65" s="432"/>
+      <c r="F65" s="432"/>
+      <c r="G65" s="432"/>
+      <c r="H65" s="433"/>
       <c r="I65" s="221"/>
       <c r="J65" s="28"/>
       <c r="K65" s="28"/>
@@ -20084,7 +20081,7 @@
     </row>
     <row r="66" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="220"/>
-      <c r="B66" s="415"/>
+      <c r="B66" s="436"/>
       <c r="C66" s="267" t="s">
         <v>286</v>
       </c>
@@ -20130,7 +20127,7 @@
     </row>
     <row r="67" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A67" s="229"/>
-      <c r="B67" s="415"/>
+      <c r="B67" s="436"/>
       <c r="C67" s="267" t="s">
         <v>287</v>
       </c>
@@ -20176,13 +20173,13 @@
     </row>
     <row r="68" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A68" s="220"/>
-      <c r="B68" s="416"/>
-      <c r="C68" s="417"/>
-      <c r="D68" s="417"/>
-      <c r="E68" s="417"/>
-      <c r="F68" s="417"/>
-      <c r="G68" s="417"/>
-      <c r="H68" s="418"/>
+      <c r="B68" s="431"/>
+      <c r="C68" s="432"/>
+      <c r="D68" s="432"/>
+      <c r="E68" s="432"/>
+      <c r="F68" s="432"/>
+      <c r="G68" s="432"/>
+      <c r="H68" s="433"/>
       <c r="I68" s="221"/>
       <c r="J68" s="28"/>
       <c r="K68" s="28"/>
@@ -20218,7 +20215,7 @@
     </row>
     <row r="69" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="220"/>
-      <c r="B69" s="415"/>
+      <c r="B69" s="436"/>
       <c r="C69" s="267" t="s">
         <v>286</v>
       </c>
@@ -20264,7 +20261,7 @@
     </row>
     <row r="70" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A70" s="220"/>
-      <c r="B70" s="415"/>
+      <c r="B70" s="436"/>
       <c r="C70" s="267" t="s">
         <v>287</v>
       </c>
@@ -20310,13 +20307,13 @@
     </row>
     <row r="71" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A71" s="220"/>
-      <c r="B71" s="416"/>
-      <c r="C71" s="417"/>
-      <c r="D71" s="417"/>
-      <c r="E71" s="417"/>
-      <c r="F71" s="417"/>
-      <c r="G71" s="417"/>
-      <c r="H71" s="418"/>
+      <c r="B71" s="431"/>
+      <c r="C71" s="432"/>
+      <c r="D71" s="432"/>
+      <c r="E71" s="432"/>
+      <c r="F71" s="432"/>
+      <c r="G71" s="432"/>
+      <c r="H71" s="433"/>
       <c r="I71" s="221"/>
       <c r="J71" s="28"/>
       <c r="K71" s="28"/>
@@ -21573,20 +21570,25 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B60:H60"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:H45"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B54:H54"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B51:H51"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:H48"/>
+    <mergeCell ref="B71:H71"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B65:H65"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="B68:H68"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B61:H61"/>
@@ -21603,25 +21605,20 @@
     <mergeCell ref="B13:H13"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B71:H71"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="B65:H65"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="B68:H68"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B60:H60"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B57:H57"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:H45"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B54:H54"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B51:H51"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B48:H48"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:B33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21652,10 +21649,10 @@
       <c r="B1" s="329" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="443" t="s">
+      <c r="C1" s="457" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="444"/>
+      <c r="D1" s="458"/>
       <c r="E1" s="329" t="s">
         <v>96</v>
       </c>
@@ -21670,10 +21667,10 @@
       <c r="B2" s="333" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="441" t="s">
+      <c r="C2" s="451" t="s">
         <v>289</v>
       </c>
-      <c r="D2" s="441"/>
+      <c r="D2" s="451"/>
       <c r="E2" s="333"/>
       <c r="F2" s="333"/>
     </row>
@@ -21682,10 +21679,10 @@
         <v>103</v>
       </c>
       <c r="B3" s="334"/>
-      <c r="C3" s="445" t="s">
+      <c r="C3" s="459" t="s">
         <v>290</v>
       </c>
-      <c r="D3" s="445"/>
+      <c r="D3" s="459"/>
       <c r="E3" s="335" t="s">
         <v>124</v>
       </c>
@@ -21698,10 +21695,10 @@
         <v>105</v>
       </c>
       <c r="B4" s="334"/>
-      <c r="C4" s="442" t="s">
+      <c r="C4" s="450" t="s">
         <v>106</v>
       </c>
-      <c r="D4" s="442"/>
+      <c r="D4" s="450"/>
       <c r="E4" s="335" t="s">
         <v>124</v>
       </c>
@@ -21716,10 +21713,10 @@
       <c r="B5" s="333" t="s">
         <v>291</v>
       </c>
-      <c r="C5" s="436" t="s">
+      <c r="C5" s="460" t="s">
         <v>293</v>
       </c>
-      <c r="D5" s="436"/>
+      <c r="D5" s="460"/>
       <c r="E5" s="333"/>
       <c r="F5" s="333"/>
     </row>
@@ -21727,10 +21724,10 @@
       <c r="A6" s="339" t="s">
         <v>107</v>
       </c>
-      <c r="C6" s="435" t="s">
+      <c r="C6" s="452" t="s">
         <v>294</v>
       </c>
-      <c r="D6" s="435"/>
+      <c r="D6" s="452"/>
       <c r="E6" s="335" t="s">
         <v>124</v>
       </c>
@@ -21757,10 +21754,10 @@
       <c r="A8" s="339" t="s">
         <v>394</v>
       </c>
-      <c r="C8" s="442" t="s">
+      <c r="C8" s="450" t="s">
         <v>395</v>
       </c>
-      <c r="D8" s="442"/>
+      <c r="D8" s="450"/>
       <c r="E8" s="335" t="s">
         <v>124</v>
       </c>
@@ -21772,10 +21769,10 @@
       <c r="A9" s="339" t="s">
         <v>416</v>
       </c>
-      <c r="C9" s="442" t="s">
+      <c r="C9" s="450" t="s">
         <v>417</v>
       </c>
-      <c r="D9" s="442"/>
+      <c r="D9" s="450"/>
       <c r="E9" s="335" t="s">
         <v>124</v>
       </c>
@@ -21805,10 +21802,10 @@
       <c r="B11" s="333" t="s">
         <v>291</v>
       </c>
-      <c r="C11" s="441" t="s">
+      <c r="C11" s="451" t="s">
         <v>292</v>
       </c>
-      <c r="D11" s="441"/>
+      <c r="D11" s="451"/>
       <c r="E11" s="333"/>
       <c r="F11" s="333"/>
     </row>
@@ -21816,10 +21813,10 @@
       <c r="A12" s="339" t="s">
         <v>108</v>
       </c>
-      <c r="C12" s="435" t="s">
+      <c r="C12" s="452" t="s">
         <v>301</v>
       </c>
-      <c r="D12" s="435"/>
+      <c r="D12" s="452"/>
       <c r="E12" s="335" t="s">
         <v>124</v>
       </c>
@@ -21831,10 +21828,10 @@
       <c r="A13" s="339" t="s">
         <v>81</v>
       </c>
-      <c r="C13" s="435" t="s">
+      <c r="C13" s="452" t="s">
         <v>302</v>
       </c>
-      <c r="D13" s="435"/>
+      <c r="D13" s="452"/>
       <c r="E13" s="335" t="s">
         <v>124</v>
       </c>
@@ -21846,10 +21843,10 @@
       <c r="A14" s="339" t="s">
         <v>313</v>
       </c>
-      <c r="C14" s="435" t="s">
+      <c r="C14" s="452" t="s">
         <v>303</v>
       </c>
-      <c r="D14" s="435"/>
+      <c r="D14" s="452"/>
       <c r="E14" s="335" t="s">
         <v>124</v>
       </c>
@@ -21861,10 +21858,10 @@
       <c r="A15" s="339" t="s">
         <v>314</v>
       </c>
-      <c r="C15" s="435" t="s">
+      <c r="C15" s="452" t="s">
         <v>304</v>
       </c>
-      <c r="D15" s="435"/>
+      <c r="D15" s="452"/>
       <c r="E15" s="335" t="s">
         <v>124</v>
       </c>
@@ -21876,10 +21873,10 @@
       <c r="A16" s="339" t="s">
         <v>315</v>
       </c>
-      <c r="C16" s="435" t="s">
+      <c r="C16" s="452" t="s">
         <v>305</v>
       </c>
-      <c r="D16" s="435"/>
+      <c r="D16" s="452"/>
       <c r="E16" s="335" t="s">
         <v>124</v>
       </c>
@@ -21891,10 +21888,10 @@
       <c r="A17" s="339" t="s">
         <v>316</v>
       </c>
-      <c r="C17" s="435" t="s">
+      <c r="C17" s="452" t="s">
         <v>306</v>
       </c>
-      <c r="D17" s="435"/>
+      <c r="D17" s="452"/>
       <c r="E17" s="335" t="s">
         <v>124</v>
       </c>
@@ -21906,10 +21903,10 @@
       <c r="A18" s="339" t="s">
         <v>317</v>
       </c>
-      <c r="C18" s="435" t="s">
+      <c r="C18" s="452" t="s">
         <v>307</v>
       </c>
-      <c r="D18" s="435"/>
+      <c r="D18" s="452"/>
       <c r="E18" s="335" t="s">
         <v>124</v>
       </c>
@@ -21921,10 +21918,10 @@
       <c r="A19" s="339" t="s">
         <v>318</v>
       </c>
-      <c r="C19" s="435" t="s">
+      <c r="C19" s="452" t="s">
         <v>308</v>
       </c>
-      <c r="D19" s="435"/>
+      <c r="D19" s="452"/>
       <c r="E19" s="335" t="s">
         <v>124</v>
       </c>
@@ -21936,10 +21933,10 @@
       <c r="A20" s="339" t="s">
         <v>319</v>
       </c>
-      <c r="C20" s="435" t="s">
+      <c r="C20" s="452" t="s">
         <v>309</v>
       </c>
-      <c r="D20" s="435"/>
+      <c r="D20" s="452"/>
       <c r="E20" s="335" t="s">
         <v>124</v>
       </c>
@@ -21951,10 +21948,10 @@
       <c r="A21" s="339" t="s">
         <v>320</v>
       </c>
-      <c r="C21" s="435" t="s">
+      <c r="C21" s="452" t="s">
         <v>310</v>
       </c>
-      <c r="D21" s="435"/>
+      <c r="D21" s="452"/>
       <c r="E21" s="335" t="s">
         <v>124</v>
       </c>
@@ -21966,10 +21963,10 @@
       <c r="A22" s="339" t="s">
         <v>321</v>
       </c>
-      <c r="C22" s="435" t="s">
+      <c r="C22" s="452" t="s">
         <v>311</v>
       </c>
-      <c r="D22" s="435"/>
+      <c r="D22" s="452"/>
       <c r="E22" s="335" t="s">
         <v>124</v>
       </c>
@@ -21996,10 +21993,10 @@
       <c r="A24" s="339" t="s">
         <v>511</v>
       </c>
-      <c r="C24" s="442" t="s">
+      <c r="C24" s="450" t="s">
         <v>512</v>
       </c>
-      <c r="D24" s="442"/>
+      <c r="D24" s="450"/>
       <c r="E24" s="298" t="s">
         <v>312</v>
       </c>
@@ -22014,10 +22011,10 @@
       <c r="B25" s="333" t="s">
         <v>329</v>
       </c>
-      <c r="C25" s="440" t="s">
+      <c r="C25" s="455" t="s">
         <v>322</v>
       </c>
-      <c r="D25" s="440"/>
+      <c r="D25" s="455"/>
       <c r="E25" s="333"/>
       <c r="F25" s="333"/>
     </row>
@@ -22025,10 +22022,10 @@
       <c r="A26" s="339" t="s">
         <v>335</v>
       </c>
-      <c r="C26" s="439" t="s">
+      <c r="C26" s="453" t="s">
         <v>338</v>
       </c>
-      <c r="D26" s="439"/>
+      <c r="D26" s="453"/>
       <c r="E26" s="335" t="s">
         <v>124</v>
       </c>
@@ -22040,10 +22037,10 @@
       <c r="A27" s="339" t="s">
         <v>336</v>
       </c>
-      <c r="C27" s="439" t="s">
+      <c r="C27" s="453" t="s">
         <v>337</v>
       </c>
-      <c r="D27" s="439"/>
+      <c r="D27" s="453"/>
       <c r="E27" s="335" t="s">
         <v>124</v>
       </c>
@@ -22055,10 +22052,10 @@
       <c r="A28" s="339" t="s">
         <v>339</v>
       </c>
-      <c r="C28" s="439" t="s">
+      <c r="C28" s="453" t="s">
         <v>371</v>
       </c>
-      <c r="D28" s="439"/>
+      <c r="D28" s="453"/>
       <c r="E28" s="298" t="s">
         <v>312</v>
       </c>
@@ -22070,10 +22067,10 @@
       <c r="A29" s="339" t="s">
         <v>362</v>
       </c>
-      <c r="C29" s="438" t="s">
+      <c r="C29" s="449" t="s">
         <v>364</v>
       </c>
-      <c r="D29" s="438"/>
+      <c r="D29" s="449"/>
       <c r="E29" s="298" t="s">
         <v>312</v>
       </c>
@@ -22085,10 +22082,10 @@
       <c r="A30" s="339" t="s">
         <v>340</v>
       </c>
-      <c r="C30" s="439" t="s">
+      <c r="C30" s="453" t="s">
         <v>363</v>
       </c>
-      <c r="D30" s="439"/>
+      <c r="D30" s="453"/>
       <c r="E30" s="298" t="s">
         <v>312</v>
       </c>
@@ -22100,10 +22097,10 @@
       <c r="A31" s="339" t="s">
         <v>365</v>
       </c>
-      <c r="C31" s="439" t="s">
+      <c r="C31" s="453" t="s">
         <v>372</v>
       </c>
-      <c r="D31" s="439"/>
+      <c r="D31" s="453"/>
       <c r="E31" s="298" t="s">
         <v>312</v>
       </c>
@@ -22115,10 +22112,10 @@
       <c r="A32" s="339" t="s">
         <v>366</v>
       </c>
-      <c r="C32" s="438" t="s">
+      <c r="C32" s="449" t="s">
         <v>367</v>
       </c>
-      <c r="D32" s="438"/>
+      <c r="D32" s="449"/>
       <c r="E32" s="298" t="s">
         <v>312</v>
       </c>
@@ -22130,10 +22127,10 @@
       <c r="A33" s="339" t="s">
         <v>368</v>
       </c>
-      <c r="C33" s="438" t="s">
+      <c r="C33" s="449" t="s">
         <v>369</v>
       </c>
-      <c r="D33" s="438"/>
+      <c r="D33" s="449"/>
       <c r="E33" s="298" t="s">
         <v>312</v>
       </c>
@@ -22145,10 +22142,10 @@
       <c r="A34" s="339" t="s">
         <v>370</v>
       </c>
-      <c r="C34" s="438" t="s">
+      <c r="C34" s="449" t="s">
         <v>380</v>
       </c>
-      <c r="D34" s="438"/>
+      <c r="D34" s="449"/>
       <c r="E34" s="298" t="s">
         <v>312</v>
       </c>
@@ -22160,10 +22157,10 @@
       <c r="A35" s="339" t="s">
         <v>375</v>
       </c>
-      <c r="C35" s="439" t="s">
+      <c r="C35" s="453" t="s">
         <v>381</v>
       </c>
-      <c r="D35" s="439"/>
+      <c r="D35" s="453"/>
       <c r="E35" s="298" t="s">
         <v>312</v>
       </c>
@@ -22175,10 +22172,10 @@
       <c r="A36" s="339" t="s">
         <v>378</v>
       </c>
-      <c r="C36" s="438" t="s">
+      <c r="C36" s="449" t="s">
         <v>373</v>
       </c>
-      <c r="D36" s="438"/>
+      <c r="D36" s="449"/>
       <c r="E36" s="298" t="s">
         <v>312</v>
       </c>
@@ -22190,10 +22187,10 @@
       <c r="A37" s="339" t="s">
         <v>382</v>
       </c>
-      <c r="C37" s="438" t="s">
+      <c r="C37" s="449" t="s">
         <v>374</v>
       </c>
-      <c r="D37" s="438"/>
+      <c r="D37" s="449"/>
       <c r="E37" s="298" t="s">
         <v>312</v>
       </c>
@@ -22205,10 +22202,10 @@
       <c r="A38" s="339" t="s">
         <v>383</v>
       </c>
-      <c r="C38" s="438" t="s">
+      <c r="C38" s="449" t="s">
         <v>377</v>
       </c>
-      <c r="D38" s="438"/>
+      <c r="D38" s="449"/>
       <c r="E38" s="335" t="s">
         <v>124</v>
       </c>
@@ -22220,10 +22217,10 @@
       <c r="A39" s="339" t="s">
         <v>384</v>
       </c>
-      <c r="C39" s="438" t="s">
+      <c r="C39" s="449" t="s">
         <v>376</v>
       </c>
-      <c r="D39" s="438"/>
+      <c r="D39" s="449"/>
       <c r="E39" s="298" t="s">
         <v>312</v>
       </c>
@@ -22235,10 +22232,10 @@
       <c r="A40" s="339" t="s">
         <v>385</v>
       </c>
-      <c r="C40" s="438" t="s">
+      <c r="C40" s="449" t="s">
         <v>379</v>
       </c>
-      <c r="D40" s="438"/>
+      <c r="D40" s="449"/>
       <c r="E40" s="298" t="s">
         <v>312</v>
       </c>
@@ -22253,10 +22250,10 @@
       <c r="B41" s="333" t="s">
         <v>329</v>
       </c>
-      <c r="C41" s="440" t="s">
+      <c r="C41" s="455" t="s">
         <v>418</v>
       </c>
-      <c r="D41" s="440"/>
+      <c r="D41" s="455"/>
       <c r="E41" s="333"/>
       <c r="F41" s="333"/>
     </row>
@@ -22264,10 +22261,10 @@
       <c r="A42" s="339" t="s">
         <v>387</v>
       </c>
-      <c r="C42" s="439" t="s">
+      <c r="C42" s="453" t="s">
         <v>419</v>
       </c>
-      <c r="D42" s="439"/>
+      <c r="D42" s="453"/>
       <c r="E42" s="298" t="s">
         <v>312</v>
       </c>
@@ -22279,10 +22276,10 @@
       <c r="A43" s="339" t="s">
         <v>388</v>
       </c>
-      <c r="C43" s="439" t="s">
+      <c r="C43" s="453" t="s">
         <v>420</v>
       </c>
-      <c r="D43" s="439"/>
+      <c r="D43" s="453"/>
       <c r="E43" s="298" t="s">
         <v>312</v>
       </c>
@@ -22294,10 +22291,10 @@
       <c r="A44" s="339" t="s">
         <v>389</v>
       </c>
-      <c r="C44" s="439" t="s">
+      <c r="C44" s="453" t="s">
         <v>386</v>
       </c>
-      <c r="D44" s="439"/>
+      <c r="D44" s="453"/>
       <c r="E44" s="298" t="s">
         <v>312</v>
       </c>
@@ -22309,10 +22306,10 @@
       <c r="A45" s="339" t="s">
         <v>390</v>
       </c>
-      <c r="C45" s="438" t="s">
+      <c r="C45" s="449" t="s">
         <v>421</v>
       </c>
-      <c r="D45" s="438"/>
+      <c r="D45" s="449"/>
       <c r="E45" s="298" t="s">
         <v>312</v>
       </c>
@@ -22324,10 +22321,10 @@
       <c r="A46" s="339" t="s">
         <v>391</v>
       </c>
-      <c r="C46" s="438" t="s">
+      <c r="C46" s="449" t="s">
         <v>422</v>
       </c>
-      <c r="D46" s="438"/>
+      <c r="D46" s="449"/>
       <c r="E46" s="298" t="s">
         <v>312</v>
       </c>
@@ -22339,10 +22336,10 @@
       <c r="A47" s="339" t="s">
         <v>506</v>
       </c>
-      <c r="C47" s="439" t="s">
+      <c r="C47" s="453" t="s">
         <v>505</v>
       </c>
-      <c r="D47" s="439"/>
+      <c r="D47" s="453"/>
       <c r="E47" s="298" t="s">
         <v>312</v>
       </c>
@@ -22357,10 +22354,10 @@
       <c r="B48" s="333" t="s">
         <v>329</v>
       </c>
-      <c r="C48" s="434" t="s">
+      <c r="C48" s="462" t="s">
         <v>323</v>
       </c>
-      <c r="D48" s="434"/>
+      <c r="D48" s="462"/>
       <c r="E48" s="333"/>
       <c r="F48" s="333"/>
     </row>
@@ -22368,10 +22365,10 @@
       <c r="A49" s="339" t="s">
         <v>425</v>
       </c>
-      <c r="C49" s="442" t="s">
+      <c r="C49" s="450" t="s">
         <v>423</v>
       </c>
-      <c r="D49" s="442"/>
+      <c r="D49" s="450"/>
       <c r="E49" s="298" t="s">
         <v>312</v>
       </c>
@@ -22383,10 +22380,10 @@
       <c r="A50" s="339" t="s">
         <v>426</v>
       </c>
-      <c r="C50" s="442" t="s">
+      <c r="C50" s="450" t="s">
         <v>424</v>
       </c>
-      <c r="D50" s="442"/>
+      <c r="D50" s="450"/>
       <c r="E50" s="298" t="s">
         <v>312</v>
       </c>
@@ -22398,10 +22395,10 @@
       <c r="A51" s="339" t="s">
         <v>427</v>
       </c>
-      <c r="C51" s="442" t="s">
+      <c r="C51" s="450" t="s">
         <v>428</v>
       </c>
-      <c r="D51" s="442"/>
+      <c r="D51" s="450"/>
       <c r="E51" s="298" t="s">
         <v>312</v>
       </c>
@@ -22413,10 +22410,10 @@
       <c r="A52" s="339" t="s">
         <v>431</v>
       </c>
-      <c r="C52" s="442" t="s">
+      <c r="C52" s="450" t="s">
         <v>429</v>
       </c>
-      <c r="D52" s="442"/>
+      <c r="D52" s="450"/>
       <c r="E52" s="298" t="s">
         <v>312</v>
       </c>
@@ -22428,10 +22425,10 @@
       <c r="A53" s="339" t="s">
         <v>507</v>
       </c>
-      <c r="C53" s="442" t="s">
+      <c r="C53" s="450" t="s">
         <v>430</v>
       </c>
-      <c r="D53" s="442"/>
+      <c r="D53" s="450"/>
       <c r="E53" s="298" t="s">
         <v>312</v>
       </c>
@@ -22446,10 +22443,10 @@
       <c r="B54" s="333" t="s">
         <v>329</v>
       </c>
-      <c r="C54" s="440" t="s">
+      <c r="C54" s="455" t="s">
         <v>326</v>
       </c>
-      <c r="D54" s="440"/>
+      <c r="D54" s="455"/>
       <c r="E54" s="333"/>
       <c r="F54" s="333"/>
     </row>
@@ -22457,10 +22454,10 @@
       <c r="A55" s="339" t="s">
         <v>454</v>
       </c>
-      <c r="C55" s="442" t="s">
+      <c r="C55" s="450" t="s">
         <v>452</v>
       </c>
-      <c r="D55" s="442"/>
+      <c r="D55" s="450"/>
       <c r="E55" s="298" t="s">
         <v>312</v>
       </c>
@@ -22472,10 +22469,10 @@
       <c r="A56" s="339" t="s">
         <v>455</v>
       </c>
-      <c r="C56" s="442" t="s">
+      <c r="C56" s="450" t="s">
         <v>451</v>
       </c>
-      <c r="D56" s="442"/>
+      <c r="D56" s="450"/>
       <c r="E56" s="298" t="s">
         <v>312</v>
       </c>
@@ -22487,10 +22484,10 @@
       <c r="A57" s="339" t="s">
         <v>456</v>
       </c>
-      <c r="C57" s="442" t="s">
+      <c r="C57" s="450" t="s">
         <v>453</v>
       </c>
-      <c r="D57" s="442"/>
+      <c r="D57" s="450"/>
       <c r="E57" s="298" t="s">
         <v>312</v>
       </c>
@@ -22505,10 +22502,10 @@
       <c r="B58" s="333" t="s">
         <v>329</v>
       </c>
-      <c r="C58" s="440" t="s">
+      <c r="C58" s="455" t="s">
         <v>327</v>
       </c>
-      <c r="D58" s="440"/>
+      <c r="D58" s="455"/>
       <c r="E58" s="333"/>
       <c r="F58" s="333"/>
     </row>
@@ -22516,10 +22513,10 @@
       <c r="A59" s="339" t="s">
         <v>459</v>
       </c>
-      <c r="C59" s="442" t="s">
+      <c r="C59" s="450" t="s">
         <v>457</v>
       </c>
-      <c r="D59" s="442"/>
+      <c r="D59" s="450"/>
       <c r="E59" s="298" t="s">
         <v>312</v>
       </c>
@@ -22531,10 +22528,10 @@
       <c r="A60" s="339" t="s">
         <v>460</v>
       </c>
-      <c r="C60" s="442" t="s">
+      <c r="C60" s="450" t="s">
         <v>458</v>
       </c>
-      <c r="D60" s="442"/>
+      <c r="D60" s="450"/>
       <c r="E60" s="298" t="s">
         <v>312</v>
       </c>
@@ -22543,24 +22540,24 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="446" t="s">
+      <c r="A61" s="454" t="s">
         <v>461</v>
       </c>
-      <c r="B61" s="447" t="s">
+      <c r="B61" s="456" t="s">
         <v>324</v>
       </c>
-      <c r="C61" s="434" t="s">
+      <c r="C61" s="462" t="s">
         <v>325</v>
       </c>
-      <c r="D61" s="434"/>
+      <c r="D61" s="462"/>
       <c r="E61" s="333"/>
       <c r="F61" s="333"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="446"/>
-      <c r="B62" s="447"/>
-      <c r="C62" s="434"/>
-      <c r="D62" s="434"/>
+      <c r="A62" s="454"/>
+      <c r="B62" s="456"/>
+      <c r="C62" s="462"/>
+      <c r="D62" s="462"/>
       <c r="E62" s="333"/>
       <c r="F62" s="333"/>
     </row>
@@ -22568,10 +22565,10 @@
       <c r="A63" s="339" t="s">
         <v>462</v>
       </c>
-      <c r="C63" s="442" t="s">
+      <c r="C63" s="450" t="s">
         <v>438</v>
       </c>
-      <c r="D63" s="442"/>
+      <c r="D63" s="450"/>
       <c r="E63" s="298" t="s">
         <v>312</v>
       </c>
@@ -22583,10 +22580,10 @@
       <c r="A64" s="339" t="s">
         <v>463</v>
       </c>
-      <c r="C64" s="442" t="s">
+      <c r="C64" s="450" t="s">
         <v>432</v>
       </c>
-      <c r="D64" s="442"/>
+      <c r="D64" s="450"/>
       <c r="E64" s="298" t="s">
         <v>312</v>
       </c>
@@ -22598,10 +22595,10 @@
       <c r="A65" s="339" t="s">
         <v>464</v>
       </c>
-      <c r="C65" s="442" t="s">
+      <c r="C65" s="450" t="s">
         <v>434</v>
       </c>
-      <c r="D65" s="442"/>
+      <c r="D65" s="450"/>
       <c r="E65" s="298" t="s">
         <v>312</v>
       </c>
@@ -22613,10 +22610,10 @@
       <c r="A66" s="339" t="s">
         <v>465</v>
       </c>
-      <c r="C66" s="442" t="s">
+      <c r="C66" s="450" t="s">
         <v>435</v>
       </c>
-      <c r="D66" s="442"/>
+      <c r="D66" s="450"/>
       <c r="E66" s="298" t="s">
         <v>312</v>
       </c>
@@ -22628,10 +22625,10 @@
       <c r="A67" s="339" t="s">
         <v>466</v>
       </c>
-      <c r="C67" s="442" t="s">
+      <c r="C67" s="450" t="s">
         <v>436</v>
       </c>
-      <c r="D67" s="442"/>
+      <c r="D67" s="450"/>
       <c r="E67" s="298" t="s">
         <v>312</v>
       </c>
@@ -22643,10 +22640,10 @@
       <c r="A68" s="339" t="s">
         <v>467</v>
       </c>
-      <c r="C68" s="442" t="s">
+      <c r="C68" s="450" t="s">
         <v>437</v>
       </c>
-      <c r="D68" s="442"/>
+      <c r="D68" s="450"/>
       <c r="E68" s="298" t="s">
         <v>312</v>
       </c>
@@ -22658,10 +22655,10 @@
       <c r="A69" s="339" t="s">
         <v>468</v>
       </c>
-      <c r="C69" s="442" t="s">
+      <c r="C69" s="450" t="s">
         <v>439</v>
       </c>
-      <c r="D69" s="442"/>
+      <c r="D69" s="450"/>
       <c r="E69" s="298" t="s">
         <v>312</v>
       </c>
@@ -22673,10 +22670,10 @@
       <c r="A70" s="339" t="s">
         <v>469</v>
       </c>
-      <c r="C70" s="442" t="s">
+      <c r="C70" s="450" t="s">
         <v>440</v>
       </c>
-      <c r="D70" s="442"/>
+      <c r="D70" s="450"/>
       <c r="E70" s="298" t="s">
         <v>312</v>
       </c>
@@ -22688,10 +22685,10 @@
       <c r="A71" s="339" t="s">
         <v>509</v>
       </c>
-      <c r="C71" s="442" t="s">
+      <c r="C71" s="450" t="s">
         <v>508</v>
       </c>
-      <c r="D71" s="442"/>
+      <c r="D71" s="450"/>
       <c r="E71" s="298" t="s">
         <v>312</v>
       </c>
@@ -22703,10 +22700,10 @@
       <c r="B72" s="333" t="s">
         <v>90</v>
       </c>
-      <c r="C72" s="436" t="s">
+      <c r="C72" s="460" t="s">
         <v>331</v>
       </c>
-      <c r="D72" s="436"/>
+      <c r="D72" s="460"/>
       <c r="E72" s="336"/>
       <c r="F72" s="333"/>
     </row>
@@ -22714,10 +22711,10 @@
       <c r="A73" s="339" t="s">
         <v>123</v>
       </c>
-      <c r="C73" s="435" t="s">
+      <c r="C73" s="452" t="s">
         <v>447</v>
       </c>
-      <c r="D73" s="435"/>
+      <c r="D73" s="452"/>
       <c r="E73" s="335" t="s">
         <v>124</v>
       </c>
@@ -22729,10 +22726,10 @@
       <c r="A74" s="339" t="s">
         <v>433</v>
       </c>
-      <c r="C74" s="435" t="s">
+      <c r="C74" s="452" t="s">
         <v>333</v>
       </c>
-      <c r="D74" s="435"/>
+      <c r="D74" s="452"/>
       <c r="E74" s="335" t="s">
         <v>124</v>
       </c>
@@ -22744,10 +22741,10 @@
       <c r="A75" s="339" t="s">
         <v>441</v>
       </c>
-      <c r="C75" s="442" t="s">
+      <c r="C75" s="450" t="s">
         <v>444</v>
       </c>
-      <c r="D75" s="442"/>
+      <c r="D75" s="450"/>
       <c r="E75" s="335" t="s">
         <v>124</v>
       </c>
@@ -22759,10 +22756,10 @@
       <c r="A76" s="339" t="s">
         <v>442</v>
       </c>
-      <c r="C76" s="442" t="s">
+      <c r="C76" s="450" t="s">
         <v>445</v>
       </c>
-      <c r="D76" s="442"/>
+      <c r="D76" s="450"/>
       <c r="E76" s="335" t="s">
         <v>124</v>
       </c>
@@ -22774,10 +22771,10 @@
       <c r="A77" s="339" t="s">
         <v>443</v>
       </c>
-      <c r="C77" s="442" t="s">
+      <c r="C77" s="450" t="s">
         <v>446</v>
       </c>
-      <c r="D77" s="442"/>
+      <c r="D77" s="450"/>
       <c r="E77" s="335" t="s">
         <v>124</v>
       </c>
@@ -22792,10 +22789,10 @@
       <c r="B78" s="333" t="s">
         <v>291</v>
       </c>
-      <c r="C78" s="441" t="s">
+      <c r="C78" s="451" t="s">
         <v>407</v>
       </c>
-      <c r="D78" s="441"/>
+      <c r="D78" s="451"/>
       <c r="E78" s="336"/>
       <c r="F78" s="333"/>
     </row>
@@ -22803,10 +22800,10 @@
       <c r="A79" s="339" t="s">
         <v>125</v>
       </c>
-      <c r="C79" s="435" t="s">
+      <c r="C79" s="452" t="s">
         <v>470</v>
       </c>
-      <c r="D79" s="435"/>
+      <c r="D79" s="452"/>
       <c r="E79" s="298" t="s">
         <v>312</v>
       </c>
@@ -22818,10 +22815,10 @@
       <c r="A80" s="339" t="s">
         <v>334</v>
       </c>
-      <c r="C80" s="442" t="s">
+      <c r="C80" s="450" t="s">
         <v>471</v>
       </c>
-      <c r="D80" s="442"/>
+      <c r="D80" s="450"/>
       <c r="E80" s="298" t="s">
         <v>312</v>
       </c>
@@ -22833,10 +22830,10 @@
       <c r="A81" s="339" t="s">
         <v>448</v>
       </c>
-      <c r="C81" s="438" t="s">
+      <c r="C81" s="449" t="s">
         <v>472</v>
       </c>
-      <c r="D81" s="438"/>
+      <c r="D81" s="449"/>
       <c r="E81" s="298" t="s">
         <v>312</v>
       </c>
@@ -22848,10 +22845,10 @@
       <c r="A82" s="339" t="s">
         <v>449</v>
       </c>
-      <c r="C82" s="438" t="s">
+      <c r="C82" s="449" t="s">
         <v>473</v>
       </c>
-      <c r="D82" s="438"/>
+      <c r="D82" s="449"/>
       <c r="E82" s="298" t="s">
         <v>312</v>
       </c>
@@ -22863,10 +22860,10 @@
       <c r="A83" s="339" t="s">
         <v>450</v>
       </c>
-      <c r="C83" s="438" t="s">
+      <c r="C83" s="449" t="s">
         <v>474</v>
       </c>
-      <c r="D83" s="438"/>
+      <c r="D83" s="449"/>
       <c r="E83" s="298" t="s">
         <v>312</v>
       </c>
@@ -22878,10 +22875,10 @@
       <c r="A84" s="339" t="s">
         <v>477</v>
       </c>
-      <c r="C84" s="438" t="s">
+      <c r="C84" s="449" t="s">
         <v>475</v>
       </c>
-      <c r="D84" s="438"/>
+      <c r="D84" s="449"/>
       <c r="E84" s="298" t="s">
         <v>312</v>
       </c>
@@ -22893,10 +22890,10 @@
       <c r="A85" s="339" t="s">
         <v>478</v>
       </c>
-      <c r="C85" s="437" t="s">
+      <c r="C85" s="463" t="s">
         <v>476</v>
       </c>
-      <c r="D85" s="437"/>
+      <c r="D85" s="463"/>
       <c r="E85" s="298" t="s">
         <v>312</v>
       </c>
@@ -22905,19 +22902,89 @@
       </c>
     </row>
     <row r="86" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C86" s="433"/>
-      <c r="D86" s="433"/>
+      <c r="C86" s="461"/>
+      <c r="D86" s="461"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C87" s="433"/>
-      <c r="D87" s="433"/>
+      <c r="C87" s="461"/>
+      <c r="D87" s="461"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C88" s="433"/>
-      <c r="D88" s="433"/>
+      <c r="C88" s="461"/>
+      <c r="D88" s="461"/>
     </row>
   </sheetData>
   <mergeCells count="86">
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C61:D62"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
     <mergeCell ref="C83:D83"/>
     <mergeCell ref="C84:D84"/>
     <mergeCell ref="C9:D9"/>
@@ -22934,564 +23001,494 @@
     <mergeCell ref="C79:D79"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C61:D62"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C41:D41"/>
   </mergeCells>
   <conditionalFormatting sqref="E3">
-    <cfRule type="containsText" dxfId="327" priority="203" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="323" priority="203" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="326" priority="204" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="322" priority="204" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="325" priority="205" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="321" priority="205" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",E3)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="324" priority="206">
+    <cfRule type="containsBlanks" dxfId="320" priority="206">
       <formula>LEN(TRIM(E3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="containsText" dxfId="323" priority="198" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="319" priority="198" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",E4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="322" priority="199" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="318" priority="199" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",E4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="321" priority="200" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="317" priority="200" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",E4)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="320" priority="201">
+    <cfRule type="containsBlanks" dxfId="316" priority="201">
       <formula>LEN(TRIM(E4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6 E8">
-    <cfRule type="containsText" dxfId="319" priority="183" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="315" priority="183" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",E6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="318" priority="184" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="314" priority="184" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",E6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="317" priority="185" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="313" priority="185" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",E6)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="316" priority="186">
+    <cfRule type="containsBlanks" dxfId="312" priority="186">
       <formula>LEN(TRIM(E6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="containsText" dxfId="315" priority="171" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="311" priority="171" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",E13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="314" priority="172" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="310" priority="172" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",E13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="313" priority="173" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="309" priority="173" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",E13)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="312" priority="174">
+    <cfRule type="containsBlanks" dxfId="308" priority="174">
       <formula>LEN(TRIM(E13))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="containsText" dxfId="311" priority="167" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="307" priority="167" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",E14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="310" priority="168" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="306" priority="168" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",E14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="309" priority="169" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="305" priority="169" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",E14)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="308" priority="170">
+    <cfRule type="containsBlanks" dxfId="304" priority="170">
       <formula>LEN(TRIM(E14))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="containsText" dxfId="307" priority="163" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="303" priority="163" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",E15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="306" priority="164" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="302" priority="164" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",E15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="305" priority="165" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="301" priority="165" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",E15)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="304" priority="166">
+    <cfRule type="containsBlanks" dxfId="300" priority="166">
       <formula>LEN(TRIM(E15))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="containsText" dxfId="303" priority="159" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="299" priority="159" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",E17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="302" priority="160" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="298" priority="160" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",E17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="301" priority="161" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="297" priority="161" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",E17)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="300" priority="162">
+    <cfRule type="containsBlanks" dxfId="296" priority="162">
       <formula>LEN(TRIM(E17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:E19">
-    <cfRule type="containsText" dxfId="299" priority="155" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="295" priority="155" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",E18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="298" priority="156" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="294" priority="156" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",E18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="297" priority="157" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="293" priority="157" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",E18)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="296" priority="158">
+    <cfRule type="containsBlanks" dxfId="292" priority="158">
       <formula>LEN(TRIM(E18))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="containsText" dxfId="295" priority="147" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="291" priority="147" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",E16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="294" priority="148" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="290" priority="148" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",E16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="293" priority="149" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="289" priority="149" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",E16)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="292" priority="150">
+    <cfRule type="containsBlanks" dxfId="288" priority="150">
       <formula>LEN(TRIM(E16))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="containsText" dxfId="291" priority="135" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="287" priority="135" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",E28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="290" priority="136" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="286" priority="136" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",E28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="289" priority="137" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="285" priority="137" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",E28)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="288" priority="138">
+    <cfRule type="containsBlanks" dxfId="284" priority="138">
       <formula>LEN(TRIM(E28))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="containsText" dxfId="287" priority="131" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="283" priority="131" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",E26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="286" priority="132" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="282" priority="132" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",E26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="285" priority="133" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="281" priority="133" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",E26)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="284" priority="134">
+    <cfRule type="containsBlanks" dxfId="280" priority="134">
       <formula>LEN(TRIM(E26))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="containsText" dxfId="283" priority="127" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="279" priority="127" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",E27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="282" priority="128" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="278" priority="128" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",E27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="281" priority="129" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="277" priority="129" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",E27)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="280" priority="130">
+    <cfRule type="containsBlanks" dxfId="276" priority="130">
       <formula>LEN(TRIM(E27))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:E37 E39:E40">
-    <cfRule type="containsText" dxfId="279" priority="107" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="275" priority="107" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",E29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="278" priority="108" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="274" priority="108" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",E29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="277" priority="109" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="273" priority="109" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",E29)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="276" priority="110">
+    <cfRule type="containsBlanks" dxfId="272" priority="110">
       <formula>LEN(TRIM(E29))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42:E47">
-    <cfRule type="containsText" dxfId="275" priority="103" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="271" priority="103" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",E42)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="274" priority="104" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="270" priority="104" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",E42)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="273" priority="105" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="269" priority="105" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",E42)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="272" priority="106">
+    <cfRule type="containsBlanks" dxfId="268" priority="106">
       <formula>LEN(TRIM(E42))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="containsText" dxfId="271" priority="99" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="267" priority="99" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",E7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="270" priority="100" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="266" priority="100" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",E7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="269" priority="101" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="265" priority="101" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",E7)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="268" priority="102">
+    <cfRule type="containsBlanks" dxfId="264" priority="102">
       <formula>LEN(TRIM(E7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="containsText" dxfId="267" priority="95" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="263" priority="95" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",E79)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="266" priority="96" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="262" priority="96" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",E79)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="265" priority="97" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="261" priority="97" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",E79)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="264" priority="98">
+    <cfRule type="containsBlanks" dxfId="260" priority="98">
       <formula>LEN(TRIM(E79))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="containsText" dxfId="263" priority="91" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="259" priority="91" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",E12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="262" priority="92" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="258" priority="92" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",E12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="261" priority="93" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="257" priority="93" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",E12)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="260" priority="94">
+    <cfRule type="containsBlanks" dxfId="256" priority="94">
       <formula>LEN(TRIM(E12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:E23">
-    <cfRule type="containsText" dxfId="259" priority="86" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="255" priority="86" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",E20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="258" priority="87" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="254" priority="87" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",E20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="257" priority="88" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="253" priority="88" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",E20)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="256" priority="89">
+    <cfRule type="containsBlanks" dxfId="252" priority="89">
       <formula>LEN(TRIM(E20))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="containsText" dxfId="255" priority="81" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="251" priority="81" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",E74)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="254" priority="82" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="250" priority="82" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",E74)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="253" priority="83" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="249" priority="83" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",E74)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="252" priority="84">
+    <cfRule type="containsBlanks" dxfId="248" priority="84">
       <formula>LEN(TRIM(E74))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="containsText" dxfId="251" priority="76" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="247" priority="76" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",E38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="250" priority="77" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="246" priority="77" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",E38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="249" priority="78" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="245" priority="78" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",E38)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="248" priority="79">
+    <cfRule type="containsBlanks" dxfId="244" priority="79">
       <formula>LEN(TRIM(E38))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="containsText" dxfId="247" priority="71" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="243" priority="71" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",E73)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="246" priority="72" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="242" priority="72" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",E73)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="245" priority="73" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="241" priority="73" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",E73)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="244" priority="74">
+    <cfRule type="containsBlanks" dxfId="240" priority="74">
       <formula>LEN(TRIM(E73))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="containsText" dxfId="243" priority="62" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="239" priority="62" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",E49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="242" priority="63" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="238" priority="63" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",E49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="241" priority="64" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="237" priority="64" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",E49)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="240" priority="65">
+    <cfRule type="containsBlanks" dxfId="236" priority="65">
       <formula>LEN(TRIM(E49))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="containsText" dxfId="239" priority="58" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="235" priority="58" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",E50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="238" priority="59" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="234" priority="59" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",E50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="237" priority="60" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="233" priority="60" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",E50)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="236" priority="61">
+    <cfRule type="containsBlanks" dxfId="232" priority="61">
       <formula>LEN(TRIM(E50))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="containsText" dxfId="235" priority="54" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="231" priority="54" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",E51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="234" priority="55" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="230" priority="55" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",E51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="233" priority="56" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="229" priority="56" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",E51)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="232" priority="57">
+    <cfRule type="containsBlanks" dxfId="228" priority="57">
       <formula>LEN(TRIM(E51))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="containsText" dxfId="231" priority="50" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="227" priority="50" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",E52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="230" priority="51" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="226" priority="51" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",E52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="229" priority="52" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="225" priority="52" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",E52)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="228" priority="53">
+    <cfRule type="containsBlanks" dxfId="224" priority="53">
       <formula>LEN(TRIM(E52))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="containsText" dxfId="227" priority="42" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="223" priority="42" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",E53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="226" priority="43" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="222" priority="43" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",E53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="225" priority="44" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="221" priority="44" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",E53)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="224" priority="45">
+    <cfRule type="containsBlanks" dxfId="220" priority="45">
       <formula>LEN(TRIM(E53))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63:E70">
-    <cfRule type="containsText" dxfId="223" priority="38" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="219" priority="38" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",E63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="222" priority="39" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="218" priority="39" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",E63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="221" priority="40" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="217" priority="40" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",E63)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="220" priority="41">
+    <cfRule type="containsBlanks" dxfId="216" priority="41">
       <formula>LEN(TRIM(E63))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75:E77">
-    <cfRule type="containsText" dxfId="219" priority="34" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="215" priority="34" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",E75)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="218" priority="35" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="214" priority="35" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",E75)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="217" priority="36" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="213" priority="36" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",E75)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="216" priority="37">
+    <cfRule type="containsBlanks" dxfId="212" priority="37">
       <formula>LEN(TRIM(E75))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55:E57">
-    <cfRule type="containsText" dxfId="215" priority="29" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="211" priority="29" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",E55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="214" priority="30" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="210" priority="30" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",E55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="213" priority="31" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="209" priority="31" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",E55)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="212" priority="32">
+    <cfRule type="containsBlanks" dxfId="208" priority="32">
       <formula>LEN(TRIM(E55))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59:E60">
-    <cfRule type="containsText" dxfId="211" priority="21" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="207" priority="21" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",E59)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="210" priority="22" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="206" priority="22" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",E59)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="209" priority="23" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="205" priority="23" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",E59)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="208" priority="24">
+    <cfRule type="containsBlanks" dxfId="204" priority="24">
       <formula>LEN(TRIM(E59))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80:E85">
-    <cfRule type="containsText" dxfId="207" priority="17" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="203" priority="17" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",E80)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="206" priority="18" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="202" priority="18" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",E80)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="205" priority="19" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="201" priority="19" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",E80)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="204" priority="20">
+    <cfRule type="containsBlanks" dxfId="200" priority="20">
       <formula>LEN(TRIM(E80))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="containsText" dxfId="203" priority="13" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="199" priority="13" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",E9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="202" priority="14" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="198" priority="14" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",E9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="201" priority="15" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="197" priority="15" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",E9)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="200" priority="16">
+    <cfRule type="containsBlanks" dxfId="196" priority="16">
       <formula>LEN(TRIM(E9))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="containsText" dxfId="199" priority="9" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="195" priority="9" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",E10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="198" priority="10" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="194" priority="10" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",E10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="197" priority="11" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="193" priority="11" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",E10)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="196" priority="12">
+    <cfRule type="containsBlanks" dxfId="192" priority="12">
       <formula>LEN(TRIM(E10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71">
-    <cfRule type="containsText" dxfId="195" priority="5" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="191" priority="5" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",E71)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="194" priority="6" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="190" priority="6" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",E71)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="193" priority="7" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="189" priority="7" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",E71)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="192" priority="8">
+    <cfRule type="containsBlanks" dxfId="188" priority="8">
       <formula>LEN(TRIM(E71))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="containsText" dxfId="183" priority="1" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="187" priority="1" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",E24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="182" priority="2" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="186" priority="2" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",E24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="181" priority="3" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="185" priority="3" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",E24)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="180" priority="4">
+    <cfRule type="containsBlanks" dxfId="184" priority="4">
       <formula>LEN(TRIM(E24))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23654,15 +23651,15 @@
       <c r="O1" s="295"/>
     </row>
     <row r="2" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="452" t="s">
+      <c r="B2" s="475" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="453"/>
-      <c r="D2" s="454" t="s">
+      <c r="C2" s="476"/>
+      <c r="D2" s="477" t="s">
         <v>396</v>
       </c>
-      <c r="E2" s="455"/>
-      <c r="F2" s="456"/>
+      <c r="E2" s="478"/>
+      <c r="F2" s="479"/>
       <c r="J2" s="295"/>
       <c r="K2" s="295"/>
       <c r="L2" s="295"/>
@@ -23673,9 +23670,9 @@
     <row r="3" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="262"/>
       <c r="C3" s="264"/>
-      <c r="D3" s="457"/>
-      <c r="E3" s="458"/>
-      <c r="F3" s="459"/>
+      <c r="D3" s="480"/>
+      <c r="E3" s="481"/>
+      <c r="F3" s="482"/>
       <c r="J3" s="295"/>
       <c r="K3" s="295"/>
       <c r="L3" s="295"/>
@@ -23686,9 +23683,9 @@
     <row r="4" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="262"/>
       <c r="C4" s="264"/>
-      <c r="D4" s="457"/>
-      <c r="E4" s="458"/>
-      <c r="F4" s="459"/>
+      <c r="D4" s="480"/>
+      <c r="E4" s="481"/>
+      <c r="F4" s="482"/>
       <c r="J4" s="295"/>
       <c r="K4" s="295"/>
       <c r="L4" s="295"/>
@@ -23699,9 +23696,9 @@
     <row r="5" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="262"/>
       <c r="C5" s="264"/>
-      <c r="D5" s="457"/>
-      <c r="E5" s="458"/>
-      <c r="F5" s="459"/>
+      <c r="D5" s="480"/>
+      <c r="E5" s="481"/>
+      <c r="F5" s="482"/>
       <c r="J5" s="295"/>
       <c r="K5" s="295"/>
       <c r="L5" s="295"/>
@@ -23712,9 +23709,9 @@
     <row r="6" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="263"/>
       <c r="C6" s="265"/>
-      <c r="D6" s="460"/>
-      <c r="E6" s="461"/>
-      <c r="F6" s="462"/>
+      <c r="D6" s="483"/>
+      <c r="E6" s="484"/>
+      <c r="F6" s="485"/>
       <c r="J6" s="295"/>
       <c r="K6" s="295"/>
       <c r="L6" s="295"/>
@@ -23752,14 +23749,14 @@
       <c r="D9" s="296" t="s">
         <v>86</v>
       </c>
-      <c r="E9" s="443" t="s">
+      <c r="E9" s="457" t="s">
         <v>87</v>
       </c>
-      <c r="F9" s="444"/>
-      <c r="G9" s="448" t="s">
+      <c r="F9" s="458"/>
+      <c r="G9" s="491" t="s">
         <v>88</v>
       </c>
-      <c r="H9" s="449"/>
+      <c r="H9" s="492"/>
       <c r="I9" s="296" t="s">
         <v>89</v>
       </c>
@@ -23785,12 +23782,12 @@
       <c r="D10" s="341" t="s">
         <v>90</v>
       </c>
-      <c r="E10" s="441" t="s">
+      <c r="E10" s="451" t="s">
         <v>289</v>
       </c>
-      <c r="F10" s="441"/>
-      <c r="G10" s="450"/>
-      <c r="H10" s="450"/>
+      <c r="F10" s="451"/>
+      <c r="G10" s="474"/>
+      <c r="H10" s="474"/>
       <c r="I10" s="341">
         <v>0</v>
       </c>
@@ -23816,12 +23813,12 @@
       <c r="D11" s="333" t="s">
         <v>291</v>
       </c>
-      <c r="E11" s="436" t="s">
+      <c r="E11" s="460" t="s">
         <v>293</v>
       </c>
-      <c r="F11" s="436"/>
-      <c r="G11" s="450"/>
-      <c r="H11" s="450"/>
+      <c r="F11" s="460"/>
+      <c r="G11" s="474"/>
+      <c r="H11" s="474"/>
       <c r="I11" s="341">
         <v>2</v>
       </c>
@@ -23847,12 +23844,12 @@
       <c r="D12" s="333" t="s">
         <v>291</v>
       </c>
-      <c r="E12" s="441" t="s">
+      <c r="E12" s="451" t="s">
         <v>292</v>
       </c>
-      <c r="F12" s="441"/>
-      <c r="G12" s="450"/>
-      <c r="H12" s="450"/>
+      <c r="F12" s="451"/>
+      <c r="G12" s="474"/>
+      <c r="H12" s="474"/>
       <c r="I12" s="341">
         <v>20</v>
       </c>
@@ -23878,12 +23875,12 @@
       <c r="D13" s="333" t="s">
         <v>329</v>
       </c>
-      <c r="E13" s="440" t="s">
+      <c r="E13" s="455" t="s">
         <v>322</v>
       </c>
-      <c r="F13" s="440"/>
-      <c r="G13" s="450"/>
-      <c r="H13" s="450"/>
+      <c r="F13" s="455"/>
+      <c r="G13" s="474"/>
+      <c r="H13" s="474"/>
       <c r="I13" s="341">
         <v>40</v>
       </c>
@@ -23909,12 +23906,12 @@
       <c r="D14" s="333" t="s">
         <v>90</v>
       </c>
-      <c r="E14" s="436" t="s">
+      <c r="E14" s="460" t="s">
         <v>331</v>
       </c>
-      <c r="F14" s="436"/>
-      <c r="G14" s="450"/>
-      <c r="H14" s="450"/>
+      <c r="F14" s="460"/>
+      <c r="G14" s="474"/>
+      <c r="H14" s="474"/>
       <c r="I14" s="341">
         <v>0</v>
       </c>
@@ -23940,12 +23937,12 @@
       <c r="D15" s="333" t="s">
         <v>291</v>
       </c>
-      <c r="E15" s="441" t="s">
+      <c r="E15" s="451" t="s">
         <v>407</v>
       </c>
-      <c r="F15" s="441"/>
-      <c r="G15" s="450"/>
-      <c r="H15" s="450"/>
+      <c r="F15" s="451"/>
+      <c r="G15" s="474"/>
+      <c r="H15" s="474"/>
       <c r="I15" s="341">
         <v>5</v>
       </c>
@@ -24006,8 +24003,8 @@
     <row r="18" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="70"/>
       <c r="D18" s="70"/>
-      <c r="E18" s="475"/>
-      <c r="F18" s="475"/>
+      <c r="E18" s="465"/>
+      <c r="F18" s="465"/>
       <c r="G18" s="22"/>
       <c r="H18" s="22"/>
       <c r="I18" s="172"/>
@@ -24025,11 +24022,11 @@
     </row>
     <row r="19" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="71"/>
-      <c r="C19" s="463" t="s">
+      <c r="C19" s="486" t="s">
         <v>91</v>
       </c>
-      <c r="D19" s="464"/>
-      <c r="E19" s="465"/>
+      <c r="D19" s="487"/>
+      <c r="E19" s="488"/>
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
       <c r="H19" s="177" t="s">
@@ -24083,10 +24080,10 @@
       <c r="C21" s="297" t="s">
         <v>94</v>
       </c>
-      <c r="D21" s="466" t="s">
+      <c r="D21" s="489" t="s">
         <v>95</v>
       </c>
-      <c r="E21" s="467"/>
+      <c r="E21" s="490"/>
       <c r="F21" s="171" t="s">
         <v>96</v>
       </c>
@@ -24136,10 +24133,10 @@
         <v>103</v>
       </c>
       <c r="C22" s="345"/>
-      <c r="D22" s="476" t="s">
+      <c r="D22" s="466" t="s">
         <v>290</v>
       </c>
-      <c r="E22" s="476"/>
+      <c r="E22" s="466"/>
       <c r="F22" s="335" t="s">
         <v>124</v>
       </c>
@@ -24230,10 +24227,10 @@
         <v>107</v>
       </c>
       <c r="C24" s="347"/>
-      <c r="D24" s="473" t="s">
+      <c r="D24" s="464" t="s">
         <v>294</v>
       </c>
-      <c r="E24" s="473"/>
+      <c r="E24" s="464"/>
       <c r="F24" s="335" t="s">
         <v>124</v>
       </c>
@@ -24314,10 +24311,10 @@
         <v>394</v>
       </c>
       <c r="C26" s="347"/>
-      <c r="D26" s="474" t="s">
+      <c r="D26" s="473" t="s">
         <v>395</v>
       </c>
-      <c r="E26" s="474"/>
+      <c r="E26" s="473"/>
       <c r="F26" s="335" t="s">
         <v>124</v>
       </c>
@@ -24400,10 +24397,10 @@
         <v>108</v>
       </c>
       <c r="C28" s="345"/>
-      <c r="D28" s="451" t="s">
+      <c r="D28" s="469" t="s">
         <v>301</v>
       </c>
-      <c r="E28" s="451"/>
+      <c r="E28" s="469"/>
       <c r="F28" s="335" t="s">
         <v>124</v>
       </c>
@@ -24443,10 +24440,10 @@
         <v>81</v>
       </c>
       <c r="C29" s="345"/>
-      <c r="D29" s="451" t="s">
+      <c r="D29" s="469" t="s">
         <v>302</v>
       </c>
-      <c r="E29" s="451"/>
+      <c r="E29" s="469"/>
       <c r="F29" s="335" t="s">
         <v>124</v>
       </c>
@@ -24486,10 +24483,10 @@
         <v>313</v>
       </c>
       <c r="C30" s="345"/>
-      <c r="D30" s="451" t="s">
+      <c r="D30" s="469" t="s">
         <v>303</v>
       </c>
-      <c r="E30" s="451"/>
+      <c r="E30" s="469"/>
       <c r="F30" s="335" t="s">
         <v>124</v>
       </c>
@@ -24529,10 +24526,10 @@
         <v>314</v>
       </c>
       <c r="C31" s="345"/>
-      <c r="D31" s="451" t="s">
+      <c r="D31" s="469" t="s">
         <v>304</v>
       </c>
-      <c r="E31" s="451"/>
+      <c r="E31" s="469"/>
       <c r="F31" s="335" t="s">
         <v>124</v>
       </c>
@@ -24572,10 +24569,10 @@
         <v>315</v>
       </c>
       <c r="C32" s="345"/>
-      <c r="D32" s="451" t="s">
+      <c r="D32" s="469" t="s">
         <v>305</v>
       </c>
-      <c r="E32" s="451"/>
+      <c r="E32" s="469"/>
       <c r="F32" s="335" t="s">
         <v>124</v>
       </c>
@@ -24615,10 +24612,10 @@
         <v>316</v>
       </c>
       <c r="C33" s="345"/>
-      <c r="D33" s="451" t="s">
+      <c r="D33" s="469" t="s">
         <v>306</v>
       </c>
-      <c r="E33" s="451"/>
+      <c r="E33" s="469"/>
       <c r="F33" s="335" t="s">
         <v>124</v>
       </c>
@@ -24658,10 +24655,10 @@
         <v>317</v>
       </c>
       <c r="C34" s="345"/>
-      <c r="D34" s="451" t="s">
+      <c r="D34" s="469" t="s">
         <v>307</v>
       </c>
-      <c r="E34" s="451"/>
+      <c r="E34" s="469"/>
       <c r="F34" s="335" t="s">
         <v>124</v>
       </c>
@@ -24701,10 +24698,10 @@
         <v>318</v>
       </c>
       <c r="C35" s="345"/>
-      <c r="D35" s="451" t="s">
+      <c r="D35" s="469" t="s">
         <v>308</v>
       </c>
-      <c r="E35" s="451"/>
+      <c r="E35" s="469"/>
       <c r="F35" s="335" t="s">
         <v>124</v>
       </c>
@@ -24744,10 +24741,10 @@
         <v>319</v>
       </c>
       <c r="C36" s="345"/>
-      <c r="D36" s="451" t="s">
+      <c r="D36" s="469" t="s">
         <v>309</v>
       </c>
-      <c r="E36" s="451"/>
+      <c r="E36" s="469"/>
       <c r="F36" s="335" t="s">
         <v>124</v>
       </c>
@@ -24787,10 +24784,10 @@
         <v>320</v>
       </c>
       <c r="C37" s="345"/>
-      <c r="D37" s="451" t="s">
+      <c r="D37" s="469" t="s">
         <v>310</v>
       </c>
-      <c r="E37" s="451"/>
+      <c r="E37" s="469"/>
       <c r="F37" s="335" t="s">
         <v>124</v>
       </c>
@@ -24830,10 +24827,10 @@
         <v>321</v>
       </c>
       <c r="C38" s="345"/>
-      <c r="D38" s="451" t="s">
+      <c r="D38" s="469" t="s">
         <v>311</v>
       </c>
-      <c r="E38" s="451"/>
+      <c r="E38" s="469"/>
       <c r="F38" s="335" t="s">
         <v>124</v>
       </c>
@@ -25043,10 +25040,10 @@
         <v>362</v>
       </c>
       <c r="C43" s="347"/>
-      <c r="D43" s="469" t="s">
+      <c r="D43" s="467" t="s">
         <v>364</v>
       </c>
-      <c r="E43" s="469"/>
+      <c r="E43" s="467"/>
       <c r="F43" s="298" t="s">
         <v>312</v>
       </c>
@@ -25166,10 +25163,10 @@
         <v>366</v>
       </c>
       <c r="C46" s="347"/>
-      <c r="D46" s="469" t="s">
+      <c r="D46" s="467" t="s">
         <v>367</v>
       </c>
-      <c r="E46" s="469"/>
+      <c r="E46" s="467"/>
       <c r="F46" s="298" t="s">
         <v>312</v>
       </c>
@@ -25207,10 +25204,10 @@
         <v>368</v>
       </c>
       <c r="C47" s="347"/>
-      <c r="D47" s="469" t="s">
+      <c r="D47" s="467" t="s">
         <v>369</v>
       </c>
-      <c r="E47" s="469"/>
+      <c r="E47" s="467"/>
       <c r="F47" s="298" t="s">
         <v>312</v>
       </c>
@@ -25248,10 +25245,10 @@
         <v>370</v>
       </c>
       <c r="C48" s="347"/>
-      <c r="D48" s="469" t="s">
+      <c r="D48" s="467" t="s">
         <v>380</v>
       </c>
-      <c r="E48" s="469"/>
+      <c r="E48" s="467"/>
       <c r="F48" s="298" t="s">
         <v>312</v>
       </c>
@@ -25330,10 +25327,10 @@
         <v>378</v>
       </c>
       <c r="C50" s="347"/>
-      <c r="D50" s="469" t="s">
+      <c r="D50" s="467" t="s">
         <v>373</v>
       </c>
-      <c r="E50" s="469"/>
+      <c r="E50" s="467"/>
       <c r="F50" s="298" t="s">
         <v>312</v>
       </c>
@@ -25371,10 +25368,10 @@
         <v>382</v>
       </c>
       <c r="C51" s="347"/>
-      <c r="D51" s="469" t="s">
+      <c r="D51" s="467" t="s">
         <v>374</v>
       </c>
-      <c r="E51" s="469"/>
+      <c r="E51" s="467"/>
       <c r="F51" s="298" t="s">
         <v>312</v>
       </c>
@@ -25412,10 +25409,10 @@
         <v>383</v>
       </c>
       <c r="C52" s="347"/>
-      <c r="D52" s="469" t="s">
+      <c r="D52" s="467" t="s">
         <v>377</v>
       </c>
-      <c r="E52" s="469"/>
+      <c r="E52" s="467"/>
       <c r="F52" s="335" t="s">
         <v>124</v>
       </c>
@@ -25455,10 +25452,10 @@
         <v>384</v>
       </c>
       <c r="C53" s="347"/>
-      <c r="D53" s="469" t="s">
+      <c r="D53" s="467" t="s">
         <v>376</v>
       </c>
-      <c r="E53" s="469"/>
+      <c r="E53" s="467"/>
       <c r="F53" s="298" t="s">
         <v>312</v>
       </c>
@@ -25496,10 +25493,10 @@
         <v>385</v>
       </c>
       <c r="C54" s="347"/>
-      <c r="D54" s="469" t="s">
+      <c r="D54" s="467" t="s">
         <v>379</v>
       </c>
-      <c r="E54" s="469"/>
+      <c r="E54" s="467"/>
       <c r="F54" s="298" t="s">
         <v>312</v>
       </c>
@@ -25537,10 +25534,10 @@
         <v>125</v>
       </c>
       <c r="C55" s="345"/>
-      <c r="D55" s="451" t="s">
+      <c r="D55" s="469" t="s">
         <v>332</v>
       </c>
-      <c r="E55" s="451"/>
+      <c r="E55" s="469"/>
       <c r="F55" s="335" t="s">
         <v>124</v>
       </c>
@@ -25580,10 +25577,10 @@
         <v>334</v>
       </c>
       <c r="C56" s="345"/>
-      <c r="D56" s="451" t="s">
+      <c r="D56" s="469" t="s">
         <v>333</v>
       </c>
-      <c r="E56" s="451"/>
+      <c r="E56" s="469"/>
       <c r="F56" s="335" t="s">
         <v>124</v>
       </c>
@@ -25623,10 +25620,10 @@
         <v>126</v>
       </c>
       <c r="C57" s="347"/>
-      <c r="D57" s="473" t="s">
+      <c r="D57" s="464" t="s">
         <v>408</v>
       </c>
-      <c r="E57" s="473"/>
+      <c r="E57" s="464"/>
       <c r="F57" s="298" t="s">
         <v>312</v>
       </c>
@@ -25648,8 +25645,8 @@
     <row r="58" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="294"/>
       <c r="C58" s="294"/>
-      <c r="D58" s="439"/>
-      <c r="E58" s="439"/>
+      <c r="D58" s="453"/>
+      <c r="E58" s="453"/>
       <c r="F58" s="266"/>
       <c r="G58" s="294"/>
       <c r="H58" s="294"/>
@@ -25669,8 +25666,8 @@
     <row r="59" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="328"/>
       <c r="C59" s="328"/>
-      <c r="D59" s="439"/>
-      <c r="E59" s="439"/>
+      <c r="D59" s="453"/>
+      <c r="E59" s="453"/>
       <c r="F59" s="266"/>
       <c r="G59" s="328"/>
       <c r="H59" s="328"/>
@@ -25690,8 +25687,8 @@
     <row r="60" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="328"/>
       <c r="C60" s="328"/>
-      <c r="D60" s="439"/>
-      <c r="E60" s="439"/>
+      <c r="D60" s="453"/>
+      <c r="E60" s="453"/>
       <c r="F60" s="266"/>
       <c r="G60" s="328"/>
       <c r="H60" s="328"/>
@@ -25711,8 +25708,8 @@
     <row r="61" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="328"/>
       <c r="C61" s="328"/>
-      <c r="D61" s="439"/>
-      <c r="E61" s="439"/>
+      <c r="D61" s="453"/>
+      <c r="E61" s="453"/>
       <c r="F61" s="266"/>
       <c r="G61" s="328"/>
       <c r="H61" s="328"/>
@@ -25732,8 +25729,8 @@
     <row r="62" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="328"/>
       <c r="C62" s="328"/>
-      <c r="D62" s="439"/>
-      <c r="E62" s="439"/>
+      <c r="D62" s="453"/>
+      <c r="E62" s="453"/>
       <c r="F62" s="266"/>
       <c r="G62" s="328"/>
       <c r="H62" s="328"/>
@@ -25753,8 +25750,8 @@
     <row r="63" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="328"/>
       <c r="C63" s="328"/>
-      <c r="D63" s="439"/>
-      <c r="E63" s="439"/>
+      <c r="D63" s="453"/>
+      <c r="E63" s="453"/>
       <c r="F63" s="266"/>
       <c r="G63" s="328"/>
       <c r="H63" s="328"/>
@@ -25774,8 +25771,8 @@
     <row r="64" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="328"/>
       <c r="C64" s="328"/>
-      <c r="D64" s="439"/>
-      <c r="E64" s="439"/>
+      <c r="D64" s="453"/>
+      <c r="E64" s="453"/>
       <c r="F64" s="266"/>
       <c r="G64" s="328"/>
       <c r="H64" s="328"/>
@@ -25795,8 +25792,8 @@
     <row r="65" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="328"/>
       <c r="C65" s="328"/>
-      <c r="D65" s="439"/>
-      <c r="E65" s="439"/>
+      <c r="D65" s="453"/>
+      <c r="E65" s="453"/>
       <c r="F65" s="266"/>
       <c r="G65" s="328"/>
       <c r="H65" s="328"/>
@@ -26036,6 +26033,52 @@
     </row>
   </sheetData>
   <mergeCells count="62">
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:F6"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="D57:E57"/>
     <mergeCell ref="D60:E60"/>
@@ -26052,554 +26095,508 @@
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:F6"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
   </mergeCells>
   <conditionalFormatting sqref="F58:F65">
-    <cfRule type="containsText" dxfId="179" priority="279" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="175" priority="279" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="178" priority="281" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="174" priority="281" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="177" priority="282" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="173" priority="282" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F58)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="176" priority="284">
+    <cfRule type="containsBlanks" dxfId="172" priority="284">
       <formula>LEN(TRIM(F58))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="containsText" dxfId="175" priority="222" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="171" priority="222" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="174" priority="223" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="170" priority="223" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="173" priority="224" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="169" priority="224" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F23)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="172" priority="225">
+    <cfRule type="containsBlanks" dxfId="168" priority="225">
       <formula>LEN(TRIM(F23))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="containsText" dxfId="171" priority="217" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="167" priority="217" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="170" priority="218" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="166" priority="218" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="169" priority="219" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="165" priority="219" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F22)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="168" priority="220">
+    <cfRule type="containsBlanks" dxfId="164" priority="220">
       <formula>LEN(TRIM(F22))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="containsText" dxfId="167" priority="212" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="163" priority="212" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="166" priority="213" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="162" priority="213" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="165" priority="214" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="161" priority="214" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F24)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="164" priority="215">
+    <cfRule type="containsBlanks" dxfId="160" priority="215">
       <formula>LEN(TRIM(F24))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="containsText" dxfId="163" priority="207" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="159" priority="207" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="162" priority="208" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="158" priority="208" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="161" priority="209" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="157" priority="209" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F26)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="160" priority="210">
+    <cfRule type="containsBlanks" dxfId="156" priority="210">
       <formula>LEN(TRIM(F26))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="containsText" dxfId="159" priority="202" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="155" priority="202" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="158" priority="203" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="154" priority="203" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="157" priority="204" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="153" priority="204" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F29)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="156" priority="205">
+    <cfRule type="containsBlanks" dxfId="152" priority="205">
       <formula>LEN(TRIM(F29))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="containsText" dxfId="155" priority="187" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="151" priority="187" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="154" priority="188" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="150" priority="188" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="153" priority="189" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="149" priority="189" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F32)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="152" priority="190">
+    <cfRule type="containsBlanks" dxfId="148" priority="190">
       <formula>LEN(TRIM(F32))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="containsText" dxfId="151" priority="177" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="147" priority="177" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="150" priority="178" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="146" priority="178" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="149" priority="179" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="145" priority="179" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F34)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="148" priority="180">
+    <cfRule type="containsBlanks" dxfId="144" priority="180">
       <formula>LEN(TRIM(F34))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="containsText" dxfId="147" priority="172" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="143" priority="172" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="146" priority="173" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="142" priority="173" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="145" priority="174" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="141" priority="174" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F35)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="144" priority="175">
+    <cfRule type="containsBlanks" dxfId="140" priority="175">
       <formula>LEN(TRIM(F35))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F40">
-    <cfRule type="containsText" dxfId="143" priority="152" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="139" priority="152" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="153" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="138" priority="153" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="141" priority="154" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="137" priority="154" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F40)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="140" priority="155">
+    <cfRule type="containsBlanks" dxfId="136" priority="155">
       <formula>LEN(TRIM(F40))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="containsText" dxfId="139" priority="142" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="135" priority="142" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="143" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="134" priority="143" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="137" priority="144" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="133" priority="144" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F25)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="136" priority="145">
+    <cfRule type="containsBlanks" dxfId="132" priority="145">
       <formula>LEN(TRIM(F25))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42">
-    <cfRule type="containsText" dxfId="135" priority="134" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="131" priority="134" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F42)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="134" priority="135" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="130" priority="135" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F42)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="133" priority="136" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="129" priority="136" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F42)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="132" priority="137">
+    <cfRule type="containsBlanks" dxfId="128" priority="137">
       <formula>LEN(TRIM(F42))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43">
-    <cfRule type="containsText" dxfId="131" priority="130" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="127" priority="130" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="131" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="126" priority="131" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="129" priority="132" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="125" priority="132" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F43)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="128" priority="133">
+    <cfRule type="containsBlanks" dxfId="124" priority="133">
       <formula>LEN(TRIM(F43))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44">
-    <cfRule type="containsText" dxfId="127" priority="126" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="123" priority="126" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="127" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="122" priority="127" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="125" priority="128" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="121" priority="128" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F44)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="124" priority="129">
+    <cfRule type="containsBlanks" dxfId="120" priority="129">
       <formula>LEN(TRIM(F44))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45">
-    <cfRule type="containsText" dxfId="123" priority="122" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="119" priority="122" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="122" priority="123" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="118" priority="123" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="121" priority="124" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="117" priority="124" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F45)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="120" priority="125">
+    <cfRule type="containsBlanks" dxfId="116" priority="125">
       <formula>LEN(TRIM(F45))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46">
-    <cfRule type="containsText" dxfId="119" priority="118" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="115" priority="118" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="119" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="114" priority="119" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="120" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="113" priority="120" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F46)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="116" priority="121">
+    <cfRule type="containsBlanks" dxfId="112" priority="121">
       <formula>LEN(TRIM(F46))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47">
-    <cfRule type="containsText" dxfId="115" priority="114" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="111" priority="114" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="115" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="110" priority="115" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="113" priority="116" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="109" priority="116" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F47)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="112" priority="117">
+    <cfRule type="containsBlanks" dxfId="108" priority="117">
       <formula>LEN(TRIM(F47))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48">
-    <cfRule type="containsText" dxfId="111" priority="110" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="107" priority="110" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="110" priority="111" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="106" priority="111" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="112" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="105" priority="112" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F48)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="108" priority="113">
+    <cfRule type="containsBlanks" dxfId="104" priority="113">
       <formula>LEN(TRIM(F48))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49">
-    <cfRule type="containsText" dxfId="107" priority="106" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="103" priority="106" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="107" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="102" priority="107" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="108" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="101" priority="108" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F49)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="104" priority="109">
+    <cfRule type="containsBlanks" dxfId="100" priority="109">
       <formula>LEN(TRIM(F49))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="containsText" dxfId="103" priority="102" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="99" priority="102" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="103" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="98" priority="103" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="101" priority="104" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="97" priority="104" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F50)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="100" priority="105">
+    <cfRule type="containsBlanks" dxfId="96" priority="105">
       <formula>LEN(TRIM(F50))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F51">
-    <cfRule type="containsText" dxfId="99" priority="98" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="95" priority="98" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="99" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="94" priority="99" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="100" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="93" priority="100" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F51)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="96" priority="101">
+    <cfRule type="containsBlanks" dxfId="92" priority="101">
       <formula>LEN(TRIM(F51))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F53">
-    <cfRule type="containsText" dxfId="95" priority="90" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="91" priority="90" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="91" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="90" priority="91" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="92" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="89" priority="92" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F53)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="92" priority="93">
+    <cfRule type="containsBlanks" dxfId="88" priority="93">
       <formula>LEN(TRIM(F53))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="containsText" dxfId="91" priority="86" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="87" priority="86" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="87" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="86" priority="87" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="88" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="85" priority="88" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F54)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="88" priority="89">
+    <cfRule type="containsBlanks" dxfId="84" priority="89">
       <formula>LEN(TRIM(F54))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="containsText" dxfId="87" priority="74" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="83" priority="74" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="75" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="82" priority="75" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="76" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="81" priority="76" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F57)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="84" priority="77">
+    <cfRule type="containsBlanks" dxfId="80" priority="77">
       <formula>LEN(TRIM(F57))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="containsText" dxfId="83" priority="60" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="79" priority="60" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="61" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="78" priority="61" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="62" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="77" priority="62" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F30)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="80" priority="63">
+    <cfRule type="containsBlanks" dxfId="76" priority="63">
       <formula>LEN(TRIM(F30))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="containsText" dxfId="79" priority="55" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="75" priority="55" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="56" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="74" priority="56" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="57" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="73" priority="57" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F31)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="76" priority="58">
+    <cfRule type="containsBlanks" dxfId="72" priority="58">
       <formula>LEN(TRIM(F31))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="containsText" dxfId="75" priority="50" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="71" priority="50" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="51" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="70" priority="51" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="52" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="69" priority="52" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F33)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="72" priority="53">
+    <cfRule type="containsBlanks" dxfId="68" priority="53">
       <formula>LEN(TRIM(F33))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36">
-    <cfRule type="containsText" dxfId="71" priority="45" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="67" priority="45" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="46" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="66" priority="46" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="47" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="65" priority="47" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F36)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="68" priority="48">
+    <cfRule type="containsBlanks" dxfId="64" priority="48">
       <formula>LEN(TRIM(F36))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="containsText" dxfId="67" priority="40" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="63" priority="40" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="41" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="62" priority="41" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="42" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="61" priority="42" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F37)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="64" priority="43">
+    <cfRule type="containsBlanks" dxfId="60" priority="43">
       <formula>LEN(TRIM(F37))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38:F39">
-    <cfRule type="containsText" dxfId="63" priority="35" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="59" priority="35" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="36" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="58" priority="36" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="37" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="57" priority="37" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F38)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="60" priority="38">
+    <cfRule type="containsBlanks" dxfId="56" priority="38">
       <formula>LEN(TRIM(F38))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="containsText" dxfId="59" priority="30" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="55" priority="30" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="31" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="54" priority="31" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="32" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="53" priority="32" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F28)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="56" priority="33">
+    <cfRule type="containsBlanks" dxfId="52" priority="33">
       <formula>LEN(TRIM(F28))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="containsText" dxfId="55" priority="25" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="51" priority="25" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="26" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="50" priority="26" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="27" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="49" priority="27" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F56)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="52" priority="28">
+    <cfRule type="containsBlanks" dxfId="48" priority="28">
       <formula>LEN(TRIM(F56))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="containsText" dxfId="51" priority="1" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="47" priority="1" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="2" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="46" priority="2" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="3" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="45" priority="3" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F27)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="48" priority="4">
+    <cfRule type="containsBlanks" dxfId="44" priority="4">
       <formula>LEN(TRIM(F27))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41">
-    <cfRule type="containsText" dxfId="47" priority="16" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="43" priority="16" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="17" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="42" priority="17" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="18" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="41" priority="18" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F41)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="44" priority="19">
+    <cfRule type="containsBlanks" dxfId="40" priority="19">
       <formula>LEN(TRIM(F41))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="containsText" dxfId="43" priority="11" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="39" priority="11" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="12" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="38" priority="12" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="13" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="37" priority="13" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F55)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="40" priority="14">
+    <cfRule type="containsBlanks" dxfId="36" priority="14">
       <formula>LEN(TRIM(F55))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F52">
-    <cfRule type="containsText" dxfId="39" priority="6" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="35" priority="6" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="7" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="34" priority="7" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="8" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="33" priority="8" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F52)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="36" priority="9">
+    <cfRule type="containsBlanks" dxfId="32" priority="9">
       <formula>LEN(TRIM(F52))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26919,14 +26916,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="477" t="s">
+      <c r="A1" s="519" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="478"/>
-      <c r="C1" s="478"/>
-      <c r="D1" s="478"/>
-      <c r="E1" s="478"/>
-      <c r="F1" s="479"/>
+      <c r="B1" s="520"/>
+      <c r="C1" s="520"/>
+      <c r="D1" s="520"/>
+      <c r="E1" s="520"/>
+      <c r="F1" s="521"/>
       <c r="G1" s="55"/>
       <c r="H1" s="28"/>
     </row>
@@ -26940,11 +26937,11 @@
       <c r="C2" s="291" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="480" t="s">
+      <c r="D2" s="522" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="480"/>
-      <c r="F2" s="481"/>
+      <c r="E2" s="522"/>
+      <c r="F2" s="523"/>
       <c r="G2" s="61"/>
       <c r="H2" s="28"/>
     </row>
@@ -26957,9 +26954,9 @@
         <v>42.25</v>
       </c>
       <c r="C3" s="176"/>
-      <c r="D3" s="482"/>
-      <c r="E3" s="483"/>
-      <c r="F3" s="484"/>
+      <c r="D3" s="524"/>
+      <c r="E3" s="525"/>
+      <c r="F3" s="526"/>
       <c r="G3" s="55"/>
       <c r="H3" s="28"/>
     </row>
@@ -26972,9 +26969,9 @@
         <v>44.25</v>
       </c>
       <c r="C4" s="176"/>
-      <c r="D4" s="485"/>
-      <c r="E4" s="486"/>
-      <c r="F4" s="487"/>
+      <c r="D4" s="504"/>
+      <c r="E4" s="505"/>
+      <c r="F4" s="506"/>
       <c r="G4" s="55"/>
       <c r="H4" s="28"/>
     </row>
@@ -26982,9 +26979,9 @@
       <c r="A5" s="57"/>
       <c r="B5" s="86"/>
       <c r="C5" s="176"/>
-      <c r="D5" s="485"/>
-      <c r="E5" s="486"/>
-      <c r="F5" s="487"/>
+      <c r="D5" s="504"/>
+      <c r="E5" s="505"/>
+      <c r="F5" s="506"/>
       <c r="G5" s="55"/>
       <c r="H5" s="28"/>
     </row>
@@ -26992,9 +26989,9 @@
       <c r="A6" s="57"/>
       <c r="B6" s="86"/>
       <c r="C6" s="176"/>
-      <c r="D6" s="485"/>
-      <c r="E6" s="486"/>
-      <c r="F6" s="487"/>
+      <c r="D6" s="504"/>
+      <c r="E6" s="505"/>
+      <c r="F6" s="506"/>
       <c r="G6" s="55"/>
       <c r="H6" s="28"/>
     </row>
@@ -27002,9 +26999,9 @@
       <c r="A7" s="58"/>
       <c r="B7" s="86"/>
       <c r="C7" s="176"/>
-      <c r="D7" s="486"/>
-      <c r="E7" s="486"/>
-      <c r="F7" s="486"/>
+      <c r="D7" s="505"/>
+      <c r="E7" s="505"/>
+      <c r="F7" s="505"/>
       <c r="G7" s="50"/>
       <c r="H7" s="28"/>
     </row>
@@ -27019,81 +27016,81 @@
       <c r="H8" s="28"/>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="488" t="s">
+      <c r="A9" s="507" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="490">
+      <c r="B9" s="509">
         <f>SUM(B3:B8)</f>
         <v>86.5</v>
       </c>
-      <c r="C9" s="492" t="str">
+      <c r="C9" s="511" t="str">
         <f>IF((SUM(C3:C7)=0),"",SUM(C3:C7))</f>
         <v/>
       </c>
-      <c r="D9" s="494" t="s">
+      <c r="D9" s="513" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="496">
+      <c r="E9" s="515">
         <f>SUMIF($D$14:$D$103,"Daily scrum / Teams",$E$14:$E$103) / 2</f>
         <v>2.25</v>
       </c>
-      <c r="F9" s="498"/>
+      <c r="F9" s="517"/>
       <c r="G9" s="55"/>
       <c r="H9" s="28"/>
     </row>
     <row r="10" spans="1:8" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="489"/>
-      <c r="B10" s="491"/>
-      <c r="C10" s="493"/>
-      <c r="D10" s="495"/>
-      <c r="E10" s="497"/>
-      <c r="F10" s="499"/>
+      <c r="A10" s="508"/>
+      <c r="B10" s="510"/>
+      <c r="C10" s="512"/>
+      <c r="D10" s="514"/>
+      <c r="E10" s="516"/>
+      <c r="F10" s="518"/>
       <c r="G10" s="55"/>
       <c r="H10" s="28"/>
     </row>
     <row r="11" spans="1:8" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="500" t="s">
+      <c r="A11" s="493" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="501"/>
-      <c r="C11" s="502"/>
-      <c r="D11" s="501"/>
-      <c r="E11" s="503"/>
-      <c r="F11" s="504"/>
+      <c r="B11" s="494"/>
+      <c r="C11" s="495"/>
+      <c r="D11" s="494"/>
+      <c r="E11" s="496"/>
+      <c r="F11" s="497"/>
       <c r="G11" s="61"/>
       <c r="H11" s="28"/>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="505" t="s">
+      <c r="A12" s="498" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="506" t="s">
+      <c r="B12" s="499" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="507" t="s">
+      <c r="C12" s="500" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="508"/>
-      <c r="E12" s="509" t="s">
+      <c r="D12" s="501"/>
+      <c r="E12" s="502" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="510" t="s">
+      <c r="F12" s="503" t="s">
         <v>43</v>
       </c>
       <c r="G12" s="61"/>
       <c r="H12" s="28"/>
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="505"/>
-      <c r="B13" s="506"/>
+      <c r="A13" s="498"/>
+      <c r="B13" s="499"/>
       <c r="C13" s="182" t="s">
         <v>44</v>
       </c>
       <c r="D13" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="509"/>
-      <c r="F13" s="510"/>
+      <c r="E13" s="502"/>
+      <c r="F13" s="503"/>
       <c r="G13" s="61"/>
       <c r="H13" s="28"/>
     </row>
@@ -28409,12 +28406,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="A9:A10"/>
@@ -28423,11 +28419,12 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -28438,8 +28435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEC951F4-6093-4F5B-82FF-EFC01780A0A4}">
   <dimension ref="A2:T63"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -28459,15 +28456,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="452" t="s">
+      <c r="B2" s="475" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="453"/>
-      <c r="D2" s="454" t="s">
+      <c r="C2" s="476"/>
+      <c r="D2" s="477" t="s">
         <v>495</v>
       </c>
-      <c r="E2" s="455"/>
-      <c r="F2" s="456"/>
+      <c r="E2" s="478"/>
+      <c r="F2" s="479"/>
       <c r="K2" s="295"/>
       <c r="L2" s="295"/>
       <c r="M2" s="295"/>
@@ -28477,9 +28474,9 @@
     <row r="3" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="262"/>
       <c r="C3" s="264"/>
-      <c r="D3" s="457"/>
-      <c r="E3" s="458"/>
-      <c r="F3" s="459"/>
+      <c r="D3" s="480"/>
+      <c r="E3" s="481"/>
+      <c r="F3" s="482"/>
       <c r="K3" s="295"/>
       <c r="L3" s="295"/>
       <c r="M3" s="295"/>
@@ -28489,9 +28486,9 @@
     <row r="4" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="262"/>
       <c r="C4" s="264"/>
-      <c r="D4" s="457"/>
-      <c r="E4" s="458"/>
-      <c r="F4" s="459"/>
+      <c r="D4" s="480"/>
+      <c r="E4" s="481"/>
+      <c r="F4" s="482"/>
       <c r="K4" s="295"/>
       <c r="L4" s="295"/>
       <c r="M4" s="295"/>
@@ -28501,9 +28498,9 @@
     <row r="5" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="262"/>
       <c r="C5" s="264"/>
-      <c r="D5" s="457"/>
-      <c r="E5" s="458"/>
-      <c r="F5" s="459"/>
+      <c r="D5" s="480"/>
+      <c r="E5" s="481"/>
+      <c r="F5" s="482"/>
       <c r="K5" s="295"/>
       <c r="L5" s="295"/>
       <c r="M5" s="295"/>
@@ -28513,9 +28510,9 @@
     <row r="6" spans="1:20" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="263"/>
       <c r="C6" s="265"/>
-      <c r="D6" s="460"/>
-      <c r="E6" s="461"/>
-      <c r="F6" s="462"/>
+      <c r="D6" s="483"/>
+      <c r="E6" s="484"/>
+      <c r="F6" s="485"/>
       <c r="K6" s="295"/>
       <c r="L6" s="295"/>
       <c r="M6" s="295"/>
@@ -28559,14 +28556,14 @@
       <c r="D9" s="296" t="s">
         <v>86</v>
       </c>
-      <c r="E9" s="443" t="s">
+      <c r="E9" s="457" t="s">
         <v>87</v>
       </c>
-      <c r="F9" s="444"/>
-      <c r="G9" s="448" t="s">
+      <c r="F9" s="458"/>
+      <c r="G9" s="491" t="s">
         <v>88</v>
       </c>
-      <c r="H9" s="449"/>
+      <c r="H9" s="492"/>
       <c r="I9" s="296" t="s">
         <v>89</v>
       </c>
@@ -28592,10 +28589,10 @@
       <c r="D10" s="25" t="s">
         <v>291</v>
       </c>
-      <c r="E10" s="515" t="s">
+      <c r="E10" s="528" t="s">
         <v>293</v>
       </c>
-      <c r="F10" s="515"/>
+      <c r="F10" s="528"/>
       <c r="G10" s="470"/>
       <c r="H10" s="470"/>
       <c r="I10" s="172">
@@ -28730,11 +28727,11 @@
     </row>
     <row r="15" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="70"/>
-      <c r="C15" s="512" t="s">
+      <c r="C15" s="529" t="s">
         <v>91</v>
       </c>
-      <c r="D15" s="513"/>
-      <c r="E15" s="514"/>
+      <c r="D15" s="530"/>
+      <c r="E15" s="531"/>
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
       <c r="H15" s="177" t="s">
@@ -28788,10 +28785,10 @@
       <c r="C17" s="297" t="s">
         <v>94</v>
       </c>
-      <c r="D17" s="466" t="s">
+      <c r="D17" s="489" t="s">
         <v>95</v>
       </c>
-      <c r="E17" s="467"/>
+      <c r="E17" s="490"/>
       <c r="F17" s="171" t="s">
         <v>96</v>
       </c>
@@ -28840,10 +28837,10 @@
         <v>392</v>
       </c>
       <c r="C18" s="294"/>
-      <c r="D18" s="515" t="s">
+      <c r="D18" s="528" t="s">
         <v>493</v>
       </c>
-      <c r="E18" s="515"/>
+      <c r="E18" s="528"/>
       <c r="F18" s="359" t="s">
         <v>109</v>
       </c>
@@ -28987,10 +28984,10 @@
         <v>388</v>
       </c>
       <c r="C21" s="360"/>
-      <c r="D21" s="572" t="s">
+      <c r="D21" s="527" t="s">
         <v>420</v>
       </c>
-      <c r="E21" s="572"/>
+      <c r="E21" s="527"/>
       <c r="F21" s="360" t="s">
         <v>109</v>
       </c>
@@ -29016,10 +29013,10 @@
         <v>389</v>
       </c>
       <c r="C22" s="360"/>
-      <c r="D22" s="572" t="s">
+      <c r="D22" s="527" t="s">
         <v>386</v>
       </c>
-      <c r="E22" s="572"/>
+      <c r="E22" s="527"/>
       <c r="F22" s="360" t="s">
         <v>109</v>
       </c>
@@ -29045,10 +29042,10 @@
         <v>390</v>
       </c>
       <c r="C23" s="360"/>
-      <c r="D23" s="572" t="s">
+      <c r="D23" s="527" t="s">
         <v>421</v>
       </c>
-      <c r="E23" s="572"/>
+      <c r="E23" s="527"/>
       <c r="F23" s="360" t="s">
         <v>109</v>
       </c>
@@ -29074,10 +29071,10 @@
         <v>391</v>
       </c>
       <c r="C24" s="360"/>
-      <c r="D24" s="572" t="s">
+      <c r="D24" s="527" t="s">
         <v>422</v>
       </c>
-      <c r="E24" s="572"/>
+      <c r="E24" s="527"/>
       <c r="F24" s="360" t="s">
         <v>109</v>
       </c>
@@ -29103,10 +29100,10 @@
         <v>454</v>
       </c>
       <c r="C25" s="360"/>
-      <c r="D25" s="572" t="s">
+      <c r="D25" s="527" t="s">
         <v>452</v>
       </c>
-      <c r="E25" s="572"/>
+      <c r="E25" s="527"/>
       <c r="F25" s="360" t="s">
         <v>109</v>
       </c>
@@ -29132,10 +29129,10 @@
         <v>455</v>
       </c>
       <c r="C26" s="360"/>
-      <c r="D26" s="572" t="s">
+      <c r="D26" s="527" t="s">
         <v>451</v>
       </c>
-      <c r="E26" s="572"/>
+      <c r="E26" s="527"/>
       <c r="F26" s="360" t="s">
         <v>109</v>
       </c>
@@ -29308,10 +29305,10 @@
         <v>467</v>
       </c>
       <c r="C30" s="294"/>
-      <c r="D30" s="511" t="s">
+      <c r="D30" s="532" t="s">
         <v>499</v>
       </c>
-      <c r="E30" s="511"/>
+      <c r="E30" s="532"/>
       <c r="F30" s="359" t="s">
         <v>109</v>
       </c>
@@ -29357,10 +29354,10 @@
         <v>425</v>
       </c>
       <c r="C31" s="294"/>
-      <c r="D31" s="511" t="s">
+      <c r="D31" s="532" t="s">
         <v>500</v>
       </c>
-      <c r="E31" s="511"/>
+      <c r="E31" s="532"/>
       <c r="F31" s="359" t="s">
         <v>109</v>
       </c>
@@ -29455,10 +29452,10 @@
         <v>466</v>
       </c>
       <c r="C33" s="294"/>
-      <c r="D33" s="435" t="s">
+      <c r="D33" s="452" t="s">
         <v>502</v>
       </c>
-      <c r="E33" s="435"/>
+      <c r="E33" s="452"/>
       <c r="F33" s="359" t="s">
         <v>109</v>
       </c>
@@ -29502,8 +29499,8 @@
     <row r="34" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="26"/>
       <c r="C34" s="294"/>
-      <c r="D34" s="435"/>
-      <c r="E34" s="435"/>
+      <c r="D34" s="452"/>
+      <c r="E34" s="452"/>
       <c r="F34" s="294"/>
       <c r="G34" s="294"/>
       <c r="H34" s="294"/>
@@ -29523,8 +29520,8 @@
     <row r="35" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="26"/>
       <c r="C35" s="294"/>
-      <c r="D35" s="435"/>
-      <c r="E35" s="435"/>
+      <c r="D35" s="452"/>
+      <c r="E35" s="452"/>
       <c r="F35" s="294"/>
       <c r="G35" s="294"/>
       <c r="H35" s="294"/>
@@ -29544,8 +29541,8 @@
     <row r="36" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="26"/>
       <c r="C36" s="294"/>
-      <c r="D36" s="435"/>
-      <c r="E36" s="435"/>
+      <c r="D36" s="452"/>
+      <c r="E36" s="452"/>
       <c r="F36" s="294"/>
       <c r="G36" s="294"/>
       <c r="H36" s="294"/>
@@ -29565,8 +29562,8 @@
     <row r="37" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="26"/>
       <c r="C37" s="294"/>
-      <c r="D37" s="435"/>
-      <c r="E37" s="435"/>
+      <c r="D37" s="452"/>
+      <c r="E37" s="452"/>
       <c r="F37" s="294"/>
       <c r="G37" s="294"/>
       <c r="H37" s="294"/>
@@ -29586,8 +29583,8 @@
     <row r="38" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="26"/>
       <c r="C38" s="294"/>
-      <c r="D38" s="435"/>
-      <c r="E38" s="435"/>
+      <c r="D38" s="452"/>
+      <c r="E38" s="452"/>
       <c r="F38" s="294"/>
       <c r="G38" s="294"/>
       <c r="H38" s="294"/>
@@ -29607,8 +29604,8 @@
     <row r="39" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="26"/>
       <c r="C39" s="294"/>
-      <c r="D39" s="435"/>
-      <c r="E39" s="435"/>
+      <c r="D39" s="452"/>
+      <c r="E39" s="452"/>
       <c r="F39" s="294"/>
       <c r="G39" s="294"/>
       <c r="H39" s="294"/>
@@ -29628,8 +29625,8 @@
     <row r="40" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="26"/>
       <c r="C40" s="294"/>
-      <c r="D40" s="435"/>
-      <c r="E40" s="435"/>
+      <c r="D40" s="452"/>
+      <c r="E40" s="452"/>
       <c r="F40" s="294"/>
       <c r="G40" s="294"/>
       <c r="H40" s="294"/>
@@ -29649,8 +29646,8 @@
     <row r="41" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="26"/>
       <c r="C41" s="294"/>
-      <c r="D41" s="435"/>
-      <c r="E41" s="435"/>
+      <c r="D41" s="452"/>
+      <c r="E41" s="452"/>
       <c r="F41" s="294"/>
       <c r="G41" s="294"/>
       <c r="H41" s="294"/>
@@ -29670,8 +29667,8 @@
     <row r="42" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="26"/>
       <c r="C42" s="294"/>
-      <c r="D42" s="435"/>
-      <c r="E42" s="435"/>
+      <c r="D42" s="452"/>
+      <c r="E42" s="452"/>
       <c r="F42" s="294"/>
       <c r="G42" s="294"/>
       <c r="H42" s="294"/>
@@ -29691,8 +29688,8 @@
     <row r="43" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="27"/>
       <c r="C43" s="294"/>
-      <c r="D43" s="435"/>
-      <c r="E43" s="435"/>
+      <c r="D43" s="452"/>
+      <c r="E43" s="452"/>
       <c r="F43" s="294"/>
       <c r="G43" s="294"/>
       <c r="H43" s="294"/>
@@ -29712,8 +29709,8 @@
     <row r="44" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="27"/>
       <c r="C44" s="294"/>
-      <c r="D44" s="439"/>
-      <c r="E44" s="439"/>
+      <c r="D44" s="453"/>
+      <c r="E44" s="453"/>
       <c r="F44" s="294"/>
       <c r="G44" s="294"/>
       <c r="H44" s="294"/>
@@ -29733,8 +29730,8 @@
     <row r="45" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="27"/>
       <c r="C45" s="294"/>
-      <c r="D45" s="439"/>
-      <c r="E45" s="439"/>
+      <c r="D45" s="453"/>
+      <c r="E45" s="453"/>
       <c r="F45" s="294"/>
       <c r="G45" s="294"/>
       <c r="H45" s="294"/>
@@ -29754,8 +29751,8 @@
     <row r="46" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="27"/>
       <c r="C46" s="294"/>
-      <c r="D46" s="439"/>
-      <c r="E46" s="439"/>
+      <c r="D46" s="453"/>
+      <c r="E46" s="453"/>
       <c r="F46" s="294"/>
       <c r="G46" s="294"/>
       <c r="H46" s="294"/>
@@ -29775,8 +29772,8 @@
     <row r="47" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="27"/>
       <c r="C47" s="294"/>
-      <c r="D47" s="439"/>
-      <c r="E47" s="439"/>
+      <c r="D47" s="453"/>
+      <c r="E47" s="453"/>
       <c r="F47" s="294"/>
       <c r="G47" s="294"/>
       <c r="H47" s="294"/>
@@ -29796,8 +29793,8 @@
     <row r="48" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="27"/>
       <c r="C48" s="294"/>
-      <c r="D48" s="439"/>
-      <c r="E48" s="439"/>
+      <c r="D48" s="453"/>
+      <c r="E48" s="453"/>
       <c r="F48" s="294"/>
       <c r="G48" s="294"/>
       <c r="H48" s="294"/>
@@ -29817,8 +29814,8 @@
     <row r="49" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="27"/>
       <c r="C49" s="294"/>
-      <c r="D49" s="439"/>
-      <c r="E49" s="439"/>
+      <c r="D49" s="453"/>
+      <c r="E49" s="453"/>
       <c r="F49" s="294"/>
       <c r="G49" s="294"/>
       <c r="H49" s="294"/>
@@ -29838,8 +29835,8 @@
     <row r="50" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="27"/>
       <c r="C50" s="294"/>
-      <c r="D50" s="439"/>
-      <c r="E50" s="439"/>
+      <c r="D50" s="453"/>
+      <c r="E50" s="453"/>
       <c r="F50" s="294"/>
       <c r="G50" s="294"/>
       <c r="H50" s="294"/>
@@ -29859,8 +29856,8 @@
     <row r="51" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="294"/>
       <c r="C51" s="294"/>
-      <c r="D51" s="439"/>
-      <c r="E51" s="439"/>
+      <c r="D51" s="453"/>
+      <c r="E51" s="453"/>
       <c r="F51" s="294"/>
       <c r="G51" s="294"/>
       <c r="H51" s="294"/>
@@ -29880,8 +29877,8 @@
     <row r="52" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="294"/>
       <c r="C52" s="294"/>
-      <c r="D52" s="439"/>
-      <c r="E52" s="439"/>
+      <c r="D52" s="453"/>
+      <c r="E52" s="453"/>
       <c r="F52" s="294"/>
       <c r="G52" s="294"/>
       <c r="H52" s="294"/>
@@ -29901,8 +29898,8 @@
     <row r="53" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="294"/>
       <c r="C53" s="294"/>
-      <c r="D53" s="439"/>
-      <c r="E53" s="439"/>
+      <c r="D53" s="453"/>
+      <c r="E53" s="453"/>
       <c r="F53" s="294"/>
       <c r="G53" s="294"/>
       <c r="H53" s="294"/>
@@ -29922,8 +29919,8 @@
     <row r="54" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="294"/>
       <c r="C54" s="294"/>
-      <c r="D54" s="439"/>
-      <c r="E54" s="439"/>
+      <c r="D54" s="453"/>
+      <c r="E54" s="453"/>
       <c r="F54" s="294"/>
       <c r="G54" s="294"/>
       <c r="H54" s="294"/>
@@ -30158,11 +30155,34 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:F6"/>
@@ -30179,46 +30199,23 @@
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
   </mergeCells>
   <conditionalFormatting sqref="F18:F54">
-    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F18)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="12" priority="5">
+    <cfRule type="containsBlanks" dxfId="8" priority="5">
       <formula>LEN(TRIM(F18))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30231,8 +30228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F26D5F6-BB7B-44B2-B46D-B745C885F79C}">
   <dimension ref="A1:H1048521"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:F11"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30248,14 +30245,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="477" t="s">
+      <c r="A1" s="519" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="478"/>
-      <c r="C1" s="478"/>
-      <c r="D1" s="478"/>
-      <c r="E1" s="478"/>
-      <c r="F1" s="479"/>
+      <c r="B1" s="520"/>
+      <c r="C1" s="520"/>
+      <c r="D1" s="520"/>
+      <c r="E1" s="520"/>
+      <c r="F1" s="521"/>
       <c r="G1" s="55"/>
       <c r="H1" s="28"/>
     </row>
@@ -30269,11 +30266,11 @@
       <c r="C2" s="291" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="480" t="s">
+      <c r="D2" s="522" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="480"/>
-      <c r="F2" s="481"/>
+      <c r="E2" s="522"/>
+      <c r="F2" s="523"/>
       <c r="G2" s="61"/>
       <c r="H2" s="28"/>
     </row>
@@ -30286,9 +30283,9 @@
         <v>0</v>
       </c>
       <c r="C3" s="176"/>
-      <c r="D3" s="482"/>
-      <c r="E3" s="483"/>
-      <c r="F3" s="484"/>
+      <c r="D3" s="524"/>
+      <c r="E3" s="525"/>
+      <c r="F3" s="526"/>
       <c r="G3" s="55"/>
       <c r="H3" s="28"/>
     </row>
@@ -30301,9 +30298,9 @@
         <v>0</v>
       </c>
       <c r="C4" s="176"/>
-      <c r="D4" s="485"/>
-      <c r="E4" s="486"/>
-      <c r="F4" s="487"/>
+      <c r="D4" s="504"/>
+      <c r="E4" s="505"/>
+      <c r="F4" s="506"/>
       <c r="G4" s="55"/>
       <c r="H4" s="28"/>
     </row>
@@ -30311,9 +30308,9 @@
       <c r="A5" s="273"/>
       <c r="B5" s="86"/>
       <c r="C5" s="176"/>
-      <c r="D5" s="485"/>
-      <c r="E5" s="486"/>
-      <c r="F5" s="487"/>
+      <c r="D5" s="504"/>
+      <c r="E5" s="505"/>
+      <c r="F5" s="506"/>
       <c r="G5" s="55"/>
       <c r="H5" s="28"/>
     </row>
@@ -30321,9 +30318,9 @@
       <c r="A6" s="273"/>
       <c r="B6" s="86"/>
       <c r="C6" s="176"/>
-      <c r="D6" s="485"/>
-      <c r="E6" s="486"/>
-      <c r="F6" s="487"/>
+      <c r="D6" s="504"/>
+      <c r="E6" s="505"/>
+      <c r="F6" s="506"/>
       <c r="G6" s="55"/>
       <c r="H6" s="28"/>
     </row>
@@ -30331,9 +30328,9 @@
       <c r="A7" s="274"/>
       <c r="B7" s="86"/>
       <c r="C7" s="176"/>
-      <c r="D7" s="486"/>
-      <c r="E7" s="486"/>
-      <c r="F7" s="486"/>
+      <c r="D7" s="505"/>
+      <c r="E7" s="505"/>
+      <c r="F7" s="505"/>
       <c r="G7" s="50"/>
       <c r="H7" s="28"/>
     </row>
@@ -30348,80 +30345,80 @@
       <c r="H8" s="28"/>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="518" t="s">
+      <c r="A9" s="533" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="490">
+      <c r="B9" s="509">
         <f>SUM(B3:B8)</f>
         <v>0</v>
       </c>
-      <c r="C9" s="492" t="str">
+      <c r="C9" s="511" t="str">
         <f>IF((SUM(C3:C7)=0),"",SUM(C3:C7))</f>
         <v/>
       </c>
-      <c r="D9" s="494" t="s">
+      <c r="D9" s="513" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="520">
+      <c r="E9" s="535">
         <v>4</v>
       </c>
-      <c r="F9" s="498"/>
+      <c r="F9" s="517"/>
       <c r="G9" s="55"/>
       <c r="H9" s="28"/>
     </row>
     <row r="10" spans="1:8" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="519"/>
-      <c r="B10" s="491"/>
-      <c r="C10" s="493"/>
-      <c r="D10" s="495"/>
-      <c r="E10" s="521"/>
-      <c r="F10" s="499"/>
+      <c r="A10" s="534"/>
+      <c r="B10" s="510"/>
+      <c r="C10" s="512"/>
+      <c r="D10" s="514"/>
+      <c r="E10" s="536"/>
+      <c r="F10" s="518"/>
       <c r="G10" s="55"/>
       <c r="H10" s="28"/>
     </row>
     <row r="11" spans="1:8" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="500" t="s">
+      <c r="A11" s="493" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="501"/>
-      <c r="C11" s="502"/>
-      <c r="D11" s="501"/>
-      <c r="E11" s="503"/>
-      <c r="F11" s="504"/>
+      <c r="B11" s="494"/>
+      <c r="C11" s="495"/>
+      <c r="D11" s="494"/>
+      <c r="E11" s="496"/>
+      <c r="F11" s="497"/>
       <c r="G11" s="61"/>
       <c r="H11" s="28"/>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="516" t="s">
+      <c r="A12" s="537" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="506" t="s">
+      <c r="B12" s="499" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="507" t="s">
+      <c r="C12" s="500" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="508"/>
-      <c r="E12" s="517" t="s">
+      <c r="D12" s="501"/>
+      <c r="E12" s="538" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="510" t="s">
+      <c r="F12" s="503" t="s">
         <v>43</v>
       </c>
       <c r="G12" s="61"/>
       <c r="H12" s="28"/>
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="516"/>
-      <c r="B13" s="506"/>
+      <c r="A13" s="537"/>
+      <c r="B13" s="499"/>
       <c r="C13" s="182" t="s">
         <v>44</v>
       </c>
       <c r="D13" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="517"/>
-      <c r="F13" s="510"/>
+      <c r="E13" s="538"/>
+      <c r="F13" s="503"/>
       <c r="G13" s="61"/>
       <c r="H13" s="28"/>
     </row>
@@ -30911,8 +30908,12 @@
         <v>286</v>
       </c>
       <c r="C41" s="242"/>
-      <c r="D41" s="243"/>
-      <c r="E41" s="240"/>
+      <c r="D41" s="364" t="s">
+        <v>489</v>
+      </c>
+      <c r="E41" s="240">
+        <v>3</v>
+      </c>
       <c r="F41" s="244"/>
       <c r="G41" s="212"/>
       <c r="H41" s="28"/>
@@ -30925,8 +30926,12 @@
         <v>287</v>
       </c>
       <c r="C42" s="200"/>
-      <c r="D42" s="201"/>
-      <c r="E42" s="193"/>
+      <c r="D42" s="364" t="s">
+        <v>515</v>
+      </c>
+      <c r="E42" s="193">
+        <v>2</v>
+      </c>
       <c r="F42" s="211"/>
       <c r="G42" s="212"/>
       <c r="H42" s="28"/>
@@ -30939,7 +30944,9 @@
         <v>286</v>
       </c>
       <c r="C43" s="200"/>
-      <c r="D43" s="201"/>
+      <c r="D43" s="364" t="s">
+        <v>513</v>
+      </c>
       <c r="E43" s="193"/>
       <c r="F43" s="211"/>
       <c r="G43" s="212"/>
@@ -30953,7 +30960,9 @@
         <v>287</v>
       </c>
       <c r="C44" s="200"/>
-      <c r="D44" s="201"/>
+      <c r="D44" s="364" t="s">
+        <v>514</v>
+      </c>
       <c r="E44" s="193"/>
       <c r="F44" s="211"/>
       <c r="G44" s="212"/>
@@ -31104,12 +31113,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
@@ -31117,12 +31126,12 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -31132,7 +31141,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BEE54FA-3D7F-4951-A18B-4B0A69E0A056}">
   <dimension ref="A2:T66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
@@ -31153,15 +31162,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="452" t="s">
+      <c r="B2" s="475" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="453"/>
-      <c r="D2" s="454" t="s">
+      <c r="C2" s="476"/>
+      <c r="D2" s="477" t="s">
         <v>510</v>
       </c>
-      <c r="E2" s="455"/>
-      <c r="F2" s="456"/>
+      <c r="E2" s="478"/>
+      <c r="F2" s="479"/>
       <c r="K2" s="295"/>
       <c r="L2" s="295"/>
       <c r="M2" s="295"/>
@@ -31171,9 +31180,9 @@
     <row r="3" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="262"/>
       <c r="C3" s="264"/>
-      <c r="D3" s="457"/>
-      <c r="E3" s="458"/>
-      <c r="F3" s="459"/>
+      <c r="D3" s="480"/>
+      <c r="E3" s="481"/>
+      <c r="F3" s="482"/>
       <c r="K3" s="295"/>
       <c r="L3" s="295"/>
       <c r="M3" s="295"/>
@@ -31183,9 +31192,9 @@
     <row r="4" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="262"/>
       <c r="C4" s="264"/>
-      <c r="D4" s="457"/>
-      <c r="E4" s="458"/>
-      <c r="F4" s="459"/>
+      <c r="D4" s="480"/>
+      <c r="E4" s="481"/>
+      <c r="F4" s="482"/>
       <c r="K4" s="295"/>
       <c r="L4" s="295"/>
       <c r="M4" s="295"/>
@@ -31195,9 +31204,9 @@
     <row r="5" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="262"/>
       <c r="C5" s="264"/>
-      <c r="D5" s="457"/>
-      <c r="E5" s="458"/>
-      <c r="F5" s="459"/>
+      <c r="D5" s="480"/>
+      <c r="E5" s="481"/>
+      <c r="F5" s="482"/>
       <c r="K5" s="295"/>
       <c r="L5" s="295"/>
       <c r="M5" s="295"/>
@@ -31207,9 +31216,9 @@
     <row r="6" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="263"/>
       <c r="C6" s="265"/>
-      <c r="D6" s="460"/>
-      <c r="E6" s="461"/>
-      <c r="F6" s="462"/>
+      <c r="D6" s="483"/>
+      <c r="E6" s="484"/>
+      <c r="F6" s="485"/>
       <c r="K6" s="295"/>
       <c r="L6" s="295"/>
       <c r="M6" s="295"/>
@@ -31253,14 +31262,14 @@
       <c r="D9" s="296" t="s">
         <v>86</v>
       </c>
-      <c r="E9" s="443" t="s">
+      <c r="E9" s="457" t="s">
         <v>87</v>
       </c>
-      <c r="F9" s="444"/>
-      <c r="G9" s="448" t="s">
+      <c r="F9" s="458"/>
+      <c r="G9" s="491" t="s">
         <v>88</v>
       </c>
-      <c r="H9" s="449"/>
+      <c r="H9" s="492"/>
       <c r="I9" s="296" t="s">
         <v>89</v>
       </c>
@@ -31278,33 +31287,33 @@
       <c r="S9" s="21"/>
       <c r="T9" s="21"/>
     </row>
-    <row r="10" spans="1:20" s="582" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="578"/>
-      <c r="B10" s="583">
+    <row r="10" spans="1:20" s="373" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="369"/>
+      <c r="B10" s="374">
         <v>3</v>
       </c>
-      <c r="C10" s="577"/>
-      <c r="D10" s="584" t="s">
+      <c r="C10" s="368"/>
+      <c r="D10" s="375" t="s">
         <v>291</v>
       </c>
-      <c r="E10" s="585" t="s">
+      <c r="E10" s="539" t="s">
         <v>292</v>
       </c>
-      <c r="F10" s="585"/>
-      <c r="G10" s="579"/>
-      <c r="H10" s="577"/>
-      <c r="I10" s="577"/>
-      <c r="J10" s="577"/>
+      <c r="F10" s="539"/>
+      <c r="G10" s="370"/>
+      <c r="H10" s="368"/>
+      <c r="I10" s="368"/>
+      <c r="J10" s="368"/>
       <c r="K10" s="334"/>
       <c r="L10" s="334"/>
-      <c r="M10" s="580"/>
-      <c r="N10" s="581"/>
-      <c r="O10" s="581"/>
-      <c r="P10" s="581"/>
-      <c r="Q10" s="581"/>
-      <c r="R10" s="581"/>
-      <c r="S10" s="581"/>
-      <c r="T10" s="581"/>
+      <c r="M10" s="371"/>
+      <c r="N10" s="372"/>
+      <c r="O10" s="372"/>
+      <c r="P10" s="372"/>
+      <c r="Q10" s="372"/>
+      <c r="R10" s="372"/>
+      <c r="S10" s="372"/>
+      <c r="T10" s="372"/>
     </row>
     <row r="11" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="25">
@@ -31314,10 +31323,10 @@
       <c r="D11" s="25" t="s">
         <v>329</v>
       </c>
-      <c r="E11" s="573" t="s">
+      <c r="E11" s="540" t="s">
         <v>322</v>
       </c>
-      <c r="F11" s="573"/>
+      <c r="F11" s="540"/>
       <c r="G11" s="470"/>
       <c r="H11" s="470"/>
       <c r="I11" s="172">
@@ -31500,7 +31509,7 @@
       <c r="F17" s="471"/>
       <c r="G17" s="470"/>
       <c r="H17" s="470"/>
-      <c r="I17" s="586"/>
+      <c r="I17" s="376"/>
       <c r="J17" s="214"/>
       <c r="K17" s="172"/>
       <c r="L17" s="172"/>
@@ -31511,8 +31520,8 @@
     <row r="18" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="70"/>
       <c r="D18" s="70"/>
-      <c r="E18" s="475"/>
-      <c r="F18" s="475"/>
+      <c r="E18" s="465"/>
+      <c r="F18" s="465"/>
       <c r="G18" s="22"/>
       <c r="H18" s="22"/>
       <c r="I18" s="295"/>
@@ -31530,11 +31539,11 @@
     </row>
     <row r="19" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="71"/>
-      <c r="C19" s="463" t="s">
+      <c r="C19" s="486" t="s">
         <v>91</v>
       </c>
-      <c r="D19" s="464"/>
-      <c r="E19" s="465"/>
+      <c r="D19" s="487"/>
+      <c r="E19" s="488"/>
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
       <c r="H19" s="177" t="s">
@@ -31588,10 +31597,10 @@
       <c r="C21" s="297" t="s">
         <v>94</v>
       </c>
-      <c r="D21" s="466" t="s">
+      <c r="D21" s="489" t="s">
         <v>95</v>
       </c>
-      <c r="E21" s="467"/>
+      <c r="E21" s="490"/>
       <c r="F21" s="171" t="s">
         <v>96</v>
       </c>
@@ -31638,45 +31647,45 @@
         <v>137</v>
       </c>
     </row>
-    <row r="22" spans="1:20" s="582" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="578"/>
-      <c r="B22" s="588">
+    <row r="22" spans="1:20" s="373" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="369"/>
+      <c r="B22" s="378">
         <v>0.13402777777777777</v>
       </c>
-      <c r="C22" s="589"/>
-      <c r="D22" s="585" t="s">
+      <c r="C22" s="379"/>
+      <c r="D22" s="539" t="s">
         <v>512</v>
       </c>
-      <c r="E22" s="585"/>
+      <c r="E22" s="539"/>
       <c r="F22" s="360" t="s">
         <v>109</v>
       </c>
-      <c r="G22" s="589"/>
-      <c r="H22" s="584" t="s">
+      <c r="G22" s="379"/>
+      <c r="H22" s="375" t="s">
         <v>287</v>
       </c>
-      <c r="I22" s="589"/>
-      <c r="J22" s="589"/>
-      <c r="K22" s="587"/>
-      <c r="L22" s="587"/>
-      <c r="M22" s="587"/>
-      <c r="N22" s="587"/>
-      <c r="O22" s="587"/>
-      <c r="P22" s="587"/>
-      <c r="Q22" s="587"/>
-      <c r="R22" s="587"/>
-      <c r="S22" s="587"/>
-      <c r="T22" s="587"/>
+      <c r="I22" s="379"/>
+      <c r="J22" s="379"/>
+      <c r="K22" s="377"/>
+      <c r="L22" s="377"/>
+      <c r="M22" s="377"/>
+      <c r="N22" s="377"/>
+      <c r="O22" s="377"/>
+      <c r="P22" s="377"/>
+      <c r="Q22" s="377"/>
+      <c r="R22" s="377"/>
+      <c r="S22" s="377"/>
+      <c r="T22" s="377"/>
     </row>
     <row r="23" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="26" t="s">
         <v>339</v>
       </c>
       <c r="C23" s="294"/>
-      <c r="D23" s="435" t="s">
+      <c r="D23" s="452" t="s">
         <v>371</v>
       </c>
-      <c r="E23" s="435"/>
+      <c r="E23" s="452"/>
       <c r="F23" s="360" t="s">
         <v>109</v>
       </c>
@@ -31724,10 +31733,10 @@
         <v>362</v>
       </c>
       <c r="C24" s="294"/>
-      <c r="D24" s="435" t="s">
+      <c r="D24" s="452" t="s">
         <v>364</v>
       </c>
-      <c r="E24" s="435"/>
+      <c r="E24" s="452"/>
       <c r="F24" s="360" t="s">
         <v>109</v>
       </c>
@@ -31775,10 +31784,10 @@
         <v>340</v>
       </c>
       <c r="C25" s="294"/>
-      <c r="D25" s="435" t="s">
+      <c r="D25" s="452" t="s">
         <v>363</v>
       </c>
-      <c r="E25" s="435"/>
+      <c r="E25" s="452"/>
       <c r="F25" s="360" t="s">
         <v>109</v>
       </c>
@@ -31826,10 +31835,10 @@
         <v>365</v>
       </c>
       <c r="C26" s="294"/>
-      <c r="D26" s="435" t="s">
+      <c r="D26" s="452" t="s">
         <v>372</v>
       </c>
-      <c r="E26" s="435"/>
+      <c r="E26" s="452"/>
       <c r="F26" s="360" t="s">
         <v>109</v>
       </c>
@@ -31877,10 +31886,10 @@
         <v>366</v>
       </c>
       <c r="C27" s="294"/>
-      <c r="D27" s="435" t="s">
+      <c r="D27" s="452" t="s">
         <v>367</v>
       </c>
-      <c r="E27" s="435"/>
+      <c r="E27" s="452"/>
       <c r="F27" s="360" t="s">
         <v>109</v>
       </c>
@@ -31928,10 +31937,10 @@
         <v>370</v>
       </c>
       <c r="C28" s="294"/>
-      <c r="D28" s="435" t="s">
+      <c r="D28" s="452" t="s">
         <v>380</v>
       </c>
-      <c r="E28" s="435"/>
+      <c r="E28" s="452"/>
       <c r="F28" s="360" t="s">
         <v>109</v>
       </c>
@@ -31979,10 +31988,10 @@
         <v>375</v>
       </c>
       <c r="C29" s="294"/>
-      <c r="D29" s="435" t="s">
+      <c r="D29" s="452" t="s">
         <v>381</v>
       </c>
-      <c r="E29" s="435"/>
+      <c r="E29" s="452"/>
       <c r="F29" s="360" t="s">
         <v>109</v>
       </c>
@@ -32030,10 +32039,10 @@
         <v>378</v>
       </c>
       <c r="C30" s="294"/>
-      <c r="D30" s="435" t="s">
+      <c r="D30" s="452" t="s">
         <v>373</v>
       </c>
-      <c r="E30" s="435"/>
+      <c r="E30" s="452"/>
       <c r="F30" s="360" t="s">
         <v>109</v>
       </c>
@@ -32077,14 +32086,14 @@
       </c>
     </row>
     <row r="31" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="574">
+      <c r="B31" s="365">
         <v>0.20902777777777778</v>
       </c>
       <c r="C31" s="294"/>
-      <c r="D31" s="439" t="s">
+      <c r="D31" s="453" t="s">
         <v>419</v>
       </c>
-      <c r="E31" s="439"/>
+      <c r="E31" s="453"/>
       <c r="F31" s="360" t="s">
         <v>109</v>
       </c>
@@ -32128,14 +32137,14 @@
       </c>
     </row>
     <row r="32" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="575">
+      <c r="B32" s="366">
         <v>0.21249999999999999</v>
       </c>
       <c r="C32" s="294"/>
-      <c r="D32" s="439" t="s">
+      <c r="D32" s="453" t="s">
         <v>505</v>
       </c>
-      <c r="E32" s="439"/>
+      <c r="E32" s="453"/>
       <c r="F32" s="360" t="s">
         <v>109</v>
       </c>
@@ -32157,14 +32166,14 @@
       <c r="T32" s="294"/>
     </row>
     <row r="33" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="575">
+      <c r="B33" s="366">
         <v>0.25069444444444444</v>
       </c>
       <c r="C33" s="294"/>
-      <c r="D33" s="439" t="s">
+      <c r="D33" s="453" t="s">
         <v>423</v>
       </c>
-      <c r="E33" s="439"/>
+      <c r="E33" s="453"/>
       <c r="F33" s="360" t="s">
         <v>109</v>
       </c>
@@ -32186,14 +32195,14 @@
       <c r="T33" s="294"/>
     </row>
     <row r="34" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="575">
+      <c r="B34" s="366">
         <v>0.25138888888888888</v>
       </c>
       <c r="C34" s="360"/>
-      <c r="D34" s="438" t="s">
+      <c r="D34" s="449" t="s">
         <v>424</v>
       </c>
-      <c r="E34" s="438"/>
+      <c r="E34" s="449"/>
       <c r="F34" s="360" t="s">
         <v>109</v>
       </c>
@@ -32215,14 +32224,14 @@
       <c r="T34" s="360"/>
     </row>
     <row r="35" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="576">
+      <c r="B35" s="367">
         <v>0.25208333333333333</v>
       </c>
       <c r="C35" s="294"/>
-      <c r="D35" s="439" t="s">
+      <c r="D35" s="453" t="s">
         <v>428</v>
       </c>
-      <c r="E35" s="439"/>
+      <c r="E35" s="453"/>
       <c r="F35" s="360" t="s">
         <v>109</v>
       </c>
@@ -32244,14 +32253,14 @@
       <c r="T35" s="294"/>
     </row>
     <row r="36" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="576">
+      <c r="B36" s="367">
         <v>0.25277777777777777</v>
       </c>
       <c r="C36" s="360"/>
-      <c r="D36" s="438" t="s">
+      <c r="D36" s="449" t="s">
         <v>429</v>
       </c>
-      <c r="E36" s="438"/>
+      <c r="E36" s="449"/>
       <c r="F36" s="360" t="s">
         <v>109</v>
       </c>
@@ -32273,14 +32282,14 @@
       <c r="T36" s="360"/>
     </row>
     <row r="37" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="576">
+      <c r="B37" s="367">
         <v>0.25347222222222221</v>
       </c>
       <c r="C37" s="360"/>
-      <c r="D37" s="438" t="s">
+      <c r="D37" s="449" t="s">
         <v>430</v>
       </c>
-      <c r="E37" s="438"/>
+      <c r="E37" s="449"/>
       <c r="F37" s="360" t="s">
         <v>109</v>
       </c>
@@ -32300,14 +32309,14 @@
       <c r="T37" s="360"/>
     </row>
     <row r="38" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="576">
+      <c r="B38" s="367">
         <v>0.29375000000000001</v>
       </c>
       <c r="C38" s="294"/>
-      <c r="D38" s="439" t="s">
+      <c r="D38" s="453" t="s">
         <v>453</v>
       </c>
-      <c r="E38" s="439"/>
+      <c r="E38" s="453"/>
       <c r="F38" s="360" t="s">
         <v>109</v>
       </c>
@@ -32327,14 +32336,14 @@
       <c r="T38" s="294"/>
     </row>
     <row r="39" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="576">
+      <c r="B39" s="367">
         <v>0.37777777777777777</v>
       </c>
       <c r="C39" s="360"/>
-      <c r="D39" s="438" t="s">
+      <c r="D39" s="449" t="s">
         <v>435</v>
       </c>
-      <c r="E39" s="438"/>
+      <c r="E39" s="449"/>
       <c r="F39" s="360" t="s">
         <v>109</v>
       </c>
@@ -32356,14 +32365,14 @@
       <c r="T39" s="360"/>
     </row>
     <row r="40" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="576">
+      <c r="B40" s="367">
         <v>0.38055555555555554</v>
       </c>
       <c r="C40" s="360"/>
-      <c r="D40" s="438" t="s">
+      <c r="D40" s="449" t="s">
         <v>440</v>
       </c>
-      <c r="E40" s="438"/>
+      <c r="E40" s="449"/>
       <c r="F40" s="360" t="s">
         <v>109</v>
       </c>
@@ -32385,14 +32394,14 @@
       <c r="T40" s="360"/>
     </row>
     <row r="41" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="576">
+      <c r="B41" s="367">
         <v>0.45902777777777781</v>
       </c>
       <c r="C41" s="360"/>
-      <c r="D41" s="438" t="s">
+      <c r="D41" s="449" t="s">
         <v>470</v>
       </c>
-      <c r="E41" s="438"/>
+      <c r="E41" s="449"/>
       <c r="F41" s="360" t="s">
         <v>109</v>
       </c>
@@ -32414,14 +32423,14 @@
       <c r="T41" s="360"/>
     </row>
     <row r="42" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="576">
+      <c r="B42" s="367">
         <v>0.4597222222222222</v>
       </c>
       <c r="C42" s="360"/>
-      <c r="D42" s="438" t="s">
+      <c r="D42" s="449" t="s">
         <v>471</v>
       </c>
-      <c r="E42" s="438"/>
+      <c r="E42" s="449"/>
       <c r="F42" s="360" t="s">
         <v>109</v>
       </c>
@@ -32443,14 +32452,14 @@
       <c r="T42" s="360"/>
     </row>
     <row r="43" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="576">
+      <c r="B43" s="367">
         <v>0.4604166666666667</v>
       </c>
       <c r="C43" s="294"/>
-      <c r="D43" s="439" t="s">
+      <c r="D43" s="453" t="s">
         <v>472</v>
       </c>
-      <c r="E43" s="439"/>
+      <c r="E43" s="453"/>
       <c r="F43" s="360" t="s">
         <v>109</v>
       </c>
@@ -32472,14 +32481,14 @@
       <c r="T43" s="294"/>
     </row>
     <row r="44" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="576">
+      <c r="B44" s="367">
         <v>0.46111111111111108</v>
       </c>
       <c r="C44" s="360"/>
-      <c r="D44" s="438" t="s">
+      <c r="D44" s="449" t="s">
         <v>473</v>
       </c>
-      <c r="E44" s="438"/>
+      <c r="E44" s="449"/>
       <c r="F44" s="360" t="s">
         <v>109</v>
       </c>
@@ -32501,14 +32510,14 @@
       <c r="T44" s="360"/>
     </row>
     <row r="45" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="576">
+      <c r="B45" s="367">
         <v>0.46180555555555558</v>
       </c>
       <c r="C45" s="360"/>
-      <c r="D45" s="438" t="s">
+      <c r="D45" s="449" t="s">
         <v>474</v>
       </c>
-      <c r="E45" s="438"/>
+      <c r="E45" s="449"/>
       <c r="F45" s="360" t="s">
         <v>109</v>
       </c>
@@ -32530,14 +32539,14 @@
       <c r="T45" s="360"/>
     </row>
     <row r="46" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="576">
+      <c r="B46" s="367">
         <v>0.46249999999999997</v>
       </c>
       <c r="C46" s="360"/>
-      <c r="D46" s="438" t="s">
+      <c r="D46" s="449" t="s">
         <v>475</v>
       </c>
-      <c r="E46" s="438"/>
+      <c r="E46" s="449"/>
       <c r="F46" s="360" t="s">
         <v>109</v>
       </c>
@@ -32559,14 +32568,14 @@
       <c r="T46" s="360"/>
     </row>
     <row r="47" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="576">
+      <c r="B47" s="367">
         <v>0.46319444444444446</v>
       </c>
       <c r="C47" s="360"/>
-      <c r="D47" s="438" t="s">
+      <c r="D47" s="449" t="s">
         <v>476</v>
       </c>
-      <c r="E47" s="438"/>
+      <c r="E47" s="449"/>
       <c r="F47" s="360" t="s">
         <v>109</v>
       </c>
@@ -32590,8 +32599,8 @@
     <row r="48" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="360"/>
       <c r="C48" s="360"/>
-      <c r="D48" s="438"/>
-      <c r="E48" s="438"/>
+      <c r="D48" s="449"/>
+      <c r="E48" s="449"/>
       <c r="F48" s="360"/>
       <c r="G48" s="360"/>
       <c r="H48" s="360"/>
@@ -32611,8 +32620,8 @@
     <row r="49" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="294"/>
       <c r="C49" s="294"/>
-      <c r="D49" s="439"/>
-      <c r="E49" s="439"/>
+      <c r="D49" s="453"/>
+      <c r="E49" s="453"/>
       <c r="F49" s="294"/>
       <c r="G49" s="294"/>
       <c r="H49" s="294"/>
@@ -32913,6 +32922,48 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:F6"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
     <mergeCell ref="D47:E47"/>
     <mergeCell ref="D48:E48"/>
     <mergeCell ref="D41:E41"/>
@@ -32920,61 +32971,19 @@
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:F6"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D38:E38"/>
     <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D36:E36"/>
   </mergeCells>
   <conditionalFormatting sqref="F48:F49">
-    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="6" priority="10" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F48)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="8" priority="13">
+    <cfRule type="containsBlanks" dxfId="4" priority="13">
       <formula>LEN(TRIM(F48))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33017,14 +33026,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="477" t="s">
+      <c r="A1" s="519" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="478"/>
-      <c r="C1" s="478"/>
-      <c r="D1" s="478"/>
-      <c r="E1" s="478"/>
-      <c r="F1" s="479"/>
+      <c r="B1" s="520"/>
+      <c r="C1" s="520"/>
+      <c r="D1" s="520"/>
+      <c r="E1" s="520"/>
+      <c r="F1" s="521"/>
       <c r="G1" s="55"/>
       <c r="H1" s="28"/>
     </row>
@@ -33038,11 +33047,11 @@
       <c r="C2" s="291" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="480" t="s">
+      <c r="D2" s="522" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="480"/>
-      <c r="F2" s="481"/>
+      <c r="E2" s="522"/>
+      <c r="F2" s="523"/>
       <c r="G2" s="61"/>
       <c r="H2" s="28"/>
     </row>
@@ -33055,9 +33064,9 @@
         <v>28</v>
       </c>
       <c r="C3" s="176"/>
-      <c r="D3" s="482"/>
-      <c r="E3" s="483"/>
-      <c r="F3" s="484"/>
+      <c r="D3" s="524"/>
+      <c r="E3" s="525"/>
+      <c r="F3" s="526"/>
       <c r="G3" s="55"/>
       <c r="H3" s="28"/>
     </row>
@@ -33070,9 +33079,9 @@
         <v>40.5</v>
       </c>
       <c r="C4" s="176"/>
-      <c r="D4" s="485"/>
-      <c r="E4" s="486"/>
-      <c r="F4" s="487"/>
+      <c r="D4" s="504"/>
+      <c r="E4" s="505"/>
+      <c r="F4" s="506"/>
       <c r="G4" s="55"/>
       <c r="H4" s="28"/>
     </row>
@@ -33085,9 +33094,9 @@
         <v>21.5</v>
       </c>
       <c r="C5" s="176"/>
-      <c r="D5" s="485"/>
-      <c r="E5" s="486"/>
-      <c r="F5" s="487"/>
+      <c r="D5" s="504"/>
+      <c r="E5" s="505"/>
+      <c r="F5" s="506"/>
       <c r="G5" s="55"/>
       <c r="H5" s="28"/>
     </row>
@@ -33100,9 +33109,9 @@
         <v>46</v>
       </c>
       <c r="C6" s="176"/>
-      <c r="D6" s="485"/>
-      <c r="E6" s="486"/>
-      <c r="F6" s="487"/>
+      <c r="D6" s="504"/>
+      <c r="E6" s="505"/>
+      <c r="F6" s="506"/>
       <c r="G6" s="55"/>
       <c r="H6" s="28"/>
     </row>
@@ -33115,9 +33124,9 @@
         <v>22.5</v>
       </c>
       <c r="C7" s="176"/>
-      <c r="D7" s="486"/>
-      <c r="E7" s="486"/>
-      <c r="F7" s="486"/>
+      <c r="D7" s="505"/>
+      <c r="E7" s="505"/>
+      <c r="F7" s="505"/>
       <c r="G7" s="50"/>
       <c r="H7" s="28"/>
     </row>
@@ -33132,80 +33141,80 @@
       <c r="H8" s="28"/>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="488" t="s">
+      <c r="A9" s="507" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="490">
+      <c r="B9" s="509">
         <f>SUM(B3:B8)</f>
         <v>158.5</v>
       </c>
-      <c r="C9" s="492" t="str">
+      <c r="C9" s="511" t="str">
         <f>IF((SUM(C3:C7)=0),"",SUM(C3:C7))</f>
         <v/>
       </c>
-      <c r="D9" s="494" t="s">
+      <c r="D9" s="513" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="520">
+      <c r="E9" s="535">
         <v>16.5</v>
       </c>
-      <c r="F9" s="498"/>
+      <c r="F9" s="517"/>
       <c r="G9" s="55"/>
       <c r="H9" s="28"/>
     </row>
     <row r="10" spans="1:8" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="489"/>
-      <c r="B10" s="491"/>
-      <c r="C10" s="493"/>
-      <c r="D10" s="495"/>
-      <c r="E10" s="521"/>
-      <c r="F10" s="499"/>
+      <c r="A10" s="508"/>
+      <c r="B10" s="510"/>
+      <c r="C10" s="512"/>
+      <c r="D10" s="514"/>
+      <c r="E10" s="536"/>
+      <c r="F10" s="518"/>
       <c r="G10" s="55"/>
       <c r="H10" s="28"/>
     </row>
     <row r="11" spans="1:8" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="500" t="s">
+      <c r="A11" s="493" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="501"/>
-      <c r="C11" s="502"/>
-      <c r="D11" s="501"/>
-      <c r="E11" s="503"/>
-      <c r="F11" s="504"/>
+      <c r="B11" s="494"/>
+      <c r="C11" s="495"/>
+      <c r="D11" s="494"/>
+      <c r="E11" s="496"/>
+      <c r="F11" s="497"/>
       <c r="G11" s="61"/>
       <c r="H11" s="28"/>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="505" t="s">
+      <c r="A12" s="498" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="506" t="s">
+      <c r="B12" s="499" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="507" t="s">
+      <c r="C12" s="500" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="508"/>
-      <c r="E12" s="517" t="s">
+      <c r="D12" s="501"/>
+      <c r="E12" s="538" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="510" t="s">
+      <c r="F12" s="503" t="s">
         <v>43</v>
       </c>
       <c r="G12" s="61"/>
       <c r="H12" s="28"/>
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="505"/>
-      <c r="B13" s="506"/>
+      <c r="A13" s="498"/>
+      <c r="B13" s="499"/>
       <c r="C13" s="182" t="s">
         <v>44</v>
       </c>
       <c r="D13" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="517"/>
-      <c r="F13" s="510"/>
+      <c r="E13" s="538"/>
+      <c r="F13" s="503"/>
       <c r="G13" s="61"/>
       <c r="H13" s="28"/>
     </row>
@@ -35009,12 +35018,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
@@ -35022,18 +35031,33 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Asiakirja" ma:contentTypeID="0x0101007224E9EE5B3BF94C806FF09039891060" ma:contentTypeVersion="6" ma:contentTypeDescription="Luo uusi asiakirja." ma:contentTypeScope="" ma:versionID="3e27591f2678635d285da64c2a7aad9e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="aec78b04-9439-499f-911c-68c5b1e9ccff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="79be787e91dac9966e20cd4a195ad7e2" ns2:_="">
     <xsd:import namespace="aec78b04-9439-499f-911c-68c5b1e9ccff"/>
@@ -35191,35 +35215,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8130D149-6442-4525-BFAE-974CCFFB1910}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58957FBC-4CB2-4E5D-9BCC-B24CB64EA848}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="aec78b04-9439-499f-911c-68c5b1e9ccff"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -35241,9 +35240,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58957FBC-4CB2-4E5D-9BCC-B24CB64EA848}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8130D149-6442-4525-BFAE-974CCFFB1910}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="aec78b04-9439-499f-911c-68c5b1e9ccff"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/ScrumBacklog.xlsx
+++ b/ScrumBacklog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xim\muistutussovellus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FD9ABB-E9AD-41AA-8AEC-F29A0585E7D4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F0047F-0F91-4F3A-BA6E-B22EDF2F39CB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="700" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="700" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Yhteenveto" sheetId="16" r:id="rId1"/>
@@ -1462,12 +1462,6 @@
     <t>Tietokannan perustaminen AWS:ään</t>
   </si>
   <si>
-    <t>* Kaikille pääsy AWS:n tietokantaan
-* Tietokannan perustaminen AWS:ään
-* Log In -sivut,  Admin-puolen toiminnallisuus
-* Admin-puolen reititys *Tietokannan taulujen luonti ja muut sql-lauseet</t>
-  </si>
-  <si>
     <t>Luo yrityksen rekisteröinti-sivu</t>
   </si>
   <si>
@@ -1539,6 +1533,12 @@
   </si>
   <si>
     <t>DailyScrum / Teams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Kaikille pääsy AWS:n tietokantaan
+* Tietokannan perustaminen AWS:ään
+* Log In -sivut,  Admin-puolen toiminnallisuus *Tietokannan taulujen luonti ja muut sql-lauseet
+* Admin-puolen reititys </t>
   </si>
 </sst>
 </file>
@@ -4143,24 +4143,147 @@
     <xf numFmtId="0" fontId="5" fillId="31" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="171" fontId="9" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="31" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -4185,128 +4308,50 @@
     <xf numFmtId="0" fontId="5" fillId="31" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="31" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="5" fillId="29" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="29" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="29" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="31" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="31" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="31" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="29" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="55" fillId="33" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="55" fillId="33" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="55" fillId="33" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="27" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="29" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="27" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="29" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="27" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="55" fillId="33" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="55" fillId="33" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="55" fillId="33" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4314,41 +4359,42 @@
     <xf numFmtId="0" fontId="1" fillId="29" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="55" fillId="33" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="55" fillId="33" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="55" fillId="33" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="27" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="27" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="27" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="55" fillId="33" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="55" fillId="33" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="55" fillId="33" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="31" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="31" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="48" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="24" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="24" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4356,41 +4402,75 @@
     <xf numFmtId="0" fontId="48" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="48" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="48" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="35" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="24" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="35" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="15" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="24" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="15" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="48" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="32" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="32" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="49" fillId="24" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4402,80 +4482,90 @@
     <xf numFmtId="0" fontId="50" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="49" fillId="35" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="35" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="15" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="15" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="32" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="32" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="48" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="27" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="29" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="29" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="31" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="31" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="31" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="31" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="31" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="31" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="31" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="31" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="31" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="31" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -4500,100 +4590,34 @@
     <xf numFmtId="166" fontId="14" fillId="31" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="31" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="31" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="15" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="15" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="31" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="31" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="31" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="31" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="31" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="31" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="31" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="31" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="27" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="29" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="29" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="15" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="15" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="9" fillId="31" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="15" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="9" fillId="31" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="15" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="34" fillId="31" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="34" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="171" fontId="1" fillId="29" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4602,23 +4626,68 @@
     <xf numFmtId="166" fontId="7" fillId="29" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="9" fillId="31" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="9" fillId="31" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="34" fillId="31" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="34" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="28" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="25" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4638,62 +4707,62 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="28" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="29" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="29" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="29" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -4712,75 +4781,6 @@
     </xf>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="29" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="29" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="29" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="9" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -12503,20 +12503,20 @@
     </row>
     <row r="2" spans="1:25" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A2" s="30"/>
-      <c r="B2" s="416" t="s">
+      <c r="B2" s="384" t="s">
         <v>374</v>
       </c>
-      <c r="C2" s="417"/>
-      <c r="D2" s="417"/>
-      <c r="E2" s="417"/>
-      <c r="F2" s="417"/>
-      <c r="G2" s="418"/>
-      <c r="H2" s="419"/>
-      <c r="I2" s="419"/>
-      <c r="J2" s="419"/>
-      <c r="K2" s="419"/>
-      <c r="L2" s="417"/>
-      <c r="M2" s="420"/>
+      <c r="C2" s="385"/>
+      <c r="D2" s="385"/>
+      <c r="E2" s="385"/>
+      <c r="F2" s="385"/>
+      <c r="G2" s="386"/>
+      <c r="H2" s="387"/>
+      <c r="I2" s="387"/>
+      <c r="J2" s="387"/>
+      <c r="K2" s="387"/>
+      <c r="L2" s="385"/>
+      <c r="M2" s="388"/>
       <c r="N2" s="31"/>
       <c r="O2" s="28"/>
       <c r="P2" s="28"/>
@@ -12532,19 +12532,19 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="32"/>
-      <c r="B3" s="421" t="s">
+      <c r="B3" s="389" t="s">
         <v>363</v>
       </c>
-      <c r="C3" s="422"/>
-      <c r="D3" s="422"/>
-      <c r="E3" s="422"/>
-      <c r="F3" s="422"/>
-      <c r="G3" s="422"/>
-      <c r="H3" s="422"/>
-      <c r="I3" s="422"/>
-      <c r="J3" s="422"/>
-      <c r="K3" s="422"/>
-      <c r="L3" s="423"/>
+      <c r="C3" s="390"/>
+      <c r="D3" s="390"/>
+      <c r="E3" s="390"/>
+      <c r="F3" s="390"/>
+      <c r="G3" s="390"/>
+      <c r="H3" s="390"/>
+      <c r="I3" s="390"/>
+      <c r="J3" s="390"/>
+      <c r="K3" s="390"/>
+      <c r="L3" s="391"/>
       <c r="M3" s="33" t="s">
         <v>0</v>
       </c>
@@ -12563,17 +12563,17 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="32"/>
-      <c r="B4" s="421"/>
-      <c r="C4" s="422"/>
-      <c r="D4" s="422"/>
-      <c r="E4" s="422"/>
-      <c r="F4" s="422"/>
-      <c r="G4" s="422"/>
-      <c r="H4" s="422"/>
-      <c r="I4" s="422"/>
-      <c r="J4" s="422"/>
-      <c r="K4" s="422"/>
-      <c r="L4" s="423"/>
+      <c r="B4" s="389"/>
+      <c r="C4" s="390"/>
+      <c r="D4" s="390"/>
+      <c r="E4" s="390"/>
+      <c r="F4" s="390"/>
+      <c r="G4" s="390"/>
+      <c r="H4" s="390"/>
+      <c r="I4" s="390"/>
+      <c r="J4" s="390"/>
+      <c r="K4" s="390"/>
+      <c r="L4" s="391"/>
       <c r="M4" s="174">
         <v>43920</v>
       </c>
@@ -12626,19 +12626,19 @@
       <c r="B6" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="393" t="s">
+      <c r="C6" s="392" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="394"/>
-      <c r="E6" s="394"/>
-      <c r="F6" s="394"/>
-      <c r="G6" s="394"/>
-      <c r="H6" s="394"/>
-      <c r="I6" s="394"/>
-      <c r="J6" s="394"/>
-      <c r="K6" s="394"/>
-      <c r="L6" s="394"/>
-      <c r="M6" s="424"/>
+      <c r="D6" s="393"/>
+      <c r="E6" s="393"/>
+      <c r="F6" s="393"/>
+      <c r="G6" s="393"/>
+      <c r="H6" s="393"/>
+      <c r="I6" s="393"/>
+      <c r="J6" s="393"/>
+      <c r="K6" s="393"/>
+      <c r="L6" s="393"/>
+      <c r="M6" s="394"/>
       <c r="N6" s="31"/>
       <c r="O6" s="28"/>
       <c r="P6" s="28"/>
@@ -12657,19 +12657,19 @@
       <c r="B7" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="425" t="s">
+      <c r="C7" s="395" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="426"/>
-      <c r="E7" s="426"/>
-      <c r="F7" s="426"/>
-      <c r="G7" s="426"/>
-      <c r="H7" s="426"/>
-      <c r="I7" s="426"/>
-      <c r="J7" s="426"/>
-      <c r="K7" s="426"/>
-      <c r="L7" s="426"/>
-      <c r="M7" s="427"/>
+      <c r="D7" s="396"/>
+      <c r="E7" s="396"/>
+      <c r="F7" s="396"/>
+      <c r="G7" s="396"/>
+      <c r="H7" s="396"/>
+      <c r="I7" s="396"/>
+      <c r="J7" s="396"/>
+      <c r="K7" s="396"/>
+      <c r="L7" s="396"/>
+      <c r="M7" s="397"/>
       <c r="N7" s="31"/>
       <c r="O7" s="28"/>
       <c r="P7" s="28"/>
@@ -12688,19 +12688,19 @@
       <c r="B8" s="38" t="s">
         <v>364</v>
       </c>
-      <c r="C8" s="425" t="s">
+      <c r="C8" s="395" t="s">
         <v>365</v>
       </c>
-      <c r="D8" s="426"/>
-      <c r="E8" s="426"/>
-      <c r="F8" s="426"/>
-      <c r="G8" s="426"/>
-      <c r="H8" s="426"/>
-      <c r="I8" s="426"/>
-      <c r="J8" s="426"/>
-      <c r="K8" s="426"/>
-      <c r="L8" s="426"/>
-      <c r="M8" s="427"/>
+      <c r="D8" s="396"/>
+      <c r="E8" s="396"/>
+      <c r="F8" s="396"/>
+      <c r="G8" s="396"/>
+      <c r="H8" s="396"/>
+      <c r="I8" s="396"/>
+      <c r="J8" s="396"/>
+      <c r="K8" s="396"/>
+      <c r="L8" s="396"/>
+      <c r="M8" s="397"/>
       <c r="N8" s="31"/>
       <c r="O8" s="28"/>
       <c r="P8" s="28"/>
@@ -12719,19 +12719,19 @@
       <c r="B9" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="425" t="s">
+      <c r="C9" s="395" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="426"/>
-      <c r="E9" s="426"/>
-      <c r="F9" s="426"/>
-      <c r="G9" s="426"/>
-      <c r="H9" s="426"/>
-      <c r="I9" s="426"/>
-      <c r="J9" s="426"/>
-      <c r="K9" s="426"/>
-      <c r="L9" s="426"/>
-      <c r="M9" s="427"/>
+      <c r="D9" s="396"/>
+      <c r="E9" s="396"/>
+      <c r="F9" s="396"/>
+      <c r="G9" s="396"/>
+      <c r="H9" s="396"/>
+      <c r="I9" s="396"/>
+      <c r="J9" s="396"/>
+      <c r="K9" s="396"/>
+      <c r="L9" s="396"/>
+      <c r="M9" s="397"/>
       <c r="N9" s="31"/>
       <c r="O9" s="28"/>
       <c r="P9" s="28"/>
@@ -12750,19 +12750,19 @@
       <c r="B10" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="413" t="s">
+      <c r="C10" s="381" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="414"/>
-      <c r="E10" s="414"/>
-      <c r="F10" s="414"/>
-      <c r="G10" s="414"/>
-      <c r="H10" s="414"/>
-      <c r="I10" s="414"/>
-      <c r="J10" s="414"/>
-      <c r="K10" s="414"/>
-      <c r="L10" s="414"/>
-      <c r="M10" s="415"/>
+      <c r="D10" s="382"/>
+      <c r="E10" s="382"/>
+      <c r="F10" s="382"/>
+      <c r="G10" s="382"/>
+      <c r="H10" s="382"/>
+      <c r="I10" s="382"/>
+      <c r="J10" s="382"/>
+      <c r="K10" s="382"/>
+      <c r="L10" s="382"/>
+      <c r="M10" s="383"/>
       <c r="N10" s="31"/>
       <c r="O10" s="28"/>
       <c r="P10" s="28"/>
@@ -12805,20 +12805,20 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="30"/>
-      <c r="B12" s="402" t="s">
+      <c r="B12" s="398" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="403"/>
-      <c r="D12" s="403"/>
-      <c r="E12" s="403"/>
-      <c r="F12" s="403"/>
-      <c r="G12" s="403"/>
-      <c r="H12" s="403"/>
-      <c r="I12" s="403"/>
-      <c r="J12" s="403"/>
-      <c r="K12" s="403"/>
-      <c r="L12" s="403"/>
-      <c r="M12" s="404"/>
+      <c r="C12" s="399"/>
+      <c r="D12" s="399"/>
+      <c r="E12" s="399"/>
+      <c r="F12" s="399"/>
+      <c r="G12" s="399"/>
+      <c r="H12" s="399"/>
+      <c r="I12" s="399"/>
+      <c r="J12" s="399"/>
+      <c r="K12" s="399"/>
+      <c r="L12" s="399"/>
+      <c r="M12" s="400"/>
       <c r="N12" s="31"/>
       <c r="O12" s="28"/>
       <c r="P12" s="28"/>
@@ -12843,14 +12843,14 @@
       <c r="D13" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="405" t="s">
+      <c r="E13" s="401" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="406"/>
-      <c r="G13" s="406"/>
-      <c r="H13" s="406"/>
-      <c r="I13" s="406"/>
-      <c r="J13" s="407"/>
+      <c r="F13" s="402"/>
+      <c r="G13" s="402"/>
+      <c r="H13" s="402"/>
+      <c r="I13" s="402"/>
+      <c r="J13" s="403"/>
       <c r="K13" s="281" t="s">
         <v>16</v>
       </c>
@@ -12868,38 +12868,38 @@
       <c r="S13" s="28"/>
       <c r="T13" s="28"/>
       <c r="U13" s="28"/>
-      <c r="V13" s="408"/>
-      <c r="W13" s="408"/>
-      <c r="X13" s="408"/>
+      <c r="V13" s="404"/>
+      <c r="W13" s="404"/>
+      <c r="X13" s="404"/>
       <c r="Y13" s="40"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="32"/>
-      <c r="B14" s="380">
+      <c r="B14" s="405">
         <v>1</v>
       </c>
-      <c r="C14" s="382">
+      <c r="C14" s="406">
         <v>43906</v>
       </c>
-      <c r="D14" s="382">
+      <c r="D14" s="406">
         <v>43941</v>
       </c>
-      <c r="E14" s="409" t="s">
+      <c r="E14" s="407" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="410"/>
-      <c r="G14" s="411"/>
-      <c r="H14" s="411"/>
-      <c r="I14" s="411"/>
-      <c r="J14" s="412"/>
-      <c r="K14" s="399" t="s">
+      <c r="F14" s="408"/>
+      <c r="G14" s="409"/>
+      <c r="H14" s="409"/>
+      <c r="I14" s="409"/>
+      <c r="J14" s="410"/>
+      <c r="K14" s="411" t="s">
         <v>262</v>
       </c>
-      <c r="L14" s="401">
+      <c r="L14" s="413">
         <f>'S1 - Backlog'!I19</f>
         <v>67</v>
       </c>
-      <c r="M14" s="377">
+      <c r="M14" s="415">
         <f>'S1 - Backlog'!J19</f>
         <v>1</v>
       </c>
@@ -12918,18 +12918,18 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="32"/>
-      <c r="B15" s="380"/>
-      <c r="C15" s="382"/>
-      <c r="D15" s="382"/>
-      <c r="E15" s="409"/>
-      <c r="F15" s="410"/>
-      <c r="G15" s="411"/>
-      <c r="H15" s="411"/>
-      <c r="I15" s="411"/>
-      <c r="J15" s="412"/>
-      <c r="K15" s="400"/>
-      <c r="L15" s="391"/>
-      <c r="M15" s="377"/>
+      <c r="B15" s="405"/>
+      <c r="C15" s="406"/>
+      <c r="D15" s="406"/>
+      <c r="E15" s="407"/>
+      <c r="F15" s="408"/>
+      <c r="G15" s="409"/>
+      <c r="H15" s="409"/>
+      <c r="I15" s="409"/>
+      <c r="J15" s="410"/>
+      <c r="K15" s="412"/>
+      <c r="L15" s="414"/>
+      <c r="M15" s="415"/>
       <c r="N15" s="31"/>
       <c r="O15" s="28"/>
       <c r="P15" s="28"/>
@@ -12945,29 +12945,29 @@
     </row>
     <row r="16" spans="1:25" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="32"/>
-      <c r="B16" s="380">
+      <c r="B16" s="405">
         <v>2</v>
       </c>
-      <c r="C16" s="382">
+      <c r="C16" s="406">
         <v>43941</v>
       </c>
-      <c r="D16" s="382">
+      <c r="D16" s="406">
         <v>43969</v>
       </c>
-      <c r="E16" s="393"/>
-      <c r="F16" s="394"/>
-      <c r="G16" s="394"/>
-      <c r="H16" s="394"/>
-      <c r="I16" s="394"/>
-      <c r="J16" s="395"/>
-      <c r="K16" s="399" t="s">
+      <c r="E16" s="392"/>
+      <c r="F16" s="393"/>
+      <c r="G16" s="393"/>
+      <c r="H16" s="393"/>
+      <c r="I16" s="393"/>
+      <c r="J16" s="418"/>
+      <c r="K16" s="411" t="s">
         <v>362</v>
       </c>
-      <c r="L16" s="401">
+      <c r="L16" s="413">
         <f>'S2 - Backlog'!I15</f>
         <v>9</v>
       </c>
-      <c r="M16" s="377">
+      <c r="M16" s="415">
         <f>'S2 - Backlog'!J15</f>
         <v>0</v>
       </c>
@@ -12986,18 +12986,18 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="32"/>
-      <c r="B17" s="381"/>
-      <c r="C17" s="392"/>
-      <c r="D17" s="392"/>
-      <c r="E17" s="396"/>
-      <c r="F17" s="397"/>
-      <c r="G17" s="397"/>
-      <c r="H17" s="397"/>
-      <c r="I17" s="397"/>
-      <c r="J17" s="398"/>
-      <c r="K17" s="400"/>
-      <c r="L17" s="391"/>
-      <c r="M17" s="377"/>
+      <c r="B17" s="416"/>
+      <c r="C17" s="417"/>
+      <c r="D17" s="417"/>
+      <c r="E17" s="419"/>
+      <c r="F17" s="420"/>
+      <c r="G17" s="420"/>
+      <c r="H17" s="420"/>
+      <c r="I17" s="420"/>
+      <c r="J17" s="421"/>
+      <c r="K17" s="412"/>
+      <c r="L17" s="414"/>
+      <c r="M17" s="415"/>
       <c r="N17" s="31"/>
       <c r="O17" s="28"/>
       <c r="P17" s="28"/>
@@ -13013,29 +13013,29 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="32"/>
-      <c r="B18" s="380">
+      <c r="B18" s="405">
         <v>3</v>
       </c>
-      <c r="C18" s="382">
+      <c r="C18" s="406">
         <v>43969</v>
       </c>
-      <c r="D18" s="382">
+      <c r="D18" s="406">
         <v>43997</v>
       </c>
-      <c r="E18" s="393"/>
-      <c r="F18" s="394"/>
-      <c r="G18" s="394"/>
-      <c r="H18" s="394"/>
-      <c r="I18" s="394"/>
-      <c r="J18" s="395"/>
-      <c r="K18" s="399" t="s">
+      <c r="E18" s="392"/>
+      <c r="F18" s="393"/>
+      <c r="G18" s="393"/>
+      <c r="H18" s="393"/>
+      <c r="I18" s="393"/>
+      <c r="J18" s="418"/>
+      <c r="K18" s="411" t="s">
         <v>262</v>
       </c>
-      <c r="L18" s="401">
+      <c r="L18" s="413">
         <f>'S3 - Backlog'!I19</f>
         <v>83</v>
       </c>
-      <c r="M18" s="401">
+      <c r="M18" s="413">
         <f>'S3 - Backlog'!J19</f>
         <v>0</v>
       </c>
@@ -13054,18 +13054,18 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="32"/>
-      <c r="B19" s="381"/>
-      <c r="C19" s="392"/>
-      <c r="D19" s="392"/>
-      <c r="E19" s="396"/>
-      <c r="F19" s="397"/>
-      <c r="G19" s="397"/>
-      <c r="H19" s="397"/>
-      <c r="I19" s="397"/>
-      <c r="J19" s="398"/>
-      <c r="K19" s="400"/>
-      <c r="L19" s="391"/>
-      <c r="M19" s="391"/>
+      <c r="B19" s="416"/>
+      <c r="C19" s="417"/>
+      <c r="D19" s="417"/>
+      <c r="E19" s="419"/>
+      <c r="F19" s="420"/>
+      <c r="G19" s="420"/>
+      <c r="H19" s="420"/>
+      <c r="I19" s="420"/>
+      <c r="J19" s="421"/>
+      <c r="K19" s="412"/>
+      <c r="L19" s="414"/>
+      <c r="M19" s="414"/>
       <c r="N19" s="31"/>
       <c r="O19" s="28"/>
       <c r="P19" s="28"/>
@@ -13081,20 +13081,20 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="32"/>
-      <c r="B20" s="380">
+      <c r="B20" s="405">
         <v>4</v>
       </c>
-      <c r="C20" s="382"/>
-      <c r="D20" s="382"/>
-      <c r="E20" s="383"/>
-      <c r="F20" s="384"/>
-      <c r="G20" s="384"/>
-      <c r="H20" s="384"/>
-      <c r="I20" s="384"/>
-      <c r="J20" s="385"/>
-      <c r="K20" s="389"/>
-      <c r="L20" s="391"/>
-      <c r="M20" s="377"/>
+      <c r="C20" s="406"/>
+      <c r="D20" s="406"/>
+      <c r="E20" s="424"/>
+      <c r="F20" s="425"/>
+      <c r="G20" s="425"/>
+      <c r="H20" s="425"/>
+      <c r="I20" s="425"/>
+      <c r="J20" s="426"/>
+      <c r="K20" s="430"/>
+      <c r="L20" s="414"/>
+      <c r="M20" s="415"/>
       <c r="N20" s="31"/>
       <c r="O20" s="28"/>
       <c r="P20" s="28"/>
@@ -13110,18 +13110,18 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="32"/>
-      <c r="B21" s="381"/>
-      <c r="C21" s="382"/>
-      <c r="D21" s="382"/>
-      <c r="E21" s="386"/>
-      <c r="F21" s="387"/>
-      <c r="G21" s="387"/>
-      <c r="H21" s="387"/>
-      <c r="I21" s="387"/>
-      <c r="J21" s="388"/>
-      <c r="K21" s="390"/>
-      <c r="L21" s="391"/>
-      <c r="M21" s="377"/>
+      <c r="B21" s="416"/>
+      <c r="C21" s="406"/>
+      <c r="D21" s="406"/>
+      <c r="E21" s="427"/>
+      <c r="F21" s="428"/>
+      <c r="G21" s="428"/>
+      <c r="H21" s="428"/>
+      <c r="I21" s="428"/>
+      <c r="J21" s="429"/>
+      <c r="K21" s="431"/>
+      <c r="L21" s="414"/>
+      <c r="M21" s="415"/>
       <c r="N21" s="31"/>
       <c r="O21" s="28"/>
       <c r="P21" s="28"/>
@@ -13164,13 +13164,13 @@
     </row>
     <row r="23" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="50"/>
-      <c r="B23" s="379" t="s">
+      <c r="B23" s="423" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="379"/>
-      <c r="D23" s="379"/>
-      <c r="E23" s="379"/>
-      <c r="F23" s="379"/>
+      <c r="C23" s="423"/>
+      <c r="D23" s="423"/>
+      <c r="E23" s="423"/>
+      <c r="F23" s="423"/>
       <c r="G23" s="251"/>
       <c r="H23" s="54"/>
       <c r="I23" s="54"/>
@@ -13193,7 +13193,7 @@
     </row>
     <row r="24" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="50"/>
-      <c r="B24" s="378" t="s">
+      <c r="B24" s="422" t="s">
         <v>21</v>
       </c>
       <c r="C24" s="255" t="s">
@@ -13230,7 +13230,7 @@
     </row>
     <row r="25" spans="1:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="50"/>
-      <c r="B25" s="378"/>
+      <c r="B25" s="422"/>
       <c r="C25" s="256" t="s">
         <v>26</v>
       </c>
@@ -13741,23 +13741,15 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="C10:M10"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:L4"/>
-    <mergeCell ref="C6:M6"/>
-    <mergeCell ref="C7:M7"/>
-    <mergeCell ref="C9:M9"/>
-    <mergeCell ref="C8:M8"/>
-    <mergeCell ref="B12:M12"/>
-    <mergeCell ref="E13:J13"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
     <mergeCell ref="M16:M17"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="C18:C19"/>
@@ -13772,15 +13764,23 @@
     <mergeCell ref="E16:J17"/>
     <mergeCell ref="K16:K17"/>
     <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="B12:M12"/>
+    <mergeCell ref="E13:J13"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="C10:M10"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:L4"/>
+    <mergeCell ref="C6:M6"/>
+    <mergeCell ref="C7:M7"/>
+    <mergeCell ref="C9:M9"/>
+    <mergeCell ref="C8:M8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13829,14 +13829,14 @@
       <c r="C2" s="300" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="538" t="s">
+      <c r="D2" s="561" t="s">
         <v>105</v>
       </c>
-      <c r="E2" s="539"/>
-      <c r="F2" s="540" t="s">
+      <c r="E2" s="562"/>
+      <c r="F2" s="563" t="s">
         <v>106</v>
       </c>
-      <c r="G2" s="539"/>
+      <c r="G2" s="562"/>
       <c r="H2" s="300" t="s">
         <v>107</v>
       </c>
@@ -13858,14 +13858,14 @@
       <c r="C3" s="96" t="s">
         <v>109</v>
       </c>
-      <c r="D3" s="541" t="s">
+      <c r="D3" s="564" t="s">
         <v>110</v>
       </c>
-      <c r="E3" s="541"/>
-      <c r="F3" s="542" t="s">
+      <c r="E3" s="564"/>
+      <c r="F3" s="565" t="s">
         <v>111</v>
       </c>
-      <c r="G3" s="543"/>
+      <c r="G3" s="566"/>
       <c r="H3" s="97"/>
       <c r="I3" s="95"/>
       <c r="J3" s="98"/>
@@ -13879,10 +13879,10 @@
       <c r="A4" s="94"/>
       <c r="B4" s="95"/>
       <c r="C4" s="301"/>
-      <c r="D4" s="543"/>
-      <c r="E4" s="543"/>
-      <c r="F4" s="542"/>
-      <c r="G4" s="543"/>
+      <c r="D4" s="566"/>
+      <c r="E4" s="566"/>
+      <c r="F4" s="565"/>
+      <c r="G4" s="566"/>
       <c r="H4" s="97"/>
       <c r="I4" s="95"/>
       <c r="J4" s="100"/>
@@ -13945,10 +13945,10 @@
     </row>
     <row r="8" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="296"/>
-      <c r="B8" s="544" t="s">
+      <c r="B8" s="553" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="545"/>
+      <c r="C8" s="554"/>
       <c r="D8" s="105"/>
       <c r="E8" s="105"/>
       <c r="F8" s="110"/>
@@ -13986,10 +13986,10 @@
       <c r="B10" s="115" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="546" t="s">
+      <c r="C10" s="555" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="547"/>
+      <c r="D10" s="556"/>
       <c r="E10" s="299" t="s">
         <v>65</v>
       </c>
@@ -14018,16 +14018,16 @@
     </row>
     <row r="11" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="93"/>
-      <c r="B11" s="548" t="s">
+      <c r="B11" s="557" t="s">
         <v>116</v>
       </c>
-      <c r="C11" s="548"/>
-      <c r="D11" s="549"/>
-      <c r="E11" s="550"/>
-      <c r="F11" s="551"/>
-      <c r="G11" s="550"/>
-      <c r="H11" s="550"/>
-      <c r="I11" s="550"/>
+      <c r="C11" s="557"/>
+      <c r="D11" s="558"/>
+      <c r="E11" s="559"/>
+      <c r="F11" s="560"/>
+      <c r="G11" s="559"/>
+      <c r="H11" s="559"/>
+      <c r="I11" s="559"/>
       <c r="J11" s="119"/>
       <c r="K11" s="119"/>
       <c r="L11" s="296"/>
@@ -14075,10 +14075,10 @@
       <c r="B13" s="298" t="s">
         <v>118</v>
       </c>
-      <c r="C13" s="552" t="s">
+      <c r="C13" s="544" t="s">
         <v>124</v>
       </c>
-      <c r="D13" s="552"/>
+      <c r="D13" s="544"/>
       <c r="E13" s="120">
         <v>5</v>
       </c>
@@ -14162,10 +14162,10 @@
       <c r="B16" s="298" t="s">
         <v>118</v>
       </c>
-      <c r="C16" s="552" t="s">
+      <c r="C16" s="544" t="s">
         <v>132</v>
       </c>
-      <c r="D16" s="552"/>
+      <c r="D16" s="544"/>
       <c r="E16" s="120">
         <v>15</v>
       </c>
@@ -14233,10 +14233,10 @@
       <c r="B19" s="126" t="s">
         <v>136</v>
       </c>
-      <c r="C19" s="552" t="s">
+      <c r="C19" s="544" t="s">
         <v>137</v>
       </c>
-      <c r="D19" s="553"/>
+      <c r="D19" s="542"/>
       <c r="E19" s="120">
         <v>44</v>
       </c>
@@ -14277,10 +14277,10 @@
       <c r="B21" s="298" t="s">
         <v>139</v>
       </c>
-      <c r="C21" s="554" t="s">
+      <c r="C21" s="547" t="s">
         <v>140</v>
       </c>
-      <c r="D21" s="555"/>
+      <c r="D21" s="548"/>
       <c r="E21" s="120">
         <v>32</v>
       </c>
@@ -14300,10 +14300,10 @@
     <row r="22" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="296"/>
       <c r="B22" s="296"/>
-      <c r="C22" s="552" t="s">
+      <c r="C22" s="544" t="s">
         <v>141</v>
       </c>
-      <c r="D22" s="553"/>
+      <c r="D22" s="542"/>
       <c r="E22" s="296">
         <v>20</v>
       </c>
@@ -14323,10 +14323,10 @@
     <row r="23" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="297"/>
       <c r="B23" s="298"/>
-      <c r="C23" s="552" t="s">
+      <c r="C23" s="544" t="s">
         <v>142</v>
       </c>
-      <c r="D23" s="553"/>
+      <c r="D23" s="542"/>
       <c r="E23" s="297">
         <v>9</v>
       </c>
@@ -14346,10 +14346,10 @@
     <row r="24" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="297"/>
       <c r="B24" s="298"/>
-      <c r="C24" s="552" t="s">
+      <c r="C24" s="544" t="s">
         <v>143</v>
       </c>
-      <c r="D24" s="553"/>
+      <c r="D24" s="542"/>
       <c r="E24" s="297">
         <v>25</v>
       </c>
@@ -14369,10 +14369,10 @@
     <row r="25" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="297"/>
       <c r="B25" s="298"/>
-      <c r="C25" s="552" t="s">
+      <c r="C25" s="544" t="s">
         <v>144</v>
       </c>
-      <c r="D25" s="552"/>
+      <c r="D25" s="544"/>
       <c r="E25" s="297">
         <v>27</v>
       </c>
@@ -14392,10 +14392,10 @@
     <row r="26" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="297"/>
       <c r="B26" s="298"/>
-      <c r="C26" s="552" t="s">
+      <c r="C26" s="544" t="s">
         <v>145</v>
       </c>
-      <c r="D26" s="553"/>
+      <c r="D26" s="542"/>
       <c r="E26" s="297">
         <v>17</v>
       </c>
@@ -14414,16 +14414,16 @@
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="297"/>
-      <c r="B27" s="556" t="s">
+      <c r="B27" s="543" t="s">
         <v>146</v>
       </c>
-      <c r="C27" s="557"/>
-      <c r="D27" s="558"/>
-      <c r="E27" s="559"/>
-      <c r="F27" s="560"/>
-      <c r="G27" s="559"/>
-      <c r="H27" s="559"/>
-      <c r="I27" s="559"/>
+      <c r="C27" s="549"/>
+      <c r="D27" s="550"/>
+      <c r="E27" s="551"/>
+      <c r="F27" s="552"/>
+      <c r="G27" s="551"/>
+      <c r="H27" s="551"/>
+      <c r="I27" s="551"/>
       <c r="J27" s="127"/>
       <c r="K27" s="127"/>
       <c r="L27" s="296"/>
@@ -14453,10 +14453,10 @@
       <c r="B29" s="296" t="s">
         <v>147</v>
       </c>
-      <c r="C29" s="554" t="s">
+      <c r="C29" s="547" t="s">
         <v>148</v>
       </c>
-      <c r="D29" s="554"/>
+      <c r="D29" s="547"/>
       <c r="E29" s="296">
         <v>26</v>
       </c>
@@ -14476,10 +14476,10 @@
     <row r="30" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="297"/>
       <c r="B30" s="298"/>
-      <c r="C30" s="552" t="s">
+      <c r="C30" s="544" t="s">
         <v>149</v>
       </c>
-      <c r="D30" s="553"/>
+      <c r="D30" s="542"/>
       <c r="E30" s="120" t="s">
         <v>150</v>
       </c>
@@ -14497,10 +14497,10 @@
     <row r="31" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="297"/>
       <c r="B31" s="298"/>
-      <c r="C31" s="552" t="s">
+      <c r="C31" s="544" t="s">
         <v>151</v>
       </c>
-      <c r="D31" s="553"/>
+      <c r="D31" s="542"/>
       <c r="E31" s="120">
         <v>24</v>
       </c>
@@ -14520,10 +14520,10 @@
     <row r="32" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="297"/>
       <c r="B32" s="298"/>
-      <c r="C32" s="552" t="s">
+      <c r="C32" s="544" t="s">
         <v>152</v>
       </c>
-      <c r="D32" s="553"/>
+      <c r="D32" s="542"/>
       <c r="E32" s="120">
         <v>40</v>
       </c>
@@ -14541,10 +14541,10 @@
     <row r="33" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="297"/>
       <c r="B33" s="298"/>
-      <c r="C33" s="552" t="s">
+      <c r="C33" s="544" t="s">
         <v>153</v>
       </c>
-      <c r="D33" s="553"/>
+      <c r="D33" s="542"/>
       <c r="E33" s="120">
         <v>29</v>
       </c>
@@ -14562,10 +14562,10 @@
     <row r="34" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="297"/>
       <c r="B34" s="298"/>
-      <c r="C34" s="552" t="s">
+      <c r="C34" s="544" t="s">
         <v>154</v>
       </c>
-      <c r="D34" s="553"/>
+      <c r="D34" s="542"/>
       <c r="E34" s="120">
         <v>22</v>
       </c>
@@ -14583,10 +14583,10 @@
     <row r="35" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="297"/>
       <c r="B35" s="298"/>
-      <c r="C35" s="552" t="s">
+      <c r="C35" s="544" t="s">
         <v>155</v>
       </c>
-      <c r="D35" s="553"/>
+      <c r="D35" s="542"/>
       <c r="E35" s="120">
         <v>32</v>
       </c>
@@ -14640,10 +14640,10 @@
     <row r="38" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="297"/>
       <c r="B38" s="126"/>
-      <c r="C38" s="554" t="s">
+      <c r="C38" s="547" t="s">
         <v>156</v>
       </c>
-      <c r="D38" s="555"/>
+      <c r="D38" s="548"/>
       <c r="E38" s="120">
         <v>12</v>
       </c>
@@ -14663,8 +14663,8 @@
     <row r="39" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="297"/>
       <c r="B39" s="126"/>
-      <c r="C39" s="552"/>
-      <c r="D39" s="553"/>
+      <c r="C39" s="544"/>
+      <c r="D39" s="542"/>
       <c r="E39" s="120"/>
       <c r="F39" s="110"/>
       <c r="G39" s="124"/>
@@ -14680,10 +14680,10 @@
     <row r="40" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="297"/>
       <c r="B40" s="298"/>
-      <c r="C40" s="552" t="s">
+      <c r="C40" s="544" t="s">
         <v>157</v>
       </c>
-      <c r="D40" s="553"/>
+      <c r="D40" s="542"/>
       <c r="E40" s="120">
         <v>32</v>
       </c>
@@ -14787,16 +14787,16 @@
     </row>
     <row r="46" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="297"/>
-      <c r="B46" s="556" t="s">
+      <c r="B46" s="543" t="s">
         <v>158</v>
       </c>
-      <c r="C46" s="556"/>
-      <c r="D46" s="556"/>
-      <c r="E46" s="556"/>
-      <c r="F46" s="556"/>
-      <c r="G46" s="556"/>
-      <c r="H46" s="556"/>
-      <c r="I46" s="556"/>
+      <c r="C46" s="543"/>
+      <c r="D46" s="543"/>
+      <c r="E46" s="543"/>
+      <c r="F46" s="543"/>
+      <c r="G46" s="543"/>
+      <c r="H46" s="543"/>
+      <c r="I46" s="543"/>
       <c r="J46" s="131"/>
       <c r="K46" s="131"/>
       <c r="L46" s="297"/>
@@ -14809,10 +14809,10 @@
         <v>123</v>
       </c>
       <c r="B47" s="298"/>
-      <c r="C47" s="552" t="s">
+      <c r="C47" s="544" t="s">
         <v>159</v>
       </c>
-      <c r="D47" s="552"/>
+      <c r="D47" s="544"/>
       <c r="E47" s="120">
         <v>11</v>
       </c>
@@ -14834,8 +14834,8 @@
     <row r="48" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="297"/>
       <c r="B48" s="126"/>
-      <c r="C48" s="552"/>
-      <c r="D48" s="552"/>
+      <c r="C48" s="544"/>
+      <c r="D48" s="544"/>
       <c r="E48" s="120"/>
       <c r="F48" s="110"/>
       <c r="G48" s="124"/>
@@ -14853,10 +14853,10 @@
         <v>123</v>
       </c>
       <c r="B49" s="298"/>
-      <c r="C49" s="552" t="s">
+      <c r="C49" s="544" t="s">
         <v>160</v>
       </c>
-      <c r="D49" s="552"/>
+      <c r="D49" s="544"/>
       <c r="E49" s="120">
         <v>10</v>
       </c>
@@ -14878,8 +14878,8 @@
     <row r="50" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="297"/>
       <c r="B50" s="126"/>
-      <c r="C50" s="552"/>
-      <c r="D50" s="552"/>
+      <c r="C50" s="544"/>
+      <c r="D50" s="544"/>
       <c r="E50" s="120"/>
       <c r="F50" s="110"/>
       <c r="G50" s="124"/>
@@ -14912,8 +14912,8 @@
     <row r="52" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="296"/>
       <c r="B52" s="298"/>
-      <c r="C52" s="552"/>
-      <c r="D52" s="553"/>
+      <c r="C52" s="544"/>
+      <c r="D52" s="542"/>
       <c r="E52" s="297"/>
       <c r="F52" s="132"/>
       <c r="G52" s="297"/>
@@ -14945,16 +14945,16 @@
     </row>
     <row r="54" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="297"/>
-      <c r="B54" s="556" t="s">
+      <c r="B54" s="543" t="s">
         <v>161</v>
       </c>
-      <c r="C54" s="556"/>
-      <c r="D54" s="556"/>
-      <c r="E54" s="556"/>
-      <c r="F54" s="556"/>
-      <c r="G54" s="556"/>
-      <c r="H54" s="556"/>
-      <c r="I54" s="556"/>
+      <c r="C54" s="543"/>
+      <c r="D54" s="543"/>
+      <c r="E54" s="543"/>
+      <c r="F54" s="543"/>
+      <c r="G54" s="543"/>
+      <c r="H54" s="543"/>
+      <c r="I54" s="543"/>
       <c r="J54" s="131"/>
       <c r="K54" s="131"/>
       <c r="L54" s="297"/>
@@ -14965,10 +14965,10 @@
     <row r="55" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="297"/>
       <c r="B55" s="298"/>
-      <c r="C55" s="552" t="s">
+      <c r="C55" s="544" t="s">
         <v>162</v>
       </c>
-      <c r="D55" s="553"/>
+      <c r="D55" s="542"/>
       <c r="E55" s="133">
         <v>26</v>
       </c>
@@ -14988,10 +14988,10 @@
     <row r="56" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="297"/>
       <c r="B56" s="126"/>
-      <c r="C56" s="552" t="s">
+      <c r="C56" s="544" t="s">
         <v>163</v>
       </c>
-      <c r="D56" s="552"/>
+      <c r="D56" s="544"/>
       <c r="E56" s="133">
         <v>55</v>
       </c>
@@ -15027,16 +15027,16 @@
     </row>
     <row r="58" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="297"/>
-      <c r="B58" s="556" t="s">
+      <c r="B58" s="543" t="s">
         <v>164</v>
       </c>
-      <c r="C58" s="556"/>
-      <c r="D58" s="556"/>
-      <c r="E58" s="556"/>
-      <c r="F58" s="556"/>
-      <c r="G58" s="556"/>
-      <c r="H58" s="556"/>
-      <c r="I58" s="556"/>
+      <c r="C58" s="543"/>
+      <c r="D58" s="543"/>
+      <c r="E58" s="543"/>
+      <c r="F58" s="543"/>
+      <c r="G58" s="543"/>
+      <c r="H58" s="543"/>
+      <c r="I58" s="543"/>
       <c r="J58" s="131"/>
       <c r="K58" s="131"/>
       <c r="L58" s="297"/>
@@ -15049,10 +15049,10 @@
       <c r="B59" s="298" t="s">
         <v>118</v>
       </c>
-      <c r="C59" s="552" t="s">
+      <c r="C59" s="544" t="s">
         <v>165</v>
       </c>
-      <c r="D59" s="552"/>
+      <c r="D59" s="544"/>
       <c r="E59" s="120">
         <v>32</v>
       </c>
@@ -15072,10 +15072,10 @@
     <row r="60" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="296"/>
       <c r="B60" s="296"/>
-      <c r="C60" s="553" t="s">
+      <c r="C60" s="542" t="s">
         <v>166</v>
       </c>
-      <c r="D60" s="553"/>
+      <c r="D60" s="542"/>
       <c r="E60" s="120">
         <v>50</v>
       </c>
@@ -15095,10 +15095,10 @@
     <row r="61" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="296"/>
       <c r="B61" s="296"/>
-      <c r="C61" s="553" t="s">
+      <c r="C61" s="542" t="s">
         <v>168</v>
       </c>
-      <c r="D61" s="553"/>
+      <c r="D61" s="542"/>
       <c r="E61" s="120">
         <v>16</v>
       </c>
@@ -15139,10 +15139,10 @@
     <row r="63" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="296"/>
       <c r="B63" s="296"/>
-      <c r="C63" s="553" t="s">
+      <c r="C63" s="542" t="s">
         <v>169</v>
       </c>
-      <c r="D63" s="553"/>
+      <c r="D63" s="542"/>
       <c r="E63" s="120">
         <v>14</v>
       </c>
@@ -15271,10 +15271,10 @@
       <c r="B68" s="298" t="s">
         <v>118</v>
       </c>
-      <c r="C68" s="552" t="s">
+      <c r="C68" s="544" t="s">
         <v>175</v>
       </c>
-      <c r="D68" s="552"/>
+      <c r="D68" s="544"/>
       <c r="E68" s="120">
         <v>28</v>
       </c>
@@ -15356,16 +15356,16 @@
     </row>
     <row r="71" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="297"/>
-      <c r="B71" s="556" t="s">
+      <c r="B71" s="543" t="s">
         <v>179</v>
       </c>
-      <c r="C71" s="556"/>
-      <c r="D71" s="556"/>
-      <c r="E71" s="556"/>
-      <c r="F71" s="556"/>
-      <c r="G71" s="556"/>
-      <c r="H71" s="556"/>
-      <c r="I71" s="556"/>
+      <c r="C71" s="543"/>
+      <c r="D71" s="543"/>
+      <c r="E71" s="543"/>
+      <c r="F71" s="543"/>
+      <c r="G71" s="543"/>
+      <c r="H71" s="543"/>
+      <c r="I71" s="543"/>
       <c r="J71" s="103"/>
       <c r="K71" s="103"/>
       <c r="L71" s="297"/>
@@ -15381,10 +15381,10 @@
     <row r="72" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="297"/>
       <c r="B72" s="297"/>
-      <c r="C72" s="553" t="s">
+      <c r="C72" s="542" t="s">
         <v>180</v>
       </c>
-      <c r="D72" s="553"/>
+      <c r="D72" s="542"/>
       <c r="E72" s="297">
         <v>20</v>
       </c>
@@ -15411,10 +15411,10 @@
       <c r="B73" s="298" t="s">
         <v>118</v>
       </c>
-      <c r="C73" s="553" t="s">
+      <c r="C73" s="542" t="s">
         <v>182</v>
       </c>
-      <c r="D73" s="553"/>
+      <c r="D73" s="542"/>
       <c r="E73" s="297">
         <v>16</v>
       </c>
@@ -15508,16 +15508,16 @@
     </row>
     <row r="77" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="297"/>
-      <c r="B77" s="556" t="s">
+      <c r="B77" s="543" t="s">
         <v>49</v>
       </c>
-      <c r="C77" s="556"/>
-      <c r="D77" s="556"/>
-      <c r="E77" s="556"/>
-      <c r="F77" s="556"/>
-      <c r="G77" s="556"/>
-      <c r="H77" s="556"/>
-      <c r="I77" s="556"/>
+      <c r="C77" s="543"/>
+      <c r="D77" s="543"/>
+      <c r="E77" s="543"/>
+      <c r="F77" s="543"/>
+      <c r="G77" s="543"/>
+      <c r="H77" s="543"/>
+      <c r="I77" s="543"/>
       <c r="J77" s="131"/>
       <c r="K77" s="131"/>
       <c r="L77" s="297"/>
@@ -15533,15 +15533,15 @@
     <row r="78" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="297"/>
       <c r="B78" s="297"/>
-      <c r="C78" s="552" t="s">
+      <c r="C78" s="544" t="s">
         <v>185</v>
       </c>
-      <c r="D78" s="552"/>
-      <c r="E78" s="552"/>
-      <c r="F78" s="552"/>
-      <c r="G78" s="552"/>
-      <c r="H78" s="552"/>
-      <c r="I78" s="552"/>
+      <c r="D78" s="544"/>
+      <c r="E78" s="544"/>
+      <c r="F78" s="544"/>
+      <c r="G78" s="544"/>
+      <c r="H78" s="544"/>
+      <c r="I78" s="544"/>
       <c r="J78" s="103"/>
       <c r="K78" s="103"/>
       <c r="L78" s="297"/>
@@ -15557,13 +15557,13 @@
     <row r="79" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="297"/>
       <c r="B79" s="297"/>
-      <c r="C79" s="561"/>
-      <c r="D79" s="561"/>
-      <c r="E79" s="561"/>
-      <c r="F79" s="561"/>
-      <c r="G79" s="561"/>
-      <c r="H79" s="561"/>
-      <c r="I79" s="561"/>
+      <c r="C79" s="545"/>
+      <c r="D79" s="545"/>
+      <c r="E79" s="545"/>
+      <c r="F79" s="545"/>
+      <c r="G79" s="545"/>
+      <c r="H79" s="545"/>
+      <c r="I79" s="545"/>
       <c r="J79" s="103"/>
       <c r="K79" s="103"/>
       <c r="L79" s="297"/>
@@ -15603,10 +15603,10 @@
         <v>186</v>
       </c>
       <c r="B81" s="142"/>
-      <c r="C81" s="562" t="s">
+      <c r="C81" s="546" t="s">
         <v>187</v>
       </c>
-      <c r="D81" s="562"/>
+      <c r="D81" s="546"/>
       <c r="E81" s="142"/>
       <c r="F81" s="142"/>
       <c r="G81" s="142"/>
@@ -15645,57 +15645,57 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="B77:I77"/>
-    <mergeCell ref="C78:I78"/>
-    <mergeCell ref="C79:I79"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="B71:I71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="B58:I58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="B54:I54"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="B46:I46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C16:D16"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="B46:I46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="B54:I54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="B58:I58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="B71:I71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="B77:I77"/>
+    <mergeCell ref="C78:I78"/>
+    <mergeCell ref="C79:I79"/>
+    <mergeCell ref="C81:D81"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15722,14 +15722,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="563" t="s">
+      <c r="A1" s="586" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="564"/>
-      <c r="C1" s="564"/>
-      <c r="D1" s="564"/>
-      <c r="E1" s="564"/>
-      <c r="F1" s="565"/>
+      <c r="B1" s="587"/>
+      <c r="C1" s="587"/>
+      <c r="D1" s="587"/>
+      <c r="E1" s="587"/>
+      <c r="F1" s="588"/>
       <c r="G1" s="144"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -15742,11 +15742,11 @@
       <c r="C2" s="43" t="s">
         <v>189</v>
       </c>
-      <c r="D2" s="493" t="s">
+      <c r="D2" s="523" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="493"/>
-      <c r="F2" s="493"/>
+      <c r="E2" s="523"/>
+      <c r="F2" s="523"/>
       <c r="G2" s="146"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -15761,11 +15761,11 @@
         <f>B3/4</f>
         <v>7.375</v>
       </c>
-      <c r="D3" s="566" t="s">
+      <c r="D3" s="589" t="s">
         <v>191</v>
       </c>
-      <c r="E3" s="567"/>
-      <c r="F3" s="568"/>
+      <c r="E3" s="590"/>
+      <c r="F3" s="591"/>
       <c r="G3" s="144"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -15780,11 +15780,11 @@
         <f>B4/4</f>
         <v>9.75</v>
       </c>
-      <c r="D4" s="569" t="s">
+      <c r="D4" s="575" t="s">
         <v>193</v>
       </c>
-      <c r="E4" s="570"/>
-      <c r="F4" s="571"/>
+      <c r="E4" s="576"/>
+      <c r="F4" s="577"/>
       <c r="G4" s="144"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -15799,9 +15799,9 @@
         <f>B5/4</f>
         <v>7.25</v>
       </c>
-      <c r="D5" s="569"/>
-      <c r="E5" s="570"/>
-      <c r="F5" s="571"/>
+      <c r="D5" s="575"/>
+      <c r="E5" s="576"/>
+      <c r="F5" s="577"/>
       <c r="G5" s="144"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -15816,9 +15816,9 @@
         <f>B6/4</f>
         <v>4.75</v>
       </c>
-      <c r="D6" s="569"/>
-      <c r="E6" s="570"/>
-      <c r="F6" s="571"/>
+      <c r="D6" s="575"/>
+      <c r="E6" s="576"/>
+      <c r="F6" s="577"/>
       <c r="G6" s="144"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -15833,78 +15833,78 @@
         <f>B7/4</f>
         <v>6.125</v>
       </c>
-      <c r="D7" s="569"/>
-      <c r="E7" s="570"/>
-      <c r="F7" s="571"/>
+      <c r="D7" s="575"/>
+      <c r="E7" s="576"/>
+      <c r="F7" s="577"/>
       <c r="G7" s="144"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="572" t="s">
+      <c r="A8" s="578" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="574">
+      <c r="B8" s="580">
         <f>IF((SUM(B3:B7)=0),"",SUM(B3:B7))</f>
         <v>141</v>
       </c>
-      <c r="C8" s="574">
+      <c r="C8" s="580">
         <f>IF((SUM(C3:C7)=0),"",SUM(C3:C7))</f>
         <v>35.25</v>
       </c>
-      <c r="D8" s="569"/>
-      <c r="E8" s="570"/>
-      <c r="F8" s="571"/>
+      <c r="D8" s="575"/>
+      <c r="E8" s="576"/>
+      <c r="F8" s="577"/>
       <c r="G8" s="144"/>
     </row>
     <row r="9" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="573"/>
-      <c r="B9" s="575"/>
-      <c r="C9" s="576"/>
-      <c r="D9" s="577"/>
-      <c r="E9" s="578"/>
-      <c r="F9" s="579"/>
+      <c r="A9" s="579"/>
+      <c r="B9" s="581"/>
+      <c r="C9" s="582"/>
+      <c r="D9" s="583"/>
+      <c r="E9" s="584"/>
+      <c r="F9" s="585"/>
       <c r="G9" s="144"/>
     </row>
     <row r="10" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="580" t="s">
+      <c r="A10" s="567" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="581"/>
-      <c r="C10" s="581"/>
-      <c r="D10" s="581"/>
-      <c r="E10" s="582"/>
-      <c r="F10" s="581"/>
+      <c r="B10" s="568"/>
+      <c r="C10" s="568"/>
+      <c r="D10" s="568"/>
+      <c r="E10" s="569"/>
+      <c r="F10" s="568"/>
       <c r="G10" s="146"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="583" t="s">
+      <c r="A11" s="570" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="519" t="s">
+      <c r="B11" s="500" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="405" t="s">
+      <c r="C11" s="401" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="407"/>
-      <c r="E11" s="584" t="s">
+      <c r="D11" s="403"/>
+      <c r="E11" s="571" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="586" t="s">
+      <c r="F11" s="573" t="s">
         <v>197</v>
       </c>
       <c r="G11" s="144"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="583"/>
-      <c r="B12" s="519"/>
+      <c r="A12" s="570"/>
+      <c r="B12" s="500"/>
       <c r="C12" s="290" t="s">
         <v>39</v>
       </c>
       <c r="D12" s="151" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="585"/>
-      <c r="F12" s="587"/>
+      <c r="E12" s="572"/>
+      <c r="F12" s="574"/>
       <c r="G12" s="144"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -17232,12 +17232,11 @@
   </sheetData>
   <autoFilter ref="A12:F12" xr:uid="{00000000-0009-0000-0000-000009000000}"/>
   <mergeCells count="18">
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="A8:A9"/>
@@ -17245,11 +17244,12 @@
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="D9:F9"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17321,15 +17321,15 @@
     </row>
     <row r="2" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="220"/>
-      <c r="B2" s="437" t="s">
+      <c r="B2" s="441" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="438"/>
-      <c r="D2" s="438"/>
-      <c r="E2" s="438"/>
-      <c r="F2" s="438"/>
-      <c r="G2" s="438"/>
-      <c r="H2" s="439"/>
+      <c r="C2" s="442"/>
+      <c r="D2" s="442"/>
+      <c r="E2" s="442"/>
+      <c r="F2" s="442"/>
+      <c r="G2" s="442"/>
+      <c r="H2" s="443"/>
       <c r="I2" s="221"/>
       <c r="J2" s="28"/>
       <c r="K2" s="28"/>
@@ -17365,15 +17365,15 @@
     </row>
     <row r="3" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="220"/>
-      <c r="B3" s="434" t="s">
+      <c r="B3" s="438" t="s">
         <v>253</v>
       </c>
-      <c r="C3" s="435"/>
-      <c r="D3" s="435"/>
-      <c r="E3" s="435"/>
-      <c r="F3" s="435"/>
-      <c r="G3" s="435"/>
-      <c r="H3" s="436"/>
+      <c r="C3" s="439"/>
+      <c r="D3" s="439"/>
+      <c r="E3" s="439"/>
+      <c r="F3" s="439"/>
+      <c r="G3" s="439"/>
+      <c r="H3" s="440"/>
       <c r="I3" s="221"/>
       <c r="J3" s="28"/>
       <c r="K3" s="28"/>
@@ -17412,10 +17412,10 @@
       <c r="B4" s="257" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="432" t="s">
+      <c r="C4" s="447" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="433"/>
+      <c r="D4" s="448"/>
       <c r="E4" s="223" t="s">
         <v>43</v>
       </c>
@@ -17463,7 +17463,7 @@
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="229"/>
-      <c r="B5" s="428" t="s">
+      <c r="B5" s="437" t="s">
         <v>263</v>
       </c>
       <c r="C5" s="266" t="s">
@@ -17515,7 +17515,7 @@
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="229"/>
-      <c r="B6" s="428"/>
+      <c r="B6" s="437"/>
       <c r="C6" s="266" t="s">
         <v>252</v>
       </c>
@@ -17565,13 +17565,13 @@
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" s="220"/>
-      <c r="B7" s="429"/>
-      <c r="C7" s="430"/>
-      <c r="D7" s="430"/>
-      <c r="E7" s="430"/>
-      <c r="F7" s="430"/>
-      <c r="G7" s="430"/>
-      <c r="H7" s="431"/>
+      <c r="B7" s="432"/>
+      <c r="C7" s="433"/>
+      <c r="D7" s="433"/>
+      <c r="E7" s="433"/>
+      <c r="F7" s="433"/>
+      <c r="G7" s="433"/>
+      <c r="H7" s="434"/>
       <c r="I7" s="221"/>
       <c r="J7" s="28"/>
       <c r="K7" s="28"/>
@@ -17607,7 +17607,7 @@
     </row>
     <row r="8" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="229"/>
-      <c r="B8" s="428" t="s">
+      <c r="B8" s="437" t="s">
         <v>250</v>
       </c>
       <c r="C8" s="266" t="s">
@@ -17659,7 +17659,7 @@
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" s="220"/>
-      <c r="B9" s="428"/>
+      <c r="B9" s="437"/>
       <c r="C9" s="266" t="s">
         <v>252</v>
       </c>
@@ -17709,13 +17709,13 @@
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" s="220"/>
-      <c r="B10" s="429"/>
-      <c r="C10" s="430"/>
-      <c r="D10" s="430"/>
-      <c r="E10" s="430"/>
-      <c r="F10" s="430"/>
-      <c r="G10" s="430"/>
-      <c r="H10" s="431"/>
+      <c r="B10" s="432"/>
+      <c r="C10" s="433"/>
+      <c r="D10" s="433"/>
+      <c r="E10" s="433"/>
+      <c r="F10" s="433"/>
+      <c r="G10" s="433"/>
+      <c r="H10" s="434"/>
       <c r="I10" s="221"/>
       <c r="J10" s="28"/>
       <c r="K10" s="28"/>
@@ -17751,7 +17751,7 @@
     </row>
     <row r="11" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="220"/>
-      <c r="B11" s="444" t="s">
+      <c r="B11" s="435" t="s">
         <v>265</v>
       </c>
       <c r="C11" s="266" t="s">
@@ -17803,7 +17803,7 @@
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" s="220"/>
-      <c r="B12" s="445"/>
+      <c r="B12" s="436"/>
       <c r="C12" s="266" t="s">
         <v>252</v>
       </c>
@@ -17853,13 +17853,13 @@
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" s="327"/>
-      <c r="B13" s="429"/>
-      <c r="C13" s="430"/>
-      <c r="D13" s="430"/>
-      <c r="E13" s="430"/>
-      <c r="F13" s="430"/>
-      <c r="G13" s="430"/>
-      <c r="H13" s="431"/>
+      <c r="B13" s="432"/>
+      <c r="C13" s="433"/>
+      <c r="D13" s="433"/>
+      <c r="E13" s="433"/>
+      <c r="F13" s="433"/>
+      <c r="G13" s="433"/>
+      <c r="H13" s="434"/>
       <c r="I13" s="221"/>
       <c r="J13" s="28"/>
       <c r="K13" s="28"/>
@@ -17895,7 +17895,7 @@
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" s="327"/>
-      <c r="B14" s="444" t="s">
+      <c r="B14" s="435" t="s">
         <v>318</v>
       </c>
       <c r="C14" s="266" t="s">
@@ -17947,7 +17947,7 @@
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" s="327"/>
-      <c r="B15" s="445"/>
+      <c r="B15" s="436"/>
       <c r="C15" s="266" t="s">
         <v>252</v>
       </c>
@@ -17997,13 +17997,13 @@
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16" s="327"/>
-      <c r="B16" s="429"/>
-      <c r="C16" s="430"/>
-      <c r="D16" s="430"/>
-      <c r="E16" s="430"/>
-      <c r="F16" s="430"/>
-      <c r="G16" s="430"/>
-      <c r="H16" s="431"/>
+      <c r="B16" s="432"/>
+      <c r="C16" s="433"/>
+      <c r="D16" s="433"/>
+      <c r="E16" s="433"/>
+      <c r="F16" s="433"/>
+      <c r="G16" s="433"/>
+      <c r="H16" s="434"/>
       <c r="I16" s="221"/>
       <c r="J16" s="28"/>
       <c r="K16" s="28"/>
@@ -18039,7 +18039,7 @@
     </row>
     <row r="17" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="28"/>
-      <c r="B17" s="444" t="s">
+      <c r="B17" s="435" t="s">
         <v>371</v>
       </c>
       <c r="C17" s="266" t="s">
@@ -18091,7 +18091,7 @@
     </row>
     <row r="18" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="28"/>
-      <c r="B18" s="445"/>
+      <c r="B18" s="436"/>
       <c r="C18" s="266" t="s">
         <v>252</v>
       </c>
@@ -18141,13 +18141,13 @@
     </row>
     <row r="19" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="28"/>
-      <c r="B19" s="429"/>
-      <c r="C19" s="430"/>
-      <c r="D19" s="430"/>
-      <c r="E19" s="430"/>
-      <c r="F19" s="430"/>
-      <c r="G19" s="430"/>
-      <c r="H19" s="431"/>
+      <c r="B19" s="432"/>
+      <c r="C19" s="433"/>
+      <c r="D19" s="433"/>
+      <c r="E19" s="433"/>
+      <c r="F19" s="433"/>
+      <c r="G19" s="433"/>
+      <c r="H19" s="434"/>
       <c r="I19" s="221"/>
       <c r="J19" s="28"/>
       <c r="K19" s="28"/>
@@ -18183,7 +18183,7 @@
     </row>
     <row r="20" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="28"/>
-      <c r="B20" s="444" t="s">
+      <c r="B20" s="435" t="s">
         <v>366</v>
       </c>
       <c r="C20" s="266" t="s">
@@ -18235,7 +18235,7 @@
     </row>
     <row r="21" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="28"/>
-      <c r="B21" s="445"/>
+      <c r="B21" s="436"/>
       <c r="C21" s="266" t="s">
         <v>252</v>
       </c>
@@ -18285,13 +18285,13 @@
     </row>
     <row r="22" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="28"/>
-      <c r="B22" s="429"/>
-      <c r="C22" s="430"/>
-      <c r="D22" s="430"/>
-      <c r="E22" s="430"/>
-      <c r="F22" s="430"/>
-      <c r="G22" s="430"/>
-      <c r="H22" s="431"/>
+      <c r="B22" s="432"/>
+      <c r="C22" s="433"/>
+      <c r="D22" s="433"/>
+      <c r="E22" s="433"/>
+      <c r="F22" s="433"/>
+      <c r="G22" s="433"/>
+      <c r="H22" s="434"/>
       <c r="I22" s="221"/>
       <c r="J22" s="28"/>
       <c r="K22" s="28"/>
@@ -18327,7 +18327,7 @@
     </row>
     <row r="23" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="28"/>
-      <c r="B23" s="444" t="s">
+      <c r="B23" s="435" t="s">
         <v>367</v>
       </c>
       <c r="C23" s="266" t="s">
@@ -18379,7 +18379,7 @@
     </row>
     <row r="24" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="28"/>
-      <c r="B24" s="445"/>
+      <c r="B24" s="436"/>
       <c r="C24" s="266" t="s">
         <v>252</v>
       </c>
@@ -18429,13 +18429,13 @@
     </row>
     <row r="25" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="28"/>
-      <c r="B25" s="429"/>
-      <c r="C25" s="430"/>
-      <c r="D25" s="430"/>
-      <c r="E25" s="430"/>
-      <c r="F25" s="430"/>
-      <c r="G25" s="430"/>
-      <c r="H25" s="431"/>
+      <c r="B25" s="432"/>
+      <c r="C25" s="433"/>
+      <c r="D25" s="433"/>
+      <c r="E25" s="433"/>
+      <c r="F25" s="433"/>
+      <c r="G25" s="433"/>
+      <c r="H25" s="434"/>
       <c r="I25" s="221"/>
       <c r="J25" s="28"/>
       <c r="K25" s="28"/>
@@ -18471,7 +18471,7 @@
     </row>
     <row r="26" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="28"/>
-      <c r="B26" s="444" t="s">
+      <c r="B26" s="435" t="s">
         <v>368</v>
       </c>
       <c r="C26" s="266" t="s">
@@ -18523,7 +18523,7 @@
     </row>
     <row r="27" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="28"/>
-      <c r="B27" s="445"/>
+      <c r="B27" s="436"/>
       <c r="C27" s="266" t="s">
         <v>252</v>
       </c>
@@ -18573,13 +18573,13 @@
     </row>
     <row r="28" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="28"/>
-      <c r="B28" s="429"/>
-      <c r="C28" s="430"/>
-      <c r="D28" s="430"/>
-      <c r="E28" s="430"/>
-      <c r="F28" s="430"/>
-      <c r="G28" s="430"/>
-      <c r="H28" s="431"/>
+      <c r="B28" s="432"/>
+      <c r="C28" s="433"/>
+      <c r="D28" s="433"/>
+      <c r="E28" s="433"/>
+      <c r="F28" s="433"/>
+      <c r="G28" s="433"/>
+      <c r="H28" s="434"/>
       <c r="I28" s="221"/>
       <c r="J28" s="28"/>
       <c r="K28" s="28"/>
@@ -18615,7 +18615,7 @@
     </row>
     <row r="29" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="28"/>
-      <c r="B29" s="444" t="s">
+      <c r="B29" s="435" t="s">
         <v>369</v>
       </c>
       <c r="C29" s="266" t="s">
@@ -18667,7 +18667,7 @@
     </row>
     <row r="30" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="28"/>
-      <c r="B30" s="445"/>
+      <c r="B30" s="436"/>
       <c r="C30" s="266" t="s">
         <v>252</v>
       </c>
@@ -18717,13 +18717,13 @@
     </row>
     <row r="31" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="28"/>
-      <c r="B31" s="429"/>
-      <c r="C31" s="430"/>
-      <c r="D31" s="430"/>
-      <c r="E31" s="430"/>
-      <c r="F31" s="430"/>
-      <c r="G31" s="430"/>
-      <c r="H31" s="431"/>
+      <c r="B31" s="432"/>
+      <c r="C31" s="433"/>
+      <c r="D31" s="433"/>
+      <c r="E31" s="433"/>
+      <c r="F31" s="433"/>
+      <c r="G31" s="433"/>
+      <c r="H31" s="434"/>
       <c r="I31" s="221"/>
       <c r="J31" s="28"/>
       <c r="K31" s="28"/>
@@ -18759,7 +18759,7 @@
     </row>
     <row r="32" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="28"/>
-      <c r="B32" s="444" t="s">
+      <c r="B32" s="435" t="s">
         <v>370</v>
       </c>
       <c r="C32" s="266" t="s">
@@ -18811,7 +18811,7 @@
     </row>
     <row r="33" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="28"/>
-      <c r="B33" s="445"/>
+      <c r="B33" s="436"/>
       <c r="C33" s="266" t="s">
         <v>252</v>
       </c>
@@ -18861,13 +18861,13 @@
     </row>
     <row r="34" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="28"/>
-      <c r="B34" s="429"/>
-      <c r="C34" s="430"/>
-      <c r="D34" s="430"/>
-      <c r="E34" s="430"/>
-      <c r="F34" s="430"/>
-      <c r="G34" s="430"/>
-      <c r="H34" s="431"/>
+      <c r="B34" s="432"/>
+      <c r="C34" s="433"/>
+      <c r="D34" s="433"/>
+      <c r="E34" s="433"/>
+      <c r="F34" s="433"/>
+      <c r="G34" s="433"/>
+      <c r="H34" s="434"/>
       <c r="I34" s="221"/>
       <c r="J34" s="28"/>
       <c r="K34" s="28"/>
@@ -18903,15 +18903,15 @@
     </row>
     <row r="35" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="220"/>
-      <c r="B35" s="434" t="s">
+      <c r="B35" s="438" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="435"/>
-      <c r="D35" s="435"/>
-      <c r="E35" s="435"/>
-      <c r="F35" s="435"/>
-      <c r="G35" s="435"/>
-      <c r="H35" s="436"/>
+      <c r="C35" s="439"/>
+      <c r="D35" s="439"/>
+      <c r="E35" s="439"/>
+      <c r="F35" s="439"/>
+      <c r="G35" s="439"/>
+      <c r="H35" s="440"/>
       <c r="I35" s="221"/>
       <c r="J35" s="28"/>
       <c r="K35" s="28"/>
@@ -18950,10 +18950,10 @@
       <c r="B36" s="257" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="432" t="s">
+      <c r="C36" s="447" t="s">
         <v>42</v>
       </c>
-      <c r="D36" s="433"/>
+      <c r="D36" s="448"/>
       <c r="E36" s="223" t="s">
         <v>43</v>
       </c>
@@ -19001,7 +19001,7 @@
     </row>
     <row r="37" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A37" s="222"/>
-      <c r="B37" s="443" t="s">
+      <c r="B37" s="449" t="s">
         <v>445</v>
       </c>
       <c r="C37" s="266" t="s">
@@ -19053,7 +19053,7 @@
     </row>
     <row r="38" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A38" s="229"/>
-      <c r="B38" s="428"/>
+      <c r="B38" s="437"/>
       <c r="C38" s="266" t="s">
         <v>252</v>
       </c>
@@ -19103,13 +19103,13 @@
     </row>
     <row r="39" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A39" s="229"/>
-      <c r="B39" s="429"/>
-      <c r="C39" s="430"/>
-      <c r="D39" s="430"/>
-      <c r="E39" s="430"/>
-      <c r="F39" s="430"/>
-      <c r="G39" s="430"/>
-      <c r="H39" s="431"/>
+      <c r="B39" s="432"/>
+      <c r="C39" s="433"/>
+      <c r="D39" s="433"/>
+      <c r="E39" s="433"/>
+      <c r="F39" s="433"/>
+      <c r="G39" s="433"/>
+      <c r="H39" s="434"/>
       <c r="I39" s="221"/>
       <c r="J39" s="28"/>
       <c r="L39" s="28"/>
@@ -19144,7 +19144,7 @@
     </row>
     <row r="40" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="220"/>
-      <c r="B40" s="428" t="s">
+      <c r="B40" s="437" t="s">
         <v>446</v>
       </c>
       <c r="C40" s="266" t="s">
@@ -19196,7 +19196,7 @@
     </row>
     <row r="41" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A41" s="229"/>
-      <c r="B41" s="428"/>
+      <c r="B41" s="437"/>
       <c r="C41" s="266" t="s">
         <v>252</v>
       </c>
@@ -19246,13 +19246,13 @@
     </row>
     <row r="42" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A42" s="220"/>
-      <c r="B42" s="429"/>
-      <c r="C42" s="430"/>
-      <c r="D42" s="430"/>
-      <c r="E42" s="430"/>
-      <c r="F42" s="430"/>
-      <c r="G42" s="430"/>
-      <c r="H42" s="431"/>
+      <c r="B42" s="432"/>
+      <c r="C42" s="433"/>
+      <c r="D42" s="433"/>
+      <c r="E42" s="433"/>
+      <c r="F42" s="433"/>
+      <c r="G42" s="433"/>
+      <c r="H42" s="434"/>
       <c r="I42" s="221"/>
       <c r="J42" s="28"/>
       <c r="K42" s="28"/>
@@ -19288,7 +19288,7 @@
     </row>
     <row r="43" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="220"/>
-      <c r="B43" s="428" t="s">
+      <c r="B43" s="437" t="s">
         <v>447</v>
       </c>
       <c r="C43" s="266" t="s">
@@ -19340,7 +19340,7 @@
     </row>
     <row r="44" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A44" s="220"/>
-      <c r="B44" s="428"/>
+      <c r="B44" s="437"/>
       <c r="C44" s="266" t="s">
         <v>252</v>
       </c>
@@ -19390,13 +19390,13 @@
     </row>
     <row r="45" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A45" s="220"/>
-      <c r="B45" s="429"/>
-      <c r="C45" s="430"/>
-      <c r="D45" s="430"/>
-      <c r="E45" s="430"/>
-      <c r="F45" s="430"/>
-      <c r="G45" s="430"/>
-      <c r="H45" s="431"/>
+      <c r="B45" s="432"/>
+      <c r="C45" s="433"/>
+      <c r="D45" s="433"/>
+      <c r="E45" s="433"/>
+      <c r="F45" s="433"/>
+      <c r="G45" s="433"/>
+      <c r="H45" s="434"/>
       <c r="I45" s="221"/>
       <c r="J45" s="28"/>
       <c r="K45" s="28"/>
@@ -19432,7 +19432,7 @@
     </row>
     <row r="46" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="220"/>
-      <c r="B46" s="428" t="s">
+      <c r="B46" s="437" t="s">
         <v>448</v>
       </c>
       <c r="C46" s="266" t="s">
@@ -19484,7 +19484,7 @@
     </row>
     <row r="47" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A47" s="220"/>
-      <c r="B47" s="428"/>
+      <c r="B47" s="437"/>
       <c r="C47" s="266" t="s">
         <v>252</v>
       </c>
@@ -19534,13 +19534,13 @@
     </row>
     <row r="48" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A48" s="220"/>
-      <c r="B48" s="429"/>
-      <c r="C48" s="430"/>
-      <c r="D48" s="430"/>
-      <c r="E48" s="430"/>
-      <c r="F48" s="430"/>
-      <c r="G48" s="430"/>
-      <c r="H48" s="431"/>
+      <c r="B48" s="432"/>
+      <c r="C48" s="433"/>
+      <c r="D48" s="433"/>
+      <c r="E48" s="433"/>
+      <c r="F48" s="433"/>
+      <c r="G48" s="433"/>
+      <c r="H48" s="434"/>
       <c r="I48" s="221"/>
       <c r="J48" s="28"/>
       <c r="K48" s="28"/>
@@ -19576,7 +19576,7 @@
     </row>
     <row r="49" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="220"/>
-      <c r="B49" s="428" t="s">
+      <c r="B49" s="437" t="s">
         <v>449</v>
       </c>
       <c r="C49" s="266" t="s">
@@ -19628,7 +19628,7 @@
     </row>
     <row r="50" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A50" s="220"/>
-      <c r="B50" s="428"/>
+      <c r="B50" s="437"/>
       <c r="C50" s="266" t="s">
         <v>252</v>
       </c>
@@ -19640,7 +19640,7 @@
       </c>
       <c r="F50" s="183"/>
       <c r="G50" s="376" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H50" s="183"/>
       <c r="I50" s="221"/>
@@ -19678,13 +19678,13 @@
     </row>
     <row r="51" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A51" s="220"/>
-      <c r="B51" s="429"/>
-      <c r="C51" s="430"/>
-      <c r="D51" s="430"/>
-      <c r="E51" s="430"/>
-      <c r="F51" s="430"/>
-      <c r="G51" s="430"/>
-      <c r="H51" s="431"/>
+      <c r="B51" s="432"/>
+      <c r="C51" s="433"/>
+      <c r="D51" s="433"/>
+      <c r="E51" s="433"/>
+      <c r="F51" s="433"/>
+      <c r="G51" s="433"/>
+      <c r="H51" s="434"/>
       <c r="I51" s="221"/>
       <c r="J51" s="28"/>
       <c r="K51" s="28"/>
@@ -19720,7 +19720,7 @@
     </row>
     <row r="52" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="220"/>
-      <c r="B52" s="428" t="s">
+      <c r="B52" s="437" t="s">
         <v>450</v>
       </c>
       <c r="C52" s="266" t="s">
@@ -19734,7 +19734,7 @@
       </c>
       <c r="F52" s="228"/>
       <c r="G52" s="376" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H52" s="183"/>
       <c r="I52" s="221"/>
@@ -19772,7 +19772,7 @@
     </row>
     <row r="53" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A53" s="220"/>
-      <c r="B53" s="428"/>
+      <c r="B53" s="437"/>
       <c r="C53" s="266" t="s">
         <v>252</v>
       </c>
@@ -19780,11 +19780,11 @@
         <v>45</v>
       </c>
       <c r="E53" s="376" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F53" s="183"/>
       <c r="G53" s="376" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H53" s="183"/>
       <c r="I53" s="221"/>
@@ -19822,13 +19822,13 @@
     </row>
     <row r="54" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A54" s="220"/>
-      <c r="B54" s="429"/>
-      <c r="C54" s="430"/>
-      <c r="D54" s="430"/>
-      <c r="E54" s="430"/>
-      <c r="F54" s="430"/>
-      <c r="G54" s="430"/>
-      <c r="H54" s="431"/>
+      <c r="B54" s="432"/>
+      <c r="C54" s="433"/>
+      <c r="D54" s="433"/>
+      <c r="E54" s="433"/>
+      <c r="F54" s="433"/>
+      <c r="G54" s="433"/>
+      <c r="H54" s="434"/>
       <c r="I54" s="221"/>
       <c r="J54" s="28"/>
       <c r="K54" s="28"/>
@@ -19864,7 +19864,7 @@
     </row>
     <row r="55" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="220"/>
-      <c r="B55" s="428" t="s">
+      <c r="B55" s="437" t="s">
         <v>451</v>
       </c>
       <c r="C55" s="266" t="s">
@@ -19874,11 +19874,11 @@
         <v>45</v>
       </c>
       <c r="E55" s="376" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F55" s="228"/>
       <c r="G55" s="352" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H55" s="183"/>
       <c r="I55" s="221"/>
@@ -19916,7 +19916,7 @@
     </row>
     <row r="56" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A56" s="220"/>
-      <c r="B56" s="428"/>
+      <c r="B56" s="437"/>
       <c r="C56" s="266" t="s">
         <v>252</v>
       </c>
@@ -19924,11 +19924,11 @@
         <v>45</v>
       </c>
       <c r="E56" s="376" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F56" s="183"/>
       <c r="G56" s="352" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H56" s="183"/>
       <c r="I56" s="221"/>
@@ -19966,13 +19966,13 @@
     </row>
     <row r="57" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A57" s="220"/>
-      <c r="B57" s="429"/>
-      <c r="C57" s="430"/>
-      <c r="D57" s="430"/>
-      <c r="E57" s="430"/>
-      <c r="F57" s="430"/>
-      <c r="G57" s="430"/>
-      <c r="H57" s="431"/>
+      <c r="B57" s="432"/>
+      <c r="C57" s="433"/>
+      <c r="D57" s="433"/>
+      <c r="E57" s="433"/>
+      <c r="F57" s="433"/>
+      <c r="G57" s="433"/>
+      <c r="H57" s="434"/>
       <c r="I57" s="221"/>
       <c r="J57" s="28"/>
       <c r="K57" s="28"/>
@@ -20008,7 +20008,7 @@
     </row>
     <row r="58" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="220"/>
-      <c r="B58" s="428" t="s">
+      <c r="B58" s="437" t="s">
         <v>452</v>
       </c>
       <c r="C58" s="266" t="s">
@@ -20018,7 +20018,7 @@
         <v>45</v>
       </c>
       <c r="E58" s="376" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F58" s="228"/>
       <c r="G58" s="352"/>
@@ -20058,7 +20058,7 @@
     </row>
     <row r="59" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A59" s="220"/>
-      <c r="B59" s="428"/>
+      <c r="B59" s="437"/>
       <c r="C59" s="266" t="s">
         <v>252</v>
       </c>
@@ -20066,7 +20066,7 @@
         <v>45</v>
       </c>
       <c r="E59" s="376" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F59" s="183"/>
       <c r="G59" s="352"/>
@@ -20106,13 +20106,13 @@
     </row>
     <row r="60" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A60" s="220"/>
-      <c r="B60" s="429"/>
-      <c r="C60" s="430"/>
-      <c r="D60" s="430"/>
-      <c r="E60" s="430"/>
-      <c r="F60" s="430"/>
-      <c r="G60" s="430"/>
-      <c r="H60" s="431"/>
+      <c r="B60" s="432"/>
+      <c r="C60" s="433"/>
+      <c r="D60" s="433"/>
+      <c r="E60" s="433"/>
+      <c r="F60" s="433"/>
+      <c r="G60" s="433"/>
+      <c r="H60" s="434"/>
       <c r="I60" s="221"/>
       <c r="J60" s="28"/>
       <c r="K60" s="28"/>
@@ -20148,15 +20148,15 @@
     </row>
     <row r="61" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="220"/>
-      <c r="B61" s="440" t="s">
+      <c r="B61" s="444" t="s">
         <v>48</v>
       </c>
-      <c r="C61" s="441"/>
-      <c r="D61" s="441"/>
-      <c r="E61" s="441"/>
-      <c r="F61" s="441"/>
-      <c r="G61" s="441"/>
-      <c r="H61" s="442"/>
+      <c r="C61" s="445"/>
+      <c r="D61" s="445"/>
+      <c r="E61" s="445"/>
+      <c r="F61" s="445"/>
+      <c r="G61" s="445"/>
+      <c r="H61" s="446"/>
       <c r="I61" s="221"/>
       <c r="J61" s="28"/>
       <c r="K61" s="28"/>
@@ -20195,10 +20195,10 @@
       <c r="B62" s="257" t="s">
         <v>35</v>
       </c>
-      <c r="C62" s="432" t="s">
+      <c r="C62" s="447" t="s">
         <v>42</v>
       </c>
-      <c r="D62" s="433"/>
+      <c r="D62" s="448"/>
       <c r="E62" s="223" t="s">
         <v>43</v>
       </c>
@@ -20246,7 +20246,7 @@
     </row>
     <row r="63" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A63" s="222"/>
-      <c r="B63" s="428"/>
+      <c r="B63" s="437"/>
       <c r="C63" s="266" t="s">
         <v>251</v>
       </c>
@@ -20292,7 +20292,7 @@
     </row>
     <row r="64" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A64" s="229"/>
-      <c r="B64" s="428"/>
+      <c r="B64" s="437"/>
       <c r="C64" s="266" t="s">
         <v>252</v>
       </c>
@@ -20338,13 +20338,13 @@
     </row>
     <row r="65" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A65" s="229"/>
-      <c r="B65" s="429"/>
-      <c r="C65" s="430"/>
-      <c r="D65" s="430"/>
-      <c r="E65" s="430"/>
-      <c r="F65" s="430"/>
-      <c r="G65" s="430"/>
-      <c r="H65" s="431"/>
+      <c r="B65" s="432"/>
+      <c r="C65" s="433"/>
+      <c r="D65" s="433"/>
+      <c r="E65" s="433"/>
+      <c r="F65" s="433"/>
+      <c r="G65" s="433"/>
+      <c r="H65" s="434"/>
       <c r="I65" s="221"/>
       <c r="J65" s="28"/>
       <c r="K65" s="28"/>
@@ -20380,7 +20380,7 @@
     </row>
     <row r="66" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="220"/>
-      <c r="B66" s="428"/>
+      <c r="B66" s="437"/>
       <c r="C66" s="266" t="s">
         <v>251</v>
       </c>
@@ -20426,7 +20426,7 @@
     </row>
     <row r="67" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A67" s="229"/>
-      <c r="B67" s="428"/>
+      <c r="B67" s="437"/>
       <c r="C67" s="266" t="s">
         <v>252</v>
       </c>
@@ -20472,13 +20472,13 @@
     </row>
     <row r="68" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A68" s="220"/>
-      <c r="B68" s="429"/>
-      <c r="C68" s="430"/>
-      <c r="D68" s="430"/>
-      <c r="E68" s="430"/>
-      <c r="F68" s="430"/>
-      <c r="G68" s="430"/>
-      <c r="H68" s="431"/>
+      <c r="B68" s="432"/>
+      <c r="C68" s="433"/>
+      <c r="D68" s="433"/>
+      <c r="E68" s="433"/>
+      <c r="F68" s="433"/>
+      <c r="G68" s="433"/>
+      <c r="H68" s="434"/>
       <c r="I68" s="221"/>
       <c r="J68" s="28"/>
       <c r="K68" s="28"/>
@@ -20514,7 +20514,7 @@
     </row>
     <row r="69" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="220"/>
-      <c r="B69" s="428"/>
+      <c r="B69" s="437"/>
       <c r="C69" s="266" t="s">
         <v>251</v>
       </c>
@@ -20560,7 +20560,7 @@
     </row>
     <row r="70" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A70" s="220"/>
-      <c r="B70" s="428"/>
+      <c r="B70" s="437"/>
       <c r="C70" s="266" t="s">
         <v>252</v>
       </c>
@@ -20606,13 +20606,13 @@
     </row>
     <row r="71" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A71" s="220"/>
-      <c r="B71" s="429"/>
-      <c r="C71" s="430"/>
-      <c r="D71" s="430"/>
-      <c r="E71" s="430"/>
-      <c r="F71" s="430"/>
-      <c r="G71" s="430"/>
-      <c r="H71" s="431"/>
+      <c r="B71" s="432"/>
+      <c r="C71" s="433"/>
+      <c r="D71" s="433"/>
+      <c r="E71" s="433"/>
+      <c r="F71" s="433"/>
+      <c r="G71" s="433"/>
+      <c r="H71" s="434"/>
       <c r="I71" s="221"/>
       <c r="J71" s="28"/>
       <c r="K71" s="28"/>
@@ -21869,20 +21869,25 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B60:H60"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:H45"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B54:H54"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B51:H51"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:H48"/>
+    <mergeCell ref="B71:H71"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B65:H65"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="B68:H68"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B61:H61"/>
@@ -21899,25 +21904,20 @@
     <mergeCell ref="B13:H13"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B71:H71"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="B65:H65"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="B68:H68"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B60:H60"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B57:H57"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:H45"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B54:H54"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B51:H51"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B48:H48"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:B33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21948,10 +21948,10 @@
       <c r="B1" s="326" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="456" t="s">
+      <c r="C1" s="458" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="457"/>
+      <c r="D1" s="459"/>
       <c r="E1" s="326" t="s">
         <v>61</v>
       </c>
@@ -21966,10 +21966,10 @@
       <c r="B2" s="330" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="454" t="s">
+      <c r="C2" s="452" t="s">
         <v>254</v>
       </c>
-      <c r="D2" s="454"/>
+      <c r="D2" s="452"/>
       <c r="E2" s="330"/>
       <c r="F2" s="330"/>
     </row>
@@ -21978,10 +21978,10 @@
         <v>68</v>
       </c>
       <c r="B3" s="331"/>
-      <c r="C3" s="458" t="s">
+      <c r="C3" s="460" t="s">
         <v>255</v>
       </c>
-      <c r="D3" s="458"/>
+      <c r="D3" s="460"/>
       <c r="E3" s="332" t="s">
         <v>89</v>
       </c>
@@ -21994,10 +21994,10 @@
         <v>70</v>
       </c>
       <c r="B4" s="331"/>
-      <c r="C4" s="455" t="s">
+      <c r="C4" s="451" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="455"/>
+      <c r="D4" s="451"/>
       <c r="E4" s="332" t="s">
         <v>89</v>
       </c>
@@ -22012,10 +22012,10 @@
       <c r="B5" s="330" t="s">
         <v>256</v>
       </c>
-      <c r="C5" s="449" t="s">
+      <c r="C5" s="461" t="s">
         <v>258</v>
       </c>
-      <c r="D5" s="449"/>
+      <c r="D5" s="461"/>
       <c r="E5" s="330"/>
       <c r="F5" s="330"/>
     </row>
@@ -22023,10 +22023,10 @@
       <c r="A6" s="336" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="448" t="s">
+      <c r="C6" s="453" t="s">
         <v>259</v>
       </c>
-      <c r="D6" s="448"/>
+      <c r="D6" s="453"/>
       <c r="E6" s="332" t="s">
         <v>89</v>
       </c>
@@ -22053,10 +22053,10 @@
       <c r="A8" s="336" t="s">
         <v>359</v>
       </c>
-      <c r="C8" s="455" t="s">
+      <c r="C8" s="451" t="s">
         <v>360</v>
       </c>
-      <c r="D8" s="455"/>
+      <c r="D8" s="451"/>
       <c r="E8" s="332" t="s">
         <v>89</v>
       </c>
@@ -22068,10 +22068,10 @@
       <c r="A9" s="336" t="s">
         <v>381</v>
       </c>
-      <c r="C9" s="455" t="s">
+      <c r="C9" s="451" t="s">
         <v>382</v>
       </c>
-      <c r="D9" s="455"/>
+      <c r="D9" s="451"/>
       <c r="E9" s="332" t="s">
         <v>89</v>
       </c>
@@ -22081,7 +22081,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="336" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C10" s="355" t="s">
         <v>458</v>
@@ -22101,10 +22101,10 @@
       <c r="B11" s="330" t="s">
         <v>256</v>
       </c>
-      <c r="C11" s="454" t="s">
+      <c r="C11" s="452" t="s">
         <v>257</v>
       </c>
-      <c r="D11" s="454"/>
+      <c r="D11" s="452"/>
       <c r="E11" s="330"/>
       <c r="F11" s="330"/>
     </row>
@@ -22112,10 +22112,10 @@
       <c r="A12" s="336" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="448" t="s">
+      <c r="C12" s="453" t="s">
         <v>266</v>
       </c>
-      <c r="D12" s="448"/>
+      <c r="D12" s="453"/>
       <c r="E12" s="332" t="s">
         <v>89</v>
       </c>
@@ -22127,10 +22127,10 @@
       <c r="A13" s="336" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="448" t="s">
+      <c r="C13" s="453" t="s">
         <v>267</v>
       </c>
-      <c r="D13" s="448"/>
+      <c r="D13" s="453"/>
       <c r="E13" s="332" t="s">
         <v>89</v>
       </c>
@@ -22142,10 +22142,10 @@
       <c r="A14" s="336" t="s">
         <v>278</v>
       </c>
-      <c r="C14" s="448" t="s">
+      <c r="C14" s="453" t="s">
         <v>268</v>
       </c>
-      <c r="D14" s="448"/>
+      <c r="D14" s="453"/>
       <c r="E14" s="332" t="s">
         <v>89</v>
       </c>
@@ -22157,10 +22157,10 @@
       <c r="A15" s="336" t="s">
         <v>279</v>
       </c>
-      <c r="C15" s="448" t="s">
+      <c r="C15" s="453" t="s">
         <v>269</v>
       </c>
-      <c r="D15" s="448"/>
+      <c r="D15" s="453"/>
       <c r="E15" s="332" t="s">
         <v>89</v>
       </c>
@@ -22172,10 +22172,10 @@
       <c r="A16" s="336" t="s">
         <v>280</v>
       </c>
-      <c r="C16" s="448" t="s">
+      <c r="C16" s="453" t="s">
         <v>270</v>
       </c>
-      <c r="D16" s="448"/>
+      <c r="D16" s="453"/>
       <c r="E16" s="332" t="s">
         <v>89</v>
       </c>
@@ -22187,10 +22187,10 @@
       <c r="A17" s="336" t="s">
         <v>281</v>
       </c>
-      <c r="C17" s="448" t="s">
+      <c r="C17" s="453" t="s">
         <v>271</v>
       </c>
-      <c r="D17" s="448"/>
+      <c r="D17" s="453"/>
       <c r="E17" s="332" t="s">
         <v>89</v>
       </c>
@@ -22202,10 +22202,10 @@
       <c r="A18" s="336" t="s">
         <v>282</v>
       </c>
-      <c r="C18" s="448" t="s">
+      <c r="C18" s="453" t="s">
         <v>272</v>
       </c>
-      <c r="D18" s="448"/>
+      <c r="D18" s="453"/>
       <c r="E18" s="332" t="s">
         <v>89</v>
       </c>
@@ -22217,10 +22217,10 @@
       <c r="A19" s="336" t="s">
         <v>283</v>
       </c>
-      <c r="C19" s="448" t="s">
+      <c r="C19" s="453" t="s">
         <v>273</v>
       </c>
-      <c r="D19" s="448"/>
+      <c r="D19" s="453"/>
       <c r="E19" s="332" t="s">
         <v>89</v>
       </c>
@@ -22232,10 +22232,10 @@
       <c r="A20" s="336" t="s">
         <v>284</v>
       </c>
-      <c r="C20" s="448" t="s">
+      <c r="C20" s="453" t="s">
         <v>274</v>
       </c>
-      <c r="D20" s="448"/>
+      <c r="D20" s="453"/>
       <c r="E20" s="332" t="s">
         <v>89</v>
       </c>
@@ -22247,10 +22247,10 @@
       <c r="A21" s="336" t="s">
         <v>285</v>
       </c>
-      <c r="C21" s="448" t="s">
+      <c r="C21" s="453" t="s">
         <v>275</v>
       </c>
-      <c r="D21" s="448"/>
+      <c r="D21" s="453"/>
       <c r="E21" s="332" t="s">
         <v>89</v>
       </c>
@@ -22262,10 +22262,10 @@
       <c r="A22" s="336" t="s">
         <v>286</v>
       </c>
-      <c r="C22" s="448" t="s">
+      <c r="C22" s="453" t="s">
         <v>276</v>
       </c>
-      <c r="D22" s="448"/>
+      <c r="D22" s="453"/>
       <c r="E22" s="332" t="s">
         <v>89</v>
       </c>
@@ -22290,12 +22290,12 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="336" t="s">
+        <v>474</v>
+      </c>
+      <c r="C24" s="451" t="s">
         <v>475</v>
       </c>
-      <c r="C24" s="455" t="s">
-        <v>476</v>
-      </c>
-      <c r="D24" s="455"/>
+      <c r="D24" s="451"/>
       <c r="E24" s="295" t="s">
         <v>277</v>
       </c>
@@ -22310,10 +22310,10 @@
       <c r="B25" s="330" t="s">
         <v>294</v>
       </c>
-      <c r="C25" s="453" t="s">
+      <c r="C25" s="456" t="s">
         <v>287</v>
       </c>
-      <c r="D25" s="453"/>
+      <c r="D25" s="456"/>
       <c r="E25" s="330"/>
       <c r="F25" s="330"/>
     </row>
@@ -22321,10 +22321,10 @@
       <c r="A26" s="336" t="s">
         <v>300</v>
       </c>
-      <c r="C26" s="452" t="s">
+      <c r="C26" s="454" t="s">
         <v>303</v>
       </c>
-      <c r="D26" s="452"/>
+      <c r="D26" s="454"/>
       <c r="E26" s="332" t="s">
         <v>89</v>
       </c>
@@ -22336,10 +22336,10 @@
       <c r="A27" s="336" t="s">
         <v>301</v>
       </c>
-      <c r="C27" s="452" t="s">
+      <c r="C27" s="454" t="s">
         <v>302</v>
       </c>
-      <c r="D27" s="452"/>
+      <c r="D27" s="454"/>
       <c r="E27" s="332" t="s">
         <v>89</v>
       </c>
@@ -22351,10 +22351,10 @@
       <c r="A28" s="336" t="s">
         <v>304</v>
       </c>
-      <c r="C28" s="452" t="s">
+      <c r="C28" s="454" t="s">
         <v>336</v>
       </c>
-      <c r="D28" s="452"/>
+      <c r="D28" s="454"/>
       <c r="E28" s="295" t="s">
         <v>277</v>
       </c>
@@ -22366,10 +22366,10 @@
       <c r="A29" s="336" t="s">
         <v>327</v>
       </c>
-      <c r="C29" s="451" t="s">
+      <c r="C29" s="450" t="s">
         <v>329</v>
       </c>
-      <c r="D29" s="451"/>
+      <c r="D29" s="450"/>
       <c r="E29" s="295" t="s">
         <v>277</v>
       </c>
@@ -22381,10 +22381,10 @@
       <c r="A30" s="336" t="s">
         <v>305</v>
       </c>
-      <c r="C30" s="452" t="s">
+      <c r="C30" s="454" t="s">
         <v>328</v>
       </c>
-      <c r="D30" s="452"/>
+      <c r="D30" s="454"/>
       <c r="E30" s="295" t="s">
         <v>277</v>
       </c>
@@ -22396,10 +22396,10 @@
       <c r="A31" s="336" t="s">
         <v>330</v>
       </c>
-      <c r="C31" s="452" t="s">
+      <c r="C31" s="454" t="s">
         <v>337</v>
       </c>
-      <c r="D31" s="452"/>
+      <c r="D31" s="454"/>
       <c r="E31" s="295" t="s">
         <v>277</v>
       </c>
@@ -22411,10 +22411,10 @@
       <c r="A32" s="336" t="s">
         <v>331</v>
       </c>
-      <c r="C32" s="451" t="s">
+      <c r="C32" s="450" t="s">
         <v>332</v>
       </c>
-      <c r="D32" s="451"/>
+      <c r="D32" s="450"/>
       <c r="E32" s="295" t="s">
         <v>277</v>
       </c>
@@ -22426,10 +22426,10 @@
       <c r="A33" s="336" t="s">
         <v>333</v>
       </c>
-      <c r="C33" s="451" t="s">
+      <c r="C33" s="450" t="s">
         <v>334</v>
       </c>
-      <c r="D33" s="451"/>
+      <c r="D33" s="450"/>
       <c r="E33" s="295" t="s">
         <v>277</v>
       </c>
@@ -22441,10 +22441,10 @@
       <c r="A34" s="336" t="s">
         <v>335</v>
       </c>
-      <c r="C34" s="451" t="s">
+      <c r="C34" s="450" t="s">
         <v>345</v>
       </c>
-      <c r="D34" s="451"/>
+      <c r="D34" s="450"/>
       <c r="E34" s="295" t="s">
         <v>277</v>
       </c>
@@ -22456,10 +22456,10 @@
       <c r="A35" s="336" t="s">
         <v>340</v>
       </c>
-      <c r="C35" s="452" t="s">
+      <c r="C35" s="454" t="s">
         <v>346</v>
       </c>
-      <c r="D35" s="452"/>
+      <c r="D35" s="454"/>
       <c r="E35" s="295" t="s">
         <v>277</v>
       </c>
@@ -22471,10 +22471,10 @@
       <c r="A36" s="336" t="s">
         <v>343</v>
       </c>
-      <c r="C36" s="451" t="s">
+      <c r="C36" s="450" t="s">
         <v>338</v>
       </c>
-      <c r="D36" s="451"/>
+      <c r="D36" s="450"/>
       <c r="E36" s="295" t="s">
         <v>277</v>
       </c>
@@ -22486,10 +22486,10 @@
       <c r="A37" s="336" t="s">
         <v>347</v>
       </c>
-      <c r="C37" s="451" t="s">
+      <c r="C37" s="450" t="s">
         <v>339</v>
       </c>
-      <c r="D37" s="451"/>
+      <c r="D37" s="450"/>
       <c r="E37" s="295" t="s">
         <v>277</v>
       </c>
@@ -22501,10 +22501,10 @@
       <c r="A38" s="336" t="s">
         <v>348</v>
       </c>
-      <c r="C38" s="451" t="s">
+      <c r="C38" s="450" t="s">
         <v>342</v>
       </c>
-      <c r="D38" s="451"/>
+      <c r="D38" s="450"/>
       <c r="E38" s="332" t="s">
         <v>89</v>
       </c>
@@ -22516,10 +22516,10 @@
       <c r="A39" s="336" t="s">
         <v>349</v>
       </c>
-      <c r="C39" s="451" t="s">
+      <c r="C39" s="450" t="s">
         <v>341</v>
       </c>
-      <c r="D39" s="451"/>
+      <c r="D39" s="450"/>
       <c r="E39" s="295" t="s">
         <v>277</v>
       </c>
@@ -22531,10 +22531,10 @@
       <c r="A40" s="336" t="s">
         <v>350</v>
       </c>
-      <c r="C40" s="451" t="s">
+      <c r="C40" s="450" t="s">
         <v>344</v>
       </c>
-      <c r="D40" s="451"/>
+      <c r="D40" s="450"/>
       <c r="E40" s="295" t="s">
         <v>277</v>
       </c>
@@ -22549,10 +22549,10 @@
       <c r="B41" s="330" t="s">
         <v>294</v>
       </c>
-      <c r="C41" s="453" t="s">
+      <c r="C41" s="456" t="s">
         <v>383</v>
       </c>
-      <c r="D41" s="453"/>
+      <c r="D41" s="456"/>
       <c r="E41" s="330"/>
       <c r="F41" s="330"/>
     </row>
@@ -22560,10 +22560,10 @@
       <c r="A42" s="336" t="s">
         <v>352</v>
       </c>
-      <c r="C42" s="452" t="s">
+      <c r="C42" s="454" t="s">
         <v>384</v>
       </c>
-      <c r="D42" s="452"/>
+      <c r="D42" s="454"/>
       <c r="E42" s="295" t="s">
         <v>277</v>
       </c>
@@ -22575,10 +22575,10 @@
       <c r="A43" s="336" t="s">
         <v>353</v>
       </c>
-      <c r="C43" s="452" t="s">
+      <c r="C43" s="454" t="s">
         <v>385</v>
       </c>
-      <c r="D43" s="452"/>
+      <c r="D43" s="454"/>
       <c r="E43" s="295" t="s">
         <v>277</v>
       </c>
@@ -22590,10 +22590,10 @@
       <c r="A44" s="336" t="s">
         <v>354</v>
       </c>
-      <c r="C44" s="452" t="s">
+      <c r="C44" s="454" t="s">
         <v>351</v>
       </c>
-      <c r="D44" s="452"/>
+      <c r="D44" s="454"/>
       <c r="E44" s="295" t="s">
         <v>277</v>
       </c>
@@ -22605,10 +22605,10 @@
       <c r="A45" s="336" t="s">
         <v>355</v>
       </c>
-      <c r="C45" s="451" t="s">
+      <c r="C45" s="450" t="s">
         <v>386</v>
       </c>
-      <c r="D45" s="451"/>
+      <c r="D45" s="450"/>
       <c r="E45" s="295" t="s">
         <v>277</v>
       </c>
@@ -22620,10 +22620,10 @@
       <c r="A46" s="336" t="s">
         <v>356</v>
       </c>
-      <c r="C46" s="451" t="s">
+      <c r="C46" s="450" t="s">
         <v>387</v>
       </c>
-      <c r="D46" s="451"/>
+      <c r="D46" s="450"/>
       <c r="E46" s="295" t="s">
         <v>277</v>
       </c>
@@ -22633,12 +22633,12 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="336" t="s">
-        <v>470</v>
-      </c>
-      <c r="C47" s="452" t="s">
         <v>469</v>
       </c>
-      <c r="D47" s="452"/>
+      <c r="C47" s="454" t="s">
+        <v>468</v>
+      </c>
+      <c r="D47" s="454"/>
       <c r="E47" s="295" t="s">
         <v>277</v>
       </c>
@@ -22653,10 +22653,10 @@
       <c r="B48" s="330" t="s">
         <v>294</v>
       </c>
-      <c r="C48" s="447" t="s">
+      <c r="C48" s="463" t="s">
         <v>288</v>
       </c>
-      <c r="D48" s="447"/>
+      <c r="D48" s="463"/>
       <c r="E48" s="330"/>
       <c r="F48" s="330"/>
     </row>
@@ -22664,10 +22664,10 @@
       <c r="A49" s="336" t="s">
         <v>390</v>
       </c>
-      <c r="C49" s="455" t="s">
+      <c r="C49" s="451" t="s">
         <v>388</v>
       </c>
-      <c r="D49" s="455"/>
+      <c r="D49" s="451"/>
       <c r="E49" s="295" t="s">
         <v>277</v>
       </c>
@@ -22679,10 +22679,10 @@
       <c r="A50" s="336" t="s">
         <v>391</v>
       </c>
-      <c r="C50" s="455" t="s">
+      <c r="C50" s="451" t="s">
         <v>389</v>
       </c>
-      <c r="D50" s="455"/>
+      <c r="D50" s="451"/>
       <c r="E50" s="295" t="s">
         <v>277</v>
       </c>
@@ -22694,10 +22694,10 @@
       <c r="A51" s="336" t="s">
         <v>392</v>
       </c>
-      <c r="C51" s="455" t="s">
+      <c r="C51" s="451" t="s">
         <v>393</v>
       </c>
-      <c r="D51" s="455"/>
+      <c r="D51" s="451"/>
       <c r="E51" s="295" t="s">
         <v>277</v>
       </c>
@@ -22709,10 +22709,10 @@
       <c r="A52" s="336" t="s">
         <v>396</v>
       </c>
-      <c r="C52" s="455" t="s">
+      <c r="C52" s="451" t="s">
         <v>394</v>
       </c>
-      <c r="D52" s="455"/>
+      <c r="D52" s="451"/>
       <c r="E52" s="295" t="s">
         <v>277</v>
       </c>
@@ -22722,12 +22722,12 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="336" t="s">
-        <v>471</v>
-      </c>
-      <c r="C53" s="455" t="s">
+        <v>470</v>
+      </c>
+      <c r="C53" s="451" t="s">
         <v>395</v>
       </c>
-      <c r="D53" s="455"/>
+      <c r="D53" s="451"/>
       <c r="E53" s="295" t="s">
         <v>277</v>
       </c>
@@ -22742,10 +22742,10 @@
       <c r="B54" s="330" t="s">
         <v>294</v>
       </c>
-      <c r="C54" s="453" t="s">
+      <c r="C54" s="456" t="s">
         <v>291</v>
       </c>
-      <c r="D54" s="453"/>
+      <c r="D54" s="456"/>
       <c r="E54" s="330"/>
       <c r="F54" s="330"/>
     </row>
@@ -22753,10 +22753,10 @@
       <c r="A55" s="336" t="s">
         <v>419</v>
       </c>
-      <c r="C55" s="455" t="s">
+      <c r="C55" s="451" t="s">
         <v>417</v>
       </c>
-      <c r="D55" s="455"/>
+      <c r="D55" s="451"/>
       <c r="E55" s="295" t="s">
         <v>277</v>
       </c>
@@ -22768,10 +22768,10 @@
       <c r="A56" s="336" t="s">
         <v>420</v>
       </c>
-      <c r="C56" s="455" t="s">
+      <c r="C56" s="451" t="s">
         <v>416</v>
       </c>
-      <c r="D56" s="455"/>
+      <c r="D56" s="451"/>
       <c r="E56" s="295" t="s">
         <v>277</v>
       </c>
@@ -22783,10 +22783,10 @@
       <c r="A57" s="336" t="s">
         <v>421</v>
       </c>
-      <c r="C57" s="455" t="s">
+      <c r="C57" s="451" t="s">
         <v>418</v>
       </c>
-      <c r="D57" s="455"/>
+      <c r="D57" s="451"/>
       <c r="E57" s="295" t="s">
         <v>277</v>
       </c>
@@ -22801,10 +22801,10 @@
       <c r="B58" s="330" t="s">
         <v>294</v>
       </c>
-      <c r="C58" s="453" t="s">
+      <c r="C58" s="456" t="s">
         <v>292</v>
       </c>
-      <c r="D58" s="453"/>
+      <c r="D58" s="456"/>
       <c r="E58" s="330"/>
       <c r="F58" s="330"/>
     </row>
@@ -22812,10 +22812,10 @@
       <c r="A59" s="336" t="s">
         <v>424</v>
       </c>
-      <c r="C59" s="455" t="s">
+      <c r="C59" s="451" t="s">
         <v>422</v>
       </c>
-      <c r="D59" s="455"/>
+      <c r="D59" s="451"/>
       <c r="E59" s="295" t="s">
         <v>277</v>
       </c>
@@ -22827,10 +22827,10 @@
       <c r="A60" s="336" t="s">
         <v>425</v>
       </c>
-      <c r="C60" s="455" t="s">
+      <c r="C60" s="451" t="s">
         <v>423</v>
       </c>
-      <c r="D60" s="455"/>
+      <c r="D60" s="451"/>
       <c r="E60" s="295" t="s">
         <v>277</v>
       </c>
@@ -22839,24 +22839,24 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="459" t="s">
+      <c r="A61" s="455" t="s">
         <v>426</v>
       </c>
-      <c r="B61" s="460" t="s">
+      <c r="B61" s="457" t="s">
         <v>289</v>
       </c>
-      <c r="C61" s="447" t="s">
+      <c r="C61" s="463" t="s">
         <v>290</v>
       </c>
-      <c r="D61" s="447"/>
+      <c r="D61" s="463"/>
       <c r="E61" s="330"/>
       <c r="F61" s="330"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="459"/>
-      <c r="B62" s="460"/>
-      <c r="C62" s="447"/>
-      <c r="D62" s="447"/>
+      <c r="A62" s="455"/>
+      <c r="B62" s="457"/>
+      <c r="C62" s="463"/>
+      <c r="D62" s="463"/>
       <c r="E62" s="330"/>
       <c r="F62" s="330"/>
     </row>
@@ -22864,10 +22864,10 @@
       <c r="A63" s="336" t="s">
         <v>427</v>
       </c>
-      <c r="C63" s="455" t="s">
+      <c r="C63" s="451" t="s">
         <v>403</v>
       </c>
-      <c r="D63" s="455"/>
+      <c r="D63" s="451"/>
       <c r="E63" s="295" t="s">
         <v>277</v>
       </c>
@@ -22879,10 +22879,10 @@
       <c r="A64" s="336" t="s">
         <v>428</v>
       </c>
-      <c r="C64" s="455" t="s">
+      <c r="C64" s="451" t="s">
         <v>397</v>
       </c>
-      <c r="D64" s="455"/>
+      <c r="D64" s="451"/>
       <c r="E64" s="295" t="s">
         <v>277</v>
       </c>
@@ -22894,10 +22894,10 @@
       <c r="A65" s="336" t="s">
         <v>429</v>
       </c>
-      <c r="C65" s="455" t="s">
+      <c r="C65" s="451" t="s">
         <v>399</v>
       </c>
-      <c r="D65" s="455"/>
+      <c r="D65" s="451"/>
       <c r="E65" s="295" t="s">
         <v>277</v>
       </c>
@@ -22909,10 +22909,10 @@
       <c r="A66" s="336" t="s">
         <v>430</v>
       </c>
-      <c r="C66" s="455" t="s">
+      <c r="C66" s="451" t="s">
         <v>400</v>
       </c>
-      <c r="D66" s="455"/>
+      <c r="D66" s="451"/>
       <c r="E66" s="295" t="s">
         <v>277</v>
       </c>
@@ -22924,10 +22924,10 @@
       <c r="A67" s="336" t="s">
         <v>431</v>
       </c>
-      <c r="C67" s="455" t="s">
+      <c r="C67" s="451" t="s">
         <v>401</v>
       </c>
-      <c r="D67" s="455"/>
+      <c r="D67" s="451"/>
       <c r="E67" s="295" t="s">
         <v>277</v>
       </c>
@@ -22939,10 +22939,10 @@
       <c r="A68" s="336" t="s">
         <v>432</v>
       </c>
-      <c r="C68" s="455" t="s">
+      <c r="C68" s="451" t="s">
         <v>402</v>
       </c>
-      <c r="D68" s="455"/>
+      <c r="D68" s="451"/>
       <c r="E68" s="295" t="s">
         <v>277</v>
       </c>
@@ -22954,10 +22954,10 @@
       <c r="A69" s="336" t="s">
         <v>433</v>
       </c>
-      <c r="C69" s="455" t="s">
+      <c r="C69" s="451" t="s">
         <v>404</v>
       </c>
-      <c r="D69" s="455"/>
+      <c r="D69" s="451"/>
       <c r="E69" s="295" t="s">
         <v>277</v>
       </c>
@@ -22969,10 +22969,10 @@
       <c r="A70" s="336" t="s">
         <v>434</v>
       </c>
-      <c r="C70" s="455" t="s">
+      <c r="C70" s="451" t="s">
         <v>405</v>
       </c>
-      <c r="D70" s="455"/>
+      <c r="D70" s="451"/>
       <c r="E70" s="295" t="s">
         <v>277</v>
       </c>
@@ -22982,12 +22982,12 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="336" t="s">
-        <v>473</v>
-      </c>
-      <c r="C71" s="455" t="s">
         <v>472</v>
       </c>
-      <c r="D71" s="455"/>
+      <c r="C71" s="451" t="s">
+        <v>471</v>
+      </c>
+      <c r="D71" s="451"/>
       <c r="E71" s="295" t="s">
         <v>277</v>
       </c>
@@ -22999,10 +22999,10 @@
       <c r="B72" s="330" t="s">
         <v>55</v>
       </c>
-      <c r="C72" s="449" t="s">
+      <c r="C72" s="461" t="s">
         <v>296</v>
       </c>
-      <c r="D72" s="449"/>
+      <c r="D72" s="461"/>
       <c r="E72" s="333"/>
       <c r="F72" s="330"/>
     </row>
@@ -23010,10 +23010,10 @@
       <c r="A73" s="336" t="s">
         <v>88</v>
       </c>
-      <c r="C73" s="448" t="s">
+      <c r="C73" s="453" t="s">
         <v>412</v>
       </c>
-      <c r="D73" s="448"/>
+      <c r="D73" s="453"/>
       <c r="E73" s="332" t="s">
         <v>89</v>
       </c>
@@ -23025,10 +23025,10 @@
       <c r="A74" s="336" t="s">
         <v>398</v>
       </c>
-      <c r="C74" s="448" t="s">
+      <c r="C74" s="453" t="s">
         <v>298</v>
       </c>
-      <c r="D74" s="448"/>
+      <c r="D74" s="453"/>
       <c r="E74" s="332" t="s">
         <v>89</v>
       </c>
@@ -23040,10 +23040,10 @@
       <c r="A75" s="336" t="s">
         <v>406</v>
       </c>
-      <c r="C75" s="455" t="s">
+      <c r="C75" s="451" t="s">
         <v>409</v>
       </c>
-      <c r="D75" s="455"/>
+      <c r="D75" s="451"/>
       <c r="E75" s="332" t="s">
         <v>89</v>
       </c>
@@ -23055,10 +23055,10 @@
       <c r="A76" s="336" t="s">
         <v>407</v>
       </c>
-      <c r="C76" s="455" t="s">
+      <c r="C76" s="451" t="s">
         <v>410</v>
       </c>
-      <c r="D76" s="455"/>
+      <c r="D76" s="451"/>
       <c r="E76" s="332" t="s">
         <v>89</v>
       </c>
@@ -23070,10 +23070,10 @@
       <c r="A77" s="336" t="s">
         <v>408</v>
       </c>
-      <c r="C77" s="455" t="s">
+      <c r="C77" s="451" t="s">
         <v>411</v>
       </c>
-      <c r="D77" s="455"/>
+      <c r="D77" s="451"/>
       <c r="E77" s="332" t="s">
         <v>89</v>
       </c>
@@ -23088,10 +23088,10 @@
       <c r="B78" s="330" t="s">
         <v>256</v>
       </c>
-      <c r="C78" s="454" t="s">
+      <c r="C78" s="452" t="s">
         <v>372</v>
       </c>
-      <c r="D78" s="454"/>
+      <c r="D78" s="452"/>
       <c r="E78" s="333"/>
       <c r="F78" s="330"/>
     </row>
@@ -23099,10 +23099,10 @@
       <c r="A79" s="336" t="s">
         <v>90</v>
       </c>
-      <c r="C79" s="448" t="s">
+      <c r="C79" s="453" t="s">
         <v>435</v>
       </c>
-      <c r="D79" s="448"/>
+      <c r="D79" s="453"/>
       <c r="E79" s="295" t="s">
         <v>277</v>
       </c>
@@ -23114,10 +23114,10 @@
       <c r="A80" s="336" t="s">
         <v>299</v>
       </c>
-      <c r="C80" s="455" t="s">
+      <c r="C80" s="451" t="s">
         <v>436</v>
       </c>
-      <c r="D80" s="455"/>
+      <c r="D80" s="451"/>
       <c r="E80" s="295" t="s">
         <v>277</v>
       </c>
@@ -23129,10 +23129,10 @@
       <c r="A81" s="336" t="s">
         <v>413</v>
       </c>
-      <c r="C81" s="451" t="s">
+      <c r="C81" s="450" t="s">
         <v>437</v>
       </c>
-      <c r="D81" s="451"/>
+      <c r="D81" s="450"/>
       <c r="E81" s="295" t="s">
         <v>277</v>
       </c>
@@ -23144,10 +23144,10 @@
       <c r="A82" s="336" t="s">
         <v>414</v>
       </c>
-      <c r="C82" s="451" t="s">
+      <c r="C82" s="450" t="s">
         <v>438</v>
       </c>
-      <c r="D82" s="451"/>
+      <c r="D82" s="450"/>
       <c r="E82" s="295" t="s">
         <v>277</v>
       </c>
@@ -23159,10 +23159,10 @@
       <c r="A83" s="336" t="s">
         <v>415</v>
       </c>
-      <c r="C83" s="451" t="s">
+      <c r="C83" s="450" t="s">
         <v>439</v>
       </c>
-      <c r="D83" s="451"/>
+      <c r="D83" s="450"/>
       <c r="E83" s="295" t="s">
         <v>277</v>
       </c>
@@ -23174,10 +23174,10 @@
       <c r="A84" s="336" t="s">
         <v>442</v>
       </c>
-      <c r="C84" s="451" t="s">
+      <c r="C84" s="450" t="s">
         <v>440</v>
       </c>
-      <c r="D84" s="451"/>
+      <c r="D84" s="450"/>
       <c r="E84" s="295" t="s">
         <v>277</v>
       </c>
@@ -23189,10 +23189,10 @@
       <c r="A85" s="336" t="s">
         <v>443</v>
       </c>
-      <c r="C85" s="450" t="s">
+      <c r="C85" s="464" t="s">
         <v>441</v>
       </c>
-      <c r="D85" s="450"/>
+      <c r="D85" s="464"/>
       <c r="E85" s="295" t="s">
         <v>277</v>
       </c>
@@ -23201,19 +23201,89 @@
       </c>
     </row>
     <row r="86" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C86" s="446"/>
-      <c r="D86" s="446"/>
+      <c r="C86" s="462"/>
+      <c r="D86" s="462"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C87" s="446"/>
-      <c r="D87" s="446"/>
+      <c r="C87" s="462"/>
+      <c r="D87" s="462"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C88" s="446"/>
-      <c r="D88" s="446"/>
+      <c r="C88" s="462"/>
+      <c r="D88" s="462"/>
     </row>
   </sheetData>
   <mergeCells count="86">
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C61:D62"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
     <mergeCell ref="C83:D83"/>
     <mergeCell ref="C84:D84"/>
     <mergeCell ref="C9:D9"/>
@@ -23230,76 +23300,6 @@
     <mergeCell ref="C79:D79"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C61:D62"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C41:D41"/>
   </mergeCells>
   <conditionalFormatting sqref="E3">
     <cfRule type="containsText" dxfId="374" priority="203" operator="containsText" text="Ei tehdä">
@@ -23950,15 +23950,15 @@
       <c r="O1" s="292"/>
     </row>
     <row r="2" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="465" t="s">
+      <c r="B2" s="473" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="466"/>
-      <c r="D2" s="467" t="s">
+      <c r="C2" s="474"/>
+      <c r="D2" s="475" t="s">
         <v>361</v>
       </c>
-      <c r="E2" s="468"/>
-      <c r="F2" s="469"/>
+      <c r="E2" s="476"/>
+      <c r="F2" s="477"/>
       <c r="J2" s="292"/>
       <c r="K2" s="292"/>
       <c r="L2" s="292"/>
@@ -23969,9 +23969,9 @@
     <row r="3" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="261"/>
       <c r="C3" s="263"/>
-      <c r="D3" s="470"/>
-      <c r="E3" s="471"/>
-      <c r="F3" s="472"/>
+      <c r="D3" s="478"/>
+      <c r="E3" s="479"/>
+      <c r="F3" s="480"/>
       <c r="J3" s="292"/>
       <c r="K3" s="292"/>
       <c r="L3" s="292"/>
@@ -23982,9 +23982,9 @@
     <row r="4" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="261"/>
       <c r="C4" s="263"/>
-      <c r="D4" s="470"/>
-      <c r="E4" s="471"/>
-      <c r="F4" s="472"/>
+      <c r="D4" s="478"/>
+      <c r="E4" s="479"/>
+      <c r="F4" s="480"/>
       <c r="J4" s="292"/>
       <c r="K4" s="292"/>
       <c r="L4" s="292"/>
@@ -23995,9 +23995,9 @@
     <row r="5" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="261"/>
       <c r="C5" s="263"/>
-      <c r="D5" s="470"/>
-      <c r="E5" s="471"/>
-      <c r="F5" s="472"/>
+      <c r="D5" s="478"/>
+      <c r="E5" s="479"/>
+      <c r="F5" s="480"/>
       <c r="J5" s="292"/>
       <c r="K5" s="292"/>
       <c r="L5" s="292"/>
@@ -24008,9 +24008,9 @@
     <row r="6" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="262"/>
       <c r="C6" s="264"/>
-      <c r="D6" s="473"/>
-      <c r="E6" s="474"/>
-      <c r="F6" s="475"/>
+      <c r="D6" s="481"/>
+      <c r="E6" s="482"/>
+      <c r="F6" s="483"/>
       <c r="J6" s="292"/>
       <c r="K6" s="292"/>
       <c r="L6" s="292"/>
@@ -24048,14 +24048,14 @@
       <c r="D9" s="293" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="456" t="s">
+      <c r="E9" s="458" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="457"/>
-      <c r="G9" s="461" t="s">
+      <c r="F9" s="459"/>
+      <c r="G9" s="489" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="462"/>
+      <c r="H9" s="490"/>
       <c r="I9" s="293" t="s">
         <v>54</v>
       </c>
@@ -24081,12 +24081,12 @@
       <c r="D10" s="338" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="454" t="s">
+      <c r="E10" s="452" t="s">
         <v>254</v>
       </c>
-      <c r="F10" s="454"/>
-      <c r="G10" s="463"/>
-      <c r="H10" s="463"/>
+      <c r="F10" s="452"/>
+      <c r="G10" s="491"/>
+      <c r="H10" s="491"/>
       <c r="I10" s="338">
         <v>0</v>
       </c>
@@ -24112,12 +24112,12 @@
       <c r="D11" s="330" t="s">
         <v>256</v>
       </c>
-      <c r="E11" s="449" t="s">
+      <c r="E11" s="461" t="s">
         <v>258</v>
       </c>
-      <c r="F11" s="449"/>
-      <c r="G11" s="463"/>
-      <c r="H11" s="463"/>
+      <c r="F11" s="461"/>
+      <c r="G11" s="491"/>
+      <c r="H11" s="491"/>
       <c r="I11" s="338">
         <v>2</v>
       </c>
@@ -24143,12 +24143,12 @@
       <c r="D12" s="330" t="s">
         <v>256</v>
       </c>
-      <c r="E12" s="454" t="s">
+      <c r="E12" s="452" t="s">
         <v>257</v>
       </c>
-      <c r="F12" s="454"/>
-      <c r="G12" s="463"/>
-      <c r="H12" s="463"/>
+      <c r="F12" s="452"/>
+      <c r="G12" s="491"/>
+      <c r="H12" s="491"/>
       <c r="I12" s="338">
         <v>20</v>
       </c>
@@ -24174,12 +24174,12 @@
       <c r="D13" s="330" t="s">
         <v>294</v>
       </c>
-      <c r="E13" s="453" t="s">
+      <c r="E13" s="456" t="s">
         <v>287</v>
       </c>
-      <c r="F13" s="453"/>
-      <c r="G13" s="463"/>
-      <c r="H13" s="463"/>
+      <c r="F13" s="456"/>
+      <c r="G13" s="491"/>
+      <c r="H13" s="491"/>
       <c r="I13" s="338">
         <v>40</v>
       </c>
@@ -24205,12 +24205,12 @@
       <c r="D14" s="330" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="449" t="s">
+      <c r="E14" s="461" t="s">
         <v>296</v>
       </c>
-      <c r="F14" s="449"/>
-      <c r="G14" s="463"/>
-      <c r="H14" s="463"/>
+      <c r="F14" s="461"/>
+      <c r="G14" s="491"/>
+      <c r="H14" s="491"/>
       <c r="I14" s="338">
         <v>0</v>
       </c>
@@ -24236,12 +24236,12 @@
       <c r="D15" s="330" t="s">
         <v>256</v>
       </c>
-      <c r="E15" s="454" t="s">
+      <c r="E15" s="452" t="s">
         <v>372</v>
       </c>
-      <c r="F15" s="454"/>
-      <c r="G15" s="463"/>
-      <c r="H15" s="463"/>
+      <c r="F15" s="452"/>
+      <c r="G15" s="491"/>
+      <c r="H15" s="491"/>
       <c r="I15" s="338">
         <v>5</v>
       </c>
@@ -24261,10 +24261,10 @@
     </row>
     <row r="16" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D16" s="25"/>
-      <c r="E16" s="484"/>
-      <c r="F16" s="484"/>
-      <c r="G16" s="483"/>
-      <c r="H16" s="483"/>
+      <c r="E16" s="470"/>
+      <c r="F16" s="470"/>
+      <c r="G16" s="469"/>
+      <c r="H16" s="469"/>
       <c r="I16" s="172"/>
       <c r="J16" s="172"/>
       <c r="K16" s="295" t="e">
@@ -24302,8 +24302,8 @@
     <row r="18" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="70"/>
       <c r="D18" s="70"/>
-      <c r="E18" s="488"/>
-      <c r="F18" s="488"/>
+      <c r="E18" s="492"/>
+      <c r="F18" s="492"/>
       <c r="G18" s="22"/>
       <c r="H18" s="22"/>
       <c r="I18" s="172"/>
@@ -24321,11 +24321,11 @@
     </row>
     <row r="19" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="71"/>
-      <c r="C19" s="476" t="s">
+      <c r="C19" s="484" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="477"/>
-      <c r="E19" s="478"/>
+      <c r="D19" s="485"/>
+      <c r="E19" s="486"/>
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
       <c r="H19" s="177" t="s">
@@ -24379,10 +24379,10 @@
       <c r="C21" s="294" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="479" t="s">
+      <c r="D21" s="487" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="480"/>
+      <c r="E21" s="488"/>
       <c r="F21" s="171" t="s">
         <v>61</v>
       </c>
@@ -24432,10 +24432,10 @@
         <v>68</v>
       </c>
       <c r="C22" s="342"/>
-      <c r="D22" s="489" t="s">
+      <c r="D22" s="493" t="s">
         <v>255</v>
       </c>
-      <c r="E22" s="489"/>
+      <c r="E22" s="493"/>
       <c r="F22" s="332" t="s">
         <v>89</v>
       </c>
@@ -24483,10 +24483,10 @@
         <v>70</v>
       </c>
       <c r="C23" s="342"/>
-      <c r="D23" s="485" t="s">
+      <c r="D23" s="471" t="s">
         <v>71</v>
       </c>
-      <c r="E23" s="485"/>
+      <c r="E23" s="471"/>
       <c r="F23" s="332" t="s">
         <v>89</v>
       </c>
@@ -24526,10 +24526,10 @@
         <v>72</v>
       </c>
       <c r="C24" s="344"/>
-      <c r="D24" s="486" t="s">
+      <c r="D24" s="468" t="s">
         <v>259</v>
       </c>
-      <c r="E24" s="486"/>
+      <c r="E24" s="468"/>
       <c r="F24" s="332" t="s">
         <v>89</v>
       </c>
@@ -24610,10 +24610,10 @@
         <v>359</v>
       </c>
       <c r="C26" s="344"/>
-      <c r="D26" s="487" t="s">
+      <c r="D26" s="472" t="s">
         <v>360</v>
       </c>
-      <c r="E26" s="487"/>
+      <c r="E26" s="472"/>
       <c r="F26" s="332" t="s">
         <v>89</v>
       </c>
@@ -24696,10 +24696,10 @@
         <v>73</v>
       </c>
       <c r="C28" s="342"/>
-      <c r="D28" s="464" t="s">
+      <c r="D28" s="467" t="s">
         <v>266</v>
       </c>
-      <c r="E28" s="464"/>
+      <c r="E28" s="467"/>
       <c r="F28" s="332" t="s">
         <v>89</v>
       </c>
@@ -24739,10 +24739,10 @@
         <v>46</v>
       </c>
       <c r="C29" s="342"/>
-      <c r="D29" s="464" t="s">
+      <c r="D29" s="467" t="s">
         <v>267</v>
       </c>
-      <c r="E29" s="464"/>
+      <c r="E29" s="467"/>
       <c r="F29" s="332" t="s">
         <v>89</v>
       </c>
@@ -24782,10 +24782,10 @@
         <v>278</v>
       </c>
       <c r="C30" s="342"/>
-      <c r="D30" s="464" t="s">
+      <c r="D30" s="467" t="s">
         <v>268</v>
       </c>
-      <c r="E30" s="464"/>
+      <c r="E30" s="467"/>
       <c r="F30" s="332" t="s">
         <v>89</v>
       </c>
@@ -24825,10 +24825,10 @@
         <v>279</v>
       </c>
       <c r="C31" s="342"/>
-      <c r="D31" s="464" t="s">
+      <c r="D31" s="467" t="s">
         <v>269</v>
       </c>
-      <c r="E31" s="464"/>
+      <c r="E31" s="467"/>
       <c r="F31" s="332" t="s">
         <v>89</v>
       </c>
@@ -24868,10 +24868,10 @@
         <v>280</v>
       </c>
       <c r="C32" s="342"/>
-      <c r="D32" s="464" t="s">
+      <c r="D32" s="467" t="s">
         <v>270</v>
       </c>
-      <c r="E32" s="464"/>
+      <c r="E32" s="467"/>
       <c r="F32" s="332" t="s">
         <v>89</v>
       </c>
@@ -24911,10 +24911,10 @@
         <v>281</v>
       </c>
       <c r="C33" s="342"/>
-      <c r="D33" s="464" t="s">
+      <c r="D33" s="467" t="s">
         <v>271</v>
       </c>
-      <c r="E33" s="464"/>
+      <c r="E33" s="467"/>
       <c r="F33" s="332" t="s">
         <v>89</v>
       </c>
@@ -24954,10 +24954,10 @@
         <v>282</v>
       </c>
       <c r="C34" s="342"/>
-      <c r="D34" s="464" t="s">
+      <c r="D34" s="467" t="s">
         <v>272</v>
       </c>
-      <c r="E34" s="464"/>
+      <c r="E34" s="467"/>
       <c r="F34" s="332" t="s">
         <v>89</v>
       </c>
@@ -24997,10 +24997,10 @@
         <v>283</v>
       </c>
       <c r="C35" s="342"/>
-      <c r="D35" s="464" t="s">
+      <c r="D35" s="467" t="s">
         <v>273</v>
       </c>
-      <c r="E35" s="464"/>
+      <c r="E35" s="467"/>
       <c r="F35" s="332" t="s">
         <v>89</v>
       </c>
@@ -25040,10 +25040,10 @@
         <v>284</v>
       </c>
       <c r="C36" s="342"/>
-      <c r="D36" s="464" t="s">
+      <c r="D36" s="467" t="s">
         <v>274</v>
       </c>
-      <c r="E36" s="464"/>
+      <c r="E36" s="467"/>
       <c r="F36" s="332" t="s">
         <v>89</v>
       </c>
@@ -25083,10 +25083,10 @@
         <v>285</v>
       </c>
       <c r="C37" s="342"/>
-      <c r="D37" s="464" t="s">
+      <c r="D37" s="467" t="s">
         <v>275</v>
       </c>
-      <c r="E37" s="464"/>
+      <c r="E37" s="467"/>
       <c r="F37" s="332" t="s">
         <v>89</v>
       </c>
@@ -25126,10 +25126,10 @@
         <v>286</v>
       </c>
       <c r="C38" s="342"/>
-      <c r="D38" s="464" t="s">
+      <c r="D38" s="467" t="s">
         <v>276</v>
       </c>
-      <c r="E38" s="464"/>
+      <c r="E38" s="467"/>
       <c r="F38" s="332" t="s">
         <v>89</v>
       </c>
@@ -25212,10 +25212,10 @@
         <v>300</v>
       </c>
       <c r="C40" s="344"/>
-      <c r="D40" s="481" t="s">
+      <c r="D40" s="466" t="s">
         <v>303</v>
       </c>
-      <c r="E40" s="481"/>
+      <c r="E40" s="466"/>
       <c r="F40" s="332" t="s">
         <v>89</v>
       </c>
@@ -25255,10 +25255,10 @@
         <v>301</v>
       </c>
       <c r="C41" s="344"/>
-      <c r="D41" s="481" t="s">
+      <c r="D41" s="466" t="s">
         <v>302</v>
       </c>
-      <c r="E41" s="481"/>
+      <c r="E41" s="466"/>
       <c r="F41" s="332" t="s">
         <v>89</v>
       </c>
@@ -25298,10 +25298,10 @@
         <v>304</v>
       </c>
       <c r="C42" s="344"/>
-      <c r="D42" s="481" t="s">
+      <c r="D42" s="466" t="s">
         <v>336</v>
       </c>
-      <c r="E42" s="481"/>
+      <c r="E42" s="466"/>
       <c r="F42" s="295" t="s">
         <v>277</v>
       </c>
@@ -25339,10 +25339,10 @@
         <v>327</v>
       </c>
       <c r="C43" s="344"/>
-      <c r="D43" s="482" t="s">
+      <c r="D43" s="465" t="s">
         <v>329</v>
       </c>
-      <c r="E43" s="482"/>
+      <c r="E43" s="465"/>
       <c r="F43" s="295" t="s">
         <v>277</v>
       </c>
@@ -25380,10 +25380,10 @@
         <v>305</v>
       </c>
       <c r="C44" s="344"/>
-      <c r="D44" s="481" t="s">
+      <c r="D44" s="466" t="s">
         <v>328</v>
       </c>
-      <c r="E44" s="481"/>
+      <c r="E44" s="466"/>
       <c r="F44" s="295" t="s">
         <v>277</v>
       </c>
@@ -25421,10 +25421,10 @@
         <v>330</v>
       </c>
       <c r="C45" s="344"/>
-      <c r="D45" s="481" t="s">
+      <c r="D45" s="466" t="s">
         <v>337</v>
       </c>
-      <c r="E45" s="481"/>
+      <c r="E45" s="466"/>
       <c r="F45" s="295" t="s">
         <v>277</v>
       </c>
@@ -25462,10 +25462,10 @@
         <v>331</v>
       </c>
       <c r="C46" s="344"/>
-      <c r="D46" s="482" t="s">
+      <c r="D46" s="465" t="s">
         <v>332</v>
       </c>
-      <c r="E46" s="482"/>
+      <c r="E46" s="465"/>
       <c r="F46" s="295" t="s">
         <v>277</v>
       </c>
@@ -25503,10 +25503,10 @@
         <v>333</v>
       </c>
       <c r="C47" s="344"/>
-      <c r="D47" s="482" t="s">
+      <c r="D47" s="465" t="s">
         <v>334</v>
       </c>
-      <c r="E47" s="482"/>
+      <c r="E47" s="465"/>
       <c r="F47" s="295" t="s">
         <v>277</v>
       </c>
@@ -25544,10 +25544,10 @@
         <v>335</v>
       </c>
       <c r="C48" s="344"/>
-      <c r="D48" s="482" t="s">
+      <c r="D48" s="465" t="s">
         <v>345</v>
       </c>
-      <c r="E48" s="482"/>
+      <c r="E48" s="465"/>
       <c r="F48" s="295" t="s">
         <v>277</v>
       </c>
@@ -25585,10 +25585,10 @@
         <v>340</v>
       </c>
       <c r="C49" s="344"/>
-      <c r="D49" s="481" t="s">
+      <c r="D49" s="466" t="s">
         <v>346</v>
       </c>
-      <c r="E49" s="481"/>
+      <c r="E49" s="466"/>
       <c r="F49" s="295" t="s">
         <v>277</v>
       </c>
@@ -25626,10 +25626,10 @@
         <v>343</v>
       </c>
       <c r="C50" s="344"/>
-      <c r="D50" s="482" t="s">
+      <c r="D50" s="465" t="s">
         <v>338</v>
       </c>
-      <c r="E50" s="482"/>
+      <c r="E50" s="465"/>
       <c r="F50" s="295" t="s">
         <v>277</v>
       </c>
@@ -25667,10 +25667,10 @@
         <v>347</v>
       </c>
       <c r="C51" s="344"/>
-      <c r="D51" s="482" t="s">
+      <c r="D51" s="465" t="s">
         <v>339</v>
       </c>
-      <c r="E51" s="482"/>
+      <c r="E51" s="465"/>
       <c r="F51" s="295" t="s">
         <v>277</v>
       </c>
@@ -25708,10 +25708,10 @@
         <v>348</v>
       </c>
       <c r="C52" s="344"/>
-      <c r="D52" s="482" t="s">
+      <c r="D52" s="465" t="s">
         <v>342</v>
       </c>
-      <c r="E52" s="482"/>
+      <c r="E52" s="465"/>
       <c r="F52" s="332" t="s">
         <v>89</v>
       </c>
@@ -25751,10 +25751,10 @@
         <v>349</v>
       </c>
       <c r="C53" s="344"/>
-      <c r="D53" s="482" t="s">
+      <c r="D53" s="465" t="s">
         <v>341</v>
       </c>
-      <c r="E53" s="482"/>
+      <c r="E53" s="465"/>
       <c r="F53" s="295" t="s">
         <v>277</v>
       </c>
@@ -25792,10 +25792,10 @@
         <v>350</v>
       </c>
       <c r="C54" s="344"/>
-      <c r="D54" s="482" t="s">
+      <c r="D54" s="465" t="s">
         <v>344</v>
       </c>
-      <c r="E54" s="482"/>
+      <c r="E54" s="465"/>
       <c r="F54" s="295" t="s">
         <v>277</v>
       </c>
@@ -25833,10 +25833,10 @@
         <v>90</v>
       </c>
       <c r="C55" s="342"/>
-      <c r="D55" s="464" t="s">
+      <c r="D55" s="467" t="s">
         <v>297</v>
       </c>
-      <c r="E55" s="464"/>
+      <c r="E55" s="467"/>
       <c r="F55" s="332" t="s">
         <v>89</v>
       </c>
@@ -25876,10 +25876,10 @@
         <v>299</v>
       </c>
       <c r="C56" s="342"/>
-      <c r="D56" s="464" t="s">
+      <c r="D56" s="467" t="s">
         <v>298</v>
       </c>
-      <c r="E56" s="464"/>
+      <c r="E56" s="467"/>
       <c r="F56" s="332" t="s">
         <v>89</v>
       </c>
@@ -25919,10 +25919,10 @@
         <v>91</v>
       </c>
       <c r="C57" s="344"/>
-      <c r="D57" s="486" t="s">
+      <c r="D57" s="468" t="s">
         <v>373</v>
       </c>
-      <c r="E57" s="486"/>
+      <c r="E57" s="468"/>
       <c r="F57" s="295" t="s">
         <v>277</v>
       </c>
@@ -25944,8 +25944,8 @@
     <row r="58" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="291"/>
       <c r="C58" s="291"/>
-      <c r="D58" s="452"/>
-      <c r="E58" s="452"/>
+      <c r="D58" s="454"/>
+      <c r="E58" s="454"/>
       <c r="F58" s="265"/>
       <c r="G58" s="291"/>
       <c r="H58" s="291"/>
@@ -25965,8 +25965,8 @@
     <row r="59" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="325"/>
       <c r="C59" s="325"/>
-      <c r="D59" s="452"/>
-      <c r="E59" s="452"/>
+      <c r="D59" s="454"/>
+      <c r="E59" s="454"/>
       <c r="F59" s="265"/>
       <c r="G59" s="325"/>
       <c r="H59" s="325"/>
@@ -25986,8 +25986,8 @@
     <row r="60" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="325"/>
       <c r="C60" s="325"/>
-      <c r="D60" s="452"/>
-      <c r="E60" s="452"/>
+      <c r="D60" s="454"/>
+      <c r="E60" s="454"/>
       <c r="F60" s="265"/>
       <c r="G60" s="325"/>
       <c r="H60" s="325"/>
@@ -26007,8 +26007,8 @@
     <row r="61" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="325"/>
       <c r="C61" s="325"/>
-      <c r="D61" s="452"/>
-      <c r="E61" s="452"/>
+      <c r="D61" s="454"/>
+      <c r="E61" s="454"/>
       <c r="F61" s="265"/>
       <c r="G61" s="325"/>
       <c r="H61" s="325"/>
@@ -26028,8 +26028,8 @@
     <row r="62" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="325"/>
       <c r="C62" s="325"/>
-      <c r="D62" s="452"/>
-      <c r="E62" s="452"/>
+      <c r="D62" s="454"/>
+      <c r="E62" s="454"/>
       <c r="F62" s="265"/>
       <c r="G62" s="325"/>
       <c r="H62" s="325"/>
@@ -26049,8 +26049,8 @@
     <row r="63" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="325"/>
       <c r="C63" s="325"/>
-      <c r="D63" s="452"/>
-      <c r="E63" s="452"/>
+      <c r="D63" s="454"/>
+      <c r="E63" s="454"/>
       <c r="F63" s="265"/>
       <c r="G63" s="325"/>
       <c r="H63" s="325"/>
@@ -26070,8 +26070,8 @@
     <row r="64" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="325"/>
       <c r="C64" s="325"/>
-      <c r="D64" s="452"/>
-      <c r="E64" s="452"/>
+      <c r="D64" s="454"/>
+      <c r="E64" s="454"/>
       <c r="F64" s="265"/>
       <c r="G64" s="325"/>
       <c r="H64" s="325"/>
@@ -26091,8 +26091,8 @@
     <row r="65" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="325"/>
       <c r="C65" s="325"/>
-      <c r="D65" s="452"/>
-      <c r="E65" s="452"/>
+      <c r="D65" s="454"/>
+      <c r="E65" s="454"/>
       <c r="F65" s="265"/>
       <c r="G65" s="325"/>
       <c r="H65" s="325"/>
@@ -26332,35 +26332,22 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="D22:E22"/>
     <mergeCell ref="D51:E51"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:F6"/>
@@ -26377,23 +26364,36 @@
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D55:E55"/>
     <mergeCell ref="D54:E54"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
   </mergeCells>
   <conditionalFormatting sqref="F58:F65">
     <cfRule type="containsText" dxfId="226" priority="284" operator="containsText" text="Ei tehdä">
@@ -27229,14 +27229,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="490" t="s">
+      <c r="A1" s="520" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="491"/>
-      <c r="C1" s="491"/>
-      <c r="D1" s="491"/>
-      <c r="E1" s="491"/>
-      <c r="F1" s="492"/>
+      <c r="B1" s="521"/>
+      <c r="C1" s="521"/>
+      <c r="D1" s="521"/>
+      <c r="E1" s="521"/>
+      <c r="F1" s="522"/>
       <c r="G1" s="55"/>
       <c r="H1" s="28"/>
     </row>
@@ -27250,11 +27250,11 @@
       <c r="C2" s="288" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="493" t="s">
+      <c r="D2" s="523" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="493"/>
-      <c r="F2" s="494"/>
+      <c r="E2" s="523"/>
+      <c r="F2" s="524"/>
       <c r="G2" s="61"/>
       <c r="H2" s="28"/>
     </row>
@@ -27267,9 +27267,9 @@
         <v>42.25</v>
       </c>
       <c r="C3" s="176"/>
-      <c r="D3" s="495"/>
-      <c r="E3" s="496"/>
-      <c r="F3" s="497"/>
+      <c r="D3" s="525"/>
+      <c r="E3" s="526"/>
+      <c r="F3" s="527"/>
       <c r="G3" s="55"/>
       <c r="H3" s="28"/>
     </row>
@@ -27282,9 +27282,9 @@
         <v>44.25</v>
       </c>
       <c r="C4" s="176"/>
-      <c r="D4" s="498"/>
-      <c r="E4" s="499"/>
-      <c r="F4" s="500"/>
+      <c r="D4" s="505"/>
+      <c r="E4" s="506"/>
+      <c r="F4" s="507"/>
       <c r="G4" s="55"/>
       <c r="H4" s="28"/>
     </row>
@@ -27292,9 +27292,9 @@
       <c r="A5" s="57"/>
       <c r="B5" s="86"/>
       <c r="C5" s="176"/>
-      <c r="D5" s="498"/>
-      <c r="E5" s="499"/>
-      <c r="F5" s="500"/>
+      <c r="D5" s="505"/>
+      <c r="E5" s="506"/>
+      <c r="F5" s="507"/>
       <c r="G5" s="55"/>
       <c r="H5" s="28"/>
     </row>
@@ -27302,9 +27302,9 @@
       <c r="A6" s="57"/>
       <c r="B6" s="86"/>
       <c r="C6" s="176"/>
-      <c r="D6" s="498"/>
-      <c r="E6" s="499"/>
-      <c r="F6" s="500"/>
+      <c r="D6" s="505"/>
+      <c r="E6" s="506"/>
+      <c r="F6" s="507"/>
       <c r="G6" s="55"/>
       <c r="H6" s="28"/>
     </row>
@@ -27312,9 +27312,9 @@
       <c r="A7" s="58"/>
       <c r="B7" s="86"/>
       <c r="C7" s="176"/>
-      <c r="D7" s="499"/>
-      <c r="E7" s="499"/>
-      <c r="F7" s="499"/>
+      <c r="D7" s="506"/>
+      <c r="E7" s="506"/>
+      <c r="F7" s="506"/>
       <c r="G7" s="50"/>
       <c r="H7" s="28"/>
     </row>
@@ -27329,81 +27329,81 @@
       <c r="H8" s="28"/>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="501" t="s">
+      <c r="A9" s="508" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="503">
+      <c r="B9" s="510">
         <f>SUM(B3:B8)</f>
         <v>86.5</v>
       </c>
-      <c r="C9" s="505" t="str">
+      <c r="C9" s="512" t="str">
         <f>IF((SUM(C3:C7)=0),"",SUM(C3:C7))</f>
         <v/>
       </c>
-      <c r="D9" s="507" t="s">
+      <c r="D9" s="514" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="509">
+      <c r="E9" s="516">
         <f>SUMIF($D$14:$D$103,"Daily scrum / Teams",$E$14:$E$103) / 2</f>
         <v>2.25</v>
       </c>
-      <c r="F9" s="511"/>
+      <c r="F9" s="518"/>
       <c r="G9" s="55"/>
       <c r="H9" s="28"/>
     </row>
     <row r="10" spans="1:8" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="502"/>
-      <c r="B10" s="504"/>
-      <c r="C10" s="506"/>
-      <c r="D10" s="508"/>
-      <c r="E10" s="510"/>
-      <c r="F10" s="512"/>
+      <c r="A10" s="509"/>
+      <c r="B10" s="511"/>
+      <c r="C10" s="513"/>
+      <c r="D10" s="515"/>
+      <c r="E10" s="517"/>
+      <c r="F10" s="519"/>
       <c r="G10" s="55"/>
       <c r="H10" s="28"/>
     </row>
     <row r="11" spans="1:8" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="513" t="s">
+      <c r="A11" s="494" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="514"/>
-      <c r="C11" s="515"/>
-      <c r="D11" s="514"/>
-      <c r="E11" s="516"/>
-      <c r="F11" s="517"/>
+      <c r="B11" s="495"/>
+      <c r="C11" s="496"/>
+      <c r="D11" s="495"/>
+      <c r="E11" s="497"/>
+      <c r="F11" s="498"/>
       <c r="G11" s="61"/>
       <c r="H11" s="28"/>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="518" t="s">
+      <c r="A12" s="499" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="519" t="s">
+      <c r="B12" s="500" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="520" t="s">
+      <c r="C12" s="501" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="521"/>
-      <c r="E12" s="522" t="s">
+      <c r="D12" s="502"/>
+      <c r="E12" s="503" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="523" t="s">
+      <c r="F12" s="504" t="s">
         <v>38</v>
       </c>
       <c r="G12" s="61"/>
       <c r="H12" s="28"/>
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="518"/>
-      <c r="B13" s="519"/>
+      <c r="A13" s="499"/>
+      <c r="B13" s="500"/>
       <c r="C13" s="182" t="s">
         <v>39</v>
       </c>
       <c r="D13" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="522"/>
-      <c r="F13" s="523"/>
+      <c r="E13" s="503"/>
+      <c r="F13" s="504"/>
       <c r="G13" s="61"/>
       <c r="H13" s="28"/>
     </row>
@@ -28719,12 +28719,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="A9:A10"/>
@@ -28733,11 +28732,12 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -28748,8 +28748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEC951F4-6093-4F5B-82FF-EFC01780A0A4}">
   <dimension ref="A2:T63"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -28769,15 +28769,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="465" t="s">
+      <c r="B2" s="473" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="466"/>
-      <c r="D2" s="467" t="s">
-        <v>459</v>
-      </c>
-      <c r="E2" s="468"/>
-      <c r="F2" s="469"/>
+      <c r="C2" s="474"/>
+      <c r="D2" s="475" t="s">
+        <v>482</v>
+      </c>
+      <c r="E2" s="476"/>
+      <c r="F2" s="477"/>
       <c r="K2" s="292"/>
       <c r="L2" s="292"/>
       <c r="M2" s="292"/>
@@ -28787,9 +28787,9 @@
     <row r="3" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="261"/>
       <c r="C3" s="263"/>
-      <c r="D3" s="470"/>
-      <c r="E3" s="471"/>
-      <c r="F3" s="472"/>
+      <c r="D3" s="478"/>
+      <c r="E3" s="479"/>
+      <c r="F3" s="480"/>
       <c r="K3" s="292"/>
       <c r="L3" s="292"/>
       <c r="M3" s="292"/>
@@ -28799,9 +28799,9 @@
     <row r="4" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="261"/>
       <c r="C4" s="263"/>
-      <c r="D4" s="470"/>
-      <c r="E4" s="471"/>
-      <c r="F4" s="472"/>
+      <c r="D4" s="478"/>
+      <c r="E4" s="479"/>
+      <c r="F4" s="480"/>
       <c r="K4" s="292"/>
       <c r="L4" s="292"/>
       <c r="M4" s="292"/>
@@ -28811,9 +28811,9 @@
     <row r="5" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="261"/>
       <c r="C5" s="263"/>
-      <c r="D5" s="470"/>
-      <c r="E5" s="471"/>
-      <c r="F5" s="472"/>
+      <c r="D5" s="478"/>
+      <c r="E5" s="479"/>
+      <c r="F5" s="480"/>
       <c r="K5" s="292"/>
       <c r="L5" s="292"/>
       <c r="M5" s="292"/>
@@ -28823,9 +28823,9 @@
     <row r="6" spans="1:20" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="262"/>
       <c r="C6" s="264"/>
-      <c r="D6" s="473"/>
-      <c r="E6" s="474"/>
-      <c r="F6" s="475"/>
+      <c r="D6" s="481"/>
+      <c r="E6" s="482"/>
+      <c r="F6" s="483"/>
       <c r="K6" s="292"/>
       <c r="L6" s="292"/>
       <c r="M6" s="292"/>
@@ -28869,14 +28869,14 @@
       <c r="D9" s="293" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="456" t="s">
+      <c r="E9" s="458" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="457"/>
-      <c r="G9" s="461" t="s">
+      <c r="F9" s="459"/>
+      <c r="G9" s="489" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="462"/>
+      <c r="H9" s="490"/>
       <c r="I9" s="293" t="s">
         <v>54</v>
       </c>
@@ -28902,12 +28902,12 @@
       <c r="D10" s="25" t="s">
         <v>256</v>
       </c>
-      <c r="E10" s="526" t="s">
+      <c r="E10" s="529" t="s">
         <v>258</v>
       </c>
-      <c r="F10" s="526"/>
-      <c r="G10" s="483"/>
-      <c r="H10" s="483"/>
+      <c r="F10" s="529"/>
+      <c r="G10" s="469"/>
+      <c r="H10" s="469"/>
       <c r="I10" s="172">
         <v>2</v>
       </c>
@@ -28932,12 +28932,12 @@
       <c r="D11" s="25" t="s">
         <v>289</v>
       </c>
-      <c r="E11" s="484" t="s">
+      <c r="E11" s="470" t="s">
         <v>290</v>
       </c>
-      <c r="F11" s="484"/>
-      <c r="G11" s="483"/>
-      <c r="H11" s="483"/>
+      <c r="F11" s="470"/>
+      <c r="G11" s="469"/>
+      <c r="H11" s="469"/>
       <c r="I11" s="295">
         <v>2</v>
       </c>
@@ -28962,12 +28962,12 @@
       <c r="D12" s="25" t="s">
         <v>294</v>
       </c>
-      <c r="E12" s="484" t="s">
-        <v>467</v>
-      </c>
-      <c r="F12" s="484"/>
-      <c r="G12" s="483"/>
-      <c r="H12" s="483"/>
+      <c r="E12" s="470" t="s">
+        <v>466</v>
+      </c>
+      <c r="F12" s="470"/>
+      <c r="G12" s="469"/>
+      <c r="H12" s="469"/>
       <c r="I12" s="295">
         <v>5</v>
       </c>
@@ -29040,11 +29040,11 @@
     </row>
     <row r="15" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="70"/>
-      <c r="C15" s="527" t="s">
+      <c r="C15" s="530" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="528"/>
-      <c r="E15" s="529"/>
+      <c r="D15" s="531"/>
+      <c r="E15" s="532"/>
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
       <c r="H15" s="177" t="s">
@@ -29098,10 +29098,10 @@
       <c r="C17" s="294" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="479" t="s">
+      <c r="D17" s="487" t="s">
         <v>60</v>
       </c>
-      <c r="E17" s="480"/>
+      <c r="E17" s="488"/>
       <c r="F17" s="171" t="s">
         <v>61</v>
       </c>
@@ -29150,10 +29150,10 @@
         <v>357</v>
       </c>
       <c r="C18" s="291"/>
-      <c r="D18" s="526" t="s">
+      <c r="D18" s="529" t="s">
         <v>457</v>
       </c>
-      <c r="E18" s="526"/>
+      <c r="E18" s="529"/>
       <c r="F18" s="332" t="s">
         <v>89</v>
       </c>
@@ -29196,13 +29196,13 @@
     </row>
     <row r="19" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="26" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C19" s="291"/>
-      <c r="D19" s="484" t="s">
+      <c r="D19" s="470" t="s">
         <v>458</v>
       </c>
-      <c r="E19" s="484"/>
+      <c r="E19" s="470"/>
       <c r="F19" s="332" t="s">
         <v>89</v>
       </c>
@@ -29248,10 +29248,10 @@
         <v>300</v>
       </c>
       <c r="C20" s="291"/>
-      <c r="D20" s="484" t="s">
+      <c r="D20" s="470" t="s">
         <v>78</v>
       </c>
-      <c r="E20" s="484"/>
+      <c r="E20" s="470"/>
       <c r="F20" s="332" t="s">
         <v>89</v>
       </c>
@@ -29297,10 +29297,10 @@
         <v>353</v>
       </c>
       <c r="C21" s="357"/>
-      <c r="D21" s="525" t="s">
+      <c r="D21" s="528" t="s">
         <v>385</v>
       </c>
-      <c r="E21" s="525"/>
+      <c r="E21" s="528"/>
       <c r="F21" s="357" t="s">
         <v>74</v>
       </c>
@@ -29326,10 +29326,10 @@
         <v>354</v>
       </c>
       <c r="C22" s="357"/>
-      <c r="D22" s="525" t="s">
+      <c r="D22" s="528" t="s">
         <v>351</v>
       </c>
-      <c r="E22" s="525"/>
+      <c r="E22" s="528"/>
       <c r="F22" s="357" t="s">
         <v>74</v>
       </c>
@@ -29355,10 +29355,10 @@
         <v>355</v>
       </c>
       <c r="C23" s="357"/>
-      <c r="D23" s="525" t="s">
+      <c r="D23" s="528" t="s">
         <v>386</v>
       </c>
-      <c r="E23" s="525"/>
+      <c r="E23" s="528"/>
       <c r="F23" s="357" t="s">
         <v>74</v>
       </c>
@@ -29384,10 +29384,10 @@
         <v>356</v>
       </c>
       <c r="C24" s="357"/>
-      <c r="D24" s="525" t="s">
+      <c r="D24" s="528" t="s">
         <v>387</v>
       </c>
-      <c r="E24" s="525"/>
+      <c r="E24" s="528"/>
       <c r="F24" s="332" t="s">
         <v>89</v>
       </c>
@@ -29413,10 +29413,10 @@
         <v>419</v>
       </c>
       <c r="C25" s="357"/>
-      <c r="D25" s="525" t="s">
+      <c r="D25" s="528" t="s">
         <v>417</v>
       </c>
-      <c r="E25" s="525"/>
+      <c r="E25" s="528"/>
       <c r="F25" s="332" t="s">
         <v>89</v>
       </c>
@@ -29442,10 +29442,10 @@
         <v>420</v>
       </c>
       <c r="C26" s="357"/>
-      <c r="D26" s="525" t="s">
+      <c r="D26" s="528" t="s">
         <v>416</v>
       </c>
-      <c r="E26" s="525"/>
+      <c r="E26" s="528"/>
       <c r="F26" s="332" t="s">
         <v>89</v>
       </c>
@@ -29471,10 +29471,10 @@
         <v>427</v>
       </c>
       <c r="C27" s="291"/>
-      <c r="D27" s="484" t="s">
-        <v>460</v>
-      </c>
-      <c r="E27" s="484"/>
+      <c r="D27" s="470" t="s">
+        <v>459</v>
+      </c>
+      <c r="E27" s="470"/>
       <c r="F27" s="332" t="s">
         <v>89</v>
       </c>
@@ -29520,10 +29520,10 @@
         <v>433</v>
       </c>
       <c r="C28" s="291"/>
-      <c r="D28" s="484" t="s">
-        <v>461</v>
-      </c>
-      <c r="E28" s="484"/>
+      <c r="D28" s="470" t="s">
+        <v>460</v>
+      </c>
+      <c r="E28" s="470"/>
       <c r="F28" s="332" t="s">
         <v>89</v>
       </c>
@@ -29569,10 +29569,10 @@
         <v>429</v>
       </c>
       <c r="C29" s="291"/>
-      <c r="D29" s="484" t="s">
-        <v>462</v>
-      </c>
-      <c r="E29" s="484"/>
+      <c r="D29" s="470" t="s">
+        <v>461</v>
+      </c>
+      <c r="E29" s="470"/>
       <c r="F29" s="356" t="s">
         <v>74</v>
       </c>
@@ -29618,10 +29618,10 @@
         <v>432</v>
       </c>
       <c r="C30" s="291"/>
-      <c r="D30" s="524" t="s">
-        <v>463</v>
-      </c>
-      <c r="E30" s="524"/>
+      <c r="D30" s="533" t="s">
+        <v>462</v>
+      </c>
+      <c r="E30" s="533"/>
       <c r="F30" s="356" t="s">
         <v>74</v>
       </c>
@@ -29667,10 +29667,10 @@
         <v>390</v>
       </c>
       <c r="C31" s="291"/>
-      <c r="D31" s="524" t="s">
-        <v>464</v>
-      </c>
-      <c r="E31" s="524"/>
+      <c r="D31" s="533" t="s">
+        <v>463</v>
+      </c>
+      <c r="E31" s="533"/>
       <c r="F31" s="356" t="s">
         <v>74</v>
       </c>
@@ -29716,10 +29716,10 @@
         <v>431</v>
       </c>
       <c r="C32" s="291"/>
-      <c r="D32" s="484" t="s">
-        <v>465</v>
-      </c>
-      <c r="E32" s="484"/>
+      <c r="D32" s="470" t="s">
+        <v>464</v>
+      </c>
+      <c r="E32" s="470"/>
       <c r="F32" s="332" t="s">
         <v>89</v>
       </c>
@@ -29765,10 +29765,10 @@
         <v>431</v>
       </c>
       <c r="C33" s="291"/>
-      <c r="D33" s="448" t="s">
-        <v>466</v>
-      </c>
-      <c r="E33" s="448"/>
+      <c r="D33" s="453" t="s">
+        <v>465</v>
+      </c>
+      <c r="E33" s="453"/>
       <c r="F33" s="332" t="s">
         <v>89</v>
       </c>
@@ -29812,8 +29812,8 @@
     <row r="34" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="26"/>
       <c r="C34" s="291"/>
-      <c r="D34" s="448"/>
-      <c r="E34" s="448"/>
+      <c r="D34" s="453"/>
+      <c r="E34" s="453"/>
       <c r="F34" s="291"/>
       <c r="G34" s="291"/>
       <c r="H34" s="291"/>
@@ -29833,8 +29833,8 @@
     <row r="35" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="26"/>
       <c r="C35" s="291"/>
-      <c r="D35" s="448"/>
-      <c r="E35" s="448"/>
+      <c r="D35" s="453"/>
+      <c r="E35" s="453"/>
       <c r="F35" s="291"/>
       <c r="G35" s="291"/>
       <c r="H35" s="291"/>
@@ -29854,8 +29854,8 @@
     <row r="36" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="26"/>
       <c r="C36" s="291"/>
-      <c r="D36" s="448"/>
-      <c r="E36" s="448"/>
+      <c r="D36" s="453"/>
+      <c r="E36" s="453"/>
       <c r="F36" s="291"/>
       <c r="G36" s="291"/>
       <c r="H36" s="291"/>
@@ -29875,8 +29875,8 @@
     <row r="37" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="26"/>
       <c r="C37" s="291"/>
-      <c r="D37" s="448"/>
-      <c r="E37" s="448"/>
+      <c r="D37" s="453"/>
+      <c r="E37" s="453"/>
       <c r="F37" s="291"/>
       <c r="G37" s="291"/>
       <c r="H37" s="291"/>
@@ -29896,8 +29896,8 @@
     <row r="38" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="26"/>
       <c r="C38" s="291"/>
-      <c r="D38" s="448"/>
-      <c r="E38" s="448"/>
+      <c r="D38" s="453"/>
+      <c r="E38" s="453"/>
       <c r="F38" s="291"/>
       <c r="G38" s="291"/>
       <c r="H38" s="291"/>
@@ -29917,8 +29917,8 @@
     <row r="39" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="26"/>
       <c r="C39" s="291"/>
-      <c r="D39" s="448"/>
-      <c r="E39" s="448"/>
+      <c r="D39" s="453"/>
+      <c r="E39" s="453"/>
       <c r="F39" s="291"/>
       <c r="G39" s="291"/>
       <c r="H39" s="291"/>
@@ -29938,8 +29938,8 @@
     <row r="40" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="26"/>
       <c r="C40" s="291"/>
-      <c r="D40" s="448"/>
-      <c r="E40" s="448"/>
+      <c r="D40" s="453"/>
+      <c r="E40" s="453"/>
       <c r="F40" s="291"/>
       <c r="G40" s="291"/>
       <c r="H40" s="291"/>
@@ -29959,8 +29959,8 @@
     <row r="41" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="26"/>
       <c r="C41" s="291"/>
-      <c r="D41" s="448"/>
-      <c r="E41" s="448"/>
+      <c r="D41" s="453"/>
+      <c r="E41" s="453"/>
       <c r="F41" s="291"/>
       <c r="G41" s="291"/>
       <c r="H41" s="291"/>
@@ -29980,8 +29980,8 @@
     <row r="42" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="26"/>
       <c r="C42" s="291"/>
-      <c r="D42" s="448"/>
-      <c r="E42" s="448"/>
+      <c r="D42" s="453"/>
+      <c r="E42" s="453"/>
       <c r="F42" s="291"/>
       <c r="G42" s="291"/>
       <c r="H42" s="291"/>
@@ -30001,8 +30001,8 @@
     <row r="43" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="27"/>
       <c r="C43" s="291"/>
-      <c r="D43" s="448"/>
-      <c r="E43" s="448"/>
+      <c r="D43" s="453"/>
+      <c r="E43" s="453"/>
       <c r="F43" s="291"/>
       <c r="G43" s="291"/>
       <c r="H43" s="291"/>
@@ -30022,8 +30022,8 @@
     <row r="44" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="27"/>
       <c r="C44" s="291"/>
-      <c r="D44" s="452"/>
-      <c r="E44" s="452"/>
+      <c r="D44" s="454"/>
+      <c r="E44" s="454"/>
       <c r="F44" s="291"/>
       <c r="G44" s="291"/>
       <c r="H44" s="291"/>
@@ -30043,8 +30043,8 @@
     <row r="45" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="27"/>
       <c r="C45" s="291"/>
-      <c r="D45" s="452"/>
-      <c r="E45" s="452"/>
+      <c r="D45" s="454"/>
+      <c r="E45" s="454"/>
       <c r="F45" s="291"/>
       <c r="G45" s="291"/>
       <c r="H45" s="291"/>
@@ -30064,8 +30064,8 @@
     <row r="46" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="27"/>
       <c r="C46" s="291"/>
-      <c r="D46" s="452"/>
-      <c r="E46" s="452"/>
+      <c r="D46" s="454"/>
+      <c r="E46" s="454"/>
       <c r="F46" s="291"/>
       <c r="G46" s="291"/>
       <c r="H46" s="291"/>
@@ -30085,8 +30085,8 @@
     <row r="47" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="27"/>
       <c r="C47" s="291"/>
-      <c r="D47" s="452"/>
-      <c r="E47" s="452"/>
+      <c r="D47" s="454"/>
+      <c r="E47" s="454"/>
       <c r="F47" s="291"/>
       <c r="G47" s="291"/>
       <c r="H47" s="291"/>
@@ -30106,8 +30106,8 @@
     <row r="48" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="27"/>
       <c r="C48" s="291"/>
-      <c r="D48" s="452"/>
-      <c r="E48" s="452"/>
+      <c r="D48" s="454"/>
+      <c r="E48" s="454"/>
       <c r="F48" s="291"/>
       <c r="G48" s="291"/>
       <c r="H48" s="291"/>
@@ -30127,8 +30127,8 @@
     <row r="49" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="27"/>
       <c r="C49" s="291"/>
-      <c r="D49" s="452"/>
-      <c r="E49" s="452"/>
+      <c r="D49" s="454"/>
+      <c r="E49" s="454"/>
       <c r="F49" s="291"/>
       <c r="G49" s="291"/>
       <c r="H49" s="291"/>
@@ -30148,8 +30148,8 @@
     <row r="50" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="27"/>
       <c r="C50" s="291"/>
-      <c r="D50" s="452"/>
-      <c r="E50" s="452"/>
+      <c r="D50" s="454"/>
+      <c r="E50" s="454"/>
       <c r="F50" s="291"/>
       <c r="G50" s="291"/>
       <c r="H50" s="291"/>
@@ -30169,8 +30169,8 @@
     <row r="51" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="291"/>
       <c r="C51" s="291"/>
-      <c r="D51" s="452"/>
-      <c r="E51" s="452"/>
+      <c r="D51" s="454"/>
+      <c r="E51" s="454"/>
       <c r="F51" s="291"/>
       <c r="G51" s="291"/>
       <c r="H51" s="291"/>
@@ -30190,8 +30190,8 @@
     <row r="52" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="291"/>
       <c r="C52" s="291"/>
-      <c r="D52" s="452"/>
-      <c r="E52" s="452"/>
+      <c r="D52" s="454"/>
+      <c r="E52" s="454"/>
       <c r="F52" s="291"/>
       <c r="G52" s="291"/>
       <c r="H52" s="291"/>
@@ -30211,8 +30211,8 @@
     <row r="53" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="291"/>
       <c r="C53" s="291"/>
-      <c r="D53" s="452"/>
-      <c r="E53" s="452"/>
+      <c r="D53" s="454"/>
+      <c r="E53" s="454"/>
       <c r="F53" s="291"/>
       <c r="G53" s="291"/>
       <c r="H53" s="291"/>
@@ -30232,8 +30232,8 @@
     <row r="54" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="291"/>
       <c r="C54" s="291"/>
-      <c r="D54" s="452"/>
-      <c r="E54" s="452"/>
+      <c r="D54" s="454"/>
+      <c r="E54" s="454"/>
       <c r="F54" s="291"/>
       <c r="G54" s="291"/>
       <c r="H54" s="291"/>
@@ -30468,11 +30468,34 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:F6"/>
@@ -30489,34 +30512,11 @@
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
   </mergeCells>
   <conditionalFormatting sqref="F21:F23 F29:F31 F34:F54">
     <cfRule type="containsText" dxfId="61" priority="51" operator="containsText" text="Ei tehdä">
@@ -30827,7 +30827,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F26D5F6-BB7B-44B2-B46D-B745C885F79C}">
   <dimension ref="A1:H1048521"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A29" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A11" sqref="A11:F11"/>
     </sheetView>
   </sheetViews>
@@ -30844,14 +30844,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="490" t="s">
+      <c r="A1" s="520" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="491"/>
-      <c r="C1" s="491"/>
-      <c r="D1" s="491"/>
-      <c r="E1" s="491"/>
-      <c r="F1" s="492"/>
+      <c r="B1" s="521"/>
+      <c r="C1" s="521"/>
+      <c r="D1" s="521"/>
+      <c r="E1" s="521"/>
+      <c r="F1" s="522"/>
       <c r="G1" s="55"/>
       <c r="H1" s="28"/>
     </row>
@@ -30865,11 +30865,11 @@
       <c r="C2" s="288" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="493" t="s">
+      <c r="D2" s="523" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="493"/>
-      <c r="F2" s="494"/>
+      <c r="E2" s="523"/>
+      <c r="F2" s="524"/>
       <c r="G2" s="61"/>
       <c r="H2" s="28"/>
     </row>
@@ -30882,9 +30882,9 @@
         <v>28</v>
       </c>
       <c r="C3" s="176"/>
-      <c r="D3" s="495"/>
-      <c r="E3" s="496"/>
-      <c r="F3" s="497"/>
+      <c r="D3" s="525"/>
+      <c r="E3" s="526"/>
+      <c r="F3" s="527"/>
       <c r="G3" s="55"/>
       <c r="H3" s="28"/>
     </row>
@@ -30897,9 +30897,9 @@
         <v>27</v>
       </c>
       <c r="C4" s="176"/>
-      <c r="D4" s="498"/>
-      <c r="E4" s="499"/>
-      <c r="F4" s="500"/>
+      <c r="D4" s="505"/>
+      <c r="E4" s="506"/>
+      <c r="F4" s="507"/>
       <c r="G4" s="55"/>
       <c r="H4" s="28"/>
     </row>
@@ -30907,9 +30907,9 @@
       <c r="A5" s="272"/>
       <c r="B5" s="86"/>
       <c r="C5" s="176"/>
-      <c r="D5" s="498"/>
-      <c r="E5" s="499"/>
-      <c r="F5" s="500"/>
+      <c r="D5" s="505"/>
+      <c r="E5" s="506"/>
+      <c r="F5" s="507"/>
       <c r="G5" s="55"/>
       <c r="H5" s="28"/>
     </row>
@@ -30917,9 +30917,9 @@
       <c r="A6" s="272"/>
       <c r="B6" s="86"/>
       <c r="C6" s="176"/>
-      <c r="D6" s="498"/>
-      <c r="E6" s="499"/>
-      <c r="F6" s="500"/>
+      <c r="D6" s="505"/>
+      <c r="E6" s="506"/>
+      <c r="F6" s="507"/>
       <c r="G6" s="55"/>
       <c r="H6" s="28"/>
     </row>
@@ -30927,9 +30927,9 @@
       <c r="A7" s="273"/>
       <c r="B7" s="86"/>
       <c r="C7" s="176"/>
-      <c r="D7" s="499"/>
-      <c r="E7" s="499"/>
-      <c r="F7" s="499"/>
+      <c r="D7" s="506"/>
+      <c r="E7" s="506"/>
+      <c r="F7" s="506"/>
       <c r="G7" s="50"/>
       <c r="H7" s="28"/>
     </row>
@@ -30944,81 +30944,81 @@
       <c r="H8" s="28"/>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="532" t="s">
+      <c r="A9" s="534" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="503">
+      <c r="B9" s="510">
         <f>SUM(B3:B4)</f>
         <v>55</v>
       </c>
-      <c r="C9" s="505" t="str">
+      <c r="C9" s="512" t="str">
         <f>IF((SUM(C3:C7)=0),"",SUM(C3:C7))</f>
         <v/>
       </c>
-      <c r="D9" s="507" t="s">
+      <c r="D9" s="514" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="534">
+      <c r="E9" s="536">
         <f>SUMIF($D$14:$D$103,"Daily scrum / Teams",$E$14:$E$103) / 2</f>
         <v>2</v>
       </c>
-      <c r="F9" s="511"/>
+      <c r="F9" s="518"/>
       <c r="G9" s="55"/>
       <c r="H9" s="28"/>
     </row>
     <row r="10" spans="1:8" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="533"/>
-      <c r="B10" s="504"/>
-      <c r="C10" s="506"/>
-      <c r="D10" s="508"/>
-      <c r="E10" s="535"/>
-      <c r="F10" s="512"/>
+      <c r="A10" s="535"/>
+      <c r="B10" s="511"/>
+      <c r="C10" s="513"/>
+      <c r="D10" s="515"/>
+      <c r="E10" s="537"/>
+      <c r="F10" s="519"/>
       <c r="G10" s="55"/>
       <c r="H10" s="28"/>
     </row>
     <row r="11" spans="1:8" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="513" t="s">
+      <c r="A11" s="494" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="514"/>
-      <c r="C11" s="515"/>
-      <c r="D11" s="514"/>
-      <c r="E11" s="516"/>
-      <c r="F11" s="517"/>
+      <c r="B11" s="495"/>
+      <c r="C11" s="496"/>
+      <c r="D11" s="495"/>
+      <c r="E11" s="497"/>
+      <c r="F11" s="498"/>
       <c r="G11" s="61"/>
       <c r="H11" s="28"/>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="530" t="s">
+      <c r="A12" s="538" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="519" t="s">
+      <c r="B12" s="500" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="520" t="s">
+      <c r="C12" s="501" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="521"/>
-      <c r="E12" s="531" t="s">
+      <c r="D12" s="502"/>
+      <c r="E12" s="539" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="523" t="s">
+      <c r="F12" s="504" t="s">
         <v>38</v>
       </c>
       <c r="G12" s="61"/>
       <c r="H12" s="28"/>
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="530"/>
-      <c r="B13" s="519"/>
+      <c r="A13" s="538"/>
+      <c r="B13" s="500"/>
       <c r="C13" s="182" t="s">
         <v>39</v>
       </c>
       <c r="D13" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="531"/>
-      <c r="F13" s="523"/>
+      <c r="E13" s="539"/>
+      <c r="F13" s="504"/>
       <c r="G13" s="61"/>
       <c r="H13" s="28"/>
     </row>
@@ -31501,25 +31501,25 @@
       <c r="H40" s="28"/>
     </row>
     <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="588">
+      <c r="A41" s="377">
         <v>43960</v>
       </c>
       <c r="B41" s="190" t="s">
         <v>251</v>
       </c>
-      <c r="C41" s="589"/>
+      <c r="C41" s="378"/>
       <c r="D41" s="376" t="s">
         <v>454</v>
       </c>
-      <c r="E41" s="590">
+      <c r="E41" s="379">
         <v>3</v>
       </c>
-      <c r="F41" s="591"/>
+      <c r="F41" s="380"/>
       <c r="G41" s="212"/>
       <c r="H41" s="28"/>
     </row>
     <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="588">
+      <c r="A42" s="377">
         <v>43960</v>
       </c>
       <c r="B42" s="197" t="s">
@@ -31527,7 +31527,7 @@
       </c>
       <c r="C42" s="200"/>
       <c r="D42" s="376" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E42" s="193">
         <v>3</v>
@@ -31545,7 +31545,7 @@
       </c>
       <c r="C43" s="200"/>
       <c r="D43" s="376" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E43" s="193">
         <v>6</v>
@@ -31563,7 +31563,7 @@
       </c>
       <c r="C44" s="200"/>
       <c r="D44" s="376" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E44" s="193">
         <v>5</v>
@@ -31581,7 +31581,7 @@
       </c>
       <c r="C45" s="200"/>
       <c r="D45" s="376" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E45" s="193">
         <v>8</v>
@@ -31599,7 +31599,7 @@
       </c>
       <c r="C46" s="200"/>
       <c r="D46" s="376" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E46" s="193">
         <v>6</v>
@@ -31725,12 +31725,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
@@ -31738,12 +31738,12 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -31753,7 +31753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BEE54FA-3D7F-4951-A18B-4B0A69E0A056}">
   <dimension ref="A2:T66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
@@ -31774,15 +31774,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="465" t="s">
+      <c r="B2" s="473" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="466"/>
-      <c r="D2" s="467" t="s">
-        <v>474</v>
-      </c>
-      <c r="E2" s="468"/>
-      <c r="F2" s="469"/>
+      <c r="C2" s="474"/>
+      <c r="D2" s="475" t="s">
+        <v>473</v>
+      </c>
+      <c r="E2" s="476"/>
+      <c r="F2" s="477"/>
       <c r="K2" s="292"/>
       <c r="L2" s="292"/>
       <c r="M2" s="292"/>
@@ -31792,9 +31792,9 @@
     <row r="3" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="261"/>
       <c r="C3" s="263"/>
-      <c r="D3" s="470"/>
-      <c r="E3" s="471"/>
-      <c r="F3" s="472"/>
+      <c r="D3" s="478"/>
+      <c r="E3" s="479"/>
+      <c r="F3" s="480"/>
       <c r="K3" s="292"/>
       <c r="L3" s="292"/>
       <c r="M3" s="292"/>
@@ -31804,9 +31804,9 @@
     <row r="4" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="261"/>
       <c r="C4" s="263"/>
-      <c r="D4" s="470"/>
-      <c r="E4" s="471"/>
-      <c r="F4" s="472"/>
+      <c r="D4" s="478"/>
+      <c r="E4" s="479"/>
+      <c r="F4" s="480"/>
       <c r="K4" s="292"/>
       <c r="L4" s="292"/>
       <c r="M4" s="292"/>
@@ -31816,9 +31816,9 @@
     <row r="5" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="261"/>
       <c r="C5" s="263"/>
-      <c r="D5" s="470"/>
-      <c r="E5" s="471"/>
-      <c r="F5" s="472"/>
+      <c r="D5" s="478"/>
+      <c r="E5" s="479"/>
+      <c r="F5" s="480"/>
       <c r="K5" s="292"/>
       <c r="L5" s="292"/>
       <c r="M5" s="292"/>
@@ -31828,9 +31828,9 @@
     <row r="6" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="262"/>
       <c r="C6" s="264"/>
-      <c r="D6" s="473"/>
-      <c r="E6" s="474"/>
-      <c r="F6" s="475"/>
+      <c r="D6" s="481"/>
+      <c r="E6" s="482"/>
+      <c r="F6" s="483"/>
       <c r="K6" s="292"/>
       <c r="L6" s="292"/>
       <c r="M6" s="292"/>
@@ -31874,14 +31874,14 @@
       <c r="D9" s="293" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="456" t="s">
+      <c r="E9" s="458" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="457"/>
-      <c r="G9" s="461" t="s">
+      <c r="F9" s="459"/>
+      <c r="G9" s="489" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="462"/>
+      <c r="H9" s="490"/>
       <c r="I9" s="293" t="s">
         <v>54</v>
       </c>
@@ -31908,10 +31908,10 @@
       <c r="D10" s="371" t="s">
         <v>256</v>
       </c>
-      <c r="E10" s="537" t="s">
+      <c r="E10" s="540" t="s">
         <v>257</v>
       </c>
-      <c r="F10" s="537"/>
+      <c r="F10" s="540"/>
       <c r="G10" s="366"/>
       <c r="H10" s="364"/>
       <c r="I10" s="364"/>
@@ -31935,12 +31935,12 @@
       <c r="D11" s="25" t="s">
         <v>294</v>
       </c>
-      <c r="E11" s="536" t="s">
+      <c r="E11" s="541" t="s">
         <v>287</v>
       </c>
-      <c r="F11" s="536"/>
-      <c r="G11" s="483"/>
-      <c r="H11" s="483"/>
+      <c r="F11" s="541"/>
+      <c r="G11" s="469"/>
+      <c r="H11" s="469"/>
       <c r="I11" s="172">
         <v>3</v>
       </c>
@@ -31965,12 +31965,12 @@
       <c r="D12" s="25" t="s">
         <v>294</v>
       </c>
-      <c r="E12" s="484" t="s">
+      <c r="E12" s="470" t="s">
         <v>383</v>
       </c>
-      <c r="F12" s="484"/>
-      <c r="G12" s="483"/>
-      <c r="H12" s="483"/>
+      <c r="F12" s="470"/>
+      <c r="G12" s="469"/>
+      <c r="H12" s="469"/>
       <c r="I12" s="295">
         <v>3</v>
       </c>
@@ -31995,12 +31995,12 @@
       <c r="D13" s="25" t="s">
         <v>294</v>
       </c>
-      <c r="E13" s="484" t="s">
+      <c r="E13" s="470" t="s">
         <v>288</v>
       </c>
-      <c r="F13" s="484"/>
-      <c r="G13" s="483"/>
-      <c r="H13" s="483"/>
+      <c r="F13" s="470"/>
+      <c r="G13" s="469"/>
+      <c r="H13" s="469"/>
       <c r="I13" s="295">
         <v>40</v>
       </c>
@@ -32025,12 +32025,12 @@
       <c r="D14" s="25" t="s">
         <v>294</v>
       </c>
-      <c r="E14" s="484" t="s">
+      <c r="E14" s="470" t="s">
         <v>291</v>
       </c>
-      <c r="F14" s="484"/>
-      <c r="G14" s="483"/>
-      <c r="H14" s="483"/>
+      <c r="F14" s="470"/>
+      <c r="G14" s="469"/>
+      <c r="H14" s="469"/>
       <c r="I14" s="295">
         <v>3</v>
       </c>
@@ -32055,12 +32055,12 @@
       <c r="D15" s="25" t="s">
         <v>294</v>
       </c>
-      <c r="E15" s="484" t="s">
+      <c r="E15" s="470" t="s">
         <v>292</v>
       </c>
-      <c r="F15" s="484"/>
-      <c r="G15" s="483"/>
-      <c r="H15" s="483"/>
+      <c r="F15" s="470"/>
+      <c r="G15" s="469"/>
+      <c r="H15" s="469"/>
       <c r="I15" s="295">
         <v>27</v>
       </c>
@@ -32085,12 +32085,12 @@
       <c r="D16" s="25" t="s">
         <v>289</v>
       </c>
-      <c r="E16" s="484" t="s">
+      <c r="E16" s="470" t="s">
         <v>290</v>
       </c>
-      <c r="F16" s="484"/>
-      <c r="G16" s="483"/>
-      <c r="H16" s="483"/>
+      <c r="F16" s="470"/>
+      <c r="G16" s="469"/>
+      <c r="H16" s="469"/>
       <c r="I16" s="295">
         <v>7</v>
       </c>
@@ -32115,12 +32115,12 @@
       <c r="D17" s="25" t="s">
         <v>256</v>
       </c>
-      <c r="E17" s="484" t="s">
+      <c r="E17" s="470" t="s">
         <v>372</v>
       </c>
-      <c r="F17" s="484"/>
-      <c r="G17" s="483"/>
-      <c r="H17" s="483"/>
+      <c r="F17" s="470"/>
+      <c r="G17" s="469"/>
+      <c r="H17" s="469"/>
       <c r="I17" s="372"/>
       <c r="J17" s="214"/>
       <c r="K17" s="172"/>
@@ -32132,8 +32132,8 @@
     <row r="18" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="70"/>
       <c r="D18" s="70"/>
-      <c r="E18" s="488"/>
-      <c r="F18" s="488"/>
+      <c r="E18" s="492"/>
+      <c r="F18" s="492"/>
       <c r="G18" s="22"/>
       <c r="H18" s="22"/>
       <c r="I18" s="292"/>
@@ -32151,11 +32151,11 @@
     </row>
     <row r="19" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="71"/>
-      <c r="C19" s="476" t="s">
+      <c r="C19" s="484" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="477"/>
-      <c r="E19" s="478"/>
+      <c r="D19" s="485"/>
+      <c r="E19" s="486"/>
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
       <c r="H19" s="177" t="s">
@@ -32209,10 +32209,10 @@
       <c r="C21" s="294" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="479" t="s">
+      <c r="D21" s="487" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="480"/>
+      <c r="E21" s="488"/>
       <c r="F21" s="171" t="s">
         <v>61</v>
       </c>
@@ -32265,10 +32265,10 @@
         <v>0.13402777777777777</v>
       </c>
       <c r="C22" s="375"/>
-      <c r="D22" s="537" t="s">
-        <v>476</v>
-      </c>
-      <c r="E22" s="537"/>
+      <c r="D22" s="540" t="s">
+        <v>475</v>
+      </c>
+      <c r="E22" s="540"/>
       <c r="F22" s="357" t="s">
         <v>74</v>
       </c>
@@ -32294,10 +32294,10 @@
         <v>304</v>
       </c>
       <c r="C23" s="291"/>
-      <c r="D23" s="448" t="s">
+      <c r="D23" s="453" t="s">
         <v>336</v>
       </c>
-      <c r="E23" s="448"/>
+      <c r="E23" s="453"/>
       <c r="F23" s="357" t="s">
         <v>74</v>
       </c>
@@ -32345,10 +32345,10 @@
         <v>327</v>
       </c>
       <c r="C24" s="291"/>
-      <c r="D24" s="448" t="s">
+      <c r="D24" s="453" t="s">
         <v>329</v>
       </c>
-      <c r="E24" s="448"/>
+      <c r="E24" s="453"/>
       <c r="F24" s="357" t="s">
         <v>74</v>
       </c>
@@ -32396,10 +32396,10 @@
         <v>305</v>
       </c>
       <c r="C25" s="291"/>
-      <c r="D25" s="448" t="s">
+      <c r="D25" s="453" t="s">
         <v>328</v>
       </c>
-      <c r="E25" s="448"/>
+      <c r="E25" s="453"/>
       <c r="F25" s="357" t="s">
         <v>74</v>
       </c>
@@ -32447,10 +32447,10 @@
         <v>330</v>
       </c>
       <c r="C26" s="291"/>
-      <c r="D26" s="448" t="s">
+      <c r="D26" s="453" t="s">
         <v>337</v>
       </c>
-      <c r="E26" s="448"/>
+      <c r="E26" s="453"/>
       <c r="F26" s="357" t="s">
         <v>74</v>
       </c>
@@ -32498,10 +32498,10 @@
         <v>331</v>
       </c>
       <c r="C27" s="291"/>
-      <c r="D27" s="448" t="s">
+      <c r="D27" s="453" t="s">
         <v>332</v>
       </c>
-      <c r="E27" s="448"/>
+      <c r="E27" s="453"/>
       <c r="F27" s="357" t="s">
         <v>74</v>
       </c>
@@ -32549,10 +32549,10 @@
         <v>335</v>
       </c>
       <c r="C28" s="291"/>
-      <c r="D28" s="448" t="s">
+      <c r="D28" s="453" t="s">
         <v>345</v>
       </c>
-      <c r="E28" s="448"/>
+      <c r="E28" s="453"/>
       <c r="F28" s="357" t="s">
         <v>74</v>
       </c>
@@ -32600,10 +32600,10 @@
         <v>340</v>
       </c>
       <c r="C29" s="291"/>
-      <c r="D29" s="448" t="s">
+      <c r="D29" s="453" t="s">
         <v>346</v>
       </c>
-      <c r="E29" s="448"/>
+      <c r="E29" s="453"/>
       <c r="F29" s="357" t="s">
         <v>74</v>
       </c>
@@ -32651,10 +32651,10 @@
         <v>343</v>
       </c>
       <c r="C30" s="291"/>
-      <c r="D30" s="448" t="s">
+      <c r="D30" s="453" t="s">
         <v>338</v>
       </c>
-      <c r="E30" s="448"/>
+      <c r="E30" s="453"/>
       <c r="F30" s="357" t="s">
         <v>74</v>
       </c>
@@ -32702,10 +32702,10 @@
         <v>0.20902777777777778</v>
       </c>
       <c r="C31" s="291"/>
-      <c r="D31" s="452" t="s">
+      <c r="D31" s="454" t="s">
         <v>384</v>
       </c>
-      <c r="E31" s="452"/>
+      <c r="E31" s="454"/>
       <c r="F31" s="357" t="s">
         <v>74</v>
       </c>
@@ -32753,10 +32753,10 @@
         <v>0.21249999999999999</v>
       </c>
       <c r="C32" s="291"/>
-      <c r="D32" s="452" t="s">
-        <v>469</v>
-      </c>
-      <c r="E32" s="452"/>
+      <c r="D32" s="454" t="s">
+        <v>468</v>
+      </c>
+      <c r="E32" s="454"/>
       <c r="F32" s="357" t="s">
         <v>74</v>
       </c>
@@ -32782,10 +32782,10 @@
         <v>0.25069444444444444</v>
       </c>
       <c r="C33" s="291"/>
-      <c r="D33" s="452" t="s">
+      <c r="D33" s="454" t="s">
         <v>388</v>
       </c>
-      <c r="E33" s="452"/>
+      <c r="E33" s="454"/>
       <c r="F33" s="357" t="s">
         <v>74</v>
       </c>
@@ -32811,10 +32811,10 @@
         <v>0.25138888888888888</v>
       </c>
       <c r="C34" s="357"/>
-      <c r="D34" s="451" t="s">
+      <c r="D34" s="450" t="s">
         <v>389</v>
       </c>
-      <c r="E34" s="451"/>
+      <c r="E34" s="450"/>
       <c r="F34" s="357" t="s">
         <v>74</v>
       </c>
@@ -32840,10 +32840,10 @@
         <v>0.25208333333333333</v>
       </c>
       <c r="C35" s="291"/>
-      <c r="D35" s="452" t="s">
+      <c r="D35" s="454" t="s">
         <v>393</v>
       </c>
-      <c r="E35" s="452"/>
+      <c r="E35" s="454"/>
       <c r="F35" s="357" t="s">
         <v>74</v>
       </c>
@@ -32869,10 +32869,10 @@
         <v>0.25277777777777777</v>
       </c>
       <c r="C36" s="357"/>
-      <c r="D36" s="451" t="s">
+      <c r="D36" s="450" t="s">
         <v>394</v>
       </c>
-      <c r="E36" s="451"/>
+      <c r="E36" s="450"/>
       <c r="F36" s="357" t="s">
         <v>74</v>
       </c>
@@ -32898,10 +32898,10 @@
         <v>0.25347222222222221</v>
       </c>
       <c r="C37" s="357"/>
-      <c r="D37" s="451" t="s">
+      <c r="D37" s="450" t="s">
         <v>395</v>
       </c>
-      <c r="E37" s="451"/>
+      <c r="E37" s="450"/>
       <c r="F37" s="357" t="s">
         <v>74</v>
       </c>
@@ -32927,10 +32927,10 @@
         <v>0.29375000000000001</v>
       </c>
       <c r="C38" s="291"/>
-      <c r="D38" s="452" t="s">
+      <c r="D38" s="454" t="s">
         <v>418</v>
       </c>
-      <c r="E38" s="452"/>
+      <c r="E38" s="454"/>
       <c r="F38" s="357" t="s">
         <v>74</v>
       </c>
@@ -32956,10 +32956,10 @@
         <v>0.37777777777777777</v>
       </c>
       <c r="C39" s="357"/>
-      <c r="D39" s="451" t="s">
+      <c r="D39" s="450" t="s">
         <v>400</v>
       </c>
-      <c r="E39" s="451"/>
+      <c r="E39" s="450"/>
       <c r="F39" s="357" t="s">
         <v>74</v>
       </c>
@@ -32985,10 +32985,10 @@
         <v>0.38055555555555554</v>
       </c>
       <c r="C40" s="357"/>
-      <c r="D40" s="451" t="s">
+      <c r="D40" s="450" t="s">
         <v>405</v>
       </c>
-      <c r="E40" s="451"/>
+      <c r="E40" s="450"/>
       <c r="F40" s="357" t="s">
         <v>74</v>
       </c>
@@ -33014,10 +33014,10 @@
         <v>0.45902777777777781</v>
       </c>
       <c r="C41" s="357"/>
-      <c r="D41" s="451" t="s">
+      <c r="D41" s="450" t="s">
         <v>435</v>
       </c>
-      <c r="E41" s="451"/>
+      <c r="E41" s="450"/>
       <c r="F41" s="357" t="s">
         <v>74</v>
       </c>
@@ -33043,10 +33043,10 @@
         <v>0.4597222222222222</v>
       </c>
       <c r="C42" s="357"/>
-      <c r="D42" s="451" t="s">
+      <c r="D42" s="450" t="s">
         <v>436</v>
       </c>
-      <c r="E42" s="451"/>
+      <c r="E42" s="450"/>
       <c r="F42" s="357" t="s">
         <v>74</v>
       </c>
@@ -33072,10 +33072,10 @@
         <v>0.4604166666666667</v>
       </c>
       <c r="C43" s="291"/>
-      <c r="D43" s="452" t="s">
+      <c r="D43" s="454" t="s">
         <v>437</v>
       </c>
-      <c r="E43" s="452"/>
+      <c r="E43" s="454"/>
       <c r="F43" s="357" t="s">
         <v>74</v>
       </c>
@@ -33101,10 +33101,10 @@
         <v>0.46111111111111108</v>
       </c>
       <c r="C44" s="357"/>
-      <c r="D44" s="451" t="s">
+      <c r="D44" s="450" t="s">
         <v>438</v>
       </c>
-      <c r="E44" s="451"/>
+      <c r="E44" s="450"/>
       <c r="F44" s="357" t="s">
         <v>74</v>
       </c>
@@ -33130,10 +33130,10 @@
         <v>0.46180555555555558</v>
       </c>
       <c r="C45" s="357"/>
-      <c r="D45" s="451" t="s">
+      <c r="D45" s="450" t="s">
         <v>439</v>
       </c>
-      <c r="E45" s="451"/>
+      <c r="E45" s="450"/>
       <c r="F45" s="357" t="s">
         <v>74</v>
       </c>
@@ -33159,10 +33159,10 @@
         <v>0.46249999999999997</v>
       </c>
       <c r="C46" s="357"/>
-      <c r="D46" s="451" t="s">
+      <c r="D46" s="450" t="s">
         <v>440</v>
       </c>
-      <c r="E46" s="451"/>
+      <c r="E46" s="450"/>
       <c r="F46" s="357" t="s">
         <v>74</v>
       </c>
@@ -33188,10 +33188,10 @@
         <v>0.46319444444444446</v>
       </c>
       <c r="C47" s="357"/>
-      <c r="D47" s="451" t="s">
+      <c r="D47" s="450" t="s">
         <v>441</v>
       </c>
-      <c r="E47" s="451"/>
+      <c r="E47" s="450"/>
       <c r="F47" s="357" t="s">
         <v>74</v>
       </c>
@@ -33215,8 +33215,8 @@
     <row r="48" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="357"/>
       <c r="C48" s="357"/>
-      <c r="D48" s="451"/>
-      <c r="E48" s="451"/>
+      <c r="D48" s="450"/>
+      <c r="E48" s="450"/>
       <c r="F48" s="357"/>
       <c r="G48" s="357"/>
       <c r="H48" s="357"/>
@@ -33236,8 +33236,8 @@
     <row r="49" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="291"/>
       <c r="C49" s="291"/>
-      <c r="D49" s="452"/>
-      <c r="E49" s="452"/>
+      <c r="D49" s="454"/>
+      <c r="E49" s="454"/>
       <c r="F49" s="291"/>
       <c r="G49" s="291"/>
       <c r="H49" s="291"/>
@@ -33538,44 +33538,6 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:F6"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D36:E36"/>
     <mergeCell ref="D49:E49"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="D32:E32"/>
@@ -33588,6 +33550,44 @@
     <mergeCell ref="D48:E48"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="D42:E42"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:F6"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D36:E36"/>
   </mergeCells>
   <conditionalFormatting sqref="F48:F49">
     <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="Ei tehdä">
@@ -33625,7 +33625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FD4C817-DC78-44EC-9644-97E861771B84}">
   <dimension ref="A1:H124"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
@@ -33642,14 +33642,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="490" t="s">
+      <c r="A1" s="520" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="491"/>
-      <c r="C1" s="491"/>
-      <c r="D1" s="491"/>
-      <c r="E1" s="491"/>
-      <c r="F1" s="492"/>
+      <c r="B1" s="521"/>
+      <c r="C1" s="521"/>
+      <c r="D1" s="521"/>
+      <c r="E1" s="521"/>
+      <c r="F1" s="522"/>
       <c r="G1" s="55"/>
       <c r="H1" s="28"/>
     </row>
@@ -33663,11 +33663,11 @@
       <c r="C2" s="288" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="493" t="s">
+      <c r="D2" s="523" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="493"/>
-      <c r="F2" s="494"/>
+      <c r="E2" s="523"/>
+      <c r="F2" s="524"/>
       <c r="G2" s="61"/>
       <c r="H2" s="28"/>
     </row>
@@ -33680,9 +33680,9 @@
         <v>15</v>
       </c>
       <c r="C3" s="176"/>
-      <c r="D3" s="495"/>
-      <c r="E3" s="496"/>
-      <c r="F3" s="497"/>
+      <c r="D3" s="525"/>
+      <c r="E3" s="526"/>
+      <c r="F3" s="527"/>
       <c r="G3" s="55"/>
       <c r="H3" s="28"/>
     </row>
@@ -33695,9 +33695,9 @@
         <v>13.5</v>
       </c>
       <c r="C4" s="176"/>
-      <c r="D4" s="498"/>
-      <c r="E4" s="499"/>
-      <c r="F4" s="500"/>
+      <c r="D4" s="505"/>
+      <c r="E4" s="506"/>
+      <c r="F4" s="507"/>
       <c r="G4" s="55"/>
       <c r="H4" s="28"/>
     </row>
@@ -33705,9 +33705,9 @@
       <c r="A5" s="57"/>
       <c r="B5" s="86"/>
       <c r="C5" s="176"/>
-      <c r="D5" s="498"/>
-      <c r="E5" s="499"/>
-      <c r="F5" s="500"/>
+      <c r="D5" s="505"/>
+      <c r="E5" s="506"/>
+      <c r="F5" s="507"/>
       <c r="G5" s="55"/>
       <c r="H5" s="28"/>
     </row>
@@ -33715,9 +33715,9 @@
       <c r="A6" s="57"/>
       <c r="B6" s="86"/>
       <c r="C6" s="176"/>
-      <c r="D6" s="498"/>
-      <c r="E6" s="499"/>
-      <c r="F6" s="500"/>
+      <c r="D6" s="505"/>
+      <c r="E6" s="506"/>
+      <c r="F6" s="507"/>
       <c r="G6" s="55"/>
       <c r="H6" s="28"/>
     </row>
@@ -33725,9 +33725,9 @@
       <c r="A7" s="58"/>
       <c r="B7" s="86"/>
       <c r="C7" s="176"/>
-      <c r="D7" s="499"/>
-      <c r="E7" s="499"/>
-      <c r="F7" s="499"/>
+      <c r="D7" s="506"/>
+      <c r="E7" s="506"/>
+      <c r="F7" s="506"/>
       <c r="G7" s="50"/>
       <c r="H7" s="28"/>
     </row>
@@ -33742,80 +33742,80 @@
       <c r="H8" s="28"/>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="501" t="s">
+      <c r="A9" s="508" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="503">
+      <c r="B9" s="510">
         <f>SUM(B3:B8)</f>
         <v>28.5</v>
       </c>
-      <c r="C9" s="505" t="str">
+      <c r="C9" s="512" t="str">
         <f>IF((SUM(C3:C7)=0),"",SUM(C3:C7))</f>
         <v/>
       </c>
-      <c r="D9" s="507" t="s">
+      <c r="D9" s="514" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="534">
+      <c r="E9" s="536">
         <v>16.5</v>
       </c>
-      <c r="F9" s="511"/>
+      <c r="F9" s="518"/>
       <c r="G9" s="55"/>
       <c r="H9" s="28"/>
     </row>
     <row r="10" spans="1:8" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="502"/>
-      <c r="B10" s="504"/>
-      <c r="C10" s="506"/>
-      <c r="D10" s="508"/>
-      <c r="E10" s="535"/>
-      <c r="F10" s="512"/>
+      <c r="A10" s="509"/>
+      <c r="B10" s="511"/>
+      <c r="C10" s="513"/>
+      <c r="D10" s="515"/>
+      <c r="E10" s="537"/>
+      <c r="F10" s="519"/>
       <c r="G10" s="55"/>
       <c r="H10" s="28"/>
     </row>
     <row r="11" spans="1:8" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="513" t="s">
+      <c r="A11" s="494" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="514"/>
-      <c r="C11" s="515"/>
-      <c r="D11" s="514"/>
-      <c r="E11" s="516"/>
-      <c r="F11" s="517"/>
+      <c r="B11" s="495"/>
+      <c r="C11" s="496"/>
+      <c r="D11" s="495"/>
+      <c r="E11" s="497"/>
+      <c r="F11" s="498"/>
       <c r="G11" s="61"/>
       <c r="H11" s="28"/>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="518" t="s">
+      <c r="A12" s="499" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="519" t="s">
+      <c r="B12" s="500" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="520" t="s">
+      <c r="C12" s="501" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="521"/>
-      <c r="E12" s="531" t="s">
+      <c r="D12" s="502"/>
+      <c r="E12" s="539" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="523" t="s">
+      <c r="F12" s="504" t="s">
         <v>38</v>
       </c>
       <c r="G12" s="61"/>
       <c r="H12" s="28"/>
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="518"/>
-      <c r="B13" s="519"/>
+      <c r="A13" s="499"/>
+      <c r="B13" s="500"/>
       <c r="C13" s="182" t="s">
         <v>39</v>
       </c>
       <c r="D13" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="531"/>
-      <c r="F13" s="523"/>
+      <c r="E13" s="539"/>
+      <c r="F13" s="504"/>
       <c r="G13" s="61"/>
       <c r="H13" s="28"/>
     </row>
@@ -33860,7 +33860,7 @@
       </c>
       <c r="C16" s="197"/>
       <c r="D16" s="192" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E16" s="193">
         <v>0.25</v>
@@ -33878,7 +33878,7 @@
       </c>
       <c r="C17" s="197"/>
       <c r="D17" s="192" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E17" s="193">
         <v>0.25</v>
@@ -33928,7 +33928,7 @@
       </c>
       <c r="C20" s="191"/>
       <c r="D20" s="192" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E20" s="193">
         <v>0.25</v>
@@ -33946,7 +33946,7 @@
       </c>
       <c r="C21" s="191"/>
       <c r="D21" s="192" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E21" s="193">
         <v>0.25</v>
@@ -33996,7 +33996,7 @@
       </c>
       <c r="C24" s="191"/>
       <c r="D24" s="192" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E24" s="193">
         <v>0.25</v>
@@ -34014,7 +34014,7 @@
       </c>
       <c r="C25" s="197"/>
       <c r="D25" s="192" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E25" s="193">
         <v>0.25</v>
@@ -34064,7 +34064,7 @@
       </c>
       <c r="C28" s="191"/>
       <c r="D28" s="192" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E28" s="193">
         <v>0.25</v>
@@ -34082,7 +34082,7 @@
       </c>
       <c r="C29" s="197"/>
       <c r="D29" s="192" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E29" s="193">
         <v>0.25</v>
@@ -34132,7 +34132,7 @@
       </c>
       <c r="C32" s="191"/>
       <c r="D32" s="192" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E32" s="193">
         <v>0.25</v>
@@ -34150,7 +34150,7 @@
       </c>
       <c r="C33" s="191"/>
       <c r="D33" s="192" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E33" s="193">
         <v>0.25</v>
@@ -34200,7 +34200,7 @@
       </c>
       <c r="C36" s="197"/>
       <c r="D36" s="192" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E36" s="193">
         <v>0.25</v>
@@ -34218,7 +34218,7 @@
       </c>
       <c r="C37" s="197"/>
       <c r="D37" s="192" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E37" s="193">
         <v>0.25</v>
@@ -34268,7 +34268,7 @@
       </c>
       <c r="C40" s="191"/>
       <c r="D40" s="192" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E40" s="193">
         <v>0.25</v>
@@ -34286,7 +34286,7 @@
       </c>
       <c r="C41" s="191"/>
       <c r="D41" s="192" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E41" s="193">
         <v>0.25</v>
@@ -34336,7 +34336,7 @@
       </c>
       <c r="C44" s="197"/>
       <c r="D44" s="192" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E44" s="193">
         <v>0.25</v>
@@ -34354,7 +34354,7 @@
       </c>
       <c r="C45" s="197"/>
       <c r="D45" s="192" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E45" s="193">
         <v>0.25</v>
@@ -34885,12 +34885,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
@@ -34898,24 +34898,21 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -35077,15 +35074,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58957FBC-4CB2-4E5D-9BCC-B24CB64EA848}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A54E358B-517D-4392-B403-2ECFF28C0FE6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="aec78b04-9439-499f-911c-68c5b1e9ccff"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -35109,17 +35117,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A54E358B-517D-4392-B403-2ECFF28C0FE6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58957FBC-4CB2-4E5D-9BCC-B24CB64EA848}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="aec78b04-9439-499f-911c-68c5b1e9ccff"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>